--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D4F7A0-169F-4B63-8876-9A0BFFF5AD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0338747B-43EC-403C-AE2A-6751154A8FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1004">
   <si>
     <t>ID</t>
   </si>
@@ -2512,9 +2512,6 @@
     <t>Gresham House Holdings Ltd</t>
   </si>
   <si>
-    <t>https://greshamhouse.com/row/join-our-team/</t>
-  </si>
-  <si>
     <t>Imprima</t>
   </si>
   <si>
@@ -3029,6 +3026,12 @@
   </si>
   <si>
     <t>https://wellfound.com/company/weezyuk/jobs</t>
+  </si>
+  <si>
+    <t>https://greshamhouse.com/join-our-team/</t>
+  </si>
+  <si>
+    <t>https://jobs.deepl.com/jobs</t>
   </si>
 </sst>
 </file>
@@ -3612,8 +3615,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C437" sqref="C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8221,7 +8224,7 @@
         <v>636</v>
       </c>
       <c r="C292" s="30" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>3</v>
@@ -8566,7 +8569,7 @@
         <v>679</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>3</v>
@@ -9720,7 +9723,7 @@
       <c r="B392" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="C392" s="22" t="s">
+      <c r="C392" s="30" t="s">
         <v>687</v>
       </c>
       <c r="D392" s="10" t="s">
@@ -9735,7 +9738,7 @@
       <c r="B393" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="C393" s="22" t="s">
+      <c r="C393" s="30" t="s">
         <v>474</v>
       </c>
       <c r="D393" s="10" t="s">
@@ -9750,7 +9753,7 @@
       <c r="B394" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="C394" s="22" t="s">
+      <c r="C394" s="30" t="s">
         <v>690</v>
       </c>
       <c r="D394" s="10" t="s">
@@ -9765,7 +9768,7 @@
       <c r="B395" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="C395" s="22" t="s">
+      <c r="C395" s="30" t="s">
         <v>692</v>
       </c>
       <c r="D395" s="10" t="s">
@@ -9780,7 +9783,7 @@
       <c r="B396" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="C396" s="22" t="s">
+      <c r="C396" s="30" t="s">
         <v>694</v>
       </c>
       <c r="D396" s="10" t="s">
@@ -9795,7 +9798,7 @@
       <c r="B397" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="C397" s="22" t="s">
+      <c r="C397" s="30" t="s">
         <v>696</v>
       </c>
       <c r="D397" s="10" t="s">
@@ -9810,7 +9813,7 @@
       <c r="B398" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="C398" s="22" t="s">
+      <c r="C398" s="30" t="s">
         <v>698</v>
       </c>
       <c r="D398" s="10" t="s">
@@ -9825,7 +9828,7 @@
       <c r="B399" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="C399" s="22" t="s">
+      <c r="C399" s="30" t="s">
         <v>700</v>
       </c>
       <c r="D399" s="10" t="s">
@@ -9840,7 +9843,7 @@
       <c r="B400" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="C400" s="22" t="s">
+      <c r="C400" s="30" t="s">
         <v>702</v>
       </c>
       <c r="D400" s="10" t="s">
@@ -9855,7 +9858,7 @@
       <c r="B401" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="C401" s="22" t="s">
+      <c r="C401" s="30" t="s">
         <v>704</v>
       </c>
       <c r="D401" s="10" t="s">
@@ -9870,7 +9873,7 @@
       <c r="B402" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="C402" s="22" t="s">
+      <c r="C402" s="30" t="s">
         <v>706</v>
       </c>
       <c r="D402" s="10" t="s">
@@ -9885,7 +9888,7 @@
       <c r="B403" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="C403" s="22" t="s">
+      <c r="C403" s="30" t="s">
         <v>708</v>
       </c>
       <c r="D403" s="10" t="s">
@@ -9900,7 +9903,7 @@
       <c r="B404" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C404" s="22" t="s">
+      <c r="C404" s="30" t="s">
         <v>648</v>
       </c>
       <c r="D404" s="10" t="s">
@@ -9915,7 +9918,7 @@
       <c r="B405" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="C405" s="22" t="s">
+      <c r="C405" s="30" t="s">
         <v>711</v>
       </c>
       <c r="D405" s="10" t="s">
@@ -9930,7 +9933,7 @@
       <c r="B406" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="C406" s="22" t="s">
+      <c r="C406" s="30" t="s">
         <v>713</v>
       </c>
       <c r="D406" s="10" t="s">
@@ -9945,7 +9948,7 @@
       <c r="B407" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="C407" s="22" t="s">
+      <c r="C407" s="30" t="s">
         <v>715</v>
       </c>
       <c r="D407" s="10" t="s">
@@ -9960,7 +9963,7 @@
       <c r="B408" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="C408" s="22" t="s">
+      <c r="C408" s="30" t="s">
         <v>717</v>
       </c>
       <c r="D408" s="10" t="s">
@@ -9975,7 +9978,7 @@
       <c r="B409" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C409" s="22" t="s">
+      <c r="C409" s="30" t="s">
         <v>809</v>
       </c>
       <c r="D409" s="10" t="s">
@@ -9990,7 +9993,7 @@
       <c r="B410" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="C410" s="22" t="s">
+      <c r="C410" s="30" t="s">
         <v>811</v>
       </c>
       <c r="D410" s="10" t="s">
@@ -10005,7 +10008,7 @@
       <c r="B411" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C411" s="22" t="s">
+      <c r="C411" s="30" t="s">
         <v>812</v>
       </c>
       <c r="D411" s="10" t="s">
@@ -10020,7 +10023,7 @@
       <c r="B412" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="C412" s="22" t="s">
+      <c r="C412" s="30" t="s">
         <v>814</v>
       </c>
       <c r="D412" s="10" t="s">
@@ -10035,7 +10038,7 @@
       <c r="B413" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="C413" s="22" t="s">
+      <c r="C413" s="30" t="s">
         <v>816</v>
       </c>
       <c r="D413" s="10" t="s">
@@ -10050,7 +10053,7 @@
       <c r="B414" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="C414" s="22" t="s">
+      <c r="C414" s="30" t="s">
         <v>640</v>
       </c>
       <c r="D414" s="10" t="s">
@@ -10065,7 +10068,7 @@
       <c r="B415" s="22" t="s">
         <v>818</v>
       </c>
-      <c r="C415" s="22" t="s">
+      <c r="C415" s="30" t="s">
         <v>819</v>
       </c>
       <c r="D415" s="10" t="s">
@@ -10080,7 +10083,7 @@
       <c r="B416" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="C416" s="22" t="s">
+      <c r="C416" s="30" t="s">
         <v>821</v>
       </c>
       <c r="D416" s="10" t="s">
@@ -10095,7 +10098,7 @@
       <c r="B417" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C417" s="22" t="s">
+      <c r="C417" s="30" t="s">
         <v>822</v>
       </c>
       <c r="D417" s="10" t="s">
@@ -10110,7 +10113,7 @@
       <c r="B418" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="C418" s="22" t="s">
+      <c r="C418" s="30" t="s">
         <v>824</v>
       </c>
       <c r="D418" s="10" t="s">
@@ -10125,7 +10128,7 @@
       <c r="B419" s="22" t="s">
         <v>825</v>
       </c>
-      <c r="C419" s="22" t="s">
+      <c r="C419" s="30" t="s">
         <v>826</v>
       </c>
       <c r="D419" s="10" t="s">
@@ -10140,7 +10143,7 @@
       <c r="B420" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="C420" s="22" t="s">
+      <c r="C420" s="30" t="s">
         <v>828</v>
       </c>
       <c r="D420" s="10" t="s">
@@ -10155,8 +10158,8 @@
       <c r="B421" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="C421" s="22" t="s">
-        <v>830</v>
+      <c r="C421" s="30" t="s">
+        <v>1002</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>3</v>
@@ -10168,10 +10171,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="C422" s="22" t="s">
         <v>831</v>
-      </c>
-      <c r="C422" s="22" t="s">
-        <v>832</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>3</v>
@@ -10183,10 +10186,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="C423" s="22" t="s">
         <v>833</v>
-      </c>
-      <c r="C423" s="22" t="s">
-        <v>834</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>3</v>
@@ -10198,9 +10201,9 @@
         <v>423</v>
       </c>
       <c r="B424" s="22" t="s">
-        <v>835</v>
-      </c>
-      <c r="C424" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="C424" s="30" t="s">
         <v>631</v>
       </c>
       <c r="D424" s="10" t="s">
@@ -10213,10 +10216,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="C425" s="30" t="s">
         <v>836</v>
-      </c>
-      <c r="C425" s="22" t="s">
-        <v>837</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>3</v>
@@ -10228,10 +10231,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="C426" s="30" t="s">
         <v>838</v>
-      </c>
-      <c r="C426" s="22" t="s">
-        <v>839</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>3</v>
@@ -10243,10 +10246,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="C427" s="30" t="s">
         <v>840</v>
-      </c>
-      <c r="C427" s="22" t="s">
-        <v>841</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>3</v>
@@ -10258,10 +10261,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="C428" s="22" t="s">
         <v>842</v>
-      </c>
-      <c r="C428" s="22" t="s">
-        <v>843</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>3</v>
@@ -10273,10 +10276,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="C429" s="22" t="s">
         <v>844</v>
-      </c>
-      <c r="C429" s="22" t="s">
-        <v>845</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>3</v>
@@ -10288,10 +10291,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="C430" s="22" t="s">
         <v>846</v>
-      </c>
-      <c r="C430" s="22" t="s">
-        <v>847</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>3</v>
@@ -10303,10 +10306,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="C431" s="22" t="s">
         <v>848</v>
-      </c>
-      <c r="C431" s="22" t="s">
-        <v>849</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>3</v>
@@ -10318,10 +10321,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="C432" s="22" t="s">
         <v>850</v>
-      </c>
-      <c r="C432" s="22" t="s">
-        <v>851</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>3</v>
@@ -10333,10 +10336,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="C433" s="22" t="s">
         <v>852</v>
-      </c>
-      <c r="C433" s="22" t="s">
-        <v>853</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>3</v>
@@ -10348,10 +10351,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C434" s="22" t="s">
         <v>854</v>
-      </c>
-      <c r="C434" s="22" t="s">
-        <v>855</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>3</v>
@@ -10363,10 +10366,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="C435" s="22" t="s">
         <v>856</v>
-      </c>
-      <c r="C435" s="22" t="s">
-        <v>857</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>3</v>
@@ -10378,10 +10381,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="C436" s="22" t="s">
         <v>858</v>
-      </c>
-      <c r="C436" s="22" t="s">
-        <v>859</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>3</v>
@@ -10393,10 +10396,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="C437" s="22" t="s">
-        <v>702</v>
+        <v>859</v>
+      </c>
+      <c r="C437" s="30" t="s">
+        <v>1003</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>3</v>
@@ -10408,10 +10411,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="C438" s="22" t="s">
         <v>861</v>
-      </c>
-      <c r="C438" s="22" t="s">
-        <v>862</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>3</v>
@@ -10423,7 +10426,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="22" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C439" s="22" t="s">
         <v>557</v>
@@ -10438,10 +10441,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="C440" s="22" t="s">
         <v>864</v>
-      </c>
-      <c r="C440" s="22" t="s">
-        <v>865</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>3</v>
@@ -10453,10 +10456,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="C441" s="22" t="s">
         <v>866</v>
-      </c>
-      <c r="C441" s="22" t="s">
-        <v>867</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>3</v>
@@ -10468,10 +10471,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="C442" s="22" t="s">
         <v>868</v>
-      </c>
-      <c r="C442" s="22" t="s">
-        <v>869</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>3</v>
@@ -10483,10 +10486,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="C443" s="22" t="s">
         <v>870</v>
-      </c>
-      <c r="C443" s="22" t="s">
-        <v>871</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>3</v>
@@ -10498,7 +10501,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="22" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C444" s="22" t="s">
         <v>525</v>
@@ -10513,10 +10516,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="C445" s="22" t="s">
         <v>873</v>
-      </c>
-      <c r="C445" s="22" t="s">
-        <v>874</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>3</v>
@@ -10528,10 +10531,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="C446" s="22" t="s">
         <v>875</v>
-      </c>
-      <c r="C446" s="22" t="s">
-        <v>876</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>3</v>
@@ -10543,10 +10546,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="22" t="s">
+        <v>876</v>
+      </c>
+      <c r="C447" s="22" t="s">
         <v>877</v>
-      </c>
-      <c r="C447" s="22" t="s">
-        <v>878</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>3</v>
@@ -10561,7 +10564,7 @@
         <v>207</v>
       </c>
       <c r="C448" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>3</v>
@@ -10573,10 +10576,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="C449" s="22" t="s">
         <v>880</v>
-      </c>
-      <c r="C449" s="22" t="s">
-        <v>881</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>3</v>
@@ -10588,10 +10591,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="C450" s="30" t="s">
         <v>882</v>
-      </c>
-      <c r="C450" s="22" t="s">
-        <v>883</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>3</v>
@@ -10603,10 +10606,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="C451" s="30" t="s">
         <v>884</v>
-      </c>
-      <c r="C451" s="22" t="s">
-        <v>885</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>3</v>
@@ -10618,9 +10621,9 @@
         <v>451</v>
       </c>
       <c r="B452" s="22" t="s">
-        <v>886</v>
-      </c>
-      <c r="C452" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="C452" s="30" t="s">
         <v>353</v>
       </c>
       <c r="D452" s="10" t="s">
@@ -10633,10 +10636,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="C453" s="22" t="s">
         <v>887</v>
-      </c>
-      <c r="C453" s="22" t="s">
-        <v>888</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>3</v>
@@ -10648,10 +10651,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="C454" s="22" t="s">
         <v>889</v>
-      </c>
-      <c r="C454" s="22" t="s">
-        <v>890</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>3</v>
@@ -10663,10 +10666,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="C455" s="22" t="s">
         <v>891</v>
-      </c>
-      <c r="C455" s="22" t="s">
-        <v>892</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>3</v>
@@ -10678,10 +10681,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="C456" s="22" t="s">
         <v>893</v>
-      </c>
-      <c r="C456" s="22" t="s">
-        <v>894</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>3</v>
@@ -10693,10 +10696,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="C457" s="22" t="s">
         <v>895</v>
-      </c>
-      <c r="C457" s="22" t="s">
-        <v>896</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>3</v>
@@ -10708,10 +10711,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="C458" s="22" t="s">
         <v>897</v>
-      </c>
-      <c r="C458" s="22" t="s">
-        <v>898</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>3</v>
@@ -10723,10 +10726,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="C459" s="22" t="s">
         <v>899</v>
-      </c>
-      <c r="C459" s="22" t="s">
-        <v>900</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>3</v>
@@ -10738,10 +10741,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="22" t="s">
+        <v>900</v>
+      </c>
+      <c r="C460" s="22" t="s">
         <v>901</v>
-      </c>
-      <c r="C460" s="22" t="s">
-        <v>902</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>3</v>
@@ -10756,7 +10759,7 @@
         <v>255</v>
       </c>
       <c r="C461" s="22" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>3</v>
@@ -10798,10 +10801,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="C464" s="22" t="s">
         <v>904</v>
-      </c>
-      <c r="C464" s="22" t="s">
-        <v>905</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>3</v>
@@ -10813,10 +10816,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="C465" s="22" t="s">
         <v>906</v>
-      </c>
-      <c r="C465" s="22" t="s">
-        <v>907</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>3</v>
@@ -10828,10 +10831,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="C466" s="22" t="s">
         <v>908</v>
-      </c>
-      <c r="C466" s="22" t="s">
-        <v>909</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>3</v>
@@ -10843,10 +10846,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="C467" s="22" t="s">
         <v>910</v>
-      </c>
-      <c r="C467" s="22" t="s">
-        <v>911</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>3</v>
@@ -10858,10 +10861,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="C468" s="22" t="s">
         <v>912</v>
-      </c>
-      <c r="C468" s="22" t="s">
-        <v>913</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>3</v>
@@ -10873,10 +10876,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="C469" s="22" t="s">
         <v>914</v>
-      </c>
-      <c r="C469" s="22" t="s">
-        <v>915</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>3</v>
@@ -10888,10 +10891,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C470" s="22" t="s">
         <v>916</v>
-      </c>
-      <c r="C470" s="22" t="s">
-        <v>917</v>
       </c>
       <c r="D470" s="10" t="s">
         <v>3</v>
@@ -10903,10 +10906,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="C471" s="22" t="s">
         <v>918</v>
-      </c>
-      <c r="C471" s="22" t="s">
-        <v>919</v>
       </c>
       <c r="D471" s="10" t="s">
         <v>3</v>
@@ -10918,10 +10921,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="C472" s="22" t="s">
         <v>920</v>
-      </c>
-      <c r="C472" s="22" t="s">
-        <v>921</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>3</v>
@@ -10933,10 +10936,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="C473" s="22" t="s">
         <v>922</v>
-      </c>
-      <c r="C473" s="22" t="s">
-        <v>923</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>3</v>
@@ -10948,7 +10951,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C474" s="22" t="s">
         <v>535</v>
@@ -10963,10 +10966,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="C475" s="22" t="s">
         <v>925</v>
-      </c>
-      <c r="C475" s="22" t="s">
-        <v>926</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>3</v>
@@ -10978,10 +10981,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="C476" s="22" t="s">
         <v>927</v>
-      </c>
-      <c r="C476" s="22" t="s">
-        <v>928</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>3</v>
@@ -10993,10 +10996,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="C477" s="22" t="s">
         <v>929</v>
-      </c>
-      <c r="C477" s="22" t="s">
-        <v>930</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>3</v>
@@ -11008,7 +11011,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C478" s="22" t="s">
         <v>421</v>
@@ -11023,10 +11026,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="C479" s="22" t="s">
         <v>932</v>
-      </c>
-      <c r="C479" s="22" t="s">
-        <v>933</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>3</v>
@@ -11053,10 +11056,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="C481" s="22" t="s">
         <v>934</v>
-      </c>
-      <c r="C481" s="22" t="s">
-        <v>935</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>3</v>
@@ -11068,10 +11071,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="22" t="s">
+        <v>935</v>
+      </c>
+      <c r="C482" s="22" t="s">
         <v>936</v>
-      </c>
-      <c r="C482" s="22" t="s">
-        <v>937</v>
       </c>
       <c r="D482" s="10" t="s">
         <v>3</v>
@@ -11083,7 +11086,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C483" s="22" t="s">
         <v>241</v>
@@ -11098,10 +11101,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="C484" s="22" t="s">
         <v>939</v>
-      </c>
-      <c r="C484" s="22" t="s">
-        <v>940</v>
       </c>
       <c r="D484" s="10" t="s">
         <v>3</v>
@@ -11113,10 +11116,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="C485" s="22" t="s">
         <v>941</v>
-      </c>
-      <c r="C485" s="22" t="s">
-        <v>942</v>
       </c>
       <c r="D485" s="10" t="s">
         <v>3</v>
@@ -11128,10 +11131,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="C486" s="22" t="s">
         <v>943</v>
-      </c>
-      <c r="C486" s="22" t="s">
-        <v>944</v>
       </c>
       <c r="D486" s="10" t="s">
         <v>3</v>
@@ -11143,10 +11146,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="C487" s="22" t="s">
         <v>945</v>
-      </c>
-      <c r="C487" s="22" t="s">
-        <v>946</v>
       </c>
       <c r="D487" s="10" t="s">
         <v>3</v>
@@ -11158,10 +11161,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C488" s="22" t="s">
         <v>947</v>
-      </c>
-      <c r="C488" s="22" t="s">
-        <v>948</v>
       </c>
       <c r="D488" s="10" t="s">
         <v>3</v>
@@ -11173,10 +11176,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="C489" s="22" t="s">
         <v>949</v>
-      </c>
-      <c r="C489" s="22" t="s">
-        <v>950</v>
       </c>
       <c r="D489" s="10" t="s">
         <v>3</v>
@@ -11188,10 +11191,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="C490" s="22" t="s">
         <v>951</v>
-      </c>
-      <c r="C490" s="22" t="s">
-        <v>952</v>
       </c>
       <c r="D490" s="10" t="s">
         <v>3</v>
@@ -11203,10 +11206,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="C491" s="22" t="s">
         <v>953</v>
-      </c>
-      <c r="C491" s="22" t="s">
-        <v>954</v>
       </c>
       <c r="D491" s="10" t="s">
         <v>3</v>
@@ -11218,10 +11221,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="C492" s="22" t="s">
         <v>955</v>
-      </c>
-      <c r="C492" s="22" t="s">
-        <v>956</v>
       </c>
       <c r="D492" s="10" t="s">
         <v>3</v>
@@ -11248,10 +11251,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="C494" s="22" t="s">
         <v>957</v>
-      </c>
-      <c r="C494" s="22" t="s">
-        <v>958</v>
       </c>
       <c r="D494" s="10" t="s">
         <v>3</v>
@@ -11263,10 +11266,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="C495" s="22" t="s">
         <v>959</v>
-      </c>
-      <c r="C495" s="22" t="s">
-        <v>960</v>
       </c>
       <c r="D495" s="10" t="s">
         <v>3</v>
@@ -11278,10 +11281,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="C496" s="22" t="s">
         <v>961</v>
-      </c>
-      <c r="C496" s="22" t="s">
-        <v>962</v>
       </c>
       <c r="D496" s="10" t="s">
         <v>3</v>
@@ -11293,10 +11296,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="26" t="s">
+        <v>962</v>
+      </c>
+      <c r="C497" s="25" t="s">
         <v>963</v>
-      </c>
-      <c r="C497" s="25" t="s">
-        <v>964</v>
       </c>
       <c r="D497" s="10" t="s">
         <v>3</v>
@@ -11308,10 +11311,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="C498" s="25" t="s">
         <v>965</v>
-      </c>
-      <c r="C498" s="25" t="s">
-        <v>966</v>
       </c>
       <c r="D498" s="10" t="s">
         <v>3</v>
@@ -11323,10 +11326,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="26" t="s">
+        <v>966</v>
+      </c>
+      <c r="C499" s="25" t="s">
         <v>967</v>
-      </c>
-      <c r="C499" s="25" t="s">
-        <v>968</v>
       </c>
       <c r="D499" s="10" t="s">
         <v>3</v>
@@ -11338,10 +11341,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="C500" s="25" t="s">
         <v>969</v>
-      </c>
-      <c r="C500" s="25" t="s">
-        <v>970</v>
       </c>
       <c r="D500" s="10" t="s">
         <v>3</v>
@@ -11353,10 +11356,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="C501" s="25" t="s">
         <v>971</v>
-      </c>
-      <c r="C501" s="25" t="s">
-        <v>972</v>
       </c>
       <c r="D501" s="10" t="s">
         <v>3</v>
@@ -11368,10 +11371,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="C502" s="25" t="s">
         <v>973</v>
-      </c>
-      <c r="C502" s="25" t="s">
-        <v>974</v>
       </c>
       <c r="D502" s="10" t="s">
         <v>3</v>
@@ -11383,10 +11386,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="C503" s="25" t="s">
         <v>975</v>
-      </c>
-      <c r="C503" s="25" t="s">
-        <v>976</v>
       </c>
       <c r="D503" s="10" t="s">
         <v>3</v>
@@ -11398,10 +11401,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="26" t="s">
+        <v>976</v>
+      </c>
+      <c r="C504" s="25" t="s">
         <v>977</v>
-      </c>
-      <c r="C504" s="25" t="s">
-        <v>978</v>
       </c>
       <c r="D504" s="10" t="s">
         <v>3</v>
@@ -11413,10 +11416,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="26" t="s">
+        <v>978</v>
+      </c>
+      <c r="C505" s="25" t="s">
         <v>979</v>
-      </c>
-      <c r="C505" s="25" t="s">
-        <v>980</v>
       </c>
       <c r="D505" s="10" t="s">
         <v>3</v>
@@ -11428,10 +11431,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="C506" s="25" t="s">
         <v>981</v>
-      </c>
-      <c r="C506" s="25" t="s">
-        <v>982</v>
       </c>
       <c r="D506" s="10" t="s">
         <v>3</v>
@@ -11443,10 +11446,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="C507" s="25" t="s">
         <v>983</v>
-      </c>
-      <c r="C507" s="25" t="s">
-        <v>984</v>
       </c>
       <c r="D507" s="10" t="s">
         <v>3</v>
@@ -11458,10 +11461,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="C508" s="25" t="s">
         <v>985</v>
-      </c>
-      <c r="C508" s="25" t="s">
-        <v>986</v>
       </c>
       <c r="D508" s="10" t="s">
         <v>3</v>
@@ -11473,10 +11476,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="C509" s="25" t="s">
         <v>987</v>
-      </c>
-      <c r="C509" s="25" t="s">
-        <v>988</v>
       </c>
       <c r="D509" s="10" t="s">
         <v>3</v>
@@ -11488,10 +11491,10 @@
         <v>509</v>
       </c>
       <c r="B510" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="C510" s="25" t="s">
         <v>989</v>
-      </c>
-      <c r="C510" s="25" t="s">
-        <v>990</v>
       </c>
       <c r="D510" s="10" t="s">
         <v>3</v>
@@ -11503,10 +11506,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="C511" s="25" t="s">
         <v>991</v>
-      </c>
-      <c r="C511" s="25" t="s">
-        <v>992</v>
       </c>
       <c r="D511" s="10" t="s">
         <v>3</v>
@@ -11518,10 +11521,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="C512" s="25" t="s">
         <v>993</v>
-      </c>
-      <c r="C512" s="25" t="s">
-        <v>994</v>
       </c>
       <c r="D512" s="10" t="s">
         <v>3</v>
@@ -11533,10 +11536,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="26" t="s">
+        <v>994</v>
+      </c>
+      <c r="C513" s="25" t="s">
         <v>995</v>
-      </c>
-      <c r="C513" s="25" t="s">
-        <v>996</v>
       </c>
       <c r="D513" s="10" t="s">
         <v>3</v>
@@ -11548,10 +11551,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="26" t="s">
+        <v>996</v>
+      </c>
+      <c r="C514" s="25" t="s">
         <v>997</v>
-      </c>
-      <c r="C514" s="25" t="s">
-        <v>998</v>
       </c>
       <c r="D514" s="10" t="s">
         <v>3</v>
@@ -11563,10 +11566,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="26" t="s">
+        <v>998</v>
+      </c>
+      <c r="C515" s="30" t="s">
         <v>999</v>
-      </c>
-      <c r="C515" s="25" t="s">
-        <v>1000</v>
       </c>
       <c r="D515" s="18" t="s">
         <v>3</v>
@@ -14990,10 +14993,48 @@
     <hyperlink ref="C512" r:id="rId18" tooltip="https://www.ezesoft.com/careers" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C513" r:id="rId19" tooltip="https://www.stlpartners.com/careers/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="C514" r:id="rId20" tooltip="https://careers.itv.com/teams/technology/on-demand/britbox" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C515" r:id="rId21" tooltip="https://www.berkeleypartnership.com/careers/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C515" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="C315" r:id="rId22" xr:uid="{FC3E8CDC-2B3A-4B7F-9278-7B02D024C646}"/>
     <hyperlink ref="C292" r:id="rId23" xr:uid="{B1381550-2E48-4785-8BA0-6C35DE6954EB}"/>
     <hyperlink ref="C274" r:id="rId24" xr:uid="{318DDD91-BF61-447A-A22C-383E98B79E00}"/>
+    <hyperlink ref="C392" r:id="rId25" xr:uid="{EA203C21-E073-4B7A-9AB4-09CD0BCD553D}"/>
+    <hyperlink ref="C393" r:id="rId26" xr:uid="{F0ED5DC1-FC4E-419D-8B5C-BA07BA65517A}"/>
+    <hyperlink ref="C394" r:id="rId27" xr:uid="{65FDE3C5-7067-40FE-B4F7-9E16875109B4}"/>
+    <hyperlink ref="C395" r:id="rId28" xr:uid="{16B540B4-5751-4823-9D5F-C02C4799B17E}"/>
+    <hyperlink ref="C396" r:id="rId29" location="roles" xr:uid="{0929ECDA-0DFA-4DD3-900F-F3E4FBD2027C}"/>
+    <hyperlink ref="C397" r:id="rId30" xr:uid="{8B79FEDA-D424-4559-AF0E-0916474BD578}"/>
+    <hyperlink ref="C398" r:id="rId31" xr:uid="{1256453D-1210-4FD9-A74A-A1E9786DB84B}"/>
+    <hyperlink ref="C399" r:id="rId32" location="jobs" xr:uid="{BCB00C3C-6FBC-4813-A16F-5C2505095C61}"/>
+    <hyperlink ref="C400" r:id="rId33" xr:uid="{C4A2FFC8-14D5-49FD-90E9-00ABB6BDB31C}"/>
+    <hyperlink ref="C437" r:id="rId34" xr:uid="{0139729F-BAAB-4C38-A8E2-B59CB25EE69F}"/>
+    <hyperlink ref="C401" r:id="rId35" xr:uid="{B697BFD2-88D3-4D83-92D9-1B0A5D3BAC9D}"/>
+    <hyperlink ref="C402" r:id="rId36" xr:uid="{81D725BD-7535-4FBB-90DA-9FC6DA670957}"/>
+    <hyperlink ref="C403" r:id="rId37" xr:uid="{E8D7919B-15D4-4AA9-945E-F1032A24E8B8}"/>
+    <hyperlink ref="C404" r:id="rId38" location="jobs" xr:uid="{9C48450F-5BDC-4070-A43E-1F89A6AF53F8}"/>
+    <hyperlink ref="C405" r:id="rId39" xr:uid="{A360798D-F27E-4A9B-B49C-047EBAD80658}"/>
+    <hyperlink ref="C406" r:id="rId40" xr:uid="{DF809B02-FB44-4A5C-AB5E-9148CB668685}"/>
+    <hyperlink ref="C407" r:id="rId41" location="job-list" xr:uid="{8FB6F01D-9356-43F4-9791-79C662EED13F}"/>
+    <hyperlink ref="C408" r:id="rId42" xr:uid="{5EA00F73-40D6-4486-9C4D-A353C16A3537}"/>
+    <hyperlink ref="C409" r:id="rId43" display="https://careers.allianz.com/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=&amp;quatFlag=false" xr:uid="{9DDCE8D5-69C0-4C7B-90ED-58239E8A6024}"/>
+    <hyperlink ref="C411" r:id="rId44" xr:uid="{36D433ED-9A9F-4DCE-BCF1-1227DDD9BA6B}"/>
+    <hyperlink ref="C412" r:id="rId45" location="openroles" xr:uid="{0404523C-E9FF-46EB-8886-9A583C59C68F}"/>
+    <hyperlink ref="C413" r:id="rId46" xr:uid="{B0A4868A-45D6-401C-8E2D-3DE648ACD657}"/>
+    <hyperlink ref="C414" r:id="rId47" xr:uid="{DC75BEC6-0F30-4DC9-B92D-63D42B5EE187}"/>
+    <hyperlink ref="C415" r:id="rId48" xr:uid="{FCE72AB8-EE8F-4219-A103-76A8348EC151}"/>
+    <hyperlink ref="C416" r:id="rId49" xr:uid="{CBA578DF-ADD2-441B-B040-E6D737377B70}"/>
+    <hyperlink ref="C420" r:id="rId50" xr:uid="{C57A2FF6-2DCF-47DF-A5DE-ECF1C5CB0330}"/>
+    <hyperlink ref="C419" r:id="rId51" xr:uid="{9A062AB9-9B7A-493A-9D05-B871ECDC9A2D}"/>
+    <hyperlink ref="C424" r:id="rId52" xr:uid="{E51F7536-25EC-4B02-A937-E7CF451E9658}"/>
+    <hyperlink ref="C425" r:id="rId53" xr:uid="{3CD5E2FC-69C8-4A84-88A1-D7B6E69F6DBE}"/>
+    <hyperlink ref="C426" r:id="rId54" xr:uid="{6B9D9F38-4AFE-4512-BFA4-872D3AE4BAF0}"/>
+    <hyperlink ref="C427" r:id="rId55" xr:uid="{73D09FB4-6502-4194-9DDA-FDA5C65D35AD}"/>
+    <hyperlink ref="C452" r:id="rId56" xr:uid="{7E367282-32C6-4328-9B9F-345C714A5624}"/>
+    <hyperlink ref="C451" r:id="rId57" xr:uid="{41887FC9-A4C8-4072-9E13-462F503EC127}"/>
+    <hyperlink ref="C450" r:id="rId58" xr:uid="{92724B91-691D-4F03-A0FA-4A11238FEA2D}"/>
+    <hyperlink ref="C410" r:id="rId59" location="ashby_embed" xr:uid="{61B15E8A-83A2-48AE-B3B8-1504BB418017}"/>
+    <hyperlink ref="C417" r:id="rId60" xr:uid="{958512C5-6FFF-45CD-A2C7-211ED67B2106}"/>
+    <hyperlink ref="C418" r:id="rId61" xr:uid="{C5BFEB43-151E-41FA-A44A-11E69FCFF4D9}"/>
+    <hyperlink ref="C421" r:id="rId62" xr:uid="{094F6661-EC43-4D08-91B9-E1D1E8B7E7A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730D0C36-0DA6-45E3-BE9B-5466FA75D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29865" windowHeight="13290"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="1089">
   <si>
     <t>ID</t>
   </si>
@@ -3278,19 +3284,16 @@
   </si>
   <si>
     <t>https://tapi.bamboohr.com/careers</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3351,144 +3354,8 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3519,194 +3386,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3807,249 +3488,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4118,7 +3560,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4147,7 +3589,7 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4160,9 +3602,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4199,61 +3641,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4538,32 +3937,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="73.4380952380952" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.6666666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="46.3333333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="20.8666666666667" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="73.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="23.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4580,13 +3980,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4602,14 +4002,14 @@
       <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4625,8 +4025,11 @@
       <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="96.75" customHeight="1" spans="1:5">
+      <c r="F3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="96.75" customHeight="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4643,7 +4046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4660,7 +4063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:5">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4677,7 +4080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4694,7 +4097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4711,7 +4114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4728,7 +4131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4745,7 +4148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:5">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4762,7 +4165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:5">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4779,7 +4182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:5">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4796,7 +4199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -4813,7 +4216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:5">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4830,7 +4233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="1:5">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4847,7 +4250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4864,7 +4267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4881,7 +4284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4898,7 +4301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="19.5" customHeight="1">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4915,7 +4318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="19.5" customHeight="1">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4932,7 +4335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="19.5" customHeight="1">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -4949,7 +4352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="19.5" customHeight="1">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -4966,7 +4369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="19.5" customHeight="1">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -4983,7 +4386,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" ht="45.75" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="45.75" customHeight="1">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -5000,7 +4403,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" ht="19.5" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="19.5" customHeight="1">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -5017,7 +4420,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" ht="19.5" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="19.5" customHeight="1">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -5034,7 +4437,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -5051,7 +4454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -5068,7 +4471,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -5085,7 +4488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -5102,7 +4505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -5119,7 +4522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -5136,7 +4539,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" ht="18.75" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -5153,7 +4556,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" ht="18.75" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -5170,7 +4573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -5187,7 +4590,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -5204,7 +4607,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" ht="18.75" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -5221,7 +4624,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -5238,7 +4641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" ht="18.75" customHeight="1" spans="1:5">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -5255,7 +4658,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" ht="18.75" customHeight="1" spans="1:5">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -5272,7 +4675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1" spans="1:5">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -5289,7 +4692,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" ht="18.75" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -5306,7 +4709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" ht="18.75" customHeight="1" spans="1:5">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -5323,7 +4726,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1" spans="1:5">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -5340,7 +4743,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" ht="18.75" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5" ht="18.75" customHeight="1">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -5357,7 +4760,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -5374,7 +4777,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" ht="18.75" customHeight="1" spans="1:5">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -5391,7 +4794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" ht="18.75" customHeight="1" spans="1:5">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -5408,7 +4811,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1" spans="1:5">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -5425,7 +4828,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" ht="19.5" customHeight="1" spans="1:5">
+    <row r="51" spans="1:5" ht="19.5" customHeight="1">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -5442,7 +4845,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" ht="19.5" customHeight="1" spans="1:5">
+    <row r="52" spans="1:5" ht="19.5" customHeight="1">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -5459,7 +4862,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" ht="19.5" customHeight="1" spans="1:5">
+    <row r="53" spans="1:5" ht="19.5" customHeight="1">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -5476,7 +4879,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" ht="19.5" customHeight="1" spans="1:5">
+    <row r="54" spans="1:5" ht="19.5" customHeight="1">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -5493,7 +4896,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" ht="19.5" customHeight="1" spans="1:5">
+    <row r="55" spans="1:5" ht="19.5" customHeight="1">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -5510,7 +4913,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" ht="19.5" customHeight="1" spans="1:5">
+    <row r="56" spans="1:5" ht="19.5" customHeight="1">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -5527,7 +4930,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" ht="19.5" customHeight="1" spans="1:5">
+    <row r="57" spans="1:5" ht="19.5" customHeight="1">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -5544,7 +4947,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" ht="19.5" customHeight="1" spans="1:5">
+    <row r="58" spans="1:5" ht="19.5" customHeight="1">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -5561,7 +4964,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" ht="19.5" customHeight="1" spans="1:5">
+    <row r="59" spans="1:5" ht="19.5" customHeight="1">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -5578,7 +4981,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" ht="19.5" customHeight="1" spans="1:5">
+    <row r="60" spans="1:5" ht="19.5" customHeight="1">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -5595,7 +4998,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" ht="19.5" customHeight="1" spans="1:5">
+    <row r="61" spans="1:5" ht="19.5" customHeight="1">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -5612,7 +5015,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" ht="19.5" customHeight="1" spans="1:5">
+    <row r="62" spans="1:5" ht="19.5" customHeight="1">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -5629,7 +5032,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" ht="19.5" customHeight="1" spans="1:5">
+    <row r="63" spans="1:5" ht="19.5" customHeight="1">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -5646,7 +5049,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" ht="32.25" customHeight="1" spans="1:5">
+    <row r="64" spans="1:5" ht="32.25" customHeight="1">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -5663,7 +5066,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" ht="19.5" customHeight="1" spans="1:5">
+    <row r="65" spans="1:5" ht="19.5" customHeight="1">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -5680,7 +5083,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" ht="19.5" customHeight="1" spans="1:5">
+    <row r="66" spans="1:5" ht="19.5" customHeight="1">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -5697,7 +5100,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" ht="19.5" customHeight="1" spans="1:5">
+    <row r="67" spans="1:5" ht="19.5" customHeight="1">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -5714,7 +5117,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" ht="19.5" customHeight="1" spans="1:5">
+    <row r="68" spans="1:5" ht="19.5" customHeight="1">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -5731,7 +5134,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="69" ht="19.5" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5" ht="19.5" customHeight="1">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -5748,7 +5151,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" ht="19.5" customHeight="1" spans="1:5">
+    <row r="70" spans="1:5" ht="19.5" customHeight="1">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -5765,7 +5168,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" ht="19.5" customHeight="1" spans="1:5">
+    <row r="71" spans="1:5" ht="19.5" customHeight="1">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -5782,7 +5185,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" ht="19.5" customHeight="1" spans="1:5">
+    <row r="72" spans="1:5" ht="19.5" customHeight="1">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -5799,7 +5202,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="73" ht="19.5" customHeight="1" spans="1:5">
+    <row r="73" spans="1:5" ht="19.5" customHeight="1">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -5816,7 +5219,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" ht="19.5" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="19.5" customHeight="1">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -5833,7 +5236,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" ht="45" customHeight="1" spans="1:5">
+    <row r="75" spans="1:5" ht="45" customHeight="1">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -5850,7 +5253,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" ht="19.5" customHeight="1" spans="1:5">
+    <row r="76" spans="1:5" ht="19.5" customHeight="1">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -5867,7 +5270,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" ht="19.5" customHeight="1" spans="1:5">
+    <row r="77" spans="1:5" ht="19.5" customHeight="1">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -5884,7 +5287,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" ht="19.5" customHeight="1" spans="1:5">
+    <row r="78" spans="1:5" ht="19.5" customHeight="1">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -5901,7 +5304,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" ht="19.5" customHeight="1" spans="1:5">
+    <row r="79" spans="1:5" ht="19.5" customHeight="1">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -5918,7 +5321,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="80" ht="19.5" customHeight="1" spans="1:5">
+    <row r="80" spans="1:5" ht="19.5" customHeight="1">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -5935,7 +5338,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" ht="19.5" customHeight="1" spans="1:5">
+    <row r="81" spans="1:5" ht="19.5" customHeight="1">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -5952,7 +5355,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="82" ht="19.5" customHeight="1" spans="1:5">
+    <row r="82" spans="1:5" ht="19.5" customHeight="1">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -5969,7 +5372,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" ht="19.5" customHeight="1" spans="1:5">
+    <row r="83" spans="1:5" ht="19.5" customHeight="1">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -5986,7 +5389,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" ht="32.25" customHeight="1" spans="1:5">
+    <row r="84" spans="1:5" ht="32.25" customHeight="1">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -6003,7 +5406,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" ht="19.5" customHeight="1" spans="1:5">
+    <row r="85" spans="1:5" ht="19.5" customHeight="1">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -6020,7 +5423,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" ht="19.5" customHeight="1" spans="1:5">
+    <row r="86" spans="1:5" ht="19.5" customHeight="1">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -6037,7 +5440,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" ht="19.5" customHeight="1" spans="1:5">
+    <row r="87" spans="1:5" ht="19.5" customHeight="1">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -6054,7 +5457,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" ht="19.5" customHeight="1" spans="1:5">
+    <row r="88" spans="1:5" ht="19.5" customHeight="1">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -6071,7 +5474,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" ht="19.5" customHeight="1" spans="1:5">
+    <row r="89" spans="1:5" ht="19.5" customHeight="1">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -6088,7 +5491,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" ht="19.5" customHeight="1" spans="1:5">
+    <row r="90" spans="1:5" ht="19.5" customHeight="1">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -6105,7 +5508,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" ht="19.5" customHeight="1" spans="1:5">
+    <row r="91" spans="1:5" ht="19.5" customHeight="1">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -6122,7 +5525,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" ht="19.5" customHeight="1" spans="1:5">
+    <row r="92" spans="1:5" ht="19.5" customHeight="1">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -6139,7 +5542,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" ht="19.5" customHeight="1" spans="1:5">
+    <row r="93" spans="1:5" ht="19.5" customHeight="1">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -6156,7 +5559,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" ht="19.5" customHeight="1" spans="1:5">
+    <row r="94" spans="1:5" ht="19.5" customHeight="1">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -6173,7 +5576,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" ht="19.5" customHeight="1" spans="1:5">
+    <row r="95" spans="1:5" ht="19.5" customHeight="1">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -6190,7 +5593,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="96" ht="19.5" customHeight="1" spans="1:5">
+    <row r="96" spans="1:5" ht="19.5" customHeight="1">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -6207,7 +5610,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="97" ht="19.5" customHeight="1" spans="1:5">
+    <row r="97" spans="1:5" ht="19.5" customHeight="1">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -6224,7 +5627,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" ht="19.5" customHeight="1" spans="1:5">
+    <row r="98" spans="1:5" ht="19.5" customHeight="1">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -6241,7 +5644,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" ht="19.5" customHeight="1" spans="1:5">
+    <row r="99" spans="1:5" ht="19.5" customHeight="1">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -6258,7 +5661,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" ht="19.5" customHeight="1" spans="1:5">
+    <row r="100" spans="1:5" ht="19.5" customHeight="1">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -6275,7 +5678,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="101" ht="19.5" customHeight="1" spans="1:5">
+    <row r="101" spans="1:5" ht="19.5" customHeight="1">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -6292,7 +5695,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="102" ht="19.5" customHeight="1" spans="1:5">
+    <row r="102" spans="1:5" ht="19.5" customHeight="1">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -6309,7 +5712,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="103" ht="19.5" customHeight="1" spans="1:5">
+    <row r="103" spans="1:5" ht="19.5" customHeight="1">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -6326,7 +5729,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" ht="19.5" customHeight="1" spans="1:5">
+    <row r="104" spans="1:5" ht="19.5" customHeight="1">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -6343,7 +5746,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" ht="19.5" customHeight="1" spans="1:5">
+    <row r="105" spans="1:5" ht="19.5" customHeight="1">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -6360,7 +5763,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="106" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A106" s="16">
         <v>105</v>
       </c>
@@ -6377,7 +5780,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" ht="19.5" customHeight="1" spans="1:5">
+    <row r="107" spans="1:5" ht="19.5" customHeight="1">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -6394,7 +5797,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="108" ht="19.5" customHeight="1" spans="1:5">
+    <row r="108" spans="1:5" ht="19.5" customHeight="1">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -6411,7 +5814,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="109" ht="19.5" customHeight="1" spans="1:5">
+    <row r="109" spans="1:5" ht="19.5" customHeight="1">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -6426,7 +5829,7 @@
       </c>
       <c r="E109" s="12"/>
     </row>
-    <row r="110" ht="19.5" customHeight="1" spans="1:5">
+    <row r="110" spans="1:5" ht="19.5" customHeight="1">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -6441,7 +5844,7 @@
       </c>
       <c r="E110" s="12"/>
     </row>
-    <row r="111" ht="71.25" customHeight="1" spans="1:5">
+    <row r="111" spans="1:5" ht="71.25" customHeight="1">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -6456,7 +5859,7 @@
       </c>
       <c r="E111" s="12"/>
     </row>
-    <row r="112" ht="19.5" customHeight="1" spans="1:5">
+    <row r="112" spans="1:5" ht="19.5" customHeight="1">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -6471,7 +5874,7 @@
       </c>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" ht="19.5" customHeight="1" spans="1:5">
+    <row r="113" spans="1:5" ht="19.5" customHeight="1">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -6486,7 +5889,7 @@
       </c>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" ht="19.5" customHeight="1" spans="1:5">
+    <row r="114" spans="1:5" ht="19.5" customHeight="1">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -6501,7 +5904,7 @@
       </c>
       <c r="E114" s="12"/>
     </row>
-    <row r="115" ht="19.5" customHeight="1" spans="1:5">
+    <row r="115" spans="1:5" ht="19.5" customHeight="1">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -6516,7 +5919,7 @@
       </c>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" ht="19.5" customHeight="1" spans="1:5">
+    <row r="116" spans="1:5" ht="19.5" customHeight="1">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -6531,7 +5934,7 @@
       </c>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" ht="19.5" customHeight="1" spans="1:5">
+    <row r="117" spans="1:5" ht="19.5" customHeight="1">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -6546,7 +5949,7 @@
       </c>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" ht="19.5" customHeight="1" spans="1:5">
+    <row r="118" spans="1:5" ht="19.5" customHeight="1">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -6561,7 +5964,7 @@
       </c>
       <c r="E118" s="12"/>
     </row>
-    <row r="119" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="119" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -6576,7 +5979,7 @@
       </c>
       <c r="E119" s="18"/>
     </row>
-    <row r="120" ht="19.5" customHeight="1" spans="1:5">
+    <row r="120" spans="1:5" ht="19.5" customHeight="1">
       <c r="A120" s="10">
         <v>119</v>
       </c>
@@ -6591,7 +5994,7 @@
       </c>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" ht="19.5" customHeight="1" spans="1:5">
+    <row r="121" spans="1:5" ht="19.5" customHeight="1">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -6606,7 +6009,7 @@
       </c>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" ht="19.5" customHeight="1" spans="1:5">
+    <row r="122" spans="1:5" ht="19.5" customHeight="1">
       <c r="A122" s="10">
         <v>121</v>
       </c>
@@ -6621,7 +6024,7 @@
       </c>
       <c r="E122" s="12"/>
     </row>
-    <row r="123" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="123" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A123" s="16">
         <v>122</v>
       </c>
@@ -6636,7 +6039,7 @@
       </c>
       <c r="E123" s="18"/>
     </row>
-    <row r="124" ht="19.5" customHeight="1" spans="1:5">
+    <row r="124" spans="1:5" ht="19.5" customHeight="1">
       <c r="A124" s="10">
         <v>123</v>
       </c>
@@ -6651,7 +6054,7 @@
       </c>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="125" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A125" s="16">
         <v>124</v>
       </c>
@@ -6666,7 +6069,7 @@
       </c>
       <c r="E125" s="18"/>
     </row>
-    <row r="126" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="126" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A126" s="16">
         <v>125</v>
       </c>
@@ -6681,7 +6084,7 @@
       </c>
       <c r="E126" s="18"/>
     </row>
-    <row r="127" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:5">
+    <row r="127" spans="1:5" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A127" s="16">
         <v>126</v>
       </c>
@@ -6696,7 +6099,7 @@
       </c>
       <c r="E127" s="18"/>
     </row>
-    <row r="128" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="128" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A128" s="16">
         <v>127</v>
       </c>
@@ -6711,7 +6114,7 @@
       </c>
       <c r="E128" s="18"/>
     </row>
-    <row r="129" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="129" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A129" s="16">
         <v>128</v>
       </c>
@@ -6726,7 +6129,7 @@
       </c>
       <c r="E129" s="18"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="130" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A130" s="16">
         <v>129</v>
       </c>
@@ -6741,7 +6144,7 @@
       </c>
       <c r="E130" s="18"/>
     </row>
-    <row r="131" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="131" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A131" s="16">
         <v>130</v>
       </c>
@@ -6756,7 +6159,7 @@
       </c>
       <c r="E131" s="18"/>
     </row>
-    <row r="132" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="132" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A132" s="16">
         <v>131</v>
       </c>
@@ -6771,7 +6174,7 @@
       </c>
       <c r="E132" s="18"/>
     </row>
-    <row r="133" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="133" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A133" s="16">
         <v>132</v>
       </c>
@@ -6786,7 +6189,7 @@
       </c>
       <c r="E133" s="18"/>
     </row>
-    <row r="134" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="134" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A134" s="16">
         <v>133</v>
       </c>
@@ -6801,7 +6204,7 @@
       </c>
       <c r="E134" s="18"/>
     </row>
-    <row r="135" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="135" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A135" s="16">
         <v>134</v>
       </c>
@@ -6816,7 +6219,7 @@
       </c>
       <c r="E135" s="18"/>
     </row>
-    <row r="136" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="136" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A136" s="16">
         <v>135</v>
       </c>
@@ -6831,7 +6234,7 @@
       </c>
       <c r="E136" s="18"/>
     </row>
-    <row r="137" ht="19.5" customHeight="1" spans="1:5">
+    <row r="137" spans="1:5" ht="19.5" customHeight="1">
       <c r="A137" s="10">
         <v>136</v>
       </c>
@@ -6846,7 +6249,7 @@
       </c>
       <c r="E137" s="12"/>
     </row>
-    <row r="138" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="138" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A138" s="21">
         <v>137</v>
       </c>
@@ -6861,7 +6264,7 @@
       </c>
       <c r="E138" s="23"/>
     </row>
-    <row r="139" ht="19.5" customHeight="1" spans="1:5">
+    <row r="139" spans="1:5" ht="19.5" customHeight="1">
       <c r="A139" s="10">
         <v>138</v>
       </c>
@@ -6876,7 +6279,7 @@
       </c>
       <c r="E139" s="12"/>
     </row>
-    <row r="140" ht="19.5" customHeight="1" spans="1:5">
+    <row r="140" spans="1:5" ht="19.5" customHeight="1">
       <c r="A140" s="10">
         <v>139</v>
       </c>
@@ -6891,7 +6294,7 @@
       </c>
       <c r="E140" s="12"/>
     </row>
-    <row r="141" ht="19.5" customHeight="1" spans="1:5">
+    <row r="141" spans="1:5" ht="19.5" customHeight="1">
       <c r="A141" s="10">
         <v>140</v>
       </c>
@@ -6906,7 +6309,7 @@
       </c>
       <c r="E141" s="12"/>
     </row>
-    <row r="142" ht="19.5" customHeight="1" spans="1:5">
+    <row r="142" spans="1:5" ht="19.5" customHeight="1">
       <c r="A142" s="10">
         <v>141</v>
       </c>
@@ -6921,7 +6324,7 @@
       </c>
       <c r="E142" s="12"/>
     </row>
-    <row r="143" ht="19.5" customHeight="1" spans="1:5">
+    <row r="143" spans="1:5" ht="19.5" customHeight="1">
       <c r="A143" s="10">
         <v>142</v>
       </c>
@@ -6936,7 +6339,7 @@
       </c>
       <c r="E143" s="12"/>
     </row>
-    <row r="144" ht="19.5" customHeight="1" spans="1:5">
+    <row r="144" spans="1:5" ht="19.5" customHeight="1">
       <c r="A144" s="10">
         <v>143</v>
       </c>
@@ -6951,7 +6354,7 @@
       </c>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" ht="19.5" customHeight="1" spans="1:5">
+    <row r="145" spans="1:5" ht="19.5" customHeight="1">
       <c r="A145" s="10">
         <v>144</v>
       </c>
@@ -6966,7 +6369,7 @@
       </c>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" ht="19.5" customHeight="1" spans="1:5">
+    <row r="146" spans="1:5" ht="19.5" customHeight="1">
       <c r="A146" s="10">
         <v>145</v>
       </c>
@@ -6981,7 +6384,7 @@
       </c>
       <c r="E146" s="12"/>
     </row>
-    <row r="147" ht="19.5" customHeight="1" spans="1:5">
+    <row r="147" spans="1:5" ht="19.5" customHeight="1">
       <c r="A147" s="10">
         <v>146</v>
       </c>
@@ -6996,7 +6399,7 @@
       </c>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" ht="19.5" customHeight="1" spans="1:5">
+    <row r="148" spans="1:5" ht="19.5" customHeight="1">
       <c r="A148" s="10">
         <v>147</v>
       </c>
@@ -7011,7 +6414,7 @@
       </c>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="149" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A149" s="21">
         <v>148</v>
       </c>
@@ -7026,7 +6429,7 @@
       </c>
       <c r="E149" s="23"/>
     </row>
-    <row r="150" ht="19.5" customHeight="1" spans="1:5">
+    <row r="150" spans="1:5" ht="19.5" customHeight="1">
       <c r="A150" s="10">
         <v>149</v>
       </c>
@@ -7041,7 +6444,7 @@
       </c>
       <c r="E150" s="12"/>
     </row>
-    <row r="151" ht="19.5" customHeight="1" spans="1:5">
+    <row r="151" spans="1:5" ht="19.5" customHeight="1">
       <c r="A151" s="10">
         <v>150</v>
       </c>
@@ -7056,7 +6459,7 @@
       </c>
       <c r="E151" s="12"/>
     </row>
-    <row r="152" ht="18.75" customHeight="1" spans="1:5">
+    <row r="152" spans="1:5" ht="18.75" customHeight="1">
       <c r="A152" s="10">
         <v>151</v>
       </c>
@@ -7071,7 +6474,7 @@
       </c>
       <c r="E152" s="12"/>
     </row>
-    <row r="153" ht="18.75" customHeight="1" spans="1:5">
+    <row r="153" spans="1:5" ht="18.75" customHeight="1">
       <c r="A153" s="10">
         <v>152</v>
       </c>
@@ -7086,7 +6489,7 @@
       </c>
       <c r="E153" s="12"/>
     </row>
-    <row r="154" ht="18.75" customHeight="1" spans="1:5">
+    <row r="154" spans="1:5" ht="18.75" customHeight="1">
       <c r="A154" s="10">
         <v>153</v>
       </c>
@@ -7101,7 +6504,7 @@
       </c>
       <c r="E154" s="12"/>
     </row>
-    <row r="155" ht="18.75" customHeight="1" spans="1:5">
+    <row r="155" spans="1:5" ht="18.75" customHeight="1">
       <c r="A155" s="10">
         <v>154</v>
       </c>
@@ -7116,7 +6519,7 @@
       </c>
       <c r="E155" s="12"/>
     </row>
-    <row r="156" ht="18.75" customHeight="1" spans="1:5">
+    <row r="156" spans="1:5" ht="18.75" customHeight="1">
       <c r="A156" s="10">
         <v>155</v>
       </c>
@@ -7131,7 +6534,7 @@
       </c>
       <c r="E156" s="12"/>
     </row>
-    <row r="157" ht="18.75" customHeight="1" spans="1:5">
+    <row r="157" spans="1:5" ht="18.75" customHeight="1">
       <c r="A157" s="10">
         <v>156</v>
       </c>
@@ -7146,7 +6549,7 @@
       </c>
       <c r="E157" s="12"/>
     </row>
-    <row r="158" ht="18.75" customHeight="1" spans="1:5">
+    <row r="158" spans="1:5" ht="18.75" customHeight="1">
       <c r="A158" s="10">
         <v>157</v>
       </c>
@@ -7161,7 +6564,7 @@
       </c>
       <c r="E158" s="12"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="159" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A159" s="16">
         <v>158</v>
       </c>
@@ -7176,7 +6579,7 @@
       </c>
       <c r="E159" s="18"/>
     </row>
-    <row r="160" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="160" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A160" s="16">
         <v>159</v>
       </c>
@@ -7191,7 +6594,7 @@
       </c>
       <c r="E160" s="18"/>
     </row>
-    <row r="161" ht="18.75" customHeight="1" spans="1:5">
+    <row r="161" spans="1:5" ht="18.75" customHeight="1">
       <c r="A161" s="10">
         <v>160</v>
       </c>
@@ -7206,7 +6609,7 @@
       </c>
       <c r="E161" s="12"/>
     </row>
-    <row r="162" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="162" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A162" s="16">
         <v>161</v>
       </c>
@@ -7221,7 +6624,7 @@
       </c>
       <c r="E162" s="18"/>
     </row>
-    <row r="163" ht="18.75" customHeight="1" spans="1:5">
+    <row r="163" spans="1:5" ht="18.75" customHeight="1">
       <c r="A163" s="10">
         <v>162</v>
       </c>
@@ -7236,7 +6639,7 @@
       </c>
       <c r="E163" s="12"/>
     </row>
-    <row r="164" ht="18.75" customHeight="1" spans="1:5">
+    <row r="164" spans="1:5" ht="18.75" customHeight="1">
       <c r="A164" s="10">
         <v>163</v>
       </c>
@@ -7251,7 +6654,7 @@
       </c>
       <c r="E164" s="12"/>
     </row>
-    <row r="165" ht="18.75" customHeight="1" spans="1:5">
+    <row r="165" spans="1:5" ht="18.75" customHeight="1">
       <c r="A165" s="10">
         <v>164</v>
       </c>
@@ -7266,7 +6669,7 @@
       </c>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" ht="18.75" customHeight="1" spans="1:5">
+    <row r="166" spans="1:5" ht="18.75" customHeight="1">
       <c r="A166" s="10">
         <v>165</v>
       </c>
@@ -7281,7 +6684,7 @@
       </c>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" ht="18.75" customHeight="1" spans="1:5">
+    <row r="167" spans="1:5" ht="18.75" customHeight="1">
       <c r="A167" s="10">
         <v>166</v>
       </c>
@@ -7296,7 +6699,7 @@
       </c>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="168" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A168" s="16">
         <v>167</v>
       </c>
@@ -7311,7 +6714,7 @@
       </c>
       <c r="E168" s="18"/>
     </row>
-    <row r="169" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="169" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A169" s="16">
         <v>168</v>
       </c>
@@ -7326,7 +6729,7 @@
       </c>
       <c r="E169" s="18"/>
     </row>
-    <row r="170" ht="18.75" customHeight="1" spans="1:5">
+    <row r="170" spans="1:5" ht="18.75" customHeight="1">
       <c r="A170" s="10">
         <v>169</v>
       </c>
@@ -7341,7 +6744,7 @@
       </c>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="171" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A171" s="16">
         <v>170</v>
       </c>
@@ -7356,7 +6759,7 @@
       </c>
       <c r="E171" s="18"/>
     </row>
-    <row r="172" ht="18.75" customHeight="1" spans="1:5">
+    <row r="172" spans="1:5" ht="18.75" customHeight="1">
       <c r="A172" s="10">
         <v>171</v>
       </c>
@@ -7371,7 +6774,7 @@
       </c>
       <c r="E172" s="12"/>
     </row>
-    <row r="173" ht="32.25" customHeight="1" spans="1:5">
+    <row r="173" spans="1:5" ht="32.25" customHeight="1">
       <c r="A173" s="10">
         <v>172</v>
       </c>
@@ -7386,7 +6789,7 @@
       </c>
       <c r="E173" s="12"/>
     </row>
-    <row r="174" ht="19.5" customHeight="1" spans="1:5">
+    <row r="174" spans="1:5" ht="19.5" customHeight="1">
       <c r="A174" s="10">
         <v>173</v>
       </c>
@@ -7401,7 +6804,7 @@
       </c>
       <c r="E174" s="12"/>
     </row>
-    <row r="175" ht="19.5" customHeight="1" spans="1:5">
+    <row r="175" spans="1:5" ht="19.5" customHeight="1">
       <c r="A175" s="10">
         <v>174</v>
       </c>
@@ -7416,7 +6819,7 @@
       </c>
       <c r="E175" s="12"/>
     </row>
-    <row r="176" ht="32.25" customHeight="1" spans="1:5">
+    <row r="176" spans="1:5" ht="32.25" customHeight="1">
       <c r="A176" s="10">
         <v>175</v>
       </c>
@@ -7431,7 +6834,7 @@
       </c>
       <c r="E176" s="12"/>
     </row>
-    <row r="177" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="177" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A177" s="16">
         <v>176</v>
       </c>
@@ -7446,7 +6849,7 @@
       </c>
       <c r="E177" s="18"/>
     </row>
-    <row r="178" ht="19.5" customHeight="1" spans="1:5">
+    <row r="178" spans="1:5" ht="19.5" customHeight="1">
       <c r="A178" s="10">
         <v>177</v>
       </c>
@@ -7461,7 +6864,7 @@
       </c>
       <c r="E178" s="12"/>
     </row>
-    <row r="179" ht="45.75" customHeight="1" spans="1:5">
+    <row r="179" spans="1:5" ht="45.75" customHeight="1">
       <c r="A179" s="10">
         <v>178</v>
       </c>
@@ -7476,7 +6879,7 @@
       </c>
       <c r="E179" s="12"/>
     </row>
-    <row r="180" ht="19.5" customHeight="1" spans="1:5">
+    <row r="180" spans="1:5" ht="19.5" customHeight="1">
       <c r="A180" s="10">
         <v>179</v>
       </c>
@@ -7491,7 +6894,7 @@
       </c>
       <c r="E180" s="12"/>
     </row>
-    <row r="181" ht="19.5" customHeight="1" spans="1:5">
+    <row r="181" spans="1:5" ht="19.5" customHeight="1">
       <c r="A181" s="10">
         <v>180</v>
       </c>
@@ -7506,7 +6909,7 @@
       </c>
       <c r="E181" s="12"/>
     </row>
-    <row r="182" ht="32.25" customHeight="1" spans="1:5">
+    <row r="182" spans="1:5" ht="32.25" customHeight="1">
       <c r="A182" s="10">
         <v>181</v>
       </c>
@@ -7521,7 +6924,7 @@
       </c>
       <c r="E182" s="12"/>
     </row>
-    <row r="183" ht="19.5" customHeight="1" spans="1:5">
+    <row r="183" spans="1:5" ht="19.5" customHeight="1">
       <c r="A183" s="10">
         <v>182</v>
       </c>
@@ -7536,7 +6939,7 @@
       </c>
       <c r="E183" s="12"/>
     </row>
-    <row r="184" ht="19.5" customHeight="1" spans="1:5">
+    <row r="184" spans="1:5" ht="19.5" customHeight="1">
       <c r="A184" s="10">
         <v>183</v>
       </c>
@@ -7551,7 +6954,7 @@
       </c>
       <c r="E184" s="12"/>
     </row>
-    <row r="185" ht="32.25" customHeight="1" spans="1:5">
+    <row r="185" spans="1:5" ht="32.25" customHeight="1">
       <c r="A185" s="10">
         <v>184</v>
       </c>
@@ -7566,7 +6969,7 @@
       </c>
       <c r="E185" s="12"/>
     </row>
-    <row r="186" ht="32.25" customHeight="1" spans="1:5">
+    <row r="186" spans="1:5" ht="32.25" customHeight="1">
       <c r="A186" s="10">
         <v>185</v>
       </c>
@@ -7581,7 +6984,7 @@
       </c>
       <c r="E186" s="12"/>
     </row>
-    <row r="187" ht="19.5" customHeight="1" spans="1:5">
+    <row r="187" spans="1:5" ht="19.5" customHeight="1">
       <c r="A187" s="10">
         <v>186</v>
       </c>
@@ -7596,7 +6999,7 @@
       </c>
       <c r="E187" s="12"/>
     </row>
-    <row r="188" ht="19.5" customHeight="1" spans="1:5">
+    <row r="188" spans="1:5" ht="19.5" customHeight="1">
       <c r="A188" s="10">
         <v>187</v>
       </c>
@@ -7611,7 +7014,7 @@
       </c>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" ht="19.5" customHeight="1" spans="1:5">
+    <row r="189" spans="1:5" ht="19.5" customHeight="1">
       <c r="A189" s="10">
         <v>188</v>
       </c>
@@ -7626,7 +7029,7 @@
       </c>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" ht="19.5" customHeight="1" spans="1:5">
+    <row r="190" spans="1:5" ht="19.5" customHeight="1">
       <c r="A190" s="10">
         <v>189</v>
       </c>
@@ -7641,7 +7044,7 @@
       </c>
       <c r="E190" s="12"/>
     </row>
-    <row r="191" ht="19.5" customHeight="1" spans="1:5">
+    <row r="191" spans="1:5" ht="19.5" customHeight="1">
       <c r="A191" s="10">
         <v>190</v>
       </c>
@@ -7656,7 +7059,7 @@
       </c>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" ht="19.5" customHeight="1" spans="1:5">
+    <row r="192" spans="1:5" ht="19.5" customHeight="1">
       <c r="A192" s="10">
         <v>191</v>
       </c>
@@ -7671,7 +7074,7 @@
       </c>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="193" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="16">
         <v>192</v>
       </c>
@@ -7686,7 +7089,7 @@
       </c>
       <c r="E193" s="18"/>
     </row>
-    <row r="194" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+    <row r="194" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A194" s="21">
         <v>193</v>
       </c>
@@ -7701,7 +7104,7 @@
       </c>
       <c r="E194" s="23"/>
     </row>
-    <row r="195" ht="19.5" customHeight="1" spans="1:5">
+    <row r="195" spans="1:5" ht="19.5" customHeight="1">
       <c r="A195" s="10">
         <v>194</v>
       </c>
@@ -7716,7 +7119,7 @@
       </c>
       <c r="E195" s="12"/>
     </row>
-    <row r="196" ht="19.5" customHeight="1" spans="1:5">
+    <row r="196" spans="1:5" ht="19.5" customHeight="1">
       <c r="A196" s="10">
         <v>195</v>
       </c>
@@ -7731,7 +7134,7 @@
       </c>
       <c r="E196" s="12"/>
     </row>
-    <row r="197" ht="19.5" customHeight="1" spans="1:5">
+    <row r="197" spans="1:5" ht="19.5" customHeight="1">
       <c r="A197" s="10">
         <v>196</v>
       </c>
@@ -7746,7 +7149,7 @@
       </c>
       <c r="E197" s="12"/>
     </row>
-    <row r="198" ht="19.5" customHeight="1" spans="1:5">
+    <row r="198" spans="1:5" ht="19.5" customHeight="1">
       <c r="A198" s="10">
         <v>197</v>
       </c>
@@ -7761,7 +7164,7 @@
       </c>
       <c r="E198" s="12"/>
     </row>
-    <row r="199" ht="19.5" customHeight="1" spans="1:5">
+    <row r="199" spans="1:5" ht="19.5" customHeight="1">
       <c r="A199" s="10">
         <v>198</v>
       </c>
@@ -7776,7 +7179,7 @@
       </c>
       <c r="E199" s="12"/>
     </row>
-    <row r="200" ht="18.75" customHeight="1" spans="1:5">
+    <row r="200" spans="1:5" ht="18.75" customHeight="1">
       <c r="A200" s="10">
         <v>199</v>
       </c>
@@ -7791,7 +7194,7 @@
       </c>
       <c r="E200" s="12"/>
     </row>
-    <row r="201" ht="18.75" customHeight="1" spans="1:5">
+    <row r="201" spans="1:5" ht="18.75" customHeight="1">
       <c r="A201" s="10">
         <v>200</v>
       </c>
@@ -7806,7 +7209,7 @@
       </c>
       <c r="E201" s="12"/>
     </row>
-    <row r="202" ht="18.75" customHeight="1" spans="1:5">
+    <row r="202" spans="1:5" ht="18.75" customHeight="1">
       <c r="A202" s="10">
         <v>201</v>
       </c>
@@ -7821,7 +7224,7 @@
       </c>
       <c r="E202" s="12"/>
     </row>
-    <row r="203" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="203" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A203" s="16">
         <v>202</v>
       </c>
@@ -7836,7 +7239,7 @@
       </c>
       <c r="E203" s="18"/>
     </row>
-    <row r="204" ht="18.75" customHeight="1" spans="1:5">
+    <row r="204" spans="1:5" ht="18.75" customHeight="1">
       <c r="A204" s="10">
         <v>203</v>
       </c>
@@ -7851,7 +7254,7 @@
       </c>
       <c r="E204" s="12"/>
     </row>
-    <row r="205" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="205" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A205" s="16">
         <v>204</v>
       </c>
@@ -7866,7 +7269,7 @@
       </c>
       <c r="E205" s="18"/>
     </row>
-    <row r="206" ht="18.75" customHeight="1" spans="1:5">
+    <row r="206" spans="1:5" ht="18.75" customHeight="1">
       <c r="A206" s="10">
         <v>205</v>
       </c>
@@ -7881,7 +7284,7 @@
       </c>
       <c r="E206" s="12"/>
     </row>
-    <row r="207" ht="18.75" customHeight="1" spans="1:5">
+    <row r="207" spans="1:5" ht="18.75" customHeight="1">
       <c r="A207" s="10">
         <v>206</v>
       </c>
@@ -7896,7 +7299,7 @@
       </c>
       <c r="E207" s="12"/>
     </row>
-    <row r="208" ht="18.75" customHeight="1" spans="1:5">
+    <row r="208" spans="1:5" ht="18.75" customHeight="1">
       <c r="A208" s="10">
         <v>207</v>
       </c>
@@ -7911,7 +7314,7 @@
       </c>
       <c r="E208" s="12"/>
     </row>
-    <row r="209" ht="18.75" customHeight="1" spans="1:5">
+    <row r="209" spans="1:5" ht="18.75" customHeight="1">
       <c r="A209" s="10">
         <v>208</v>
       </c>
@@ -7926,7 +7329,7 @@
       </c>
       <c r="E209" s="12"/>
     </row>
-    <row r="210" ht="18.75" customHeight="1" spans="1:5">
+    <row r="210" spans="1:5" ht="18.75" customHeight="1">
       <c r="A210" s="10">
         <v>209</v>
       </c>
@@ -7941,7 +7344,7 @@
       </c>
       <c r="E210" s="12"/>
     </row>
-    <row r="211" ht="18.75" customHeight="1" spans="1:5">
+    <row r="211" spans="1:5" ht="18.75" customHeight="1">
       <c r="A211" s="10">
         <v>210</v>
       </c>
@@ -7956,7 +7359,7 @@
       </c>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" ht="18.75" customHeight="1" spans="1:5">
+    <row r="212" spans="1:5" ht="18.75" customHeight="1">
       <c r="A212" s="10">
         <v>211</v>
       </c>
@@ -7971,7 +7374,7 @@
       </c>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" ht="18.75" customHeight="1" spans="1:5">
+    <row r="213" spans="1:5" ht="18.75" customHeight="1">
       <c r="A213" s="10">
         <v>212</v>
       </c>
@@ -7986,7 +7389,7 @@
       </c>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" ht="18.75" customHeight="1" spans="1:5">
+    <row r="214" spans="1:5" ht="18.75" customHeight="1">
       <c r="A214" s="10">
         <v>213</v>
       </c>
@@ -8001,7 +7404,7 @@
       </c>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" ht="18.75" customHeight="1" spans="1:5">
+    <row r="215" spans="1:5" ht="18.75" customHeight="1">
       <c r="A215" s="10">
         <v>214</v>
       </c>
@@ -8016,7 +7419,7 @@
       </c>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" ht="18.75" customHeight="1" spans="1:5">
+    <row r="216" spans="1:5" ht="18.75" customHeight="1">
       <c r="A216" s="10">
         <v>215</v>
       </c>
@@ -8031,7 +7434,7 @@
       </c>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" ht="18.75" customHeight="1" spans="1:5">
+    <row r="217" spans="1:5" ht="18.75" customHeight="1">
       <c r="A217" s="10">
         <v>216</v>
       </c>
@@ -8046,7 +7449,7 @@
       </c>
       <c r="E217" s="12"/>
     </row>
-    <row r="218" ht="18.75" customHeight="1" spans="1:5">
+    <row r="218" spans="1:5" ht="18.75" customHeight="1">
       <c r="A218" s="10">
         <v>217</v>
       </c>
@@ -8061,7 +7464,7 @@
       </c>
       <c r="E218" s="12"/>
     </row>
-    <row r="219" ht="18.75" customHeight="1" spans="1:5">
+    <row r="219" spans="1:5" ht="18.75" customHeight="1">
       <c r="A219" s="10">
         <v>218</v>
       </c>
@@ -8076,7 +7479,7 @@
       </c>
       <c r="E219" s="12"/>
     </row>
-    <row r="220" ht="18.75" customHeight="1" spans="1:5">
+    <row r="220" spans="1:5" ht="18.75" customHeight="1">
       <c r="A220" s="10">
         <v>219</v>
       </c>
@@ -8091,7 +7494,7 @@
       </c>
       <c r="E220" s="12"/>
     </row>
-    <row r="221" ht="18.75" customHeight="1" spans="1:5">
+    <row r="221" spans="1:5" ht="18.75" customHeight="1">
       <c r="A221" s="10">
         <v>220</v>
       </c>
@@ -8106,7 +7509,7 @@
       </c>
       <c r="E221" s="12"/>
     </row>
-    <row r="222" ht="18.75" customHeight="1" spans="1:5">
+    <row r="222" spans="1:5" ht="18.75" customHeight="1">
       <c r="A222" s="10">
         <v>221</v>
       </c>
@@ -8121,7 +7524,7 @@
       </c>
       <c r="E222" s="12"/>
     </row>
-    <row r="223" ht="18.75" customHeight="1" spans="1:5">
+    <row r="223" spans="1:5" ht="18.75" customHeight="1">
       <c r="A223" s="10">
         <v>222</v>
       </c>
@@ -8136,7 +7539,7 @@
       </c>
       <c r="E223" s="12"/>
     </row>
-    <row r="224" ht="18.75" customHeight="1" spans="1:5">
+    <row r="224" spans="1:5" ht="18.75" customHeight="1">
       <c r="A224" s="10">
         <v>223</v>
       </c>
@@ -8151,7 +7554,7 @@
       </c>
       <c r="E224" s="12"/>
     </row>
-    <row r="225" ht="18.75" customHeight="1" spans="1:5">
+    <row r="225" spans="1:5" ht="18.75" customHeight="1">
       <c r="A225" s="10">
         <v>224</v>
       </c>
@@ -8166,7 +7569,7 @@
       </c>
       <c r="E225" s="12"/>
     </row>
-    <row r="226" ht="18.75" customHeight="1" spans="1:5">
+    <row r="226" spans="1:5" ht="18.75" customHeight="1">
       <c r="A226" s="10">
         <v>225</v>
       </c>
@@ -8181,7 +7584,7 @@
       </c>
       <c r="E226" s="12"/>
     </row>
-    <row r="227" ht="18.75" customHeight="1" spans="1:5">
+    <row r="227" spans="1:5" ht="18.75" customHeight="1">
       <c r="A227" s="10">
         <v>226</v>
       </c>
@@ -8196,7 +7599,7 @@
       </c>
       <c r="E227" s="12"/>
     </row>
-    <row r="228" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="228" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A228" s="16">
         <v>227</v>
       </c>
@@ -8211,7 +7614,7 @@
       </c>
       <c r="E228" s="18"/>
     </row>
-    <row r="229" ht="18.75" customHeight="1" spans="1:5">
+    <row r="229" spans="1:5" ht="18.75" customHeight="1">
       <c r="A229" s="10">
         <v>228</v>
       </c>
@@ -8226,7 +7629,7 @@
       </c>
       <c r="E229" s="12"/>
     </row>
-    <row r="230" ht="18.75" customHeight="1" spans="1:5">
+    <row r="230" spans="1:5" ht="18.75" customHeight="1">
       <c r="A230" s="10">
         <v>229</v>
       </c>
@@ -8241,7 +7644,7 @@
       </c>
       <c r="E230" s="12"/>
     </row>
-    <row r="231" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="231" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A231" s="16">
         <v>230</v>
       </c>
@@ -8256,7 +7659,7 @@
       </c>
       <c r="E231" s="18"/>
     </row>
-    <row r="232" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="232" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A232" s="16">
         <v>231</v>
       </c>
@@ -8271,7 +7674,7 @@
       </c>
       <c r="E232" s="18"/>
     </row>
-    <row r="233" ht="18.75" customHeight="1" spans="1:5">
+    <row r="233" spans="1:5" ht="18.75" customHeight="1">
       <c r="A233" s="10">
         <v>232</v>
       </c>
@@ -8286,7 +7689,7 @@
       </c>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" ht="18.75" customHeight="1" spans="1:5">
+    <row r="234" spans="1:5" ht="18.75" customHeight="1">
       <c r="A234" s="10">
         <v>233</v>
       </c>
@@ -8301,7 +7704,7 @@
       </c>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" ht="18.75" customHeight="1" spans="1:5">
+    <row r="235" spans="1:5" ht="18.75" customHeight="1">
       <c r="A235" s="10">
         <v>234</v>
       </c>
@@ -8316,7 +7719,7 @@
       </c>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" ht="18.75" customHeight="1" spans="1:5">
+    <row r="236" spans="1:5" ht="18.75" customHeight="1">
       <c r="A236" s="10">
         <v>235</v>
       </c>
@@ -8331,7 +7734,7 @@
       </c>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" ht="18.75" customHeight="1" spans="1:5">
+    <row r="237" spans="1:5" ht="18.75" customHeight="1">
       <c r="A237" s="10">
         <v>236</v>
       </c>
@@ -8346,7 +7749,7 @@
       </c>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" ht="18.75" customHeight="1" spans="1:5">
+    <row r="238" spans="1:5" ht="18.75" customHeight="1">
       <c r="A238" s="10">
         <v>237</v>
       </c>
@@ -8361,7 +7764,7 @@
       </c>
       <c r="E238" s="12"/>
     </row>
-    <row r="239" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="239" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A239" s="16">
         <v>238</v>
       </c>
@@ -8376,7 +7779,7 @@
       </c>
       <c r="E239" s="18"/>
     </row>
-    <row r="240" ht="18.75" customHeight="1" spans="1:5">
+    <row r="240" spans="1:5" ht="18.75" customHeight="1">
       <c r="A240" s="10">
         <v>239</v>
       </c>
@@ -8391,7 +7794,7 @@
       </c>
       <c r="E240" s="12"/>
     </row>
-    <row r="241" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="241" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A241" s="16">
         <v>240</v>
       </c>
@@ -8406,7 +7809,7 @@
       </c>
       <c r="E241" s="18"/>
     </row>
-    <row r="242" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="242" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A242" s="16">
         <v>241</v>
       </c>
@@ -8421,7 +7824,7 @@
       </c>
       <c r="E242" s="18"/>
     </row>
-    <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="243" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A243" s="21">
         <v>242</v>
       </c>
@@ -8436,7 +7839,7 @@
       </c>
       <c r="E243" s="23"/>
     </row>
-    <row r="244" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="244" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A244" s="16">
         <v>243</v>
       </c>
@@ -8451,7 +7854,7 @@
       </c>
       <c r="E244" s="18"/>
     </row>
-    <row r="245" ht="18.75" customHeight="1" spans="1:5">
+    <row r="245" spans="1:5" ht="18.75" customHeight="1">
       <c r="A245" s="10">
         <v>244</v>
       </c>
@@ -8466,7 +7869,7 @@
       </c>
       <c r="E245" s="12"/>
     </row>
-    <row r="246" ht="18.75" customHeight="1" spans="1:5">
+    <row r="246" spans="1:5" ht="18.75" customHeight="1">
       <c r="A246" s="10">
         <v>245</v>
       </c>
@@ -8481,7 +7884,7 @@
       </c>
       <c r="E246" s="12"/>
     </row>
-    <row r="247" ht="18.75" customHeight="1" spans="1:5">
+    <row r="247" spans="1:5" ht="18.75" customHeight="1">
       <c r="A247" s="10">
         <v>246</v>
       </c>
@@ -8496,7 +7899,7 @@
       </c>
       <c r="E247" s="12"/>
     </row>
-    <row r="248" ht="18.75" customHeight="1" spans="1:5">
+    <row r="248" spans="1:5" ht="18.75" customHeight="1">
       <c r="A248" s="10">
         <v>247</v>
       </c>
@@ -8511,7 +7914,7 @@
       </c>
       <c r="E248" s="12"/>
     </row>
-    <row r="249" ht="18.75" customHeight="1" spans="1:5">
+    <row r="249" spans="1:5" ht="18.75" customHeight="1">
       <c r="A249" s="10">
         <v>248</v>
       </c>
@@ -8526,7 +7929,7 @@
       </c>
       <c r="E249" s="12"/>
     </row>
-    <row r="250" ht="18.75" customHeight="1" spans="1:5">
+    <row r="250" spans="1:5" ht="18.75" customHeight="1">
       <c r="A250" s="10">
         <v>249</v>
       </c>
@@ -8541,7 +7944,7 @@
       </c>
       <c r="E250" s="12"/>
     </row>
-    <row r="251" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="251" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A251" s="16">
         <v>250</v>
       </c>
@@ -8556,7 +7959,7 @@
       </c>
       <c r="E251" s="18"/>
     </row>
-    <row r="252" ht="18.75" customHeight="1" spans="1:5">
+    <row r="252" spans="1:5" ht="18.75" customHeight="1">
       <c r="A252" s="10">
         <v>251</v>
       </c>
@@ -8571,7 +7974,7 @@
       </c>
       <c r="E252" s="12"/>
     </row>
-    <row r="253" ht="18.75" customHeight="1" spans="1:5">
+    <row r="253" spans="1:5" ht="18.75" customHeight="1">
       <c r="A253" s="10">
         <v>252</v>
       </c>
@@ -8586,7 +7989,7 @@
       </c>
       <c r="E253" s="12"/>
     </row>
-    <row r="254" ht="18.75" customHeight="1" spans="1:5">
+    <row r="254" spans="1:5" ht="18.75" customHeight="1">
       <c r="A254" s="10">
         <v>253</v>
       </c>
@@ -8601,7 +8004,7 @@
       </c>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" ht="18.75" customHeight="1" spans="1:5">
+    <row r="255" spans="1:5" ht="18.75" customHeight="1">
       <c r="A255" s="10">
         <v>254</v>
       </c>
@@ -8616,7 +8019,7 @@
       </c>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" ht="18.75" customHeight="1" spans="1:5">
+    <row r="256" spans="1:5" ht="18.75" customHeight="1">
       <c r="A256" s="10">
         <v>255</v>
       </c>
@@ -8631,7 +8034,7 @@
       </c>
       <c r="E256" s="12"/>
     </row>
-    <row r="257" ht="18.75" customHeight="1" spans="1:5">
+    <row r="257" spans="1:5" ht="18.75" customHeight="1">
       <c r="A257" s="10">
         <v>256</v>
       </c>
@@ -8646,7 +8049,7 @@
       </c>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" ht="18.75" customHeight="1" spans="1:5">
+    <row r="258" spans="1:5" ht="18.75" customHeight="1">
       <c r="A258" s="10">
         <v>257</v>
       </c>
@@ -8661,7 +8064,7 @@
       </c>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" ht="18.75" customHeight="1" spans="1:5">
+    <row r="259" spans="1:5" ht="18.75" customHeight="1">
       <c r="A259" s="10">
         <v>258</v>
       </c>
@@ -8676,7 +8079,7 @@
       </c>
       <c r="E259" s="12"/>
     </row>
-    <row r="260" ht="18.75" customHeight="1" spans="1:5">
+    <row r="260" spans="1:5" ht="18.75" customHeight="1">
       <c r="A260" s="10">
         <v>259</v>
       </c>
@@ -8691,7 +8094,7 @@
       </c>
       <c r="E260" s="12"/>
     </row>
-    <row r="261" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="261" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A261" s="16">
         <v>260</v>
       </c>
@@ -8706,7 +8109,7 @@
       </c>
       <c r="E261" s="18"/>
     </row>
-    <row r="262" ht="18.75" customHeight="1" spans="1:5">
+    <row r="262" spans="1:5" ht="18.75" customHeight="1">
       <c r="A262" s="10">
         <v>261</v>
       </c>
@@ -8721,7 +8124,7 @@
       </c>
       <c r="E262" s="12"/>
     </row>
-    <row r="263" ht="18.75" customHeight="1" spans="1:5">
+    <row r="263" spans="1:5" ht="18.75" customHeight="1">
       <c r="A263" s="10">
         <v>262</v>
       </c>
@@ -8736,7 +8139,7 @@
       </c>
       <c r="E263" s="12"/>
     </row>
-    <row r="264" ht="18.75" customHeight="1" spans="1:5">
+    <row r="264" spans="1:5" ht="18.75" customHeight="1">
       <c r="A264" s="10">
         <v>263</v>
       </c>
@@ -8751,7 +8154,7 @@
       </c>
       <c r="E264" s="12"/>
     </row>
-    <row r="265" ht="18.75" customHeight="1" spans="1:5">
+    <row r="265" spans="1:5" ht="18.75" customHeight="1">
       <c r="A265" s="10">
         <v>264</v>
       </c>
@@ -8766,7 +8169,7 @@
       </c>
       <c r="E265" s="12"/>
     </row>
-    <row r="266" ht="18.75" customHeight="1" spans="1:5">
+    <row r="266" spans="1:5" ht="18.75" customHeight="1">
       <c r="A266" s="10">
         <v>265</v>
       </c>
@@ -8781,7 +8184,7 @@
       </c>
       <c r="E266" s="12"/>
     </row>
-    <row r="267" ht="18.75" customHeight="1" spans="1:5">
+    <row r="267" spans="1:5" ht="18.75" customHeight="1">
       <c r="A267" s="10">
         <v>266</v>
       </c>
@@ -8796,7 +8199,7 @@
       </c>
       <c r="E267" s="12"/>
     </row>
-    <row r="268" ht="18.75" customHeight="1" spans="1:5">
+    <row r="268" spans="1:5" ht="18.75" customHeight="1">
       <c r="A268" s="10">
         <v>267</v>
       </c>
@@ -8811,7 +8214,7 @@
       </c>
       <c r="E268" s="12"/>
     </row>
-    <row r="269" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="269" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A269" s="16">
         <v>268</v>
       </c>
@@ -8826,7 +8229,7 @@
       </c>
       <c r="E269" s="18"/>
     </row>
-    <row r="270" ht="18.75" customHeight="1" spans="1:5">
+    <row r="270" spans="1:5" ht="18.75" customHeight="1">
       <c r="A270" s="10">
         <v>269</v>
       </c>
@@ -8841,7 +8244,7 @@
       </c>
       <c r="E270" s="12"/>
     </row>
-    <row r="271" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="271" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A271" s="16">
         <v>270</v>
       </c>
@@ -8856,7 +8259,7 @@
       </c>
       <c r="E271" s="18"/>
     </row>
-    <row r="272" ht="18.75" customHeight="1" spans="1:5">
+    <row r="272" spans="1:5" ht="18.75" customHeight="1">
       <c r="A272" s="10">
         <v>271</v>
       </c>
@@ -8871,7 +8274,7 @@
       </c>
       <c r="E272" s="12"/>
     </row>
-    <row r="273" ht="18.75" customHeight="1" spans="1:5">
+    <row r="273" spans="1:5" ht="18.75" customHeight="1">
       <c r="A273" s="10">
         <v>272</v>
       </c>
@@ -8886,7 +8289,7 @@
       </c>
       <c r="E273" s="12"/>
     </row>
-    <row r="274" ht="18.75" customHeight="1" spans="1:5">
+    <row r="274" spans="1:5" ht="18.75" customHeight="1">
       <c r="A274" s="10">
         <v>273</v>
       </c>
@@ -8901,7 +8304,7 @@
       </c>
       <c r="E274" s="12"/>
     </row>
-    <row r="275" ht="18.75" customHeight="1" spans="1:5">
+    <row r="275" spans="1:5" ht="18.75" customHeight="1">
       <c r="A275" s="10">
         <v>274</v>
       </c>
@@ -8916,7 +8319,7 @@
       </c>
       <c r="E275" s="12"/>
     </row>
-    <row r="276" ht="18.75" customHeight="1" spans="1:5">
+    <row r="276" spans="1:5" ht="18.75" customHeight="1">
       <c r="A276" s="10">
         <v>275</v>
       </c>
@@ -8931,7 +8334,7 @@
       </c>
       <c r="E276" s="12"/>
     </row>
-    <row r="277" ht="18.75" customHeight="1" spans="1:5">
+    <row r="277" spans="1:5" ht="18.75" customHeight="1">
       <c r="A277" s="10">
         <v>276</v>
       </c>
@@ -8946,7 +8349,7 @@
       </c>
       <c r="E277" s="26"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1" spans="1:5">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1">
       <c r="A278" s="10">
         <v>277</v>
       </c>
@@ -8961,7 +8364,7 @@
       </c>
       <c r="E278" s="29"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1" spans="1:5">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1">
       <c r="A279" s="10">
         <v>278</v>
       </c>
@@ -8976,7 +8379,7 @@
       </c>
       <c r="E279" s="29"/>
     </row>
-    <row r="280" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="280" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A280" s="16">
         <v>279</v>
       </c>
@@ -8991,7 +8394,7 @@
       </c>
       <c r="E280" s="32"/>
     </row>
-    <row r="281" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="281" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A281" s="16">
         <v>280</v>
       </c>
@@ -9006,7 +8409,7 @@
       </c>
       <c r="E281" s="32"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1" spans="1:5">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1">
       <c r="A282" s="10">
         <v>281</v>
       </c>
@@ -9021,7 +8424,7 @@
       </c>
       <c r="E282" s="29"/>
     </row>
-    <row r="283" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="283" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A283" s="21">
         <v>282</v>
       </c>
@@ -9036,7 +8439,7 @@
       </c>
       <c r="E283" s="35"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1" spans="1:5">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1">
       <c r="A284" s="10">
         <v>283</v>
       </c>
@@ -9051,7 +8454,7 @@
       </c>
       <c r="E284" s="29"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1" spans="1:5">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1">
       <c r="A285" s="10">
         <v>284</v>
       </c>
@@ -9066,7 +8469,7 @@
       </c>
       <c r="E285" s="29"/>
     </row>
-    <row r="286" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="286" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A286" s="16">
         <v>285</v>
       </c>
@@ -9081,7 +8484,7 @@
       </c>
       <c r="E286" s="32"/>
     </row>
-    <row r="287" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="287" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A287" s="16">
         <v>286</v>
       </c>
@@ -9096,7 +8499,7 @@
       </c>
       <c r="E287" s="32"/>
     </row>
-    <row r="288" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="288" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A288" s="16">
         <v>287</v>
       </c>
@@ -9111,7 +8514,7 @@
       </c>
       <c r="E288" s="32"/>
     </row>
-    <row r="289" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="289" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A289" s="21">
         <v>288</v>
       </c>
@@ -9126,7 +8529,7 @@
       </c>
       <c r="E289" s="35"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1" spans="1:5">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1">
       <c r="A290" s="10">
         <v>289</v>
       </c>
@@ -9141,7 +8544,7 @@
       </c>
       <c r="E290" s="29"/>
     </row>
-    <row r="291" s="2" customFormat="1" ht="15.45" customHeight="1" spans="1:5">
+    <row r="291" spans="1:5" s="2" customFormat="1" ht="15.45" customHeight="1">
       <c r="A291" s="38">
         <v>290</v>
       </c>
@@ -9156,7 +8559,7 @@
       </c>
       <c r="E291" s="35"/>
     </row>
-    <row r="292" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="292" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A292" s="38">
         <v>291</v>
       </c>
@@ -9171,7 +8574,7 @@
       </c>
       <c r="E292" s="35"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1" spans="1:5">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1">
       <c r="A293" s="40">
         <v>292</v>
       </c>
@@ -9186,7 +8589,7 @@
       </c>
       <c r="E293" s="29"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1" spans="1:5">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1">
       <c r="A294" s="40">
         <v>293</v>
       </c>
@@ -9201,7 +8604,7 @@
       </c>
       <c r="E294" s="29"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1" spans="1:5">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1">
       <c r="A295" s="40">
         <v>294</v>
       </c>
@@ -9216,7 +8619,7 @@
       </c>
       <c r="E295" s="29"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1" spans="1:5">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1">
       <c r="A296" s="40">
         <v>295</v>
       </c>
@@ -9231,7 +8634,7 @@
       </c>
       <c r="E296" s="29"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1" spans="1:5">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1">
       <c r="A297" s="40">
         <v>296</v>
       </c>
@@ -9246,7 +8649,7 @@
       </c>
       <c r="E297" s="29"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1" spans="1:5">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1">
       <c r="A298" s="40">
         <v>297</v>
       </c>
@@ -9261,7 +8664,7 @@
       </c>
       <c r="E298" s="29"/>
     </row>
-    <row r="299" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="299" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A299" s="41">
         <v>298</v>
       </c>
@@ -9276,7 +8679,7 @@
       </c>
       <c r="E299" s="32"/>
     </row>
-    <row r="300" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="300" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A300" s="41">
         <v>299</v>
       </c>
@@ -9291,7 +8694,7 @@
       </c>
       <c r="E300" s="32"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1" spans="1:5">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1">
       <c r="A301" s="40">
         <v>300</v>
       </c>
@@ -9306,7 +8709,7 @@
       </c>
       <c r="E301" s="42"/>
     </row>
-    <row r="302" customHeight="1" spans="1:5">
+    <row r="302" spans="1:5" ht="15" customHeight="1">
       <c r="A302" s="40">
         <v>301</v>
       </c>
@@ -9321,7 +8724,7 @@
       </c>
       <c r="E302" s="42"/>
     </row>
-    <row r="303" ht="25.5" customHeight="1" spans="1:5">
+    <row r="303" spans="1:5" ht="25.5" customHeight="1">
       <c r="A303" s="40">
         <v>302</v>
       </c>
@@ -9336,7 +8739,7 @@
       </c>
       <c r="E303" s="43"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1" spans="1:5">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1">
       <c r="A304" s="40">
         <v>303</v>
       </c>
@@ -9351,7 +8754,7 @@
       </c>
       <c r="E304" s="29"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1" spans="1:5">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1">
       <c r="A305" s="40">
         <v>304</v>
       </c>
@@ -9366,7 +8769,7 @@
       </c>
       <c r="E305" s="29"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1" spans="1:5">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1">
       <c r="A306" s="40">
         <v>305</v>
       </c>
@@ -9381,7 +8784,7 @@
       </c>
       <c r="E306" s="29"/>
     </row>
-    <row r="307" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="307" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A307" s="38">
         <v>306</v>
       </c>
@@ -9396,7 +8799,7 @@
       </c>
       <c r="E307" s="35"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1" spans="1:5">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1">
       <c r="A308" s="40">
         <v>307</v>
       </c>
@@ -9411,7 +8814,7 @@
       </c>
       <c r="E308" s="29"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1" spans="1:5">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1">
       <c r="A309" s="40">
         <v>308</v>
       </c>
@@ -9426,7 +8829,7 @@
       </c>
       <c r="E309" s="29"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1" spans="1:5">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1">
       <c r="A310" s="40">
         <v>309</v>
       </c>
@@ -9441,7 +8844,7 @@
       </c>
       <c r="E310" s="29"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1" spans="1:5">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1">
       <c r="A311" s="40">
         <v>310</v>
       </c>
@@ -9456,7 +8859,7 @@
       </c>
       <c r="E311" s="29"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1" spans="1:5">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1">
       <c r="A312" s="40">
         <v>311</v>
       </c>
@@ -9471,7 +8874,7 @@
       </c>
       <c r="E312" s="29"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1" spans="1:5">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1">
       <c r="A313" s="40">
         <v>312</v>
       </c>
@@ -9486,7 +8889,7 @@
       </c>
       <c r="E313" s="29"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1" spans="1:5">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1">
       <c r="A314" s="40">
         <v>313</v>
       </c>
@@ -9501,7 +8904,7 @@
       </c>
       <c r="E314" s="29"/>
     </row>
-    <row r="315" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="315" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A315" s="41">
         <v>314</v>
       </c>
@@ -9516,7 +8919,7 @@
       </c>
       <c r="E315" s="32"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1" spans="1:5">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1">
       <c r="A316" s="40">
         <v>315</v>
       </c>
@@ -9531,7 +8934,7 @@
       </c>
       <c r="E316" s="29"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1" spans="1:5">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1">
       <c r="A317" s="40">
         <v>316</v>
       </c>
@@ -9546,7 +8949,7 @@
       </c>
       <c r="E317" s="29"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1" spans="1:5">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1">
       <c r="A318" s="40">
         <v>317</v>
       </c>
@@ -9561,7 +8964,7 @@
       </c>
       <c r="E318" s="29"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1" spans="1:5">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1">
       <c r="A319" s="40">
         <v>318</v>
       </c>
@@ -9576,7 +8979,7 @@
       </c>
       <c r="E319" s="29"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1" spans="1:5">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1">
       <c r="A320" s="40">
         <v>319</v>
       </c>
@@ -9591,7 +8994,7 @@
       </c>
       <c r="E320" s="29"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1" spans="1:5">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1">
       <c r="A321" s="40">
         <v>320</v>
       </c>
@@ -9606,7 +9009,7 @@
       </c>
       <c r="E321" s="29"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1" spans="1:5">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1">
       <c r="A322" s="40">
         <v>321</v>
       </c>
@@ -9621,7 +9024,7 @@
       </c>
       <c r="E322" s="29"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1" spans="1:5">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1">
       <c r="A323" s="40">
         <v>322</v>
       </c>
@@ -9636,7 +9039,7 @@
       </c>
       <c r="E323" s="29"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1" spans="1:5">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1">
       <c r="A324" s="40">
         <v>323</v>
       </c>
@@ -9651,7 +9054,7 @@
       </c>
       <c r="E324" s="29"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1" spans="1:5">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1">
       <c r="A325" s="40">
         <v>324</v>
       </c>
@@ -9666,7 +9069,7 @@
       </c>
       <c r="E325" s="29"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1" spans="1:5">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1">
       <c r="A326" s="40">
         <v>325</v>
       </c>
@@ -9681,7 +9084,7 @@
       </c>
       <c r="E326" s="29"/>
     </row>
-    <row r="327" s="1" customFormat="1" ht="15.45" customHeight="1" spans="1:5">
+    <row r="327" spans="1:5" s="1" customFormat="1" ht="15.45" customHeight="1">
       <c r="A327" s="41">
         <v>326</v>
       </c>
@@ -9696,7 +9099,7 @@
       </c>
       <c r="E327" s="32"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1" spans="1:5">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1">
       <c r="A328" s="40">
         <v>327</v>
       </c>
@@ -9711,7 +9114,7 @@
       </c>
       <c r="E328" s="29"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1" spans="1:5">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1">
       <c r="A329" s="40">
         <v>328</v>
       </c>
@@ -9726,7 +9129,7 @@
       </c>
       <c r="E329" s="29"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1" spans="1:5">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1">
       <c r="A330" s="40">
         <v>329</v>
       </c>
@@ -9741,7 +9144,7 @@
       </c>
       <c r="E330" s="29"/>
     </row>
-    <row r="331" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="331" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A331" s="41">
         <v>330</v>
       </c>
@@ -9756,7 +9159,7 @@
       </c>
       <c r="E331" s="32"/>
     </row>
-    <row r="332" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="332" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A332" s="41">
         <v>331</v>
       </c>
@@ -9771,7 +9174,7 @@
       </c>
       <c r="E332" s="32"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1" spans="1:5">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1">
       <c r="A333" s="40">
         <v>332</v>
       </c>
@@ -9786,7 +9189,7 @@
       </c>
       <c r="E333" s="29"/>
     </row>
-    <row r="334" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="334" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A334" s="41">
         <v>333</v>
       </c>
@@ -9801,7 +9204,7 @@
       </c>
       <c r="E334" s="32"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1" spans="1:5">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1">
       <c r="A335" s="40">
         <v>334</v>
       </c>
@@ -9816,7 +9219,7 @@
       </c>
       <c r="E335" s="29"/>
     </row>
-    <row r="336" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="336" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A336" s="41">
         <v>335</v>
       </c>
@@ -9831,7 +9234,7 @@
       </c>
       <c r="E336" s="32"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1" spans="1:5">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1">
       <c r="A337" s="40">
         <v>336</v>
       </c>
@@ -9846,7 +9249,7 @@
       </c>
       <c r="E337" s="29"/>
     </row>
-    <row r="338" s="1" customFormat="1" ht="15.45" customHeight="1" spans="1:5">
+    <row r="338" spans="1:5" s="1" customFormat="1" ht="15.45" customHeight="1">
       <c r="A338" s="41">
         <v>337</v>
       </c>
@@ -9861,7 +9264,7 @@
       </c>
       <c r="E338" s="32"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1" spans="1:5">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1">
       <c r="A339" s="40">
         <v>338</v>
       </c>
@@ -9876,7 +9279,7 @@
       </c>
       <c r="E339" s="29"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1" spans="1:5">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1">
       <c r="A340" s="40">
         <v>339</v>
       </c>
@@ -9891,7 +9294,7 @@
       </c>
       <c r="E340" s="29"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1" spans="1:5">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1">
       <c r="A341" s="40">
         <v>340</v>
       </c>
@@ -9906,7 +9309,7 @@
       </c>
       <c r="E341" s="29"/>
     </row>
-    <row r="342" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="342" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A342" s="41">
         <v>341</v>
       </c>
@@ -9921,7 +9324,7 @@
       </c>
       <c r="E342" s="32"/>
     </row>
-    <row r="343" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="343" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A343" s="41">
         <v>342</v>
       </c>
@@ -9936,7 +9339,7 @@
       </c>
       <c r="E343" s="32"/>
     </row>
-    <row r="344" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="344" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A344" s="41">
         <v>343</v>
       </c>
@@ -9951,7 +9354,7 @@
       </c>
       <c r="E344" s="32"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1" spans="1:5">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1">
       <c r="A345" s="40">
         <v>344</v>
       </c>
@@ -9966,7 +9369,7 @@
       </c>
       <c r="E345" s="29"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1" spans="1:5">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1">
       <c r="A346" s="40">
         <v>345</v>
       </c>
@@ -9981,7 +9384,7 @@
       </c>
       <c r="E346" s="29"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1" spans="1:5">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1">
       <c r="A347" s="40">
         <v>346</v>
       </c>
@@ -9996,7 +9399,7 @@
       </c>
       <c r="E347" s="29"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1" spans="1:5">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1">
       <c r="A348" s="40">
         <v>347</v>
       </c>
@@ -10011,7 +9414,7 @@
       </c>
       <c r="E348" s="29"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1" spans="1:5">
+    <row r="349" spans="1:5" ht="15.75" customHeight="1">
       <c r="A349" s="40">
         <v>348</v>
       </c>
@@ -10026,7 +9429,7 @@
       </c>
       <c r="E349" s="29"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1" spans="1:5">
+    <row r="350" spans="1:5" ht="15.75" customHeight="1">
       <c r="A350" s="40">
         <v>349</v>
       </c>
@@ -10041,7 +9444,7 @@
       </c>
       <c r="E350" s="29"/>
     </row>
-    <row r="351" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="351" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A351" s="41">
         <v>350</v>
       </c>
@@ -10056,7 +9459,7 @@
       </c>
       <c r="E351" s="32"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1" spans="1:5">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1">
       <c r="A352" s="40">
         <v>351</v>
       </c>
@@ -10071,7 +9474,7 @@
       </c>
       <c r="E352" s="29"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1" spans="1:5">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1">
       <c r="A353" s="40">
         <v>352</v>
       </c>
@@ -10086,7 +9489,7 @@
       </c>
       <c r="E353" s="29"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1" spans="1:5">
+    <row r="354" spans="1:5" ht="15.75" customHeight="1">
       <c r="A354" s="40">
         <v>353</v>
       </c>
@@ -10101,7 +9504,7 @@
       </c>
       <c r="E354" s="29"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1" spans="1:5">
+    <row r="355" spans="1:5" ht="15.75" customHeight="1">
       <c r="A355" s="40">
         <v>354</v>
       </c>
@@ -10116,7 +9519,7 @@
       </c>
       <c r="E355" s="29"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1" spans="1:5">
+    <row r="356" spans="1:5" ht="15.75" customHeight="1">
       <c r="A356" s="40">
         <v>355</v>
       </c>
@@ -10131,7 +9534,7 @@
       </c>
       <c r="E356" s="29"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1" spans="1:5">
+    <row r="357" spans="1:5" ht="15.75" customHeight="1">
       <c r="A357" s="40">
         <v>356</v>
       </c>
@@ -10146,7 +9549,7 @@
       </c>
       <c r="E357" s="29"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1" spans="1:5">
+    <row r="358" spans="1:5" ht="15.75" customHeight="1">
       <c r="A358" s="40">
         <v>357</v>
       </c>
@@ -10161,7 +9564,7 @@
       </c>
       <c r="E358" s="29"/>
     </row>
-    <row r="359" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="359" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A359" s="41">
         <v>358</v>
       </c>
@@ -10176,7 +9579,7 @@
       </c>
       <c r="E359" s="32"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1" spans="1:5">
+    <row r="360" spans="1:5" ht="15.75" customHeight="1">
       <c r="A360" s="40">
         <v>359</v>
       </c>
@@ -10191,7 +9594,7 @@
       </c>
       <c r="E360" s="29"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1" spans="1:5">
+    <row r="361" spans="1:5" ht="15.75" customHeight="1">
       <c r="A361" s="40">
         <v>360</v>
       </c>
@@ -10206,7 +9609,7 @@
       </c>
       <c r="E361" s="29"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1" spans="1:5">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1">
       <c r="A362" s="40">
         <v>361</v>
       </c>
@@ -10221,7 +9624,7 @@
       </c>
       <c r="E362" s="29"/>
     </row>
-    <row r="363" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="363" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A363" s="41">
         <v>362</v>
       </c>
@@ -10236,7 +9639,7 @@
       </c>
       <c r="E363" s="32"/>
     </row>
-    <row r="364" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="364" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A364" s="41">
         <v>363</v>
       </c>
@@ -10251,7 +9654,7 @@
       </c>
       <c r="E364" s="32"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1" spans="1:5">
+    <row r="365" spans="1:5" ht="15.75" customHeight="1">
       <c r="A365" s="40">
         <v>364</v>
       </c>
@@ -10266,7 +9669,7 @@
       </c>
       <c r="E365" s="29"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1" spans="1:5">
+    <row r="366" spans="1:5" ht="15.75" customHeight="1">
       <c r="A366" s="40">
         <v>365</v>
       </c>
@@ -10281,7 +9684,7 @@
       </c>
       <c r="E366" s="29"/>
     </row>
-    <row r="367" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="367" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A367" s="38">
         <v>366</v>
       </c>
@@ -10296,7 +9699,7 @@
       </c>
       <c r="E367" s="35"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1" spans="1:5">
+    <row r="368" spans="1:5" ht="15.75" customHeight="1">
       <c r="A368" s="40">
         <v>367</v>
       </c>
@@ -10311,7 +9714,7 @@
       </c>
       <c r="E368" s="29"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1" spans="1:5">
+    <row r="369" spans="1:5" ht="15.75" customHeight="1">
       <c r="A369" s="40">
         <v>368</v>
       </c>
@@ -10326,7 +9729,7 @@
       </c>
       <c r="E369" s="29"/>
     </row>
-    <row r="370" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="370" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A370" s="41">
         <v>369</v>
       </c>
@@ -10341,7 +9744,7 @@
       </c>
       <c r="E370" s="32"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1" spans="1:5">
+    <row r="371" spans="1:5" ht="15.75" customHeight="1">
       <c r="A371" s="40">
         <v>370</v>
       </c>
@@ -10356,7 +9759,7 @@
       </c>
       <c r="E371" s="29"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1" spans="1:5">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1">
       <c r="A372" s="40">
         <v>371</v>
       </c>
@@ -10371,7 +9774,7 @@
       </c>
       <c r="E372" s="29"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1" spans="1:5">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1">
       <c r="A373" s="40">
         <v>372</v>
       </c>
@@ -10386,7 +9789,7 @@
       </c>
       <c r="E373" s="29"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1" spans="1:5">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1">
       <c r="A374" s="40">
         <v>373</v>
       </c>
@@ -10401,7 +9804,7 @@
       </c>
       <c r="E374" s="29"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1" spans="1:5">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1">
       <c r="A375" s="40">
         <v>374</v>
       </c>
@@ -10416,7 +9819,7 @@
       </c>
       <c r="E375" s="29"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1" spans="1:5">
+    <row r="376" spans="1:5" ht="15.75" customHeight="1">
       <c r="A376" s="40">
         <v>375</v>
       </c>
@@ -10431,7 +9834,7 @@
       </c>
       <c r="E376" s="29"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1" spans="1:5">
+    <row r="377" spans="1:5" ht="15.75" customHeight="1">
       <c r="A377" s="40">
         <v>376</v>
       </c>
@@ -10446,7 +9849,7 @@
       </c>
       <c r="E377" s="29"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1" spans="1:5">
+    <row r="378" spans="1:5" ht="15.75" customHeight="1">
       <c r="A378" s="40">
         <v>377</v>
       </c>
@@ -10461,7 +9864,7 @@
       </c>
       <c r="E378" s="29"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1" spans="1:5">
+    <row r="379" spans="1:5" ht="15.75" customHeight="1">
       <c r="A379" s="40">
         <v>378</v>
       </c>
@@ -10476,7 +9879,7 @@
       </c>
       <c r="E379" s="29"/>
     </row>
-    <row r="380" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="380" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A380" s="41">
         <v>379</v>
       </c>
@@ -10491,7 +9894,7 @@
       </c>
       <c r="E380" s="32"/>
     </row>
-    <row r="381" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="381" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A381" s="41">
         <v>380</v>
       </c>
@@ -10506,7 +9909,7 @@
       </c>
       <c r="E381" s="32"/>
     </row>
-    <row r="382" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="382" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A382" s="41">
         <v>381</v>
       </c>
@@ -10521,7 +9924,7 @@
       </c>
       <c r="E382" s="32"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1" spans="1:5">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1">
       <c r="A383" s="40">
         <v>382</v>
       </c>
@@ -10536,7 +9939,7 @@
       </c>
       <c r="E383" s="29"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1" spans="1:5">
+    <row r="384" spans="1:5" ht="15.75" customHeight="1">
       <c r="A384" s="40">
         <v>383</v>
       </c>
@@ -10551,7 +9954,7 @@
       </c>
       <c r="E384" s="29"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1" spans="1:5">
+    <row r="385" spans="1:5" ht="15.75" customHeight="1">
       <c r="A385" s="40">
         <v>384</v>
       </c>
@@ -10566,7 +9969,7 @@
       </c>
       <c r="E385" s="29"/>
     </row>
-    <row r="386" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="386" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A386" s="41">
         <v>385</v>
       </c>
@@ -10581,7 +9984,7 @@
       </c>
       <c r="E386" s="32"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1" spans="1:5">
+    <row r="387" spans="1:5" ht="15.75" customHeight="1">
       <c r="A387" s="40">
         <v>386</v>
       </c>
@@ -10596,7 +9999,7 @@
       </c>
       <c r="E387" s="29"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1" spans="1:5">
+    <row r="388" spans="1:5" ht="15.75" customHeight="1">
       <c r="A388" s="40">
         <v>387</v>
       </c>
@@ -10611,7 +10014,7 @@
       </c>
       <c r="E388" s="29"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1" spans="1:5">
+    <row r="389" spans="1:5" ht="15.75" customHeight="1">
       <c r="A389" s="40">
         <v>388</v>
       </c>
@@ -10626,7 +10029,7 @@
       </c>
       <c r="E389" s="29"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1" spans="1:5">
+    <row r="390" spans="1:5" ht="15.75" customHeight="1">
       <c r="A390" s="40">
         <v>389</v>
       </c>
@@ -10641,7 +10044,7 @@
       </c>
       <c r="E390" s="29"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1" spans="1:5">
+    <row r="391" spans="1:5" ht="15.75" customHeight="1">
       <c r="A391" s="40">
         <v>390</v>
       </c>
@@ -10656,7 +10059,7 @@
       </c>
       <c r="E391" s="29"/>
     </row>
-    <row r="392" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="392" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A392" s="41">
         <v>391</v>
       </c>
@@ -10671,7 +10074,7 @@
       </c>
       <c r="E392" s="32"/>
     </row>
-    <row r="393" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="393" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A393" s="41">
         <v>392</v>
       </c>
@@ -10686,7 +10089,7 @@
       </c>
       <c r="E393" s="32"/>
     </row>
-    <row r="394" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="394" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A394" s="41">
         <v>393</v>
       </c>
@@ -10701,7 +10104,7 @@
       </c>
       <c r="E394" s="32"/>
     </row>
-    <row r="395" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="395" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A395" s="41">
         <v>394</v>
       </c>
@@ -10716,7 +10119,7 @@
       </c>
       <c r="E395" s="32"/>
     </row>
-    <row r="396" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="396" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A396" s="41">
         <v>395</v>
       </c>
@@ -10731,7 +10134,7 @@
       </c>
       <c r="E396" s="32"/>
     </row>
-    <row r="397" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="397" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A397" s="41">
         <v>396</v>
       </c>
@@ -10746,7 +10149,7 @@
       </c>
       <c r="E397" s="32"/>
     </row>
-    <row r="398" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="398" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A398" s="41">
         <v>397</v>
       </c>
@@ -10761,7 +10164,7 @@
       </c>
       <c r="E398" s="32"/>
     </row>
-    <row r="399" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="399" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A399" s="41">
         <v>398</v>
       </c>
@@ -10776,7 +10179,7 @@
       </c>
       <c r="E399" s="32"/>
     </row>
-    <row r="400" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="400" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A400" s="41">
         <v>399</v>
       </c>
@@ -10791,7 +10194,7 @@
       </c>
       <c r="E400" s="32"/>
     </row>
-    <row r="401" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="401" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A401" s="41">
         <v>400</v>
       </c>
@@ -10806,7 +10209,7 @@
       </c>
       <c r="E401" s="32"/>
     </row>
-    <row r="402" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="402" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A402" s="41">
         <v>401</v>
       </c>
@@ -10821,7 +10224,7 @@
       </c>
       <c r="E402" s="32"/>
     </row>
-    <row r="403" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="403" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A403" s="41">
         <v>402</v>
       </c>
@@ -10836,7 +10239,7 @@
       </c>
       <c r="E403" s="32"/>
     </row>
-    <row r="404" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="404" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A404" s="41">
         <v>403</v>
       </c>
@@ -10851,7 +10254,7 @@
       </c>
       <c r="E404" s="32"/>
     </row>
-    <row r="405" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="405" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A405" s="41">
         <v>404</v>
       </c>
@@ -10866,7 +10269,7 @@
       </c>
       <c r="E405" s="32"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1" spans="1:5">
+    <row r="406" spans="1:5" ht="15.75" customHeight="1">
       <c r="A406" s="40">
         <v>405</v>
       </c>
@@ -10881,7 +10284,7 @@
       </c>
       <c r="E406" s="29"/>
     </row>
-    <row r="407" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="407" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A407" s="41">
         <v>406</v>
       </c>
@@ -10896,7 +10299,7 @@
       </c>
       <c r="E407" s="32"/>
     </row>
-    <row r="408" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="408" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A408" s="41">
         <v>407</v>
       </c>
@@ -10911,7 +10314,7 @@
       </c>
       <c r="E408" s="32"/>
     </row>
-    <row r="409" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="409" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A409" s="41">
         <v>408</v>
       </c>
@@ -10926,7 +10329,7 @@
       </c>
       <c r="E409" s="32"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1" spans="1:5">
+    <row r="410" spans="1:5" ht="15.75" customHeight="1">
       <c r="A410" s="40">
         <v>409</v>
       </c>
@@ -10941,7 +10344,7 @@
       </c>
       <c r="E410" s="29"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1" spans="1:5">
+    <row r="411" spans="1:5" ht="15.75" customHeight="1">
       <c r="A411" s="40">
         <v>410</v>
       </c>
@@ -10956,7 +10359,7 @@
       </c>
       <c r="E411" s="29"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1" spans="1:5">
+    <row r="412" spans="1:5" ht="15.75" customHeight="1">
       <c r="A412" s="40">
         <v>411</v>
       </c>
@@ -10971,7 +10374,7 @@
       </c>
       <c r="E412" s="29"/>
     </row>
-    <row r="413" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="413" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A413" s="41">
         <v>412</v>
       </c>
@@ -10986,7 +10389,7 @@
       </c>
       <c r="E413" s="32"/>
     </row>
-    <row r="414" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="414" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A414" s="41">
         <v>413</v>
       </c>
@@ -11001,7 +10404,7 @@
       </c>
       <c r="E414" s="32"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1" spans="1:5">
+    <row r="415" spans="1:5" ht="15.75" customHeight="1">
       <c r="A415" s="40">
         <v>414</v>
       </c>
@@ -11016,7 +10419,7 @@
       </c>
       <c r="E415" s="29"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1" spans="1:5">
+    <row r="416" spans="1:5" ht="15.75" customHeight="1">
       <c r="A416" s="40">
         <v>415</v>
       </c>
@@ -11031,7 +10434,7 @@
       </c>
       <c r="E416" s="29"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1" spans="1:5">
+    <row r="417" spans="1:5" ht="15.75" customHeight="1">
       <c r="A417" s="40">
         <v>416</v>
       </c>
@@ -11046,7 +10449,7 @@
       </c>
       <c r="E417" s="29"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1" spans="1:5">
+    <row r="418" spans="1:5" ht="15.75" customHeight="1">
       <c r="A418" s="40">
         <v>417</v>
       </c>
@@ -11061,7 +10464,7 @@
       </c>
       <c r="E418" s="29"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1" spans="1:5">
+    <row r="419" spans="1:5" ht="15.75" customHeight="1">
       <c r="A419" s="40">
         <v>418</v>
       </c>
@@ -11076,7 +10479,7 @@
       </c>
       <c r="E419" s="29"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1" spans="1:5">
+    <row r="420" spans="1:5" ht="15.75" customHeight="1">
       <c r="A420" s="40">
         <v>419</v>
       </c>
@@ -11091,7 +10494,7 @@
       </c>
       <c r="E420" s="29"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1" spans="1:5">
+    <row r="421" spans="1:5" ht="15.75" customHeight="1">
       <c r="A421" s="40">
         <v>420</v>
       </c>
@@ -11106,7 +10509,7 @@
       </c>
       <c r="E421" s="29"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1" spans="1:5">
+    <row r="422" spans="1:5" ht="15.75" customHeight="1">
       <c r="A422" s="40">
         <v>421</v>
       </c>
@@ -11121,7 +10524,7 @@
       </c>
       <c r="E422" s="29"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1" spans="1:5">
+    <row r="423" spans="1:5" ht="15.75" customHeight="1">
       <c r="A423" s="40">
         <v>422</v>
       </c>
@@ -11136,7 +10539,7 @@
       </c>
       <c r="E423" s="29"/>
     </row>
-    <row r="424" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="424" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A424" s="41">
         <v>423</v>
       </c>
@@ -11151,7 +10554,7 @@
       </c>
       <c r="E424" s="32"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1" spans="1:5">
+    <row r="425" spans="1:5" ht="15.75" customHeight="1">
       <c r="A425" s="40">
         <v>424</v>
       </c>
@@ -11166,7 +10569,7 @@
       </c>
       <c r="E425" s="29"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1" spans="1:5">
+    <row r="426" spans="1:5" ht="15.75" customHeight="1">
       <c r="A426" s="40">
         <v>425</v>
       </c>
@@ -11181,7 +10584,7 @@
       </c>
       <c r="E426" s="29"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1" spans="1:5">
+    <row r="427" spans="1:5" ht="15.75" customHeight="1">
       <c r="A427" s="40">
         <v>426</v>
       </c>
@@ -11196,7 +10599,7 @@
       </c>
       <c r="E427" s="29"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1" spans="1:5">
+    <row r="428" spans="1:5" ht="15.75" customHeight="1">
       <c r="A428" s="40">
         <v>427</v>
       </c>
@@ -11211,7 +10614,7 @@
       </c>
       <c r="E428" s="29"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1" spans="1:5">
+    <row r="429" spans="1:5" ht="15.75" customHeight="1">
       <c r="A429" s="40">
         <v>428</v>
       </c>
@@ -11226,7 +10629,7 @@
       </c>
       <c r="E429" s="29"/>
     </row>
-    <row r="430" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="430" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A430" s="38">
         <v>429</v>
       </c>
@@ -11241,7 +10644,7 @@
       </c>
       <c r="E430" s="35"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1" spans="1:5">
+    <row r="431" spans="1:5" ht="15.75" customHeight="1">
       <c r="A431" s="40">
         <v>430</v>
       </c>
@@ -11256,7 +10659,7 @@
       </c>
       <c r="E431" s="29"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1" spans="1:5">
+    <row r="432" spans="1:5" ht="15.75" customHeight="1">
       <c r="A432" s="40">
         <v>431</v>
       </c>
@@ -11271,7 +10674,7 @@
       </c>
       <c r="E432" s="29"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1" spans="1:5">
+    <row r="433" spans="1:5" ht="15.75" customHeight="1">
       <c r="A433" s="40">
         <v>432</v>
       </c>
@@ -11286,7 +10689,7 @@
       </c>
       <c r="E433" s="29"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1" spans="1:5">
+    <row r="434" spans="1:5" ht="15.75" customHeight="1">
       <c r="A434" s="40">
         <v>433</v>
       </c>
@@ -11301,7 +10704,7 @@
       </c>
       <c r="E434" s="29"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1" spans="1:5">
+    <row r="435" spans="1:5" ht="15.75" customHeight="1">
       <c r="A435" s="40">
         <v>434</v>
       </c>
@@ -11316,7 +10719,7 @@
       </c>
       <c r="E435" s="29"/>
     </row>
-    <row r="436" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="436" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A436" s="41">
         <v>435</v>
       </c>
@@ -11331,7 +10734,7 @@
       </c>
       <c r="E436" s="32"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1" spans="1:5">
+    <row r="437" spans="1:5" ht="15.75" customHeight="1">
       <c r="A437" s="40">
         <v>436</v>
       </c>
@@ -11346,7 +10749,7 @@
       </c>
       <c r="E437" s="29"/>
     </row>
-    <row r="438" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="438" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A438" s="41">
         <v>437</v>
       </c>
@@ -11361,7 +10764,7 @@
       </c>
       <c r="E438" s="32"/>
     </row>
-    <row r="439" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="439" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A439" s="41">
         <v>438</v>
       </c>
@@ -11376,7 +10779,7 @@
       </c>
       <c r="E439" s="32"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1" spans="1:5">
+    <row r="440" spans="1:5" ht="15.75" customHeight="1">
       <c r="A440" s="40">
         <v>439</v>
       </c>
@@ -11391,7 +10794,7 @@
       </c>
       <c r="E440" s="29"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1" spans="1:5">
+    <row r="441" spans="1:5" ht="15.75" customHeight="1">
       <c r="A441" s="40">
         <v>440</v>
       </c>
@@ -11406,7 +10809,7 @@
       </c>
       <c r="E441" s="29"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1" spans="1:5">
+    <row r="442" spans="1:5" ht="15.75" customHeight="1">
       <c r="A442" s="40">
         <v>441</v>
       </c>
@@ -11421,7 +10824,7 @@
       </c>
       <c r="E442" s="29"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1" spans="1:5">
+    <row r="443" spans="1:5" ht="15.75" customHeight="1">
       <c r="A443" s="40">
         <v>442</v>
       </c>
@@ -11436,7 +10839,7 @@
       </c>
       <c r="E443" s="29"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1" spans="1:5">
+    <row r="444" spans="1:5" ht="15.75" customHeight="1">
       <c r="A444" s="40">
         <v>443</v>
       </c>
@@ -11451,7 +10854,7 @@
       </c>
       <c r="E444" s="29"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1" spans="1:5">
+    <row r="445" spans="1:5" ht="15.75" customHeight="1">
       <c r="A445" s="40">
         <v>444</v>
       </c>
@@ -11466,7 +10869,7 @@
       </c>
       <c r="E445" s="29"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1" spans="1:5">
+    <row r="446" spans="1:5" ht="15.75" customHeight="1">
       <c r="A446" s="40">
         <v>445</v>
       </c>
@@ -11481,7 +10884,7 @@
       </c>
       <c r="E446" s="29"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1" spans="1:5">
+    <row r="447" spans="1:5" ht="15.75" customHeight="1">
       <c r="A447" s="40">
         <v>446</v>
       </c>
@@ -11496,7 +10899,7 @@
       </c>
       <c r="E447" s="29"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1" spans="1:5">
+    <row r="448" spans="1:5" ht="15.75" customHeight="1">
       <c r="A448" s="40">
         <v>447</v>
       </c>
@@ -11511,7 +10914,7 @@
       </c>
       <c r="E448" s="29"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1" spans="1:5">
+    <row r="449" spans="1:5" ht="15.75" customHeight="1">
       <c r="A449" s="40">
         <v>448</v>
       </c>
@@ -11526,7 +10929,7 @@
       </c>
       <c r="E449" s="29"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1" spans="1:5">
+    <row r="450" spans="1:5" ht="15.75" customHeight="1">
       <c r="A450" s="40">
         <v>449</v>
       </c>
@@ -11541,7 +10944,7 @@
       </c>
       <c r="E450" s="29"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1" spans="1:5">
+    <row r="451" spans="1:5" ht="15.75" customHeight="1">
       <c r="A451" s="40">
         <v>450</v>
       </c>
@@ -11556,7 +10959,7 @@
       </c>
       <c r="E451" s="29"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1" spans="1:5">
+    <row r="452" spans="1:5" ht="15.75" customHeight="1">
       <c r="A452" s="40">
         <v>451</v>
       </c>
@@ -11571,7 +10974,7 @@
       </c>
       <c r="E452" s="29"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1" spans="1:5">
+    <row r="453" spans="1:5" ht="15.75" customHeight="1">
       <c r="A453" s="40">
         <v>452</v>
       </c>
@@ -11586,7 +10989,7 @@
       </c>
       <c r="E453" s="29"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1" spans="1:5">
+    <row r="454" spans="1:5" ht="15.75" customHeight="1">
       <c r="A454" s="40">
         <v>453</v>
       </c>
@@ -11601,7 +11004,7 @@
       </c>
       <c r="E454" s="29"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1" spans="1:5">
+    <row r="455" spans="1:5" ht="15.75" customHeight="1">
       <c r="A455" s="40">
         <v>454</v>
       </c>
@@ -11616,7 +11019,7 @@
       </c>
       <c r="E455" s="29"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1" spans="1:5">
+    <row r="456" spans="1:5" ht="15.75" customHeight="1">
       <c r="A456" s="40">
         <v>455</v>
       </c>
@@ -11631,7 +11034,7 @@
       </c>
       <c r="E456" s="29"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1" spans="1:5">
+    <row r="457" spans="1:5" ht="15.75" customHeight="1">
       <c r="A457" s="40">
         <v>456</v>
       </c>
@@ -11646,7 +11049,7 @@
       </c>
       <c r="E457" s="29"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1" spans="1:5">
+    <row r="458" spans="1:5" ht="15.75" customHeight="1">
       <c r="A458" s="40">
         <v>457</v>
       </c>
@@ -11661,7 +11064,7 @@
       </c>
       <c r="E458" s="29"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1" spans="1:5">
+    <row r="459" spans="1:5" ht="15.75" customHeight="1">
       <c r="A459" s="40">
         <v>458</v>
       </c>
@@ -11676,7 +11079,7 @@
       </c>
       <c r="E459" s="29"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1" spans="1:5">
+    <row r="460" spans="1:5" ht="15.75" customHeight="1">
       <c r="A460" s="40">
         <v>459</v>
       </c>
@@ -11691,7 +11094,7 @@
       </c>
       <c r="E460" s="29"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1" spans="1:5">
+    <row r="461" spans="1:5" ht="15.75" customHeight="1">
       <c r="A461" s="40">
         <v>460</v>
       </c>
@@ -11706,7 +11109,7 @@
       </c>
       <c r="E461" s="29"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1" spans="1:5">
+    <row r="462" spans="1:5" ht="15.75" customHeight="1">
       <c r="A462" s="40">
         <v>461</v>
       </c>
@@ -11721,7 +11124,7 @@
       </c>
       <c r="E462" s="29"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1" spans="1:5">
+    <row r="463" spans="1:5" ht="15.75" customHeight="1">
       <c r="A463" s="40">
         <v>462</v>
       </c>
@@ -11736,7 +11139,7 @@
       </c>
       <c r="E463" s="29"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1" spans="1:5">
+    <row r="464" spans="1:5" ht="15.75" customHeight="1">
       <c r="A464" s="40">
         <v>463</v>
       </c>
@@ -11751,7 +11154,7 @@
       </c>
       <c r="E464" s="29"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1" spans="1:5">
+    <row r="465" spans="1:5" ht="15.75" customHeight="1">
       <c r="A465" s="40">
         <v>464</v>
       </c>
@@ -11766,7 +11169,7 @@
       </c>
       <c r="E465" s="29"/>
     </row>
-    <row r="466" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="466" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A466" s="38">
         <v>465</v>
       </c>
@@ -11781,7 +11184,7 @@
       </c>
       <c r="E466" s="35"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1" spans="1:5">
+    <row r="467" spans="1:5" ht="15.75" customHeight="1">
       <c r="A467" s="40">
         <v>466</v>
       </c>
@@ -11796,7 +11199,7 @@
       </c>
       <c r="E467" s="29"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1" spans="1:5">
+    <row r="468" spans="1:5" ht="15.75" customHeight="1">
       <c r="A468" s="40">
         <v>467</v>
       </c>
@@ -11811,7 +11214,7 @@
       </c>
       <c r="E468" s="29"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1" spans="1:5">
+    <row r="469" spans="1:5" ht="15.75" customHeight="1">
       <c r="A469" s="40">
         <v>468</v>
       </c>
@@ -11826,7 +11229,7 @@
       </c>
       <c r="E469" s="29"/>
     </row>
-    <row r="470" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="470" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A470" s="41">
         <v>469</v>
       </c>
@@ -11841,7 +11244,7 @@
       </c>
       <c r="E470" s="32"/>
     </row>
-    <row r="471" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="471" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A471" s="38">
         <v>470</v>
       </c>
@@ -11856,7 +11259,7 @@
       </c>
       <c r="E471" s="35"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1" spans="1:5">
+    <row r="472" spans="1:5" ht="15.75" customHeight="1">
       <c r="A472" s="40">
         <v>471</v>
       </c>
@@ -11871,7 +11274,7 @@
       </c>
       <c r="E472" s="29"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1" spans="1:5">
+    <row r="473" spans="1:5" ht="15.75" customHeight="1">
       <c r="A473" s="40">
         <v>472</v>
       </c>
@@ -11886,7 +11289,7 @@
       </c>
       <c r="E473" s="29"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1" spans="1:5">
+    <row r="474" spans="1:5" ht="15.75" customHeight="1">
       <c r="A474" s="40">
         <v>473</v>
       </c>
@@ -11901,7 +11304,7 @@
       </c>
       <c r="E474" s="29"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1" spans="1:5">
+    <row r="475" spans="1:5" ht="15.75" customHeight="1">
       <c r="A475" s="40">
         <v>474</v>
       </c>
@@ -11916,7 +11319,7 @@
       </c>
       <c r="E475" s="29"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1" spans="1:5">
+    <row r="476" spans="1:5" ht="15.75" customHeight="1">
       <c r="A476" s="40">
         <v>475</v>
       </c>
@@ -11931,7 +11334,7 @@
       </c>
       <c r="E476" s="29"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1" spans="1:5">
+    <row r="477" spans="1:5" ht="15.75" customHeight="1">
       <c r="A477" s="40">
         <v>476</v>
       </c>
@@ -11946,7 +11349,7 @@
       </c>
       <c r="E477" s="29"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1" spans="1:5">
+    <row r="478" spans="1:5" ht="15.75" customHeight="1">
       <c r="A478" s="40">
         <v>477</v>
       </c>
@@ -11961,7 +11364,7 @@
       </c>
       <c r="E478" s="29"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1" spans="1:5">
+    <row r="479" spans="1:5" ht="15.75" customHeight="1">
       <c r="A479" s="40">
         <v>478</v>
       </c>
@@ -11976,7 +11379,7 @@
       </c>
       <c r="E479" s="29"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1" spans="1:5">
+    <row r="480" spans="1:5" ht="15.75" customHeight="1">
       <c r="A480" s="40">
         <v>479</v>
       </c>
@@ -11991,7 +11394,7 @@
       </c>
       <c r="E480" s="29"/>
     </row>
-    <row r="481" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="481" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A481" s="38">
         <v>480</v>
       </c>
@@ -12006,7 +11409,7 @@
       </c>
       <c r="E481" s="35"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1" spans="1:5">
+    <row r="482" spans="1:5" ht="15.75" customHeight="1">
       <c r="A482" s="40">
         <v>481</v>
       </c>
@@ -12021,7 +11424,7 @@
       </c>
       <c r="E482" s="29"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1" spans="1:5">
+    <row r="483" spans="1:5" ht="15.75" customHeight="1">
       <c r="A483" s="40">
         <v>482</v>
       </c>
@@ -12036,7 +11439,7 @@
       </c>
       <c r="E483" s="29"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1" spans="1:5">
+    <row r="484" spans="1:5" ht="15.75" customHeight="1">
       <c r="A484" s="40">
         <v>483</v>
       </c>
@@ -12051,7 +11454,7 @@
       </c>
       <c r="E484" s="29"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1" spans="1:5">
+    <row r="485" spans="1:5" ht="15.75" customHeight="1">
       <c r="A485" s="40">
         <v>484</v>
       </c>
@@ -12066,7 +11469,7 @@
       </c>
       <c r="E485" s="29"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1" spans="1:5">
+    <row r="486" spans="1:5" ht="15.75" customHeight="1">
       <c r="A486" s="40">
         <v>485</v>
       </c>
@@ -12081,7 +11484,7 @@
       </c>
       <c r="E486" s="29"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1" spans="1:5">
+    <row r="487" spans="1:5" ht="15.75" customHeight="1">
       <c r="A487" s="40">
         <v>486</v>
       </c>
@@ -12096,7 +11499,7 @@
       </c>
       <c r="E487" s="29"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1" spans="1:5">
+    <row r="488" spans="1:5" ht="15.75" customHeight="1">
       <c r="A488" s="40">
         <v>487</v>
       </c>
@@ -12111,7 +11514,7 @@
       </c>
       <c r="E488" s="29"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1" spans="1:5">
+    <row r="489" spans="1:5" ht="15.75" customHeight="1">
       <c r="A489" s="40">
         <v>488</v>
       </c>
@@ -12126,7 +11529,7 @@
       </c>
       <c r="E489" s="29"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1" spans="1:5">
+    <row r="490" spans="1:5" ht="15.75" customHeight="1">
       <c r="A490" s="40">
         <v>489</v>
       </c>
@@ -12141,7 +11544,7 @@
       </c>
       <c r="E490" s="29"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1" spans="1:5">
+    <row r="491" spans="1:5" ht="15.75" customHeight="1">
       <c r="A491" s="40">
         <v>490</v>
       </c>
@@ -12156,7 +11559,7 @@
       </c>
       <c r="E491" s="29"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1" spans="1:5">
+    <row r="492" spans="1:5" ht="15.75" customHeight="1">
       <c r="A492" s="40">
         <v>491</v>
       </c>
@@ -12171,7 +11574,7 @@
       </c>
       <c r="E492" s="29"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1" spans="1:5">
+    <row r="493" spans="1:5" ht="15.75" customHeight="1">
       <c r="A493" s="40">
         <v>492</v>
       </c>
@@ -12186,7 +11589,7 @@
       </c>
       <c r="E493" s="29"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1" spans="1:5">
+    <row r="494" spans="1:5" ht="15.75" customHeight="1">
       <c r="A494" s="40">
         <v>493</v>
       </c>
@@ -12201,7 +11604,7 @@
       </c>
       <c r="E494" s="29"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1" spans="1:5">
+    <row r="495" spans="1:5" ht="15.75" customHeight="1">
       <c r="A495" s="40">
         <v>494</v>
       </c>
@@ -12216,7 +11619,7 @@
       </c>
       <c r="E495" s="29"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1" spans="1:5">
+    <row r="496" spans="1:5" ht="15.75" customHeight="1">
       <c r="A496" s="40">
         <v>495</v>
       </c>
@@ -12231,7 +11634,7 @@
       </c>
       <c r="E496" s="29"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1" spans="1:5">
+    <row r="497" spans="1:5" ht="15.75" customHeight="1">
       <c r="A497" s="40">
         <v>496</v>
       </c>
@@ -12246,7 +11649,7 @@
       </c>
       <c r="E497" s="29"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1" spans="1:5">
+    <row r="498" spans="1:5" ht="15.75" customHeight="1">
       <c r="A498" s="40">
         <v>497</v>
       </c>
@@ -12261,7 +11664,7 @@
       </c>
       <c r="E498" s="29"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1" spans="1:5">
+    <row r="499" spans="1:5" ht="15.75" customHeight="1">
       <c r="A499" s="40">
         <v>498</v>
       </c>
@@ -12276,7 +11679,7 @@
       </c>
       <c r="E499" s="29"/>
     </row>
-    <row r="500" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="500" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A500" s="41">
         <v>499</v>
       </c>
@@ -12291,7 +11694,7 @@
       </c>
       <c r="E500" s="32"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1" spans="1:5">
+    <row r="501" spans="1:5" ht="15.75" customHeight="1">
       <c r="A501" s="50">
         <v>500</v>
       </c>
@@ -12306,7 +11709,7 @@
       </c>
       <c r="E501" s="42"/>
     </row>
-    <row r="502" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="502" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A502" s="53">
         <v>501</v>
       </c>
@@ -12321,7 +11724,7 @@
       </c>
       <c r="E502" s="35"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1" spans="1:5">
+    <row r="503" spans="1:5" ht="15.75" customHeight="1">
       <c r="A503" s="55">
         <v>502</v>
       </c>
@@ -12336,7 +11739,7 @@
       </c>
       <c r="E503" s="29"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1" spans="1:5">
+    <row r="504" spans="1:5" ht="15.75" customHeight="1">
       <c r="A504" s="55">
         <v>503</v>
       </c>
@@ -12351,7 +11754,7 @@
       </c>
       <c r="E504" s="29"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1" spans="1:5">
+    <row r="505" spans="1:5" ht="15.75" customHeight="1">
       <c r="A505" s="55">
         <v>504</v>
       </c>
@@ -12366,7 +11769,7 @@
       </c>
       <c r="E505" s="29"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1" spans="1:5">
+    <row r="506" spans="1:5" ht="15.75" customHeight="1">
       <c r="A506" s="55">
         <v>505</v>
       </c>
@@ -12381,7 +11784,7 @@
       </c>
       <c r="E506" s="29"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1" spans="1:5">
+    <row r="507" spans="1:5" ht="15.75" customHeight="1">
       <c r="A507" s="55">
         <v>506</v>
       </c>
@@ -12396,7 +11799,7 @@
       </c>
       <c r="E507" s="29"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1" spans="1:5">
+    <row r="508" spans="1:5" ht="15.75" customHeight="1">
       <c r="A508" s="55">
         <v>507</v>
       </c>
@@ -12411,7 +11814,7 @@
       </c>
       <c r="E508" s="29"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1" spans="1:5">
+    <row r="509" spans="1:5" ht="15.75" customHeight="1">
       <c r="A509" s="55">
         <v>508</v>
       </c>
@@ -12426,7 +11829,7 @@
       </c>
       <c r="E509" s="29"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1" spans="1:5">
+    <row r="510" spans="1:5" ht="15.75" customHeight="1">
       <c r="A510" s="55">
         <v>509</v>
       </c>
@@ -12441,7 +11844,7 @@
       </c>
       <c r="E510" s="29"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1" spans="1:5">
+    <row r="511" spans="1:5" ht="15.75" customHeight="1">
       <c r="A511" s="55">
         <v>510</v>
       </c>
@@ -12456,7 +11859,7 @@
       </c>
       <c r="E511" s="29"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1" spans="1:5">
+    <row r="512" spans="1:5" ht="15.75" customHeight="1">
       <c r="A512" s="55">
         <v>511</v>
       </c>
@@ -12471,7 +11874,7 @@
       </c>
       <c r="E512" s="29"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1" spans="1:5">
+    <row r="513" spans="1:5" ht="15.75" customHeight="1">
       <c r="A513" s="55">
         <v>512</v>
       </c>
@@ -12486,7 +11889,7 @@
       </c>
       <c r="E513" s="29"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1" spans="1:5">
+    <row r="514" spans="1:5" ht="15.75" customHeight="1">
       <c r="A514" s="55">
         <v>513</v>
       </c>
@@ -12501,7 +11904,7 @@
       </c>
       <c r="E514" s="29"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1" spans="1:5">
+    <row r="515" spans="1:5" ht="15.75" customHeight="1">
       <c r="A515" s="55">
         <v>514</v>
       </c>
@@ -12516,7 +11919,7 @@
       </c>
       <c r="E515" s="29"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1" spans="1:5">
+    <row r="516" spans="1:5" ht="15.75" customHeight="1">
       <c r="A516" s="55">
         <v>515</v>
       </c>
@@ -12531,7 +11934,7 @@
       </c>
       <c r="E516" s="29"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1" spans="1:5">
+    <row r="517" spans="1:5" ht="15.75" customHeight="1">
       <c r="A517" s="55">
         <v>516</v>
       </c>
@@ -12546,7 +11949,7 @@
       </c>
       <c r="E517" s="29"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1" spans="1:5">
+    <row r="518" spans="1:5" ht="15.75" customHeight="1">
       <c r="A518" s="55">
         <v>517</v>
       </c>
@@ -12561,7 +11964,7 @@
       </c>
       <c r="E518" s="29"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1" spans="1:5">
+    <row r="519" spans="1:5" ht="15.75" customHeight="1">
       <c r="A519" s="55">
         <v>518</v>
       </c>
@@ -12576,7 +11979,7 @@
       </c>
       <c r="E519" s="29"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1" spans="1:5">
+    <row r="520" spans="1:5" ht="15.75" customHeight="1">
       <c r="A520" s="55">
         <v>519</v>
       </c>
@@ -12591,7 +11994,7 @@
       </c>
       <c r="E520" s="29"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1" spans="1:5">
+    <row r="521" spans="1:5" ht="15.75" customHeight="1">
       <c r="A521" s="55">
         <v>520</v>
       </c>
@@ -12606,7 +12009,7 @@
       </c>
       <c r="E521" s="29"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1" spans="1:5">
+    <row r="522" spans="1:5" ht="15.75" customHeight="1">
       <c r="A522" s="55">
         <v>521</v>
       </c>
@@ -12621,7 +12024,7 @@
       </c>
       <c r="E522" s="29"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1" spans="1:5">
+    <row r="523" spans="1:5" ht="15.75" customHeight="1">
       <c r="A523" s="55">
         <v>522</v>
       </c>
@@ -12636,7 +12039,7 @@
       </c>
       <c r="E523" s="29"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1" spans="1:5">
+    <row r="524" spans="1:5" ht="15.75" customHeight="1">
       <c r="A524" s="55">
         <v>523</v>
       </c>
@@ -12651,7 +12054,7 @@
       </c>
       <c r="E524" s="29"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1" spans="1:5">
+    <row r="525" spans="1:5" ht="15.75" customHeight="1">
       <c r="A525" s="55">
         <v>524</v>
       </c>
@@ -12666,7 +12069,7 @@
       </c>
       <c r="E525" s="29"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1" spans="1:5">
+    <row r="526" spans="1:5" ht="15.75" customHeight="1">
       <c r="A526" s="55">
         <v>525</v>
       </c>
@@ -12681,7 +12084,7 @@
       </c>
       <c r="E526" s="29"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1" spans="1:5">
+    <row r="527" spans="1:5" ht="15.75" customHeight="1">
       <c r="A527" s="55">
         <v>526</v>
       </c>
@@ -12696,7 +12099,7 @@
       </c>
       <c r="E527" s="29"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1" spans="1:5">
+    <row r="528" spans="1:5" ht="15.75" customHeight="1">
       <c r="A528" s="55">
         <v>527</v>
       </c>
@@ -12711,7 +12114,7 @@
       </c>
       <c r="E528" s="29"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1" spans="1:5">
+    <row r="529" spans="1:5" ht="15.75" customHeight="1">
       <c r="A529" s="55">
         <v>528</v>
       </c>
@@ -12726,7 +12129,7 @@
       </c>
       <c r="E529" s="29"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1" spans="1:5">
+    <row r="530" spans="1:5" ht="15.75" customHeight="1">
       <c r="A530" s="55">
         <v>529</v>
       </c>
@@ -12741,7 +12144,7 @@
       </c>
       <c r="E530" s="29"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1" spans="1:5">
+    <row r="531" spans="1:5" ht="15.75" customHeight="1">
       <c r="A531" s="55">
         <v>530</v>
       </c>
@@ -12756,7 +12159,7 @@
       </c>
       <c r="E531" s="29"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1" spans="1:5">
+    <row r="532" spans="1:5" ht="15.75" customHeight="1">
       <c r="A532" s="55">
         <v>531</v>
       </c>
@@ -12771,7 +12174,7 @@
       </c>
       <c r="E532" s="29"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1" spans="1:5">
+    <row r="533" spans="1:5" ht="15.75" customHeight="1">
       <c r="A533" s="55">
         <v>532</v>
       </c>
@@ -12786,7 +12189,7 @@
       </c>
       <c r="E533" s="29"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1" spans="1:5">
+    <row r="534" spans="1:5" ht="15.75" customHeight="1">
       <c r="A534" s="55">
         <v>533</v>
       </c>
@@ -12801,7 +12204,7 @@
       </c>
       <c r="E534" s="29"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1" spans="1:5">
+    <row r="535" spans="1:5" ht="15.75" customHeight="1">
       <c r="A535" s="55">
         <v>534</v>
       </c>
@@ -12816,7 +12219,7 @@
       </c>
       <c r="E535" s="29"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1" spans="1:5">
+    <row r="536" spans="1:5" ht="15.75" customHeight="1">
       <c r="A536" s="55">
         <v>535</v>
       </c>
@@ -12831,7 +12234,7 @@
       </c>
       <c r="E536" s="29"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1" spans="1:5">
+    <row r="537" spans="1:5" ht="15.75" customHeight="1">
       <c r="A537" s="55">
         <v>536</v>
       </c>
@@ -12846,7 +12249,7 @@
       </c>
       <c r="E537" s="29"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1" spans="1:5">
+    <row r="538" spans="1:5" ht="15.75" customHeight="1">
       <c r="A538" s="55">
         <v>537</v>
       </c>
@@ -12861,7 +12264,7 @@
       </c>
       <c r="E538" s="29"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1" spans="1:5">
+    <row r="539" spans="1:5" ht="15.75" customHeight="1">
       <c r="A539" s="55">
         <v>538</v>
       </c>
@@ -12876,7 +12279,7 @@
       </c>
       <c r="E539" s="29"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1" spans="1:5">
+    <row r="540" spans="1:5" ht="15.75" customHeight="1">
       <c r="A540" s="55">
         <v>539</v>
       </c>
@@ -12891,7 +12294,7 @@
       </c>
       <c r="E540" s="29"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1" spans="1:5">
+    <row r="541" spans="1:5" ht="15.75" customHeight="1">
       <c r="A541" s="55">
         <v>540</v>
       </c>
@@ -12906,7 +12309,7 @@
       </c>
       <c r="E541" s="29"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1" spans="1:5">
+    <row r="542" spans="1:5" ht="15.75" customHeight="1">
       <c r="A542" s="55">
         <v>541</v>
       </c>
@@ -12921,7 +12324,7 @@
       </c>
       <c r="E542" s="29"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1" spans="1:5">
+    <row r="543" spans="1:5" ht="15.75" customHeight="1">
       <c r="A543" s="55">
         <v>542</v>
       </c>
@@ -12936,7 +12339,7 @@
       </c>
       <c r="E543" s="29"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1" spans="1:5">
+    <row r="544" spans="1:5" ht="15.75" customHeight="1">
       <c r="A544" s="55">
         <v>543</v>
       </c>
@@ -12951,7 +12354,7 @@
       </c>
       <c r="E544" s="29"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1" spans="1:5">
+    <row r="545" spans="1:5" ht="15.75" customHeight="1">
       <c r="A545" s="55">
         <v>544</v>
       </c>
@@ -12966,7 +12369,7 @@
       </c>
       <c r="E545" s="29"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1" spans="1:5">
+    <row r="546" spans="1:5" ht="15.75" customHeight="1">
       <c r="A546" s="55">
         <v>545</v>
       </c>
@@ -12981,7 +12384,7 @@
       </c>
       <c r="E546" s="29"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1" spans="1:5">
+    <row r="547" spans="1:5" ht="15.75" customHeight="1">
       <c r="A547" s="55">
         <v>546</v>
       </c>
@@ -12996,7 +12399,7 @@
       </c>
       <c r="E547" s="29"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1" spans="1:5">
+    <row r="548" spans="1:5" ht="15.75" customHeight="1">
       <c r="A548" s="55">
         <v>547</v>
       </c>
@@ -13011,7 +12414,7 @@
       </c>
       <c r="E548" s="29"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1" spans="1:5">
+    <row r="549" spans="1:5" ht="15.75" customHeight="1">
       <c r="A549" s="55">
         <v>548</v>
       </c>
@@ -13026,7 +12429,7 @@
       </c>
       <c r="E549" s="29"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1" spans="1:5">
+    <row r="550" spans="1:5" ht="15.75" customHeight="1">
       <c r="A550" s="55">
         <v>549</v>
       </c>
@@ -13041,7 +12444,7 @@
       </c>
       <c r="E550" s="29"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1" spans="1:5">
+    <row r="551" spans="1:5" ht="15.75" customHeight="1">
       <c r="A551" s="55">
         <v>550</v>
       </c>
@@ -13056,7 +12459,7 @@
       </c>
       <c r="E551" s="29"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1" spans="1:5">
+    <row r="552" spans="1:5" ht="15.75" customHeight="1">
       <c r="A552" s="55">
         <v>551</v>
       </c>
@@ -13071,7 +12474,7 @@
       </c>
       <c r="E552" s="29"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1" spans="1:5">
+    <row r="553" spans="1:5" ht="15.75" customHeight="1">
       <c r="A553" s="55">
         <v>552</v>
       </c>
@@ -13086,7 +12489,7 @@
       </c>
       <c r="E553" s="29"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1" spans="1:5">
+    <row r="554" spans="1:5" ht="15.75" customHeight="1">
       <c r="A554" s="55">
         <v>553</v>
       </c>
@@ -13101,7 +12504,7 @@
       </c>
       <c r="E554" s="29"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1" spans="1:5">
+    <row r="555" spans="1:5" ht="15.75" customHeight="1">
       <c r="A555" s="55">
         <v>554</v>
       </c>
@@ -13116,7 +12519,7 @@
       </c>
       <c r="E555" s="29"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1" spans="1:5">
+    <row r="556" spans="1:5" ht="15.75" customHeight="1">
       <c r="A556" s="55">
         <v>555</v>
       </c>
@@ -13131,3082 +12534,3082 @@
       </c>
       <c r="E556" s="29"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1" spans="1:5">
+    <row r="557" spans="1:5" ht="15.75" customHeight="1">
       <c r="A557" s="57"/>
       <c r="B557" s="58"/>
       <c r="C557" s="58"/>
       <c r="D557" s="26"/>
       <c r="E557" s="29"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1" spans="1:5">
+    <row r="558" spans="1:5" ht="15.75" customHeight="1">
       <c r="A558" s="59"/>
       <c r="D558" s="60"/>
       <c r="E558" s="60"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1" spans="1:5">
+    <row r="559" spans="1:5" ht="15.75" customHeight="1">
       <c r="A559" s="59"/>
       <c r="D559" s="60"/>
       <c r="E559" s="60"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1" spans="1:5">
+    <row r="560" spans="1:5" ht="15.75" customHeight="1">
       <c r="A560" s="59"/>
       <c r="D560" s="60"/>
       <c r="E560" s="60"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1" spans="1:5">
+    <row r="561" spans="1:5" ht="15.75" customHeight="1">
       <c r="A561" s="59"/>
       <c r="D561" s="60"/>
       <c r="E561" s="60"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1" spans="1:5">
+    <row r="562" spans="1:5" ht="15.75" customHeight="1">
       <c r="A562" s="59"/>
       <c r="D562" s="60"/>
       <c r="E562" s="60"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1" spans="1:5">
+    <row r="563" spans="1:5" ht="15.75" customHeight="1">
       <c r="A563" s="59"/>
       <c r="D563" s="60"/>
       <c r="E563" s="60"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1" spans="1:5">
+    <row r="564" spans="1:5" ht="15.75" customHeight="1">
       <c r="A564" s="59"/>
       <c r="D564" s="60"/>
       <c r="E564" s="60"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1" spans="1:5">
+    <row r="565" spans="1:5" ht="15.75" customHeight="1">
       <c r="A565" s="59"/>
       <c r="D565" s="60"/>
       <c r="E565" s="60"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1" spans="1:5">
+    <row r="566" spans="1:5" ht="15.75" customHeight="1">
       <c r="A566" s="59"/>
       <c r="D566" s="60"/>
       <c r="E566" s="60"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1" spans="1:5">
+    <row r="567" spans="1:5" ht="15.75" customHeight="1">
       <c r="A567" s="59"/>
       <c r="D567" s="60"/>
       <c r="E567" s="60"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1" spans="1:5">
+    <row r="568" spans="1:5" ht="15.75" customHeight="1">
       <c r="A568" s="59"/>
       <c r="D568" s="60"/>
       <c r="E568" s="60"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1" spans="1:5">
+    <row r="569" spans="1:5" ht="15.75" customHeight="1">
       <c r="A569" s="59"/>
       <c r="D569" s="60"/>
       <c r="E569" s="60"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1" spans="1:5">
+    <row r="570" spans="1:5" ht="15.75" customHeight="1">
       <c r="A570" s="59"/>
       <c r="D570" s="60"/>
       <c r="E570" s="60"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1" spans="1:5">
+    <row r="571" spans="1:5" ht="15.75" customHeight="1">
       <c r="A571" s="59"/>
       <c r="B571" s="61"/>
       <c r="C571" s="61"/>
       <c r="D571" s="60"/>
       <c r="E571" s="60"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1" spans="1:5">
+    <row r="572" spans="1:5" ht="15.75" customHeight="1">
       <c r="A572" s="59"/>
       <c r="B572" s="61"/>
       <c r="C572" s="61"/>
       <c r="D572" s="60"/>
       <c r="E572" s="60"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1" spans="1:5">
+    <row r="573" spans="1:5" ht="15.75" customHeight="1">
       <c r="A573" s="59"/>
       <c r="B573" s="61"/>
       <c r="C573" s="61"/>
       <c r="D573" s="60"/>
       <c r="E573" s="60"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1" spans="1:5">
+    <row r="574" spans="1:5" ht="15.75" customHeight="1">
       <c r="A574" s="59"/>
       <c r="B574" s="61"/>
       <c r="C574" s="61"/>
       <c r="D574" s="60"/>
       <c r="E574" s="60"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1" spans="1:5">
+    <row r="575" spans="1:5" ht="15.75" customHeight="1">
       <c r="A575" s="59"/>
       <c r="B575" s="61"/>
       <c r="C575" s="61"/>
       <c r="D575" s="60"/>
       <c r="E575" s="60"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1" spans="1:5">
+    <row r="576" spans="1:5" ht="15.75" customHeight="1">
       <c r="A576" s="59"/>
       <c r="B576" s="61"/>
       <c r="C576" s="61"/>
       <c r="D576" s="60"/>
       <c r="E576" s="60"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1" spans="1:5">
+    <row r="577" spans="1:5" ht="15.75" customHeight="1">
       <c r="A577" s="59"/>
       <c r="B577" s="61"/>
       <c r="C577" s="61"/>
       <c r="D577" s="60"/>
       <c r="E577" s="60"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1" spans="1:5">
+    <row r="578" spans="1:5" ht="15.75" customHeight="1">
       <c r="A578" s="59"/>
       <c r="B578" s="61"/>
       <c r="C578" s="61"/>
       <c r="D578" s="60"/>
       <c r="E578" s="60"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1" spans="1:5">
+    <row r="579" spans="1:5" ht="15.75" customHeight="1">
       <c r="A579" s="59"/>
       <c r="B579" s="61"/>
       <c r="C579" s="61"/>
       <c r="D579" s="60"/>
       <c r="E579" s="60"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1" spans="1:5">
+    <row r="580" spans="1:5" ht="15.75" customHeight="1">
       <c r="A580" s="59"/>
       <c r="B580" s="61"/>
       <c r="C580" s="61"/>
       <c r="D580" s="60"/>
       <c r="E580" s="60"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1" spans="1:5">
+    <row r="581" spans="1:5" ht="15.75" customHeight="1">
       <c r="A581" s="59"/>
       <c r="B581" s="61"/>
       <c r="C581" s="61"/>
       <c r="D581" s="60"/>
       <c r="E581" s="60"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1" spans="1:5">
+    <row r="582" spans="1:5" ht="15.75" customHeight="1">
       <c r="A582" s="59"/>
       <c r="B582" s="61"/>
       <c r="C582" s="61"/>
       <c r="D582" s="60"/>
       <c r="E582" s="60"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1" spans="1:5">
+    <row r="583" spans="1:5" ht="15.75" customHeight="1">
       <c r="A583" s="59"/>
       <c r="B583" s="61"/>
       <c r="C583" s="61"/>
       <c r="D583" s="60"/>
       <c r="E583" s="60"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1" spans="1:5">
+    <row r="584" spans="1:5" ht="15.75" customHeight="1">
       <c r="A584" s="59"/>
       <c r="B584" s="61"/>
       <c r="C584" s="61"/>
       <c r="D584" s="60"/>
       <c r="E584" s="60"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1" spans="1:5">
+    <row r="585" spans="1:5" ht="15.75" customHeight="1">
       <c r="A585" s="59"/>
       <c r="B585" s="61"/>
       <c r="C585" s="61"/>
       <c r="D585" s="60"/>
       <c r="E585" s="60"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1" spans="1:5">
+    <row r="586" spans="1:5" ht="15.75" customHeight="1">
       <c r="A586" s="59"/>
       <c r="B586" s="61"/>
       <c r="C586" s="61"/>
       <c r="D586" s="60"/>
       <c r="E586" s="60"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1" spans="1:5">
+    <row r="587" spans="1:5" ht="15.75" customHeight="1">
       <c r="A587" s="59"/>
       <c r="B587" s="61"/>
       <c r="C587" s="61"/>
       <c r="D587" s="60"/>
       <c r="E587" s="60"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1" spans="1:5">
+    <row r="588" spans="1:5" ht="15.75" customHeight="1">
       <c r="A588" s="59"/>
       <c r="B588" s="61"/>
       <c r="C588" s="61"/>
       <c r="D588" s="60"/>
       <c r="E588" s="60"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1" spans="1:5">
+    <row r="589" spans="1:5" ht="15.75" customHeight="1">
       <c r="A589" s="59"/>
       <c r="B589" s="61"/>
       <c r="C589" s="61"/>
       <c r="D589" s="60"/>
       <c r="E589" s="60"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1" spans="1:5">
+    <row r="590" spans="1:5" ht="15.75" customHeight="1">
       <c r="A590" s="59"/>
       <c r="B590" s="61"/>
       <c r="C590" s="61"/>
       <c r="D590" s="60"/>
       <c r="E590" s="60"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1" spans="1:5">
+    <row r="591" spans="1:5" ht="15.75" customHeight="1">
       <c r="A591" s="59"/>
       <c r="B591" s="61"/>
       <c r="C591" s="61"/>
       <c r="D591" s="60"/>
       <c r="E591" s="60"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1" spans="1:5">
+    <row r="592" spans="1:5" ht="15.75" customHeight="1">
       <c r="A592" s="59"/>
       <c r="B592" s="61"/>
       <c r="C592" s="61"/>
       <c r="D592" s="60"/>
       <c r="E592" s="60"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1" spans="1:5">
+    <row r="593" spans="1:5" ht="15.75" customHeight="1">
       <c r="A593" s="59"/>
       <c r="B593" s="61"/>
       <c r="C593" s="61"/>
       <c r="D593" s="60"/>
       <c r="E593" s="60"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1" spans="1:5">
+    <row r="594" spans="1:5" ht="15.75" customHeight="1">
       <c r="A594" s="59"/>
       <c r="B594" s="61"/>
       <c r="C594" s="61"/>
       <c r="D594" s="60"/>
       <c r="E594" s="60"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1" spans="1:5">
+    <row r="595" spans="1:5" ht="15.75" customHeight="1">
       <c r="A595" s="59"/>
       <c r="B595" s="61"/>
       <c r="C595" s="61"/>
       <c r="D595" s="60"/>
       <c r="E595" s="60"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1" spans="1:5">
+    <row r="596" spans="1:5" ht="15.75" customHeight="1">
       <c r="A596" s="59"/>
       <c r="B596" s="61"/>
       <c r="C596" s="61"/>
       <c r="D596" s="60"/>
       <c r="E596" s="60"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1" spans="1:5">
+    <row r="597" spans="1:5" ht="15.75" customHeight="1">
       <c r="A597" s="59"/>
       <c r="B597" s="61"/>
       <c r="C597" s="61"/>
       <c r="D597" s="60"/>
       <c r="E597" s="60"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1" spans="1:5">
+    <row r="598" spans="1:5" ht="15.75" customHeight="1">
       <c r="A598" s="59"/>
       <c r="B598" s="61"/>
       <c r="C598" s="61"/>
       <c r="D598" s="60"/>
       <c r="E598" s="60"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1" spans="1:5">
+    <row r="599" spans="1:5" ht="15.75" customHeight="1">
       <c r="A599" s="59"/>
       <c r="B599" s="61"/>
       <c r="C599" s="61"/>
       <c r="D599" s="60"/>
       <c r="E599" s="60"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1" spans="1:5">
+    <row r="600" spans="1:5" ht="15.75" customHeight="1">
       <c r="A600" s="59"/>
       <c r="B600" s="61"/>
       <c r="C600" s="61"/>
       <c r="D600" s="60"/>
       <c r="E600" s="60"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1" spans="1:5">
+    <row r="601" spans="1:5" ht="15.75" customHeight="1">
       <c r="A601" s="59"/>
       <c r="B601" s="61"/>
       <c r="C601" s="61"/>
       <c r="D601" s="60"/>
       <c r="E601" s="60"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1" spans="1:5">
+    <row r="602" spans="1:5" ht="15.75" customHeight="1">
       <c r="A602" s="59"/>
       <c r="B602" s="61"/>
       <c r="C602" s="61"/>
       <c r="D602" s="60"/>
       <c r="E602" s="60"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1" spans="1:5">
+    <row r="603" spans="1:5" ht="15.75" customHeight="1">
       <c r="A603" s="59"/>
       <c r="B603" s="61"/>
       <c r="C603" s="61"/>
       <c r="D603" s="60"/>
       <c r="E603" s="60"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1" spans="1:5">
+    <row r="604" spans="1:5" ht="15.75" customHeight="1">
       <c r="A604" s="59"/>
       <c r="B604" s="61"/>
       <c r="C604" s="61"/>
       <c r="D604" s="60"/>
       <c r="E604" s="60"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1" spans="1:5">
+    <row r="605" spans="1:5" ht="15.75" customHeight="1">
       <c r="A605" s="59"/>
       <c r="B605" s="61"/>
       <c r="C605" s="61"/>
       <c r="D605" s="60"/>
       <c r="E605" s="60"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1" spans="1:5">
+    <row r="606" spans="1:5" ht="15.75" customHeight="1">
       <c r="A606" s="59"/>
       <c r="B606" s="61"/>
       <c r="C606" s="61"/>
       <c r="D606" s="60"/>
       <c r="E606" s="60"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1" spans="1:5">
+    <row r="607" spans="1:5" ht="15.75" customHeight="1">
       <c r="A607" s="59"/>
       <c r="B607" s="61"/>
       <c r="C607" s="61"/>
       <c r="D607" s="60"/>
       <c r="E607" s="60"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1" spans="1:5">
+    <row r="608" spans="1:5" ht="15.75" customHeight="1">
       <c r="A608" s="59"/>
       <c r="B608" s="61"/>
       <c r="C608" s="61"/>
       <c r="D608" s="60"/>
       <c r="E608" s="60"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1" spans="1:5">
+    <row r="609" spans="1:5" ht="15.75" customHeight="1">
       <c r="A609" s="59"/>
       <c r="B609" s="61"/>
       <c r="C609" s="61"/>
       <c r="D609" s="60"/>
       <c r="E609" s="60"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1" spans="1:5">
+    <row r="610" spans="1:5" ht="15.75" customHeight="1">
       <c r="A610" s="59"/>
       <c r="B610" s="61"/>
       <c r="C610" s="61"/>
       <c r="D610" s="60"/>
       <c r="E610" s="60"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1" spans="1:5">
+    <row r="611" spans="1:5" ht="15.75" customHeight="1">
       <c r="A611" s="59"/>
       <c r="B611" s="61"/>
       <c r="C611" s="61"/>
       <c r="D611" s="60"/>
       <c r="E611" s="60"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1" spans="1:5">
+    <row r="612" spans="1:5" ht="15.75" customHeight="1">
       <c r="A612" s="59"/>
       <c r="B612" s="61"/>
       <c r="C612" s="61"/>
       <c r="D612" s="60"/>
       <c r="E612" s="60"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1" spans="1:5">
+    <row r="613" spans="1:5" ht="15.75" customHeight="1">
       <c r="A613" s="59"/>
       <c r="B613" s="61"/>
       <c r="C613" s="61"/>
       <c r="D613" s="60"/>
       <c r="E613" s="60"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1" spans="1:5">
+    <row r="614" spans="1:5" ht="15.75" customHeight="1">
       <c r="A614" s="59"/>
       <c r="B614" s="61"/>
       <c r="C614" s="61"/>
       <c r="D614" s="60"/>
       <c r="E614" s="60"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1" spans="1:5">
+    <row r="615" spans="1:5" ht="15.75" customHeight="1">
       <c r="A615" s="59"/>
       <c r="B615" s="61"/>
       <c r="C615" s="61"/>
       <c r="D615" s="60"/>
       <c r="E615" s="60"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1" spans="1:5">
+    <row r="616" spans="1:5" ht="15.75" customHeight="1">
       <c r="A616" s="59"/>
       <c r="B616" s="61"/>
       <c r="C616" s="61"/>
       <c r="D616" s="60"/>
       <c r="E616" s="60"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1" spans="1:5">
+    <row r="617" spans="1:5" ht="15.75" customHeight="1">
       <c r="A617" s="59"/>
       <c r="B617" s="61"/>
       <c r="C617" s="61"/>
       <c r="D617" s="60"/>
       <c r="E617" s="60"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1" spans="1:5">
+    <row r="618" spans="1:5" ht="15.75" customHeight="1">
       <c r="A618" s="59"/>
       <c r="B618" s="61"/>
       <c r="C618" s="61"/>
       <c r="D618" s="60"/>
       <c r="E618" s="60"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1" spans="1:5">
+    <row r="619" spans="1:5" ht="15.75" customHeight="1">
       <c r="A619" s="59"/>
       <c r="B619" s="61"/>
       <c r="C619" s="61"/>
       <c r="D619" s="60"/>
       <c r="E619" s="60"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1" spans="1:5">
+    <row r="620" spans="1:5" ht="15.75" customHeight="1">
       <c r="A620" s="59"/>
       <c r="B620" s="61"/>
       <c r="C620" s="61"/>
       <c r="D620" s="60"/>
       <c r="E620" s="60"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1" spans="1:5">
+    <row r="621" spans="1:5" ht="15.75" customHeight="1">
       <c r="A621" s="59"/>
       <c r="B621" s="61"/>
       <c r="C621" s="61"/>
       <c r="D621" s="60"/>
       <c r="E621" s="60"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1" spans="1:5">
+    <row r="622" spans="1:5" ht="15.75" customHeight="1">
       <c r="A622" s="59"/>
       <c r="B622" s="61"/>
       <c r="C622" s="61"/>
       <c r="D622" s="60"/>
       <c r="E622" s="60"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1" spans="1:5">
+    <row r="623" spans="1:5" ht="15.75" customHeight="1">
       <c r="A623" s="59"/>
       <c r="B623" s="61"/>
       <c r="C623" s="61"/>
       <c r="D623" s="60"/>
       <c r="E623" s="60"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1" spans="1:5">
+    <row r="624" spans="1:5" ht="15.75" customHeight="1">
       <c r="A624" s="59"/>
       <c r="B624" s="61"/>
       <c r="C624" s="61"/>
       <c r="D624" s="60"/>
       <c r="E624" s="60"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1" spans="1:5">
+    <row r="625" spans="1:5" ht="15.75" customHeight="1">
       <c r="A625" s="59"/>
       <c r="B625" s="61"/>
       <c r="C625" s="61"/>
       <c r="D625" s="60"/>
       <c r="E625" s="60"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1" spans="1:5">
+    <row r="626" spans="1:5" ht="15.75" customHeight="1">
       <c r="A626" s="59"/>
       <c r="B626" s="61"/>
       <c r="C626" s="61"/>
       <c r="D626" s="60"/>
       <c r="E626" s="60"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1" spans="1:5">
+    <row r="627" spans="1:5" ht="15.75" customHeight="1">
       <c r="A627" s="59"/>
       <c r="B627" s="61"/>
       <c r="C627" s="61"/>
       <c r="D627" s="60"/>
       <c r="E627" s="60"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1" spans="1:5">
+    <row r="628" spans="1:5" ht="15.75" customHeight="1">
       <c r="A628" s="59"/>
       <c r="B628" s="61"/>
       <c r="C628" s="61"/>
       <c r="D628" s="60"/>
       <c r="E628" s="60"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1" spans="1:5">
+    <row r="629" spans="1:5" ht="15.75" customHeight="1">
       <c r="A629" s="59"/>
       <c r="B629" s="61"/>
       <c r="C629" s="61"/>
       <c r="D629" s="60"/>
       <c r="E629" s="60"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1" spans="1:5">
+    <row r="630" spans="1:5" ht="15.75" customHeight="1">
       <c r="A630" s="59"/>
       <c r="B630" s="61"/>
       <c r="C630" s="61"/>
       <c r="D630" s="60"/>
       <c r="E630" s="60"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1" spans="1:5">
+    <row r="631" spans="1:5" ht="15.75" customHeight="1">
       <c r="A631" s="59"/>
       <c r="B631" s="61"/>
       <c r="C631" s="61"/>
       <c r="D631" s="60"/>
       <c r="E631" s="60"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1" spans="1:5">
+    <row r="632" spans="1:5" ht="15.75" customHeight="1">
       <c r="A632" s="59"/>
       <c r="B632" s="61"/>
       <c r="C632" s="61"/>
       <c r="D632" s="60"/>
       <c r="E632" s="60"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1" spans="1:5">
+    <row r="633" spans="1:5" ht="15.75" customHeight="1">
       <c r="A633" s="59"/>
       <c r="B633" s="61"/>
       <c r="C633" s="61"/>
       <c r="D633" s="60"/>
       <c r="E633" s="60"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1" spans="1:5">
+    <row r="634" spans="1:5" ht="15.75" customHeight="1">
       <c r="A634" s="59"/>
       <c r="B634" s="61"/>
       <c r="C634" s="61"/>
       <c r="D634" s="60"/>
       <c r="E634" s="60"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1" spans="1:5">
+    <row r="635" spans="1:5" ht="15.75" customHeight="1">
       <c r="A635" s="59"/>
       <c r="B635" s="61"/>
       <c r="C635" s="61"/>
       <c r="D635" s="60"/>
       <c r="E635" s="60"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1" spans="1:5">
+    <row r="636" spans="1:5" ht="15.75" customHeight="1">
       <c r="A636" s="59"/>
       <c r="B636" s="61"/>
       <c r="C636" s="61"/>
       <c r="D636" s="60"/>
       <c r="E636" s="60"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1" spans="1:5">
+    <row r="637" spans="1:5" ht="15.75" customHeight="1">
       <c r="A637" s="59"/>
       <c r="B637" s="61"/>
       <c r="C637" s="61"/>
       <c r="D637" s="60"/>
       <c r="E637" s="60"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1" spans="1:5">
+    <row r="638" spans="1:5" ht="15.75" customHeight="1">
       <c r="A638" s="59"/>
       <c r="B638" s="61"/>
       <c r="C638" s="61"/>
       <c r="D638" s="60"/>
       <c r="E638" s="60"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1" spans="1:5">
+    <row r="639" spans="1:5" ht="15.75" customHeight="1">
       <c r="A639" s="59"/>
       <c r="B639" s="61"/>
       <c r="C639" s="61"/>
       <c r="D639" s="60"/>
       <c r="E639" s="60"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1" spans="1:5">
+    <row r="640" spans="1:5" ht="15.75" customHeight="1">
       <c r="A640" s="59"/>
       <c r="B640" s="61"/>
       <c r="C640" s="61"/>
       <c r="D640" s="60"/>
       <c r="E640" s="60"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1" spans="1:5">
+    <row r="641" spans="1:5" ht="15.75" customHeight="1">
       <c r="A641" s="59"/>
       <c r="B641" s="61"/>
       <c r="C641" s="61"/>
       <c r="D641" s="60"/>
       <c r="E641" s="60"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1" spans="1:5">
+    <row r="642" spans="1:5" ht="15.75" customHeight="1">
       <c r="A642" s="59"/>
       <c r="B642" s="61"/>
       <c r="C642" s="61"/>
       <c r="D642" s="60"/>
       <c r="E642" s="60"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1" spans="1:5">
+    <row r="643" spans="1:5" ht="15.75" customHeight="1">
       <c r="A643" s="59"/>
       <c r="B643" s="61"/>
       <c r="C643" s="61"/>
       <c r="D643" s="60"/>
       <c r="E643" s="60"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1" spans="1:5">
+    <row r="644" spans="1:5" ht="15.75" customHeight="1">
       <c r="A644" s="59"/>
       <c r="B644" s="61"/>
       <c r="C644" s="61"/>
       <c r="D644" s="60"/>
       <c r="E644" s="60"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1" spans="1:5">
+    <row r="645" spans="1:5" ht="15.75" customHeight="1">
       <c r="A645" s="59"/>
       <c r="B645" s="61"/>
       <c r="C645" s="61"/>
       <c r="D645" s="60"/>
       <c r="E645" s="60"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1" spans="1:5">
+    <row r="646" spans="1:5" ht="15.75" customHeight="1">
       <c r="A646" s="59"/>
       <c r="B646" s="61"/>
       <c r="C646" s="61"/>
       <c r="D646" s="60"/>
       <c r="E646" s="60"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1" spans="1:5">
+    <row r="647" spans="1:5" ht="15.75" customHeight="1">
       <c r="A647" s="59"/>
       <c r="B647" s="61"/>
       <c r="C647" s="61"/>
       <c r="D647" s="60"/>
       <c r="E647" s="60"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1" spans="1:5">
+    <row r="648" spans="1:5" ht="15.75" customHeight="1">
       <c r="A648" s="59"/>
       <c r="B648" s="61"/>
       <c r="C648" s="61"/>
       <c r="D648" s="60"/>
       <c r="E648" s="60"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1" spans="1:5">
+    <row r="649" spans="1:5" ht="15.75" customHeight="1">
       <c r="A649" s="59"/>
       <c r="B649" s="61"/>
       <c r="C649" s="61"/>
       <c r="D649" s="60"/>
       <c r="E649" s="60"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1" spans="1:5">
+    <row r="650" spans="1:5" ht="15.75" customHeight="1">
       <c r="A650" s="59"/>
       <c r="B650" s="61"/>
       <c r="C650" s="61"/>
       <c r="D650" s="60"/>
       <c r="E650" s="60"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1" spans="1:5">
+    <row r="651" spans="1:5" ht="15.75" customHeight="1">
       <c r="A651" s="59"/>
       <c r="B651" s="61"/>
       <c r="C651" s="61"/>
       <c r="D651" s="60"/>
       <c r="E651" s="60"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1" spans="1:5">
+    <row r="652" spans="1:5" ht="15.75" customHeight="1">
       <c r="A652" s="59"/>
       <c r="B652" s="61"/>
       <c r="C652" s="61"/>
       <c r="D652" s="60"/>
       <c r="E652" s="60"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1" spans="1:5">
+    <row r="653" spans="1:5" ht="15.75" customHeight="1">
       <c r="A653" s="59"/>
       <c r="B653" s="61"/>
       <c r="C653" s="61"/>
       <c r="D653" s="60"/>
       <c r="E653" s="60"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1" spans="1:5">
+    <row r="654" spans="1:5" ht="15.75" customHeight="1">
       <c r="A654" s="59"/>
       <c r="B654" s="61"/>
       <c r="C654" s="61"/>
       <c r="D654" s="60"/>
       <c r="E654" s="60"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1" spans="1:5">
+    <row r="655" spans="1:5" ht="15.75" customHeight="1">
       <c r="A655" s="59"/>
       <c r="B655" s="61"/>
       <c r="C655" s="61"/>
       <c r="D655" s="60"/>
       <c r="E655" s="60"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1" spans="1:5">
+    <row r="656" spans="1:5" ht="15.75" customHeight="1">
       <c r="A656" s="59"/>
       <c r="B656" s="61"/>
       <c r="C656" s="61"/>
       <c r="D656" s="60"/>
       <c r="E656" s="60"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1" spans="1:5">
+    <row r="657" spans="1:5" ht="15.75" customHeight="1">
       <c r="A657" s="59"/>
       <c r="B657" s="61"/>
       <c r="C657" s="61"/>
       <c r="D657" s="60"/>
       <c r="E657" s="60"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1" spans="1:5">
+    <row r="658" spans="1:5" ht="15.75" customHeight="1">
       <c r="A658" s="59"/>
       <c r="B658" s="61"/>
       <c r="C658" s="61"/>
       <c r="D658" s="60"/>
       <c r="E658" s="60"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1" spans="1:5">
+    <row r="659" spans="1:5" ht="15.75" customHeight="1">
       <c r="A659" s="59"/>
       <c r="B659" s="61"/>
       <c r="C659" s="61"/>
       <c r="D659" s="60"/>
       <c r="E659" s="60"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1" spans="1:5">
+    <row r="660" spans="1:5" ht="15.75" customHeight="1">
       <c r="A660" s="59"/>
       <c r="B660" s="61"/>
       <c r="C660" s="61"/>
       <c r="D660" s="60"/>
       <c r="E660" s="60"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1" spans="1:5">
+    <row r="661" spans="1:5" ht="15.75" customHeight="1">
       <c r="A661" s="59"/>
       <c r="B661" s="61"/>
       <c r="C661" s="61"/>
       <c r="D661" s="60"/>
       <c r="E661" s="60"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1" spans="1:5">
+    <row r="662" spans="1:5" ht="15.75" customHeight="1">
       <c r="A662" s="59"/>
       <c r="B662" s="61"/>
       <c r="C662" s="61"/>
       <c r="D662" s="60"/>
       <c r="E662" s="60"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1" spans="1:5">
+    <row r="663" spans="1:5" ht="15.75" customHeight="1">
       <c r="A663" s="59"/>
       <c r="B663" s="61"/>
       <c r="C663" s="61"/>
       <c r="D663" s="60"/>
       <c r="E663" s="60"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1" spans="1:5">
+    <row r="664" spans="1:5" ht="15.75" customHeight="1">
       <c r="A664" s="59"/>
       <c r="B664" s="61"/>
       <c r="C664" s="61"/>
       <c r="D664" s="60"/>
       <c r="E664" s="60"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1" spans="1:5">
+    <row r="665" spans="1:5" ht="15.75" customHeight="1">
       <c r="A665" s="59"/>
       <c r="B665" s="61"/>
       <c r="C665" s="61"/>
       <c r="D665" s="60"/>
       <c r="E665" s="60"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1" spans="1:5">
+    <row r="666" spans="1:5" ht="15.75" customHeight="1">
       <c r="A666" s="59"/>
       <c r="B666" s="61"/>
       <c r="C666" s="61"/>
       <c r="D666" s="60"/>
       <c r="E666" s="60"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1" spans="1:5">
+    <row r="667" spans="1:5" ht="15.75" customHeight="1">
       <c r="A667" s="59"/>
       <c r="B667" s="61"/>
       <c r="C667" s="61"/>
       <c r="D667" s="60"/>
       <c r="E667" s="60"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1" spans="1:5">
+    <row r="668" spans="1:5" ht="15.75" customHeight="1">
       <c r="A668" s="59"/>
       <c r="B668" s="61"/>
       <c r="C668" s="61"/>
       <c r="D668" s="60"/>
       <c r="E668" s="60"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1" spans="1:5">
+    <row r="669" spans="1:5" ht="15.75" customHeight="1">
       <c r="A669" s="59"/>
       <c r="B669" s="61"/>
       <c r="C669" s="61"/>
       <c r="D669" s="60"/>
       <c r="E669" s="60"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1" spans="1:5">
+    <row r="670" spans="1:5" ht="15.75" customHeight="1">
       <c r="A670" s="59"/>
       <c r="B670" s="61"/>
       <c r="C670" s="61"/>
       <c r="D670" s="60"/>
       <c r="E670" s="60"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1" spans="1:5">
+    <row r="671" spans="1:5" ht="15.75" customHeight="1">
       <c r="A671" s="59"/>
       <c r="B671" s="61"/>
       <c r="C671" s="61"/>
       <c r="D671" s="60"/>
       <c r="E671" s="60"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1" spans="1:5">
+    <row r="672" spans="1:5" ht="15.75" customHeight="1">
       <c r="A672" s="59"/>
       <c r="B672" s="61"/>
       <c r="C672" s="61"/>
       <c r="D672" s="60"/>
       <c r="E672" s="60"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1" spans="1:5">
+    <row r="673" spans="1:5" ht="15.75" customHeight="1">
       <c r="A673" s="59"/>
       <c r="B673" s="61"/>
       <c r="C673" s="61"/>
       <c r="D673" s="60"/>
       <c r="E673" s="60"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1" spans="1:5">
+    <row r="674" spans="1:5" ht="15.75" customHeight="1">
       <c r="A674" s="59"/>
       <c r="B674" s="61"/>
       <c r="C674" s="61"/>
       <c r="D674" s="60"/>
       <c r="E674" s="60"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1" spans="1:5">
+    <row r="675" spans="1:5" ht="15.75" customHeight="1">
       <c r="A675" s="59"/>
       <c r="B675" s="61"/>
       <c r="C675" s="61"/>
       <c r="D675" s="60"/>
       <c r="E675" s="60"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1" spans="1:5">
+    <row r="676" spans="1:5" ht="15.75" customHeight="1">
       <c r="A676" s="59"/>
       <c r="B676" s="61"/>
       <c r="C676" s="61"/>
       <c r="D676" s="60"/>
       <c r="E676" s="60"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1" spans="1:5">
+    <row r="677" spans="1:5" ht="15.75" customHeight="1">
       <c r="A677" s="59"/>
       <c r="B677" s="61"/>
       <c r="C677" s="61"/>
       <c r="D677" s="60"/>
       <c r="E677" s="60"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1" spans="1:5">
+    <row r="678" spans="1:5" ht="15.75" customHeight="1">
       <c r="A678" s="59"/>
       <c r="B678" s="61"/>
       <c r="C678" s="61"/>
       <c r="D678" s="60"/>
       <c r="E678" s="60"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1" spans="1:5">
+    <row r="679" spans="1:5" ht="15.75" customHeight="1">
       <c r="A679" s="59"/>
       <c r="B679" s="61"/>
       <c r="C679" s="61"/>
       <c r="D679" s="60"/>
       <c r="E679" s="60"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1" spans="1:5">
+    <row r="680" spans="1:5" ht="15.75" customHeight="1">
       <c r="A680" s="59"/>
       <c r="B680" s="61"/>
       <c r="C680" s="61"/>
       <c r="D680" s="60"/>
       <c r="E680" s="60"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1" spans="1:5">
+    <row r="681" spans="1:5" ht="15.75" customHeight="1">
       <c r="A681" s="59"/>
       <c r="B681" s="61"/>
       <c r="C681" s="61"/>
       <c r="D681" s="60"/>
       <c r="E681" s="60"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1" spans="1:5">
+    <row r="682" spans="1:5" ht="15.75" customHeight="1">
       <c r="A682" s="59"/>
       <c r="B682" s="61"/>
       <c r="C682" s="61"/>
       <c r="D682" s="60"/>
       <c r="E682" s="60"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1" spans="1:5">
+    <row r="683" spans="1:5" ht="15.75" customHeight="1">
       <c r="A683" s="59"/>
       <c r="B683" s="61"/>
       <c r="C683" s="61"/>
       <c r="D683" s="60"/>
       <c r="E683" s="60"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1" spans="1:5">
+    <row r="684" spans="1:5" ht="15.75" customHeight="1">
       <c r="A684" s="59"/>
       <c r="B684" s="61"/>
       <c r="C684" s="61"/>
       <c r="D684" s="60"/>
       <c r="E684" s="60"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1" spans="1:5">
+    <row r="685" spans="1:5" ht="15.75" customHeight="1">
       <c r="A685" s="59"/>
       <c r="B685" s="61"/>
       <c r="C685" s="61"/>
       <c r="D685" s="60"/>
       <c r="E685" s="60"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1" spans="1:5">
+    <row r="686" spans="1:5" ht="15.75" customHeight="1">
       <c r="A686" s="59"/>
       <c r="B686" s="61"/>
       <c r="C686" s="61"/>
       <c r="D686" s="60"/>
       <c r="E686" s="60"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1" spans="1:5">
+    <row r="687" spans="1:5" ht="15.75" customHeight="1">
       <c r="A687" s="59"/>
       <c r="B687" s="61"/>
       <c r="C687" s="61"/>
       <c r="D687" s="60"/>
       <c r="E687" s="60"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1" spans="1:5">
+    <row r="688" spans="1:5" ht="15.75" customHeight="1">
       <c r="A688" s="59"/>
       <c r="B688" s="61"/>
       <c r="C688" s="61"/>
       <c r="D688" s="60"/>
       <c r="E688" s="60"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1" spans="1:5">
+    <row r="689" spans="1:5" ht="15.75" customHeight="1">
       <c r="A689" s="59"/>
       <c r="B689" s="61"/>
       <c r="C689" s="61"/>
       <c r="D689" s="60"/>
       <c r="E689" s="60"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1" spans="1:5">
+    <row r="690" spans="1:5" ht="15.75" customHeight="1">
       <c r="A690" s="59"/>
       <c r="B690" s="61"/>
       <c r="C690" s="61"/>
       <c r="D690" s="60"/>
       <c r="E690" s="60"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1" spans="1:5">
+    <row r="691" spans="1:5" ht="15.75" customHeight="1">
       <c r="A691" s="59"/>
       <c r="B691" s="61"/>
       <c r="C691" s="61"/>
       <c r="D691" s="60"/>
       <c r="E691" s="60"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1" spans="1:5">
+    <row r="692" spans="1:5" ht="15.75" customHeight="1">
       <c r="A692" s="59"/>
       <c r="B692" s="61"/>
       <c r="C692" s="61"/>
       <c r="D692" s="60"/>
       <c r="E692" s="60"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1" spans="1:5">
+    <row r="693" spans="1:5" ht="15.75" customHeight="1">
       <c r="A693" s="59"/>
       <c r="B693" s="61"/>
       <c r="C693" s="61"/>
       <c r="D693" s="60"/>
       <c r="E693" s="60"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1" spans="1:5">
+    <row r="694" spans="1:5" ht="15.75" customHeight="1">
       <c r="A694" s="59"/>
       <c r="B694" s="61"/>
       <c r="C694" s="61"/>
       <c r="D694" s="60"/>
       <c r="E694" s="60"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1" spans="1:5">
+    <row r="695" spans="1:5" ht="15.75" customHeight="1">
       <c r="A695" s="59"/>
       <c r="B695" s="61"/>
       <c r="C695" s="61"/>
       <c r="D695" s="60"/>
       <c r="E695" s="60"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1" spans="1:5">
+    <row r="696" spans="1:5" ht="15.75" customHeight="1">
       <c r="A696" s="59"/>
       <c r="B696" s="61"/>
       <c r="C696" s="61"/>
       <c r="D696" s="60"/>
       <c r="E696" s="60"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1" spans="1:5">
+    <row r="697" spans="1:5" ht="15.75" customHeight="1">
       <c r="A697" s="59"/>
       <c r="B697" s="61"/>
       <c r="C697" s="61"/>
       <c r="D697" s="60"/>
       <c r="E697" s="60"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1" spans="1:5">
+    <row r="698" spans="1:5" ht="15.75" customHeight="1">
       <c r="A698" s="59"/>
       <c r="B698" s="61"/>
       <c r="C698" s="61"/>
       <c r="D698" s="60"/>
       <c r="E698" s="60"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1" spans="1:5">
+    <row r="699" spans="1:5" ht="15.75" customHeight="1">
       <c r="A699" s="59"/>
       <c r="B699" s="61"/>
       <c r="C699" s="61"/>
       <c r="D699" s="60"/>
       <c r="E699" s="60"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1" spans="1:5">
+    <row r="700" spans="1:5" ht="15.75" customHeight="1">
       <c r="A700" s="59"/>
       <c r="B700" s="61"/>
       <c r="C700" s="61"/>
       <c r="D700" s="60"/>
       <c r="E700" s="60"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1" spans="1:5">
+    <row r="701" spans="1:5" ht="15.75" customHeight="1">
       <c r="A701" s="59"/>
       <c r="B701" s="61"/>
       <c r="C701" s="61"/>
       <c r="D701" s="60"/>
       <c r="E701" s="60"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1" spans="1:5">
+    <row r="702" spans="1:5" ht="15.75" customHeight="1">
       <c r="A702" s="59"/>
       <c r="B702" s="61"/>
       <c r="C702" s="61"/>
       <c r="D702" s="60"/>
       <c r="E702" s="60"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1" spans="1:5">
+    <row r="703" spans="1:5" ht="15.75" customHeight="1">
       <c r="A703" s="59"/>
       <c r="B703" s="61"/>
       <c r="C703" s="61"/>
       <c r="D703" s="60"/>
       <c r="E703" s="60"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1" spans="1:5">
+    <row r="704" spans="1:5" ht="15.75" customHeight="1">
       <c r="A704" s="59"/>
       <c r="B704" s="61"/>
       <c r="C704" s="61"/>
       <c r="D704" s="60"/>
       <c r="E704" s="60"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1" spans="1:5">
+    <row r="705" spans="1:5" ht="15.75" customHeight="1">
       <c r="A705" s="59"/>
       <c r="B705" s="61"/>
       <c r="C705" s="61"/>
       <c r="D705" s="60"/>
       <c r="E705" s="60"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1" spans="1:5">
+    <row r="706" spans="1:5" ht="15.75" customHeight="1">
       <c r="A706" s="59"/>
       <c r="B706" s="61"/>
       <c r="C706" s="61"/>
       <c r="D706" s="60"/>
       <c r="E706" s="60"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1" spans="1:5">
+    <row r="707" spans="1:5" ht="15.75" customHeight="1">
       <c r="A707" s="59"/>
       <c r="B707" s="61"/>
       <c r="C707" s="61"/>
       <c r="D707" s="60"/>
       <c r="E707" s="60"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1" spans="1:5">
+    <row r="708" spans="1:5" ht="15.75" customHeight="1">
       <c r="A708" s="59"/>
       <c r="B708" s="61"/>
       <c r="C708" s="61"/>
       <c r="D708" s="60"/>
       <c r="E708" s="60"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1" spans="1:5">
+    <row r="709" spans="1:5" ht="15.75" customHeight="1">
       <c r="A709" s="59"/>
       <c r="B709" s="61"/>
       <c r="C709" s="61"/>
       <c r="D709" s="60"/>
       <c r="E709" s="60"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1" spans="1:5">
+    <row r="710" spans="1:5" ht="15.75" customHeight="1">
       <c r="A710" s="59"/>
       <c r="B710" s="61"/>
       <c r="C710" s="61"/>
       <c r="D710" s="60"/>
       <c r="E710" s="60"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1" spans="1:5">
+    <row r="711" spans="1:5" ht="15.75" customHeight="1">
       <c r="A711" s="59"/>
       <c r="B711" s="61"/>
       <c r="C711" s="61"/>
       <c r="D711" s="60"/>
       <c r="E711" s="60"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1" spans="1:5">
+    <row r="712" spans="1:5" ht="15.75" customHeight="1">
       <c r="A712" s="59"/>
       <c r="B712" s="61"/>
       <c r="C712" s="61"/>
       <c r="D712" s="60"/>
       <c r="E712" s="60"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1" spans="1:5">
+    <row r="713" spans="1:5" ht="15.75" customHeight="1">
       <c r="A713" s="59"/>
       <c r="B713" s="61"/>
       <c r="C713" s="61"/>
       <c r="D713" s="60"/>
       <c r="E713" s="60"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1" spans="1:5">
+    <row r="714" spans="1:5" ht="15.75" customHeight="1">
       <c r="A714" s="59"/>
       <c r="B714" s="61"/>
       <c r="C714" s="61"/>
       <c r="D714" s="60"/>
       <c r="E714" s="60"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1" spans="1:5">
+    <row r="715" spans="1:5" ht="15.75" customHeight="1">
       <c r="A715" s="59"/>
       <c r="B715" s="61"/>
       <c r="C715" s="61"/>
       <c r="D715" s="60"/>
       <c r="E715" s="60"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1" spans="1:5">
+    <row r="716" spans="1:5" ht="15.75" customHeight="1">
       <c r="A716" s="59"/>
       <c r="B716" s="61"/>
       <c r="C716" s="61"/>
       <c r="D716" s="60"/>
       <c r="E716" s="60"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1" spans="1:5">
+    <row r="717" spans="1:5" ht="15.75" customHeight="1">
       <c r="A717" s="59"/>
       <c r="B717" s="61"/>
       <c r="C717" s="61"/>
       <c r="D717" s="60"/>
       <c r="E717" s="60"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1" spans="1:5">
+    <row r="718" spans="1:5" ht="15.75" customHeight="1">
       <c r="A718" s="59"/>
       <c r="B718" s="61"/>
       <c r="C718" s="61"/>
       <c r="D718" s="60"/>
       <c r="E718" s="60"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1" spans="1:5">
+    <row r="719" spans="1:5" ht="15.75" customHeight="1">
       <c r="A719" s="59"/>
       <c r="B719" s="61"/>
       <c r="C719" s="61"/>
       <c r="D719" s="60"/>
       <c r="E719" s="60"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1" spans="1:5">
+    <row r="720" spans="1:5" ht="15.75" customHeight="1">
       <c r="A720" s="59"/>
       <c r="B720" s="61"/>
       <c r="C720" s="61"/>
       <c r="D720" s="60"/>
       <c r="E720" s="60"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1" spans="1:5">
+    <row r="721" spans="1:5" ht="15.75" customHeight="1">
       <c r="A721" s="59"/>
       <c r="B721" s="61"/>
       <c r="C721" s="61"/>
       <c r="D721" s="60"/>
       <c r="E721" s="60"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1" spans="1:5">
+    <row r="722" spans="1:5" ht="15.75" customHeight="1">
       <c r="A722" s="59"/>
       <c r="B722" s="61"/>
       <c r="C722" s="61"/>
       <c r="D722" s="60"/>
       <c r="E722" s="60"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1" spans="1:5">
+    <row r="723" spans="1:5" ht="15.75" customHeight="1">
       <c r="A723" s="59"/>
       <c r="B723" s="61"/>
       <c r="C723" s="61"/>
       <c r="D723" s="60"/>
       <c r="E723" s="60"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1" spans="1:5">
+    <row r="724" spans="1:5" ht="15.75" customHeight="1">
       <c r="A724" s="59"/>
       <c r="B724" s="61"/>
       <c r="C724" s="61"/>
       <c r="D724" s="60"/>
       <c r="E724" s="60"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1" spans="1:5">
+    <row r="725" spans="1:5" ht="15.75" customHeight="1">
       <c r="A725" s="59"/>
       <c r="B725" s="61"/>
       <c r="C725" s="61"/>
       <c r="D725" s="60"/>
       <c r="E725" s="60"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1" spans="1:5">
+    <row r="726" spans="1:5" ht="15.75" customHeight="1">
       <c r="A726" s="59"/>
       <c r="B726" s="61"/>
       <c r="C726" s="61"/>
       <c r="D726" s="60"/>
       <c r="E726" s="60"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1" spans="1:5">
+    <row r="727" spans="1:5" ht="15.75" customHeight="1">
       <c r="A727" s="59"/>
       <c r="B727" s="61"/>
       <c r="C727" s="61"/>
       <c r="D727" s="60"/>
       <c r="E727" s="60"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1" spans="1:5">
+    <row r="728" spans="1:5" ht="15.75" customHeight="1">
       <c r="A728" s="59"/>
       <c r="B728" s="61"/>
       <c r="C728" s="61"/>
       <c r="D728" s="60"/>
       <c r="E728" s="60"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1" spans="1:5">
+    <row r="729" spans="1:5" ht="15.75" customHeight="1">
       <c r="A729" s="59"/>
       <c r="B729" s="61"/>
       <c r="C729" s="61"/>
       <c r="D729" s="60"/>
       <c r="E729" s="60"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1" spans="1:5">
+    <row r="730" spans="1:5" ht="15.75" customHeight="1">
       <c r="A730" s="59"/>
       <c r="B730" s="61"/>
       <c r="C730" s="61"/>
       <c r="D730" s="60"/>
       <c r="E730" s="60"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1" spans="1:5">
+    <row r="731" spans="1:5" ht="15.75" customHeight="1">
       <c r="A731" s="59"/>
       <c r="B731" s="61"/>
       <c r="C731" s="61"/>
       <c r="D731" s="60"/>
       <c r="E731" s="60"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1" spans="1:5">
+    <row r="732" spans="1:5" ht="15.75" customHeight="1">
       <c r="A732" s="59"/>
       <c r="B732" s="61"/>
       <c r="C732" s="61"/>
       <c r="D732" s="60"/>
       <c r="E732" s="60"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1" spans="1:5">
+    <row r="733" spans="1:5" ht="15.75" customHeight="1">
       <c r="A733" s="59"/>
       <c r="B733" s="61"/>
       <c r="C733" s="61"/>
       <c r="D733" s="60"/>
       <c r="E733" s="60"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1" spans="1:5">
+    <row r="734" spans="1:5" ht="15.75" customHeight="1">
       <c r="A734" s="59"/>
       <c r="B734" s="61"/>
       <c r="C734" s="61"/>
       <c r="D734" s="60"/>
       <c r="E734" s="60"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1" spans="1:5">
+    <row r="735" spans="1:5" ht="15.75" customHeight="1">
       <c r="A735" s="59"/>
       <c r="B735" s="61"/>
       <c r="C735" s="61"/>
       <c r="D735" s="60"/>
       <c r="E735" s="60"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1" spans="1:5">
+    <row r="736" spans="1:5" ht="15.75" customHeight="1">
       <c r="A736" s="59"/>
       <c r="B736" s="61"/>
       <c r="C736" s="61"/>
       <c r="D736" s="60"/>
       <c r="E736" s="60"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1" spans="1:5">
+    <row r="737" spans="1:5" ht="15.75" customHeight="1">
       <c r="A737" s="59"/>
       <c r="B737" s="61"/>
       <c r="C737" s="61"/>
       <c r="D737" s="60"/>
       <c r="E737" s="60"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1" spans="1:5">
+    <row r="738" spans="1:5" ht="15.75" customHeight="1">
       <c r="A738" s="59"/>
       <c r="B738" s="61"/>
       <c r="C738" s="61"/>
       <c r="D738" s="60"/>
       <c r="E738" s="60"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1" spans="1:5">
+    <row r="739" spans="1:5" ht="15.75" customHeight="1">
       <c r="A739" s="59"/>
       <c r="B739" s="61"/>
       <c r="C739" s="61"/>
       <c r="D739" s="60"/>
       <c r="E739" s="60"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1" spans="1:5">
+    <row r="740" spans="1:5" ht="15.75" customHeight="1">
       <c r="A740" s="59"/>
       <c r="B740" s="61"/>
       <c r="C740" s="61"/>
       <c r="D740" s="60"/>
       <c r="E740" s="60"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1" spans="1:5">
+    <row r="741" spans="1:5" ht="15.75" customHeight="1">
       <c r="A741" s="59"/>
       <c r="B741" s="61"/>
       <c r="C741" s="61"/>
       <c r="D741" s="60"/>
       <c r="E741" s="60"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1" spans="1:5">
+    <row r="742" spans="1:5" ht="15.75" customHeight="1">
       <c r="A742" s="59"/>
       <c r="B742" s="61"/>
       <c r="C742" s="61"/>
       <c r="D742" s="60"/>
       <c r="E742" s="60"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1" spans="1:5">
+    <row r="743" spans="1:5" ht="15.75" customHeight="1">
       <c r="A743" s="59"/>
       <c r="B743" s="61"/>
       <c r="C743" s="61"/>
       <c r="D743" s="60"/>
       <c r="E743" s="60"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1" spans="1:5">
+    <row r="744" spans="1:5" ht="15.75" customHeight="1">
       <c r="A744" s="59"/>
       <c r="B744" s="61"/>
       <c r="C744" s="61"/>
       <c r="D744" s="60"/>
       <c r="E744" s="60"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1" spans="1:5">
+    <row r="745" spans="1:5" ht="15.75" customHeight="1">
       <c r="A745" s="59"/>
       <c r="B745" s="61"/>
       <c r="C745" s="61"/>
       <c r="D745" s="60"/>
       <c r="E745" s="60"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1" spans="1:5">
+    <row r="746" spans="1:5" ht="15.75" customHeight="1">
       <c r="A746" s="59"/>
       <c r="B746" s="61"/>
       <c r="C746" s="61"/>
       <c r="D746" s="60"/>
       <c r="E746" s="60"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1" spans="1:5">
+    <row r="747" spans="1:5" ht="15.75" customHeight="1">
       <c r="A747" s="59"/>
       <c r="B747" s="61"/>
       <c r="C747" s="61"/>
       <c r="D747" s="60"/>
       <c r="E747" s="60"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1" spans="1:5">
+    <row r="748" spans="1:5" ht="15.75" customHeight="1">
       <c r="A748" s="59"/>
       <c r="B748" s="61"/>
       <c r="C748" s="61"/>
       <c r="D748" s="60"/>
       <c r="E748" s="60"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1" spans="1:5">
+    <row r="749" spans="1:5" ht="15.75" customHeight="1">
       <c r="A749" s="59"/>
       <c r="B749" s="61"/>
       <c r="C749" s="61"/>
       <c r="D749" s="60"/>
       <c r="E749" s="60"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1" spans="1:5">
+    <row r="750" spans="1:5" ht="15.75" customHeight="1">
       <c r="A750" s="59"/>
       <c r="B750" s="61"/>
       <c r="C750" s="61"/>
       <c r="D750" s="60"/>
       <c r="E750" s="60"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1" spans="1:5">
+    <row r="751" spans="1:5" ht="15.75" customHeight="1">
       <c r="A751" s="59"/>
       <c r="B751" s="61"/>
       <c r="C751" s="61"/>
       <c r="D751" s="60"/>
       <c r="E751" s="60"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1" spans="1:5">
+    <row r="752" spans="1:5" ht="15.75" customHeight="1">
       <c r="A752" s="59"/>
       <c r="B752" s="61"/>
       <c r="C752" s="61"/>
       <c r="D752" s="60"/>
       <c r="E752" s="60"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1" spans="1:5">
+    <row r="753" spans="1:5" ht="15.75" customHeight="1">
       <c r="A753" s="59"/>
       <c r="B753" s="61"/>
       <c r="C753" s="61"/>
       <c r="D753" s="60"/>
       <c r="E753" s="60"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1" spans="1:5">
+    <row r="754" spans="1:5" ht="15.75" customHeight="1">
       <c r="A754" s="59"/>
       <c r="B754" s="61"/>
       <c r="C754" s="61"/>
       <c r="D754" s="60"/>
       <c r="E754" s="60"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1" spans="1:5">
+    <row r="755" spans="1:5" ht="15.75" customHeight="1">
       <c r="A755" s="59"/>
       <c r="B755" s="61"/>
       <c r="C755" s="61"/>
       <c r="D755" s="60"/>
       <c r="E755" s="60"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1" spans="1:5">
+    <row r="756" spans="1:5" ht="15.75" customHeight="1">
       <c r="A756" s="59"/>
       <c r="B756" s="61"/>
       <c r="C756" s="61"/>
       <c r="D756" s="60"/>
       <c r="E756" s="60"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1" spans="1:5">
+    <row r="757" spans="1:5" ht="15.75" customHeight="1">
       <c r="A757" s="59"/>
       <c r="B757" s="61"/>
       <c r="C757" s="61"/>
       <c r="D757" s="60"/>
       <c r="E757" s="60"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1" spans="1:5">
+    <row r="758" spans="1:5" ht="15.75" customHeight="1">
       <c r="A758" s="59"/>
       <c r="B758" s="61"/>
       <c r="C758" s="61"/>
       <c r="D758" s="60"/>
       <c r="E758" s="60"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1" spans="1:5">
+    <row r="759" spans="1:5" ht="15.75" customHeight="1">
       <c r="A759" s="59"/>
       <c r="B759" s="61"/>
       <c r="C759" s="61"/>
       <c r="D759" s="60"/>
       <c r="E759" s="60"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1" spans="1:5">
+    <row r="760" spans="1:5" ht="15.75" customHeight="1">
       <c r="A760" s="59"/>
       <c r="B760" s="61"/>
       <c r="C760" s="61"/>
       <c r="D760" s="60"/>
       <c r="E760" s="60"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1" spans="1:5">
+    <row r="761" spans="1:5" ht="15.75" customHeight="1">
       <c r="A761" s="59"/>
       <c r="B761" s="61"/>
       <c r="C761" s="61"/>
       <c r="D761" s="60"/>
       <c r="E761" s="60"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1" spans="1:5">
+    <row r="762" spans="1:5" ht="15.75" customHeight="1">
       <c r="A762" s="59"/>
       <c r="B762" s="61"/>
       <c r="C762" s="61"/>
       <c r="D762" s="60"/>
       <c r="E762" s="60"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1" spans="1:5">
+    <row r="763" spans="1:5" ht="15.75" customHeight="1">
       <c r="A763" s="59"/>
       <c r="B763" s="61"/>
       <c r="C763" s="61"/>
       <c r="D763" s="60"/>
       <c r="E763" s="60"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1" spans="1:5">
+    <row r="764" spans="1:5" ht="15.75" customHeight="1">
       <c r="A764" s="59"/>
       <c r="B764" s="61"/>
       <c r="C764" s="61"/>
       <c r="D764" s="60"/>
       <c r="E764" s="60"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1" spans="1:5">
+    <row r="765" spans="1:5" ht="15.75" customHeight="1">
       <c r="A765" s="59"/>
       <c r="B765" s="61"/>
       <c r="C765" s="61"/>
       <c r="D765" s="60"/>
       <c r="E765" s="60"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1" spans="1:5">
+    <row r="766" spans="1:5" ht="15.75" customHeight="1">
       <c r="A766" s="59"/>
       <c r="B766" s="61"/>
       <c r="C766" s="61"/>
       <c r="D766" s="60"/>
       <c r="E766" s="60"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1" spans="1:5">
+    <row r="767" spans="1:5" ht="15.75" customHeight="1">
       <c r="A767" s="59"/>
       <c r="B767" s="61"/>
       <c r="C767" s="61"/>
       <c r="D767" s="60"/>
       <c r="E767" s="60"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1" spans="1:5">
+    <row r="768" spans="1:5" ht="15.75" customHeight="1">
       <c r="A768" s="59"/>
       <c r="B768" s="61"/>
       <c r="C768" s="61"/>
       <c r="D768" s="60"/>
       <c r="E768" s="60"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1" spans="1:5">
+    <row r="769" spans="1:5" ht="15.75" customHeight="1">
       <c r="A769" s="59"/>
       <c r="B769" s="61"/>
       <c r="C769" s="61"/>
       <c r="D769" s="60"/>
       <c r="E769" s="60"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1" spans="1:5">
+    <row r="770" spans="1:5" ht="15.75" customHeight="1">
       <c r="A770" s="59"/>
       <c r="B770" s="61"/>
       <c r="C770" s="61"/>
       <c r="D770" s="60"/>
       <c r="E770" s="60"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1" spans="1:5">
+    <row r="771" spans="1:5" ht="15.75" customHeight="1">
       <c r="A771" s="59"/>
       <c r="B771" s="61"/>
       <c r="C771" s="61"/>
       <c r="D771" s="60"/>
       <c r="E771" s="60"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1" spans="1:5">
+    <row r="772" spans="1:5" ht="15.75" customHeight="1">
       <c r="A772" s="59"/>
       <c r="B772" s="61"/>
       <c r="C772" s="61"/>
       <c r="D772" s="60"/>
       <c r="E772" s="60"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1" spans="1:5">
+    <row r="773" spans="1:5" ht="15.75" customHeight="1">
       <c r="A773" s="59"/>
       <c r="B773" s="61"/>
       <c r="C773" s="61"/>
       <c r="D773" s="60"/>
       <c r="E773" s="60"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1" spans="1:5">
+    <row r="774" spans="1:5" ht="15.75" customHeight="1">
       <c r="A774" s="59"/>
       <c r="B774" s="61"/>
       <c r="C774" s="61"/>
       <c r="D774" s="60"/>
       <c r="E774" s="60"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1" spans="1:5">
+    <row r="775" spans="1:5" ht="15.75" customHeight="1">
       <c r="A775" s="59"/>
       <c r="B775" s="61"/>
       <c r="C775" s="61"/>
       <c r="D775" s="60"/>
       <c r="E775" s="60"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1" spans="1:5">
+    <row r="776" spans="1:5" ht="15.75" customHeight="1">
       <c r="A776" s="59"/>
       <c r="B776" s="61"/>
       <c r="C776" s="61"/>
       <c r="D776" s="60"/>
       <c r="E776" s="60"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1" spans="1:5">
+    <row r="777" spans="1:5" ht="15.75" customHeight="1">
       <c r="A777" s="59"/>
       <c r="B777" s="61"/>
       <c r="C777" s="61"/>
       <c r="D777" s="60"/>
       <c r="E777" s="60"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1" spans="1:5">
+    <row r="778" spans="1:5" ht="15.75" customHeight="1">
       <c r="A778" s="59"/>
       <c r="B778" s="61"/>
       <c r="C778" s="61"/>
       <c r="D778" s="60"/>
       <c r="E778" s="60"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1" spans="1:5">
+    <row r="779" spans="1:5" ht="15.75" customHeight="1">
       <c r="A779" s="59"/>
       <c r="B779" s="61"/>
       <c r="C779" s="61"/>
       <c r="D779" s="60"/>
       <c r="E779" s="60"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1" spans="1:5">
+    <row r="780" spans="1:5" ht="15.75" customHeight="1">
       <c r="A780" s="59"/>
       <c r="B780" s="61"/>
       <c r="C780" s="61"/>
       <c r="D780" s="60"/>
       <c r="E780" s="60"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1" spans="1:5">
+    <row r="781" spans="1:5" ht="15.75" customHeight="1">
       <c r="A781" s="59"/>
       <c r="B781" s="61"/>
       <c r="C781" s="61"/>
       <c r="D781" s="60"/>
       <c r="E781" s="60"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1" spans="1:5">
+    <row r="782" spans="1:5" ht="15.75" customHeight="1">
       <c r="A782" s="59"/>
       <c r="B782" s="61"/>
       <c r="C782" s="61"/>
       <c r="D782" s="60"/>
       <c r="E782" s="60"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1" spans="1:5">
+    <row r="783" spans="1:5" ht="15.75" customHeight="1">
       <c r="A783" s="59"/>
       <c r="B783" s="61"/>
       <c r="C783" s="61"/>
       <c r="D783" s="60"/>
       <c r="E783" s="60"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1" spans="1:5">
+    <row r="784" spans="1:5" ht="15.75" customHeight="1">
       <c r="A784" s="59"/>
       <c r="B784" s="61"/>
       <c r="C784" s="61"/>
       <c r="D784" s="60"/>
       <c r="E784" s="60"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1" spans="1:5">
+    <row r="785" spans="1:5" ht="15.75" customHeight="1">
       <c r="A785" s="59"/>
       <c r="B785" s="61"/>
       <c r="C785" s="61"/>
       <c r="D785" s="60"/>
       <c r="E785" s="60"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1" spans="1:5">
+    <row r="786" spans="1:5" ht="15.75" customHeight="1">
       <c r="A786" s="59"/>
       <c r="B786" s="61"/>
       <c r="C786" s="61"/>
       <c r="D786" s="60"/>
       <c r="E786" s="60"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1" spans="1:5">
+    <row r="787" spans="1:5" ht="15.75" customHeight="1">
       <c r="A787" s="59"/>
       <c r="B787" s="61"/>
       <c r="C787" s="61"/>
       <c r="D787" s="60"/>
       <c r="E787" s="60"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1" spans="1:5">
+    <row r="788" spans="1:5" ht="15.75" customHeight="1">
       <c r="A788" s="59"/>
       <c r="B788" s="61"/>
       <c r="C788" s="61"/>
       <c r="D788" s="60"/>
       <c r="E788" s="60"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1" spans="1:5">
+    <row r="789" spans="1:5" ht="15.75" customHeight="1">
       <c r="A789" s="59"/>
       <c r="B789" s="61"/>
       <c r="C789" s="61"/>
       <c r="D789" s="60"/>
       <c r="E789" s="60"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1" spans="1:5">
+    <row r="790" spans="1:5" ht="15.75" customHeight="1">
       <c r="A790" s="59"/>
       <c r="B790" s="61"/>
       <c r="C790" s="61"/>
       <c r="D790" s="60"/>
       <c r="E790" s="60"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1" spans="1:5">
+    <row r="791" spans="1:5" ht="15.75" customHeight="1">
       <c r="A791" s="59"/>
       <c r="B791" s="61"/>
       <c r="C791" s="61"/>
       <c r="D791" s="60"/>
       <c r="E791" s="60"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1" spans="1:5">
+    <row r="792" spans="1:5" ht="15.75" customHeight="1">
       <c r="A792" s="59"/>
       <c r="B792" s="61"/>
       <c r="C792" s="61"/>
       <c r="D792" s="60"/>
       <c r="E792" s="60"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1" spans="1:5">
+    <row r="793" spans="1:5" ht="15.75" customHeight="1">
       <c r="A793" s="59"/>
       <c r="B793" s="61"/>
       <c r="C793" s="61"/>
       <c r="D793" s="60"/>
       <c r="E793" s="60"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1" spans="1:5">
+    <row r="794" spans="1:5" ht="15.75" customHeight="1">
       <c r="A794" s="59"/>
       <c r="B794" s="61"/>
       <c r="C794" s="61"/>
       <c r="D794" s="60"/>
       <c r="E794" s="60"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1" spans="1:5">
+    <row r="795" spans="1:5" ht="15.75" customHeight="1">
       <c r="A795" s="59"/>
       <c r="B795" s="61"/>
       <c r="C795" s="61"/>
       <c r="D795" s="60"/>
       <c r="E795" s="60"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1" spans="1:5">
+    <row r="796" spans="1:5" ht="15.75" customHeight="1">
       <c r="A796" s="59"/>
       <c r="B796" s="61"/>
       <c r="C796" s="61"/>
       <c r="D796" s="60"/>
       <c r="E796" s="60"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1" spans="1:5">
+    <row r="797" spans="1:5" ht="15.75" customHeight="1">
       <c r="A797" s="59"/>
       <c r="B797" s="61"/>
       <c r="C797" s="61"/>
       <c r="D797" s="60"/>
       <c r="E797" s="60"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1" spans="1:5">
+    <row r="798" spans="1:5" ht="15.75" customHeight="1">
       <c r="A798" s="59"/>
       <c r="B798" s="61"/>
       <c r="C798" s="61"/>
       <c r="D798" s="60"/>
       <c r="E798" s="60"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1" spans="1:5">
+    <row r="799" spans="1:5" ht="15.75" customHeight="1">
       <c r="A799" s="59"/>
       <c r="B799" s="61"/>
       <c r="C799" s="61"/>
       <c r="D799" s="60"/>
       <c r="E799" s="60"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1" spans="1:5">
+    <row r="800" spans="1:5" ht="15.75" customHeight="1">
       <c r="A800" s="59"/>
       <c r="B800" s="61"/>
       <c r="C800" s="61"/>
       <c r="D800" s="60"/>
       <c r="E800" s="60"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1" spans="1:5">
+    <row r="801" spans="1:5" ht="15.75" customHeight="1">
       <c r="A801" s="59"/>
       <c r="B801" s="61"/>
       <c r="C801" s="61"/>
       <c r="D801" s="60"/>
       <c r="E801" s="60"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1" spans="1:5">
+    <row r="802" spans="1:5" ht="15.75" customHeight="1">
       <c r="A802" s="59"/>
       <c r="B802" s="61"/>
       <c r="C802" s="61"/>
       <c r="D802" s="60"/>
       <c r="E802" s="60"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1" spans="1:5">
+    <row r="803" spans="1:5" ht="15.75" customHeight="1">
       <c r="A803" s="59"/>
       <c r="B803" s="61"/>
       <c r="C803" s="61"/>
       <c r="D803" s="60"/>
       <c r="E803" s="60"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1" spans="1:5">
+    <row r="804" spans="1:5" ht="15.75" customHeight="1">
       <c r="A804" s="59"/>
       <c r="B804" s="61"/>
       <c r="C804" s="61"/>
       <c r="D804" s="60"/>
       <c r="E804" s="60"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1" spans="1:5">
+    <row r="805" spans="1:5" ht="15.75" customHeight="1">
       <c r="A805" s="59"/>
       <c r="B805" s="61"/>
       <c r="C805" s="61"/>
       <c r="D805" s="60"/>
       <c r="E805" s="60"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1" spans="1:5">
+    <row r="806" spans="1:5" ht="15.75" customHeight="1">
       <c r="A806" s="59"/>
       <c r="B806" s="61"/>
       <c r="C806" s="61"/>
       <c r="D806" s="60"/>
       <c r="E806" s="60"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1" spans="1:5">
+    <row r="807" spans="1:5" ht="15.75" customHeight="1">
       <c r="A807" s="59"/>
       <c r="B807" s="61"/>
       <c r="C807" s="61"/>
       <c r="D807" s="60"/>
       <c r="E807" s="60"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1" spans="1:5">
+    <row r="808" spans="1:5" ht="15.75" customHeight="1">
       <c r="A808" s="59"/>
       <c r="B808" s="61"/>
       <c r="C808" s="61"/>
       <c r="D808" s="60"/>
       <c r="E808" s="60"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1" spans="1:5">
+    <row r="809" spans="1:5" ht="15.75" customHeight="1">
       <c r="A809" s="59"/>
       <c r="B809" s="61"/>
       <c r="C809" s="61"/>
       <c r="D809" s="60"/>
       <c r="E809" s="60"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1" spans="1:5">
+    <row r="810" spans="1:5" ht="15.75" customHeight="1">
       <c r="A810" s="59"/>
       <c r="B810" s="61"/>
       <c r="C810" s="61"/>
       <c r="D810" s="60"/>
       <c r="E810" s="60"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1" spans="1:5">
+    <row r="811" spans="1:5" ht="15.75" customHeight="1">
       <c r="A811" s="59"/>
       <c r="B811" s="61"/>
       <c r="C811" s="61"/>
       <c r="D811" s="60"/>
       <c r="E811" s="60"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1" spans="1:5">
+    <row r="812" spans="1:5" ht="15.75" customHeight="1">
       <c r="A812" s="59"/>
       <c r="B812" s="61"/>
       <c r="C812" s="61"/>
       <c r="D812" s="60"/>
       <c r="E812" s="60"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1" spans="1:5">
+    <row r="813" spans="1:5" ht="15.75" customHeight="1">
       <c r="A813" s="59"/>
       <c r="B813" s="61"/>
       <c r="C813" s="61"/>
       <c r="D813" s="60"/>
       <c r="E813" s="60"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1" spans="1:5">
+    <row r="814" spans="1:5" ht="15.75" customHeight="1">
       <c r="A814" s="59"/>
       <c r="B814" s="61"/>
       <c r="C814" s="61"/>
       <c r="D814" s="60"/>
       <c r="E814" s="60"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1" spans="1:5">
+    <row r="815" spans="1:5" ht="15.75" customHeight="1">
       <c r="A815" s="59"/>
       <c r="B815" s="61"/>
       <c r="C815" s="61"/>
       <c r="D815" s="60"/>
       <c r="E815" s="60"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1" spans="1:5">
+    <row r="816" spans="1:5" ht="15.75" customHeight="1">
       <c r="A816" s="59"/>
       <c r="B816" s="61"/>
       <c r="C816" s="61"/>
       <c r="D816" s="60"/>
       <c r="E816" s="60"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1" spans="1:5">
+    <row r="817" spans="1:5" ht="15.75" customHeight="1">
       <c r="A817" s="59"/>
       <c r="B817" s="61"/>
       <c r="C817" s="61"/>
       <c r="D817" s="60"/>
       <c r="E817" s="60"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1" spans="1:5">
+    <row r="818" spans="1:5" ht="15.75" customHeight="1">
       <c r="A818" s="59"/>
       <c r="B818" s="61"/>
       <c r="C818" s="61"/>
       <c r="D818" s="60"/>
       <c r="E818" s="60"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1" spans="1:5">
+    <row r="819" spans="1:5" ht="15.75" customHeight="1">
       <c r="A819" s="59"/>
       <c r="B819" s="61"/>
       <c r="C819" s="61"/>
       <c r="D819" s="60"/>
       <c r="E819" s="60"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1" spans="1:5">
+    <row r="820" spans="1:5" ht="15.75" customHeight="1">
       <c r="A820" s="59"/>
       <c r="B820" s="61"/>
       <c r="C820" s="61"/>
       <c r="D820" s="60"/>
       <c r="E820" s="60"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1" spans="1:5">
+    <row r="821" spans="1:5" ht="15.75" customHeight="1">
       <c r="A821" s="59"/>
       <c r="B821" s="61"/>
       <c r="C821" s="61"/>
       <c r="D821" s="60"/>
       <c r="E821" s="60"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1" spans="1:5">
+    <row r="822" spans="1:5" ht="15.75" customHeight="1">
       <c r="A822" s="59"/>
       <c r="B822" s="61"/>
       <c r="C822" s="61"/>
       <c r="D822" s="60"/>
       <c r="E822" s="60"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1" spans="1:5">
+    <row r="823" spans="1:5" ht="15.75" customHeight="1">
       <c r="A823" s="59"/>
       <c r="B823" s="61"/>
       <c r="C823" s="61"/>
       <c r="D823" s="60"/>
       <c r="E823" s="60"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1" spans="1:5">
+    <row r="824" spans="1:5" ht="15.75" customHeight="1">
       <c r="A824" s="59"/>
       <c r="B824" s="61"/>
       <c r="C824" s="61"/>
       <c r="D824" s="60"/>
       <c r="E824" s="60"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1" spans="1:5">
+    <row r="825" spans="1:5" ht="15.75" customHeight="1">
       <c r="A825" s="59"/>
       <c r="B825" s="61"/>
       <c r="C825" s="61"/>
       <c r="D825" s="60"/>
       <c r="E825" s="60"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1" spans="1:5">
+    <row r="826" spans="1:5" ht="15.75" customHeight="1">
       <c r="A826" s="59"/>
       <c r="B826" s="61"/>
       <c r="C826" s="61"/>
       <c r="D826" s="60"/>
       <c r="E826" s="60"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1" spans="1:5">
+    <row r="827" spans="1:5" ht="15.75" customHeight="1">
       <c r="A827" s="59"/>
       <c r="B827" s="61"/>
       <c r="C827" s="61"/>
       <c r="D827" s="60"/>
       <c r="E827" s="60"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1" spans="1:5">
+    <row r="828" spans="1:5" ht="15.75" customHeight="1">
       <c r="A828" s="59"/>
       <c r="B828" s="61"/>
       <c r="C828" s="61"/>
       <c r="D828" s="60"/>
       <c r="E828" s="60"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1" spans="1:5">
+    <row r="829" spans="1:5" ht="15.75" customHeight="1">
       <c r="A829" s="59"/>
       <c r="B829" s="61"/>
       <c r="C829" s="61"/>
       <c r="D829" s="60"/>
       <c r="E829" s="60"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1" spans="1:5">
+    <row r="830" spans="1:5" ht="15.75" customHeight="1">
       <c r="A830" s="59"/>
       <c r="B830" s="61"/>
       <c r="C830" s="61"/>
       <c r="D830" s="60"/>
       <c r="E830" s="60"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1" spans="1:5">
+    <row r="831" spans="1:5" ht="15.75" customHeight="1">
       <c r="A831" s="59"/>
       <c r="B831" s="61"/>
       <c r="C831" s="61"/>
       <c r="D831" s="60"/>
       <c r="E831" s="60"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1" spans="1:5">
+    <row r="832" spans="1:5" ht="15.75" customHeight="1">
       <c r="A832" s="59"/>
       <c r="B832" s="61"/>
       <c r="C832" s="61"/>
       <c r="D832" s="60"/>
       <c r="E832" s="60"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1" spans="1:5">
+    <row r="833" spans="1:5" ht="15.75" customHeight="1">
       <c r="A833" s="59"/>
       <c r="B833" s="61"/>
       <c r="C833" s="61"/>
       <c r="D833" s="60"/>
       <c r="E833" s="60"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1" spans="1:5">
+    <row r="834" spans="1:5" ht="15.75" customHeight="1">
       <c r="A834" s="59"/>
       <c r="B834" s="61"/>
       <c r="C834" s="61"/>
       <c r="D834" s="60"/>
       <c r="E834" s="60"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1" spans="1:5">
+    <row r="835" spans="1:5" ht="15.75" customHeight="1">
       <c r="A835" s="59"/>
       <c r="B835" s="61"/>
       <c r="C835" s="61"/>
       <c r="D835" s="60"/>
       <c r="E835" s="60"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1" spans="1:5">
+    <row r="836" spans="1:5" ht="15.75" customHeight="1">
       <c r="A836" s="59"/>
       <c r="B836" s="61"/>
       <c r="C836" s="61"/>
       <c r="D836" s="60"/>
       <c r="E836" s="60"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1" spans="1:5">
+    <row r="837" spans="1:5" ht="15.75" customHeight="1">
       <c r="A837" s="59"/>
       <c r="B837" s="61"/>
       <c r="C837" s="61"/>
       <c r="D837" s="60"/>
       <c r="E837" s="60"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1" spans="1:5">
+    <row r="838" spans="1:5" ht="15.75" customHeight="1">
       <c r="A838" s="59"/>
       <c r="B838" s="61"/>
       <c r="C838" s="61"/>
       <c r="D838" s="60"/>
       <c r="E838" s="60"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1" spans="1:5">
+    <row r="839" spans="1:5" ht="15.75" customHeight="1">
       <c r="A839" s="59"/>
       <c r="B839" s="61"/>
       <c r="C839" s="61"/>
       <c r="D839" s="60"/>
       <c r="E839" s="60"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1" spans="1:5">
+    <row r="840" spans="1:5" ht="15.75" customHeight="1">
       <c r="A840" s="59"/>
       <c r="B840" s="61"/>
       <c r="C840" s="61"/>
       <c r="D840" s="60"/>
       <c r="E840" s="60"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1" spans="1:5">
+    <row r="841" spans="1:5" ht="15.75" customHeight="1">
       <c r="A841" s="59"/>
       <c r="B841" s="61"/>
       <c r="C841" s="61"/>
       <c r="D841" s="60"/>
       <c r="E841" s="60"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1" spans="1:5">
+    <row r="842" spans="1:5" ht="15.75" customHeight="1">
       <c r="A842" s="59"/>
       <c r="B842" s="61"/>
       <c r="C842" s="61"/>
       <c r="D842" s="60"/>
       <c r="E842" s="60"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1" spans="1:5">
+    <row r="843" spans="1:5" ht="15.75" customHeight="1">
       <c r="A843" s="59"/>
       <c r="B843" s="61"/>
       <c r="C843" s="61"/>
       <c r="D843" s="60"/>
       <c r="E843" s="60"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1" spans="1:5">
+    <row r="844" spans="1:5" ht="15.75" customHeight="1">
       <c r="A844" s="59"/>
       <c r="B844" s="61"/>
       <c r="C844" s="61"/>
       <c r="D844" s="60"/>
       <c r="E844" s="60"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1" spans="1:5">
+    <row r="845" spans="1:5" ht="15.75" customHeight="1">
       <c r="A845" s="59"/>
       <c r="B845" s="61"/>
       <c r="C845" s="61"/>
       <c r="D845" s="60"/>
       <c r="E845" s="60"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1" spans="1:5">
+    <row r="846" spans="1:5" ht="15.75" customHeight="1">
       <c r="A846" s="59"/>
       <c r="B846" s="61"/>
       <c r="C846" s="61"/>
       <c r="D846" s="60"/>
       <c r="E846" s="60"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1" spans="1:5">
+    <row r="847" spans="1:5" ht="15.75" customHeight="1">
       <c r="A847" s="59"/>
       <c r="B847" s="61"/>
       <c r="C847" s="61"/>
       <c r="D847" s="60"/>
       <c r="E847" s="60"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1" spans="1:5">
+    <row r="848" spans="1:5" ht="15.75" customHeight="1">
       <c r="A848" s="59"/>
       <c r="B848" s="61"/>
       <c r="C848" s="61"/>
       <c r="D848" s="60"/>
       <c r="E848" s="60"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1" spans="1:5">
+    <row r="849" spans="1:5" ht="15.75" customHeight="1">
       <c r="A849" s="59"/>
       <c r="B849" s="61"/>
       <c r="C849" s="61"/>
       <c r="D849" s="60"/>
       <c r="E849" s="60"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1" spans="1:5">
+    <row r="850" spans="1:5" ht="15.75" customHeight="1">
       <c r="A850" s="59"/>
       <c r="B850" s="61"/>
       <c r="C850" s="61"/>
       <c r="D850" s="60"/>
       <c r="E850" s="60"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1" spans="1:5">
+    <row r="851" spans="1:5" ht="15.75" customHeight="1">
       <c r="A851" s="59"/>
       <c r="B851" s="61"/>
       <c r="C851" s="61"/>
       <c r="D851" s="60"/>
       <c r="E851" s="60"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1" spans="1:5">
+    <row r="852" spans="1:5" ht="15.75" customHeight="1">
       <c r="A852" s="59"/>
       <c r="B852" s="61"/>
       <c r="C852" s="61"/>
       <c r="D852" s="60"/>
       <c r="E852" s="60"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1" spans="1:5">
+    <row r="853" spans="1:5" ht="15.75" customHeight="1">
       <c r="A853" s="59"/>
       <c r="B853" s="61"/>
       <c r="C853" s="61"/>
       <c r="D853" s="60"/>
       <c r="E853" s="60"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1" spans="1:5">
+    <row r="854" spans="1:5" ht="15.75" customHeight="1">
       <c r="A854" s="59"/>
       <c r="B854" s="61"/>
       <c r="C854" s="61"/>
       <c r="D854" s="60"/>
       <c r="E854" s="60"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1" spans="1:5">
+    <row r="855" spans="1:5" ht="15.75" customHeight="1">
       <c r="A855" s="59"/>
       <c r="B855" s="61"/>
       <c r="C855" s="61"/>
       <c r="D855" s="60"/>
       <c r="E855" s="60"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1" spans="1:5">
+    <row r="856" spans="1:5" ht="15.75" customHeight="1">
       <c r="A856" s="59"/>
       <c r="B856" s="61"/>
       <c r="C856" s="61"/>
       <c r="D856" s="60"/>
       <c r="E856" s="60"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1" spans="1:5">
+    <row r="857" spans="1:5" ht="15.75" customHeight="1">
       <c r="A857" s="59"/>
       <c r="B857" s="61"/>
       <c r="C857" s="61"/>
       <c r="D857" s="60"/>
       <c r="E857" s="60"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1" spans="1:5">
+    <row r="858" spans="1:5" ht="15.75" customHeight="1">
       <c r="A858" s="59"/>
       <c r="B858" s="61"/>
       <c r="C858" s="61"/>
       <c r="D858" s="60"/>
       <c r="E858" s="60"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1" spans="1:5">
+    <row r="859" spans="1:5" ht="15.75" customHeight="1">
       <c r="A859" s="59"/>
       <c r="B859" s="61"/>
       <c r="C859" s="61"/>
       <c r="D859" s="60"/>
       <c r="E859" s="60"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1" spans="1:5">
+    <row r="860" spans="1:5" ht="15.75" customHeight="1">
       <c r="A860" s="59"/>
       <c r="B860" s="61"/>
       <c r="C860" s="61"/>
       <c r="D860" s="60"/>
       <c r="E860" s="60"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1" spans="1:5">
+    <row r="861" spans="1:5" ht="15.75" customHeight="1">
       <c r="A861" s="59"/>
       <c r="B861" s="61"/>
       <c r="C861" s="61"/>
       <c r="D861" s="60"/>
       <c r="E861" s="60"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1" spans="1:5">
+    <row r="862" spans="1:5" ht="15.75" customHeight="1">
       <c r="A862" s="59"/>
       <c r="B862" s="61"/>
       <c r="C862" s="61"/>
       <c r="D862" s="60"/>
       <c r="E862" s="60"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1" spans="1:5">
+    <row r="863" spans="1:5" ht="15.75" customHeight="1">
       <c r="A863" s="59"/>
       <c r="B863" s="61"/>
       <c r="C863" s="61"/>
       <c r="D863" s="60"/>
       <c r="E863" s="60"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1" spans="1:5">
+    <row r="864" spans="1:5" ht="15.75" customHeight="1">
       <c r="A864" s="59"/>
       <c r="B864" s="61"/>
       <c r="C864" s="61"/>
       <c r="D864" s="60"/>
       <c r="E864" s="60"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1" spans="1:5">
+    <row r="865" spans="1:5" ht="15.75" customHeight="1">
       <c r="A865" s="59"/>
       <c r="B865" s="61"/>
       <c r="C865" s="61"/>
       <c r="D865" s="60"/>
       <c r="E865" s="60"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1" spans="1:5">
+    <row r="866" spans="1:5" ht="15.75" customHeight="1">
       <c r="A866" s="59"/>
       <c r="B866" s="61"/>
       <c r="C866" s="61"/>
       <c r="D866" s="60"/>
       <c r="E866" s="60"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1" spans="1:5">
+    <row r="867" spans="1:5" ht="15.75" customHeight="1">
       <c r="A867" s="59"/>
       <c r="B867" s="61"/>
       <c r="C867" s="61"/>
       <c r="D867" s="60"/>
       <c r="E867" s="60"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1" spans="1:5">
+    <row r="868" spans="1:5" ht="15.75" customHeight="1">
       <c r="A868" s="59"/>
       <c r="B868" s="61"/>
       <c r="C868" s="61"/>
       <c r="D868" s="60"/>
       <c r="E868" s="60"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1" spans="1:5">
+    <row r="869" spans="1:5" ht="15.75" customHeight="1">
       <c r="A869" s="59"/>
       <c r="B869" s="61"/>
       <c r="C869" s="61"/>
       <c r="D869" s="60"/>
       <c r="E869" s="60"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1" spans="1:5">
+    <row r="870" spans="1:5" ht="15.75" customHeight="1">
       <c r="A870" s="59"/>
       <c r="B870" s="61"/>
       <c r="C870" s="61"/>
       <c r="D870" s="60"/>
       <c r="E870" s="60"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1" spans="1:5">
+    <row r="871" spans="1:5" ht="15.75" customHeight="1">
       <c r="A871" s="59"/>
       <c r="B871" s="61"/>
       <c r="C871" s="61"/>
       <c r="D871" s="60"/>
       <c r="E871" s="60"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1" spans="1:5">
+    <row r="872" spans="1:5" ht="15.75" customHeight="1">
       <c r="A872" s="59"/>
       <c r="B872" s="61"/>
       <c r="C872" s="61"/>
       <c r="D872" s="60"/>
       <c r="E872" s="60"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1" spans="1:5">
+    <row r="873" spans="1:5" ht="15.75" customHeight="1">
       <c r="A873" s="59"/>
       <c r="B873" s="61"/>
       <c r="C873" s="61"/>
       <c r="D873" s="60"/>
       <c r="E873" s="60"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1" spans="1:5">
+    <row r="874" spans="1:5" ht="15.75" customHeight="1">
       <c r="A874" s="59"/>
       <c r="B874" s="61"/>
       <c r="C874" s="61"/>
       <c r="D874" s="60"/>
       <c r="E874" s="60"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1" spans="1:5">
+    <row r="875" spans="1:5" ht="15.75" customHeight="1">
       <c r="A875" s="59"/>
       <c r="B875" s="61"/>
       <c r="C875" s="61"/>
       <c r="D875" s="60"/>
       <c r="E875" s="60"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1" spans="1:5">
+    <row r="876" spans="1:5" ht="15.75" customHeight="1">
       <c r="A876" s="59"/>
       <c r="B876" s="61"/>
       <c r="C876" s="61"/>
       <c r="D876" s="60"/>
       <c r="E876" s="60"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1" spans="1:5">
+    <row r="877" spans="1:5" ht="15.75" customHeight="1">
       <c r="A877" s="59"/>
       <c r="B877" s="61"/>
       <c r="C877" s="61"/>
       <c r="D877" s="60"/>
       <c r="E877" s="60"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1" spans="1:5">
+    <row r="878" spans="1:5" ht="15.75" customHeight="1">
       <c r="A878" s="59"/>
       <c r="B878" s="61"/>
       <c r="C878" s="61"/>
       <c r="D878" s="60"/>
       <c r="E878" s="60"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1" spans="1:5">
+    <row r="879" spans="1:5" ht="15.75" customHeight="1">
       <c r="A879" s="59"/>
       <c r="B879" s="61"/>
       <c r="C879" s="61"/>
       <c r="D879" s="60"/>
       <c r="E879" s="60"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1" spans="1:5">
+    <row r="880" spans="1:5" ht="15.75" customHeight="1">
       <c r="A880" s="59"/>
       <c r="B880" s="61"/>
       <c r="C880" s="61"/>
       <c r="D880" s="60"/>
       <c r="E880" s="60"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1" spans="1:5">
+    <row r="881" spans="1:5" ht="15.75" customHeight="1">
       <c r="A881" s="59"/>
       <c r="B881" s="61"/>
       <c r="C881" s="61"/>
       <c r="D881" s="60"/>
       <c r="E881" s="60"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1" spans="1:5">
+    <row r="882" spans="1:5" ht="15.75" customHeight="1">
       <c r="A882" s="59"/>
       <c r="B882" s="61"/>
       <c r="C882" s="61"/>
       <c r="D882" s="60"/>
       <c r="E882" s="60"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1" spans="1:5">
+    <row r="883" spans="1:5" ht="15.75" customHeight="1">
       <c r="A883" s="59"/>
       <c r="B883" s="61"/>
       <c r="C883" s="61"/>
       <c r="D883" s="60"/>
       <c r="E883" s="60"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1" spans="1:5">
+    <row r="884" spans="1:5" ht="15.75" customHeight="1">
       <c r="A884" s="59"/>
       <c r="B884" s="61"/>
       <c r="C884" s="61"/>
       <c r="D884" s="60"/>
       <c r="E884" s="60"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1" spans="1:5">
+    <row r="885" spans="1:5" ht="15.75" customHeight="1">
       <c r="A885" s="59"/>
       <c r="B885" s="61"/>
       <c r="C885" s="61"/>
       <c r="D885" s="60"/>
       <c r="E885" s="60"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1" spans="1:5">
+    <row r="886" spans="1:5" ht="15.75" customHeight="1">
       <c r="A886" s="59"/>
       <c r="B886" s="61"/>
       <c r="C886" s="61"/>
       <c r="D886" s="60"/>
       <c r="E886" s="60"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1" spans="1:5">
+    <row r="887" spans="1:5" ht="15.75" customHeight="1">
       <c r="A887" s="59"/>
       <c r="B887" s="61"/>
       <c r="C887" s="61"/>
       <c r="D887" s="60"/>
       <c r="E887" s="60"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1" spans="1:5">
+    <row r="888" spans="1:5" ht="15.75" customHeight="1">
       <c r="A888" s="59"/>
       <c r="B888" s="61"/>
       <c r="C888" s="61"/>
       <c r="D888" s="60"/>
       <c r="E888" s="60"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1" spans="1:5">
+    <row r="889" spans="1:5" ht="15.75" customHeight="1">
       <c r="A889" s="59"/>
       <c r="B889" s="61"/>
       <c r="C889" s="61"/>
       <c r="D889" s="60"/>
       <c r="E889" s="60"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1" spans="1:5">
+    <row r="890" spans="1:5" ht="15.75" customHeight="1">
       <c r="A890" s="59"/>
       <c r="B890" s="61"/>
       <c r="C890" s="61"/>
       <c r="D890" s="60"/>
       <c r="E890" s="60"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1" spans="1:5">
+    <row r="891" spans="1:5" ht="15.75" customHeight="1">
       <c r="A891" s="59"/>
       <c r="B891" s="61"/>
       <c r="C891" s="61"/>
       <c r="D891" s="60"/>
       <c r="E891" s="60"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1" spans="1:5">
+    <row r="892" spans="1:5" ht="15.75" customHeight="1">
       <c r="A892" s="59"/>
       <c r="B892" s="61"/>
       <c r="C892" s="61"/>
       <c r="D892" s="60"/>
       <c r="E892" s="60"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1" spans="1:5">
+    <row r="893" spans="1:5" ht="15.75" customHeight="1">
       <c r="A893" s="59"/>
       <c r="B893" s="61"/>
       <c r="C893" s="61"/>
       <c r="D893" s="60"/>
       <c r="E893" s="60"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1" spans="1:5">
+    <row r="894" spans="1:5" ht="15.75" customHeight="1">
       <c r="A894" s="59"/>
       <c r="B894" s="61"/>
       <c r="C894" s="61"/>
       <c r="D894" s="60"/>
       <c r="E894" s="60"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1" spans="1:5">
+    <row r="895" spans="1:5" ht="15.75" customHeight="1">
       <c r="A895" s="59"/>
       <c r="B895" s="61"/>
       <c r="C895" s="61"/>
       <c r="D895" s="60"/>
       <c r="E895" s="60"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1" spans="1:5">
+    <row r="896" spans="1:5" ht="15.75" customHeight="1">
       <c r="A896" s="59"/>
       <c r="B896" s="61"/>
       <c r="C896" s="61"/>
       <c r="D896" s="60"/>
       <c r="E896" s="60"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1" spans="1:5">
+    <row r="897" spans="1:5" ht="15.75" customHeight="1">
       <c r="A897" s="59"/>
       <c r="B897" s="61"/>
       <c r="C897" s="61"/>
       <c r="D897" s="60"/>
       <c r="E897" s="60"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1" spans="1:5">
+    <row r="898" spans="1:5" ht="15.75" customHeight="1">
       <c r="A898" s="59"/>
       <c r="B898" s="61"/>
       <c r="C898" s="61"/>
       <c r="D898" s="60"/>
       <c r="E898" s="60"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1" spans="1:5">
+    <row r="899" spans="1:5" ht="15.75" customHeight="1">
       <c r="A899" s="59"/>
       <c r="B899" s="61"/>
       <c r="C899" s="61"/>
       <c r="D899" s="60"/>
       <c r="E899" s="60"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1" spans="1:5">
+    <row r="900" spans="1:5" ht="15.75" customHeight="1">
       <c r="A900" s="59"/>
       <c r="B900" s="61"/>
       <c r="C900" s="61"/>
       <c r="D900" s="60"/>
       <c r="E900" s="60"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1" spans="1:5">
+    <row r="901" spans="1:5" ht="15.75" customHeight="1">
       <c r="A901" s="59"/>
       <c r="B901" s="61"/>
       <c r="C901" s="61"/>
       <c r="D901" s="60"/>
       <c r="E901" s="60"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1" spans="1:5">
+    <row r="902" spans="1:5" ht="15.75" customHeight="1">
       <c r="A902" s="59"/>
       <c r="B902" s="61"/>
       <c r="C902" s="61"/>
       <c r="D902" s="60"/>
       <c r="E902" s="60"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1" spans="1:5">
+    <row r="903" spans="1:5" ht="15.75" customHeight="1">
       <c r="A903" s="59"/>
       <c r="B903" s="61"/>
       <c r="C903" s="61"/>
       <c r="D903" s="60"/>
       <c r="E903" s="60"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1" spans="1:5">
+    <row r="904" spans="1:5" ht="15.75" customHeight="1">
       <c r="A904" s="59"/>
       <c r="B904" s="61"/>
       <c r="C904" s="61"/>
       <c r="D904" s="60"/>
       <c r="E904" s="60"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1" spans="1:5">
+    <row r="905" spans="1:5" ht="15.75" customHeight="1">
       <c r="A905" s="59"/>
       <c r="B905" s="61"/>
       <c r="C905" s="61"/>
       <c r="D905" s="60"/>
       <c r="E905" s="60"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1" spans="1:5">
+    <row r="906" spans="1:5" ht="15.75" customHeight="1">
       <c r="A906" s="59"/>
       <c r="B906" s="61"/>
       <c r="C906" s="61"/>
       <c r="D906" s="60"/>
       <c r="E906" s="60"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1" spans="1:5">
+    <row r="907" spans="1:5" ht="15.75" customHeight="1">
       <c r="A907" s="59"/>
       <c r="B907" s="61"/>
       <c r="C907" s="61"/>
       <c r="D907" s="60"/>
       <c r="E907" s="60"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1" spans="1:5">
+    <row r="908" spans="1:5" ht="15.75" customHeight="1">
       <c r="A908" s="59"/>
       <c r="B908" s="61"/>
       <c r="C908" s="61"/>
       <c r="D908" s="60"/>
       <c r="E908" s="60"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1" spans="1:5">
+    <row r="909" spans="1:5" ht="15.75" customHeight="1">
       <c r="A909" s="59"/>
       <c r="B909" s="61"/>
       <c r="C909" s="61"/>
       <c r="D909" s="60"/>
       <c r="E909" s="60"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1" spans="1:5">
+    <row r="910" spans="1:5" ht="15.75" customHeight="1">
       <c r="A910" s="59"/>
       <c r="B910" s="61"/>
       <c r="C910" s="61"/>
       <c r="D910" s="60"/>
       <c r="E910" s="60"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1" spans="1:5">
+    <row r="911" spans="1:5" ht="15.75" customHeight="1">
       <c r="A911" s="59"/>
       <c r="B911" s="61"/>
       <c r="C911" s="61"/>
       <c r="D911" s="60"/>
       <c r="E911" s="60"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1" spans="1:5">
+    <row r="912" spans="1:5" ht="15.75" customHeight="1">
       <c r="A912" s="59"/>
       <c r="B912" s="61"/>
       <c r="C912" s="61"/>
       <c r="D912" s="60"/>
       <c r="E912" s="60"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1" spans="1:5">
+    <row r="913" spans="1:5" ht="15.75" customHeight="1">
       <c r="A913" s="59"/>
       <c r="B913" s="61"/>
       <c r="C913" s="61"/>
       <c r="D913" s="60"/>
       <c r="E913" s="60"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1" spans="1:5">
+    <row r="914" spans="1:5" ht="15.75" customHeight="1">
       <c r="A914" s="59"/>
       <c r="B914" s="61"/>
       <c r="C914" s="61"/>
       <c r="D914" s="60"/>
       <c r="E914" s="60"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1" spans="1:5">
+    <row r="915" spans="1:5" ht="15.75" customHeight="1">
       <c r="A915" s="59"/>
       <c r="B915" s="61"/>
       <c r="C915" s="61"/>
       <c r="D915" s="60"/>
       <c r="E915" s="60"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1" spans="1:5">
+    <row r="916" spans="1:5" ht="15.75" customHeight="1">
       <c r="A916" s="59"/>
       <c r="B916" s="61"/>
       <c r="C916" s="61"/>
       <c r="D916" s="60"/>
       <c r="E916" s="60"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1" spans="1:5">
+    <row r="917" spans="1:5" ht="15.75" customHeight="1">
       <c r="A917" s="59"/>
       <c r="B917" s="61"/>
       <c r="C917" s="61"/>
       <c r="D917" s="60"/>
       <c r="E917" s="60"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1" spans="1:5">
+    <row r="918" spans="1:5" ht="15.75" customHeight="1">
       <c r="A918" s="59"/>
       <c r="B918" s="61"/>
       <c r="C918" s="61"/>
       <c r="D918" s="60"/>
       <c r="E918" s="60"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1" spans="1:5">
+    <row r="919" spans="1:5" ht="15.75" customHeight="1">
       <c r="A919" s="59"/>
       <c r="B919" s="61"/>
       <c r="C919" s="61"/>
       <c r="D919" s="60"/>
       <c r="E919" s="60"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1" spans="1:5">
+    <row r="920" spans="1:5" ht="15.75" customHeight="1">
       <c r="A920" s="59"/>
       <c r="B920" s="61"/>
       <c r="C920" s="61"/>
       <c r="D920" s="60"/>
       <c r="E920" s="60"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1" spans="1:5">
+    <row r="921" spans="1:5" ht="15.75" customHeight="1">
       <c r="A921" s="59"/>
       <c r="B921" s="61"/>
       <c r="C921" s="61"/>
       <c r="D921" s="60"/>
       <c r="E921" s="60"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1" spans="1:5">
+    <row r="922" spans="1:5" ht="15.75" customHeight="1">
       <c r="A922" s="59"/>
       <c r="B922" s="61"/>
       <c r="C922" s="61"/>
       <c r="D922" s="60"/>
       <c r="E922" s="60"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1" spans="1:5">
+    <row r="923" spans="1:5" ht="15.75" customHeight="1">
       <c r="A923" s="59"/>
       <c r="B923" s="61"/>
       <c r="C923" s="61"/>
       <c r="D923" s="60"/>
       <c r="E923" s="60"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1" spans="1:5">
+    <row r="924" spans="1:5" ht="15.75" customHeight="1">
       <c r="A924" s="59"/>
       <c r="B924" s="61"/>
       <c r="C924" s="61"/>
       <c r="D924" s="60"/>
       <c r="E924" s="60"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1" spans="1:5">
+    <row r="925" spans="1:5" ht="15.75" customHeight="1">
       <c r="A925" s="59"/>
       <c r="B925" s="61"/>
       <c r="C925" s="61"/>
       <c r="D925" s="60"/>
       <c r="E925" s="60"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1" spans="1:5">
+    <row r="926" spans="1:5" ht="15.75" customHeight="1">
       <c r="A926" s="59"/>
       <c r="B926" s="61"/>
       <c r="C926" s="61"/>
       <c r="D926" s="60"/>
       <c r="E926" s="60"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1" spans="1:5">
+    <row r="927" spans="1:5" ht="15.75" customHeight="1">
       <c r="A927" s="59"/>
       <c r="B927" s="61"/>
       <c r="C927" s="61"/>
       <c r="D927" s="60"/>
       <c r="E927" s="60"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1" spans="1:5">
+    <row r="928" spans="1:5" ht="15.75" customHeight="1">
       <c r="A928" s="59"/>
       <c r="B928" s="61"/>
       <c r="C928" s="61"/>
       <c r="D928" s="60"/>
       <c r="E928" s="60"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1" spans="1:5">
+    <row r="929" spans="1:5" ht="15.75" customHeight="1">
       <c r="A929" s="59"/>
       <c r="B929" s="61"/>
       <c r="C929" s="61"/>
       <c r="D929" s="60"/>
       <c r="E929" s="60"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1" spans="1:5">
+    <row r="930" spans="1:5" ht="15.75" customHeight="1">
       <c r="A930" s="59"/>
       <c r="B930" s="61"/>
       <c r="C930" s="61"/>
       <c r="D930" s="60"/>
       <c r="E930" s="60"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1" spans="1:5">
+    <row r="931" spans="1:5" ht="15.75" customHeight="1">
       <c r="A931" s="59"/>
       <c r="B931" s="61"/>
       <c r="C931" s="61"/>
       <c r="D931" s="60"/>
       <c r="E931" s="60"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1" spans="1:5">
+    <row r="932" spans="1:5" ht="15.75" customHeight="1">
       <c r="A932" s="59"/>
       <c r="B932" s="61"/>
       <c r="C932" s="61"/>
       <c r="D932" s="60"/>
       <c r="E932" s="60"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1" spans="1:5">
+    <row r="933" spans="1:5" ht="15.75" customHeight="1">
       <c r="A933" s="59"/>
       <c r="B933" s="61"/>
       <c r="C933" s="61"/>
       <c r="D933" s="60"/>
       <c r="E933" s="60"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1" spans="1:5">
+    <row r="934" spans="1:5" ht="15.75" customHeight="1">
       <c r="A934" s="59"/>
       <c r="B934" s="61"/>
       <c r="C934" s="61"/>
       <c r="D934" s="60"/>
       <c r="E934" s="60"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1" spans="1:5">
+    <row r="935" spans="1:5" ht="15.75" customHeight="1">
       <c r="A935" s="59"/>
       <c r="B935" s="61"/>
       <c r="C935" s="61"/>
       <c r="D935" s="60"/>
       <c r="E935" s="60"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1" spans="1:5">
+    <row r="936" spans="1:5" ht="15.75" customHeight="1">
       <c r="A936" s="59"/>
       <c r="B936" s="61"/>
       <c r="C936" s="61"/>
       <c r="D936" s="60"/>
       <c r="E936" s="60"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1" spans="1:5">
+    <row r="937" spans="1:5" ht="15.75" customHeight="1">
       <c r="A937" s="59"/>
       <c r="B937" s="61"/>
       <c r="C937" s="61"/>
       <c r="D937" s="60"/>
       <c r="E937" s="60"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1" spans="1:5">
+    <row r="938" spans="1:5" ht="15.75" customHeight="1">
       <c r="A938" s="59"/>
       <c r="B938" s="61"/>
       <c r="C938" s="61"/>
       <c r="D938" s="60"/>
       <c r="E938" s="60"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1" spans="1:5">
+    <row r="939" spans="1:5" ht="15.75" customHeight="1">
       <c r="A939" s="59"/>
       <c r="B939" s="61"/>
       <c r="C939" s="61"/>
       <c r="D939" s="60"/>
       <c r="E939" s="60"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1" spans="1:5">
+    <row r="940" spans="1:5" ht="15.75" customHeight="1">
       <c r="A940" s="59"/>
       <c r="B940" s="61"/>
       <c r="C940" s="61"/>
       <c r="D940" s="60"/>
       <c r="E940" s="60"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1" spans="1:5">
+    <row r="941" spans="1:5" ht="15.75" customHeight="1">
       <c r="A941" s="59"/>
       <c r="B941" s="61"/>
       <c r="C941" s="61"/>
       <c r="D941" s="60"/>
       <c r="E941" s="60"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1" spans="1:5">
+    <row r="942" spans="1:5" ht="15.75" customHeight="1">
       <c r="A942" s="59"/>
       <c r="B942" s="61"/>
       <c r="C942" s="61"/>
       <c r="D942" s="60"/>
       <c r="E942" s="60"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1" spans="1:5">
+    <row r="943" spans="1:5" ht="15.75" customHeight="1">
       <c r="A943" s="59"/>
       <c r="B943" s="61"/>
       <c r="C943" s="61"/>
       <c r="D943" s="60"/>
       <c r="E943" s="60"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1" spans="1:5">
+    <row r="944" spans="1:5" ht="15.75" customHeight="1">
       <c r="A944" s="59"/>
       <c r="B944" s="61"/>
       <c r="C944" s="61"/>
       <c r="D944" s="60"/>
       <c r="E944" s="60"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1" spans="1:5">
+    <row r="945" spans="1:5" ht="15.75" customHeight="1">
       <c r="A945" s="59"/>
       <c r="B945" s="61"/>
       <c r="C945" s="61"/>
       <c r="D945" s="60"/>
       <c r="E945" s="60"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1" spans="1:5">
+    <row r="946" spans="1:5" ht="15.75" customHeight="1">
       <c r="A946" s="59"/>
       <c r="B946" s="61"/>
       <c r="C946" s="61"/>
       <c r="D946" s="60"/>
       <c r="E946" s="60"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1" spans="1:5">
+    <row r="947" spans="1:5" ht="15.75" customHeight="1">
       <c r="A947" s="59"/>
       <c r="B947" s="61"/>
       <c r="C947" s="61"/>
       <c r="D947" s="60"/>
       <c r="E947" s="60"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1" spans="1:5">
+    <row r="948" spans="1:5" ht="15.75" customHeight="1">
       <c r="A948" s="59"/>
       <c r="B948" s="61"/>
       <c r="C948" s="61"/>
       <c r="D948" s="60"/>
       <c r="E948" s="60"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1" spans="1:5">
+    <row r="949" spans="1:5" ht="15.75" customHeight="1">
       <c r="A949" s="59"/>
       <c r="B949" s="61"/>
       <c r="C949" s="61"/>
       <c r="D949" s="60"/>
       <c r="E949" s="60"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1" spans="1:5">
+    <row r="950" spans="1:5" ht="15.75" customHeight="1">
       <c r="A950" s="59"/>
       <c r="B950" s="61"/>
       <c r="C950" s="61"/>
       <c r="D950" s="60"/>
       <c r="E950" s="60"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1" spans="1:5">
+    <row r="951" spans="1:5" ht="15.75" customHeight="1">
       <c r="A951" s="59"/>
       <c r="B951" s="61"/>
       <c r="C951" s="61"/>
       <c r="D951" s="60"/>
       <c r="E951" s="60"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1" spans="1:5">
+    <row r="952" spans="1:5" ht="15.75" customHeight="1">
       <c r="A952" s="59"/>
       <c r="B952" s="61"/>
       <c r="C952" s="61"/>
       <c r="D952" s="60"/>
       <c r="E952" s="60"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1" spans="1:5">
+    <row r="953" spans="1:5" ht="15.75" customHeight="1">
       <c r="A953" s="59"/>
       <c r="B953" s="61"/>
       <c r="C953" s="61"/>
       <c r="D953" s="60"/>
       <c r="E953" s="60"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1" spans="1:5">
+    <row r="954" spans="1:5" ht="15.75" customHeight="1">
       <c r="A954" s="59"/>
       <c r="B954" s="61"/>
       <c r="C954" s="61"/>
       <c r="D954" s="60"/>
       <c r="E954" s="60"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1" spans="1:5">
+    <row r="955" spans="1:5" ht="15.75" customHeight="1">
       <c r="A955" s="59"/>
       <c r="B955" s="61"/>
       <c r="C955" s="61"/>
       <c r="D955" s="60"/>
       <c r="E955" s="60"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1" spans="1:5">
+    <row r="956" spans="1:5" ht="15.75" customHeight="1">
       <c r="A956" s="59"/>
       <c r="B956" s="61"/>
       <c r="C956" s="61"/>
       <c r="D956" s="60"/>
       <c r="E956" s="60"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1" spans="1:5">
+    <row r="957" spans="1:5" ht="15.75" customHeight="1">
       <c r="A957" s="59"/>
       <c r="B957" s="61"/>
       <c r="C957" s="61"/>
       <c r="D957" s="60"/>
       <c r="E957" s="60"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1" spans="1:5">
+    <row r="958" spans="1:5" ht="15.75" customHeight="1">
       <c r="A958" s="59"/>
       <c r="B958" s="61"/>
       <c r="C958" s="61"/>
       <c r="D958" s="60"/>
       <c r="E958" s="60"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1" spans="1:5">
+    <row r="959" spans="1:5" ht="15.75" customHeight="1">
       <c r="A959" s="59"/>
       <c r="B959" s="61"/>
       <c r="C959" s="61"/>
       <c r="D959" s="60"/>
       <c r="E959" s="60"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1" spans="1:5">
+    <row r="960" spans="1:5" ht="15.75" customHeight="1">
       <c r="A960" s="59"/>
       <c r="B960" s="61"/>
       <c r="C960" s="61"/>
       <c r="D960" s="60"/>
       <c r="E960" s="60"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1" spans="1:5">
+    <row r="961" spans="1:5" ht="15.75" customHeight="1">
       <c r="A961" s="59"/>
       <c r="B961" s="61"/>
       <c r="C961" s="61"/>
       <c r="D961" s="60"/>
       <c r="E961" s="60"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1" spans="1:5">
+    <row r="962" spans="1:5" ht="15.75" customHeight="1">
       <c r="A962" s="59"/>
       <c r="B962" s="61"/>
       <c r="C962" s="61"/>
       <c r="D962" s="60"/>
       <c r="E962" s="60"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1" spans="1:5">
+    <row r="963" spans="1:5" ht="15.75" customHeight="1">
       <c r="A963" s="59"/>
       <c r="B963" s="61"/>
       <c r="C963" s="61"/>
       <c r="D963" s="60"/>
       <c r="E963" s="60"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1" spans="1:5">
+    <row r="964" spans="1:5" ht="15.75" customHeight="1">
       <c r="A964" s="59"/>
       <c r="B964" s="61"/>
       <c r="C964" s="61"/>
       <c r="D964" s="60"/>
       <c r="E964" s="60"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1" spans="1:5">
+    <row r="965" spans="1:5" ht="15.75" customHeight="1">
       <c r="A965" s="59"/>
       <c r="B965" s="61"/>
       <c r="C965" s="61"/>
       <c r="D965" s="60"/>
       <c r="E965" s="60"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1" spans="1:5">
+    <row r="966" spans="1:5" ht="15.75" customHeight="1">
       <c r="A966" s="59"/>
       <c r="B966" s="61"/>
       <c r="C966" s="61"/>
       <c r="D966" s="60"/>
       <c r="E966" s="60"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1" spans="1:5">
+    <row r="967" spans="1:5" ht="15.75" customHeight="1">
       <c r="A967" s="59"/>
       <c r="B967" s="61"/>
       <c r="C967" s="61"/>
       <c r="D967" s="60"/>
       <c r="E967" s="60"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1" spans="1:5">
+    <row r="968" spans="1:5" ht="15.75" customHeight="1">
       <c r="A968" s="59"/>
       <c r="B968" s="61"/>
       <c r="C968" s="61"/>
       <c r="D968" s="60"/>
       <c r="E968" s="60"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1" spans="1:5">
+    <row r="969" spans="1:5" ht="15.75" customHeight="1">
       <c r="A969" s="59"/>
       <c r="B969" s="61"/>
       <c r="C969" s="61"/>
       <c r="D969" s="60"/>
       <c r="E969" s="60"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1" spans="1:5">
+    <row r="970" spans="1:5" ht="15.75" customHeight="1">
       <c r="A970" s="59"/>
       <c r="B970" s="61"/>
       <c r="C970" s="61"/>
       <c r="D970" s="60"/>
       <c r="E970" s="60"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1" spans="1:5">
+    <row r="971" spans="1:5" ht="15.75" customHeight="1">
       <c r="A971" s="59"/>
       <c r="B971" s="61"/>
       <c r="C971" s="61"/>
       <c r="D971" s="60"/>
       <c r="E971" s="60"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1" spans="1:5">
+    <row r="972" spans="1:5" ht="15.75" customHeight="1">
       <c r="A972" s="59"/>
       <c r="B972" s="61"/>
       <c r="C972" s="61"/>
       <c r="D972" s="60"/>
       <c r="E972" s="60"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1" spans="1:5">
+    <row r="973" spans="1:5" ht="15.75" customHeight="1">
       <c r="A973" s="59"/>
       <c r="B973" s="61"/>
       <c r="C973" s="61"/>
       <c r="D973" s="60"/>
       <c r="E973" s="60"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1" spans="1:5">
+    <row r="974" spans="1:5" ht="15.75" customHeight="1">
       <c r="A974" s="59"/>
       <c r="B974" s="61"/>
       <c r="C974" s="61"/>
       <c r="D974" s="60"/>
       <c r="E974" s="60"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1" spans="1:5">
+    <row r="975" spans="1:5" ht="15.75" customHeight="1">
       <c r="A975" s="59"/>
       <c r="B975" s="61"/>
       <c r="C975" s="61"/>
       <c r="D975" s="60"/>
       <c r="E975" s="60"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1" spans="1:5">
+    <row r="976" spans="1:5" ht="15.75" customHeight="1">
       <c r="A976" s="59"/>
       <c r="B976" s="61"/>
       <c r="C976" s="61"/>
       <c r="D976" s="60"/>
       <c r="E976" s="60"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1" spans="1:5">
+    <row r="977" spans="1:5" ht="15.75" customHeight="1">
       <c r="A977" s="59"/>
       <c r="B977" s="61"/>
       <c r="C977" s="61"/>
       <c r="D977" s="60"/>
       <c r="E977" s="60"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1" spans="1:5">
+    <row r="978" spans="1:5" ht="15.75" customHeight="1">
       <c r="A978" s="59"/>
       <c r="B978" s="61"/>
       <c r="C978" s="61"/>
       <c r="D978" s="60"/>
       <c r="E978" s="60"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1" spans="1:5">
+    <row r="979" spans="1:5" ht="15.75" customHeight="1">
       <c r="A979" s="59"/>
       <c r="B979" s="61"/>
       <c r="C979" s="61"/>
       <c r="D979" s="60"/>
       <c r="E979" s="60"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1" spans="1:5">
+    <row r="980" spans="1:5" ht="15.75" customHeight="1">
       <c r="A980" s="59"/>
       <c r="B980" s="61"/>
       <c r="C980" s="61"/>
       <c r="D980" s="60"/>
       <c r="E980" s="60"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1" spans="1:5">
+    <row r="981" spans="1:5" ht="15.75" customHeight="1">
       <c r="A981" s="59"/>
       <c r="B981" s="61"/>
       <c r="C981" s="61"/>
       <c r="D981" s="60"/>
       <c r="E981" s="60"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1" spans="1:5">
+    <row r="982" spans="1:5" ht="15.75" customHeight="1">
       <c r="A982" s="59"/>
       <c r="B982" s="61"/>
       <c r="C982" s="61"/>
       <c r="D982" s="60"/>
       <c r="E982" s="60"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1" spans="1:5">
+    <row r="983" spans="1:5" ht="15.75" customHeight="1">
       <c r="A983" s="59"/>
       <c r="B983" s="61"/>
       <c r="C983" s="61"/>
       <c r="D983" s="60"/>
       <c r="E983" s="60"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1" spans="1:5">
+    <row r="984" spans="1:5" ht="15.75" customHeight="1">
       <c r="A984" s="59"/>
       <c r="B984" s="61"/>
       <c r="C984" s="61"/>
       <c r="D984" s="60"/>
       <c r="E984" s="60"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1" spans="1:5">
+    <row r="985" spans="1:5" ht="15.75" customHeight="1">
       <c r="A985" s="59"/>
       <c r="B985" s="61"/>
       <c r="C985" s="61"/>
       <c r="D985" s="60"/>
       <c r="E985" s="60"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1" spans="1:5">
+    <row r="986" spans="1:5" ht="15.75" customHeight="1">
       <c r="A986" s="59"/>
       <c r="B986" s="61"/>
       <c r="C986" s="61"/>
       <c r="D986" s="60"/>
       <c r="E986" s="60"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1" spans="1:5">
+    <row r="987" spans="1:5" ht="15.75" customHeight="1">
       <c r="A987" s="59"/>
       <c r="B987" s="61"/>
       <c r="C987" s="61"/>
       <c r="D987" s="60"/>
       <c r="E987" s="60"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1" spans="1:5">
+    <row r="988" spans="1:5" ht="15.75" customHeight="1">
       <c r="A988" s="59"/>
       <c r="B988" s="61"/>
       <c r="C988" s="61"/>
       <c r="D988" s="60"/>
       <c r="E988" s="60"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1" spans="1:5">
+    <row r="989" spans="1:5" ht="15.75" customHeight="1">
       <c r="A989" s="59"/>
       <c r="B989" s="61"/>
       <c r="C989" s="61"/>
       <c r="D989" s="60"/>
       <c r="E989" s="60"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1" spans="1:5">
+    <row r="990" spans="1:5" ht="15.75" customHeight="1">
       <c r="A990" s="59"/>
       <c r="B990" s="61"/>
       <c r="C990" s="61"/>
       <c r="D990" s="60"/>
       <c r="E990" s="60"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1" spans="1:5">
+    <row r="991" spans="1:5" ht="15.75" customHeight="1">
       <c r="A991" s="59"/>
       <c r="B991" s="61"/>
       <c r="C991" s="61"/>
       <c r="D991" s="60"/>
       <c r="E991" s="60"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1" spans="1:5">
+    <row r="992" spans="1:5" ht="15.75" customHeight="1">
       <c r="A992" s="59"/>
       <c r="B992" s="61"/>
       <c r="C992" s="61"/>
       <c r="D992" s="60"/>
       <c r="E992" s="60"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1" spans="1:5">
+    <row r="993" spans="1:5" ht="15.75" customHeight="1">
       <c r="A993" s="59"/>
       <c r="B993" s="61"/>
       <c r="C993" s="61"/>
       <c r="D993" s="60"/>
       <c r="E993" s="60"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1" spans="1:5">
+    <row r="994" spans="1:5" ht="15.75" customHeight="1">
       <c r="A994" s="59"/>
       <c r="B994" s="61"/>
       <c r="C994" s="61"/>
       <c r="D994" s="60"/>
       <c r="E994" s="60"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1" spans="1:5">
+    <row r="995" spans="1:5" ht="15.75" customHeight="1">
       <c r="A995" s="59"/>
       <c r="B995" s="61"/>
       <c r="C995" s="61"/>
       <c r="D995" s="60"/>
       <c r="E995" s="60"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1" spans="1:5">
+    <row r="996" spans="1:5" ht="15.75" customHeight="1">
       <c r="A996" s="59"/>
       <c r="B996" s="61"/>
       <c r="C996" s="61"/>
       <c r="D996" s="60"/>
       <c r="E996" s="60"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1" spans="1:5">
+    <row r="997" spans="1:5" ht="15.75" customHeight="1">
       <c r="A997" s="59"/>
       <c r="B997" s="61"/>
       <c r="C997" s="61"/>
       <c r="D997" s="60"/>
       <c r="E997" s="60"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1" spans="1:5">
+    <row r="998" spans="1:5" ht="15.75" customHeight="1">
       <c r="A998" s="59"/>
       <c r="B998" s="61"/>
       <c r="C998" s="61"/>
       <c r="D998" s="60"/>
       <c r="E998" s="60"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1" spans="1:5">
+    <row r="999" spans="1:5" ht="15.75" customHeight="1">
       <c r="A999" s="59"/>
       <c r="B999" s="61"/>
       <c r="C999" s="61"/>
       <c r="D999" s="60"/>
       <c r="E999" s="60"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1000" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1000" s="59"/>
       <c r="B1000" s="61"/>
       <c r="C1000" s="61"/>
@@ -16215,56 +15618,55 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C339" r:id="rId1" display="https://apply.workable.com/gohenry/" tooltip="https://apply.workable.com/gohenry/"/>
-    <hyperlink ref="C345" r:id="rId2" display="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA." tooltip="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA"/>
-    <hyperlink ref="C497" r:id="rId3" display="https://cezanneondemand.intervieweb.it/bigbustours/en/career " tooltip="https://cezanneondemand.intervieweb.it/bigbustours/en/career"/>
-    <hyperlink ref="C498" r:id="rId4" display="https://careers.scienceinsport.com/" tooltip="https://careers.scienceinsport.com/"/>
-    <hyperlink ref="C499" r:id="rId5" display="https://apply.monsoonjobs.com/search_and_apply/vacancies/" tooltip="https://apply.monsoonjobs.com/search_and_apply/vacancies/"/>
-    <hyperlink ref="C500" r:id="rId6" display="https://faculty.ai/join-the-team/" tooltip="https://faculty.ai/join-the-team/"/>
-    <hyperlink ref="C501" r:id="rId7" display="https://recruiterflow.com/e2x/jobs/" tooltip="https://recruiterflow.com/e2x/jobs/"/>
-    <hyperlink ref="C315" r:id="rId8" display="https://careers.legalandgeneral.com/jobs?options=203"/>
-    <hyperlink ref="C292" r:id="rId9" display="https://wellfound.com/company/weezyuk/jobs"/>
-    <hyperlink ref="C274" r:id="rId10" display="https://www.naukri.com/avantha-technologies-limited-jobs-careers-4597944"/>
-    <hyperlink ref="C392" r:id="rId11" display="https://careers.dazn.com/jobs/"/>
-    <hyperlink ref="C393" r:id="rId12" display="https://www.adverity.com/careers"/>
-    <hyperlink ref="C394" r:id="rId13" display="https://www.rochesurveyors.co.uk/about-us/join-us/"/>
-    <hyperlink ref="C395" r:id="rId14" display="https://www.monument.co/careers"/>
-    <hyperlink ref="C396" r:id="rId15" location="roles" display="https://www.mention-me.com/careers#roles"/>
-    <hyperlink ref="C397" r:id="rId16" display="https://www.speechmatics.com/company/careers/roles"/>
-    <hyperlink ref="C398" r:id="rId17" display="https://search.jobs.barclays/search-jobs"/>
-    <hyperlink ref="C399" r:id="rId18" location="jobs" display="https://thecrownestate.teamtailor.com/#jobs"/>
-    <hyperlink ref="C400" r:id="rId19" display="https://jobs.deepl.com"/>
-    <hyperlink ref="C437" r:id="rId20" display="https://jobs.deepl.com/jobs"/>
-    <hyperlink ref="C401" r:id="rId21" display="https://www.cleartreasury.co.uk/careers"/>
-    <hyperlink ref="C402" r:id="rId22" display="https://payvyne.freshteam.com/jobs"/>
-    <hyperlink ref="C403" r:id="rId23" display="https://boards.eu.greenhouse.io/bitpanda"/>
-    <hyperlink ref="C404" r:id="rId24" location="jobs" display="https://careers.swappie.com/#jobs"/>
-    <hyperlink ref="C405" r:id="rId25" display="https://ascential.wd3.myworkdayjobs.com/ASC?field_brand_target_id=52&amp;field_job_function_target_id=All&amp;field_job_type_target_id=All&amp;term_node_tid_depth=All"/>
-    <hyperlink ref="C406" r:id="rId26" display="https://www.koothplc.com/about-us/join-us"/>
-    <hyperlink ref="C407" r:id="rId27" location="job-list" display="https://www.gwi.com/careers#job-list"/>
-    <hyperlink ref="C408" r:id="rId28" display="https://www.kkr.com/careers/career-opportunities"/>
-    <hyperlink ref="C409" r:id="rId29" display="https://careers.allianz.com/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=&amp;quatFlag=false"/>
-    <hyperlink ref="C411" r:id="rId30" display="https://3s.money/careers/"/>
-    <hyperlink ref="C412" r:id="rId31" location="openroles" display="https://partners.bridebook.com/uk/careers#openroles"/>
-    <hyperlink ref="C413" r:id="rId32" display="https://ascential.wd3.myworkdayjobs.com/ASC?q=lions"/>
-    <hyperlink ref="C414" r:id="rId33" display="https://jobs.lever.co/enable"/>
-    <hyperlink ref="C415" r:id="rId34" display="https://www.palantir.com/careers/"/>
-    <hyperlink ref="C416" r:id="rId35" display="https://fabricnano.com/careers"/>
-    <hyperlink ref="C420" r:id="rId36" display="https://careers.lightricks.com/careers"/>
-    <hyperlink ref="C419" r:id="rId37" display="https://www.scandit.com/careers/current-openings/"/>
-    <hyperlink ref="C424" r:id="rId38" display="https://www.efficioconsulting.com/en-gb/careers/apply/"/>
-    <hyperlink ref="C425" r:id="rId39" display="https://www.redkite.com/careers/"/>
-    <hyperlink ref="C426" r:id="rId40" display="https://apply.workable.com/toqio-fintech/"/>
-    <hyperlink ref="C427" r:id="rId41" display="https://www.lebara.de/en/ueber-lebara/stellenangebote.html"/>
-    <hyperlink ref="C452" r:id="rId42" display="https://www.workspace.co.uk/job-vacancies"/>
-    <hyperlink ref="C451" r:id="rId43" display="https://profusion.com/careers"/>
-    <hyperlink ref="C450" r:id="rId44" display="https://hazy.com/careers"/>
-    <hyperlink ref="C410" r:id="rId6" location="ashby_embed" display="https://faculty.ai/join-the-team/#ashby_embed"/>
-    <hyperlink ref="C417" r:id="rId45" display="https://arenko.group/careers/"/>
-    <hyperlink ref="C418" r:id="rId46" display="https://careers.cafeyn.co/jobs"/>
-    <hyperlink ref="C421" r:id="rId47" display="https://greshamhouse.com/join-our-team/"/>
+    <hyperlink ref="C339" r:id="rId1" tooltip="https://apply.workable.com/gohenry/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C345" r:id="rId2" tooltip="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C497" r:id="rId3" tooltip="https://cezanneondemand.intervieweb.it/bigbustours/en/career" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C498" r:id="rId4" tooltip="https://careers.scienceinsport.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C499" r:id="rId5" tooltip="https://apply.monsoonjobs.com/search_and_apply/vacancies/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C500" r:id="rId6" tooltip="https://faculty.ai/join-the-team/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C501" r:id="rId7" tooltip="https://recruiterflow.com/e2x/jobs/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C315" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C292" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C274" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C392" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C393" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C394" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C395" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C396" r:id="rId15" location="roles" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C397" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C398" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C399" r:id="rId18" location="jobs" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C400" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C437" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C401" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C402" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C403" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C404" r:id="rId24" location="jobs" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C405" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C406" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C407" r:id="rId27" location="job-list" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C408" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C409" r:id="rId29" display="https://careers.allianz.com/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=&amp;quatFlag=false" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C411" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C412" r:id="rId31" location="openroles" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C413" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C414" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C415" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C416" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C420" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C419" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C424" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C425" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C426" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C427" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C452" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C451" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C450" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C410" r:id="rId45" location="ashby_embed" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C417" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C418" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C421" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730D0C36-0DA6-45E3-BE9B-5466FA75D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A842A013-AAD4-4CB5-B779-58C1D90765B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3948,7 +3948,7 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A496DBFB-D448-4E36-B3B6-82026D2EFA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE5BFA-FDC3-4CC3-A62E-9D0238E5523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1090">
   <si>
     <t>ID</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Agent 3</t>
   </si>
   <si>
-    <t>https://careers.next15.com/departments/oneninefive</t>
-  </si>
-  <si>
     <t>Research Analyst</t>
   </si>
   <si>
@@ -3287,13 +3284,19 @@
   </si>
   <si>
     <t>https://jobs.lever.co/cfgi</t>
+  </si>
+  <si>
+    <t>https://careers.next15.com/jobs</t>
+  </si>
+  <si>
+    <t>NEXT 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3390,6 +3393,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3540,7 +3555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3685,6 +3700,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3703,6 +3721,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4012,7 +4046,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4066,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G2" s="14">
         <v>10</v>
@@ -4089,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="96.75" customHeight="1">
@@ -4109,7 +4143,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1">
@@ -4129,7 +4163,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1">
@@ -4149,7 +4183,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
@@ -4160,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>3</v>
@@ -4169,7 +4203,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1">
@@ -4189,7 +4223,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1">
@@ -4209,7 +4243,7 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1">
@@ -4229,7 +4263,7 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1">
@@ -4249,7 +4283,7 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1">
@@ -4269,7 +4303,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1">
@@ -4288,28 +4322,28 @@
       <c r="E13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="69" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A14" s="66">
+      <c r="F13" s="70" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="66" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A14" s="67">
         <v>13</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="64" t="s">
+      <c r="D14" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="68" t="s">
-        <v>1087</v>
+      <c r="F14" s="69" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1">
@@ -4328,8 +4362,8 @@
       <c r="E15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="69" t="s">
-        <v>1086</v>
+      <c r="F15" s="70" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1">
@@ -4348,8 +4382,8 @@
       <c r="E16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>1087</v>
+      <c r="F16" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1">
@@ -4369,7 +4403,7 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1">
@@ -4388,8 +4422,8 @@
       <c r="E18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="69" t="s">
-        <v>1087</v>
+      <c r="F18" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1">
@@ -4409,7 +4443,7 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1">
@@ -4428,8 +4462,8 @@
       <c r="E20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="69" t="s">
-        <v>1087</v>
+      <c r="F20" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1">
@@ -4449,7 +4483,7 @@
         <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1">
@@ -4468,8 +4502,8 @@
       <c r="E22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="69" t="s">
-        <v>1087</v>
+      <c r="F22" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1">
@@ -4489,7 +4523,7 @@
         <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1">
@@ -4509,7 +4543,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45.75" customHeight="1">
@@ -4529,7 +4563,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
@@ -4548,8 +4582,8 @@
       <c r="E26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="69" t="s">
-        <v>1087</v>
+      <c r="F26" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1">
@@ -4569,7 +4603,7 @@
         <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
@@ -4589,7 +4623,7 @@
         <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
@@ -4609,7 +4643,7 @@
         <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1">
@@ -4629,27 +4663,27 @@
         <v>93</v>
       </c>
       <c r="F30" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="73" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="69" t="s">
         <v>1086</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A31" s="16">
-        <v>30</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -4659,37 +4693,37 @@
       <c r="B32" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>97</v>
+      <c r="C32" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="F32" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A33" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1086</v>
+      <c r="F33" s="1" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1">
@@ -4697,19 +4731,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="F34" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1">
@@ -4717,19 +4751,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="F35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1">
@@ -4737,19 +4771,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="F36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1">
@@ -4757,19 +4791,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="F37" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1">
@@ -4777,19 +4811,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F38" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -4797,19 +4831,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1">
@@ -4817,19 +4851,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="F40" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1">
@@ -4837,19 +4871,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="F41" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1">
@@ -4857,19 +4891,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="F42" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1">
@@ -4877,19 +4911,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="F43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1">
@@ -4897,19 +4931,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="F44" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1">
@@ -4917,19 +4951,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="F45" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1">
@@ -4937,19 +4971,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="F46" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -4957,19 +4991,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1">
@@ -4977,19 +5011,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="F48" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1">
@@ -4997,19 +5031,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="F49" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1">
@@ -5017,19 +5051,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="F50" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="19.5" customHeight="1">
@@ -5037,19 +5071,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="F51" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" customHeight="1">
@@ -5057,19 +5091,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="F52" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.5" customHeight="1">
@@ -5077,19 +5111,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="F53" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1">
@@ -5097,19 +5131,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="F54" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" customHeight="1">
@@ -5117,19 +5151,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="D55" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="F55" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1">
@@ -5137,19 +5171,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="F56" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="19.5" customHeight="1">
@@ -5157,16 +5191,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="D57" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1">
@@ -5174,16 +5208,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="19.5" customHeight="1">
@@ -5191,16 +5225,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="D59" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1">
@@ -5208,16 +5242,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="D60" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="19.5" customHeight="1">
@@ -5225,16 +5259,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="D61" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1">
@@ -5242,16 +5276,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="19.5" customHeight="1">
@@ -5259,16 +5293,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="32.25" customHeight="1">
@@ -5276,16 +5310,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="D64" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="19.5" customHeight="1">
@@ -5293,16 +5327,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="D65" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1">
@@ -5310,16 +5344,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="D66" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19.5" customHeight="1">
@@ -5327,16 +5361,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="D67" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="19.5" customHeight="1">
@@ -5344,16 +5378,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="D68" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="19.5" customHeight="1">
@@ -5361,16 +5395,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="D69" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1">
@@ -5378,16 +5412,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="D70" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="19.5" customHeight="1">
@@ -5395,16 +5429,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19.5" customHeight="1">
@@ -5412,16 +5446,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="D72" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="19.5" customHeight="1">
@@ -5429,16 +5463,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="D73" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="19.5" customHeight="1">
@@ -5446,16 +5480,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" customHeight="1">
@@ -5463,16 +5497,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="D75" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19.5" customHeight="1">
@@ -5480,16 +5514,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="19.5" customHeight="1">
@@ -5497,16 +5531,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="19.5" customHeight="1">
@@ -5514,16 +5548,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="D78" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="19.5" customHeight="1">
@@ -5531,16 +5565,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="D79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="19.5" customHeight="1">
@@ -5548,16 +5582,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="D80" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="19.5" customHeight="1">
@@ -5565,16 +5599,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="D81" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="19.5" customHeight="1">
@@ -5582,16 +5616,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="19.5" customHeight="1">
@@ -5599,16 +5633,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="32.25" customHeight="1">
@@ -5616,16 +5650,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="19.5" customHeight="1">
@@ -5633,16 +5667,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="19.5" customHeight="1">
@@ -5650,16 +5684,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="D86" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="19.5" customHeight="1">
@@ -5667,16 +5701,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="D87" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="19.5" customHeight="1">
@@ -5684,16 +5718,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="19.5" customHeight="1">
@@ -5701,16 +5735,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="D89" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19.5" customHeight="1">
@@ -5718,16 +5752,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="D90" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="19.5" customHeight="1">
@@ -5735,16 +5769,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="D91" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="19.5" customHeight="1">
@@ -5752,16 +5786,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="19.5" customHeight="1">
@@ -5769,16 +5803,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="19.5" customHeight="1">
@@ -5786,16 +5820,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="D94" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="19.5" customHeight="1">
@@ -5803,16 +5837,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="19.5" customHeight="1">
@@ -5820,16 +5854,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="D96" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="19.5" customHeight="1">
@@ -5837,16 +5871,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19.5" customHeight="1">
@@ -5854,16 +5888,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="D98" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1">
@@ -5871,16 +5905,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="D99" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="19.5" customHeight="1">
@@ -5888,16 +5922,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="D100" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="19.5" customHeight="1">
@@ -5905,16 +5939,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="D101" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="19.5" customHeight="1">
@@ -5922,16 +5956,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="D102" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="19.5" customHeight="1">
@@ -5939,16 +5973,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="D103" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="19.5" customHeight="1">
@@ -5956,16 +5990,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="D104" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="19.5" customHeight="1">
@@ -5973,16 +6007,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="D105" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>314</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
@@ -5990,16 +6024,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="19.5" customHeight="1">
@@ -6007,16 +6041,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="D107" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="19.5" customHeight="1">
@@ -6024,16 +6058,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="D108" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>322</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="19.5" customHeight="1">
@@ -6041,10 +6075,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>3</v>
@@ -6056,10 +6090,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>3</v>
@@ -6071,10 +6105,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>329</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>3</v>
@@ -6086,10 +6120,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>3</v>
@@ -6101,10 +6135,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>3</v>
@@ -6116,10 +6150,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>3</v>
@@ -6131,10 +6165,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>3</v>
@@ -6146,10 +6180,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>3</v>
@@ -6161,10 +6195,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>3</v>
@@ -6176,10 +6210,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>3</v>
@@ -6191,10 +6225,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>44</v>
@@ -6206,10 +6240,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>3</v>
@@ -6221,10 +6255,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>3</v>
@@ -6236,10 +6270,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>3</v>
@@ -6251,10 +6285,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>44</v>
@@ -6266,10 +6300,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>3</v>
@@ -6284,7 +6318,7 @@
         <v>85</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>44</v>
@@ -6296,10 +6330,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>44</v>
@@ -6311,10 +6345,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>44</v>
@@ -6359,7 +6393,7 @@
         <v>91</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>44</v>
@@ -6371,10 +6405,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>44</v>
@@ -6386,10 +6420,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" s="19" t="s">
         <v>136</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>137</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>44</v>
@@ -6401,10 +6435,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>44</v>
@@ -6416,10 +6450,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>44</v>
@@ -6431,10 +6465,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>44</v>
@@ -6446,10 +6480,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>44</v>
@@ -6461,10 +6495,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C137" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>356</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>3</v>
@@ -6476,10 +6510,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>358</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>44</v>
@@ -6491,10 +6525,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>360</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>3</v>
@@ -6506,10 +6540,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C140" s="20" t="s">
         <v>361</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>362</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>3</v>
@@ -6521,10 +6555,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C141" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>3</v>
@@ -6536,10 +6570,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>366</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>3</v>
@@ -6551,10 +6585,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C143" s="20" t="s">
         <v>367</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>368</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>3</v>
@@ -6566,10 +6600,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C144" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>370</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>3</v>
@@ -6581,10 +6615,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" s="20" t="s">
         <v>371</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>372</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>3</v>
@@ -6596,10 +6630,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" s="20" t="s">
         <v>373</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>374</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>3</v>
@@ -6611,10 +6645,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C147" s="20" t="s">
         <v>375</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>376</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>3</v>
@@ -6626,10 +6660,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C148" s="20" t="s">
         <v>377</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>378</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>3</v>
@@ -6641,10 +6675,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C149" s="22" t="s">
         <v>379</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>380</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>44</v>
@@ -6656,10 +6690,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C150" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>3</v>
@@ -6671,10 +6705,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>384</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>3</v>
@@ -6686,10 +6720,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>3</v>
@@ -6701,10 +6735,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>388</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>3</v>
@@ -6716,10 +6750,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C154" s="20" t="s">
         <v>389</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>390</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>3</v>
@@ -6731,10 +6765,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C155" s="20" t="s">
         <v>391</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>392</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>3</v>
@@ -6746,10 +6780,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C156" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>3</v>
@@ -6761,10 +6795,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>396</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>3</v>
@@ -6776,10 +6810,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C158" s="20" t="s">
         <v>397</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>398</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>3</v>
@@ -6791,10 +6825,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>44</v>
@@ -6806,10 +6840,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C160" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>44</v>
@@ -6821,10 +6855,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C161" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>400</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>3</v>
@@ -6836,10 +6870,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>44</v>
@@ -6851,10 +6885,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C163" s="20" t="s">
         <v>401</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>402</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>3</v>
@@ -6866,10 +6900,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C164" s="20" t="s">
         <v>403</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>404</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>3</v>
@@ -6881,10 +6915,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C165" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>406</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>3</v>
@@ -6896,10 +6930,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C166" s="20" t="s">
         <v>407</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>408</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>3</v>
@@ -6911,10 +6945,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>3</v>
@@ -6926,10 +6960,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D168" s="18" t="s">
         <v>44</v>
@@ -6941,10 +6975,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D169" s="18" t="s">
         <v>44</v>
@@ -6956,10 +6990,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C170" s="20" t="s">
         <v>412</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>413</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>3</v>
@@ -6971,10 +7005,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>44</v>
@@ -6986,10 +7020,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C172" s="20" t="s">
         <v>415</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>416</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>3</v>
@@ -7001,10 +7035,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C173" s="20" t="s">
         <v>417</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>418</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>3</v>
@@ -7016,10 +7050,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C174" s="20" t="s">
         <v>419</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>420</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>3</v>
@@ -7031,10 +7065,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C175" s="20" t="s">
         <v>421</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>422</v>
       </c>
       <c r="D175" s="12" t="s">
         <v>3</v>
@@ -7046,10 +7080,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C176" s="20" t="s">
         <v>423</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>424</v>
       </c>
       <c r="D176" s="12" t="s">
         <v>3</v>
@@ -7061,10 +7095,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C177" s="19" t="s">
         <v>425</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>426</v>
       </c>
       <c r="D177" s="18" t="s">
         <v>44</v>
@@ -7076,10 +7110,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C178" s="20" t="s">
         <v>427</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>428</v>
       </c>
       <c r="D178" s="12" t="s">
         <v>3</v>
@@ -7091,10 +7125,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C179" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>430</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>3</v>
@@ -7106,10 +7140,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C180" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>432</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>3</v>
@@ -7121,10 +7155,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C181" s="20" t="s">
         <v>433</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>434</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>3</v>
@@ -7136,10 +7170,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C182" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>436</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>3</v>
@@ -7151,10 +7185,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C183" s="20" t="s">
         <v>437</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>438</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>3</v>
@@ -7166,10 +7200,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C184" s="20" t="s">
         <v>439</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>440</v>
       </c>
       <c r="D184" s="12" t="s">
         <v>3</v>
@@ -7181,10 +7215,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C185" s="20" t="s">
         <v>441</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>442</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>3</v>
@@ -7196,10 +7230,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C186" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>444</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>3</v>
@@ -7211,10 +7245,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C187" s="20" t="s">
         <v>445</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>446</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>3</v>
@@ -7226,10 +7260,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C188" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>448</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>3</v>
@@ -7241,10 +7275,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C189" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>450</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>3</v>
@@ -7256,10 +7290,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C190" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>452</v>
       </c>
       <c r="D190" s="12" t="s">
         <v>3</v>
@@ -7271,10 +7305,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C191" s="20" t="s">
         <v>453</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>454</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>3</v>
@@ -7286,10 +7320,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C192" s="20" t="s">
         <v>455</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>456</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>3</v>
@@ -7301,10 +7335,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>44</v>
@@ -7316,10 +7350,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="C194" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="C194" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="D194" s="23" t="s">
         <v>44</v>
@@ -7331,10 +7365,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C195" s="20" t="s">
         <v>460</v>
-      </c>
-      <c r="C195" s="20" t="s">
-        <v>461</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>3</v>
@@ -7346,10 +7380,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C196" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>463</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>3</v>
@@ -7361,10 +7395,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C197" s="20" t="s">
         <v>464</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>465</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>3</v>
@@ -7376,10 +7410,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C198" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="C198" s="20" t="s">
-        <v>467</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>3</v>
@@ -7391,10 +7425,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C199" s="20" t="s">
         <v>468</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>469</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>3</v>
@@ -7406,10 +7440,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C200" s="20" t="s">
         <v>470</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>471</v>
       </c>
       <c r="D200" s="12" t="s">
         <v>3</v>
@@ -7421,10 +7455,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="C201" s="20" t="s">
         <v>472</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>473</v>
       </c>
       <c r="D201" s="12" t="s">
         <v>3</v>
@@ -7436,10 +7470,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C202" s="20" t="s">
         <v>474</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>475</v>
       </c>
       <c r="D202" s="12" t="s">
         <v>3</v>
@@ -7451,10 +7485,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D203" s="18" t="s">
         <v>44</v>
@@ -7466,10 +7500,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C204" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>478</v>
       </c>
       <c r="D204" s="12" t="s">
         <v>3</v>
@@ -7481,10 +7515,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="C205" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="D205" s="18" t="s">
         <v>44</v>
@@ -7496,10 +7530,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C206" s="20" t="s">
         <v>481</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>482</v>
       </c>
       <c r="D206" s="12" t="s">
         <v>3</v>
@@ -7511,10 +7545,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C207" s="20" t="s">
         <v>483</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>484</v>
       </c>
       <c r="D207" s="12" t="s">
         <v>3</v>
@@ -7526,10 +7560,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C208" s="20" t="s">
         <v>485</v>
-      </c>
-      <c r="C208" s="20" t="s">
-        <v>486</v>
       </c>
       <c r="D208" s="12" t="s">
         <v>3</v>
@@ -7541,10 +7575,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="C209" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>488</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>3</v>
@@ -7556,10 +7590,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C210" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>490</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>3</v>
@@ -7571,10 +7605,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="C211" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>492</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>3</v>
@@ -7586,10 +7620,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C212" s="20" t="s">
         <v>493</v>
-      </c>
-      <c r="C212" s="20" t="s">
-        <v>494</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>3</v>
@@ -7601,10 +7635,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="C213" s="20" t="s">
         <v>495</v>
-      </c>
-      <c r="C213" s="20" t="s">
-        <v>496</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>3</v>
@@ -7616,10 +7650,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C214" s="20" t="s">
         <v>497</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>498</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>3</v>
@@ -7631,10 +7665,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C215" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="C215" s="20" t="s">
-        <v>500</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>3</v>
@@ -7646,10 +7680,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C216" s="20" t="s">
         <v>501</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>502</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>3</v>
@@ -7661,10 +7695,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C217" s="20" t="s">
         <v>503</v>
-      </c>
-      <c r="C217" s="20" t="s">
-        <v>504</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>3</v>
@@ -7676,10 +7710,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C218" s="20" t="s">
         <v>505</v>
-      </c>
-      <c r="C218" s="20" t="s">
-        <v>506</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>3</v>
@@ -7691,10 +7725,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="C219" s="20" t="s">
         <v>507</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>508</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>3</v>
@@ -7706,10 +7740,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="C220" s="20" t="s">
         <v>509</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>510</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>3</v>
@@ -7721,10 +7755,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="C221" s="20" t="s">
         <v>511</v>
-      </c>
-      <c r="C221" s="20" t="s">
-        <v>512</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>3</v>
@@ -7736,10 +7770,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="C222" s="20" t="s">
         <v>513</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>514</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>3</v>
@@ -7751,10 +7785,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="C223" s="20" t="s">
         <v>515</v>
-      </c>
-      <c r="C223" s="20" t="s">
-        <v>516</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>3</v>
@@ -7766,10 +7800,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="C224" s="20" t="s">
         <v>517</v>
-      </c>
-      <c r="C224" s="20" t="s">
-        <v>518</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>3</v>
@@ -7781,10 +7815,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="C225" s="20" t="s">
         <v>519</v>
-      </c>
-      <c r="C225" s="20" t="s">
-        <v>520</v>
       </c>
       <c r="D225" s="12" t="s">
         <v>3</v>
@@ -7796,10 +7830,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="C226" s="20" t="s">
         <v>521</v>
-      </c>
-      <c r="C226" s="20" t="s">
-        <v>522</v>
       </c>
       <c r="D226" s="12" t="s">
         <v>3</v>
@@ -7811,10 +7845,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C227" s="20" t="s">
         <v>523</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>524</v>
       </c>
       <c r="D227" s="12" t="s">
         <v>3</v>
@@ -7841,10 +7875,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="C229" s="20" t="s">
         <v>525</v>
-      </c>
-      <c r="C229" s="20" t="s">
-        <v>526</v>
       </c>
       <c r="D229" s="12" t="s">
         <v>3</v>
@@ -7856,10 +7890,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="C230" s="20" t="s">
         <v>527</v>
-      </c>
-      <c r="C230" s="20" t="s">
-        <v>528</v>
       </c>
       <c r="D230" s="12" t="s">
         <v>3</v>
@@ -7871,10 +7905,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C231" s="19" t="s">
         <v>529</v>
-      </c>
-      <c r="C231" s="19" t="s">
-        <v>530</v>
       </c>
       <c r="D231" s="18" t="s">
         <v>44</v>
@@ -7889,7 +7923,7 @@
         <v>91</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D232" s="18" t="s">
         <v>44</v>
@@ -7901,10 +7935,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="C233" s="20" t="s">
         <v>531</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>532</v>
       </c>
       <c r="D233" s="12" t="s">
         <v>3</v>
@@ -7916,10 +7950,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="C234" s="20" t="s">
         <v>533</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>534</v>
       </c>
       <c r="D234" s="12" t="s">
         <v>3</v>
@@ -7931,10 +7965,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C235" s="20" t="s">
         <v>535</v>
-      </c>
-      <c r="C235" s="20" t="s">
-        <v>536</v>
       </c>
       <c r="D235" s="12" t="s">
         <v>3</v>
@@ -7946,10 +7980,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="C236" s="20" t="s">
         <v>537</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>538</v>
       </c>
       <c r="D236" s="12" t="s">
         <v>3</v>
@@ -7961,10 +7995,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="C237" s="20" t="s">
         <v>539</v>
-      </c>
-      <c r="C237" s="20" t="s">
-        <v>540</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>3</v>
@@ -7976,10 +8010,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="C238" s="20" t="s">
         <v>541</v>
-      </c>
-      <c r="C238" s="20" t="s">
-        <v>542</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>3</v>
@@ -7991,10 +8025,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D239" s="18" t="s">
         <v>44</v>
@@ -8006,10 +8040,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="C240" s="20" t="s">
         <v>544</v>
-      </c>
-      <c r="C240" s="20" t="s">
-        <v>545</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>3</v>
@@ -8024,7 +8058,7 @@
         <v>55</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D241" s="18" t="s">
         <v>44</v>
@@ -8036,10 +8070,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C242" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="C242" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="D242" s="18" t="s">
         <v>44</v>
@@ -8051,10 +8085,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="C243" s="22" t="s">
         <v>547</v>
-      </c>
-      <c r="C243" s="22" t="s">
-        <v>548</v>
       </c>
       <c r="D243" s="23" t="s">
         <v>44</v>
@@ -8066,10 +8100,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C244" s="19" t="s">
         <v>549</v>
-      </c>
-      <c r="C244" s="19" t="s">
-        <v>550</v>
       </c>
       <c r="D244" s="18" t="s">
         <v>44</v>
@@ -8081,10 +8115,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="C245" s="20" t="s">
         <v>551</v>
-      </c>
-      <c r="C245" s="20" t="s">
-        <v>552</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>3</v>
@@ -8096,10 +8130,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="C246" s="20" t="s">
         <v>553</v>
-      </c>
-      <c r="C246" s="20" t="s">
-        <v>554</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>3</v>
@@ -8111,10 +8145,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C247" s="20" t="s">
         <v>555</v>
-      </c>
-      <c r="C247" s="20" t="s">
-        <v>556</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>3</v>
@@ -8126,10 +8160,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="C248" s="20" t="s">
         <v>557</v>
-      </c>
-      <c r="C248" s="20" t="s">
-        <v>558</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>3</v>
@@ -8141,10 +8175,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="C249" s="20" t="s">
         <v>559</v>
-      </c>
-      <c r="C249" s="20" t="s">
-        <v>560</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>3</v>
@@ -8156,10 +8190,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="C250" s="20" t="s">
         <v>561</v>
-      </c>
-      <c r="C250" s="20" t="s">
-        <v>562</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>3</v>
@@ -8171,10 +8205,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="C251" s="19" t="s">
         <v>563</v>
-      </c>
-      <c r="C251" s="19" t="s">
-        <v>564</v>
       </c>
       <c r="D251" s="18" t="s">
         <v>44</v>
@@ -8186,10 +8220,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="C252" s="20" t="s">
         <v>565</v>
-      </c>
-      <c r="C252" s="20" t="s">
-        <v>566</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>3</v>
@@ -8201,10 +8235,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="C253" s="20" t="s">
         <v>567</v>
-      </c>
-      <c r="C253" s="20" t="s">
-        <v>568</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>3</v>
@@ -8216,10 +8250,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="C254" s="20" t="s">
         <v>569</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>570</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>3</v>
@@ -8231,10 +8265,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="C255" s="20" t="s">
         <v>571</v>
-      </c>
-      <c r="C255" s="20" t="s">
-        <v>572</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>3</v>
@@ -8246,10 +8280,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="C256" s="20" t="s">
         <v>573</v>
-      </c>
-      <c r="C256" s="20" t="s">
-        <v>574</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>3</v>
@@ -8261,10 +8295,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="C257" s="20" t="s">
         <v>575</v>
-      </c>
-      <c r="C257" s="20" t="s">
-        <v>576</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>3</v>
@@ -8276,10 +8310,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="C258" s="20" t="s">
         <v>577</v>
-      </c>
-      <c r="C258" s="20" t="s">
-        <v>578</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>3</v>
@@ -8291,10 +8325,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="C259" s="20" t="s">
         <v>579</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>580</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>3</v>
@@ -8306,10 +8340,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="C260" s="20" t="s">
         <v>581</v>
-      </c>
-      <c r="C260" s="20" t="s">
-        <v>582</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>3</v>
@@ -8321,10 +8355,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="C261" s="19" t="s">
         <v>539</v>
-      </c>
-      <c r="C261" s="19" t="s">
-        <v>540</v>
       </c>
       <c r="D261" s="18" t="s">
         <v>44</v>
@@ -8336,10 +8370,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C262" s="20" t="s">
         <v>583</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>584</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>3</v>
@@ -8351,10 +8385,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C263" s="20" t="s">
         <v>585</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>586</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>3</v>
@@ -8366,10 +8400,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C264" s="20" t="s">
         <v>587</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>588</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>3</v>
@@ -8381,10 +8415,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C265" s="20" t="s">
         <v>589</v>
-      </c>
-      <c r="C265" s="20" t="s">
-        <v>590</v>
       </c>
       <c r="D265" s="12" t="s">
         <v>3</v>
@@ -8396,10 +8430,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C266" s="20" t="s">
         <v>591</v>
-      </c>
-      <c r="C266" s="20" t="s">
-        <v>592</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>3</v>
@@ -8411,10 +8445,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="C267" s="20" t="s">
         <v>593</v>
-      </c>
-      <c r="C267" s="20" t="s">
-        <v>594</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>3</v>
@@ -8426,10 +8460,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="C268" s="20" t="s">
         <v>595</v>
-      </c>
-      <c r="C268" s="20" t="s">
-        <v>596</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>3</v>
@@ -8441,10 +8475,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="C269" s="19" t="s">
         <v>597</v>
-      </c>
-      <c r="C269" s="19" t="s">
-        <v>598</v>
       </c>
       <c r="D269" s="18" t="s">
         <v>44</v>
@@ -8456,10 +8490,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="C270" s="20" t="s">
         <v>599</v>
-      </c>
-      <c r="C270" s="20" t="s">
-        <v>600</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>3</v>
@@ -8471,10 +8505,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="C271" s="19" t="s">
         <v>601</v>
-      </c>
-      <c r="C271" s="19" t="s">
-        <v>602</v>
       </c>
       <c r="D271" s="18" t="s">
         <v>44</v>
@@ -8486,10 +8520,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="C272" s="20" t="s">
         <v>603</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>604</v>
       </c>
       <c r="D272" s="12" t="s">
         <v>3</v>
@@ -8501,10 +8535,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="C273" s="20" t="s">
         <v>605</v>
-      </c>
-      <c r="C273" s="20" t="s">
-        <v>606</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>3</v>
@@ -8516,10 +8550,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="C274" s="24" t="s">
         <v>607</v>
-      </c>
-      <c r="C274" s="24" t="s">
-        <v>608</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>3</v>
@@ -8531,10 +8565,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C275" s="20" t="s">
         <v>609</v>
-      </c>
-      <c r="C275" s="20" t="s">
-        <v>610</v>
       </c>
       <c r="D275" s="12" t="s">
         <v>3</v>
@@ -8546,10 +8580,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="C276" s="20" t="s">
         <v>611</v>
-      </c>
-      <c r="C276" s="20" t="s">
-        <v>612</v>
       </c>
       <c r="D276" s="12" t="s">
         <v>3</v>
@@ -8561,10 +8595,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="C277" s="25" t="s">
         <v>613</v>
-      </c>
-      <c r="C277" s="25" t="s">
-        <v>614</v>
       </c>
       <c r="D277" s="12" t="s">
         <v>3</v>
@@ -8576,10 +8610,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="C278" s="28" t="s">
         <v>615</v>
-      </c>
-      <c r="C278" s="28" t="s">
-        <v>616</v>
       </c>
       <c r="D278" s="12" t="s">
         <v>3</v>
@@ -8591,10 +8625,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="C279" s="28" t="s">
         <v>617</v>
-      </c>
-      <c r="C279" s="28" t="s">
-        <v>618</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>3</v>
@@ -8606,10 +8640,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C280" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="C280" s="31" t="s">
-        <v>137</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>44</v>
@@ -8621,10 +8655,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C281" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>44</v>
@@ -8636,10 +8670,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="C282" s="28" t="s">
         <v>620</v>
-      </c>
-      <c r="C282" s="28" t="s">
-        <v>621</v>
       </c>
       <c r="D282" s="12" t="s">
         <v>3</v>
@@ -8651,10 +8685,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="C283" s="34" t="s">
         <v>622</v>
-      </c>
-      <c r="C283" s="34" t="s">
-        <v>623</v>
       </c>
       <c r="D283" s="23" t="s">
         <v>44</v>
@@ -8666,10 +8700,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="27" t="s">
+        <v>623</v>
+      </c>
+      <c r="C284" s="28" t="s">
         <v>624</v>
-      </c>
-      <c r="C284" s="28" t="s">
-        <v>625</v>
       </c>
       <c r="D284" s="12" t="s">
         <v>3</v>
@@ -8681,10 +8715,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="C285" s="28" t="s">
         <v>626</v>
-      </c>
-      <c r="C285" s="28" t="s">
-        <v>627</v>
       </c>
       <c r="D285" s="12" t="s">
         <v>3</v>
@@ -8696,10 +8730,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C286" s="31" t="s">
         <v>172</v>
-      </c>
-      <c r="C286" s="31" t="s">
-        <v>173</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>44</v>
@@ -8711,10 +8745,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="C287" s="31" t="s">
         <v>628</v>
-      </c>
-      <c r="C287" s="31" t="s">
-        <v>629</v>
       </c>
       <c r="D287" s="18" t="s">
         <v>44</v>
@@ -8729,7 +8763,7 @@
         <v>73</v>
       </c>
       <c r="C288" s="31" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D288" s="18" t="s">
         <v>44</v>
@@ -8741,10 +8775,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="C289" s="34" t="s">
         <v>631</v>
-      </c>
-      <c r="C289" s="34" t="s">
-        <v>632</v>
       </c>
       <c r="D289" s="23" t="s">
         <v>44</v>
@@ -8756,10 +8790,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="C290" s="37" t="s">
         <v>633</v>
-      </c>
-      <c r="C290" s="37" t="s">
-        <v>634</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>3</v>
@@ -8771,10 +8805,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="C291" s="34" t="s">
         <v>635</v>
-      </c>
-      <c r="C291" s="34" t="s">
-        <v>636</v>
       </c>
       <c r="D291" s="23" t="s">
         <v>44</v>
@@ -8786,10 +8820,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C292" s="39" t="s">
         <v>637</v>
-      </c>
-      <c r="C292" s="39" t="s">
-        <v>638</v>
       </c>
       <c r="D292" s="23" t="s">
         <v>44</v>
@@ -8801,10 +8835,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="C293" s="28" t="s">
         <v>639</v>
-      </c>
-      <c r="C293" s="28" t="s">
-        <v>640</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>3</v>
@@ -8816,10 +8850,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="C294" s="28" t="s">
         <v>641</v>
-      </c>
-      <c r="C294" s="28" t="s">
-        <v>642</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>3</v>
@@ -8831,10 +8865,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="C295" s="28" t="s">
         <v>643</v>
-      </c>
-      <c r="C295" s="28" t="s">
-        <v>644</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>3</v>
@@ -8846,10 +8880,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="28" t="s">
+        <v>644</v>
+      </c>
+      <c r="C296" s="28" t="s">
         <v>645</v>
-      </c>
-      <c r="C296" s="28" t="s">
-        <v>646</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>3</v>
@@ -8861,10 +8895,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="C297" s="28" t="s">
         <v>647</v>
-      </c>
-      <c r="C297" s="28" t="s">
-        <v>648</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>3</v>
@@ -8876,10 +8910,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="C298" s="28" t="s">
         <v>649</v>
-      </c>
-      <c r="C298" s="28" t="s">
-        <v>650</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>3</v>
@@ -8891,10 +8925,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C299" s="31" t="s">
         <v>651</v>
-      </c>
-      <c r="C299" s="31" t="s">
-        <v>652</v>
       </c>
       <c r="D299" s="18" t="s">
         <v>44</v>
@@ -8921,10 +8955,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="C301" s="28" t="s">
         <v>653</v>
-      </c>
-      <c r="C301" s="28" t="s">
-        <v>654</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>3</v>
@@ -8936,10 +8970,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="C302" s="28" t="s">
         <v>655</v>
-      </c>
-      <c r="C302" s="28" t="s">
-        <v>656</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>3</v>
@@ -8951,10 +8985,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="C303" s="28" t="s">
         <v>657</v>
-      </c>
-      <c r="C303" s="28" t="s">
-        <v>658</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>3</v>
@@ -8966,10 +9000,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="C304" s="28" t="s">
         <v>659</v>
-      </c>
-      <c r="C304" s="28" t="s">
-        <v>660</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>3</v>
@@ -8981,10 +9015,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="C305" s="28" t="s">
         <v>661</v>
-      </c>
-      <c r="C305" s="28" t="s">
-        <v>662</v>
       </c>
       <c r="D305" s="12" t="s">
         <v>3</v>
@@ -8996,10 +9030,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="C306" s="28" t="s">
         <v>663</v>
-      </c>
-      <c r="C306" s="28" t="s">
-        <v>664</v>
       </c>
       <c r="D306" s="12" t="s">
         <v>3</v>
@@ -9011,10 +9045,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="34" t="s">
+        <v>664</v>
+      </c>
+      <c r="C307" s="34" t="s">
         <v>665</v>
-      </c>
-      <c r="C307" s="34" t="s">
-        <v>666</v>
       </c>
       <c r="D307" s="23" t="s">
         <v>44</v>
@@ -9026,10 +9060,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="C308" s="28" t="s">
         <v>667</v>
-      </c>
-      <c r="C308" s="28" t="s">
-        <v>668</v>
       </c>
       <c r="D308" s="12" t="s">
         <v>3</v>
@@ -9041,10 +9075,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="C309" s="28" t="s">
         <v>669</v>
-      </c>
-      <c r="C309" s="28" t="s">
-        <v>670</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>3</v>
@@ -9056,10 +9090,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="C310" s="28" t="s">
         <v>671</v>
-      </c>
-      <c r="C310" s="28" t="s">
-        <v>672</v>
       </c>
       <c r="D310" s="12" t="s">
         <v>3</v>
@@ -9071,10 +9105,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="C311" s="28" t="s">
         <v>673</v>
-      </c>
-      <c r="C311" s="28" t="s">
-        <v>674</v>
       </c>
       <c r="D311" s="12" t="s">
         <v>3</v>
@@ -9086,10 +9120,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="C312" s="28" t="s">
         <v>675</v>
-      </c>
-      <c r="C312" s="28" t="s">
-        <v>676</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>3</v>
@@ -9101,10 +9135,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="C313" s="28" t="s">
         <v>677</v>
-      </c>
-      <c r="C313" s="28" t="s">
-        <v>678</v>
       </c>
       <c r="D313" s="12" t="s">
         <v>3</v>
@@ -9116,10 +9150,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="C314" s="28" t="s">
         <v>679</v>
-      </c>
-      <c r="C314" s="28" t="s">
-        <v>680</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>3</v>
@@ -9131,10 +9165,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="C315" s="44" t="s">
         <v>681</v>
-      </c>
-      <c r="C315" s="44" t="s">
-        <v>682</v>
       </c>
       <c r="D315" s="18" t="s">
         <v>44</v>
@@ -9146,10 +9180,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="C316" s="28" t="s">
         <v>683</v>
-      </c>
-      <c r="C316" s="28" t="s">
-        <v>684</v>
       </c>
       <c r="D316" s="12" t="s">
         <v>3</v>
@@ -9161,10 +9195,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="C317" s="28" t="s">
         <v>685</v>
-      </c>
-      <c r="C317" s="28" t="s">
-        <v>686</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>3</v>
@@ -9176,10 +9210,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="C318" s="28" t="s">
         <v>687</v>
-      </c>
-      <c r="C318" s="28" t="s">
-        <v>688</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>3</v>
@@ -9191,10 +9225,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="C319" s="28" t="s">
         <v>689</v>
-      </c>
-      <c r="C319" s="28" t="s">
-        <v>690</v>
       </c>
       <c r="D319" s="12" t="s">
         <v>3</v>
@@ -9206,10 +9240,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C320" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D320" s="12" t="s">
         <v>3</v>
@@ -9221,10 +9255,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="C321" s="28" t="s">
         <v>692</v>
-      </c>
-      <c r="C321" s="28" t="s">
-        <v>693</v>
       </c>
       <c r="D321" s="12" t="s">
         <v>3</v>
@@ -9236,10 +9270,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="C322" s="28" t="s">
         <v>694</v>
-      </c>
-      <c r="C322" s="28" t="s">
-        <v>695</v>
       </c>
       <c r="D322" s="12" t="s">
         <v>3</v>
@@ -9251,10 +9285,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="C323" s="28" t="s">
         <v>696</v>
-      </c>
-      <c r="C323" s="28" t="s">
-        <v>697</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>3</v>
@@ -9266,10 +9300,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="C324" s="28" t="s">
         <v>698</v>
-      </c>
-      <c r="C324" s="28" t="s">
-        <v>699</v>
       </c>
       <c r="D324" s="12" t="s">
         <v>3</v>
@@ -9281,10 +9315,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="C325" s="28" t="s">
         <v>700</v>
-      </c>
-      <c r="C325" s="28" t="s">
-        <v>701</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>3</v>
@@ -9296,10 +9330,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="C326" s="28" t="s">
         <v>702</v>
-      </c>
-      <c r="C326" s="28" t="s">
-        <v>703</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>3</v>
@@ -9311,10 +9345,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="C327" s="31" t="s">
         <v>704</v>
-      </c>
-      <c r="C327" s="31" t="s">
-        <v>705</v>
       </c>
       <c r="D327" s="18" t="s">
         <v>44</v>
@@ -9326,10 +9360,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="C328" s="28" t="s">
         <v>706</v>
-      </c>
-      <c r="C328" s="28" t="s">
-        <v>707</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>3</v>
@@ -9341,10 +9375,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="C329" s="28" t="s">
         <v>708</v>
-      </c>
-      <c r="C329" s="28" t="s">
-        <v>709</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>3</v>
@@ -9356,10 +9390,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="C330" s="28" t="s">
         <v>710</v>
-      </c>
-      <c r="C330" s="28" t="s">
-        <v>711</v>
       </c>
       <c r="D330" s="12" t="s">
         <v>3</v>
@@ -9371,10 +9405,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D331" s="18" t="s">
         <v>44</v>
@@ -9386,10 +9420,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="C332" s="31" t="s">
         <v>713</v>
-      </c>
-      <c r="C332" s="31" t="s">
-        <v>714</v>
       </c>
       <c r="D332" s="18" t="s">
         <v>44</v>
@@ -9401,10 +9435,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="C333" s="28" t="s">
         <v>715</v>
-      </c>
-      <c r="C333" s="28" t="s">
-        <v>716</v>
       </c>
       <c r="D333" s="12" t="s">
         <v>3</v>
@@ -9416,10 +9450,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="C334" s="31" t="s">
         <v>717</v>
-      </c>
-      <c r="C334" s="31" t="s">
-        <v>718</v>
       </c>
       <c r="D334" s="18" t="s">
         <v>44</v>
@@ -9431,10 +9465,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C335" s="28" t="s">
         <v>719</v>
-      </c>
-      <c r="C335" s="28" t="s">
-        <v>720</v>
       </c>
       <c r="D335" s="12" t="s">
         <v>3</v>
@@ -9446,10 +9480,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C336" s="31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D336" s="18" t="s">
         <v>44</v>
@@ -9461,10 +9495,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="C337" s="28" t="s">
         <v>722</v>
-      </c>
-      <c r="C337" s="28" t="s">
-        <v>723</v>
       </c>
       <c r="D337" s="12" t="s">
         <v>3</v>
@@ -9476,10 +9510,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="C338" s="31" t="s">
         <v>724</v>
-      </c>
-      <c r="C338" s="31" t="s">
-        <v>725</v>
       </c>
       <c r="D338" s="18" t="s">
         <v>44</v>
@@ -9491,10 +9525,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="C339" s="45" t="s">
         <v>726</v>
-      </c>
-      <c r="C339" s="45" t="s">
-        <v>727</v>
       </c>
       <c r="D339" s="12" t="s">
         <v>3</v>
@@ -9506,10 +9540,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="C340" s="28" t="s">
         <v>728</v>
-      </c>
-      <c r="C340" s="28" t="s">
-        <v>729</v>
       </c>
       <c r="D340" s="12" t="s">
         <v>3</v>
@@ -9521,10 +9555,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="C341" s="28" t="s">
         <v>730</v>
-      </c>
-      <c r="C341" s="28" t="s">
-        <v>731</v>
       </c>
       <c r="D341" s="12" t="s">
         <v>3</v>
@@ -9536,10 +9570,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C342" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="C342" s="31" t="s">
-        <v>105</v>
       </c>
       <c r="D342" s="18" t="s">
         <v>44</v>
@@ -9551,10 +9585,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C343" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D343" s="18" t="s">
         <v>44</v>
@@ -9566,10 +9600,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C344" s="31" t="s">
         <v>160</v>
-      </c>
-      <c r="C344" s="31" t="s">
-        <v>161</v>
       </c>
       <c r="D344" s="18" t="s">
         <v>44</v>
@@ -9581,10 +9615,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="C345" s="45" t="s">
         <v>733</v>
-      </c>
-      <c r="C345" s="45" t="s">
-        <v>734</v>
       </c>
       <c r="D345" s="12" t="s">
         <v>3</v>
@@ -9596,10 +9630,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="C346" s="28" t="s">
         <v>735</v>
-      </c>
-      <c r="C346" s="28" t="s">
-        <v>736</v>
       </c>
       <c r="D346" s="12" t="s">
         <v>3</v>
@@ -9611,10 +9645,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="C347" s="28" t="s">
         <v>737</v>
-      </c>
-      <c r="C347" s="28" t="s">
-        <v>738</v>
       </c>
       <c r="D347" s="12" t="s">
         <v>3</v>
@@ -9626,10 +9660,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="C348" s="28" t="s">
         <v>739</v>
-      </c>
-      <c r="C348" s="28" t="s">
-        <v>740</v>
       </c>
       <c r="D348" s="12" t="s">
         <v>3</v>
@@ -9641,10 +9675,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="C349" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="C349" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="D349" s="12" t="s">
         <v>3</v>
@@ -9656,10 +9690,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C350" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D350" s="12" t="s">
         <v>3</v>
@@ -9671,10 +9705,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C351" s="31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D351" s="18" t="s">
         <v>44</v>
@@ -9686,10 +9720,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="C352" s="28" t="s">
         <v>745</v>
-      </c>
-      <c r="C352" s="28" t="s">
-        <v>746</v>
       </c>
       <c r="D352" s="12" t="s">
         <v>3</v>
@@ -9701,10 +9735,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="C353" s="28" t="s">
         <v>747</v>
-      </c>
-      <c r="C353" s="28" t="s">
-        <v>748</v>
       </c>
       <c r="D353" s="12" t="s">
         <v>3</v>
@@ -9716,10 +9750,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="C354" s="28" t="s">
         <v>749</v>
-      </c>
-      <c r="C354" s="28" t="s">
-        <v>750</v>
       </c>
       <c r="D354" s="12" t="s">
         <v>3</v>
@@ -9731,10 +9765,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="C355" s="28" t="s">
         <v>751</v>
-      </c>
-      <c r="C355" s="28" t="s">
-        <v>752</v>
       </c>
       <c r="D355" s="12" t="s">
         <v>3</v>
@@ -9746,10 +9780,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="C356" s="28" t="s">
         <v>753</v>
-      </c>
-      <c r="C356" s="28" t="s">
-        <v>754</v>
       </c>
       <c r="D356" s="12" t="s">
         <v>3</v>
@@ -9761,10 +9795,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="C357" s="28" t="s">
         <v>755</v>
-      </c>
-      <c r="C357" s="28" t="s">
-        <v>756</v>
       </c>
       <c r="D357" s="12" t="s">
         <v>3</v>
@@ -9776,10 +9810,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="C358" s="28" t="s">
         <v>757</v>
-      </c>
-      <c r="C358" s="28" t="s">
-        <v>758</v>
       </c>
       <c r="D358" s="12" t="s">
         <v>3</v>
@@ -9791,10 +9825,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="31" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C359" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D359" s="18" t="s">
         <v>44</v>
@@ -9806,10 +9840,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="C360" s="28" t="s">
         <v>760</v>
-      </c>
-      <c r="C360" s="28" t="s">
-        <v>761</v>
       </c>
       <c r="D360" s="12" t="s">
         <v>3</v>
@@ -9821,10 +9855,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="C361" s="28" t="s">
         <v>762</v>
-      </c>
-      <c r="C361" s="28" t="s">
-        <v>763</v>
       </c>
       <c r="D361" s="12" t="s">
         <v>3</v>
@@ -9836,10 +9870,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="C362" s="28" t="s">
         <v>764</v>
-      </c>
-      <c r="C362" s="28" t="s">
-        <v>765</v>
       </c>
       <c r="D362" s="12" t="s">
         <v>3</v>
@@ -9851,10 +9885,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D363" s="18" t="s">
         <v>44</v>
@@ -9869,7 +9903,7 @@
         <v>70</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D364" s="18" t="s">
         <v>44</v>
@@ -9881,10 +9915,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="C365" s="28" t="s">
         <v>768</v>
-      </c>
-      <c r="C365" s="28" t="s">
-        <v>769</v>
       </c>
       <c r="D365" s="12" t="s">
         <v>3</v>
@@ -9896,10 +9930,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="C366" s="28" t="s">
         <v>770</v>
-      </c>
-      <c r="C366" s="28" t="s">
-        <v>771</v>
       </c>
       <c r="D366" s="12" t="s">
         <v>3</v>
@@ -9911,10 +9945,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="34" t="s">
+        <v>771</v>
+      </c>
+      <c r="C367" s="34" t="s">
         <v>772</v>
-      </c>
-      <c r="C367" s="34" t="s">
-        <v>773</v>
       </c>
       <c r="D367" s="23" t="s">
         <v>44</v>
@@ -9926,10 +9960,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="C368" s="28" t="s">
         <v>774</v>
-      </c>
-      <c r="C368" s="28" t="s">
-        <v>775</v>
       </c>
       <c r="D368" s="12" t="s">
         <v>3</v>
@@ -9941,10 +9975,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C369" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D369" s="12" t="s">
         <v>3</v>
@@ -9956,10 +9990,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C370" s="31" t="s">
         <v>774</v>
-      </c>
-      <c r="C370" s="31" t="s">
-        <v>775</v>
       </c>
       <c r="D370" s="18" t="s">
         <v>44</v>
@@ -9971,10 +10005,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C371" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D371" s="12" t="s">
         <v>3</v>
@@ -9986,10 +10020,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="C372" s="28" t="s">
         <v>778</v>
-      </c>
-      <c r="C372" s="28" t="s">
-        <v>779</v>
       </c>
       <c r="D372" s="12" t="s">
         <v>3</v>
@@ -10001,10 +10035,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="28" t="s">
+        <v>779</v>
+      </c>
+      <c r="C373" s="28" t="s">
         <v>780</v>
-      </c>
-      <c r="C373" s="28" t="s">
-        <v>781</v>
       </c>
       <c r="D373" s="12" t="s">
         <v>3</v>
@@ -10016,10 +10050,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C374" s="28" t="s">
         <v>782</v>
-      </c>
-      <c r="C374" s="28" t="s">
-        <v>783</v>
       </c>
       <c r="D374" s="12" t="s">
         <v>3</v>
@@ -10031,10 +10065,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="C375" s="28" t="s">
         <v>784</v>
-      </c>
-      <c r="C375" s="28" t="s">
-        <v>785</v>
       </c>
       <c r="D375" s="12" t="s">
         <v>3</v>
@@ -10046,10 +10080,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="28" t="s">
+        <v>785</v>
+      </c>
+      <c r="C376" s="28" t="s">
         <v>786</v>
-      </c>
-      <c r="C376" s="28" t="s">
-        <v>787</v>
       </c>
       <c r="D376" s="12" t="s">
         <v>3</v>
@@ -10061,10 +10095,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="28" t="s">
+        <v>787</v>
+      </c>
+      <c r="C377" s="28" t="s">
         <v>788</v>
-      </c>
-      <c r="C377" s="28" t="s">
-        <v>789</v>
       </c>
       <c r="D377" s="12" t="s">
         <v>3</v>
@@ -10076,10 +10110,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="C378" s="28" t="s">
         <v>790</v>
-      </c>
-      <c r="C378" s="28" t="s">
-        <v>791</v>
       </c>
       <c r="D378" s="12" t="s">
         <v>3</v>
@@ -10091,10 +10125,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C379" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D379" s="12" t="s">
         <v>3</v>
@@ -10106,10 +10140,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C380" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D380" s="18" t="s">
         <v>44</v>
@@ -10121,10 +10155,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C381" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D381" s="18" t="s">
         <v>44</v>
@@ -10136,10 +10170,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C382" s="31" t="s">
         <v>795</v>
-      </c>
-      <c r="C382" s="31" t="s">
-        <v>796</v>
       </c>
       <c r="D382" s="18" t="s">
         <v>44</v>
@@ -10151,10 +10185,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="C383" s="28" t="s">
         <v>797</v>
-      </c>
-      <c r="C383" s="28" t="s">
-        <v>798</v>
       </c>
       <c r="D383" s="12" t="s">
         <v>3</v>
@@ -10166,10 +10200,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="C384" s="28" t="s">
         <v>799</v>
-      </c>
-      <c r="C384" s="28" t="s">
-        <v>800</v>
       </c>
       <c r="D384" s="12" t="s">
         <v>3</v>
@@ -10181,10 +10215,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="C385" s="28" t="s">
         <v>801</v>
-      </c>
-      <c r="C385" s="28" t="s">
-        <v>802</v>
       </c>
       <c r="D385" s="12" t="s">
         <v>3</v>
@@ -10196,10 +10230,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="C386" s="31" t="s">
         <v>803</v>
-      </c>
-      <c r="C386" s="31" t="s">
-        <v>804</v>
       </c>
       <c r="D386" s="18" t="s">
         <v>44</v>
@@ -10211,10 +10245,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="C387" s="28" t="s">
         <v>805</v>
-      </c>
-      <c r="C387" s="28" t="s">
-        <v>806</v>
       </c>
       <c r="D387" s="12" t="s">
         <v>3</v>
@@ -10226,10 +10260,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="C388" s="28" t="s">
         <v>807</v>
-      </c>
-      <c r="C388" s="28" t="s">
-        <v>808</v>
       </c>
       <c r="D388" s="12" t="s">
         <v>3</v>
@@ -10241,10 +10275,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="28" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C389" s="28" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D389" s="12" t="s">
         <v>3</v>
@@ -10256,10 +10290,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="C390" s="28" t="s">
         <v>810</v>
-      </c>
-      <c r="C390" s="28" t="s">
-        <v>811</v>
       </c>
       <c r="D390" s="12" t="s">
         <v>3</v>
@@ -10271,10 +10305,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="C391" s="28" t="s">
         <v>687</v>
-      </c>
-      <c r="C391" s="28" t="s">
-        <v>688</v>
       </c>
       <c r="D391" s="12" t="s">
         <v>3</v>
@@ -10286,10 +10320,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C392" s="44" t="s">
         <v>689</v>
-      </c>
-      <c r="C392" s="44" t="s">
-        <v>690</v>
       </c>
       <c r="D392" s="18" t="s">
         <v>44</v>
@@ -10301,10 +10335,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="31" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C393" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D393" s="18" t="s">
         <v>44</v>
@@ -10316,10 +10350,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="C394" s="44" t="s">
         <v>692</v>
-      </c>
-      <c r="C394" s="44" t="s">
-        <v>693</v>
       </c>
       <c r="D394" s="18" t="s">
         <v>44</v>
@@ -10331,10 +10365,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="C395" s="44" t="s">
         <v>694</v>
-      </c>
-      <c r="C395" s="44" t="s">
-        <v>695</v>
       </c>
       <c r="D395" s="18" t="s">
         <v>44</v>
@@ -10346,10 +10380,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="C396" s="44" t="s">
         <v>696</v>
-      </c>
-      <c r="C396" s="44" t="s">
-        <v>697</v>
       </c>
       <c r="D396" s="18" t="s">
         <v>44</v>
@@ -10361,10 +10395,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="C397" s="44" t="s">
         <v>698</v>
-      </c>
-      <c r="C397" s="44" t="s">
-        <v>699</v>
       </c>
       <c r="D397" s="18" t="s">
         <v>44</v>
@@ -10376,10 +10410,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="C398" s="44" t="s">
         <v>700</v>
-      </c>
-      <c r="C398" s="44" t="s">
-        <v>701</v>
       </c>
       <c r="D398" s="18" t="s">
         <v>44</v>
@@ -10391,10 +10425,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="C399" s="44" t="s">
         <v>702</v>
-      </c>
-      <c r="C399" s="44" t="s">
-        <v>703</v>
       </c>
       <c r="D399" s="18" t="s">
         <v>44</v>
@@ -10406,10 +10440,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="C400" s="44" t="s">
         <v>704</v>
-      </c>
-      <c r="C400" s="44" t="s">
-        <v>705</v>
       </c>
       <c r="D400" s="18" t="s">
         <v>44</v>
@@ -10421,10 +10455,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="C401" s="44" t="s">
         <v>706</v>
-      </c>
-      <c r="C401" s="44" t="s">
-        <v>707</v>
       </c>
       <c r="D401" s="18" t="s">
         <v>44</v>
@@ -10436,10 +10470,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="C402" s="44" t="s">
         <v>708</v>
-      </c>
-      <c r="C402" s="44" t="s">
-        <v>709</v>
       </c>
       <c r="D402" s="18" t="s">
         <v>44</v>
@@ -10451,10 +10485,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="C403" s="44" t="s">
         <v>710</v>
-      </c>
-      <c r="C403" s="44" t="s">
-        <v>711</v>
       </c>
       <c r="D403" s="18" t="s">
         <v>44</v>
@@ -10466,10 +10500,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C404" s="44" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D404" s="18" t="s">
         <v>44</v>
@@ -10481,10 +10515,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="C405" s="44" t="s">
         <v>713</v>
-      </c>
-      <c r="C405" s="44" t="s">
-        <v>714</v>
       </c>
       <c r="D405" s="18" t="s">
         <v>44</v>
@@ -10496,10 +10530,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="C406" s="46" t="s">
         <v>715</v>
-      </c>
-      <c r="C406" s="46" t="s">
-        <v>716</v>
       </c>
       <c r="D406" s="12" t="s">
         <v>3</v>
@@ -10511,10 +10545,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="C407" s="44" t="s">
         <v>717</v>
-      </c>
-      <c r="C407" s="44" t="s">
-        <v>718</v>
       </c>
       <c r="D407" s="18" t="s">
         <v>44</v>
@@ -10526,10 +10560,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="C408" s="44" t="s">
         <v>719</v>
-      </c>
-      <c r="C408" s="44" t="s">
-        <v>720</v>
       </c>
       <c r="D408" s="18" t="s">
         <v>44</v>
@@ -10544,7 +10578,7 @@
         <v>76</v>
       </c>
       <c r="C409" s="44" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D409" s="18" t="s">
         <v>44</v>
@@ -10556,10 +10590,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="C410" s="46" t="s">
         <v>813</v>
-      </c>
-      <c r="C410" s="46" t="s">
-        <v>814</v>
       </c>
       <c r="D410" s="12" t="s">
         <v>3</v>
@@ -10574,7 +10608,7 @@
         <v>42</v>
       </c>
       <c r="C411" s="46" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D411" s="12" t="s">
         <v>3</v>
@@ -10586,10 +10620,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="C412" s="46" t="s">
         <v>816</v>
-      </c>
-      <c r="C412" s="46" t="s">
-        <v>817</v>
       </c>
       <c r="D412" s="12" t="s">
         <v>3</v>
@@ -10601,10 +10635,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="C413" s="44" t="s">
         <v>818</v>
-      </c>
-      <c r="C413" s="44" t="s">
-        <v>819</v>
       </c>
       <c r="D413" s="18" t="s">
         <v>44</v>
@@ -10616,10 +10650,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C414" s="44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D414" s="18" t="s">
         <v>44</v>
@@ -10631,10 +10665,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="C415" s="46" t="s">
         <v>821</v>
-      </c>
-      <c r="C415" s="46" t="s">
-        <v>822</v>
       </c>
       <c r="D415" s="12" t="s">
         <v>3</v>
@@ -10646,10 +10680,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="C416" s="46" t="s">
         <v>823</v>
-      </c>
-      <c r="C416" s="46" t="s">
-        <v>824</v>
       </c>
       <c r="D416" s="12" t="s">
         <v>3</v>
@@ -10661,10 +10695,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C417" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D417" s="12" t="s">
         <v>3</v>
@@ -10676,10 +10710,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="C418" s="46" t="s">
         <v>826</v>
-      </c>
-      <c r="C418" s="46" t="s">
-        <v>827</v>
       </c>
       <c r="D418" s="12" t="s">
         <v>3</v>
@@ -10691,10 +10725,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="C419" s="46" t="s">
         <v>828</v>
-      </c>
-      <c r="C419" s="46" t="s">
-        <v>829</v>
       </c>
       <c r="D419" s="12" t="s">
         <v>3</v>
@@ -10706,10 +10740,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="C420" s="46" t="s">
         <v>830</v>
-      </c>
-      <c r="C420" s="46" t="s">
-        <v>831</v>
       </c>
       <c r="D420" s="12" t="s">
         <v>3</v>
@@ -10721,10 +10755,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="C421" s="46" t="s">
         <v>832</v>
-      </c>
-      <c r="C421" s="46" t="s">
-        <v>833</v>
       </c>
       <c r="D421" s="12" t="s">
         <v>3</v>
@@ -10736,10 +10770,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="C422" s="28" t="s">
         <v>834</v>
-      </c>
-      <c r="C422" s="28" t="s">
-        <v>835</v>
       </c>
       <c r="D422" s="12" t="s">
         <v>3</v>
@@ -10751,10 +10785,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="C423" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="C423" s="28" t="s">
-        <v>837</v>
       </c>
       <c r="D423" s="12" t="s">
         <v>3</v>
@@ -10766,10 +10800,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C424" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D424" s="18" t="s">
         <v>44</v>
@@ -10781,10 +10815,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="C425" s="46" t="s">
         <v>839</v>
-      </c>
-      <c r="C425" s="46" t="s">
-        <v>840</v>
       </c>
       <c r="D425" s="12" t="s">
         <v>3</v>
@@ -10796,10 +10830,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="C426" s="46" t="s">
         <v>841</v>
-      </c>
-      <c r="C426" s="46" t="s">
-        <v>842</v>
       </c>
       <c r="D426" s="12" t="s">
         <v>3</v>
@@ -10811,10 +10845,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="C427" s="46" t="s">
         <v>843</v>
-      </c>
-      <c r="C427" s="46" t="s">
-        <v>844</v>
       </c>
       <c r="D427" s="12" t="s">
         <v>3</v>
@@ -10826,10 +10860,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="C428" s="28" t="s">
         <v>845</v>
-      </c>
-      <c r="C428" s="28" t="s">
-        <v>846</v>
       </c>
       <c r="D428" s="12" t="s">
         <v>3</v>
@@ -10841,10 +10875,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="C429" s="28" t="s">
         <v>847</v>
-      </c>
-      <c r="C429" s="28" t="s">
-        <v>848</v>
       </c>
       <c r="D429" s="12" t="s">
         <v>3</v>
@@ -10856,10 +10890,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="C430" s="34" t="s">
         <v>849</v>
-      </c>
-      <c r="C430" s="34" t="s">
-        <v>850</v>
       </c>
       <c r="D430" s="23" t="s">
         <v>44</v>
@@ -10871,10 +10905,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="C431" s="28" t="s">
         <v>851</v>
-      </c>
-      <c r="C431" s="28" t="s">
-        <v>852</v>
       </c>
       <c r="D431" s="12" t="s">
         <v>3</v>
@@ -10886,10 +10920,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="C432" s="28" t="s">
         <v>853</v>
-      </c>
-      <c r="C432" s="28" t="s">
-        <v>854</v>
       </c>
       <c r="D432" s="12" t="s">
         <v>3</v>
@@ -10901,10 +10935,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="C433" s="28" t="s">
         <v>855</v>
-      </c>
-      <c r="C433" s="28" t="s">
-        <v>856</v>
       </c>
       <c r="D433" s="12" t="s">
         <v>3</v>
@@ -10916,10 +10950,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="C434" s="28" t="s">
         <v>857</v>
-      </c>
-      <c r="C434" s="28" t="s">
-        <v>858</v>
       </c>
       <c r="D434" s="12" t="s">
         <v>3</v>
@@ -10931,10 +10965,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="28" t="s">
+        <v>858</v>
+      </c>
+      <c r="C435" s="28" t="s">
         <v>859</v>
-      </c>
-      <c r="C435" s="28" t="s">
-        <v>860</v>
       </c>
       <c r="D435" s="12" t="s">
         <v>3</v>
@@ -10946,10 +10980,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="C436" s="31" t="s">
         <v>861</v>
-      </c>
-      <c r="C436" s="31" t="s">
-        <v>862</v>
       </c>
       <c r="D436" s="18" t="s">
         <v>44</v>
@@ -10961,10 +10995,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="28" t="s">
+        <v>862</v>
+      </c>
+      <c r="C437" s="46" t="s">
         <v>863</v>
-      </c>
-      <c r="C437" s="46" t="s">
-        <v>864</v>
       </c>
       <c r="D437" s="12" t="s">
         <v>3</v>
@@ -10976,10 +11010,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="C438" s="31" t="s">
         <v>865</v>
-      </c>
-      <c r="C438" s="31" t="s">
-        <v>866</v>
       </c>
       <c r="D438" s="18" t="s">
         <v>44</v>
@@ -10991,10 +11025,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="31" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C439" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D439" s="18" t="s">
         <v>44</v>
@@ -11006,10 +11040,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="28" t="s">
+        <v>867</v>
+      </c>
+      <c r="C440" s="28" t="s">
         <v>868</v>
-      </c>
-      <c r="C440" s="28" t="s">
-        <v>869</v>
       </c>
       <c r="D440" s="12" t="s">
         <v>3</v>
@@ -11021,10 +11055,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="C441" s="28" t="s">
         <v>870</v>
-      </c>
-      <c r="C441" s="28" t="s">
-        <v>871</v>
       </c>
       <c r="D441" s="12" t="s">
         <v>3</v>
@@ -11036,10 +11070,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="28" t="s">
+        <v>871</v>
+      </c>
+      <c r="C442" s="28" t="s">
         <v>872</v>
-      </c>
-      <c r="C442" s="28" t="s">
-        <v>873</v>
       </c>
       <c r="D442" s="12" t="s">
         <v>3</v>
@@ -11051,10 +11085,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="28" t="s">
+        <v>873</v>
+      </c>
+      <c r="C443" s="28" t="s">
         <v>874</v>
-      </c>
-      <c r="C443" s="28" t="s">
-        <v>875</v>
       </c>
       <c r="D443" s="12" t="s">
         <v>3</v>
@@ -11066,10 +11100,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C444" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D444" s="12" t="s">
         <v>3</v>
@@ -11081,10 +11115,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="C445" s="28" t="s">
         <v>877</v>
-      </c>
-      <c r="C445" s="28" t="s">
-        <v>878</v>
       </c>
       <c r="D445" s="12" t="s">
         <v>3</v>
@@ -11096,10 +11130,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="C446" s="28" t="s">
         <v>879</v>
-      </c>
-      <c r="C446" s="28" t="s">
-        <v>880</v>
       </c>
       <c r="D446" s="12" t="s">
         <v>3</v>
@@ -11111,10 +11145,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="28" t="s">
+        <v>880</v>
+      </c>
+      <c r="C447" s="28" t="s">
         <v>881</v>
-      </c>
-      <c r="C447" s="28" t="s">
-        <v>882</v>
       </c>
       <c r="D447" s="12" t="s">
         <v>3</v>
@@ -11126,10 +11160,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C448" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D448" s="12" t="s">
         <v>3</v>
@@ -11141,10 +11175,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="C449" s="28" t="s">
         <v>884</v>
-      </c>
-      <c r="C449" s="28" t="s">
-        <v>885</v>
       </c>
       <c r="D449" s="12" t="s">
         <v>3</v>
@@ -11156,10 +11190,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="28" t="s">
+        <v>885</v>
+      </c>
+      <c r="C450" s="46" t="s">
         <v>886</v>
-      </c>
-      <c r="C450" s="46" t="s">
-        <v>887</v>
       </c>
       <c r="D450" s="12" t="s">
         <v>3</v>
@@ -11171,10 +11205,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="28" t="s">
+        <v>887</v>
+      </c>
+      <c r="C451" s="46" t="s">
         <v>888</v>
-      </c>
-      <c r="C451" s="46" t="s">
-        <v>889</v>
       </c>
       <c r="D451" s="12" t="s">
         <v>3</v>
@@ -11186,10 +11220,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C452" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D452" s="12" t="s">
         <v>3</v>
@@ -11201,10 +11235,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="C453" s="28" t="s">
         <v>891</v>
-      </c>
-      <c r="C453" s="28" t="s">
-        <v>892</v>
       </c>
       <c r="D453" s="12" t="s">
         <v>3</v>
@@ -11216,10 +11250,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="C454" s="28" t="s">
         <v>893</v>
-      </c>
-      <c r="C454" s="28" t="s">
-        <v>894</v>
       </c>
       <c r="D454" s="12" t="s">
         <v>3</v>
@@ -11231,10 +11265,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="C455" s="28" t="s">
         <v>895</v>
-      </c>
-      <c r="C455" s="28" t="s">
-        <v>896</v>
       </c>
       <c r="D455" s="12" t="s">
         <v>3</v>
@@ -11246,10 +11280,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="C456" s="28" t="s">
         <v>897</v>
-      </c>
-      <c r="C456" s="28" t="s">
-        <v>898</v>
       </c>
       <c r="D456" s="12" t="s">
         <v>3</v>
@@ -11261,10 +11295,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="C457" s="28" t="s">
         <v>899</v>
-      </c>
-      <c r="C457" s="28" t="s">
-        <v>900</v>
       </c>
       <c r="D457" s="12" t="s">
         <v>3</v>
@@ -11276,10 +11310,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="C458" s="28" t="s">
         <v>901</v>
-      </c>
-      <c r="C458" s="28" t="s">
-        <v>902</v>
       </c>
       <c r="D458" s="12" t="s">
         <v>3</v>
@@ -11291,10 +11325,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="C459" s="28" t="s">
         <v>903</v>
-      </c>
-      <c r="C459" s="28" t="s">
-        <v>904</v>
       </c>
       <c r="D459" s="12" t="s">
         <v>3</v>
@@ -11306,10 +11340,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="C460" s="28" t="s">
         <v>905</v>
-      </c>
-      <c r="C460" s="28" t="s">
-        <v>906</v>
       </c>
       <c r="D460" s="12" t="s">
         <v>3</v>
@@ -11321,10 +11355,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C461" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D461" s="12" t="s">
         <v>3</v>
@@ -11336,10 +11370,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C462" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="C462" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="D462" s="12" t="s">
         <v>3</v>
@@ -11351,10 +11385,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C463" s="28" t="s">
         <v>241</v>
-      </c>
-      <c r="C463" s="28" t="s">
-        <v>242</v>
       </c>
       <c r="D463" s="12" t="s">
         <v>3</v>
@@ -11366,10 +11400,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="C464" s="28" t="s">
         <v>908</v>
-      </c>
-      <c r="C464" s="28" t="s">
-        <v>909</v>
       </c>
       <c r="D464" s="12" t="s">
         <v>3</v>
@@ -11381,10 +11415,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="28" t="s">
+        <v>909</v>
+      </c>
+      <c r="C465" s="28" t="s">
         <v>910</v>
-      </c>
-      <c r="C465" s="28" t="s">
-        <v>911</v>
       </c>
       <c r="D465" s="12" t="s">
         <v>3</v>
@@ -11396,10 +11430,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="C466" s="34" t="s">
         <v>912</v>
-      </c>
-      <c r="C466" s="34" t="s">
-        <v>913</v>
       </c>
       <c r="D466" s="23" t="s">
         <v>44</v>
@@ -11411,10 +11445,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="C467" s="28" t="s">
         <v>914</v>
-      </c>
-      <c r="C467" s="28" t="s">
-        <v>915</v>
       </c>
       <c r="D467" s="12" t="s">
         <v>3</v>
@@ -11426,10 +11460,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="C468" s="28" t="s">
         <v>916</v>
-      </c>
-      <c r="C468" s="28" t="s">
-        <v>917</v>
       </c>
       <c r="D468" s="12" t="s">
         <v>3</v>
@@ -11441,10 +11475,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="28" t="s">
+        <v>917</v>
+      </c>
+      <c r="C469" s="28" t="s">
         <v>918</v>
-      </c>
-      <c r="C469" s="28" t="s">
-        <v>919</v>
       </c>
       <c r="D469" s="12" t="s">
         <v>3</v>
@@ -11456,10 +11490,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="31" t="s">
+        <v>919</v>
+      </c>
+      <c r="C470" s="31" t="s">
         <v>920</v>
-      </c>
-      <c r="C470" s="31" t="s">
-        <v>921</v>
       </c>
       <c r="D470" s="18" t="s">
         <v>44</v>
@@ -11471,10 +11505,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="34" t="s">
+        <v>921</v>
+      </c>
+      <c r="C471" s="34" t="s">
         <v>922</v>
-      </c>
-      <c r="C471" s="34" t="s">
-        <v>923</v>
       </c>
       <c r="D471" s="23" t="s">
         <v>44</v>
@@ -11486,10 +11520,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="C472" s="28" t="s">
         <v>924</v>
-      </c>
-      <c r="C472" s="28" t="s">
-        <v>925</v>
       </c>
       <c r="D472" s="12" t="s">
         <v>3</v>
@@ -11501,10 +11535,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="28" t="s">
+        <v>925</v>
+      </c>
+      <c r="C473" s="28" t="s">
         <v>926</v>
-      </c>
-      <c r="C473" s="28" t="s">
-        <v>927</v>
       </c>
       <c r="D473" s="12" t="s">
         <v>3</v>
@@ -11516,10 +11550,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C474" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D474" s="12" t="s">
         <v>3</v>
@@ -11531,10 +11565,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="C475" s="28" t="s">
         <v>929</v>
-      </c>
-      <c r="C475" s="28" t="s">
-        <v>930</v>
       </c>
       <c r="D475" s="12" t="s">
         <v>3</v>
@@ -11546,10 +11580,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="C476" s="28" t="s">
         <v>931</v>
-      </c>
-      <c r="C476" s="28" t="s">
-        <v>932</v>
       </c>
       <c r="D476" s="12" t="s">
         <v>3</v>
@@ -11561,10 +11595,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="28" t="s">
+        <v>932</v>
+      </c>
+      <c r="C477" s="28" t="s">
         <v>933</v>
-      </c>
-      <c r="C477" s="28" t="s">
-        <v>934</v>
       </c>
       <c r="D477" s="12" t="s">
         <v>3</v>
@@ -11576,10 +11610,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C478" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D478" s="12" t="s">
         <v>3</v>
@@ -11591,10 +11625,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="C479" s="28" t="s">
         <v>936</v>
-      </c>
-      <c r="C479" s="28" t="s">
-        <v>937</v>
       </c>
       <c r="D479" s="12" t="s">
         <v>3</v>
@@ -11606,10 +11640,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C480" s="28" t="s">
         <v>121</v>
-      </c>
-      <c r="C480" s="28" t="s">
-        <v>122</v>
       </c>
       <c r="D480" s="12" t="s">
         <v>3</v>
@@ -11621,10 +11655,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="34" t="s">
+        <v>937</v>
+      </c>
+      <c r="C481" s="34" t="s">
         <v>938</v>
-      </c>
-      <c r="C481" s="34" t="s">
-        <v>939</v>
       </c>
       <c r="D481" s="23" t="s">
         <v>44</v>
@@ -11636,10 +11670,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="28" t="s">
+        <v>939</v>
+      </c>
+      <c r="C482" s="28" t="s">
         <v>940</v>
-      </c>
-      <c r="C482" s="28" t="s">
-        <v>941</v>
       </c>
       <c r="D482" s="12" t="s">
         <v>3</v>
@@ -11651,10 +11685,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C483" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D483" s="12" t="s">
         <v>3</v>
@@ -11666,10 +11700,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="28" t="s">
+        <v>942</v>
+      </c>
+      <c r="C484" s="28" t="s">
         <v>943</v>
-      </c>
-      <c r="C484" s="28" t="s">
-        <v>944</v>
       </c>
       <c r="D484" s="12" t="s">
         <v>3</v>
@@ -11681,10 +11715,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="28" t="s">
+        <v>944</v>
+      </c>
+      <c r="C485" s="28" t="s">
         <v>945</v>
-      </c>
-      <c r="C485" s="28" t="s">
-        <v>946</v>
       </c>
       <c r="D485" s="12" t="s">
         <v>3</v>
@@ -11696,10 +11730,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="28" t="s">
+        <v>946</v>
+      </c>
+      <c r="C486" s="28" t="s">
         <v>947</v>
-      </c>
-      <c r="C486" s="28" t="s">
-        <v>948</v>
       </c>
       <c r="D486" s="12" t="s">
         <v>3</v>
@@ -11711,10 +11745,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="28" t="s">
+        <v>948</v>
+      </c>
+      <c r="C487" s="28" t="s">
         <v>949</v>
-      </c>
-      <c r="C487" s="28" t="s">
-        <v>950</v>
       </c>
       <c r="D487" s="12" t="s">
         <v>3</v>
@@ -11726,10 +11760,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="28" t="s">
+        <v>950</v>
+      </c>
+      <c r="C488" s="28" t="s">
         <v>951</v>
-      </c>
-      <c r="C488" s="28" t="s">
-        <v>952</v>
       </c>
       <c r="D488" s="12" t="s">
         <v>3</v>
@@ -11741,10 +11775,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="C489" s="28" t="s">
         <v>953</v>
-      </c>
-      <c r="C489" s="28" t="s">
-        <v>954</v>
       </c>
       <c r="D489" s="12" t="s">
         <v>3</v>
@@ -11756,10 +11790,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="C490" s="28" t="s">
         <v>955</v>
-      </c>
-      <c r="C490" s="28" t="s">
-        <v>956</v>
       </c>
       <c r="D490" s="12" t="s">
         <v>3</v>
@@ -11771,10 +11805,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="28" t="s">
+        <v>956</v>
+      </c>
+      <c r="C491" s="28" t="s">
         <v>957</v>
-      </c>
-      <c r="C491" s="28" t="s">
-        <v>958</v>
       </c>
       <c r="D491" s="12" t="s">
         <v>3</v>
@@ -11786,10 +11820,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="C492" s="28" t="s">
         <v>959</v>
-      </c>
-      <c r="C492" s="28" t="s">
-        <v>960</v>
       </c>
       <c r="D492" s="12" t="s">
         <v>3</v>
@@ -11801,10 +11835,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C493" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="C493" s="28" t="s">
-        <v>149</v>
       </c>
       <c r="D493" s="12" t="s">
         <v>3</v>
@@ -11816,10 +11850,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="28" t="s">
+        <v>960</v>
+      </c>
+      <c r="C494" s="28" t="s">
         <v>961</v>
-      </c>
-      <c r="C494" s="28" t="s">
-        <v>962</v>
       </c>
       <c r="D494" s="12" t="s">
         <v>3</v>
@@ -11831,10 +11865,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="C495" s="28" t="s">
         <v>963</v>
-      </c>
-      <c r="C495" s="28" t="s">
-        <v>964</v>
       </c>
       <c r="D495" s="12" t="s">
         <v>3</v>
@@ -11846,10 +11880,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="28" t="s">
+        <v>964</v>
+      </c>
+      <c r="C496" s="28" t="s">
         <v>965</v>
-      </c>
-      <c r="C496" s="28" t="s">
-        <v>966</v>
       </c>
       <c r="D496" s="12" t="s">
         <v>3</v>
@@ -11861,10 +11895,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="47" t="s">
+        <v>966</v>
+      </c>
+      <c r="C497" s="45" t="s">
         <v>967</v>
-      </c>
-      <c r="C497" s="45" t="s">
-        <v>968</v>
       </c>
       <c r="D497" s="12" t="s">
         <v>3</v>
@@ -11876,10 +11910,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="47" t="s">
+        <v>968</v>
+      </c>
+      <c r="C498" s="45" t="s">
         <v>969</v>
-      </c>
-      <c r="C498" s="45" t="s">
-        <v>970</v>
       </c>
       <c r="D498" s="12" t="s">
         <v>3</v>
@@ -11891,10 +11925,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="47" t="s">
+        <v>970</v>
+      </c>
+      <c r="C499" s="45" t="s">
         <v>971</v>
-      </c>
-      <c r="C499" s="45" t="s">
-        <v>972</v>
       </c>
       <c r="D499" s="12" t="s">
         <v>3</v>
@@ -11906,10 +11940,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="48" t="s">
+        <v>972</v>
+      </c>
+      <c r="C500" s="49" t="s">
         <v>973</v>
-      </c>
-      <c r="C500" s="49" t="s">
-        <v>974</v>
       </c>
       <c r="D500" s="18" t="s">
         <v>44</v>
@@ -11921,10 +11955,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="51" t="s">
+        <v>974</v>
+      </c>
+      <c r="C501" s="52" t="s">
         <v>975</v>
-      </c>
-      <c r="C501" s="52" t="s">
-        <v>976</v>
       </c>
       <c r="D501" s="26" t="s">
         <v>3</v>
@@ -11936,10 +11970,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="54" t="s">
+        <v>976</v>
+      </c>
+      <c r="C502" s="54" t="s">
         <v>977</v>
-      </c>
-      <c r="C502" s="54" t="s">
-        <v>978</v>
       </c>
       <c r="D502" s="23" t="s">
         <v>44</v>
@@ -11951,10 +11985,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="56" t="s">
+        <v>978</v>
+      </c>
+      <c r="C503" s="56" t="s">
         <v>979</v>
-      </c>
-      <c r="C503" s="56" t="s">
-        <v>980</v>
       </c>
       <c r="D503" s="26" t="s">
         <v>3</v>
@@ -11966,10 +12000,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="56" t="s">
+        <v>980</v>
+      </c>
+      <c r="C504" s="56" t="s">
         <v>981</v>
-      </c>
-      <c r="C504" s="56" t="s">
-        <v>982</v>
       </c>
       <c r="D504" s="26" t="s">
         <v>3</v>
@@ -11981,10 +12015,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="56" t="s">
+        <v>982</v>
+      </c>
+      <c r="C505" s="56" t="s">
         <v>983</v>
-      </c>
-      <c r="C505" s="56" t="s">
-        <v>984</v>
       </c>
       <c r="D505" s="26" t="s">
         <v>3</v>
@@ -11996,10 +12030,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="56" t="s">
+        <v>984</v>
+      </c>
+      <c r="C506" s="56" t="s">
         <v>985</v>
-      </c>
-      <c r="C506" s="56" t="s">
-        <v>986</v>
       </c>
       <c r="D506" s="26" t="s">
         <v>3</v>
@@ -12011,10 +12045,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="56" t="s">
+        <v>986</v>
+      </c>
+      <c r="C507" s="56" t="s">
         <v>987</v>
-      </c>
-      <c r="C507" s="56" t="s">
-        <v>988</v>
       </c>
       <c r="D507" s="26" t="s">
         <v>3</v>
@@ -12026,10 +12060,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="56" t="s">
+        <v>988</v>
+      </c>
+      <c r="C508" s="56" t="s">
         <v>989</v>
-      </c>
-      <c r="C508" s="56" t="s">
-        <v>990</v>
       </c>
       <c r="D508" s="26" t="s">
         <v>3</v>
@@ -12041,10 +12075,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="56" t="s">
+        <v>990</v>
+      </c>
+      <c r="C509" s="56" t="s">
         <v>991</v>
-      </c>
-      <c r="C509" s="56" t="s">
-        <v>992</v>
       </c>
       <c r="D509" s="26" t="s">
         <v>3</v>
@@ -12056,10 +12090,10 @@
         <v>509</v>
       </c>
       <c r="B510" s="56" t="s">
+        <v>992</v>
+      </c>
+      <c r="C510" s="56" t="s">
         <v>993</v>
-      </c>
-      <c r="C510" s="56" t="s">
-        <v>994</v>
       </c>
       <c r="D510" s="26" t="s">
         <v>3</v>
@@ -12071,10 +12105,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="56" t="s">
+        <v>994</v>
+      </c>
+      <c r="C511" s="56" t="s">
         <v>995</v>
-      </c>
-      <c r="C511" s="56" t="s">
-        <v>996</v>
       </c>
       <c r="D511" s="26" t="s">
         <v>3</v>
@@ -12086,10 +12120,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="56" t="s">
+        <v>996</v>
+      </c>
+      <c r="C512" s="56" t="s">
         <v>997</v>
-      </c>
-      <c r="C512" s="56" t="s">
-        <v>998</v>
       </c>
       <c r="D512" s="26" t="s">
         <v>3</v>
@@ -12101,10 +12135,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="56" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C513" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D513" s="26" t="s">
         <v>3</v>
@@ -12116,10 +12150,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="56" t="s">
+        <v>999</v>
+      </c>
+      <c r="C514" s="56" t="s">
         <v>1000</v>
-      </c>
-      <c r="C514" s="56" t="s">
-        <v>1001</v>
       </c>
       <c r="D514" s="26" t="s">
         <v>3</v>
@@ -12131,10 +12165,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="56" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C515" s="56" t="s">
         <v>1002</v>
-      </c>
-      <c r="C515" s="56" t="s">
-        <v>1003</v>
       </c>
       <c r="D515" s="26" t="s">
         <v>3</v>
@@ -12146,10 +12180,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="56" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C516" s="56" t="s">
         <v>1004</v>
-      </c>
-      <c r="C516" s="56" t="s">
-        <v>1005</v>
       </c>
       <c r="D516" s="26" t="s">
         <v>3</v>
@@ -12161,10 +12195,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="56" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C517" s="56" t="s">
         <v>1006</v>
-      </c>
-      <c r="C517" s="56" t="s">
-        <v>1007</v>
       </c>
       <c r="D517" s="26" t="s">
         <v>3</v>
@@ -12176,10 +12210,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="56" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C518" s="56" t="s">
         <v>1008</v>
-      </c>
-      <c r="C518" s="56" t="s">
-        <v>1009</v>
       </c>
       <c r="D518" s="26" t="s">
         <v>3</v>
@@ -12191,10 +12225,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="56" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C519" s="56" t="s">
         <v>1010</v>
-      </c>
-      <c r="C519" s="56" t="s">
-        <v>1011</v>
       </c>
       <c r="D519" s="26" t="s">
         <v>3</v>
@@ -12206,10 +12240,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="56" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C520" s="56" t="s">
         <v>1012</v>
-      </c>
-      <c r="C520" s="56" t="s">
-        <v>1013</v>
       </c>
       <c r="D520" s="26" t="s">
         <v>3</v>
@@ -12221,10 +12255,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="56" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C521" s="56" t="s">
         <v>1014</v>
-      </c>
-      <c r="C521" s="56" t="s">
-        <v>1015</v>
       </c>
       <c r="D521" s="26" t="s">
         <v>3</v>
@@ -12236,10 +12270,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="56" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C522" s="56" t="s">
         <v>1016</v>
-      </c>
-      <c r="C522" s="56" t="s">
-        <v>1017</v>
       </c>
       <c r="D522" s="26" t="s">
         <v>3</v>
@@ -12251,10 +12285,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="56" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C523" s="56" t="s">
         <v>1018</v>
-      </c>
-      <c r="C523" s="56" t="s">
-        <v>1019</v>
       </c>
       <c r="D523" s="26" t="s">
         <v>3</v>
@@ -12266,10 +12300,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="56" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C524" s="56" t="s">
         <v>1020</v>
-      </c>
-      <c r="C524" s="56" t="s">
-        <v>1021</v>
       </c>
       <c r="D524" s="26" t="s">
         <v>3</v>
@@ -12281,10 +12315,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="56" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C525" s="56" t="s">
         <v>1022</v>
-      </c>
-      <c r="C525" s="56" t="s">
-        <v>1023</v>
       </c>
       <c r="D525" s="26" t="s">
         <v>3</v>
@@ -12296,10 +12330,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="56" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C526" s="56" t="s">
         <v>1024</v>
-      </c>
-      <c r="C526" s="56" t="s">
-        <v>1025</v>
       </c>
       <c r="D526" s="26" t="s">
         <v>3</v>
@@ -12311,10 +12345,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="56" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C527" s="56" t="s">
         <v>1026</v>
-      </c>
-      <c r="C527" s="56" t="s">
-        <v>1027</v>
       </c>
       <c r="D527" s="26" t="s">
         <v>3</v>
@@ -12326,10 +12360,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="56" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C528" s="56" t="s">
         <v>1028</v>
-      </c>
-      <c r="C528" s="56" t="s">
-        <v>1029</v>
       </c>
       <c r="D528" s="26" t="s">
         <v>3</v>
@@ -12341,10 +12375,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="56" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C529" s="56" t="s">
         <v>1030</v>
-      </c>
-      <c r="C529" s="56" t="s">
-        <v>1031</v>
       </c>
       <c r="D529" s="26" t="s">
         <v>3</v>
@@ -12356,10 +12390,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="56" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C530" s="56" t="s">
         <v>1032</v>
-      </c>
-      <c r="C530" s="56" t="s">
-        <v>1033</v>
       </c>
       <c r="D530" s="26" t="s">
         <v>3</v>
@@ -12371,10 +12405,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="56" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C531" s="56" t="s">
         <v>1034</v>
-      </c>
-      <c r="C531" s="56" t="s">
-        <v>1035</v>
       </c>
       <c r="D531" s="26" t="s">
         <v>3</v>
@@ -12386,10 +12420,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="56" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C532" s="56" t="s">
         <v>1036</v>
-      </c>
-      <c r="C532" s="56" t="s">
-        <v>1037</v>
       </c>
       <c r="D532" s="26" t="s">
         <v>3</v>
@@ -12401,10 +12435,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="56" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C533" s="56" t="s">
         <v>1038</v>
-      </c>
-      <c r="C533" s="56" t="s">
-        <v>1039</v>
       </c>
       <c r="D533" s="26" t="s">
         <v>3</v>
@@ -12416,10 +12450,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="56" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C534" s="56" t="s">
         <v>1040</v>
-      </c>
-      <c r="C534" s="56" t="s">
-        <v>1041</v>
       </c>
       <c r="D534" s="26" t="s">
         <v>3</v>
@@ -12431,10 +12465,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="56" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C535" s="56" t="s">
         <v>1042</v>
-      </c>
-      <c r="C535" s="56" t="s">
-        <v>1043</v>
       </c>
       <c r="D535" s="26" t="s">
         <v>3</v>
@@ -12446,10 +12480,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C536" s="56" t="s">
         <v>1044</v>
-      </c>
-      <c r="C536" s="56" t="s">
-        <v>1045</v>
       </c>
       <c r="D536" s="26" t="s">
         <v>3</v>
@@ -12461,10 +12495,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="56" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C537" s="56" t="s">
         <v>1046</v>
-      </c>
-      <c r="C537" s="56" t="s">
-        <v>1047</v>
       </c>
       <c r="D537" s="26" t="s">
         <v>3</v>
@@ -12476,10 +12510,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C538" s="56" t="s">
         <v>1048</v>
-      </c>
-      <c r="C538" s="56" t="s">
-        <v>1049</v>
       </c>
       <c r="D538" s="26" t="s">
         <v>3</v>
@@ -12491,10 +12525,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="56" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C539" s="56" t="s">
         <v>1050</v>
-      </c>
-      <c r="C539" s="56" t="s">
-        <v>1051</v>
       </c>
       <c r="D539" s="26" t="s">
         <v>3</v>
@@ -12506,10 +12540,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="56" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C540" s="56" t="s">
         <v>1052</v>
-      </c>
-      <c r="C540" s="56" t="s">
-        <v>1053</v>
       </c>
       <c r="D540" s="26" t="s">
         <v>3</v>
@@ -12521,10 +12555,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="56" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C541" s="56" t="s">
         <v>1054</v>
-      </c>
-      <c r="C541" s="56" t="s">
-        <v>1055</v>
       </c>
       <c r="D541" s="26" t="s">
         <v>3</v>
@@ -12536,10 +12570,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="56" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C542" s="56" t="s">
         <v>1056</v>
-      </c>
-      <c r="C542" s="56" t="s">
-        <v>1057</v>
       </c>
       <c r="D542" s="26" t="s">
         <v>3</v>
@@ -12551,10 +12585,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="56" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C543" s="56" t="s">
         <v>1058</v>
-      </c>
-      <c r="C543" s="56" t="s">
-        <v>1059</v>
       </c>
       <c r="D543" s="26" t="s">
         <v>3</v>
@@ -12566,10 +12600,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="56" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C544" s="56" t="s">
         <v>1060</v>
-      </c>
-      <c r="C544" s="56" t="s">
-        <v>1061</v>
       </c>
       <c r="D544" s="26" t="s">
         <v>3</v>
@@ -12581,10 +12615,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="56" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C545" s="56" t="s">
         <v>1062</v>
-      </c>
-      <c r="C545" s="56" t="s">
-        <v>1063</v>
       </c>
       <c r="D545" s="26" t="s">
         <v>3</v>
@@ -12596,10 +12630,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="56" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C546" s="56" t="s">
         <v>1064</v>
-      </c>
-      <c r="C546" s="56" t="s">
-        <v>1065</v>
       </c>
       <c r="D546" s="26" t="s">
         <v>3</v>
@@ -12611,10 +12645,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="56" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C547" s="56" t="s">
         <v>1066</v>
-      </c>
-      <c r="C547" s="56" t="s">
-        <v>1067</v>
       </c>
       <c r="D547" s="26" t="s">
         <v>3</v>
@@ -12626,10 +12660,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="56" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C548" s="56" t="s">
         <v>1068</v>
-      </c>
-      <c r="C548" s="56" t="s">
-        <v>1069</v>
       </c>
       <c r="D548" s="26" t="s">
         <v>3</v>
@@ -12641,10 +12675,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="56" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C549" s="56" t="s">
         <v>1070</v>
-      </c>
-      <c r="C549" s="56" t="s">
-        <v>1071</v>
       </c>
       <c r="D549" s="26" t="s">
         <v>3</v>
@@ -12656,10 +12690,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C550" s="56" t="s">
         <v>1072</v>
-      </c>
-      <c r="C550" s="56" t="s">
-        <v>1073</v>
       </c>
       <c r="D550" s="26" t="s">
         <v>3</v>
@@ -12671,10 +12705,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C551" s="56" t="s">
         <v>1074</v>
-      </c>
-      <c r="C551" s="56" t="s">
-        <v>1075</v>
       </c>
       <c r="D551" s="26" t="s">
         <v>3</v>
@@ -12686,10 +12720,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C552" s="56" t="s">
         <v>1076</v>
-      </c>
-      <c r="C552" s="56" t="s">
-        <v>1077</v>
       </c>
       <c r="D552" s="26" t="s">
         <v>3</v>
@@ -12701,10 +12735,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C553" s="56" t="s">
         <v>1078</v>
-      </c>
-      <c r="C553" s="56" t="s">
-        <v>1079</v>
       </c>
       <c r="D553" s="26" t="s">
         <v>3</v>
@@ -12716,10 +12750,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C554" s="56" t="s">
         <v>1080</v>
-      </c>
-      <c r="C554" s="56" t="s">
-        <v>1081</v>
       </c>
       <c r="D554" s="26" t="s">
         <v>3</v>
@@ -12731,10 +12765,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="56" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C555" s="56" t="s">
         <v>1082</v>
-      </c>
-      <c r="C555" s="56" t="s">
-        <v>1083</v>
       </c>
       <c r="D555" s="26" t="s">
         <v>3</v>
@@ -12746,10 +12780,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C556" s="56" t="s">
         <v>1084</v>
-      </c>
-      <c r="C556" s="56" t="s">
-        <v>1085</v>
       </c>
       <c r="D556" s="26" t="s">
         <v>3</v>
@@ -15902,6 +15936,9 @@
     <hyperlink ref="C28" r:id="rId60" xr:uid="{041A3790-5A49-4EA2-B9B2-2DD2C822951F}"/>
     <hyperlink ref="C29" r:id="rId61" xr:uid="{397678F5-2542-42D5-BE07-035AE372F1E9}"/>
     <hyperlink ref="C30" r:id="rId62" xr:uid="{4321DE4C-1E0C-409D-939A-8C9E1BE703B2}"/>
+    <hyperlink ref="C31" r:id="rId63" xr:uid="{BA16033E-1298-45CA-A5AA-DCEE0E6CF07E}"/>
+    <hyperlink ref="C32" r:id="rId64" xr:uid="{DBD8329B-496A-4D54-8AF8-8CDD901B8FFE}"/>
+    <hyperlink ref="C33" r:id="rId65" xr:uid="{AB48191A-4EB9-4F69-97F5-C2908CB056A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE5BFA-FDC3-4CC3-A62E-9D0238E5523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E777B2-7305-42A9-B225-812060EC4C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4045,8 +4045,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="E38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4742,8 +4742,8 @@
       <c r="E34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F34" t="s">
-        <v>1085</v>
+      <c r="F34" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1">
@@ -4762,8 +4762,8 @@
       <c r="E35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F35" t="s">
-        <v>1085</v>
+      <c r="F35" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1">
@@ -4773,7 +4773,7 @@
       <c r="B36" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="24" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -4782,8 +4782,8 @@
       <c r="E36" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F36" t="s">
-        <v>1085</v>
+      <c r="F36" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1">
@@ -4793,7 +4793,7 @@
       <c r="B37" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="24" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -4802,8 +4802,8 @@
       <c r="E37" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F37" t="s">
-        <v>1085</v>
+      <c r="F37" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1">
@@ -4833,7 +4833,7 @@
       <c r="B39" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="62" t="s">
         <v>115</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -4873,7 +4873,7 @@
       <c r="B41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="24" t="s">
         <v>121</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4913,7 +4913,7 @@
       <c r="B43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="24" t="s">
         <v>127</v>
       </c>
       <c r="D43" s="12" t="s">
@@ -4922,8 +4922,8 @@
       <c r="E43" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F43" t="s">
-        <v>1085</v>
+      <c r="F43" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1">
@@ -4942,8 +4942,8 @@
       <c r="E44" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F44" t="s">
-        <v>1085</v>
+      <c r="F44" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1">
@@ -4962,8 +4962,8 @@
       <c r="E45" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F45" t="s">
-        <v>1085</v>
+      <c r="F45" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1">
@@ -4982,8 +4982,8 @@
       <c r="E46" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F46" t="s">
-        <v>1085</v>
+      <c r="F46" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -5022,8 +5022,8 @@
       <c r="E48" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F48" t="s">
-        <v>1085</v>
+      <c r="F48" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1">
@@ -5042,8 +5042,8 @@
       <c r="E49" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F49" t="s">
-        <v>1085</v>
+      <c r="F49" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1">
@@ -5082,8 +5082,8 @@
       <c r="E51" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F51" t="s">
-        <v>1085</v>
+      <c r="F51" s="70" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" customHeight="1">
@@ -15939,6 +15939,11 @@
     <hyperlink ref="C31" r:id="rId63" xr:uid="{BA16033E-1298-45CA-A5AA-DCEE0E6CF07E}"/>
     <hyperlink ref="C32" r:id="rId64" xr:uid="{DBD8329B-496A-4D54-8AF8-8CDD901B8FFE}"/>
     <hyperlink ref="C33" r:id="rId65" xr:uid="{AB48191A-4EB9-4F69-97F5-C2908CB056A3}"/>
+    <hyperlink ref="C36" r:id="rId66" xr:uid="{D2E2D573-7C0A-4BF9-8CF3-11AD6AF5F2F4}"/>
+    <hyperlink ref="C37" r:id="rId67" xr:uid="{246C51B4-16B2-40A9-9AAE-72E55F8723DE}"/>
+    <hyperlink ref="C39" r:id="rId68" xr:uid="{98F2B488-3D9C-4E4D-8552-CB4C4536E868}"/>
+    <hyperlink ref="C41" r:id="rId69" location="roles" xr:uid="{1E9D7896-1BC0-4BC5-BBB5-B5D32D76D88F}"/>
+    <hyperlink ref="C43" r:id="rId70" xr:uid="{DF90F3E2-8EF9-48AF-8470-39FF0BBE2178}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4435B-8E25-449B-8289-6D1860B199A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB25047-1341-4827-B547-9A4500B9710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3318,7 +3318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3468,6 +3468,10 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3777,8 +3781,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4340,24 +4344,24 @@
       </c>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="30">
-        <v>465</v>
-      </c>
-      <c r="B32" s="26" t="s">
+    <row r="32" spans="1:7" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="62" t="s">
         <v>839</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="62" t="s">
         <v>840</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="27"/>
+      <c r="D32" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="63"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="32">
-        <v>466</v>
+        <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>841</v>
@@ -4461,7 +4465,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="32">
-        <v>467</v>
+        <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>843</v>
@@ -4599,7 +4603,7 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="32">
-        <v>468</v>
+        <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>845</v>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB25047-1341-4827-B547-9A4500B9710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF2BEE-E991-4B57-B6CA-AD5FAAC975FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3781,8 +3781,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4728,7 +4728,7 @@
       <c r="B54" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="19" t="s">
         <v>151</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -4745,7 +4745,7 @@
       <c r="B55" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -4796,7 +4796,7 @@
       <c r="B58" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="19" t="s">
         <v>163</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -4813,7 +4813,7 @@
       <c r="B59" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="19" t="s">
         <v>166</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -4830,7 +4830,7 @@
       <c r="B60" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -4864,7 +4864,7 @@
       <c r="B62" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="19" t="s">
         <v>175</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -4881,7 +4881,7 @@
       <c r="B63" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -4898,7 +4898,7 @@
       <c r="B64" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -4915,7 +4915,7 @@
       <c r="B65" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -4949,7 +4949,7 @@
       <c r="B67" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="19" t="s">
         <v>190</v>
       </c>
       <c r="D67" s="11" t="s">
@@ -4966,7 +4966,7 @@
       <c r="B68" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="19" t="s">
         <v>193</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -5017,7 +5017,7 @@
       <c r="B71" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="19" t="s">
         <v>202</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -5034,7 +5034,7 @@
       <c r="B72" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="19" t="s">
         <v>205</v>
       </c>
       <c r="D72" s="11" t="s">
@@ -5051,7 +5051,7 @@
       <c r="B73" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="19" t="s">
         <v>208</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -5068,7 +5068,7 @@
       <c r="B74" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="19" t="s">
         <v>211</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -5085,7 +5085,7 @@
       <c r="B75" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="19" t="s">
         <v>214</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -5102,7 +5102,7 @@
       <c r="B76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="19" t="s">
         <v>217</v>
       </c>
       <c r="D76" s="11" t="s">
@@ -5119,7 +5119,7 @@
       <c r="B77" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="19" t="s">
         <v>220</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -5153,7 +5153,7 @@
       <c r="B79" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="19" t="s">
         <v>226</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -5170,7 +5170,7 @@
       <c r="B80" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="19" t="s">
         <v>229</v>
       </c>
       <c r="D80" s="11" t="s">
@@ -5204,7 +5204,7 @@
       <c r="B82" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="19" t="s">
         <v>235</v>
       </c>
       <c r="D82" s="11" t="s">
@@ -5221,7 +5221,7 @@
       <c r="B83" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="19" t="s">
         <v>238</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -5255,7 +5255,7 @@
       <c r="B85" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="19" t="s">
         <v>244</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -5374,7 +5374,7 @@
       <c r="B92" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D92" s="11" t="s">
@@ -5425,7 +5425,7 @@
       <c r="B95" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="19" t="s">
         <v>274</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -5442,7 +5442,7 @@
       <c r="B96" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="19" t="s">
         <v>277</v>
       </c>
       <c r="D96" s="11" t="s">
@@ -5459,7 +5459,7 @@
       <c r="B97" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="19" t="s">
         <v>280</v>
       </c>
       <c r="D97" s="11" t="s">
@@ -5476,7 +5476,7 @@
       <c r="B98" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="19" t="s">
         <v>283</v>
       </c>
       <c r="D98" s="11" t="s">
@@ -5510,7 +5510,7 @@
       <c r="B100" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D100" s="11" t="s">
@@ -14138,6 +14138,35 @@
     <hyperlink ref="C37" r:id="rId43" xr:uid="{246C51B4-16B2-40A9-9AAE-72E55F8723DE}"/>
     <hyperlink ref="C41" r:id="rId44" location="roles" xr:uid="{1E9D7896-1BC0-4BC5-BBB5-B5D32D76D88F}"/>
     <hyperlink ref="C43" r:id="rId45" xr:uid="{DF90F3E2-8EF9-48AF-8470-39FF0BBE2178}"/>
+    <hyperlink ref="C54" r:id="rId46" xr:uid="{943F5EE7-6968-4826-9764-621E22943A9C}"/>
+    <hyperlink ref="C55" r:id="rId47" location="jobs" xr:uid="{6F3A214B-24EB-4441-8B59-1A76C66BA626}"/>
+    <hyperlink ref="C58" r:id="rId48" xr:uid="{DE08E017-EDE0-4F49-83DA-BF6256E897EE}"/>
+    <hyperlink ref="C59" r:id="rId49" xr:uid="{D9DEAF06-4750-4F65-96A5-0EC7965DDB0B}"/>
+    <hyperlink ref="C60" r:id="rId50" xr:uid="{F585B09C-545F-4792-9528-1CB8154D0F16}"/>
+    <hyperlink ref="C62" r:id="rId51" xr:uid="{EB3D28D9-820B-4B71-BC87-8477F17837F2}"/>
+    <hyperlink ref="C63" r:id="rId52" xr:uid="{CC035D3B-7891-47E8-A758-EA6B8F8F6E86}"/>
+    <hyperlink ref="C64" r:id="rId53" xr:uid="{7F38FF71-A110-475B-BD74-EF1BD50770BF}"/>
+    <hyperlink ref="C65" r:id="rId54" xr:uid="{B14062F9-3FA9-43D9-A1D9-6856F929547D}"/>
+    <hyperlink ref="C67" r:id="rId55" xr:uid="{0F78F43C-8B18-4399-B960-FE8BC32A47A7}"/>
+    <hyperlink ref="C68" r:id="rId56" location="jobs" xr:uid="{8E21724F-93D5-4353-86F7-826B2DB577EA}"/>
+    <hyperlink ref="C71" r:id="rId57" xr:uid="{0932B10F-F8D4-4E67-860C-5A614415F477}"/>
+    <hyperlink ref="C72" r:id="rId58" xr:uid="{CBB6CE9D-7779-4938-90CD-1D55563C4CEC}"/>
+    <hyperlink ref="C73" r:id="rId59" xr:uid="{92EF842F-BAC8-4F15-9198-A186C30A983A}"/>
+    <hyperlink ref="C74" r:id="rId60" xr:uid="{3CAC1AC1-99DB-4596-A53A-45E3F6993F80}"/>
+    <hyperlink ref="C75" r:id="rId61" display="https://www.civilservicejobs.service.gov.uk/csr/index.cgi?SID=Y29udGV4dGlkPTcwNTA4NDY2Jm93bmVyPTUwNzAwMDAmb3duZXJ0eXBlPWZhaXImcGFnZWFjdGlvbj1zZWFyY2hjb250ZXh0JnBhZ2VjbGFzcz1TZWFyY2gmcmVxc2lnPTE3MDg3NjE2MzYtOGE2YWE2NzEzZjY4M2YyODgxN2YwYjAxZmM4ODAyYWFjYzRhMDQ1Yg==" xr:uid="{E9D72F81-D94C-4010-81F8-69D0D9C88CF6}"/>
+    <hyperlink ref="C76" r:id="rId62" xr:uid="{5B0737DD-A7D8-488A-967C-E100DBB2FA09}"/>
+    <hyperlink ref="C77" r:id="rId63" xr:uid="{FA46B651-DFFF-471A-B347-3C18960160EC}"/>
+    <hyperlink ref="C79" r:id="rId64" xr:uid="{5D936760-0677-41AE-905A-6DC7E08637AB}"/>
+    <hyperlink ref="C80" r:id="rId65" location="jobs" xr:uid="{70AB8763-8B99-4CC8-93FA-45367888CF45}"/>
+    <hyperlink ref="C82" r:id="rId66" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
+    <hyperlink ref="C83" r:id="rId67" xr:uid="{22FE5D2F-0678-46E0-9B2A-E172E58955AF}"/>
+    <hyperlink ref="C85" r:id="rId68" location="open-positions" xr:uid="{F6597EBB-0E37-4AC1-898A-F9C0E98F9151}"/>
+    <hyperlink ref="C92" r:id="rId69" xr:uid="{BC363531-F1E2-4578-9E80-60B380E1FD3D}"/>
+    <hyperlink ref="C95" r:id="rId70" xr:uid="{29FB69AB-23BB-4B94-8356-41A168FA4142}"/>
+    <hyperlink ref="C96" r:id="rId71" xr:uid="{2AFC9F45-2262-4C74-A7FB-0C2BD9C99031}"/>
+    <hyperlink ref="C97" r:id="rId72" xr:uid="{61B8F538-62B9-430C-8D63-4B58C460CD79}"/>
+    <hyperlink ref="C98" r:id="rId73" xr:uid="{DFDEBFBC-D2B2-4F42-B9A7-AB82320DDB41}"/>
+    <hyperlink ref="C100" r:id="rId74" xr:uid="{40D225C2-F512-45E4-BE1B-E9645222F684}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF2BEE-E991-4B57-B6CA-AD5FAAC975FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE13ECA-E0EF-4DB3-B20F-AE3F8C318025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="975">
   <si>
     <t>ID</t>
   </si>
@@ -733,15 +733,6 @@
     <t>Business Analyst</t>
   </si>
   <si>
-    <t>Moma Foods</t>
-  </si>
-  <si>
-    <t>https://www.momafoods.co.uk/pages/careers</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
     <t>Inspired Education</t>
   </si>
   <si>
@@ -850,15 +841,6 @@
     <t>Consulting</t>
   </si>
   <si>
-    <t>Sesami.io</t>
-  </si>
-  <si>
-    <t>https://www.sesami.io/careers</t>
-  </si>
-  <si>
-    <t>CDD</t>
-  </si>
-  <si>
     <t>RevolutionParts</t>
   </si>
   <si>
@@ -1234,9 +1216,6 @@
     <t>https://patchwork.teamtailor.com/jobs</t>
   </si>
   <si>
-    <t>IBISWorld Limited</t>
-  </si>
-  <si>
     <t>https://www.ibisworld.com/careers/</t>
   </si>
   <si>
@@ -1336,12 +1315,6 @@
     <t>https://www.semble.io/careers</t>
   </si>
   <si>
-    <t>Uswitch</t>
-  </si>
-  <si>
-    <t>https://www.rvu.co.uk/brands/uswitch</t>
-  </si>
-  <si>
     <t>SiteMinder</t>
   </si>
   <si>
@@ -1423,12 +1396,6 @@
     <t>https://careers.cbre.com/en_US/careers/SearchJobs/telford?9577=%5B17117%5D&amp;9577_format=10224&amp;listFilterMode=1&amp;jobRecordsPerPage=6&amp;</t>
   </si>
   <si>
-    <t>Petplan</t>
-  </si>
-  <si>
-    <t>https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=&amp;quatFlag=false</t>
-  </si>
-  <si>
     <t>Montagu Evans</t>
   </si>
   <si>
@@ -1555,9 +1522,6 @@
     <t>https://careers.caci.com/global/en/search-results?keywords=</t>
   </si>
   <si>
-    <t>Law Business Research</t>
-  </si>
-  <si>
     <t>https://www.lbresearch.com/company/work-with-us/all-vacancies/</t>
   </si>
   <si>
@@ -1969,9 +1933,6 @@
     <t>https://careers.dazn.com/jobs/</t>
   </si>
   <si>
-    <t>Adverity Technologies</t>
-  </si>
-  <si>
     <t>Roche Chartered Surveyors</t>
   </si>
   <si>
@@ -2167,24 +2128,12 @@
     <t>https://gatehousebank.com/careers#jobopportunities</t>
   </si>
   <si>
-    <t>FabricNano Limited</t>
-  </si>
-  <si>
-    <t>https://fabricnano.com/careers/</t>
-  </si>
-  <si>
     <t>Jones Lang Lasalle Ltd</t>
   </si>
   <si>
     <t>https://jll.wd1.myworkdayjobs.com/jllcareers</t>
   </si>
   <si>
-    <t>The Telegraph</t>
-  </si>
-  <si>
-    <t>The Family Institute</t>
-  </si>
-  <si>
     <t>Upslide</t>
   </si>
   <si>
@@ -2227,9 +2176,6 @@
     <t>https://jobs.lever.co/salaryfinance</t>
   </si>
   <si>
-    <t>Wates Ltd</t>
-  </si>
-  <si>
     <t>Linus Digital Finance</t>
   </si>
   <si>
@@ -2248,21 +2194,12 @@
     <t>https://careers.captify.co.uk/#jobs</t>
   </si>
   <si>
-    <t>Capgemini/Frog</t>
-  </si>
-  <si>
-    <t>https://www.capgemini.com/gb-en/careers/join-us/?country_code=gb-en&amp;country_name=United%20Kingdom&amp;brand=Capgemini&amp;size=15</t>
-  </si>
-  <si>
     <t>Savoir Beds</t>
   </si>
   <si>
     <t>https://www.savoirbeds.com/careers/</t>
   </si>
   <si>
-    <t>Carnall Farrar</t>
-  </si>
-  <si>
     <t>Metaview</t>
   </si>
   <si>
@@ -2275,30 +2212,18 @@
     <t>https://faculty.ai/join-the-team/#ashby_embed</t>
   </si>
   <si>
-    <t>https://3s.money/careers/</t>
-  </si>
-  <si>
     <t>Bridebook</t>
   </si>
   <si>
     <t>https://partners.bridebook.com/uk/careers#openroles</t>
   </si>
   <si>
-    <t>Palantir Technologies</t>
-  </si>
-  <si>
-    <t>https://www.palantir.com/careers/</t>
-  </si>
-  <si>
     <t>FabricNano</t>
   </si>
   <si>
     <t>https://fabricnano.com/careers</t>
   </si>
   <si>
-    <t>https://arenko.group/careers/</t>
-  </si>
-  <si>
     <t>Cafeyn</t>
   </si>
   <si>
@@ -2431,9 +2356,6 @@
     <t>https://snowplow.io/careers/#open-positions</t>
   </si>
   <si>
-    <t>Clarasys</t>
-  </si>
-  <si>
     <t>Symphony</t>
   </si>
   <si>
@@ -2452,9 +2374,6 @@
     <t>https://supercharge.io/careers/positions</t>
   </si>
   <si>
-    <t>https://baseskillsacademy.co.uk/current-vacancies</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
@@ -2512,21 +2431,6 @@
     <t>https://canarywharf.wd3.myworkdayjobs.com/CanaryWharf</t>
   </si>
   <si>
-    <t>Mr Yum Trading Limited</t>
-  </si>
-  <si>
-    <t>https://tryremotely.com/company/mryum/jobs</t>
-  </si>
-  <si>
-    <t>Jeffreys Henry</t>
-  </si>
-  <si>
-    <t>https://jobs.workable.com/company/643fd358d2d6a56d7ce89b7a/jobs-at-gravita</t>
-  </si>
-  <si>
-    <t>https://www.veeve.com/en-gb/roles/greeter/</t>
-  </si>
-  <si>
     <t>Magic</t>
   </si>
   <si>
@@ -2545,12 +2449,6 @@
     <t>https://www.mottmac.com/careers/search</t>
   </si>
   <si>
-    <t>OneLeap</t>
-  </si>
-  <si>
-    <t>https://www.oneleap.com/careers</t>
-  </si>
-  <si>
     <t>Curve Analytics</t>
   </si>
   <si>
@@ -2623,9 +2521,6 @@
     <t>https://blueridgeglobal.com/about/careers/#open-positions</t>
   </si>
   <si>
-    <t>Chambers</t>
-  </si>
-  <si>
     <t>Simply Business</t>
   </si>
   <si>
@@ -2704,12 +2599,6 @@
     <t>https://cezanneondemand.intervieweb.it/bigbustours/en/career </t>
   </si>
   <si>
-    <t>Science In Sport</t>
-  </si>
-  <si>
-    <t>https://careers.scienceinsport.com/</t>
-  </si>
-  <si>
     <t>Monsoon Accessorize</t>
   </si>
   <si>
@@ -2786,9 +2675,6 @@
   </si>
   <si>
     <t>https://www.accenture.com/gb-en/careers/jobsearch?jk=&amp;sb=1&amp;vw=0&amp;is_rj=0&amp;pg=1</t>
-  </si>
-  <si>
-    <t>Baxi Partnership</t>
   </si>
   <si>
     <t>Lumin Wealth</t>
@@ -3318,7 +3204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3472,6 +3358,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3781,8 +3670,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3839,7 +3728,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1009</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
@@ -3918,7 +3807,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1010</v>
+        <v>972</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
@@ -4331,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1012</v>
+        <v>974</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>1011</v>
+        <v>973</v>
       </c>
       <c r="D31" s="60" t="s">
         <v>3</v>
@@ -4349,10 +4238,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>3</v>
@@ -4364,10 +4253,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>841</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>842</v>
+        <v>805</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>806</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>3</v>
@@ -4468,10 +4357,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>3</v>
@@ -4606,10 +4495,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>846</v>
+        <v>812</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>3</v>
@@ -5214,38 +5103,36 @@
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A83" s="9">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A83" s="32">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>238</v>
+      <c r="B83" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>804</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="E83" s="24"/>
     </row>
     <row r="84" spans="1:5" ht="32.25" customHeight="1">
       <c r="A84" s="9">
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="19.5" customHeight="1">
@@ -5253,16 +5140,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="19.5" customHeight="1">
@@ -5270,16 +5157,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="19.5" customHeight="1">
@@ -5287,16 +5174,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="19.5" customHeight="1">
@@ -5304,16 +5191,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="19.5" customHeight="1">
@@ -5321,16 +5208,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>253</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19.5" customHeight="1">
@@ -5338,16 +5225,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="19.5" customHeight="1">
@@ -5355,16 +5242,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="19.5" customHeight="1">
@@ -5372,16 +5259,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="19.5" customHeight="1">
@@ -5389,16 +5276,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="19.5" customHeight="1">
@@ -5406,16 +5293,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="19.5" customHeight="1">
@@ -5423,50 +5310,48 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A96" s="9">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A96" s="32">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>277</v>
+      <c r="B96" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>802</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="11" t="s">
-        <v>278</v>
-      </c>
+      <c r="E96" s="24"/>
     </row>
     <row r="97" spans="1:5" ht="19.5" customHeight="1">
       <c r="A97" s="9">
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19.5" customHeight="1">
@@ -5474,16 +5359,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" customHeight="1">
@@ -5491,16 +5376,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="19.5" customHeight="1">
@@ -5508,16 +5393,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="19.5" customHeight="1">
@@ -5525,16 +5410,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="19.5" customHeight="1">
@@ -5542,16 +5427,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="19.5" customHeight="1">
@@ -5559,16 +5444,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="19.5" customHeight="1">
@@ -5576,16 +5461,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="19.5" customHeight="1">
@@ -5593,16 +5478,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1">
@@ -5610,10 +5495,10 @@
         <v>554</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>1005</v>
+        <v>967</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>1006</v>
+        <v>968</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>3</v>
@@ -5625,16 +5510,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="19.5" customHeight="1">
@@ -5642,16 +5527,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="19.5" customHeight="1">
@@ -5659,10 +5544,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>3</v>
@@ -5674,10 +5559,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>3</v>
@@ -5689,10 +5574,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>3</v>
@@ -5704,10 +5589,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>3</v>
@@ -5719,10 +5604,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>3</v>
@@ -5734,10 +5619,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>3</v>
@@ -5749,10 +5634,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>3</v>
@@ -5764,10 +5649,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>3</v>
@@ -5779,10 +5664,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>3</v>
@@ -5794,10 +5679,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>3</v>
@@ -5809,10 +5694,10 @@
         <v>471</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>850</v>
+        <v>816</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>3</v>
@@ -5824,10 +5709,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>3</v>
@@ -5839,10 +5724,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>3</v>
@@ -5854,10 +5739,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>3</v>
@@ -5869,10 +5754,10 @@
         <v>470</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>848</v>
+        <v>814</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>44</v>
@@ -5884,10 +5769,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>3</v>
@@ -5899,10 +5784,10 @@
         <v>472</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>852</v>
+        <v>818</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>3</v>
@@ -5914,10 +5799,10 @@
         <v>473</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>3</v>
@@ -5929,10 +5814,10 @@
         <v>474</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>3</v>
@@ -5944,10 +5829,10 @@
         <v>475</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>3</v>
@@ -5959,10 +5844,10 @@
         <v>476</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>858</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>859</v>
+        <v>824</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>825</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>3</v>
@@ -5974,10 +5859,10 @@
         <v>477</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>860</v>
+        <v>826</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>3</v>
@@ -5989,10 +5874,10 @@
         <v>478</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>3</v>
@@ -6000,18 +5885,10 @@
       <c r="E131" s="24"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A132" s="32">
-        <v>479</v>
-      </c>
-      <c r="B132" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A132" s="32"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="24"/>
     </row>
     <row r="133" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -6019,10 +5896,10 @@
         <v>480</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>44</v>
@@ -6034,10 +5911,10 @@
         <v>481</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>3</v>
@@ -6045,18 +5922,10 @@
       <c r="E134" s="24"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A135" s="32">
-        <v>482</v>
-      </c>
-      <c r="B135" s="23" t="s">
-        <v>867</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A135" s="32"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="11"/>
       <c r="E135" s="24"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1">
@@ -6064,10 +5933,10 @@
         <v>483</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>869</v>
+        <v>834</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>3</v>
@@ -6079,10 +5948,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>3</v>
@@ -6094,10 +5963,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>44</v>
@@ -6109,10 +5978,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>3</v>
@@ -6124,10 +5993,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>3</v>
@@ -6139,10 +6008,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>3</v>
@@ -6154,10 +6023,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>3</v>
@@ -6169,10 +6038,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>3</v>
@@ -6184,10 +6053,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>3</v>
@@ -6199,10 +6068,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>3</v>
@@ -6214,10 +6083,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>3</v>
@@ -6229,10 +6098,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>3</v>
@@ -6244,10 +6113,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>3</v>
@@ -6259,10 +6128,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>44</v>
@@ -6274,10 +6143,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>3</v>
@@ -6289,10 +6158,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>3</v>
@@ -6304,10 +6173,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>3</v>
@@ -6319,10 +6188,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>3</v>
@@ -6334,10 +6203,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>3</v>
@@ -6349,10 +6218,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>3</v>
@@ -6364,10 +6233,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>3</v>
@@ -6379,10 +6248,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>3</v>
@@ -6394,10 +6263,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>3</v>
@@ -6409,10 +6278,10 @@
         <v>484</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>870</v>
+        <v>835</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>871</v>
+        <v>836</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>3</v>
@@ -6424,10 +6293,10 @@
         <v>485</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>3</v>
@@ -6439,10 +6308,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>3</v>
@@ -6454,10 +6323,10 @@
         <v>488</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>3</v>
@@ -6469,10 +6338,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>3</v>
@@ -6484,10 +6353,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>3</v>
@@ -6499,10 +6368,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>3</v>
@@ -6514,10 +6383,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>3</v>
@@ -6532,7 +6401,7 @@
         <v>131</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>3</v>
@@ -6544,10 +6413,10 @@
         <v>486</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>874</v>
+        <v>839</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>3</v>
@@ -6559,10 +6428,10 @@
         <v>487</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>876</v>
+        <v>841</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>3</v>
@@ -6574,10 +6443,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>3</v>
@@ -6589,10 +6458,10 @@
         <v>489</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>3</v>
@@ -6604,10 +6473,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>3</v>
@@ -6619,10 +6488,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>3</v>
@@ -6634,10 +6503,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>3</v>
@@ -6645,18 +6514,10 @@
       <c r="E174" s="11"/>
     </row>
     <row r="175" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A175" s="9">
-        <v>174</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A175" s="9"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="11"/>
       <c r="E175" s="11"/>
     </row>
     <row r="176" spans="1:5" ht="32.25" customHeight="1">
@@ -6664,10 +6525,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>3</v>
@@ -6679,10 +6540,10 @@
         <v>490</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>3</v>
@@ -6694,10 +6555,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>3</v>
@@ -6709,10 +6570,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>3</v>
@@ -6724,10 +6585,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>3</v>
@@ -6739,10 +6600,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D181" s="11" t="s">
         <v>3</v>
@@ -6754,10 +6615,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>3</v>
@@ -6769,10 +6630,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>3</v>
@@ -6784,10 +6645,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>3</v>
@@ -6799,10 +6660,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>3</v>
@@ -6814,10 +6675,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>3</v>
@@ -6829,10 +6690,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>3</v>
@@ -6844,10 +6705,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>3</v>
@@ -6859,10 +6720,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>3</v>
@@ -6874,10 +6735,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>3</v>
@@ -6889,10 +6750,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>3</v>
@@ -6904,10 +6765,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>3</v>
@@ -6919,10 +6780,10 @@
         <v>491</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>884</v>
+        <v>849</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>3</v>
@@ -6930,18 +6791,10 @@
       <c r="E193" s="24"/>
     </row>
     <row r="194" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A194" s="16">
-        <v>193</v>
-      </c>
-      <c r="B194" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="A194" s="16"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="64"/>
+      <c r="D194" s="18"/>
       <c r="E194" s="18"/>
     </row>
     <row r="195" spans="1:5" ht="19.5" customHeight="1">
@@ -6949,10 +6802,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>3</v>
@@ -6964,10 +6817,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>443</v>
+        <v>433</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>3</v>
@@ -6979,10 +6832,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>3</v>
@@ -6994,10 +6847,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>3</v>
@@ -7009,10 +6862,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>3</v>
@@ -7024,10 +6877,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>3</v>
@@ -7039,10 +6892,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>3</v>
@@ -7054,10 +6907,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>3</v>
@@ -7065,18 +6918,10 @@
       <c r="E202" s="11"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A203" s="32">
-        <v>492</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A203" s="32"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="11"/>
       <c r="E203" s="24"/>
     </row>
     <row r="204" spans="1:5" ht="18.75" customHeight="1">
@@ -7084,10 +6929,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>457</v>
+        <v>447</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>448</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>3</v>
@@ -7099,10 +6944,10 @@
         <v>493</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>887</v>
+        <v>852</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>3</v>
@@ -7114,10 +6959,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>3</v>
@@ -7129,10 +6974,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>3</v>
@@ -7144,10 +6989,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>3</v>
@@ -7159,10 +7004,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D209" s="11" t="s">
         <v>3</v>
@@ -7170,18 +7015,10 @@
       <c r="E209" s="11"/>
     </row>
     <row r="210" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A210" s="9">
-        <v>209</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A210" s="9"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="11"/>
       <c r="E210" s="11"/>
     </row>
     <row r="211" spans="1:5" ht="18.75" customHeight="1">
@@ -7189,10 +7026,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>3</v>
@@ -7204,10 +7041,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D212" s="11" t="s">
         <v>3</v>
@@ -7219,10 +7056,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>3</v>
@@ -7234,10 +7071,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>3</v>
@@ -7249,10 +7086,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>3</v>
@@ -7264,10 +7101,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>3</v>
@@ -7279,10 +7116,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D217" s="11" t="s">
         <v>3</v>
@@ -7294,10 +7131,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>3</v>
@@ -7309,10 +7146,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>3</v>
@@ -7324,10 +7161,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>3</v>
@@ -7339,10 +7176,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>3</v>
@@ -7354,10 +7191,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>3</v>
@@ -7369,10 +7206,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>3</v>
@@ -7384,10 +7221,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>3</v>
@@ -7399,10 +7236,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>3</v>
@@ -7414,10 +7251,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>3</v>
@@ -7429,10 +7266,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>3</v>
@@ -7444,10 +7281,10 @@
         <v>494</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>888</v>
+        <v>853</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>889</v>
+        <v>854</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>3</v>
@@ -7459,10 +7296,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>3</v>
@@ -7474,10 +7311,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>3</v>
@@ -7489,10 +7326,10 @@
         <v>495</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>890</v>
+        <v>855</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>3</v>
@@ -7504,10 +7341,10 @@
         <v>496</v>
       </c>
       <c r="B232" s="37" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>3</v>
@@ -7519,10 +7356,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>3</v>
@@ -7534,10 +7371,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>3</v>
@@ -7545,18 +7382,10 @@
       <c r="E234" s="11"/>
     </row>
     <row r="235" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A235" s="9">
-        <v>234</v>
-      </c>
-      <c r="B235" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A235" s="9"/>
+      <c r="B235" s="15"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="11"/>
       <c r="E235" s="11"/>
     </row>
     <row r="236" spans="1:5" ht="18.75" customHeight="1">
@@ -7564,10 +7393,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D236" s="11" t="s">
         <v>3</v>
@@ -7579,10 +7408,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D237" s="11" t="s">
         <v>3</v>
@@ -7594,10 +7423,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D238" s="11" t="s">
         <v>3</v>
@@ -7605,18 +7434,10 @@
       <c r="E238" s="11"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A239" s="32">
-        <v>497</v>
-      </c>
-      <c r="B239" s="37" t="s">
-        <v>894</v>
-      </c>
-      <c r="C239" s="35" t="s">
-        <v>895</v>
-      </c>
-      <c r="D239" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A239" s="32"/>
+      <c r="B239" s="37"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="11"/>
       <c r="E239" s="24"/>
     </row>
     <row r="240" spans="1:5" ht="18.75" customHeight="1">
@@ -7624,10 +7445,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D240" s="11" t="s">
         <v>3</v>
@@ -7639,10 +7460,10 @@
         <v>498</v>
       </c>
       <c r="B241" s="37" t="s">
-        <v>896</v>
+        <v>859</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>897</v>
+        <v>860</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>3</v>
@@ -7654,10 +7475,10 @@
         <v>555</v>
       </c>
       <c r="B242" s="44" t="s">
-        <v>1007</v>
+        <v>969</v>
       </c>
       <c r="C242" s="44" t="s">
-        <v>1008</v>
+        <v>970</v>
       </c>
       <c r="D242" s="21" t="s">
         <v>3</v>
@@ -7669,10 +7490,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D243" s="18" t="s">
         <v>44</v>
@@ -7684,10 +7505,10 @@
         <v>500</v>
       </c>
       <c r="B244" s="39" t="s">
-        <v>898</v>
+        <v>861</v>
       </c>
       <c r="C244" s="40" t="s">
-        <v>899</v>
+        <v>862</v>
       </c>
       <c r="D244" s="21" t="s">
         <v>3</v>
@@ -7699,10 +7520,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D245" s="11" t="s">
         <v>3</v>
@@ -7714,10 +7535,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D246" s="11" t="s">
         <v>3</v>
@@ -7729,10 +7550,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D247" s="11" t="s">
         <v>3</v>
@@ -7744,10 +7565,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>3</v>
@@ -7759,10 +7580,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>3</v>
@@ -7774,10 +7595,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D250" s="11" t="s">
         <v>3</v>
@@ -7789,10 +7610,10 @@
         <v>501</v>
       </c>
       <c r="B251" s="42" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>901</v>
+        <v>864</v>
       </c>
       <c r="D251" s="18" t="s">
         <v>44</v>
@@ -7804,10 +7625,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D252" s="11" t="s">
         <v>3</v>
@@ -7819,10 +7640,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="D253" s="11" t="s">
         <v>3</v>
@@ -7834,10 +7655,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>3</v>
@@ -7849,10 +7670,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D255" s="11" t="s">
         <v>3</v>
@@ -7864,10 +7685,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D256" s="11" t="s">
         <v>3</v>
@@ -7879,10 +7700,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="D257" s="11" t="s">
         <v>3</v>
@@ -7894,10 +7715,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="D258" s="11" t="s">
         <v>3</v>
@@ -7909,10 +7730,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D259" s="11" t="s">
         <v>3</v>
@@ -7924,10 +7745,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D260" s="11" t="s">
         <v>3</v>
@@ -7939,10 +7760,10 @@
         <v>502</v>
       </c>
       <c r="B261" s="44" t="s">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="C261" s="44" t="s">
-        <v>903</v>
+        <v>866</v>
       </c>
       <c r="D261" s="21" t="s">
         <v>3</v>
@@ -7954,10 +7775,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D262" s="11" t="s">
         <v>3</v>
@@ -7969,10 +7790,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D263" s="11" t="s">
         <v>3</v>
@@ -7984,10 +7805,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D264" s="11" t="s">
         <v>3</v>
@@ -7999,10 +7820,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>3</v>
@@ -8014,10 +7835,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>3</v>
@@ -8029,10 +7850,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D267" s="11" t="s">
         <v>3</v>
@@ -8044,10 +7865,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D268" s="11" t="s">
         <v>3</v>
@@ -8059,10 +7880,10 @@
         <v>503</v>
       </c>
       <c r="B269" s="44" t="s">
-        <v>904</v>
+        <v>867</v>
       </c>
       <c r="C269" s="44" t="s">
-        <v>905</v>
+        <v>868</v>
       </c>
       <c r="D269" s="21" t="s">
         <v>3</v>
@@ -8074,10 +7895,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D270" s="11" t="s">
         <v>3</v>
@@ -8089,10 +7910,10 @@
         <v>504</v>
       </c>
       <c r="B271" s="44" t="s">
-        <v>906</v>
+        <v>869</v>
       </c>
       <c r="C271" s="44" t="s">
-        <v>907</v>
+        <v>870</v>
       </c>
       <c r="D271" s="21" t="s">
         <v>3</v>
@@ -8104,10 +7925,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D272" s="11" t="s">
         <v>3</v>
@@ -8119,10 +7940,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D273" s="11" t="s">
         <v>3</v>
@@ -8134,10 +7955,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D274" s="11" t="s">
         <v>3</v>
@@ -8149,10 +7970,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>3</v>
@@ -8164,10 +7985,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D276" s="11" t="s">
         <v>3</v>
@@ -8179,10 +8000,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D277" s="11" t="s">
         <v>3</v>
@@ -8194,10 +8015,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D278" s="11" t="s">
         <v>3</v>
@@ -8209,10 +8030,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C279" s="23" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D279" s="11" t="s">
         <v>3</v>
@@ -8224,10 +8045,10 @@
         <v>505</v>
       </c>
       <c r="B280" s="44" t="s">
-        <v>908</v>
+        <v>871</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>909</v>
+        <v>872</v>
       </c>
       <c r="D280" s="21" t="s">
         <v>3</v>
@@ -8239,10 +8060,10 @@
         <v>506</v>
       </c>
       <c r="B281" s="44" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>911</v>
+        <v>874</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>3</v>
@@ -8254,10 +8075,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C282" s="23" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D282" s="11" t="s">
         <v>3</v>
@@ -8269,10 +8090,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>44</v>
@@ -8284,10 +8105,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>3</v>
@@ -8299,10 +8120,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>3</v>
@@ -8314,10 +8135,10 @@
         <v>507</v>
       </c>
       <c r="B286" s="44" t="s">
-        <v>912</v>
+        <v>875</v>
       </c>
       <c r="C286" s="44" t="s">
-        <v>913</v>
+        <v>876</v>
       </c>
       <c r="D286" s="21" t="s">
         <v>3</v>
@@ -8329,10 +8150,10 @@
         <v>508</v>
       </c>
       <c r="B287" s="44" t="s">
-        <v>914</v>
+        <v>877</v>
       </c>
       <c r="C287" s="44" t="s">
-        <v>915</v>
+        <v>878</v>
       </c>
       <c r="D287" s="21" t="s">
         <v>3</v>
@@ -8344,10 +8165,10 @@
         <v>509</v>
       </c>
       <c r="B288" s="44" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="C288" s="44" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="D288" s="21" t="s">
         <v>3</v>
@@ -8359,10 +8180,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C289" s="26" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>44</v>
@@ -8374,10 +8195,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D290" s="11" t="s">
         <v>3</v>
@@ -8389,10 +8210,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D291" s="18" t="s">
         <v>44</v>
@@ -8404,10 +8225,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C292" s="31" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D292" s="18" t="s">
         <v>44</v>
@@ -8419,10 +8240,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D293" s="11" t="s">
         <v>3</v>
@@ -8434,10 +8255,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D294" s="11" t="s">
         <v>3</v>
@@ -8449,10 +8270,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C295" s="23" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D295" s="11" t="s">
         <v>3</v>
@@ -8464,10 +8285,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D296" s="11" t="s">
         <v>3</v>
@@ -8479,10 +8300,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D297" s="11" t="s">
         <v>3</v>
@@ -8494,10 +8315,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>3</v>
@@ -8509,10 +8330,10 @@
         <v>510</v>
       </c>
       <c r="B299" s="44" t="s">
-        <v>918</v>
+        <v>881</v>
       </c>
       <c r="C299" s="44" t="s">
-        <v>919</v>
+        <v>882</v>
       </c>
       <c r="D299" s="21" t="s">
         <v>3</v>
@@ -8524,10 +8345,10 @@
         <v>511</v>
       </c>
       <c r="B300" s="44" t="s">
-        <v>920</v>
+        <v>883</v>
       </c>
       <c r="C300" s="44" t="s">
-        <v>921</v>
+        <v>884</v>
       </c>
       <c r="D300" s="21" t="s">
         <v>3</v>
@@ -8539,10 +8360,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D301" s="11" t="s">
         <v>3</v>
@@ -8554,10 +8375,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="D302" s="11" t="s">
         <v>3</v>
@@ -8569,10 +8390,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="D303" s="11" t="s">
         <v>3</v>
@@ -8584,10 +8405,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="C304" s="23" t="s">
-        <v>620</v>
+        <v>607</v>
+      </c>
+      <c r="C304" s="36" t="s">
+        <v>608</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>3</v>
@@ -8599,10 +8420,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>3</v>
@@ -8614,10 +8435,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="D306" s="11" t="s">
         <v>3</v>
@@ -8629,10 +8450,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D307" s="18" t="s">
         <v>44</v>
@@ -8644,10 +8465,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="D308" s="11" t="s">
         <v>3</v>
@@ -8659,10 +8480,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>3</v>
@@ -8674,10 +8495,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>3</v>
@@ -8689,10 +8510,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D311" s="11" t="s">
         <v>3</v>
@@ -8704,10 +8525,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="D312" s="11" t="s">
         <v>3</v>
@@ -8719,10 +8540,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D313" s="11" t="s">
         <v>3</v>
@@ -8734,10 +8555,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="D314" s="11" t="s">
         <v>3</v>
@@ -8745,18 +8566,10 @@
       <c r="E314" s="24"/>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A315" s="43">
-        <v>512</v>
-      </c>
-      <c r="B315" s="44" t="s">
-        <v>922</v>
-      </c>
-      <c r="C315" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D315" s="21" t="s">
-        <v>3</v>
-      </c>
+      <c r="A315" s="43"/>
+      <c r="B315" s="44"/>
+      <c r="C315" s="44"/>
+      <c r="D315" s="21"/>
       <c r="E315" s="24"/>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1">
@@ -8764,10 +8577,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D316" s="11" t="s">
         <v>3</v>
@@ -8779,10 +8592,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D317" s="11" t="s">
         <v>3</v>
@@ -8794,10 +8607,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D318" s="11" t="s">
         <v>3</v>
@@ -8809,10 +8622,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="D319" s="11" t="s">
         <v>3</v>
@@ -8820,18 +8633,10 @@
       <c r="E319" s="24"/>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A320" s="32">
-        <v>319</v>
-      </c>
-      <c r="B320" s="23" t="s">
-        <v>649</v>
-      </c>
-      <c r="C320" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="D320" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A320" s="32"/>
+      <c r="B320" s="23"/>
+      <c r="C320" s="23"/>
+      <c r="D320" s="11"/>
       <c r="E320" s="24"/>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1">
@@ -8839,10 +8644,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="C321" s="23" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>3</v>
@@ -8854,10 +8659,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>3</v>
@@ -8869,10 +8674,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="D323" s="11" t="s">
         <v>3</v>
@@ -8884,10 +8689,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="C324" s="23" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D324" s="11" t="s">
         <v>3</v>
@@ -8899,10 +8704,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="C325" s="23" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="D325" s="11" t="s">
         <v>3</v>
@@ -8914,10 +8719,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="D326" s="11" t="s">
         <v>3</v>
@@ -8929,10 +8734,10 @@
         <v>513</v>
       </c>
       <c r="B327" s="44" t="s">
-        <v>923</v>
+        <v>885</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>924</v>
+        <v>886</v>
       </c>
       <c r="D327" s="21" t="s">
         <v>3</v>
@@ -8944,10 +8749,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="D328" s="11" t="s">
         <v>3</v>
@@ -8959,10 +8764,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D329" s="11" t="s">
         <v>3</v>
@@ -8974,10 +8779,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="C330" s="23" t="s">
-        <v>667</v>
+        <v>653</v>
+      </c>
+      <c r="C330" s="36" t="s">
+        <v>654</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>3</v>
@@ -8989,10 +8794,10 @@
         <v>514</v>
       </c>
       <c r="B331" s="44" t="s">
-        <v>925</v>
+        <v>887</v>
       </c>
       <c r="C331" s="44" t="s">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="D331" s="21" t="s">
         <v>3</v>
@@ -9004,10 +8809,10 @@
         <v>515</v>
       </c>
       <c r="B332" s="44" t="s">
-        <v>927</v>
+        <v>889</v>
       </c>
       <c r="C332" s="44" t="s">
-        <v>928</v>
+        <v>890</v>
       </c>
       <c r="D332" s="21" t="s">
         <v>3</v>
@@ -9019,10 +8824,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C333" s="23" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>3</v>
@@ -9034,10 +8839,10 @@
         <v>516</v>
       </c>
       <c r="B334" s="44" t="s">
-        <v>929</v>
+        <v>891</v>
       </c>
       <c r="C334" s="44" t="s">
-        <v>930</v>
+        <v>892</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>3</v>
@@ -9049,10 +8854,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="D335" s="11" t="s">
         <v>3</v>
@@ -9064,10 +8869,10 @@
         <v>517</v>
       </c>
       <c r="B336" s="44" t="s">
-        <v>931</v>
+        <v>893</v>
       </c>
       <c r="C336" s="44" t="s">
-        <v>932</v>
+        <v>894</v>
       </c>
       <c r="D336" s="21" t="s">
         <v>3</v>
@@ -9079,10 +8884,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C337" s="23" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>3</v>
@@ -9094,10 +8899,10 @@
         <v>518</v>
       </c>
       <c r="B338" s="44" t="s">
-        <v>933</v>
+        <v>895</v>
       </c>
       <c r="C338" s="44" t="s">
-        <v>934</v>
+        <v>896</v>
       </c>
       <c r="D338" s="21" t="s">
         <v>3</v>
@@ -9109,10 +8914,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C339" s="35" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="D339" s="11" t="s">
         <v>3</v>
@@ -9124,10 +8929,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="D340" s="11" t="s">
         <v>3</v>
@@ -9139,10 +8944,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="D341" s="11" t="s">
         <v>3</v>
@@ -9154,10 +8959,10 @@
         <v>519</v>
       </c>
       <c r="B342" s="44" t="s">
-        <v>935</v>
+        <v>897</v>
       </c>
       <c r="C342" s="44" t="s">
-        <v>936</v>
+        <v>898</v>
       </c>
       <c r="D342" s="21" t="s">
         <v>3</v>
@@ -9169,10 +8974,10 @@
         <v>520</v>
       </c>
       <c r="B343" s="44" t="s">
-        <v>937</v>
+        <v>899</v>
       </c>
       <c r="C343" s="44" t="s">
-        <v>938</v>
+        <v>900</v>
       </c>
       <c r="D343" s="21" t="s">
         <v>3</v>
@@ -9184,10 +8989,10 @@
         <v>521</v>
       </c>
       <c r="B344" s="44" t="s">
-        <v>939</v>
+        <v>901</v>
       </c>
       <c r="C344" s="44" t="s">
-        <v>940</v>
+        <v>902</v>
       </c>
       <c r="D344" s="21" t="s">
         <v>3</v>
@@ -9199,10 +9004,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C345" s="35" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D345" s="11" t="s">
         <v>3</v>
@@ -9214,10 +9019,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D346" s="11" t="s">
         <v>3</v>
@@ -9229,10 +9034,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D347" s="11" t="s">
         <v>3</v>
@@ -9244,10 +9049,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D348" s="11" t="s">
         <v>3</v>
@@ -9259,10 +9064,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D349" s="11" t="s">
         <v>3</v>
@@ -9274,10 +9079,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D350" s="11" t="s">
         <v>3</v>
@@ -9289,10 +9094,10 @@
         <v>522</v>
       </c>
       <c r="B351" s="44" t="s">
-        <v>941</v>
+        <v>903</v>
       </c>
       <c r="C351" s="44" t="s">
-        <v>942</v>
+        <v>904</v>
       </c>
       <c r="D351" s="21" t="s">
         <v>3</v>
@@ -9304,10 +9109,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D352" s="11" t="s">
         <v>3</v>
@@ -9319,10 +9124,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>3</v>
@@ -9334,10 +9139,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>3</v>
@@ -9349,10 +9154,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>3</v>
@@ -9364,10 +9169,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>3</v>
@@ -9379,10 +9184,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>3</v>
@@ -9394,10 +9199,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>3</v>
@@ -9409,10 +9214,10 @@
         <v>523</v>
       </c>
       <c r="B359" s="44" t="s">
-        <v>943</v>
+        <v>905</v>
       </c>
       <c r="C359" s="44" t="s">
-        <v>944</v>
+        <v>906</v>
       </c>
       <c r="D359" s="21" t="s">
         <v>3</v>
@@ -9424,10 +9229,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="D360" s="11" t="s">
         <v>3</v>
@@ -9439,10 +9244,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="D361" s="11" t="s">
         <v>3</v>
@@ -9454,10 +9259,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D362" s="11" t="s">
         <v>3</v>
@@ -9469,10 +9274,10 @@
         <v>524</v>
       </c>
       <c r="B363" s="44" t="s">
-        <v>945</v>
+        <v>907</v>
       </c>
       <c r="C363" s="44" t="s">
-        <v>946</v>
+        <v>908</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>3</v>
@@ -9484,10 +9289,10 @@
         <v>525</v>
       </c>
       <c r="B364" s="44" t="s">
-        <v>947</v>
+        <v>909</v>
       </c>
       <c r="C364" s="44" t="s">
-        <v>948</v>
+        <v>910</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>3</v>
@@ -9499,10 +9304,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="23" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="D365" s="11" t="s">
         <v>3</v>
@@ -9514,10 +9319,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="D366" s="11" t="s">
         <v>3</v>
@@ -9525,18 +9330,10 @@
       <c r="E366" s="24"/>
     </row>
     <row r="367" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A367" s="30">
-        <v>366</v>
-      </c>
-      <c r="B367" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="C367" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="D367" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="A367" s="30"/>
+      <c r="B367" s="26"/>
+      <c r="C367" s="31"/>
+      <c r="D367" s="18"/>
       <c r="E367" s="27"/>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1">
@@ -9544,10 +9341,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="D368" s="11" t="s">
         <v>3</v>
@@ -9555,18 +9352,10 @@
       <c r="E368" s="24"/>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A369" s="32">
-        <v>368</v>
-      </c>
-      <c r="B369" s="23" t="s">
-        <v>719</v>
-      </c>
-      <c r="C369" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="D369" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A369" s="32"/>
+      <c r="B369" s="23"/>
+      <c r="C369" s="23"/>
+      <c r="D369" s="11"/>
       <c r="E369" s="24"/>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1">
@@ -9574,10 +9363,10 @@
         <v>526</v>
       </c>
       <c r="B370" s="44" t="s">
-        <v>949</v>
+        <v>911</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>3</v>
@@ -9585,18 +9374,10 @@
       <c r="E370" s="24"/>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A371" s="32">
-        <v>370</v>
-      </c>
-      <c r="B371" s="23" t="s">
-        <v>720</v>
-      </c>
-      <c r="C371" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="D371" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A371" s="32"/>
+      <c r="B371" s="23"/>
+      <c r="C371" s="23"/>
+      <c r="D371" s="11"/>
       <c r="E371" s="24"/>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1">
@@ -9604,10 +9385,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="D372" s="11" t="s">
         <v>3</v>
@@ -9619,10 +9400,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="D373" s="11" t="s">
         <v>3</v>
@@ -9634,10 +9415,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="D374" s="11" t="s">
         <v>3</v>
@@ -9649,10 +9430,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="D375" s="11" t="s">
         <v>3</v>
@@ -9664,10 +9445,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="D376" s="11" t="s">
         <v>3</v>
@@ -9679,10 +9460,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="D377" s="11" t="s">
         <v>3</v>
@@ -9694,10 +9475,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>3</v>
@@ -9705,18 +9486,10 @@
       <c r="E378" s="24"/>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A379" s="32">
-        <v>378</v>
-      </c>
-      <c r="B379" s="23" t="s">
-        <v>735</v>
-      </c>
-      <c r="C379" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="D379" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A379" s="32"/>
+      <c r="B379" s="23"/>
+      <c r="C379" s="23"/>
+      <c r="D379" s="11"/>
       <c r="E379" s="24"/>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1">
@@ -9724,10 +9497,10 @@
         <v>528</v>
       </c>
       <c r="B380" s="44" t="s">
-        <v>953</v>
+        <v>915</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>954</v>
+        <v>916</v>
       </c>
       <c r="D380" s="21" t="s">
         <v>3</v>
@@ -9739,10 +9512,10 @@
         <v>529</v>
       </c>
       <c r="B381" s="44" t="s">
-        <v>955</v>
+        <v>917</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>956</v>
+        <v>918</v>
       </c>
       <c r="D381" s="21" t="s">
         <v>3</v>
@@ -9754,10 +9527,10 @@
         <v>530</v>
       </c>
       <c r="B382" s="44" t="s">
-        <v>957</v>
+        <v>919</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>958</v>
+        <v>920</v>
       </c>
       <c r="D382" s="21" t="s">
         <v>3</v>
@@ -9769,10 +9542,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="23" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="D383" s="11" t="s">
         <v>3</v>
@@ -9784,10 +9557,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="23" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="D384" s="11" t="s">
         <v>3</v>
@@ -9799,10 +9572,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="23" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="C385" s="23" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="D385" s="11" t="s">
         <v>3</v>
@@ -9814,10 +9587,10 @@
         <v>527</v>
       </c>
       <c r="B386" s="44" t="s">
-        <v>951</v>
+        <v>913</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>952</v>
+        <v>914</v>
       </c>
       <c r="D386" s="21" t="s">
         <v>3</v>
@@ -9825,18 +9598,10 @@
       <c r="E386" s="24"/>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A387" s="32">
-        <v>386</v>
-      </c>
-      <c r="B387" s="23" t="s">
-        <v>742</v>
-      </c>
-      <c r="C387" s="23" t="s">
-        <v>743</v>
-      </c>
-      <c r="D387" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A387" s="32"/>
+      <c r="B387" s="23"/>
+      <c r="C387" s="36"/>
+      <c r="D387" s="11"/>
       <c r="E387" s="24"/>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1">
@@ -9844,10 +9609,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="23" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="D388" s="11" t="s">
         <v>3</v>
@@ -9855,18 +9620,10 @@
       <c r="E388" s="24"/>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A389" s="32">
-        <v>388</v>
-      </c>
-      <c r="B389" s="23" t="s">
-        <v>746</v>
-      </c>
-      <c r="C389" s="23" t="s">
-        <v>732</v>
-      </c>
-      <c r="D389" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A389" s="32"/>
+      <c r="B389" s="23"/>
+      <c r="C389" s="23"/>
+      <c r="D389" s="11"/>
       <c r="E389" s="24"/>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1">
@@ -9874,10 +9631,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="C390" s="23" t="s">
-        <v>748</v>
+        <v>726</v>
+      </c>
+      <c r="C390" s="36" t="s">
+        <v>727</v>
       </c>
       <c r="D390" s="11" t="s">
         <v>3</v>
@@ -9885,18 +9642,10 @@
       <c r="E390" s="24"/>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A391" s="32">
-        <v>390</v>
-      </c>
-      <c r="B391" s="23" t="s">
-        <v>645</v>
-      </c>
-      <c r="C391" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="D391" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A391" s="32"/>
+      <c r="B391" s="23"/>
+      <c r="C391" s="23"/>
+      <c r="D391" s="11"/>
       <c r="E391" s="24"/>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1">
@@ -9904,10 +9653,10 @@
         <v>531</v>
       </c>
       <c r="B392" s="44" t="s">
-        <v>959</v>
+        <v>921</v>
       </c>
       <c r="C392" s="44" t="s">
-        <v>960</v>
+        <v>922</v>
       </c>
       <c r="D392" s="21" t="s">
         <v>3</v>
@@ -9919,10 +9668,10 @@
         <v>532</v>
       </c>
       <c r="B393" s="44" t="s">
-        <v>961</v>
+        <v>923</v>
       </c>
       <c r="C393" s="44" t="s">
-        <v>962</v>
+        <v>924</v>
       </c>
       <c r="D393" s="21" t="s">
         <v>3</v>
@@ -9934,10 +9683,10 @@
         <v>533</v>
       </c>
       <c r="B394" s="44" t="s">
-        <v>963</v>
+        <v>925</v>
       </c>
       <c r="C394" s="44" t="s">
-        <v>964</v>
+        <v>926</v>
       </c>
       <c r="D394" s="21" t="s">
         <v>3</v>
@@ -9949,10 +9698,10 @@
         <v>534</v>
       </c>
       <c r="B395" s="44" t="s">
-        <v>965</v>
+        <v>927</v>
       </c>
       <c r="C395" s="44" t="s">
-        <v>966</v>
+        <v>928</v>
       </c>
       <c r="D395" s="21" t="s">
         <v>3</v>
@@ -9964,10 +9713,10 @@
         <v>535</v>
       </c>
       <c r="B396" s="44" t="s">
-        <v>967</v>
+        <v>929</v>
       </c>
       <c r="C396" s="44" t="s">
-        <v>968</v>
+        <v>930</v>
       </c>
       <c r="D396" s="21" t="s">
         <v>3</v>
@@ -9979,10 +9728,10 @@
         <v>536</v>
       </c>
       <c r="B397" s="44" t="s">
-        <v>969</v>
+        <v>931</v>
       </c>
       <c r="C397" s="44" t="s">
-        <v>970</v>
+        <v>932</v>
       </c>
       <c r="D397" s="21" t="s">
         <v>3</v>
@@ -9994,10 +9743,10 @@
         <v>537</v>
       </c>
       <c r="B398" s="44" t="s">
-        <v>971</v>
+        <v>933</v>
       </c>
       <c r="C398" s="44" t="s">
-        <v>972</v>
+        <v>934</v>
       </c>
       <c r="D398" s="21" t="s">
         <v>3</v>
@@ -10009,10 +9758,10 @@
         <v>538</v>
       </c>
       <c r="B399" s="44" t="s">
-        <v>973</v>
+        <v>935</v>
       </c>
       <c r="C399" s="44" t="s">
-        <v>974</v>
+        <v>936</v>
       </c>
       <c r="D399" s="21" t="s">
         <v>3</v>
@@ -10024,10 +9773,10 @@
         <v>539</v>
       </c>
       <c r="B400" s="44" t="s">
-        <v>975</v>
+        <v>937</v>
       </c>
       <c r="C400" s="44" t="s">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="D400" s="21" t="s">
         <v>3</v>
@@ -10039,10 +9788,10 @@
         <v>540</v>
       </c>
       <c r="B401" s="44" t="s">
-        <v>977</v>
+        <v>939</v>
       </c>
       <c r="C401" s="44" t="s">
-        <v>978</v>
+        <v>940</v>
       </c>
       <c r="D401" s="21" t="s">
         <v>3</v>
@@ -10054,10 +9803,10 @@
         <v>541</v>
       </c>
       <c r="B402" s="44" t="s">
-        <v>979</v>
+        <v>941</v>
       </c>
       <c r="C402" s="44" t="s">
-        <v>980</v>
+        <v>942</v>
       </c>
       <c r="D402" s="21" t="s">
         <v>3</v>
@@ -10069,10 +9818,10 @@
         <v>542</v>
       </c>
       <c r="B403" s="44" t="s">
-        <v>981</v>
+        <v>943</v>
       </c>
       <c r="C403" s="44" t="s">
-        <v>982</v>
+        <v>944</v>
       </c>
       <c r="D403" s="21" t="s">
         <v>3</v>
@@ -10084,10 +9833,10 @@
         <v>543</v>
       </c>
       <c r="B404" s="44" t="s">
-        <v>983</v>
+        <v>945</v>
       </c>
       <c r="C404" s="44" t="s">
-        <v>984</v>
+        <v>946</v>
       </c>
       <c r="D404" s="21" t="s">
         <v>3</v>
@@ -10099,10 +9848,10 @@
         <v>544</v>
       </c>
       <c r="B405" s="44" t="s">
-        <v>985</v>
+        <v>947</v>
       </c>
       <c r="C405" s="44" t="s">
-        <v>986</v>
+        <v>948</v>
       </c>
       <c r="D405" s="21" t="s">
         <v>3</v>
@@ -10110,18 +9859,10 @@
       <c r="E405" s="24"/>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A406" s="32">
-        <v>405</v>
-      </c>
-      <c r="B406" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="C406" s="36" t="s">
-        <v>669</v>
-      </c>
-      <c r="D406" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A406" s="32"/>
+      <c r="B406" s="23"/>
+      <c r="C406" s="36"/>
+      <c r="D406" s="11"/>
       <c r="E406" s="24"/>
     </row>
     <row r="407" spans="1:5" ht="15.75" customHeight="1">
@@ -10129,10 +9870,10 @@
         <v>545</v>
       </c>
       <c r="B407" s="44" t="s">
-        <v>987</v>
+        <v>949</v>
       </c>
       <c r="C407" s="44" t="s">
-        <v>988</v>
+        <v>950</v>
       </c>
       <c r="D407" s="21" t="s">
         <v>3</v>
@@ -10144,10 +9885,10 @@
         <v>546</v>
       </c>
       <c r="B408" s="44" t="s">
-        <v>989</v>
+        <v>951</v>
       </c>
       <c r="C408" s="44" t="s">
-        <v>990</v>
+        <v>952</v>
       </c>
       <c r="D408" s="21" t="s">
         <v>3</v>
@@ -10159,10 +9900,10 @@
         <v>547</v>
       </c>
       <c r="B409" s="44" t="s">
-        <v>991</v>
+        <v>953</v>
       </c>
       <c r="C409" s="44" t="s">
-        <v>992</v>
+        <v>954</v>
       </c>
       <c r="D409" s="21" t="s">
         <v>3</v>
@@ -10174,10 +9915,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="23" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="C410" s="36" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="D410" s="11" t="s">
         <v>3</v>
@@ -10185,18 +9926,10 @@
       <c r="E410" s="24"/>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A411" s="32">
-        <v>410</v>
-      </c>
-      <c r="B411" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C411" s="36" t="s">
-        <v>751</v>
-      </c>
-      <c r="D411" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A411" s="32"/>
+      <c r="B411" s="23"/>
+      <c r="C411" s="36"/>
+      <c r="D411" s="11"/>
       <c r="E411" s="24"/>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1">
@@ -10204,10 +9937,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C412" s="36" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="D412" s="11" t="s">
         <v>3</v>
@@ -10219,10 +9952,10 @@
         <v>548</v>
       </c>
       <c r="B413" s="44" t="s">
-        <v>993</v>
+        <v>955</v>
       </c>
       <c r="C413" s="44" t="s">
-        <v>994</v>
+        <v>956</v>
       </c>
       <c r="D413" s="21" t="s">
         <v>3</v>
@@ -10234,10 +9967,10 @@
         <v>549</v>
       </c>
       <c r="B414" s="44" t="s">
-        <v>995</v>
+        <v>957</v>
       </c>
       <c r="C414" s="44" t="s">
-        <v>996</v>
+        <v>958</v>
       </c>
       <c r="D414" s="21" t="s">
         <v>3</v>
@@ -10245,18 +9978,10 @@
       <c r="E414" s="24"/>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A415" s="32">
-        <v>414</v>
-      </c>
-      <c r="B415" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C415" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="D415" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A415" s="32"/>
+      <c r="B415" s="23"/>
+      <c r="C415" s="36"/>
+      <c r="D415" s="11"/>
       <c r="E415" s="24"/>
     </row>
     <row r="416" spans="1:5" ht="15.75" customHeight="1">
@@ -10264,10 +9989,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="23" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="C416" s="36" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="D416" s="11" t="s">
         <v>3</v>
@@ -10275,18 +10000,10 @@
       <c r="E416" s="24"/>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A417" s="32">
-        <v>416</v>
-      </c>
-      <c r="B417" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C417" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="D417" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A417" s="32"/>
+      <c r="B417" s="23"/>
+      <c r="C417" s="36"/>
+      <c r="D417" s="11"/>
       <c r="E417" s="24"/>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1">
@@ -10294,10 +10011,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="23" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="C418" s="36" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="D418" s="11" t="s">
         <v>3</v>
@@ -10309,10 +10026,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="C419" s="36" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="D419" s="11" t="s">
         <v>3</v>
@@ -10324,10 +10041,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="C420" s="36" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="D420" s="11" t="s">
         <v>3</v>
@@ -10339,10 +10056,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="C421" s="36" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="D421" s="11" t="s">
         <v>3</v>
@@ -10354,10 +10071,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="C422" s="23" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="D422" s="11" t="s">
         <v>3</v>
@@ -10369,10 +10086,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="C423" s="23" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="D423" s="11" t="s">
         <v>3</v>
@@ -10384,10 +10101,10 @@
         <v>550</v>
       </c>
       <c r="B424" s="44" t="s">
-        <v>997</v>
+        <v>959</v>
       </c>
       <c r="C424" s="44" t="s">
-        <v>998</v>
+        <v>960</v>
       </c>
       <c r="D424" s="21" t="s">
         <v>3</v>
@@ -10399,10 +10116,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="23" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="C425" s="36" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="D425" s="11" t="s">
         <v>3</v>
@@ -10414,10 +10131,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="23" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="C426" s="36" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="D426" s="11" t="s">
         <v>3</v>
@@ -10429,10 +10146,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="23" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="C427" s="36" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="D427" s="11" t="s">
         <v>3</v>
@@ -10444,10 +10161,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="23" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="C428" s="23" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>3</v>
@@ -10459,10 +10176,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="23" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="C429" s="23" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="D429" s="11" t="s">
         <v>3</v>
@@ -10474,10 +10191,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="26" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="C430" s="26" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="D430" s="18" t="s">
         <v>44</v>
@@ -10489,10 +10206,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="23" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="C431" s="23" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="D431" s="11" t="s">
         <v>3</v>
@@ -10504,10 +10221,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="23" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="C432" s="23" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="D432" s="11" t="s">
         <v>3</v>
@@ -10519,10 +10236,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="23" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="C433" s="23" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="D433" s="11" t="s">
         <v>3</v>
@@ -10534,10 +10251,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="23" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="C434" s="23" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="D434" s="11" t="s">
         <v>3</v>
@@ -10549,10 +10266,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="23" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="C435" s="23" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="D435" s="11" t="s">
         <v>3</v>
@@ -10564,10 +10281,10 @@
         <v>553</v>
       </c>
       <c r="B436" s="44" t="s">
-        <v>1003</v>
+        <v>965</v>
       </c>
       <c r="C436" s="44" t="s">
-        <v>1004</v>
+        <v>966</v>
       </c>
       <c r="D436" s="21" t="s">
         <v>3</v>
@@ -10579,10 +10296,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="23" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="C437" s="36" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="D437" s="11" t="s">
         <v>3</v>
@@ -10594,10 +10311,10 @@
         <v>551</v>
       </c>
       <c r="B438" s="44" t="s">
-        <v>999</v>
+        <v>961</v>
       </c>
       <c r="C438" s="44" t="s">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="D438" s="21" t="s">
         <v>3</v>
@@ -10609,10 +10326,10 @@
         <v>552</v>
       </c>
       <c r="B439" s="44" t="s">
-        <v>1001</v>
+        <v>963</v>
       </c>
       <c r="C439" s="44" t="s">
-        <v>1002</v>
+        <v>964</v>
       </c>
       <c r="D439" s="21" t="s">
         <v>3</v>
@@ -10624,10 +10341,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="23" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
       <c r="C440" s="23" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="D440" s="11" t="s">
         <v>3</v>
@@ -10639,10 +10356,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="23" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
       <c r="C441" s="23" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="D441" s="11" t="s">
         <v>3</v>
@@ -10654,10 +10371,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="23" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="C442" s="23" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="D442" s="11" t="s">
         <v>3</v>
@@ -10669,10 +10386,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="23" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="C443" s="23" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="D443" s="11" t="s">
         <v>3</v>
@@ -10680,18 +10397,10 @@
       <c r="E443" s="24"/>
     </row>
     <row r="444" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A444" s="32">
-        <v>443</v>
-      </c>
-      <c r="B444" s="23" t="s">
-        <v>803</v>
-      </c>
-      <c r="C444" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="D444" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A444" s="32"/>
+      <c r="B444" s="23"/>
+      <c r="C444" s="23"/>
+      <c r="D444" s="11"/>
       <c r="E444" s="24"/>
     </row>
     <row r="445" spans="1:5" ht="15.75" customHeight="1">
@@ -10699,10 +10408,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="23" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="C445" s="23" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="D445" s="11" t="s">
         <v>3</v>
@@ -10714,10 +10423,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="23" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="C446" s="23" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="D446" s="11" t="s">
         <v>3</v>
@@ -10729,10 +10438,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="23" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
       <c r="C447" s="23" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="D447" s="11" t="s">
         <v>3</v>
@@ -10740,18 +10449,10 @@
       <c r="E447" s="24"/>
     </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A448" s="32">
-        <v>447</v>
-      </c>
-      <c r="B448" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C448" s="23" t="s">
-        <v>810</v>
-      </c>
-      <c r="D448" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A448" s="32"/>
+      <c r="B448" s="23"/>
+      <c r="C448" s="23"/>
+      <c r="D448" s="11"/>
       <c r="E448" s="24"/>
     </row>
     <row r="449" spans="1:5" ht="15.75" customHeight="1">
@@ -10759,10 +10460,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="23" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="C449" s="23" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="D449" s="11" t="s">
         <v>3</v>
@@ -10774,10 +10475,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="23" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="C450" s="36" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="D450" s="11" t="s">
         <v>3</v>
@@ -10789,10 +10490,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="23" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="C451" s="36" t="s">
-        <v>816</v>
+        <v>789</v>
       </c>
       <c r="D451" s="11" t="s">
         <v>3</v>
@@ -10804,10 +10505,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="23" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="C452" s="36" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D452" s="11" t="s">
         <v>3</v>
@@ -10819,10 +10520,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="23" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="C453" s="23" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="D453" s="11" t="s">
         <v>3</v>
@@ -10834,10 +10535,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="C454" s="23" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="D454" s="11" t="s">
         <v>3</v>
@@ -10849,10 +10550,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="23" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="C455" s="23" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="D455" s="11" t="s">
         <v>3</v>
@@ -10864,10 +10565,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="23" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="C456" s="23" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="D456" s="11" t="s">
         <v>3</v>
@@ -10879,135 +10580,36 @@
         <v>456</v>
       </c>
       <c r="B457" s="23" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="C457" s="23" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="D457" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E457" s="24"/>
     </row>
-    <row r="458" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A458" s="32">
-        <v>457</v>
-      </c>
-      <c r="B458" s="23" t="s">
-        <v>828</v>
-      </c>
-      <c r="C458" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="D458" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E458" s="24"/>
-    </row>
-    <row r="459" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A459" s="32">
-        <v>458</v>
-      </c>
-      <c r="B459" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="C459" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="D459" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E459" s="24"/>
-    </row>
-    <row r="460" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A460" s="32">
-        <v>459</v>
-      </c>
-      <c r="B460" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="C460" s="23" t="s">
-        <v>833</v>
-      </c>
-      <c r="D460" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E460" s="24"/>
-    </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A461" s="32">
-        <v>460</v>
-      </c>
-      <c r="B461" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C461" s="23" t="s">
-        <v>834</v>
-      </c>
-      <c r="D461" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A461" s="32"/>
+      <c r="B461" s="23"/>
+      <c r="C461" s="36"/>
+      <c r="D461" s="11"/>
       <c r="E461" s="24"/>
     </row>
     <row r="462" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A462" s="32">
-        <v>461</v>
-      </c>
-      <c r="B462" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C462" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D462" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A462" s="32"/>
+      <c r="B462" s="23"/>
+      <c r="C462" s="23"/>
+      <c r="D462" s="11"/>
       <c r="E462" s="24"/>
     </row>
     <row r="463" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A463" s="32">
-        <v>462</v>
-      </c>
-      <c r="B463" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C463" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D463" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A463" s="32"/>
+      <c r="B463" s="23"/>
+      <c r="C463" s="23"/>
+      <c r="D463" s="11"/>
       <c r="E463" s="24"/>
-    </row>
-    <row r="464" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A464" s="32">
-        <v>463</v>
-      </c>
-      <c r="B464" s="23" t="s">
-        <v>835</v>
-      </c>
-      <c r="C464" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="D464" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E464" s="24"/>
-    </row>
-    <row r="465" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A465" s="32">
-        <v>464</v>
-      </c>
-      <c r="B465" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="C465" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="D465" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E465" s="24"/>
     </row>
     <row r="557" spans="1:5" ht="15.75" customHeight="1">
       <c r="A557" s="45"/>
@@ -14096,77 +13698,83 @@
     <hyperlink ref="C339" r:id="rId1" tooltip="https://apply.workable.com/gohenry/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C345" r:id="rId2" tooltip="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C232" r:id="rId3" tooltip="https://cezanneondemand.intervieweb.it/bigbustours/en/career" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C239" r:id="rId4" tooltip="https://careers.scienceinsport.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C241" r:id="rId5" tooltip="https://apply.monsoonjobs.com/search_and_apply/vacancies/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C244" r:id="rId6" tooltip="https://recruiterflow.com/e2x/jobs/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C292" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C274" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C437" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C406" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C411" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C412" r:id="rId12" location="openroles" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C415" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C416" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C420" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C419" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C425" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C426" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C427" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C452" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C451" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C450" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C410" r:id="rId23" location="ashby_embed" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C417" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C418" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C421" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C7" r:id="rId27" xr:uid="{B5BE227E-AA1E-4236-A8D8-67DE60DCF4F7}"/>
-    <hyperlink ref="C13" r:id="rId28" xr:uid="{062AE967-ABB6-4383-BB1F-E53EE89847D8}"/>
-    <hyperlink ref="C14" r:id="rId29" xr:uid="{4E80FE92-E37F-4138-AFF0-9C06022A19BF}"/>
-    <hyperlink ref="C15" r:id="rId30" xr:uid="{AD364C2F-572A-4919-A937-96CD681C7992}"/>
-    <hyperlink ref="C16" r:id="rId31" xr:uid="{E180C90B-A917-4C2A-AF90-D43A115AA202}"/>
-    <hyperlink ref="C17" r:id="rId32" xr:uid="{0E48CBEC-7D8B-43B9-99B2-8D2CC2107B2E}"/>
-    <hyperlink ref="C18" r:id="rId33" xr:uid="{BD696900-91A3-4630-986B-2BA4315972BC}"/>
-    <hyperlink ref="C20" r:id="rId34" xr:uid="{9E5E8604-34C7-4615-85E3-682609EEC593}"/>
-    <hyperlink ref="C24" r:id="rId35" xr:uid="{4E61AD1D-30CA-4A65-8676-4EDA3B17314A}"/>
-    <hyperlink ref="C25" r:id="rId36" display="https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=GB%2C%20US&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=GB%2C%20US&amp;quatFlag=false" xr:uid="{6754B49C-6AE3-4E92-BAEB-A8EE7698B2FC}"/>
-    <hyperlink ref="C26" r:id="rId37" xr:uid="{E8ED8588-9FCC-4D11-AC8F-E55C5555434D}"/>
-    <hyperlink ref="C28" r:id="rId38" xr:uid="{041A3790-5A49-4EA2-B9B2-2DD2C822951F}"/>
-    <hyperlink ref="C29" r:id="rId39" xr:uid="{397678F5-2542-42D5-BE07-035AE372F1E9}"/>
-    <hyperlink ref="C30" r:id="rId40" xr:uid="{4321DE4C-1E0C-409D-939A-8C9E1BE703B2}"/>
-    <hyperlink ref="C31" r:id="rId41" xr:uid="{BA16033E-1298-45CA-A5AA-DCEE0E6CF07E}"/>
-    <hyperlink ref="C36" r:id="rId42" xr:uid="{D2E2D573-7C0A-4BF9-8CF3-11AD6AF5F2F4}"/>
-    <hyperlink ref="C37" r:id="rId43" xr:uid="{246C51B4-16B2-40A9-9AAE-72E55F8723DE}"/>
-    <hyperlink ref="C41" r:id="rId44" location="roles" xr:uid="{1E9D7896-1BC0-4BC5-BBB5-B5D32D76D88F}"/>
-    <hyperlink ref="C43" r:id="rId45" xr:uid="{DF90F3E2-8EF9-48AF-8470-39FF0BBE2178}"/>
-    <hyperlink ref="C54" r:id="rId46" xr:uid="{943F5EE7-6968-4826-9764-621E22943A9C}"/>
-    <hyperlink ref="C55" r:id="rId47" location="jobs" xr:uid="{6F3A214B-24EB-4441-8B59-1A76C66BA626}"/>
-    <hyperlink ref="C58" r:id="rId48" xr:uid="{DE08E017-EDE0-4F49-83DA-BF6256E897EE}"/>
-    <hyperlink ref="C59" r:id="rId49" xr:uid="{D9DEAF06-4750-4F65-96A5-0EC7965DDB0B}"/>
-    <hyperlink ref="C60" r:id="rId50" xr:uid="{F585B09C-545F-4792-9528-1CB8154D0F16}"/>
-    <hyperlink ref="C62" r:id="rId51" xr:uid="{EB3D28D9-820B-4B71-BC87-8477F17837F2}"/>
-    <hyperlink ref="C63" r:id="rId52" xr:uid="{CC035D3B-7891-47E8-A758-EA6B8F8F6E86}"/>
-    <hyperlink ref="C64" r:id="rId53" xr:uid="{7F38FF71-A110-475B-BD74-EF1BD50770BF}"/>
-    <hyperlink ref="C65" r:id="rId54" xr:uid="{B14062F9-3FA9-43D9-A1D9-6856F929547D}"/>
-    <hyperlink ref="C67" r:id="rId55" xr:uid="{0F78F43C-8B18-4399-B960-FE8BC32A47A7}"/>
-    <hyperlink ref="C68" r:id="rId56" location="jobs" xr:uid="{8E21724F-93D5-4353-86F7-826B2DB577EA}"/>
-    <hyperlink ref="C71" r:id="rId57" xr:uid="{0932B10F-F8D4-4E67-860C-5A614415F477}"/>
-    <hyperlink ref="C72" r:id="rId58" xr:uid="{CBB6CE9D-7779-4938-90CD-1D55563C4CEC}"/>
-    <hyperlink ref="C73" r:id="rId59" xr:uid="{92EF842F-BAC8-4F15-9198-A186C30A983A}"/>
-    <hyperlink ref="C74" r:id="rId60" xr:uid="{3CAC1AC1-99DB-4596-A53A-45E3F6993F80}"/>
-    <hyperlink ref="C75" r:id="rId61" display="https://www.civilservicejobs.service.gov.uk/csr/index.cgi?SID=Y29udGV4dGlkPTcwNTA4NDY2Jm93bmVyPTUwNzAwMDAmb3duZXJ0eXBlPWZhaXImcGFnZWFjdGlvbj1zZWFyY2hjb250ZXh0JnBhZ2VjbGFzcz1TZWFyY2gmcmVxc2lnPTE3MDg3NjE2MzYtOGE2YWE2NzEzZjY4M2YyODgxN2YwYjAxZmM4ODAyYWFjYzRhMDQ1Yg==" xr:uid="{E9D72F81-D94C-4010-81F8-69D0D9C88CF6}"/>
-    <hyperlink ref="C76" r:id="rId62" xr:uid="{5B0737DD-A7D8-488A-967C-E100DBB2FA09}"/>
-    <hyperlink ref="C77" r:id="rId63" xr:uid="{FA46B651-DFFF-471A-B347-3C18960160EC}"/>
-    <hyperlink ref="C79" r:id="rId64" xr:uid="{5D936760-0677-41AE-905A-6DC7E08637AB}"/>
-    <hyperlink ref="C80" r:id="rId65" location="jobs" xr:uid="{70AB8763-8B99-4CC8-93FA-45367888CF45}"/>
-    <hyperlink ref="C82" r:id="rId66" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
-    <hyperlink ref="C83" r:id="rId67" xr:uid="{22FE5D2F-0678-46E0-9B2A-E172E58955AF}"/>
-    <hyperlink ref="C85" r:id="rId68" location="open-positions" xr:uid="{F6597EBB-0E37-4AC1-898A-F9C0E98F9151}"/>
-    <hyperlink ref="C92" r:id="rId69" xr:uid="{BC363531-F1E2-4578-9E80-60B380E1FD3D}"/>
-    <hyperlink ref="C95" r:id="rId70" xr:uid="{29FB69AB-23BB-4B94-8356-41A168FA4142}"/>
-    <hyperlink ref="C96" r:id="rId71" xr:uid="{2AFC9F45-2262-4C74-A7FB-0C2BD9C99031}"/>
-    <hyperlink ref="C97" r:id="rId72" xr:uid="{61B8F538-62B9-430C-8D63-4B58C460CD79}"/>
-    <hyperlink ref="C98" r:id="rId73" xr:uid="{DFDEBFBC-D2B2-4F42-B9A7-AB82320DDB41}"/>
-    <hyperlink ref="C100" r:id="rId74" xr:uid="{40D225C2-F512-45E4-BE1B-E9645222F684}"/>
+    <hyperlink ref="C241" r:id="rId4" tooltip="https://apply.monsoonjobs.com/search_and_apply/vacancies/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C244" r:id="rId5" tooltip="https://recruiterflow.com/e2x/jobs/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C292" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C274" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C437" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C412" r:id="rId9" location="openroles" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C416" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C420" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C419" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C425" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C426" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C427" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C452" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C451" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C450" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C410" r:id="rId19" location="ashby_embed" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C418" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C421" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C7" r:id="rId22" xr:uid="{B5BE227E-AA1E-4236-A8D8-67DE60DCF4F7}"/>
+    <hyperlink ref="C13" r:id="rId23" xr:uid="{062AE967-ABB6-4383-BB1F-E53EE89847D8}"/>
+    <hyperlink ref="C14" r:id="rId24" xr:uid="{4E80FE92-E37F-4138-AFF0-9C06022A19BF}"/>
+    <hyperlink ref="C15" r:id="rId25" xr:uid="{AD364C2F-572A-4919-A937-96CD681C7992}"/>
+    <hyperlink ref="C16" r:id="rId26" xr:uid="{E180C90B-A917-4C2A-AF90-D43A115AA202}"/>
+    <hyperlink ref="C17" r:id="rId27" xr:uid="{0E48CBEC-7D8B-43B9-99B2-8D2CC2107B2E}"/>
+    <hyperlink ref="C18" r:id="rId28" xr:uid="{BD696900-91A3-4630-986B-2BA4315972BC}"/>
+    <hyperlink ref="C20" r:id="rId29" xr:uid="{9E5E8604-34C7-4615-85E3-682609EEC593}"/>
+    <hyperlink ref="C24" r:id="rId30" xr:uid="{4E61AD1D-30CA-4A65-8676-4EDA3B17314A}"/>
+    <hyperlink ref="C25" r:id="rId31" display="https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=GB%2C%20US&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=GB%2C%20US&amp;quatFlag=false" xr:uid="{6754B49C-6AE3-4E92-BAEB-A8EE7698B2FC}"/>
+    <hyperlink ref="C26" r:id="rId32" xr:uid="{E8ED8588-9FCC-4D11-AC8F-E55C5555434D}"/>
+    <hyperlink ref="C28" r:id="rId33" xr:uid="{041A3790-5A49-4EA2-B9B2-2DD2C822951F}"/>
+    <hyperlink ref="C29" r:id="rId34" xr:uid="{397678F5-2542-42D5-BE07-035AE372F1E9}"/>
+    <hyperlink ref="C30" r:id="rId35" xr:uid="{4321DE4C-1E0C-409D-939A-8C9E1BE703B2}"/>
+    <hyperlink ref="C31" r:id="rId36" xr:uid="{BA16033E-1298-45CA-A5AA-DCEE0E6CF07E}"/>
+    <hyperlink ref="C36" r:id="rId37" xr:uid="{D2E2D573-7C0A-4BF9-8CF3-11AD6AF5F2F4}"/>
+    <hyperlink ref="C37" r:id="rId38" xr:uid="{246C51B4-16B2-40A9-9AAE-72E55F8723DE}"/>
+    <hyperlink ref="C41" r:id="rId39" location="roles" xr:uid="{1E9D7896-1BC0-4BC5-BBB5-B5D32D76D88F}"/>
+    <hyperlink ref="C43" r:id="rId40" xr:uid="{DF90F3E2-8EF9-48AF-8470-39FF0BBE2178}"/>
+    <hyperlink ref="C54" r:id="rId41" xr:uid="{943F5EE7-6968-4826-9764-621E22943A9C}"/>
+    <hyperlink ref="C55" r:id="rId42" location="jobs" xr:uid="{6F3A214B-24EB-4441-8B59-1A76C66BA626}"/>
+    <hyperlink ref="C58" r:id="rId43" xr:uid="{DE08E017-EDE0-4F49-83DA-BF6256E897EE}"/>
+    <hyperlink ref="C59" r:id="rId44" xr:uid="{D9DEAF06-4750-4F65-96A5-0EC7965DDB0B}"/>
+    <hyperlink ref="C60" r:id="rId45" xr:uid="{F585B09C-545F-4792-9528-1CB8154D0F16}"/>
+    <hyperlink ref="C62" r:id="rId46" xr:uid="{EB3D28D9-820B-4B71-BC87-8477F17837F2}"/>
+    <hyperlink ref="C63" r:id="rId47" xr:uid="{CC035D3B-7891-47E8-A758-EA6B8F8F6E86}"/>
+    <hyperlink ref="C64" r:id="rId48" xr:uid="{7F38FF71-A110-475B-BD74-EF1BD50770BF}"/>
+    <hyperlink ref="C65" r:id="rId49" xr:uid="{B14062F9-3FA9-43D9-A1D9-6856F929547D}"/>
+    <hyperlink ref="C67" r:id="rId50" xr:uid="{0F78F43C-8B18-4399-B960-FE8BC32A47A7}"/>
+    <hyperlink ref="C68" r:id="rId51" location="jobs" xr:uid="{8E21724F-93D5-4353-86F7-826B2DB577EA}"/>
+    <hyperlink ref="C71" r:id="rId52" xr:uid="{0932B10F-F8D4-4E67-860C-5A614415F477}"/>
+    <hyperlink ref="C72" r:id="rId53" xr:uid="{CBB6CE9D-7779-4938-90CD-1D55563C4CEC}"/>
+    <hyperlink ref="C73" r:id="rId54" xr:uid="{92EF842F-BAC8-4F15-9198-A186C30A983A}"/>
+    <hyperlink ref="C74" r:id="rId55" xr:uid="{3CAC1AC1-99DB-4596-A53A-45E3F6993F80}"/>
+    <hyperlink ref="C75" r:id="rId56" display="https://www.civilservicejobs.service.gov.uk/csr/index.cgi?SID=Y29udGV4dGlkPTcwNTA4NDY2Jm93bmVyPTUwNzAwMDAmb3duZXJ0eXBlPWZhaXImcGFnZWFjdGlvbj1zZWFyY2hjb250ZXh0JnBhZ2VjbGFzcz1TZWFyY2gmcmVxc2lnPTE3MDg3NjE2MzYtOGE2YWE2NzEzZjY4M2YyODgxN2YwYjAxZmM4ODAyYWFjYzRhMDQ1Yg==" xr:uid="{E9D72F81-D94C-4010-81F8-69D0D9C88CF6}"/>
+    <hyperlink ref="C76" r:id="rId57" xr:uid="{5B0737DD-A7D8-488A-967C-E100DBB2FA09}"/>
+    <hyperlink ref="C77" r:id="rId58" xr:uid="{FA46B651-DFFF-471A-B347-3C18960160EC}"/>
+    <hyperlink ref="C79" r:id="rId59" xr:uid="{5D936760-0677-41AE-905A-6DC7E08637AB}"/>
+    <hyperlink ref="C80" r:id="rId60" location="jobs" xr:uid="{70AB8763-8B99-4CC8-93FA-45367888CF45}"/>
+    <hyperlink ref="C85" r:id="rId61" location="open-positions" xr:uid="{F6597EBB-0E37-4AC1-898A-F9C0E98F9151}"/>
+    <hyperlink ref="C92" r:id="rId62" xr:uid="{BC363531-F1E2-4578-9E80-60B380E1FD3D}"/>
+    <hyperlink ref="C95" r:id="rId63" xr:uid="{29FB69AB-23BB-4B94-8356-41A168FA4142}"/>
+    <hyperlink ref="C97" r:id="rId64" xr:uid="{61B8F538-62B9-430C-8D63-4B58C460CD79}"/>
+    <hyperlink ref="C98" r:id="rId65" xr:uid="{DFDEBFBC-D2B2-4F42-B9A7-AB82320DDB41}"/>
+    <hyperlink ref="C100" r:id="rId66" xr:uid="{40D225C2-F512-45E4-BE1B-E9645222F684}"/>
+    <hyperlink ref="C91" r:id="rId67" xr:uid="{0FA3A57A-5A15-4AA7-8DBB-6B25E5B8E68D}"/>
+    <hyperlink ref="C93" r:id="rId68" location="/" xr:uid="{796E2DB7-596C-416C-8271-CCD814371872}"/>
+    <hyperlink ref="C89" r:id="rId69" xr:uid="{4722ADB1-A87A-4B21-AE5E-3C12914B296A}"/>
+    <hyperlink ref="C88" r:id="rId70" xr:uid="{BEA7F573-9756-4E55-BDB5-68DFD54939C2}"/>
+    <hyperlink ref="C204" r:id="rId71" xr:uid="{8363F3AD-056B-4715-B1C8-840E9F1D6148}"/>
+    <hyperlink ref="C129" r:id="rId72" xr:uid="{A015DFBF-0142-4084-9C30-287EF10C3164}"/>
+    <hyperlink ref="C390" r:id="rId73" xr:uid="{DFCF4586-F71C-43A0-8169-054405FE1474}"/>
+    <hyperlink ref="C196" r:id="rId74" xr:uid="{975DC2A2-C4A1-4A0D-B6EC-84EC285D8F48}"/>
+    <hyperlink ref="C304" r:id="rId75" xr:uid="{EFBFD4AA-89F4-464C-9A2D-131FFE72FC66}"/>
+    <hyperlink ref="C330" r:id="rId76" xr:uid="{64DDB43E-99F8-48FF-A837-E484FC97B774}"/>
+    <hyperlink ref="C33" r:id="rId77" xr:uid="{FD6299B3-AB6C-45F7-8C7F-2A8EBA842F4B}"/>
+    <hyperlink ref="C82" r:id="rId78" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
+    <hyperlink ref="C83" r:id="rId79" xr:uid="{E92F8E64-7DB5-4FE7-8465-1D9433C65BE6}"/>
+    <hyperlink ref="C96" r:id="rId80" xr:uid="{A271AB2F-0D9E-4476-B4EB-607ECDE288F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE13ECA-E0EF-4DB3-B20F-AE3F8C318025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2672CF0B-895B-4A56-B0BC-F57F1E081B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="973">
   <si>
     <t>ID</t>
   </si>
@@ -938,12 +938,6 @@
   </si>
   <si>
     <t>Reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bel uk </t>
-  </si>
-  <si>
-    <t>https://www.bel-uk.co.uk/careers-people/30-seconds-about-careers-at-bel/</t>
   </si>
   <si>
     <t xml:space="preserve">scs </t>
@@ -3670,8 +3664,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3728,7 +3722,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
@@ -3807,7 +3801,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
@@ -4220,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D31" s="60" t="s">
         <v>3</v>
@@ -4238,10 +4232,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>3</v>
@@ -4253,10 +4247,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>3</v>
@@ -4357,10 +4351,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>3</v>
@@ -4495,10 +4489,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>3</v>
@@ -5108,10 +5102,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>3</v>
@@ -5327,10 +5321,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>3</v>
@@ -5429,7 +5423,7 @@
       <c r="B102" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D102" s="11" t="s">
@@ -5492,13 +5486,13 @@
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1">
       <c r="A106" s="43">
-        <v>554</v>
+        <v>105</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>3</v>
@@ -5512,7 +5506,7 @@
       <c r="B107" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="19" t="s">
         <v>301</v>
       </c>
       <c r="D107" s="11" t="s">
@@ -5529,7 +5523,7 @@
       <c r="B108" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="19" t="s">
         <v>304</v>
       </c>
       <c r="D108" s="11" t="s">
@@ -5539,30 +5533,30 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A109" s="9">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A109" s="32">
         <v>108</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>307</v>
+      <c r="B109" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>798</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="11"/>
+      <c r="E109" s="24"/>
     </row>
     <row r="110" spans="1:5" ht="19.5" customHeight="1">
       <c r="A110" s="9">
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>307</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>3</v>
@@ -5574,10 +5568,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>309</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>3</v>
@@ -5589,10 +5583,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>3</v>
@@ -5604,10 +5598,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>3</v>
@@ -5619,10 +5613,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>3</v>
@@ -5634,10 +5628,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>3</v>
@@ -5649,10 +5643,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>3</v>
@@ -5664,10 +5658,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>3</v>
@@ -5679,10 +5673,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>3</v>
@@ -5694,10 +5688,10 @@
         <v>471</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>3</v>
@@ -5709,10 +5703,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>3</v>
@@ -5724,10 +5718,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>3</v>
@@ -5739,10 +5733,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>3</v>
@@ -5754,10 +5748,10 @@
         <v>470</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>44</v>
@@ -5769,10 +5763,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>3</v>
@@ -5784,10 +5778,10 @@
         <v>472</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>3</v>
@@ -5799,10 +5793,10 @@
         <v>473</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>3</v>
@@ -5814,10 +5808,10 @@
         <v>474</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>3</v>
@@ -5829,10 +5823,10 @@
         <v>475</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>3</v>
@@ -5844,10 +5838,10 @@
         <v>476</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>3</v>
@@ -5859,10 +5853,10 @@
         <v>477</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>3</v>
@@ -5874,10 +5868,10 @@
         <v>478</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>3</v>
@@ -5896,10 +5890,10 @@
         <v>480</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>44</v>
@@ -5911,10 +5905,10 @@
         <v>481</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>3</v>
@@ -5933,10 +5927,10 @@
         <v>483</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>3</v>
@@ -5948,10 +5942,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>3</v>
@@ -5963,10 +5957,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>44</v>
@@ -5978,10 +5972,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>3</v>
@@ -5993,10 +5987,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>3</v>
@@ -6008,10 +6002,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>3</v>
@@ -6023,10 +6017,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>3</v>
@@ -6038,10 +6032,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>3</v>
@@ -6053,10 +6047,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>3</v>
@@ -6068,10 +6062,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>3</v>
@@ -6083,10 +6077,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>3</v>
@@ -6098,10 +6092,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>3</v>
@@ -6113,10 +6107,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>3</v>
@@ -6128,10 +6122,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>44</v>
@@ -6143,10 +6137,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>3</v>
@@ -6158,10 +6152,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>3</v>
@@ -6173,10 +6167,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>3</v>
@@ -6188,10 +6182,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>3</v>
@@ -6203,10 +6197,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>3</v>
@@ -6218,10 +6212,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>3</v>
@@ -6233,10 +6227,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>3</v>
@@ -6248,10 +6242,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>3</v>
@@ -6263,10 +6257,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>3</v>
@@ -6278,10 +6272,10 @@
         <v>484</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>3</v>
@@ -6293,10 +6287,10 @@
         <v>485</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>3</v>
@@ -6308,10 +6302,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>3</v>
@@ -6323,10 +6317,10 @@
         <v>488</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>3</v>
@@ -6338,10 +6332,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>3</v>
@@ -6353,10 +6347,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>3</v>
@@ -6368,10 +6362,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>3</v>
@@ -6383,10 +6377,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>3</v>
@@ -6401,7 +6395,7 @@
         <v>131</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>3</v>
@@ -6413,10 +6407,10 @@
         <v>486</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>3</v>
@@ -6428,10 +6422,10 @@
         <v>487</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>3</v>
@@ -6443,10 +6437,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>3</v>
@@ -6458,10 +6452,10 @@
         <v>489</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>3</v>
@@ -6473,10 +6467,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>3</v>
@@ -6488,10 +6482,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>3</v>
@@ -6503,10 +6497,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>3</v>
@@ -6525,10 +6519,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>3</v>
@@ -6540,10 +6534,10 @@
         <v>490</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>3</v>
@@ -6555,10 +6549,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>3</v>
@@ -6570,10 +6564,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>3</v>
@@ -6585,10 +6579,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>3</v>
@@ -6600,10 +6594,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D181" s="11" t="s">
         <v>3</v>
@@ -6615,10 +6609,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>3</v>
@@ -6630,10 +6624,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>3</v>
@@ -6645,10 +6639,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>3</v>
@@ -6660,10 +6654,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>3</v>
@@ -6675,10 +6669,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>3</v>
@@ -6690,10 +6684,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>3</v>
@@ -6705,10 +6699,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>3</v>
@@ -6720,10 +6714,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>3</v>
@@ -6735,10 +6729,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>3</v>
@@ -6750,10 +6744,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>3</v>
@@ -6765,10 +6759,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>3</v>
@@ -6780,10 +6774,10 @@
         <v>491</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>3</v>
@@ -6802,10 +6796,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>3</v>
@@ -6817,10 +6811,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>3</v>
@@ -6832,10 +6826,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>3</v>
@@ -6847,10 +6841,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>3</v>
@@ -6862,10 +6856,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>3</v>
@@ -6877,10 +6871,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>3</v>
@@ -6892,10 +6886,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>3</v>
@@ -6907,10 +6901,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>3</v>
@@ -6929,10 +6923,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>3</v>
@@ -6944,10 +6938,10 @@
         <v>493</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>3</v>
@@ -6959,10 +6953,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>3</v>
@@ -6974,10 +6968,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>3</v>
@@ -6989,10 +6983,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>3</v>
@@ -7004,10 +6998,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D209" s="11" t="s">
         <v>3</v>
@@ -7026,10 +7020,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>3</v>
@@ -7041,10 +7035,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D212" s="11" t="s">
         <v>3</v>
@@ -7056,10 +7050,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>3</v>
@@ -7071,10 +7065,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>3</v>
@@ -7086,10 +7080,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>3</v>
@@ -7101,10 +7095,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>3</v>
@@ -7116,10 +7110,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D217" s="11" t="s">
         <v>3</v>
@@ -7131,10 +7125,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>3</v>
@@ -7146,10 +7140,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>3</v>
@@ -7161,10 +7155,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>3</v>
@@ -7176,10 +7170,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>3</v>
@@ -7191,10 +7185,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>3</v>
@@ -7206,10 +7200,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>3</v>
@@ -7221,10 +7215,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>3</v>
@@ -7236,10 +7230,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>3</v>
@@ -7251,10 +7245,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>3</v>
@@ -7266,10 +7260,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>3</v>
@@ -7281,10 +7275,10 @@
         <v>494</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>3</v>
@@ -7296,10 +7290,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>3</v>
@@ -7311,10 +7305,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>3</v>
@@ -7326,10 +7320,10 @@
         <v>495</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>3</v>
@@ -7341,10 +7335,10 @@
         <v>496</v>
       </c>
       <c r="B232" s="37" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>3</v>
@@ -7356,10 +7350,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>3</v>
@@ -7371,10 +7365,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>3</v>
@@ -7393,10 +7387,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D236" s="11" t="s">
         <v>3</v>
@@ -7408,10 +7402,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D237" s="11" t="s">
         <v>3</v>
@@ -7423,10 +7417,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D238" s="11" t="s">
         <v>3</v>
@@ -7445,10 +7439,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D240" s="11" t="s">
         <v>3</v>
@@ -7460,10 +7454,10 @@
         <v>498</v>
       </c>
       <c r="B241" s="37" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>3</v>
@@ -7475,10 +7469,10 @@
         <v>555</v>
       </c>
       <c r="B242" s="44" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C242" s="44" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D242" s="21" t="s">
         <v>3</v>
@@ -7490,10 +7484,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D243" s="18" t="s">
         <v>44</v>
@@ -7505,10 +7499,10 @@
         <v>500</v>
       </c>
       <c r="B244" s="39" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C244" s="40" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D244" s="21" t="s">
         <v>3</v>
@@ -7520,10 +7514,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D245" s="11" t="s">
         <v>3</v>
@@ -7535,10 +7529,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D246" s="11" t="s">
         <v>3</v>
@@ -7550,10 +7544,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D247" s="11" t="s">
         <v>3</v>
@@ -7565,10 +7559,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>3</v>
@@ -7580,10 +7574,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>3</v>
@@ -7595,10 +7589,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D250" s="11" t="s">
         <v>3</v>
@@ -7610,10 +7604,10 @@
         <v>501</v>
       </c>
       <c r="B251" s="42" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D251" s="18" t="s">
         <v>44</v>
@@ -7625,10 +7619,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D252" s="11" t="s">
         <v>3</v>
@@ -7640,10 +7634,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D253" s="11" t="s">
         <v>3</v>
@@ -7655,10 +7649,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>3</v>
@@ -7670,10 +7664,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D255" s="11" t="s">
         <v>3</v>
@@ -7685,10 +7679,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D256" s="11" t="s">
         <v>3</v>
@@ -7700,10 +7694,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D257" s="11" t="s">
         <v>3</v>
@@ -7715,10 +7709,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D258" s="11" t="s">
         <v>3</v>
@@ -7730,10 +7724,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D259" s="11" t="s">
         <v>3</v>
@@ -7745,10 +7739,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D260" s="11" t="s">
         <v>3</v>
@@ -7760,10 +7754,10 @@
         <v>502</v>
       </c>
       <c r="B261" s="44" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C261" s="44" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D261" s="21" t="s">
         <v>3</v>
@@ -7775,10 +7769,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D262" s="11" t="s">
         <v>3</v>
@@ -7790,10 +7784,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D263" s="11" t="s">
         <v>3</v>
@@ -7805,10 +7799,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D264" s="11" t="s">
         <v>3</v>
@@ -7820,10 +7814,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>3</v>
@@ -7835,10 +7829,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>3</v>
@@ -7850,10 +7844,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D267" s="11" t="s">
         <v>3</v>
@@ -7865,10 +7859,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D268" s="11" t="s">
         <v>3</v>
@@ -7880,10 +7874,10 @@
         <v>503</v>
       </c>
       <c r="B269" s="44" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C269" s="44" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D269" s="21" t="s">
         <v>3</v>
@@ -7895,10 +7889,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D270" s="11" t="s">
         <v>3</v>
@@ -7910,10 +7904,10 @@
         <v>504</v>
       </c>
       <c r="B271" s="44" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C271" s="44" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D271" s="21" t="s">
         <v>3</v>
@@ -7925,10 +7919,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D272" s="11" t="s">
         <v>3</v>
@@ -7940,10 +7934,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D273" s="11" t="s">
         <v>3</v>
@@ -7955,10 +7949,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D274" s="11" t="s">
         <v>3</v>
@@ -7970,10 +7964,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>3</v>
@@ -7985,10 +7979,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D276" s="11" t="s">
         <v>3</v>
@@ -8000,10 +7994,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D277" s="11" t="s">
         <v>3</v>
@@ -8015,10 +8009,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D278" s="11" t="s">
         <v>3</v>
@@ -8030,10 +8024,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C279" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D279" s="11" t="s">
         <v>3</v>
@@ -8045,10 +8039,10 @@
         <v>505</v>
       </c>
       <c r="B280" s="44" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D280" s="21" t="s">
         <v>3</v>
@@ -8060,10 +8054,10 @@
         <v>506</v>
       </c>
       <c r="B281" s="44" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>3</v>
@@ -8075,10 +8069,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C282" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D282" s="11" t="s">
         <v>3</v>
@@ -8090,10 +8084,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>44</v>
@@ -8105,10 +8099,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>3</v>
@@ -8120,10 +8114,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>3</v>
@@ -8135,10 +8129,10 @@
         <v>507</v>
       </c>
       <c r="B286" s="44" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C286" s="44" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D286" s="21" t="s">
         <v>3</v>
@@ -8150,10 +8144,10 @@
         <v>508</v>
       </c>
       <c r="B287" s="44" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C287" s="44" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D287" s="21" t="s">
         <v>3</v>
@@ -8165,10 +8159,10 @@
         <v>509</v>
       </c>
       <c r="B288" s="44" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C288" s="44" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D288" s="21" t="s">
         <v>3</v>
@@ -8180,10 +8174,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C289" s="26" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>44</v>
@@ -8195,10 +8189,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D290" s="11" t="s">
         <v>3</v>
@@ -8210,10 +8204,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D291" s="18" t="s">
         <v>44</v>
@@ -8225,10 +8219,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C292" s="31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D292" s="18" t="s">
         <v>44</v>
@@ -8240,10 +8234,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D293" s="11" t="s">
         <v>3</v>
@@ -8255,10 +8249,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D294" s="11" t="s">
         <v>3</v>
@@ -8270,10 +8264,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C295" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D295" s="11" t="s">
         <v>3</v>
@@ -8285,10 +8279,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D296" s="11" t="s">
         <v>3</v>
@@ -8300,10 +8294,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D297" s="11" t="s">
         <v>3</v>
@@ -8315,10 +8309,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>3</v>
@@ -8330,10 +8324,10 @@
         <v>510</v>
       </c>
       <c r="B299" s="44" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C299" s="44" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D299" s="21" t="s">
         <v>3</v>
@@ -8345,10 +8339,10 @@
         <v>511</v>
       </c>
       <c r="B300" s="44" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C300" s="44" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D300" s="21" t="s">
         <v>3</v>
@@ -8360,10 +8354,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D301" s="11" t="s">
         <v>3</v>
@@ -8375,10 +8369,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D302" s="11" t="s">
         <v>3</v>
@@ -8390,10 +8384,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D303" s="11" t="s">
         <v>3</v>
@@ -8405,10 +8399,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C304" s="36" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>3</v>
@@ -8420,10 +8414,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>3</v>
@@ -8435,10 +8429,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D306" s="11" t="s">
         <v>3</v>
@@ -8450,10 +8444,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D307" s="18" t="s">
         <v>44</v>
@@ -8465,10 +8459,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D308" s="11" t="s">
         <v>3</v>
@@ -8480,10 +8474,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>3</v>
@@ -8495,10 +8489,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>3</v>
@@ -8510,10 +8504,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D311" s="11" t="s">
         <v>3</v>
@@ -8525,10 +8519,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D312" s="11" t="s">
         <v>3</v>
@@ -8540,10 +8534,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D313" s="11" t="s">
         <v>3</v>
@@ -8555,10 +8549,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D314" s="11" t="s">
         <v>3</v>
@@ -8577,10 +8571,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D316" s="11" t="s">
         <v>3</v>
@@ -8592,10 +8586,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D317" s="11" t="s">
         <v>3</v>
@@ -8607,10 +8601,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D318" s="11" t="s">
         <v>3</v>
@@ -8622,10 +8616,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D319" s="11" t="s">
         <v>3</v>
@@ -8644,10 +8638,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C321" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>3</v>
@@ -8659,10 +8653,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>3</v>
@@ -8674,10 +8668,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D323" s="11" t="s">
         <v>3</v>
@@ -8689,10 +8683,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C324" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D324" s="11" t="s">
         <v>3</v>
@@ -8704,10 +8698,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C325" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D325" s="11" t="s">
         <v>3</v>
@@ -8719,10 +8713,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D326" s="11" t="s">
         <v>3</v>
@@ -8734,10 +8728,10 @@
         <v>513</v>
       </c>
       <c r="B327" s="44" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D327" s="21" t="s">
         <v>3</v>
@@ -8749,10 +8743,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D328" s="11" t="s">
         <v>3</v>
@@ -8764,10 +8758,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D329" s="11" t="s">
         <v>3</v>
@@ -8779,10 +8773,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C330" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>3</v>
@@ -8794,10 +8788,10 @@
         <v>514</v>
       </c>
       <c r="B331" s="44" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C331" s="44" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D331" s="21" t="s">
         <v>3</v>
@@ -8809,10 +8803,10 @@
         <v>515</v>
       </c>
       <c r="B332" s="44" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C332" s="44" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D332" s="21" t="s">
         <v>3</v>
@@ -8824,10 +8818,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C333" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>3</v>
@@ -8839,10 +8833,10 @@
         <v>516</v>
       </c>
       <c r="B334" s="44" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C334" s="44" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>3</v>
@@ -8854,10 +8848,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D335" s="11" t="s">
         <v>3</v>
@@ -8869,10 +8863,10 @@
         <v>517</v>
       </c>
       <c r="B336" s="44" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C336" s="44" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D336" s="21" t="s">
         <v>3</v>
@@ -8884,10 +8878,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C337" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>3</v>
@@ -8899,10 +8893,10 @@
         <v>518</v>
       </c>
       <c r="B338" s="44" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C338" s="44" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D338" s="21" t="s">
         <v>3</v>
@@ -8914,10 +8908,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C339" s="35" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D339" s="11" t="s">
         <v>3</v>
@@ -8929,10 +8923,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D340" s="11" t="s">
         <v>3</v>
@@ -8944,10 +8938,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D341" s="11" t="s">
         <v>3</v>
@@ -8959,10 +8953,10 @@
         <v>519</v>
       </c>
       <c r="B342" s="44" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C342" s="44" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D342" s="21" t="s">
         <v>3</v>
@@ -8974,10 +8968,10 @@
         <v>520</v>
       </c>
       <c r="B343" s="44" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C343" s="44" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D343" s="21" t="s">
         <v>3</v>
@@ -8989,10 +8983,10 @@
         <v>521</v>
       </c>
       <c r="B344" s="44" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C344" s="44" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D344" s="21" t="s">
         <v>3</v>
@@ -9004,10 +8998,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C345" s="35" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D345" s="11" t="s">
         <v>3</v>
@@ -9019,10 +9013,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D346" s="11" t="s">
         <v>3</v>
@@ -9034,10 +9028,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D347" s="11" t="s">
         <v>3</v>
@@ -9049,10 +9043,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D348" s="11" t="s">
         <v>3</v>
@@ -9064,10 +9058,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D349" s="11" t="s">
         <v>3</v>
@@ -9079,10 +9073,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D350" s="11" t="s">
         <v>3</v>
@@ -9094,10 +9088,10 @@
         <v>522</v>
       </c>
       <c r="B351" s="44" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C351" s="44" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D351" s="21" t="s">
         <v>3</v>
@@ -9109,10 +9103,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D352" s="11" t="s">
         <v>3</v>
@@ -9124,10 +9118,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>3</v>
@@ -9139,10 +9133,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>3</v>
@@ -9154,10 +9148,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>3</v>
@@ -9169,10 +9163,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>3</v>
@@ -9184,10 +9178,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>3</v>
@@ -9199,10 +9193,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>3</v>
@@ -9214,10 +9208,10 @@
         <v>523</v>
       </c>
       <c r="B359" s="44" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C359" s="44" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D359" s="21" t="s">
         <v>3</v>
@@ -9229,10 +9223,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D360" s="11" t="s">
         <v>3</v>
@@ -9244,10 +9238,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D361" s="11" t="s">
         <v>3</v>
@@ -9259,10 +9253,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D362" s="11" t="s">
         <v>3</v>
@@ -9274,10 +9268,10 @@
         <v>524</v>
       </c>
       <c r="B363" s="44" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C363" s="44" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>3</v>
@@ -9289,10 +9283,10 @@
         <v>525</v>
       </c>
       <c r="B364" s="44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C364" s="44" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>3</v>
@@ -9304,10 +9298,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="23" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D365" s="11" t="s">
         <v>3</v>
@@ -9319,10 +9313,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D366" s="11" t="s">
         <v>3</v>
@@ -9341,10 +9335,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D368" s="11" t="s">
         <v>3</v>
@@ -9363,10 +9357,10 @@
         <v>526</v>
       </c>
       <c r="B370" s="44" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>3</v>
@@ -9385,10 +9379,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D372" s="11" t="s">
         <v>3</v>
@@ -9400,10 +9394,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D373" s="11" t="s">
         <v>3</v>
@@ -9415,10 +9409,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D374" s="11" t="s">
         <v>3</v>
@@ -9430,10 +9424,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D375" s="11" t="s">
         <v>3</v>
@@ -9445,10 +9439,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D376" s="11" t="s">
         <v>3</v>
@@ -9460,10 +9454,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D377" s="11" t="s">
         <v>3</v>
@@ -9475,10 +9469,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>3</v>
@@ -9497,10 +9491,10 @@
         <v>528</v>
       </c>
       <c r="B380" s="44" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D380" s="21" t="s">
         <v>3</v>
@@ -9512,10 +9506,10 @@
         <v>529</v>
       </c>
       <c r="B381" s="44" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D381" s="21" t="s">
         <v>3</v>
@@ -9527,10 +9521,10 @@
         <v>530</v>
       </c>
       <c r="B382" s="44" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D382" s="21" t="s">
         <v>3</v>
@@ -9542,10 +9536,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="23" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D383" s="11" t="s">
         <v>3</v>
@@ -9557,10 +9551,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="23" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D384" s="11" t="s">
         <v>3</v>
@@ -9572,10 +9566,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="23" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C385" s="23" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D385" s="11" t="s">
         <v>3</v>
@@ -9587,10 +9581,10 @@
         <v>527</v>
       </c>
       <c r="B386" s="44" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D386" s="21" t="s">
         <v>3</v>
@@ -9609,10 +9603,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="23" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D388" s="11" t="s">
         <v>3</v>
@@ -9631,10 +9625,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C390" s="36" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D390" s="11" t="s">
         <v>3</v>
@@ -9653,10 +9647,10 @@
         <v>531</v>
       </c>
       <c r="B392" s="44" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C392" s="44" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D392" s="21" t="s">
         <v>3</v>
@@ -9668,10 +9662,10 @@
         <v>532</v>
       </c>
       <c r="B393" s="44" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C393" s="44" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D393" s="21" t="s">
         <v>3</v>
@@ -9683,10 +9677,10 @@
         <v>533</v>
       </c>
       <c r="B394" s="44" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C394" s="44" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D394" s="21" t="s">
         <v>3</v>
@@ -9698,10 +9692,10 @@
         <v>534</v>
       </c>
       <c r="B395" s="44" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C395" s="44" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D395" s="21" t="s">
         <v>3</v>
@@ -9713,10 +9707,10 @@
         <v>535</v>
       </c>
       <c r="B396" s="44" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C396" s="44" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D396" s="21" t="s">
         <v>3</v>
@@ -9728,10 +9722,10 @@
         <v>536</v>
       </c>
       <c r="B397" s="44" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C397" s="44" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D397" s="21" t="s">
         <v>3</v>
@@ -9743,10 +9737,10 @@
         <v>537</v>
       </c>
       <c r="B398" s="44" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C398" s="44" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D398" s="21" t="s">
         <v>3</v>
@@ -9758,10 +9752,10 @@
         <v>538</v>
       </c>
       <c r="B399" s="44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C399" s="44" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D399" s="21" t="s">
         <v>3</v>
@@ -9773,10 +9767,10 @@
         <v>539</v>
       </c>
       <c r="B400" s="44" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C400" s="44" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D400" s="21" t="s">
         <v>3</v>
@@ -9788,10 +9782,10 @@
         <v>540</v>
       </c>
       <c r="B401" s="44" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C401" s="44" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D401" s="21" t="s">
         <v>3</v>
@@ -9803,10 +9797,10 @@
         <v>541</v>
       </c>
       <c r="B402" s="44" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C402" s="44" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D402" s="21" t="s">
         <v>3</v>
@@ -9818,10 +9812,10 @@
         <v>542</v>
       </c>
       <c r="B403" s="44" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C403" s="44" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D403" s="21" t="s">
         <v>3</v>
@@ -9833,10 +9827,10 @@
         <v>543</v>
       </c>
       <c r="B404" s="44" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C404" s="44" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D404" s="21" t="s">
         <v>3</v>
@@ -9848,10 +9842,10 @@
         <v>544</v>
       </c>
       <c r="B405" s="44" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C405" s="44" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D405" s="21" t="s">
         <v>3</v>
@@ -9870,10 +9864,10 @@
         <v>545</v>
       </c>
       <c r="B407" s="44" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C407" s="44" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D407" s="21" t="s">
         <v>3</v>
@@ -9885,10 +9879,10 @@
         <v>546</v>
       </c>
       <c r="B408" s="44" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C408" s="44" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D408" s="21" t="s">
         <v>3</v>
@@ -9900,10 +9894,10 @@
         <v>547</v>
       </c>
       <c r="B409" s="44" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C409" s="44" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D409" s="21" t="s">
         <v>3</v>
@@ -9915,10 +9909,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="23" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C410" s="36" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D410" s="11" t="s">
         <v>3</v>
@@ -9937,10 +9931,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C412" s="36" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D412" s="11" t="s">
         <v>3</v>
@@ -9952,10 +9946,10 @@
         <v>548</v>
       </c>
       <c r="B413" s="44" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C413" s="44" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D413" s="21" t="s">
         <v>3</v>
@@ -9967,10 +9961,10 @@
         <v>549</v>
       </c>
       <c r="B414" s="44" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C414" s="44" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D414" s="21" t="s">
         <v>3</v>
@@ -9989,10 +9983,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C416" s="36" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D416" s="11" t="s">
         <v>3</v>
@@ -10011,10 +10005,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C418" s="36" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D418" s="11" t="s">
         <v>3</v>
@@ -10026,10 +10020,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C419" s="36" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D419" s="11" t="s">
         <v>3</v>
@@ -10041,10 +10035,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C420" s="36" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D420" s="11" t="s">
         <v>3</v>
@@ -10056,10 +10050,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C421" s="36" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D421" s="11" t="s">
         <v>3</v>
@@ -10071,10 +10065,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C422" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D422" s="11" t="s">
         <v>3</v>
@@ -10086,10 +10080,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C423" s="23" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D423" s="11" t="s">
         <v>3</v>
@@ -10101,10 +10095,10 @@
         <v>550</v>
       </c>
       <c r="B424" s="44" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C424" s="44" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D424" s="21" t="s">
         <v>3</v>
@@ -10116,10 +10110,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C425" s="36" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D425" s="11" t="s">
         <v>3</v>
@@ -10131,10 +10125,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C426" s="36" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D426" s="11" t="s">
         <v>3</v>
@@ -10146,10 +10140,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="23" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C427" s="36" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D427" s="11" t="s">
         <v>3</v>
@@ -10161,10 +10155,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C428" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>3</v>
@@ -10176,10 +10170,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="23" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C429" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D429" s="11" t="s">
         <v>3</v>
@@ -10191,10 +10185,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="26" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C430" s="26" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D430" s="18" t="s">
         <v>44</v>
@@ -10206,10 +10200,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C431" s="23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D431" s="11" t="s">
         <v>3</v>
@@ -10221,10 +10215,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C432" s="23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D432" s="11" t="s">
         <v>3</v>
@@ -10236,10 +10230,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="23" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C433" s="23" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D433" s="11" t="s">
         <v>3</v>
@@ -10251,10 +10245,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C434" s="23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D434" s="11" t="s">
         <v>3</v>
@@ -10266,10 +10260,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C435" s="23" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D435" s="11" t="s">
         <v>3</v>
@@ -10281,10 +10275,10 @@
         <v>553</v>
       </c>
       <c r="B436" s="44" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C436" s="44" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D436" s="21" t="s">
         <v>3</v>
@@ -10296,10 +10290,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C437" s="36" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D437" s="11" t="s">
         <v>3</v>
@@ -10311,10 +10305,10 @@
         <v>551</v>
       </c>
       <c r="B438" s="44" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C438" s="44" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D438" s="21" t="s">
         <v>3</v>
@@ -10326,10 +10320,10 @@
         <v>552</v>
       </c>
       <c r="B439" s="44" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C439" s="44" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D439" s="21" t="s">
         <v>3</v>
@@ -10341,10 +10335,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="23" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C440" s="23" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D440" s="11" t="s">
         <v>3</v>
@@ -10356,10 +10350,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="23" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C441" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D441" s="11" t="s">
         <v>3</v>
@@ -10371,10 +10365,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C442" s="23" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D442" s="11" t="s">
         <v>3</v>
@@ -10386,10 +10380,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="23" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C443" s="23" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D443" s="11" t="s">
         <v>3</v>
@@ -10408,10 +10402,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="23" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C445" s="23" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D445" s="11" t="s">
         <v>3</v>
@@ -10423,10 +10417,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="23" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C446" s="23" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D446" s="11" t="s">
         <v>3</v>
@@ -10438,10 +10432,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="23" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C447" s="23" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D447" s="11" t="s">
         <v>3</v>
@@ -10460,10 +10454,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="23" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C449" s="23" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D449" s="11" t="s">
         <v>3</v>
@@ -10475,10 +10469,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C450" s="36" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D450" s="11" t="s">
         <v>3</v>
@@ -10490,10 +10484,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="23" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C451" s="36" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D451" s="11" t="s">
         <v>3</v>
@@ -10505,10 +10499,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="23" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C452" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D452" s="11" t="s">
         <v>3</v>
@@ -10520,10 +10514,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="23" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C453" s="23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D453" s="11" t="s">
         <v>3</v>
@@ -10535,10 +10529,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C454" s="23" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D454" s="11" t="s">
         <v>3</v>
@@ -10550,10 +10544,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="23" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C455" s="23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D455" s="11" t="s">
         <v>3</v>
@@ -10565,30 +10559,15 @@
         <v>455</v>
       </c>
       <c r="B456" s="23" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C456" s="23" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D456" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E456" s="24"/>
-    </row>
-    <row r="457" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A457" s="32">
-        <v>456</v>
-      </c>
-      <c r="B457" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="C457" s="23" t="s">
-        <v>800</v>
-      </c>
-      <c r="D457" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E457" s="24"/>
     </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1">
       <c r="A461" s="32"/>
@@ -13775,6 +13754,12 @@
     <hyperlink ref="C82" r:id="rId78" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
     <hyperlink ref="C83" r:id="rId79" xr:uid="{E92F8E64-7DB5-4FE7-8465-1D9433C65BE6}"/>
     <hyperlink ref="C96" r:id="rId80" xr:uid="{A271AB2F-0D9E-4476-B4EB-607ECDE288F2}"/>
+    <hyperlink ref="C102" r:id="rId81" xr:uid="{E1FC5A6F-7878-4B2D-AA8A-719BE8D457C8}"/>
+    <hyperlink ref="C107" r:id="rId82" xr:uid="{8EA31F9B-B234-419B-9A34-DB1B2DF732C2}"/>
+    <hyperlink ref="C108" r:id="rId83" xr:uid="{D328A223-BF86-43CA-BCD3-E58AE228ECDE}"/>
+    <hyperlink ref="C109" r:id="rId84" xr:uid="{DB89B959-1210-4DDC-AD40-2E1FCD249C01}"/>
+    <hyperlink ref="C110" r:id="rId85" xr:uid="{BA74430D-8BBF-4BF8-9BD4-F9471689D705}"/>
+    <hyperlink ref="C111" r:id="rId86" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE" xr:uid="{60375166-175F-4134-90CC-73D9CAA6B106}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2672CF0B-895B-4A56-B0BC-F57F1E081B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C705629-232B-4FBB-80E0-D91751AA8425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="955">
   <si>
     <t>ID</t>
   </si>
@@ -952,12 +952,6 @@
     <t>https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE</t>
   </si>
   <si>
-    <t>venture life</t>
-  </si>
-  <si>
-    <t>https://www.venture-life.com/open-positions/</t>
-  </si>
-  <si>
     <t>biscuiteers</t>
   </si>
   <si>
@@ -1024,15 +1018,9 @@
     <t>AlixPartners</t>
   </si>
   <si>
-    <t>https://www.alixpartners.com/careers/search-jobs/</t>
-  </si>
-  <si>
     <t>MunichRe</t>
   </si>
   <si>
-    <t>https://munichre-jobs.com/en/MunichRe?filter[company.id]=[1,2,3,4,5,6,7,8,9,27,29,31,32,33,51,52,53,54,55,56,57,59,60,61,62,63,64,28,69,70,71,68,72]</t>
-  </si>
-  <si>
     <t>Fenergo</t>
   </si>
   <si>
@@ -1048,9 +1036,6 @@
     <t>Droit</t>
   </si>
   <si>
-    <t>https://droit.tech/careers/</t>
-  </si>
-  <si>
     <t>ThoughtWorks</t>
   </si>
   <si>
@@ -1063,24 +1048,6 @@
     <t>https://www.alantra.com/careers/apply/</t>
   </si>
   <si>
-    <t>Jillion</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/jillionpay/</t>
-  </si>
-  <si>
-    <t>Pinebridge Investments</t>
-  </si>
-  <si>
-    <t>https://pinebridge.wd5.myworkdayjobs.com/PineBridge_Career_Site</t>
-  </si>
-  <si>
-    <t>H3dge</t>
-  </si>
-  <si>
-    <t>https://h3dge.com/</t>
-  </si>
-  <si>
     <t>Arbuthnot Latham</t>
   </si>
   <si>
@@ -1093,12 +1060,6 @@
     <t>https://apply.workable.com/starling-bank/#jobs</t>
   </si>
   <si>
-    <t>Kixy</t>
-  </si>
-  <si>
-    <t>https://www.kixy.com/careers</t>
-  </si>
-  <si>
     <t>Invesco</t>
   </si>
   <si>
@@ -2356,12 +2317,6 @@
     <t>https://symphony.com/company/careers/</t>
   </si>
   <si>
-    <t>Global Block</t>
-  </si>
-  <si>
-    <t>https://www.globalblock.eu/careers</t>
-  </si>
-  <si>
     <t>Supercharge</t>
   </si>
   <si>
@@ -2374,18 +2329,6 @@
     <t>https://impact.com/careers/#global-opportunities</t>
   </si>
   <si>
-    <t>Hazy</t>
-  </si>
-  <si>
-    <t>https://hazy.com/careers</t>
-  </si>
-  <si>
-    <t>Profusion Media Ltd</t>
-  </si>
-  <si>
-    <t>https://profusion.com/careers</t>
-  </si>
-  <si>
     <t>Workspace Management</t>
   </si>
   <si>
@@ -2404,15 +2347,6 @@
     <t>City Fibre</t>
   </si>
   <si>
-    <t>https://cityfibre.com/careers</t>
-  </si>
-  <si>
-    <t>Growth HQ</t>
-  </si>
-  <si>
-    <t>https://www.growth-hq.co/careers</t>
-  </si>
-  <si>
     <t>Treecard Holdings Inc</t>
   </si>
   <si>
@@ -2464,9 +2398,6 @@
     <t>V7</t>
   </si>
   <si>
-    <t>https://www.v7labs.com/careers#job-openings</t>
-  </si>
-  <si>
     <t>City of London Corporation</t>
   </si>
   <si>
@@ -2939,6 +2870,21 @@
   </si>
   <si>
     <t>NEXT 15</t>
+  </si>
+  <si>
+    <t>https://cityfibre.com/careers/all-jobs</t>
+  </si>
+  <si>
+    <t>https://www.v7labs.com/careers</t>
+  </si>
+  <si>
+    <t>https://www.alixpartners.com/careers/job-search/</t>
+  </si>
+  <si>
+    <t>https://munichre-jobs.com/en/MunichRe</t>
+  </si>
+  <si>
+    <t>https://droit.tech/careers/open-positions/</t>
   </si>
 </sst>
 </file>
@@ -3198,7 +3144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3354,6 +3300,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3664,8 +3615,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3722,7 +3673,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
@@ -3801,7 +3752,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
@@ -4214,10 +4165,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="D31" s="60" t="s">
         <v>3</v>
@@ -4232,10 +4183,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>3</v>
@@ -4247,10 +4198,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>3</v>
@@ -4351,10 +4302,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>3</v>
@@ -4489,10 +4440,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>3</v>
@@ -5102,10 +5053,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>3</v>
@@ -5321,10 +5272,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>3</v>
@@ -5489,10 +5440,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>3</v>
@@ -5538,10 +5489,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>3</v>
@@ -5578,30 +5529,30 @@
       </c>
       <c r="E111" s="11"/>
     </row>
-    <row r="112" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A112" s="9">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A112" s="32">
         <v>111</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>311</v>
+      <c r="B112" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>950</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="11"/>
+      <c r="E112" s="24"/>
     </row>
     <row r="113" spans="1:5" ht="19.5" customHeight="1">
       <c r="A113" s="9">
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>3</v>
@@ -5613,10 +5564,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>313</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>3</v>
@@ -5628,10 +5579,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>3</v>
@@ -5643,10 +5594,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>3</v>
@@ -5658,10 +5609,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>3</v>
@@ -5673,10 +5624,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>3</v>
@@ -5685,13 +5636,13 @@
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1">
       <c r="A119" s="32">
-        <v>471</v>
+        <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>813</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>814</v>
+        <v>791</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>951</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>3</v>
@@ -5703,10 +5654,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>3</v>
@@ -5718,10 +5669,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>3</v>
@@ -5733,40 +5684,40 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="11"/>
     </row>
-    <row r="123" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A123" s="30">
-        <v>470</v>
-      </c>
-      <c r="B123" s="26" t="s">
-        <v>811</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>812</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" s="27"/>
+    <row r="123" spans="1:5" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A123" s="32">
+        <v>122</v>
+      </c>
+      <c r="B123" s="65" t="s">
+        <v>789</v>
+      </c>
+      <c r="C123" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="D123" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="63"/>
     </row>
     <row r="124" spans="1:5" ht="19.5" customHeight="1">
       <c r="A124" s="9">
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>3</v>
@@ -5775,13 +5726,13 @@
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1">
       <c r="A125" s="32">
-        <v>472</v>
+        <v>124</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>815</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>816</v>
+        <v>792</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>793</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>3</v>
@@ -5790,13 +5741,13 @@
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1">
       <c r="A126" s="32">
-        <v>473</v>
+        <v>125</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>3</v>
@@ -5805,13 +5756,13 @@
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1">
       <c r="A127" s="32">
-        <v>474</v>
+        <v>126</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>818</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>819</v>
+        <v>795</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>796</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>3</v>
@@ -5820,13 +5771,13 @@
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1">
       <c r="A128" s="32">
-        <v>475</v>
+        <v>127</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>820</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>821</v>
+        <v>797</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>798</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>3</v>
@@ -5835,13 +5786,13 @@
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1">
       <c r="A129" s="32">
-        <v>476</v>
+        <v>128</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>3</v>
@@ -5850,13 +5801,13 @@
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1">
       <c r="A130" s="32">
-        <v>477</v>
+        <v>129</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>396</v>
+        <v>801</v>
+      </c>
+      <c r="C130" s="36" t="s">
+        <v>383</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>3</v>
@@ -5865,13 +5816,13 @@
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1">
       <c r="A131" s="32">
-        <v>478</v>
+        <v>130</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>3</v>
@@ -5879,36 +5830,44 @@
       <c r="E131" s="24"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A132" s="32"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="11"/>
+      <c r="A132" s="32">
+        <v>131</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="E132" s="24"/>
     </row>
-    <row r="133" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A133" s="30">
-        <v>480</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>827</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>828</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E133" s="27"/>
+    <row r="133" spans="1:5" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A133" s="32">
+        <v>132</v>
+      </c>
+      <c r="B133" s="65" t="s">
+        <v>804</v>
+      </c>
+      <c r="C133" s="66" t="s">
+        <v>805</v>
+      </c>
+      <c r="D133" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="63"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1">
       <c r="A134" s="32">
-        <v>481</v>
+        <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>3</v>
@@ -5916,21 +5875,29 @@
       <c r="E134" s="24"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A135" s="32"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="32">
+        <v>134</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="E135" s="24"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1">
       <c r="A136" s="32">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>832</v>
+        <v>808</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>809</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>3</v>
@@ -5942,40 +5909,40 @@
         <v>136</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>952</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A138" s="16">
+    <row r="138" spans="1:5" s="53" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A138" s="9">
         <v>137</v>
       </c>
-      <c r="B138" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="D138" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E138" s="18"/>
+      <c r="B138" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" s="58" t="s">
+        <v>953</v>
+      </c>
+      <c r="D138" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="59"/>
     </row>
     <row r="139" spans="1:5" ht="19.5" customHeight="1">
       <c r="A139" s="9">
         <v>138</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>3</v>
@@ -5987,10 +5954,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>3</v>
@@ -6002,10 +5969,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>954</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>3</v>
@@ -6017,10 +5984,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>344</v>
+        <v>338</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>3</v>
@@ -6032,70 +5999,70 @@
         <v>142</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="11"/>
     </row>
-    <row r="144" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A144" s="9">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A144" s="32">
         <v>143</v>
       </c>
-      <c r="B144" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>348</v>
+      <c r="B144" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E144" s="11"/>
-    </row>
-    <row r="145" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A145" s="9">
+      <c r="E144" s="24"/>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A145" s="32">
         <v>144</v>
       </c>
-      <c r="B145" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>350</v>
+      <c r="B145" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>768</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="11"/>
-    </row>
-    <row r="146" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A146" s="9">
+      <c r="E145" s="24"/>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A146" s="32">
         <v>145</v>
       </c>
-      <c r="B146" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>352</v>
+      <c r="B146" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>766</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E146" s="11"/>
+      <c r="E146" s="24"/>
     </row>
     <row r="147" spans="1:5" ht="19.5" customHeight="1">
       <c r="A147" s="9">
         <v>146</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>3</v>
@@ -6107,40 +6074,40 @@
         <v>147</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>356</v>
+        <v>344</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="11"/>
     </row>
-    <row r="149" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A149" s="16">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A149" s="32">
         <v>148</v>
       </c>
-      <c r="B149" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" s="18"/>
+      <c r="B149" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="24"/>
     </row>
     <row r="150" spans="1:5" ht="19.5" customHeight="1">
       <c r="A150" s="9">
         <v>149</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>3</v>
@@ -6152,10 +6119,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>362</v>
+        <v>348</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>3</v>
@@ -6167,10 +6134,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>3</v>
@@ -6182,10 +6149,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>3</v>
@@ -6197,10 +6164,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>3</v>
@@ -6212,10 +6179,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>3</v>
@@ -6227,10 +6194,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>3</v>
@@ -6242,10 +6209,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>3</v>
@@ -6257,10 +6224,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>3</v>
@@ -6272,10 +6239,10 @@
         <v>484</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>3</v>
@@ -6287,10 +6254,10 @@
         <v>485</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>3</v>
@@ -6302,10 +6269,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>3</v>
@@ -6317,10 +6284,10 @@
         <v>488</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>3</v>
@@ -6332,10 +6299,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>3</v>
@@ -6347,10 +6314,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>3</v>
@@ -6362,10 +6329,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>3</v>
@@ -6377,10 +6344,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>3</v>
@@ -6395,7 +6362,7 @@
         <v>131</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>3</v>
@@ -6407,10 +6374,10 @@
         <v>486</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>3</v>
@@ -6422,10 +6389,10 @@
         <v>487</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>3</v>
@@ -6437,10 +6404,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>3</v>
@@ -6452,10 +6419,10 @@
         <v>489</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>3</v>
@@ -6467,10 +6434,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>3</v>
@@ -6482,10 +6449,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>3</v>
@@ -6497,10 +6464,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>3</v>
@@ -6519,10 +6486,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>3</v>
@@ -6534,10 +6501,10 @@
         <v>490</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>3</v>
@@ -6549,10 +6516,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>3</v>
@@ -6564,10 +6531,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>3</v>
@@ -6579,10 +6546,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>3</v>
@@ -6594,10 +6561,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D181" s="11" t="s">
         <v>3</v>
@@ -6609,10 +6576,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>3</v>
@@ -6624,10 +6591,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>3</v>
@@ -6639,10 +6606,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>3</v>
@@ -6654,10 +6621,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>3</v>
@@ -6669,10 +6636,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>3</v>
@@ -6684,10 +6651,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>3</v>
@@ -6699,10 +6666,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>3</v>
@@ -6714,10 +6681,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>3</v>
@@ -6729,10 +6696,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>3</v>
@@ -6744,10 +6711,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>3</v>
@@ -6759,10 +6726,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>3</v>
@@ -6774,10 +6741,10 @@
         <v>491</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>3</v>
@@ -6796,10 +6763,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>3</v>
@@ -6811,10 +6778,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>3</v>
@@ -6826,10 +6793,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>3</v>
@@ -6841,10 +6808,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>3</v>
@@ -6856,10 +6823,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>3</v>
@@ -6871,10 +6838,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>3</v>
@@ -6886,10 +6853,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>3</v>
@@ -6901,10 +6868,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>3</v>
@@ -6923,10 +6890,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>3</v>
@@ -6938,10 +6905,10 @@
         <v>493</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>3</v>
@@ -6953,10 +6920,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>3</v>
@@ -6968,10 +6935,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>3</v>
@@ -6983,10 +6950,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>3</v>
@@ -6998,10 +6965,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D209" s="11" t="s">
         <v>3</v>
@@ -7020,10 +6987,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>3</v>
@@ -7035,10 +7002,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D212" s="11" t="s">
         <v>3</v>
@@ -7050,10 +7017,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>3</v>
@@ -7065,10 +7032,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>3</v>
@@ -7080,10 +7047,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>3</v>
@@ -7095,10 +7062,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>3</v>
@@ -7110,10 +7077,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D217" s="11" t="s">
         <v>3</v>
@@ -7125,10 +7092,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>3</v>
@@ -7140,10 +7107,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>3</v>
@@ -7155,10 +7122,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>3</v>
@@ -7170,10 +7137,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>3</v>
@@ -7185,10 +7152,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>3</v>
@@ -7200,10 +7167,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>3</v>
@@ -7215,10 +7182,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>3</v>
@@ -7230,10 +7197,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>3</v>
@@ -7245,10 +7212,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>3</v>
@@ -7260,10 +7227,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>3</v>
@@ -7275,10 +7242,10 @@
         <v>494</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>3</v>
@@ -7290,10 +7257,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>3</v>
@@ -7305,10 +7272,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>3</v>
@@ -7320,10 +7287,10 @@
         <v>495</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>3</v>
@@ -7335,10 +7302,10 @@
         <v>496</v>
       </c>
       <c r="B232" s="37" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>3</v>
@@ -7350,10 +7317,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>3</v>
@@ -7365,10 +7332,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>3</v>
@@ -7387,10 +7354,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D236" s="11" t="s">
         <v>3</v>
@@ -7402,10 +7369,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D237" s="11" t="s">
         <v>3</v>
@@ -7417,10 +7384,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D238" s="11" t="s">
         <v>3</v>
@@ -7439,10 +7406,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D240" s="11" t="s">
         <v>3</v>
@@ -7454,10 +7421,10 @@
         <v>498</v>
       </c>
       <c r="B241" s="37" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>3</v>
@@ -7469,10 +7436,10 @@
         <v>555</v>
       </c>
       <c r="B242" s="44" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="C242" s="44" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="D242" s="21" t="s">
         <v>3</v>
@@ -7484,10 +7451,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D243" s="18" t="s">
         <v>44</v>
@@ -7499,10 +7466,10 @@
         <v>500</v>
       </c>
       <c r="B244" s="39" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="C244" s="40" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="D244" s="21" t="s">
         <v>3</v>
@@ -7514,10 +7481,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D245" s="11" t="s">
         <v>3</v>
@@ -7529,10 +7496,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D246" s="11" t="s">
         <v>3</v>
@@ -7544,10 +7511,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D247" s="11" t="s">
         <v>3</v>
@@ -7559,10 +7526,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>3</v>
@@ -7574,10 +7541,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>3</v>
@@ -7589,10 +7556,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D250" s="11" t="s">
         <v>3</v>
@@ -7604,10 +7571,10 @@
         <v>501</v>
       </c>
       <c r="B251" s="42" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
       <c r="D251" s="18" t="s">
         <v>44</v>
@@ -7619,10 +7586,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D252" s="11" t="s">
         <v>3</v>
@@ -7634,10 +7601,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D253" s="11" t="s">
         <v>3</v>
@@ -7649,10 +7616,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>3</v>
@@ -7664,10 +7631,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D255" s="11" t="s">
         <v>3</v>
@@ -7679,10 +7646,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="D256" s="11" t="s">
         <v>3</v>
@@ -7694,10 +7661,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D257" s="11" t="s">
         <v>3</v>
@@ -7709,10 +7676,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D258" s="11" t="s">
         <v>3</v>
@@ -7724,10 +7691,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D259" s="11" t="s">
         <v>3</v>
@@ -7739,10 +7706,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D260" s="11" t="s">
         <v>3</v>
@@ -7754,10 +7721,10 @@
         <v>502</v>
       </c>
       <c r="B261" s="44" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="C261" s="44" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="D261" s="21" t="s">
         <v>3</v>
@@ -7769,10 +7736,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D262" s="11" t="s">
         <v>3</v>
@@ -7784,10 +7751,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="D263" s="11" t="s">
         <v>3</v>
@@ -7799,10 +7766,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D264" s="11" t="s">
         <v>3</v>
@@ -7814,10 +7781,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>3</v>
@@ -7829,10 +7796,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>3</v>
@@ -7844,10 +7811,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D267" s="11" t="s">
         <v>3</v>
@@ -7859,10 +7826,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D268" s="11" t="s">
         <v>3</v>
@@ -7874,10 +7841,10 @@
         <v>503</v>
       </c>
       <c r="B269" s="44" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="C269" s="44" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="D269" s="21" t="s">
         <v>3</v>
@@ -7889,10 +7856,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D270" s="11" t="s">
         <v>3</v>
@@ -7904,10 +7871,10 @@
         <v>504</v>
       </c>
       <c r="B271" s="44" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="C271" s="44" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="D271" s="21" t="s">
         <v>3</v>
@@ -7919,10 +7886,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D272" s="11" t="s">
         <v>3</v>
@@ -7934,10 +7901,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="D273" s="11" t="s">
         <v>3</v>
@@ -7949,10 +7916,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="D274" s="11" t="s">
         <v>3</v>
@@ -7964,10 +7931,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>3</v>
@@ -7979,10 +7946,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D276" s="11" t="s">
         <v>3</v>
@@ -7994,10 +7961,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="D277" s="11" t="s">
         <v>3</v>
@@ -8009,10 +7976,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D278" s="11" t="s">
         <v>3</v>
@@ -8024,10 +7991,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C279" s="23" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="D279" s="11" t="s">
         <v>3</v>
@@ -8039,10 +8006,10 @@
         <v>505</v>
       </c>
       <c r="B280" s="44" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="D280" s="21" t="s">
         <v>3</v>
@@ -8054,10 +8021,10 @@
         <v>506</v>
       </c>
       <c r="B281" s="44" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>3</v>
@@ -8069,10 +8036,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C282" s="23" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="D282" s="11" t="s">
         <v>3</v>
@@ -8084,10 +8051,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>44</v>
@@ -8099,10 +8066,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>3</v>
@@ -8114,10 +8081,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>3</v>
@@ -8129,10 +8096,10 @@
         <v>507</v>
       </c>
       <c r="B286" s="44" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
       <c r="C286" s="44" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
       <c r="D286" s="21" t="s">
         <v>3</v>
@@ -8144,10 +8111,10 @@
         <v>508</v>
       </c>
       <c r="B287" s="44" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="C287" s="44" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="D287" s="21" t="s">
         <v>3</v>
@@ -8159,10 +8126,10 @@
         <v>509</v>
       </c>
       <c r="B288" s="44" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="C288" s="44" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
       <c r="D288" s="21" t="s">
         <v>3</v>
@@ -8174,10 +8141,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="C289" s="26" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>44</v>
@@ -8189,10 +8156,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="D290" s="11" t="s">
         <v>3</v>
@@ -8204,10 +8171,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D291" s="18" t="s">
         <v>44</v>
@@ -8219,10 +8186,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C292" s="31" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="D292" s="18" t="s">
         <v>44</v>
@@ -8234,10 +8201,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="D293" s="11" t="s">
         <v>3</v>
@@ -8249,10 +8216,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D294" s="11" t="s">
         <v>3</v>
@@ -8264,10 +8231,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C295" s="23" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="D295" s="11" t="s">
         <v>3</v>
@@ -8279,10 +8246,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="D296" s="11" t="s">
         <v>3</v>
@@ -8294,10 +8261,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="D297" s="11" t="s">
         <v>3</v>
@@ -8309,10 +8276,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>3</v>
@@ -8324,10 +8291,10 @@
         <v>510</v>
       </c>
       <c r="B299" s="44" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="C299" s="44" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="D299" s="21" t="s">
         <v>3</v>
@@ -8339,10 +8306,10 @@
         <v>511</v>
       </c>
       <c r="B300" s="44" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="C300" s="44" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="D300" s="21" t="s">
         <v>3</v>
@@ -8354,10 +8321,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D301" s="11" t="s">
         <v>3</v>
@@ -8369,10 +8336,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="D302" s="11" t="s">
         <v>3</v>
@@ -8384,10 +8351,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="D303" s="11" t="s">
         <v>3</v>
@@ -8399,10 +8366,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C304" s="36" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>3</v>
@@ -8414,10 +8381,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>3</v>
@@ -8429,10 +8396,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D306" s="11" t="s">
         <v>3</v>
@@ -8444,10 +8411,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="D307" s="18" t="s">
         <v>44</v>
@@ -8459,10 +8426,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="D308" s="11" t="s">
         <v>3</v>
@@ -8474,10 +8441,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>3</v>
@@ -8489,10 +8456,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>3</v>
@@ -8504,10 +8471,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="D311" s="11" t="s">
         <v>3</v>
@@ -8519,10 +8486,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D312" s="11" t="s">
         <v>3</v>
@@ -8534,10 +8501,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D313" s="11" t="s">
         <v>3</v>
@@ -8549,10 +8516,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="D314" s="11" t="s">
         <v>3</v>
@@ -8571,10 +8538,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="D316" s="11" t="s">
         <v>3</v>
@@ -8586,10 +8553,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="D317" s="11" t="s">
         <v>3</v>
@@ -8601,10 +8568,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D318" s="11" t="s">
         <v>3</v>
@@ -8616,10 +8583,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="D319" s="11" t="s">
         <v>3</v>
@@ -8638,10 +8605,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C321" s="23" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>3</v>
@@ -8653,10 +8620,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>3</v>
@@ -8668,10 +8635,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="D323" s="11" t="s">
         <v>3</v>
@@ -8683,10 +8650,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C324" s="23" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D324" s="11" t="s">
         <v>3</v>
@@ -8698,10 +8665,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C325" s="23" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D325" s="11" t="s">
         <v>3</v>
@@ -8713,10 +8680,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="D326" s="11" t="s">
         <v>3</v>
@@ -8728,10 +8695,10 @@
         <v>513</v>
       </c>
       <c r="B327" s="44" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="D327" s="21" t="s">
         <v>3</v>
@@ -8743,10 +8710,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D328" s="11" t="s">
         <v>3</v>
@@ -8758,10 +8725,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D329" s="11" t="s">
         <v>3</v>
@@ -8773,10 +8740,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C330" s="36" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>3</v>
@@ -8788,10 +8755,10 @@
         <v>514</v>
       </c>
       <c r="B331" s="44" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="C331" s="44" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="D331" s="21" t="s">
         <v>3</v>
@@ -8803,10 +8770,10 @@
         <v>515</v>
       </c>
       <c r="B332" s="44" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="C332" s="44" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
       <c r="D332" s="21" t="s">
         <v>3</v>
@@ -8818,10 +8785,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C333" s="23" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>3</v>
@@ -8833,10 +8800,10 @@
         <v>516</v>
       </c>
       <c r="B334" s="44" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="C334" s="44" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>3</v>
@@ -8848,10 +8815,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D335" s="11" t="s">
         <v>3</v>
@@ -8863,10 +8830,10 @@
         <v>517</v>
       </c>
       <c r="B336" s="44" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
       <c r="C336" s="44" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="D336" s="21" t="s">
         <v>3</v>
@@ -8878,10 +8845,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C337" s="23" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>3</v>
@@ -8893,10 +8860,10 @@
         <v>518</v>
       </c>
       <c r="B338" s="44" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="C338" s="44" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="D338" s="21" t="s">
         <v>3</v>
@@ -8908,10 +8875,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="C339" s="35" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="D339" s="11" t="s">
         <v>3</v>
@@ -8923,10 +8890,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="D340" s="11" t="s">
         <v>3</v>
@@ -8938,10 +8905,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="D341" s="11" t="s">
         <v>3</v>
@@ -8953,10 +8920,10 @@
         <v>519</v>
       </c>
       <c r="B342" s="44" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
       <c r="C342" s="44" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
       <c r="D342" s="21" t="s">
         <v>3</v>
@@ -8968,10 +8935,10 @@
         <v>520</v>
       </c>
       <c r="B343" s="44" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
       <c r="C343" s="44" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
       <c r="D343" s="21" t="s">
         <v>3</v>
@@ -8983,10 +8950,10 @@
         <v>521</v>
       </c>
       <c r="B344" s="44" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="C344" s="44" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
       <c r="D344" s="21" t="s">
         <v>3</v>
@@ -8998,10 +8965,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="C345" s="35" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="D345" s="11" t="s">
         <v>3</v>
@@ -9013,10 +8980,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="D346" s="11" t="s">
         <v>3</v>
@@ -9028,10 +8995,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="D347" s="11" t="s">
         <v>3</v>
@@ -9043,10 +9010,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="D348" s="11" t="s">
         <v>3</v>
@@ -9058,10 +9025,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="D349" s="11" t="s">
         <v>3</v>
@@ -9073,10 +9040,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D350" s="11" t="s">
         <v>3</v>
@@ -9088,10 +9055,10 @@
         <v>522</v>
       </c>
       <c r="B351" s="44" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="C351" s="44" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="D351" s="21" t="s">
         <v>3</v>
@@ -9103,10 +9070,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="D352" s="11" t="s">
         <v>3</v>
@@ -9118,10 +9085,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>3</v>
@@ -9133,10 +9100,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>3</v>
@@ -9148,10 +9115,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>3</v>
@@ -9163,10 +9130,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>3</v>
@@ -9178,10 +9145,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>3</v>
@@ -9193,10 +9160,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>3</v>
@@ -9208,10 +9175,10 @@
         <v>523</v>
       </c>
       <c r="B359" s="44" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
       <c r="C359" s="44" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
       <c r="D359" s="21" t="s">
         <v>3</v>
@@ -9223,10 +9190,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D360" s="11" t="s">
         <v>3</v>
@@ -9238,10 +9205,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="D361" s="11" t="s">
         <v>3</v>
@@ -9253,10 +9220,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="D362" s="11" t="s">
         <v>3</v>
@@ -9268,10 +9235,10 @@
         <v>524</v>
       </c>
       <c r="B363" s="44" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
       <c r="C363" s="44" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>3</v>
@@ -9283,10 +9250,10 @@
         <v>525</v>
       </c>
       <c r="B364" s="44" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="C364" s="44" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>3</v>
@@ -9298,10 +9265,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="23" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="D365" s="11" t="s">
         <v>3</v>
@@ -9313,10 +9280,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="D366" s="11" t="s">
         <v>3</v>
@@ -9335,10 +9302,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="D368" s="11" t="s">
         <v>3</v>
@@ -9357,10 +9324,10 @@
         <v>526</v>
       </c>
       <c r="B370" s="44" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>3</v>
@@ -9379,10 +9346,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="D372" s="11" t="s">
         <v>3</v>
@@ -9394,10 +9361,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="D373" s="11" t="s">
         <v>3</v>
@@ -9409,10 +9376,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="D374" s="11" t="s">
         <v>3</v>
@@ -9424,10 +9391,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="D375" s="11" t="s">
         <v>3</v>
@@ -9439,10 +9406,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="D376" s="11" t="s">
         <v>3</v>
@@ -9454,10 +9421,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D377" s="11" t="s">
         <v>3</v>
@@ -9469,10 +9436,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>3</v>
@@ -9491,10 +9458,10 @@
         <v>528</v>
       </c>
       <c r="B380" s="44" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
       <c r="D380" s="21" t="s">
         <v>3</v>
@@ -9506,10 +9473,10 @@
         <v>529</v>
       </c>
       <c r="B381" s="44" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="D381" s="21" t="s">
         <v>3</v>
@@ -9521,10 +9488,10 @@
         <v>530</v>
       </c>
       <c r="B382" s="44" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="D382" s="21" t="s">
         <v>3</v>
@@ -9536,10 +9503,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="23" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="D383" s="11" t="s">
         <v>3</v>
@@ -9551,10 +9518,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="23" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D384" s="11" t="s">
         <v>3</v>
@@ -9566,10 +9533,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="23" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="C385" s="23" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="D385" s="11" t="s">
         <v>3</v>
@@ -9581,10 +9548,10 @@
         <v>527</v>
       </c>
       <c r="B386" s="44" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="D386" s="21" t="s">
         <v>3</v>
@@ -9603,10 +9570,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="23" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D388" s="11" t="s">
         <v>3</v>
@@ -9625,10 +9592,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C390" s="36" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="D390" s="11" t="s">
         <v>3</v>
@@ -9647,10 +9614,10 @@
         <v>531</v>
       </c>
       <c r="B392" s="44" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="C392" s="44" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="D392" s="21" t="s">
         <v>3</v>
@@ -9662,10 +9629,10 @@
         <v>532</v>
       </c>
       <c r="B393" s="44" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="C393" s="44" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="D393" s="21" t="s">
         <v>3</v>
@@ -9677,10 +9644,10 @@
         <v>533</v>
       </c>
       <c r="B394" s="44" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="C394" s="44" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="D394" s="21" t="s">
         <v>3</v>
@@ -9692,10 +9659,10 @@
         <v>534</v>
       </c>
       <c r="B395" s="44" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="C395" s="44" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="D395" s="21" t="s">
         <v>3</v>
@@ -9707,10 +9674,10 @@
         <v>535</v>
       </c>
       <c r="B396" s="44" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="C396" s="44" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
       <c r="D396" s="21" t="s">
         <v>3</v>
@@ -9722,10 +9689,10 @@
         <v>536</v>
       </c>
       <c r="B397" s="44" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="C397" s="44" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="D397" s="21" t="s">
         <v>3</v>
@@ -9737,10 +9704,10 @@
         <v>537</v>
       </c>
       <c r="B398" s="44" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="C398" s="44" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="D398" s="21" t="s">
         <v>3</v>
@@ -9752,10 +9719,10 @@
         <v>538</v>
       </c>
       <c r="B399" s="44" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
       <c r="C399" s="44" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
       <c r="D399" s="21" t="s">
         <v>3</v>
@@ -9767,10 +9734,10 @@
         <v>539</v>
       </c>
       <c r="B400" s="44" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="C400" s="44" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="D400" s="21" t="s">
         <v>3</v>
@@ -9782,10 +9749,10 @@
         <v>540</v>
       </c>
       <c r="B401" s="44" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
       <c r="C401" s="44" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
       <c r="D401" s="21" t="s">
         <v>3</v>
@@ -9797,10 +9764,10 @@
         <v>541</v>
       </c>
       <c r="B402" s="44" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="C402" s="44" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="D402" s="21" t="s">
         <v>3</v>
@@ -9812,10 +9779,10 @@
         <v>542</v>
       </c>
       <c r="B403" s="44" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="C403" s="44" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="D403" s="21" t="s">
         <v>3</v>
@@ -9827,10 +9794,10 @@
         <v>543</v>
       </c>
       <c r="B404" s="44" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="C404" s="44" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="D404" s="21" t="s">
         <v>3</v>
@@ -9842,10 +9809,10 @@
         <v>544</v>
       </c>
       <c r="B405" s="44" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="C405" s="44" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="D405" s="21" t="s">
         <v>3</v>
@@ -9864,10 +9831,10 @@
         <v>545</v>
       </c>
       <c r="B407" s="44" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="C407" s="44" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="D407" s="21" t="s">
         <v>3</v>
@@ -9879,10 +9846,10 @@
         <v>546</v>
       </c>
       <c r="B408" s="44" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="C408" s="44" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="D408" s="21" t="s">
         <v>3</v>
@@ -9894,10 +9861,10 @@
         <v>547</v>
       </c>
       <c r="B409" s="44" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
       <c r="C409" s="44" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
       <c r="D409" s="21" t="s">
         <v>3</v>
@@ -9909,10 +9876,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="23" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C410" s="36" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D410" s="11" t="s">
         <v>3</v>
@@ -9931,10 +9898,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C412" s="36" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="D412" s="11" t="s">
         <v>3</v>
@@ -9946,10 +9913,10 @@
         <v>548</v>
       </c>
       <c r="B413" s="44" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="C413" s="44" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="D413" s="21" t="s">
         <v>3</v>
@@ -9961,10 +9928,10 @@
         <v>549</v>
       </c>
       <c r="B414" s="44" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="C414" s="44" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="D414" s="21" t="s">
         <v>3</v>
@@ -9983,10 +9950,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="23" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C416" s="36" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D416" s="11" t="s">
         <v>3</v>
@@ -10005,10 +9972,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="23" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="C418" s="36" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="D418" s="11" t="s">
         <v>3</v>
@@ -10020,10 +9987,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C419" s="36" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="D419" s="11" t="s">
         <v>3</v>
@@ -10035,10 +10002,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="C420" s="36" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="D420" s="11" t="s">
         <v>3</v>
@@ -10050,10 +10017,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="C421" s="36" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="D421" s="11" t="s">
         <v>3</v>
@@ -10065,10 +10032,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C422" s="23" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="D422" s="11" t="s">
         <v>3</v>
@@ -10080,10 +10047,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="C423" s="23" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D423" s="11" t="s">
         <v>3</v>
@@ -10095,10 +10062,10 @@
         <v>550</v>
       </c>
       <c r="B424" s="44" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="C424" s="44" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="D424" s="21" t="s">
         <v>3</v>
@@ -10110,10 +10077,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="23" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C425" s="36" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="D425" s="11" t="s">
         <v>3</v>
@@ -10125,10 +10092,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="23" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C426" s="36" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="D426" s="11" t="s">
         <v>3</v>
@@ -10140,10 +10107,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="23" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C427" s="36" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="D427" s="11" t="s">
         <v>3</v>
@@ -10155,10 +10122,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="23" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="C428" s="23" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>3</v>
@@ -10170,10 +10137,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="23" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="C429" s="23" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D429" s="11" t="s">
         <v>3</v>
@@ -10185,10 +10152,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="26" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="C430" s="26" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="D430" s="18" t="s">
         <v>44</v>
@@ -10200,10 +10167,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="23" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="C431" s="23" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="D431" s="11" t="s">
         <v>3</v>
@@ -10215,10 +10182,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="23" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C432" s="23" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D432" s="11" t="s">
         <v>3</v>
@@ -10230,10 +10197,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="23" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C433" s="23" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="D433" s="11" t="s">
         <v>3</v>
@@ -10245,10 +10212,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="23" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="C434" s="23" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="D434" s="11" t="s">
         <v>3</v>
@@ -10260,10 +10227,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="23" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C435" s="23" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="D435" s="11" t="s">
         <v>3</v>
@@ -10275,10 +10242,10 @@
         <v>553</v>
       </c>
       <c r="B436" s="44" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="C436" s="44" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="D436" s="21" t="s">
         <v>3</v>
@@ -10290,10 +10257,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="23" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="C437" s="36" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="D437" s="11" t="s">
         <v>3</v>
@@ -10305,10 +10272,10 @@
         <v>551</v>
       </c>
       <c r="B438" s="44" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="C438" s="44" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
       <c r="D438" s="21" t="s">
         <v>3</v>
@@ -10320,10 +10287,10 @@
         <v>552</v>
       </c>
       <c r="B439" s="44" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="C439" s="44" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="D439" s="21" t="s">
         <v>3</v>
@@ -10335,10 +10302,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="23" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="C440" s="23" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="D440" s="11" t="s">
         <v>3</v>
@@ -10350,10 +10317,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="23" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="C441" s="23" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="D441" s="11" t="s">
         <v>3</v>
@@ -10365,10 +10332,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="23" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="C442" s="23" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="D442" s="11" t="s">
         <v>3</v>
@@ -10380,10 +10347,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="23" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C443" s="23" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="D443" s="11" t="s">
         <v>3</v>
@@ -10397,177 +10364,12 @@
       <c r="D444" s="11"/>
       <c r="E444" s="24"/>
     </row>
-    <row r="445" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A445" s="32">
-        <v>444</v>
-      </c>
-      <c r="B445" s="23" t="s">
-        <v>776</v>
-      </c>
-      <c r="C445" s="23" t="s">
-        <v>777</v>
-      </c>
-      <c r="D445" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E445" s="24"/>
-    </row>
-    <row r="446" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A446" s="32">
-        <v>445</v>
-      </c>
-      <c r="B446" s="23" t="s">
-        <v>778</v>
-      </c>
-      <c r="C446" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="D446" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E446" s="24"/>
-    </row>
-    <row r="447" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A447" s="32">
-        <v>446</v>
-      </c>
-      <c r="B447" s="23" t="s">
-        <v>780</v>
-      </c>
-      <c r="C447" s="23" t="s">
-        <v>781</v>
-      </c>
-      <c r="D447" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E447" s="24"/>
-    </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1">
       <c r="A448" s="32"/>
       <c r="B448" s="23"/>
       <c r="C448" s="23"/>
       <c r="D448" s="11"/>
       <c r="E448" s="24"/>
-    </row>
-    <row r="449" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A449" s="32">
-        <v>448</v>
-      </c>
-      <c r="B449" s="23" t="s">
-        <v>782</v>
-      </c>
-      <c r="C449" s="23" t="s">
-        <v>783</v>
-      </c>
-      <c r="D449" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E449" s="24"/>
-    </row>
-    <row r="450" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A450" s="32">
-        <v>449</v>
-      </c>
-      <c r="B450" s="23" t="s">
-        <v>784</v>
-      </c>
-      <c r="C450" s="36" t="s">
-        <v>785</v>
-      </c>
-      <c r="D450" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E450" s="24"/>
-    </row>
-    <row r="451" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A451" s="32">
-        <v>450</v>
-      </c>
-      <c r="B451" s="23" t="s">
-        <v>786</v>
-      </c>
-      <c r="C451" s="36" t="s">
-        <v>787</v>
-      </c>
-      <c r="D451" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E451" s="24"/>
-    </row>
-    <row r="452" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A452" s="32">
-        <v>451</v>
-      </c>
-      <c r="B452" s="23" t="s">
-        <v>788</v>
-      </c>
-      <c r="C452" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="D452" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E452" s="24"/>
-    </row>
-    <row r="453" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A453" s="32">
-        <v>452</v>
-      </c>
-      <c r="B453" s="23" t="s">
-        <v>789</v>
-      </c>
-      <c r="C453" s="23" t="s">
-        <v>790</v>
-      </c>
-      <c r="D453" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E453" s="24"/>
-    </row>
-    <row r="454" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A454" s="32">
-        <v>453</v>
-      </c>
-      <c r="B454" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="C454" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="D454" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E454" s="24"/>
-    </row>
-    <row r="455" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A455" s="32">
-        <v>454</v>
-      </c>
-      <c r="B455" s="23" t="s">
-        <v>793</v>
-      </c>
-      <c r="C455" s="23" t="s">
-        <v>794</v>
-      </c>
-      <c r="D455" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E455" s="24"/>
-    </row>
-    <row r="456" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A456" s="32">
-        <v>455</v>
-      </c>
-      <c r="B456" s="23" t="s">
-        <v>795</v>
-      </c>
-      <c r="C456" s="23" t="s">
-        <v>796</v>
-      </c>
-      <c r="D456" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E456" s="24"/>
     </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1">
       <c r="A461" s="32"/>
@@ -13689,77 +13491,100 @@
     <hyperlink ref="C425" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="C426" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="C427" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C452" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C451" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C450" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C410" r:id="rId19" location="ashby_embed" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C418" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C421" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C7" r:id="rId22" xr:uid="{B5BE227E-AA1E-4236-A8D8-67DE60DCF4F7}"/>
-    <hyperlink ref="C13" r:id="rId23" xr:uid="{062AE967-ABB6-4383-BB1F-E53EE89847D8}"/>
-    <hyperlink ref="C14" r:id="rId24" xr:uid="{4E80FE92-E37F-4138-AFF0-9C06022A19BF}"/>
-    <hyperlink ref="C15" r:id="rId25" xr:uid="{AD364C2F-572A-4919-A937-96CD681C7992}"/>
-    <hyperlink ref="C16" r:id="rId26" xr:uid="{E180C90B-A917-4C2A-AF90-D43A115AA202}"/>
-    <hyperlink ref="C17" r:id="rId27" xr:uid="{0E48CBEC-7D8B-43B9-99B2-8D2CC2107B2E}"/>
-    <hyperlink ref="C18" r:id="rId28" xr:uid="{BD696900-91A3-4630-986B-2BA4315972BC}"/>
-    <hyperlink ref="C20" r:id="rId29" xr:uid="{9E5E8604-34C7-4615-85E3-682609EEC593}"/>
-    <hyperlink ref="C24" r:id="rId30" xr:uid="{4E61AD1D-30CA-4A65-8676-4EDA3B17314A}"/>
-    <hyperlink ref="C25" r:id="rId31" display="https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=GB%2C%20US&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=GB%2C%20US&amp;quatFlag=false" xr:uid="{6754B49C-6AE3-4E92-BAEB-A8EE7698B2FC}"/>
-    <hyperlink ref="C26" r:id="rId32" xr:uid="{E8ED8588-9FCC-4D11-AC8F-E55C5555434D}"/>
-    <hyperlink ref="C28" r:id="rId33" xr:uid="{041A3790-5A49-4EA2-B9B2-2DD2C822951F}"/>
-    <hyperlink ref="C29" r:id="rId34" xr:uid="{397678F5-2542-42D5-BE07-035AE372F1E9}"/>
-    <hyperlink ref="C30" r:id="rId35" xr:uid="{4321DE4C-1E0C-409D-939A-8C9E1BE703B2}"/>
-    <hyperlink ref="C31" r:id="rId36" xr:uid="{BA16033E-1298-45CA-A5AA-DCEE0E6CF07E}"/>
-    <hyperlink ref="C36" r:id="rId37" xr:uid="{D2E2D573-7C0A-4BF9-8CF3-11AD6AF5F2F4}"/>
-    <hyperlink ref="C37" r:id="rId38" xr:uid="{246C51B4-16B2-40A9-9AAE-72E55F8723DE}"/>
-    <hyperlink ref="C41" r:id="rId39" location="roles" xr:uid="{1E9D7896-1BC0-4BC5-BBB5-B5D32D76D88F}"/>
-    <hyperlink ref="C43" r:id="rId40" xr:uid="{DF90F3E2-8EF9-48AF-8470-39FF0BBE2178}"/>
-    <hyperlink ref="C54" r:id="rId41" xr:uid="{943F5EE7-6968-4826-9764-621E22943A9C}"/>
-    <hyperlink ref="C55" r:id="rId42" location="jobs" xr:uid="{6F3A214B-24EB-4441-8B59-1A76C66BA626}"/>
-    <hyperlink ref="C58" r:id="rId43" xr:uid="{DE08E017-EDE0-4F49-83DA-BF6256E897EE}"/>
-    <hyperlink ref="C59" r:id="rId44" xr:uid="{D9DEAF06-4750-4F65-96A5-0EC7965DDB0B}"/>
-    <hyperlink ref="C60" r:id="rId45" xr:uid="{F585B09C-545F-4792-9528-1CB8154D0F16}"/>
-    <hyperlink ref="C62" r:id="rId46" xr:uid="{EB3D28D9-820B-4B71-BC87-8477F17837F2}"/>
-    <hyperlink ref="C63" r:id="rId47" xr:uid="{CC035D3B-7891-47E8-A758-EA6B8F8F6E86}"/>
-    <hyperlink ref="C64" r:id="rId48" xr:uid="{7F38FF71-A110-475B-BD74-EF1BD50770BF}"/>
-    <hyperlink ref="C65" r:id="rId49" xr:uid="{B14062F9-3FA9-43D9-A1D9-6856F929547D}"/>
-    <hyperlink ref="C67" r:id="rId50" xr:uid="{0F78F43C-8B18-4399-B960-FE8BC32A47A7}"/>
-    <hyperlink ref="C68" r:id="rId51" location="jobs" xr:uid="{8E21724F-93D5-4353-86F7-826B2DB577EA}"/>
-    <hyperlink ref="C71" r:id="rId52" xr:uid="{0932B10F-F8D4-4E67-860C-5A614415F477}"/>
-    <hyperlink ref="C72" r:id="rId53" xr:uid="{CBB6CE9D-7779-4938-90CD-1D55563C4CEC}"/>
-    <hyperlink ref="C73" r:id="rId54" xr:uid="{92EF842F-BAC8-4F15-9198-A186C30A983A}"/>
-    <hyperlink ref="C74" r:id="rId55" xr:uid="{3CAC1AC1-99DB-4596-A53A-45E3F6993F80}"/>
-    <hyperlink ref="C75" r:id="rId56" display="https://www.civilservicejobs.service.gov.uk/csr/index.cgi?SID=Y29udGV4dGlkPTcwNTA4NDY2Jm93bmVyPTUwNzAwMDAmb3duZXJ0eXBlPWZhaXImcGFnZWFjdGlvbj1zZWFyY2hjb250ZXh0JnBhZ2VjbGFzcz1TZWFyY2gmcmVxc2lnPTE3MDg3NjE2MzYtOGE2YWE2NzEzZjY4M2YyODgxN2YwYjAxZmM4ODAyYWFjYzRhMDQ1Yg==" xr:uid="{E9D72F81-D94C-4010-81F8-69D0D9C88CF6}"/>
-    <hyperlink ref="C76" r:id="rId57" xr:uid="{5B0737DD-A7D8-488A-967C-E100DBB2FA09}"/>
-    <hyperlink ref="C77" r:id="rId58" xr:uid="{FA46B651-DFFF-471A-B347-3C18960160EC}"/>
-    <hyperlink ref="C79" r:id="rId59" xr:uid="{5D936760-0677-41AE-905A-6DC7E08637AB}"/>
-    <hyperlink ref="C80" r:id="rId60" location="jobs" xr:uid="{70AB8763-8B99-4CC8-93FA-45367888CF45}"/>
-    <hyperlink ref="C85" r:id="rId61" location="open-positions" xr:uid="{F6597EBB-0E37-4AC1-898A-F9C0E98F9151}"/>
-    <hyperlink ref="C92" r:id="rId62" xr:uid="{BC363531-F1E2-4578-9E80-60B380E1FD3D}"/>
-    <hyperlink ref="C95" r:id="rId63" xr:uid="{29FB69AB-23BB-4B94-8356-41A168FA4142}"/>
-    <hyperlink ref="C97" r:id="rId64" xr:uid="{61B8F538-62B9-430C-8D63-4B58C460CD79}"/>
-    <hyperlink ref="C98" r:id="rId65" xr:uid="{DFDEBFBC-D2B2-4F42-B9A7-AB82320DDB41}"/>
-    <hyperlink ref="C100" r:id="rId66" xr:uid="{40D225C2-F512-45E4-BE1B-E9645222F684}"/>
-    <hyperlink ref="C91" r:id="rId67" xr:uid="{0FA3A57A-5A15-4AA7-8DBB-6B25E5B8E68D}"/>
-    <hyperlink ref="C93" r:id="rId68" location="/" xr:uid="{796E2DB7-596C-416C-8271-CCD814371872}"/>
-    <hyperlink ref="C89" r:id="rId69" xr:uid="{4722ADB1-A87A-4B21-AE5E-3C12914B296A}"/>
-    <hyperlink ref="C88" r:id="rId70" xr:uid="{BEA7F573-9756-4E55-BDB5-68DFD54939C2}"/>
-    <hyperlink ref="C204" r:id="rId71" xr:uid="{8363F3AD-056B-4715-B1C8-840E9F1D6148}"/>
-    <hyperlink ref="C129" r:id="rId72" xr:uid="{A015DFBF-0142-4084-9C30-287EF10C3164}"/>
-    <hyperlink ref="C390" r:id="rId73" xr:uid="{DFCF4586-F71C-43A0-8169-054405FE1474}"/>
-    <hyperlink ref="C196" r:id="rId74" xr:uid="{975DC2A2-C4A1-4A0D-B6EC-84EC285D8F48}"/>
-    <hyperlink ref="C304" r:id="rId75" xr:uid="{EFBFD4AA-89F4-464C-9A2D-131FFE72FC66}"/>
-    <hyperlink ref="C330" r:id="rId76" xr:uid="{64DDB43E-99F8-48FF-A837-E484FC97B774}"/>
-    <hyperlink ref="C33" r:id="rId77" xr:uid="{FD6299B3-AB6C-45F7-8C7F-2A8EBA842F4B}"/>
-    <hyperlink ref="C82" r:id="rId78" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
-    <hyperlink ref="C83" r:id="rId79" xr:uid="{E92F8E64-7DB5-4FE7-8465-1D9433C65BE6}"/>
-    <hyperlink ref="C96" r:id="rId80" xr:uid="{A271AB2F-0D9E-4476-B4EB-607ECDE288F2}"/>
-    <hyperlink ref="C102" r:id="rId81" xr:uid="{E1FC5A6F-7878-4B2D-AA8A-719BE8D457C8}"/>
-    <hyperlink ref="C107" r:id="rId82" xr:uid="{8EA31F9B-B234-419B-9A34-DB1B2DF732C2}"/>
-    <hyperlink ref="C108" r:id="rId83" xr:uid="{D328A223-BF86-43CA-BCD3-E58AE228ECDE}"/>
-    <hyperlink ref="C109" r:id="rId84" xr:uid="{DB89B959-1210-4DDC-AD40-2E1FCD249C01}"/>
-    <hyperlink ref="C110" r:id="rId85" xr:uid="{BA74430D-8BBF-4BF8-9BD4-F9471689D705}"/>
-    <hyperlink ref="C111" r:id="rId86" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE" xr:uid="{60375166-175F-4134-90CC-73D9CAA6B106}"/>
+    <hyperlink ref="C144" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C410" r:id="rId17" location="ashby_embed" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C418" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C421" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C7" r:id="rId20" xr:uid="{B5BE227E-AA1E-4236-A8D8-67DE60DCF4F7}"/>
+    <hyperlink ref="C13" r:id="rId21" xr:uid="{062AE967-ABB6-4383-BB1F-E53EE89847D8}"/>
+    <hyperlink ref="C14" r:id="rId22" xr:uid="{4E80FE92-E37F-4138-AFF0-9C06022A19BF}"/>
+    <hyperlink ref="C15" r:id="rId23" xr:uid="{AD364C2F-572A-4919-A937-96CD681C7992}"/>
+    <hyperlink ref="C16" r:id="rId24" xr:uid="{E180C90B-A917-4C2A-AF90-D43A115AA202}"/>
+    <hyperlink ref="C17" r:id="rId25" xr:uid="{0E48CBEC-7D8B-43B9-99B2-8D2CC2107B2E}"/>
+    <hyperlink ref="C18" r:id="rId26" xr:uid="{BD696900-91A3-4630-986B-2BA4315972BC}"/>
+    <hyperlink ref="C20" r:id="rId27" xr:uid="{9E5E8604-34C7-4615-85E3-682609EEC593}"/>
+    <hyperlink ref="C24" r:id="rId28" xr:uid="{4E61AD1D-30CA-4A65-8676-4EDA3B17314A}"/>
+    <hyperlink ref="C25" r:id="rId29" display="https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=GB%2C%20US&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=GB%2C%20US&amp;quatFlag=false" xr:uid="{6754B49C-6AE3-4E92-BAEB-A8EE7698B2FC}"/>
+    <hyperlink ref="C26" r:id="rId30" xr:uid="{E8ED8588-9FCC-4D11-AC8F-E55C5555434D}"/>
+    <hyperlink ref="C28" r:id="rId31" xr:uid="{041A3790-5A49-4EA2-B9B2-2DD2C822951F}"/>
+    <hyperlink ref="C29" r:id="rId32" xr:uid="{397678F5-2542-42D5-BE07-035AE372F1E9}"/>
+    <hyperlink ref="C30" r:id="rId33" xr:uid="{4321DE4C-1E0C-409D-939A-8C9E1BE703B2}"/>
+    <hyperlink ref="C31" r:id="rId34" xr:uid="{BA16033E-1298-45CA-A5AA-DCEE0E6CF07E}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{D2E2D573-7C0A-4BF9-8CF3-11AD6AF5F2F4}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{246C51B4-16B2-40A9-9AAE-72E55F8723DE}"/>
+    <hyperlink ref="C41" r:id="rId37" location="roles" xr:uid="{1E9D7896-1BC0-4BC5-BBB5-B5D32D76D88F}"/>
+    <hyperlink ref="C43" r:id="rId38" xr:uid="{DF90F3E2-8EF9-48AF-8470-39FF0BBE2178}"/>
+    <hyperlink ref="C54" r:id="rId39" xr:uid="{943F5EE7-6968-4826-9764-621E22943A9C}"/>
+    <hyperlink ref="C55" r:id="rId40" location="jobs" xr:uid="{6F3A214B-24EB-4441-8B59-1A76C66BA626}"/>
+    <hyperlink ref="C58" r:id="rId41" xr:uid="{DE08E017-EDE0-4F49-83DA-BF6256E897EE}"/>
+    <hyperlink ref="C59" r:id="rId42" xr:uid="{D9DEAF06-4750-4F65-96A5-0EC7965DDB0B}"/>
+    <hyperlink ref="C60" r:id="rId43" xr:uid="{F585B09C-545F-4792-9528-1CB8154D0F16}"/>
+    <hyperlink ref="C62" r:id="rId44" xr:uid="{EB3D28D9-820B-4B71-BC87-8477F17837F2}"/>
+    <hyperlink ref="C63" r:id="rId45" xr:uid="{CC035D3B-7891-47E8-A758-EA6B8F8F6E86}"/>
+    <hyperlink ref="C64" r:id="rId46" xr:uid="{7F38FF71-A110-475B-BD74-EF1BD50770BF}"/>
+    <hyperlink ref="C65" r:id="rId47" xr:uid="{B14062F9-3FA9-43D9-A1D9-6856F929547D}"/>
+    <hyperlink ref="C67" r:id="rId48" xr:uid="{0F78F43C-8B18-4399-B960-FE8BC32A47A7}"/>
+    <hyperlink ref="C68" r:id="rId49" location="jobs" xr:uid="{8E21724F-93D5-4353-86F7-826B2DB577EA}"/>
+    <hyperlink ref="C71" r:id="rId50" xr:uid="{0932B10F-F8D4-4E67-860C-5A614415F477}"/>
+    <hyperlink ref="C72" r:id="rId51" xr:uid="{CBB6CE9D-7779-4938-90CD-1D55563C4CEC}"/>
+    <hyperlink ref="C73" r:id="rId52" xr:uid="{92EF842F-BAC8-4F15-9198-A186C30A983A}"/>
+    <hyperlink ref="C74" r:id="rId53" xr:uid="{3CAC1AC1-99DB-4596-A53A-45E3F6993F80}"/>
+    <hyperlink ref="C75" r:id="rId54" display="https://www.civilservicejobs.service.gov.uk/csr/index.cgi?SID=Y29udGV4dGlkPTcwNTA4NDY2Jm93bmVyPTUwNzAwMDAmb3duZXJ0eXBlPWZhaXImcGFnZWFjdGlvbj1zZWFyY2hjb250ZXh0JnBhZ2VjbGFzcz1TZWFyY2gmcmVxc2lnPTE3MDg3NjE2MzYtOGE2YWE2NzEzZjY4M2YyODgxN2YwYjAxZmM4ODAyYWFjYzRhMDQ1Yg==" xr:uid="{E9D72F81-D94C-4010-81F8-69D0D9C88CF6}"/>
+    <hyperlink ref="C76" r:id="rId55" xr:uid="{5B0737DD-A7D8-488A-967C-E100DBB2FA09}"/>
+    <hyperlink ref="C77" r:id="rId56" xr:uid="{FA46B651-DFFF-471A-B347-3C18960160EC}"/>
+    <hyperlink ref="C79" r:id="rId57" xr:uid="{5D936760-0677-41AE-905A-6DC7E08637AB}"/>
+    <hyperlink ref="C80" r:id="rId58" location="jobs" xr:uid="{70AB8763-8B99-4CC8-93FA-45367888CF45}"/>
+    <hyperlink ref="C85" r:id="rId59" location="open-positions" xr:uid="{F6597EBB-0E37-4AC1-898A-F9C0E98F9151}"/>
+    <hyperlink ref="C92" r:id="rId60" xr:uid="{BC363531-F1E2-4578-9E80-60B380E1FD3D}"/>
+    <hyperlink ref="C95" r:id="rId61" xr:uid="{29FB69AB-23BB-4B94-8356-41A168FA4142}"/>
+    <hyperlink ref="C97" r:id="rId62" xr:uid="{61B8F538-62B9-430C-8D63-4B58C460CD79}"/>
+    <hyperlink ref="C98" r:id="rId63" xr:uid="{DFDEBFBC-D2B2-4F42-B9A7-AB82320DDB41}"/>
+    <hyperlink ref="C100" r:id="rId64" xr:uid="{40D225C2-F512-45E4-BE1B-E9645222F684}"/>
+    <hyperlink ref="C91" r:id="rId65" xr:uid="{0FA3A57A-5A15-4AA7-8DBB-6B25E5B8E68D}"/>
+    <hyperlink ref="C93" r:id="rId66" location="/" xr:uid="{796E2DB7-596C-416C-8271-CCD814371872}"/>
+    <hyperlink ref="C89" r:id="rId67" xr:uid="{4722ADB1-A87A-4B21-AE5E-3C12914B296A}"/>
+    <hyperlink ref="C88" r:id="rId68" xr:uid="{BEA7F573-9756-4E55-BDB5-68DFD54939C2}"/>
+    <hyperlink ref="C204" r:id="rId69" xr:uid="{8363F3AD-056B-4715-B1C8-840E9F1D6148}"/>
+    <hyperlink ref="C129" r:id="rId70" xr:uid="{A015DFBF-0142-4084-9C30-287EF10C3164}"/>
+    <hyperlink ref="C390" r:id="rId71" xr:uid="{DFCF4586-F71C-43A0-8169-054405FE1474}"/>
+    <hyperlink ref="C196" r:id="rId72" xr:uid="{975DC2A2-C4A1-4A0D-B6EC-84EC285D8F48}"/>
+    <hyperlink ref="C304" r:id="rId73" xr:uid="{EFBFD4AA-89F4-464C-9A2D-131FFE72FC66}"/>
+    <hyperlink ref="C330" r:id="rId74" xr:uid="{64DDB43E-99F8-48FF-A837-E484FC97B774}"/>
+    <hyperlink ref="C33" r:id="rId75" xr:uid="{FD6299B3-AB6C-45F7-8C7F-2A8EBA842F4B}"/>
+    <hyperlink ref="C82" r:id="rId76" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
+    <hyperlink ref="C83" r:id="rId77" xr:uid="{E92F8E64-7DB5-4FE7-8465-1D9433C65BE6}"/>
+    <hyperlink ref="C96" r:id="rId78" xr:uid="{A271AB2F-0D9E-4476-B4EB-607ECDE288F2}"/>
+    <hyperlink ref="C102" r:id="rId79" xr:uid="{E1FC5A6F-7878-4B2D-AA8A-719BE8D457C8}"/>
+    <hyperlink ref="C107" r:id="rId80" xr:uid="{8EA31F9B-B234-419B-9A34-DB1B2DF732C2}"/>
+    <hyperlink ref="C108" r:id="rId81" xr:uid="{D328A223-BF86-43CA-BCD3-E58AE228ECDE}"/>
+    <hyperlink ref="C109" r:id="rId82" xr:uid="{DB89B959-1210-4DDC-AD40-2E1FCD249C01}"/>
+    <hyperlink ref="C110" r:id="rId83" xr:uid="{BA74430D-8BBF-4BF8-9BD4-F9471689D705}"/>
+    <hyperlink ref="C111" r:id="rId84" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE" xr:uid="{60375166-175F-4134-90CC-73D9CAA6B106}"/>
+    <hyperlink ref="C112" r:id="rId85" xr:uid="{1D492E49-E312-424E-B4D2-E34B9A2E17B3}"/>
+    <hyperlink ref="C113" r:id="rId86" xr:uid="{551C5664-F2BD-4EA6-9593-7A6E6F1D3C8E}"/>
+    <hyperlink ref="C114" r:id="rId87" xr:uid="{78905E0C-068B-4953-89DA-D94A647E1691}"/>
+    <hyperlink ref="C115" r:id="rId88" xr:uid="{1DCA7C97-49EC-4B46-8125-D56578725670}"/>
+    <hyperlink ref="C119" r:id="rId89" xr:uid="{35542B58-E06D-4EB7-B611-3BE5EA4F87C7}"/>
+    <hyperlink ref="C122" r:id="rId90" xr:uid="{CE51666A-4EEA-424B-BBD7-A12B1274A86B}"/>
+    <hyperlink ref="C123" r:id="rId91" xr:uid="{2B1A4127-31E5-46DF-8844-86D981E13C08}"/>
+    <hyperlink ref="C125" r:id="rId92" xr:uid="{92267D42-6801-4E20-8D25-53D93AB88964}"/>
+    <hyperlink ref="C127" r:id="rId93" xr:uid="{3D899512-213F-42BB-A093-720599882439}"/>
+    <hyperlink ref="C128" r:id="rId94" xr:uid="{B95F3940-931A-4F53-A344-6C9125E0589E}"/>
+    <hyperlink ref="C130" r:id="rId95" xr:uid="{8ED3322F-F28C-4ED9-8234-C91A0B8347D7}"/>
+    <hyperlink ref="C132" r:id="rId96" xr:uid="{F3BBB286-63EA-4828-98CD-0611FD6E3B6E}"/>
+    <hyperlink ref="C133" r:id="rId97" xr:uid="{F33D4908-6592-4283-A85E-0FC966DFC57B}"/>
+    <hyperlink ref="C135" r:id="rId98" location="job-list" xr:uid="{EAEC1E23-E2ED-4DA5-B8DF-921A1E5A153A}"/>
+    <hyperlink ref="C136" r:id="rId99" xr:uid="{B2042DB7-E3B6-402F-9CE2-F3C4B169B07A}"/>
+    <hyperlink ref="C137" r:id="rId100" xr:uid="{0F3983E3-F14E-493F-89A7-01927D1D0459}"/>
+    <hyperlink ref="C138" r:id="rId101" xr:uid="{391AFF52-2CD8-4B75-AF5E-F3E139A5DF5E}"/>
+    <hyperlink ref="C139" r:id="rId102" xr:uid="{0F43EB73-0D2F-4520-BAB8-7C92246CA092}"/>
+    <hyperlink ref="C141" r:id="rId103" xr:uid="{7C95A87F-560A-428B-8640-938CA6B797E9}"/>
+    <hyperlink ref="C142" r:id="rId104" xr:uid="{3228B4DB-FB36-4EF3-BF8D-D12CCB17D8FA}"/>
+    <hyperlink ref="C145" r:id="rId105" location="global-opportunities" xr:uid="{C72D24AB-9105-486D-8097-3BAC17574303}"/>
+    <hyperlink ref="C146" r:id="rId106" xr:uid="{E70E06B2-AB39-4114-A882-527839C11896}"/>
+    <hyperlink ref="C148" r:id="rId107" location="jobs" xr:uid="{B12142BF-DD28-4F2F-9475-3548C8AA53CE}"/>
+    <hyperlink ref="C149" r:id="rId108" xr:uid="{79ED6EC3-16A2-4D52-B9D7-15E0D8EC591A}"/>
+    <hyperlink ref="C151" r:id="rId109" xr:uid="{F53A26AB-8E7C-444B-9A79-3487650E0958}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C705629-232B-4FBB-80E0-D91751AA8425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8471D09-664F-45AD-82E7-4CD72DEDDE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="939">
   <si>
     <t>ID</t>
   </si>
@@ -1072,12 +1072,6 @@
     <t>https://careers.cynergybank.co.uk/jobs?location=London</t>
   </si>
   <si>
-    <t>Coutts</t>
-  </si>
-  <si>
-    <t>https://jobs.coutts.com/search/jobs</t>
-  </si>
-  <si>
     <t>Jungle Insurance</t>
   </si>
   <si>
@@ -1093,21 +1087,6 @@
     <t>Northern Trust</t>
   </si>
   <si>
-    <t>https://ntrs.wd1.myworkdayjobs.com/northerntrust?locationCountry=bc33aa3152ec42d4995f4791a106ed09&amp;locationCountry=29247e57dbaf46fb855b224e03170bc7</t>
-  </si>
-  <si>
-    <t>Wayra</t>
-  </si>
-  <si>
-    <t>https://www.wayra.uk/</t>
-  </si>
-  <si>
-    <t>Cazenove Capital</t>
-  </si>
-  <si>
-    <t>https://www.cazenovecapital.com/en-gb/uk/wealth-management/</t>
-  </si>
-  <si>
     <t>OVO Energy</t>
   </si>
   <si>
@@ -1135,9 +1114,6 @@
     <t>Capgemini Invent</t>
   </si>
   <si>
-    <t>https://www.capgemini.com/gb-en/careers/join-us/#keyword=%22capgemini%20invent%22&amp;country_code=gb-en&amp;size=15</t>
-  </si>
-  <si>
     <t>Hownd</t>
   </si>
   <si>
@@ -1150,9 +1126,6 @@
     <t>Freddie's Flowers</t>
   </si>
   <si>
-    <t>https://www.freddiesflowers.com/jobs</t>
-  </si>
-  <si>
     <t>Channel 3</t>
   </si>
   <si>
@@ -1210,12 +1183,6 @@
     <t>https://www.downing.co.uk/careers#open-positions</t>
   </si>
   <si>
-    <t>Lodha UK</t>
-  </si>
-  <si>
-    <t>https://www.lodhagroup.in/hr/explore-career</t>
-  </si>
-  <si>
     <t>Pets Corner</t>
   </si>
   <si>
@@ -1228,24 +1195,12 @@
     <t>https://cezanneondemand.intervieweb.it/junglecreations/en/career</t>
   </si>
   <si>
-    <t>LICK Home</t>
-  </si>
-  <si>
-    <t>https://apply.workable.com/lick-home-ltd/?lng=en</t>
-  </si>
-  <si>
     <t>Titanbay</t>
   </si>
   <si>
     <t>https://www.careers.titanbay.com/#job-openings</t>
   </si>
   <si>
-    <t>WeAreFeel</t>
-  </si>
-  <si>
-    <t>https://wellfound.com/company/wearefeel/jobs</t>
-  </si>
-  <si>
     <t>Reach Plc</t>
   </si>
   <si>
@@ -1261,9 +1216,6 @@
     <t>Savills</t>
   </si>
   <si>
-    <t>https://careers.savills.com/#jobs</t>
-  </si>
-  <si>
     <t>HeyDoc Limited</t>
   </si>
   <si>
@@ -1276,12 +1228,6 @@
     <t>https://www.siteminder.com/jobs/</t>
   </si>
   <si>
-    <t>HomeViews</t>
-  </si>
-  <si>
-    <t>https://wellfound.com/company/homeviews</t>
-  </si>
-  <si>
     <t>Quantexa</t>
   </si>
   <si>
@@ -2290,9 +2236,6 @@
     <t>Park Plaza Hotels (UK) Limited</t>
   </si>
   <si>
-    <t>https://jobs.pphe.com/careers/?searchterm=</t>
-  </si>
-  <si>
     <t>Yonder</t>
   </si>
   <si>
@@ -2464,12 +2407,6 @@
     <t>https://pelorusx.co/about/careers</t>
   </si>
   <si>
-    <t>Osprey</t>
-  </si>
-  <si>
-    <t>https://www.osprey.com/gb/careers</t>
-  </si>
-  <si>
     <t>Axis Europe</t>
   </si>
   <si>
@@ -2885,6 +2822,21 @@
   </si>
   <si>
     <t>https://droit.tech/careers/open-positions/</t>
+  </si>
+  <si>
+    <t>https://ntrs.wd1.myworkdayjobs.com/northerntrust</t>
+  </si>
+  <si>
+    <t>https://www.capgemini.com/gb-en/careers/join-us/</t>
+  </si>
+  <si>
+    <t>https://jobs.pphe.com/careers/?country=united-kingdom</t>
+  </si>
+  <si>
+    <t>https://www.freddiesflowers.com/about-us/jobs#openings</t>
+  </si>
+  <si>
+    <t>https://careers.savills.com/jobs</t>
   </si>
 </sst>
 </file>
@@ -3299,12 +3251,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3615,8 +3567,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:XFD200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3673,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
@@ -3752,7 +3704,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
@@ -4165,10 +4117,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="D31" s="60" t="s">
         <v>3</v>
@@ -4183,10 +4135,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>3</v>
@@ -4198,10 +4150,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>3</v>
@@ -4302,10 +4254,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>3</v>
@@ -4440,10 +4392,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>3</v>
@@ -5053,10 +5005,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>3</v>
@@ -5272,10 +5224,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>3</v>
@@ -5440,10 +5392,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>3</v>
@@ -5489,10 +5441,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>3</v>
@@ -5534,10 +5486,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>3</v>
@@ -5639,10 +5591,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>3</v>
@@ -5698,11 +5650,11 @@
       <c r="A123" s="32">
         <v>122</v>
       </c>
-      <c r="B123" s="65" t="s">
-        <v>789</v>
-      </c>
-      <c r="C123" s="66" t="s">
-        <v>790</v>
+      <c r="B123" s="64" t="s">
+        <v>770</v>
+      </c>
+      <c r="C123" s="65" t="s">
+        <v>771</v>
       </c>
       <c r="D123" s="59" t="s">
         <v>3</v>
@@ -5729,10 +5681,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="C125" s="36" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>3</v>
@@ -5744,10 +5696,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>3</v>
@@ -5759,10 +5711,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>3</v>
@@ -5774,10 +5726,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>3</v>
@@ -5789,10 +5741,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>3</v>
@@ -5804,10 +5756,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="C130" s="36" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>3</v>
@@ -5819,10 +5771,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>3</v>
@@ -5834,10 +5786,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>3</v>
@@ -5848,11 +5800,11 @@
       <c r="A133" s="32">
         <v>132</v>
       </c>
-      <c r="B133" s="65" t="s">
-        <v>804</v>
-      </c>
-      <c r="C133" s="66" t="s">
-        <v>805</v>
+      <c r="B133" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="C133" s="65" t="s">
+        <v>786</v>
       </c>
       <c r="D133" s="59" t="s">
         <v>3</v>
@@ -5864,10 +5816,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>3</v>
@@ -5879,10 +5831,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>3</v>
@@ -5894,10 +5846,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>3</v>
@@ -5912,7 +5864,7 @@
         <v>331</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>3</v>
@@ -5923,11 +5875,11 @@
       <c r="A138" s="9">
         <v>137</v>
       </c>
-      <c r="B138" s="67" t="s">
+      <c r="B138" s="66" t="s">
         <v>332</v>
       </c>
       <c r="C138" s="58" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="D138" s="59" t="s">
         <v>3</v>
@@ -5972,7 +5924,7 @@
         <v>337</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>3</v>
@@ -6014,7 +5966,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="C144" s="36" t="s">
         <v>330</v>
@@ -6029,10 +5981,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>3</v>
@@ -6044,10 +5996,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>3</v>
@@ -6089,10 +6041,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="D149" s="11" t="s">
         <v>3</v>
@@ -6129,30 +6081,30 @@
       </c>
       <c r="E151" s="11"/>
     </row>
-    <row r="152" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A152" s="9">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A152" s="32">
         <v>151</v>
       </c>
-      <c r="B152" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>351</v>
+      <c r="B152" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>743</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="11"/>
+      <c r="E152" s="24"/>
     </row>
     <row r="153" spans="1:5" ht="18.75" customHeight="1">
       <c r="A153" s="9">
         <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>351</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>3</v>
@@ -6164,10 +6116,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>353</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>3</v>
@@ -6179,55 +6131,55 @@
         <v>154</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>934</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="11"/>
     </row>
-    <row r="156" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A156" s="9">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A156" s="32">
         <v>155</v>
       </c>
-      <c r="B156" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>359</v>
+      <c r="B156" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>741</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E156" s="11"/>
-    </row>
-    <row r="157" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A157" s="9">
+      <c r="E156" s="24"/>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A157" s="32">
         <v>156</v>
       </c>
-      <c r="B157" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>361</v>
+      <c r="B157" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>739</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="11"/>
+      <c r="E157" s="24"/>
     </row>
     <row r="158" spans="1:5" ht="18.75" customHeight="1">
       <c r="A158" s="9">
         <v>157</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>363</v>
+        <v>355</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>356</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>3</v>
@@ -6236,13 +6188,13 @@
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1">
       <c r="A159" s="32">
-        <v>484</v>
+        <v>158</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>810</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>811</v>
+        <v>791</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>792</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>3</v>
@@ -6251,13 +6203,13 @@
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1">
       <c r="A160" s="32">
-        <v>485</v>
+        <v>159</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>812</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>813</v>
+        <v>793</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>794</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>3</v>
@@ -6269,10 +6221,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>365</v>
+        <v>357</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>3</v>
@@ -6281,13 +6233,13 @@
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1">
       <c r="A162" s="32">
-        <v>488</v>
+        <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>818</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>819</v>
+        <v>797</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>798</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>3</v>
@@ -6299,10 +6251,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>367</v>
+        <v>359</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>3</v>
@@ -6314,10 +6266,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>369</v>
+        <v>361</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>3</v>
@@ -6329,10 +6281,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>371</v>
+        <v>363</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>935</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>3</v>
@@ -6344,10 +6296,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>373</v>
+        <v>364</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>365</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>3</v>
@@ -6361,8 +6313,8 @@
       <c r="B167" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C167" s="15" t="s">
-        <v>374</v>
+      <c r="C167" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>3</v>
@@ -6371,13 +6323,13 @@
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1">
       <c r="A168" s="32">
-        <v>486</v>
+        <v>167</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>814</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>815</v>
+        <v>737</v>
+      </c>
+      <c r="C168" s="36" t="s">
+        <v>936</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>3</v>
@@ -6386,13 +6338,13 @@
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1">
       <c r="A169" s="32">
-        <v>487</v>
+        <v>168</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>3</v>
@@ -6404,10 +6356,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>376</v>
+        <v>367</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>937</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>3</v>
@@ -6416,13 +6368,13 @@
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1">
       <c r="A171" s="32">
-        <v>489</v>
+        <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>820</v>
-      </c>
-      <c r="C171" s="23" t="s">
-        <v>821</v>
+        <v>799</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>800</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>3</v>
@@ -6434,10 +6386,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>369</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>3</v>
@@ -6449,10 +6401,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>380</v>
+        <v>370</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>3</v>
@@ -6464,32 +6416,40 @@
         <v>173</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>382</v>
+        <v>372</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>373</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E174" s="11"/>
     </row>
-    <row r="175" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A175" s="9"/>
-      <c r="B175" s="15"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A175" s="43">
+        <v>174</v>
+      </c>
+      <c r="B175" s="44" t="s">
+        <v>917</v>
+      </c>
+      <c r="C175" s="44" t="s">
+        <v>918</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="24"/>
     </row>
     <row r="176" spans="1:5" ht="32.25" customHeight="1">
       <c r="A176" s="9">
         <v>175</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>385</v>
+        <v>375</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>376</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>3</v>
@@ -6498,13 +6458,13 @@
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1">
       <c r="A177" s="32">
-        <v>490</v>
+        <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>3</v>
@@ -6516,10 +6476,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>387</v>
+        <v>377</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>3</v>
@@ -6531,10 +6491,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>389</v>
+        <v>379</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>380</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>3</v>
@@ -6546,10 +6506,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>3</v>
@@ -6561,10 +6521,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>393</v>
+        <v>383</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="D181" s="11" t="s">
         <v>3</v>
@@ -6576,40 +6536,40 @@
         <v>181</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>395</v>
+        <v>385</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A183" s="9">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A183" s="43">
         <v>182</v>
       </c>
-      <c r="B183" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E183" s="11"/>
+      <c r="B183" s="44" t="s">
+        <v>915</v>
+      </c>
+      <c r="C183" s="67" t="s">
+        <v>916</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="24"/>
     </row>
     <row r="184" spans="1:5" ht="19.5" customHeight="1">
       <c r="A184" s="9">
         <v>183</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>399</v>
+        <v>387</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>3</v>
@@ -6621,70 +6581,70 @@
         <v>184</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A186" s="9">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A186" s="32">
         <v>185</v>
       </c>
-      <c r="B186" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>403</v>
+      <c r="B186" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="C186" s="36" t="s">
+        <v>736</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E186" s="11"/>
+      <c r="E186" s="24"/>
     </row>
     <row r="187" spans="1:5" ht="19.5" customHeight="1">
       <c r="A187" s="9">
         <v>186</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E187" s="11"/>
     </row>
-    <row r="188" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A188" s="9">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A188" s="43">
         <v>187</v>
       </c>
-      <c r="B188" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" s="11"/>
+      <c r="B188" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="C188" s="44" t="s">
+        <v>920</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" s="24"/>
     </row>
     <row r="189" spans="1:5" ht="19.5" customHeight="1">
       <c r="A189" s="9">
         <v>188</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>409</v>
+        <v>393</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>394</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>3</v>
@@ -6696,10 +6656,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>411</v>
+        <v>395</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>396</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>3</v>
@@ -6711,10 +6671,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>413</v>
+        <v>397</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>938</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>3</v>
@@ -6726,10 +6686,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>415</v>
+        <v>398</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>3</v>
@@ -6738,65 +6698,73 @@
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1">
       <c r="A193" s="32">
-        <v>491</v>
+        <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E193" s="24"/>
     </row>
-    <row r="194" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A194" s="16"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A194" s="32">
+        <v>193</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="24"/>
     </row>
     <row r="195" spans="1:5" ht="19.5" customHeight="1">
       <c r="A195" s="9">
         <v>194</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>417</v>
+        <v>400</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>401</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E195" s="11"/>
     </row>
-    <row r="196" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A196" s="9">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A196" s="32">
         <v>195</v>
       </c>
-      <c r="B196" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>419</v>
+      <c r="B196" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="C196" s="36" t="s">
+        <v>732</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E196" s="11"/>
+      <c r="E196" s="24"/>
     </row>
     <row r="197" spans="1:5" ht="19.5" customHeight="1">
       <c r="A197" s="9">
         <v>196</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>421</v>
+        <v>402</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>3</v>
@@ -6808,10 +6776,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>423</v>
+        <v>404</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>3</v>
@@ -6823,10 +6791,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>3</v>
@@ -6838,10 +6806,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>427</v>
+        <v>408</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>409</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>3</v>
@@ -6853,10 +6821,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>3</v>
@@ -6868,10 +6836,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>3</v>
@@ -6890,10 +6858,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>3</v>
@@ -6905,10 +6873,10 @@
         <v>493</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>3</v>
@@ -6920,10 +6888,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>3</v>
@@ -6935,10 +6903,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>3</v>
@@ -6950,10 +6918,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>3</v>
@@ -6965,10 +6933,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D209" s="11" t="s">
         <v>3</v>
@@ -6987,10 +6955,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>3</v>
@@ -7002,10 +6970,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D212" s="11" t="s">
         <v>3</v>
@@ -7017,10 +6985,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>3</v>
@@ -7032,10 +7000,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>3</v>
@@ -7047,10 +7015,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>3</v>
@@ -7062,10 +7030,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>3</v>
@@ -7077,10 +7045,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D217" s="11" t="s">
         <v>3</v>
@@ -7092,10 +7060,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>3</v>
@@ -7107,10 +7075,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>3</v>
@@ -7122,10 +7090,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>3</v>
@@ -7137,10 +7105,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>3</v>
@@ -7152,10 +7120,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>3</v>
@@ -7167,10 +7135,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>3</v>
@@ -7182,10 +7150,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>3</v>
@@ -7197,10 +7165,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>3</v>
@@ -7212,10 +7180,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>3</v>
@@ -7227,10 +7195,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>3</v>
@@ -7242,10 +7210,10 @@
         <v>494</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>3</v>
@@ -7257,10 +7225,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>3</v>
@@ -7272,10 +7240,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>3</v>
@@ -7287,10 +7255,10 @@
         <v>495</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>3</v>
@@ -7302,10 +7270,10 @@
         <v>496</v>
       </c>
       <c r="B232" s="37" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>3</v>
@@ -7317,10 +7285,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>3</v>
@@ -7332,10 +7300,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>3</v>
@@ -7354,10 +7322,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D236" s="11" t="s">
         <v>3</v>
@@ -7369,10 +7337,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D237" s="11" t="s">
         <v>3</v>
@@ -7384,10 +7352,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="D238" s="11" t="s">
         <v>3</v>
@@ -7406,10 +7374,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D240" s="11" t="s">
         <v>3</v>
@@ -7421,10 +7389,10 @@
         <v>498</v>
       </c>
       <c r="B241" s="37" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>3</v>
@@ -7436,10 +7404,10 @@
         <v>555</v>
       </c>
       <c r="B242" s="44" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="C242" s="44" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="D242" s="21" t="s">
         <v>3</v>
@@ -7451,10 +7419,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="D243" s="18" t="s">
         <v>44</v>
@@ -7466,10 +7434,10 @@
         <v>500</v>
       </c>
       <c r="B244" s="39" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="C244" s="40" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="D244" s="21" t="s">
         <v>3</v>
@@ -7481,10 +7449,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D245" s="11" t="s">
         <v>3</v>
@@ -7496,10 +7464,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D246" s="11" t="s">
         <v>3</v>
@@ -7511,10 +7479,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="D247" s="11" t="s">
         <v>3</v>
@@ -7526,10 +7494,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>3</v>
@@ -7541,10 +7509,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>3</v>
@@ -7556,10 +7524,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="D250" s="11" t="s">
         <v>3</v>
@@ -7571,10 +7539,10 @@
         <v>501</v>
       </c>
       <c r="B251" s="42" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="D251" s="18" t="s">
         <v>44</v>
@@ -7586,10 +7554,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="D252" s="11" t="s">
         <v>3</v>
@@ -7601,10 +7569,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="D253" s="11" t="s">
         <v>3</v>
@@ -7616,10 +7584,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>3</v>
@@ -7631,10 +7599,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D255" s="11" t="s">
         <v>3</v>
@@ -7646,10 +7614,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D256" s="11" t="s">
         <v>3</v>
@@ -7661,10 +7629,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="D257" s="11" t="s">
         <v>3</v>
@@ -7676,10 +7644,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D258" s="11" t="s">
         <v>3</v>
@@ -7691,10 +7659,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="D259" s="11" t="s">
         <v>3</v>
@@ -7706,10 +7674,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="D260" s="11" t="s">
         <v>3</v>
@@ -7721,10 +7689,10 @@
         <v>502</v>
       </c>
       <c r="B261" s="44" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="C261" s="44" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="D261" s="21" t="s">
         <v>3</v>
@@ -7736,10 +7704,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="D262" s="11" t="s">
         <v>3</v>
@@ -7751,10 +7719,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="D263" s="11" t="s">
         <v>3</v>
@@ -7766,10 +7734,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D264" s="11" t="s">
         <v>3</v>
@@ -7781,10 +7749,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>3</v>
@@ -7796,10 +7764,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>3</v>
@@ -7811,10 +7779,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="D267" s="11" t="s">
         <v>3</v>
@@ -7826,10 +7794,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="D268" s="11" t="s">
         <v>3</v>
@@ -7841,10 +7809,10 @@
         <v>503</v>
       </c>
       <c r="B269" s="44" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="C269" s="44" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="D269" s="21" t="s">
         <v>3</v>
@@ -7856,10 +7824,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="D270" s="11" t="s">
         <v>3</v>
@@ -7871,10 +7839,10 @@
         <v>504</v>
       </c>
       <c r="B271" s="44" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="C271" s="44" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="D271" s="21" t="s">
         <v>3</v>
@@ -7886,10 +7854,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D272" s="11" t="s">
         <v>3</v>
@@ -7901,10 +7869,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="D273" s="11" t="s">
         <v>3</v>
@@ -7916,10 +7884,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="D274" s="11" t="s">
         <v>3</v>
@@ -7931,10 +7899,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>3</v>
@@ -7946,10 +7914,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="D276" s="11" t="s">
         <v>3</v>
@@ -7961,10 +7929,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="D277" s="11" t="s">
         <v>3</v>
@@ -7976,10 +7944,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="D278" s="11" t="s">
         <v>3</v>
@@ -7991,10 +7959,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="C279" s="23" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="D279" s="11" t="s">
         <v>3</v>
@@ -8006,10 +7974,10 @@
         <v>505</v>
       </c>
       <c r="B280" s="44" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="D280" s="21" t="s">
         <v>3</v>
@@ -8021,10 +7989,10 @@
         <v>506</v>
       </c>
       <c r="B281" s="44" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>3</v>
@@ -8036,10 +8004,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="C282" s="23" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="D282" s="11" t="s">
         <v>3</v>
@@ -8051,10 +8019,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>44</v>
@@ -8066,10 +8034,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>3</v>
@@ -8081,10 +8049,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>3</v>
@@ -8096,10 +8064,10 @@
         <v>507</v>
       </c>
       <c r="B286" s="44" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="C286" s="44" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="D286" s="21" t="s">
         <v>3</v>
@@ -8111,10 +8079,10 @@
         <v>508</v>
       </c>
       <c r="B287" s="44" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="C287" s="44" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="D287" s="21" t="s">
         <v>3</v>
@@ -8126,10 +8094,10 @@
         <v>509</v>
       </c>
       <c r="B288" s="44" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="C288" s="44" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="D288" s="21" t="s">
         <v>3</v>
@@ -8141,10 +8109,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="C289" s="26" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>44</v>
@@ -8156,10 +8124,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="D290" s="11" t="s">
         <v>3</v>
@@ -8171,10 +8139,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D291" s="18" t="s">
         <v>44</v>
@@ -8186,10 +8154,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="C292" s="31" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="D292" s="18" t="s">
         <v>44</v>
@@ -8201,10 +8169,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="D293" s="11" t="s">
         <v>3</v>
@@ -8216,10 +8184,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="D294" s="11" t="s">
         <v>3</v>
@@ -8231,10 +8199,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C295" s="23" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="D295" s="11" t="s">
         <v>3</v>
@@ -8246,10 +8214,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="D296" s="11" t="s">
         <v>3</v>
@@ -8261,10 +8229,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="D297" s="11" t="s">
         <v>3</v>
@@ -8276,10 +8244,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>3</v>
@@ -8291,10 +8259,10 @@
         <v>510</v>
       </c>
       <c r="B299" s="44" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="C299" s="44" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="D299" s="21" t="s">
         <v>3</v>
@@ -8306,10 +8274,10 @@
         <v>511</v>
       </c>
       <c r="B300" s="44" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="C300" s="44" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="D300" s="21" t="s">
         <v>3</v>
@@ -8321,10 +8289,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D301" s="11" t="s">
         <v>3</v>
@@ -8336,10 +8304,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="D302" s="11" t="s">
         <v>3</v>
@@ -8351,10 +8319,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="D303" s="11" t="s">
         <v>3</v>
@@ -8366,10 +8334,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C304" s="36" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>3</v>
@@ -8381,10 +8349,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>3</v>
@@ -8396,10 +8364,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="D306" s="11" t="s">
         <v>3</v>
@@ -8411,10 +8379,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="D307" s="18" t="s">
         <v>44</v>
@@ -8426,10 +8394,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="D308" s="11" t="s">
         <v>3</v>
@@ -8441,10 +8409,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>3</v>
@@ -8456,10 +8424,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>3</v>
@@ -8471,10 +8439,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D311" s="11" t="s">
         <v>3</v>
@@ -8486,10 +8454,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="D312" s="11" t="s">
         <v>3</v>
@@ -8501,10 +8469,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="D313" s="11" t="s">
         <v>3</v>
@@ -8516,10 +8484,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="D314" s="11" t="s">
         <v>3</v>
@@ -8538,10 +8506,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="D316" s="11" t="s">
         <v>3</v>
@@ -8553,10 +8521,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="D317" s="11" t="s">
         <v>3</v>
@@ -8568,10 +8536,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="D318" s="11" t="s">
         <v>3</v>
@@ -8583,10 +8551,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="D319" s="11" t="s">
         <v>3</v>
@@ -8605,10 +8573,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="C321" s="23" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>3</v>
@@ -8620,10 +8588,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>3</v>
@@ -8635,10 +8603,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="D323" s="11" t="s">
         <v>3</v>
@@ -8650,10 +8618,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="C324" s="23" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="D324" s="11" t="s">
         <v>3</v>
@@ -8665,10 +8633,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="C325" s="23" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="D325" s="11" t="s">
         <v>3</v>
@@ -8680,10 +8648,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="D326" s="11" t="s">
         <v>3</v>
@@ -8695,10 +8663,10 @@
         <v>513</v>
       </c>
       <c r="B327" s="44" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="D327" s="21" t="s">
         <v>3</v>
@@ -8710,10 +8678,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="D328" s="11" t="s">
         <v>3</v>
@@ -8725,10 +8693,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="D329" s="11" t="s">
         <v>3</v>
@@ -8740,10 +8708,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="C330" s="36" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>3</v>
@@ -8755,10 +8723,10 @@
         <v>514</v>
       </c>
       <c r="B331" s="44" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="C331" s="44" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="D331" s="21" t="s">
         <v>3</v>
@@ -8770,10 +8738,10 @@
         <v>515</v>
       </c>
       <c r="B332" s="44" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="C332" s="44" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="D332" s="21" t="s">
         <v>3</v>
@@ -8785,10 +8753,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="C333" s="23" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>3</v>
@@ -8800,10 +8768,10 @@
         <v>516</v>
       </c>
       <c r="B334" s="44" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="C334" s="44" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>3</v>
@@ -8815,10 +8783,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="D335" s="11" t="s">
         <v>3</v>
@@ -8830,10 +8798,10 @@
         <v>517</v>
       </c>
       <c r="B336" s="44" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C336" s="44" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="D336" s="21" t="s">
         <v>3</v>
@@ -8845,10 +8813,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="C337" s="23" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>3</v>
@@ -8860,10 +8828,10 @@
         <v>518</v>
       </c>
       <c r="B338" s="44" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="C338" s="44" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="D338" s="21" t="s">
         <v>3</v>
@@ -8875,10 +8843,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="C339" s="35" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="D339" s="11" t="s">
         <v>3</v>
@@ -8890,10 +8858,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="D340" s="11" t="s">
         <v>3</v>
@@ -8905,10 +8873,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="D341" s="11" t="s">
         <v>3</v>
@@ -8920,10 +8888,10 @@
         <v>519</v>
       </c>
       <c r="B342" s="44" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C342" s="44" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="D342" s="21" t="s">
         <v>3</v>
@@ -8935,10 +8903,10 @@
         <v>520</v>
       </c>
       <c r="B343" s="44" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C343" s="44" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="D343" s="21" t="s">
         <v>3</v>
@@ -8950,10 +8918,10 @@
         <v>521</v>
       </c>
       <c r="B344" s="44" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="C344" s="44" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="D344" s="21" t="s">
         <v>3</v>
@@ -8965,10 +8933,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="C345" s="35" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="D345" s="11" t="s">
         <v>3</v>
@@ -8980,10 +8948,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="D346" s="11" t="s">
         <v>3</v>
@@ -8995,10 +8963,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="D347" s="11" t="s">
         <v>3</v>
@@ -9010,10 +8978,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="D348" s="11" t="s">
         <v>3</v>
@@ -9025,10 +8993,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="D349" s="11" t="s">
         <v>3</v>
@@ -9040,10 +9008,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D350" s="11" t="s">
         <v>3</v>
@@ -9055,10 +9023,10 @@
         <v>522</v>
       </c>
       <c r="B351" s="44" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C351" s="44" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="D351" s="21" t="s">
         <v>3</v>
@@ -9070,10 +9038,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="D352" s="11" t="s">
         <v>3</v>
@@ -9085,10 +9053,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>3</v>
@@ -9100,10 +9068,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>3</v>
@@ -9115,10 +9083,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>3</v>
@@ -9130,10 +9098,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>3</v>
@@ -9145,10 +9113,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>3</v>
@@ -9160,10 +9128,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>3</v>
@@ -9175,10 +9143,10 @@
         <v>523</v>
       </c>
       <c r="B359" s="44" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="C359" s="44" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="D359" s="21" t="s">
         <v>3</v>
@@ -9190,10 +9158,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="D360" s="11" t="s">
         <v>3</v>
@@ -9205,10 +9173,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="D361" s="11" t="s">
         <v>3</v>
@@ -9220,10 +9188,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="D362" s="11" t="s">
         <v>3</v>
@@ -9235,10 +9203,10 @@
         <v>524</v>
       </c>
       <c r="B363" s="44" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="C363" s="44" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>3</v>
@@ -9250,10 +9218,10 @@
         <v>525</v>
       </c>
       <c r="B364" s="44" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="C364" s="44" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>3</v>
@@ -9265,10 +9233,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="23" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="D365" s="11" t="s">
         <v>3</v>
@@ -9280,10 +9248,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="D366" s="11" t="s">
         <v>3</v>
@@ -9302,10 +9270,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="D368" s="11" t="s">
         <v>3</v>
@@ -9324,10 +9292,10 @@
         <v>526</v>
       </c>
       <c r="B370" s="44" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>3</v>
@@ -9346,10 +9314,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="D372" s="11" t="s">
         <v>3</v>
@@ -9361,10 +9329,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="D373" s="11" t="s">
         <v>3</v>
@@ -9376,10 +9344,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="D374" s="11" t="s">
         <v>3</v>
@@ -9391,10 +9359,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="D375" s="11" t="s">
         <v>3</v>
@@ -9406,10 +9374,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="D376" s="11" t="s">
         <v>3</v>
@@ -9421,10 +9389,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="D377" s="11" t="s">
         <v>3</v>
@@ -9436,10 +9404,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>3</v>
@@ -9458,10 +9426,10 @@
         <v>528</v>
       </c>
       <c r="B380" s="44" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="D380" s="21" t="s">
         <v>3</v>
@@ -9473,10 +9441,10 @@
         <v>529</v>
       </c>
       <c r="B381" s="44" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="D381" s="21" t="s">
         <v>3</v>
@@ -9488,10 +9456,10 @@
         <v>530</v>
       </c>
       <c r="B382" s="44" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="D382" s="21" t="s">
         <v>3</v>
@@ -9503,10 +9471,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="23" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="D383" s="11" t="s">
         <v>3</v>
@@ -9518,10 +9486,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="23" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="D384" s="11" t="s">
         <v>3</v>
@@ -9533,10 +9501,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="23" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="C385" s="23" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="D385" s="11" t="s">
         <v>3</v>
@@ -9548,10 +9516,10 @@
         <v>527</v>
       </c>
       <c r="B386" s="44" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="D386" s="21" t="s">
         <v>3</v>
@@ -9570,10 +9538,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="23" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="D388" s="11" t="s">
         <v>3</v>
@@ -9592,10 +9560,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="C390" s="36" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="D390" s="11" t="s">
         <v>3</v>
@@ -9614,10 +9582,10 @@
         <v>531</v>
       </c>
       <c r="B392" s="44" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="C392" s="44" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="D392" s="21" t="s">
         <v>3</v>
@@ -9629,10 +9597,10 @@
         <v>532</v>
       </c>
       <c r="B393" s="44" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="C393" s="44" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="D393" s="21" t="s">
         <v>3</v>
@@ -9644,10 +9612,10 @@
         <v>533</v>
       </c>
       <c r="B394" s="44" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="C394" s="44" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="D394" s="21" t="s">
         <v>3</v>
@@ -9659,10 +9627,10 @@
         <v>534</v>
       </c>
       <c r="B395" s="44" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="C395" s="44" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="D395" s="21" t="s">
         <v>3</v>
@@ -9674,10 +9642,10 @@
         <v>535</v>
       </c>
       <c r="B396" s="44" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="C396" s="44" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="D396" s="21" t="s">
         <v>3</v>
@@ -9689,10 +9657,10 @@
         <v>536</v>
       </c>
       <c r="B397" s="44" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="C397" s="44" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="D397" s="21" t="s">
         <v>3</v>
@@ -9704,10 +9672,10 @@
         <v>537</v>
       </c>
       <c r="B398" s="44" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="C398" s="44" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="D398" s="21" t="s">
         <v>3</v>
@@ -9719,10 +9687,10 @@
         <v>538</v>
       </c>
       <c r="B399" s="44" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="C399" s="44" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="D399" s="21" t="s">
         <v>3</v>
@@ -9734,10 +9702,10 @@
         <v>539</v>
       </c>
       <c r="B400" s="44" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="C400" s="44" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="D400" s="21" t="s">
         <v>3</v>
@@ -9749,10 +9717,10 @@
         <v>540</v>
       </c>
       <c r="B401" s="44" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="C401" s="44" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="D401" s="21" t="s">
         <v>3</v>
@@ -9764,10 +9732,10 @@
         <v>541</v>
       </c>
       <c r="B402" s="44" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="C402" s="44" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="D402" s="21" t="s">
         <v>3</v>
@@ -9779,10 +9747,10 @@
         <v>542</v>
       </c>
       <c r="B403" s="44" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="C403" s="44" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="D403" s="21" t="s">
         <v>3</v>
@@ -9794,10 +9762,10 @@
         <v>543</v>
       </c>
       <c r="B404" s="44" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="C404" s="44" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="D404" s="21" t="s">
         <v>3</v>
@@ -9809,10 +9777,10 @@
         <v>544</v>
       </c>
       <c r="B405" s="44" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="C405" s="44" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="D405" s="21" t="s">
         <v>3</v>
@@ -9831,10 +9799,10 @@
         <v>545</v>
       </c>
       <c r="B407" s="44" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="C407" s="44" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="D407" s="21" t="s">
         <v>3</v>
@@ -9846,10 +9814,10 @@
         <v>546</v>
       </c>
       <c r="B408" s="44" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="C408" s="44" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="D408" s="21" t="s">
         <v>3</v>
@@ -9861,10 +9829,10 @@
         <v>547</v>
       </c>
       <c r="B409" s="44" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="C409" s="44" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="D409" s="21" t="s">
         <v>3</v>
@@ -9876,10 +9844,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="23" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="C410" s="36" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="D410" s="11" t="s">
         <v>3</v>
@@ -9898,10 +9866,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="C412" s="36" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="D412" s="11" t="s">
         <v>3</v>
@@ -9913,10 +9881,10 @@
         <v>548</v>
       </c>
       <c r="B413" s="44" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="C413" s="44" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="D413" s="21" t="s">
         <v>3</v>
@@ -9928,10 +9896,10 @@
         <v>549</v>
       </c>
       <c r="B414" s="44" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="C414" s="44" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="D414" s="21" t="s">
         <v>3</v>
@@ -9950,10 +9918,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="23" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="C416" s="36" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="D416" s="11" t="s">
         <v>3</v>
@@ -9972,10 +9940,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="23" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="C418" s="36" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="D418" s="11" t="s">
         <v>3</v>
@@ -9987,10 +9955,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="C419" s="36" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="D419" s="11" t="s">
         <v>3</v>
@@ -10002,10 +9970,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="C420" s="36" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="D420" s="11" t="s">
         <v>3</v>
@@ -10017,10 +9985,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="C421" s="36" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="D421" s="11" t="s">
         <v>3</v>
@@ -10032,10 +10000,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="C422" s="23" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="D422" s="11" t="s">
         <v>3</v>
@@ -10047,10 +10015,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="C423" s="23" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="D423" s="11" t="s">
         <v>3</v>
@@ -10062,10 +10030,10 @@
         <v>550</v>
       </c>
       <c r="B424" s="44" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="C424" s="44" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="D424" s="21" t="s">
         <v>3</v>
@@ -10077,10 +10045,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="23" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="C425" s="36" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="D425" s="11" t="s">
         <v>3</v>
@@ -10092,10 +10060,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="23" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="C426" s="36" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="D426" s="11" t="s">
         <v>3</v>
@@ -10107,10 +10075,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="23" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="C427" s="36" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="D427" s="11" t="s">
         <v>3</v>
@@ -10122,10 +10090,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="23" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="C428" s="23" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>3</v>
@@ -10137,10 +10105,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="23" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="C429" s="23" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="D429" s="11" t="s">
         <v>3</v>
@@ -10152,10 +10120,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="26" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="C430" s="26" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="D430" s="18" t="s">
         <v>44</v>
@@ -10167,10 +10135,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="23" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="C431" s="23" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="D431" s="11" t="s">
         <v>3</v>
@@ -10182,10 +10150,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="23" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="C432" s="23" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="D432" s="11" t="s">
         <v>3</v>
@@ -10197,165 +10165,15 @@
         <v>432</v>
       </c>
       <c r="B433" s="23" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="C433" s="23" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="D433" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E433" s="24"/>
-    </row>
-    <row r="434" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A434" s="32">
-        <v>433</v>
-      </c>
-      <c r="B434" s="23" t="s">
-        <v>749</v>
-      </c>
-      <c r="C434" s="23" t="s">
-        <v>750</v>
-      </c>
-      <c r="D434" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E434" s="24"/>
-    </row>
-    <row r="435" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A435" s="32">
-        <v>434</v>
-      </c>
-      <c r="B435" s="23" t="s">
-        <v>751</v>
-      </c>
-      <c r="C435" s="23" t="s">
-        <v>752</v>
-      </c>
-      <c r="D435" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E435" s="24"/>
-    </row>
-    <row r="436" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A436" s="43">
-        <v>553</v>
-      </c>
-      <c r="B436" s="44" t="s">
-        <v>940</v>
-      </c>
-      <c r="C436" s="44" t="s">
-        <v>941</v>
-      </c>
-      <c r="D436" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E436" s="24"/>
-    </row>
-    <row r="437" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A437" s="32">
-        <v>436</v>
-      </c>
-      <c r="B437" s="23" t="s">
-        <v>753</v>
-      </c>
-      <c r="C437" s="36" t="s">
-        <v>754</v>
-      </c>
-      <c r="D437" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E437" s="24"/>
-    </row>
-    <row r="438" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A438" s="43">
-        <v>551</v>
-      </c>
-      <c r="B438" s="44" t="s">
-        <v>936</v>
-      </c>
-      <c r="C438" s="44" t="s">
-        <v>937</v>
-      </c>
-      <c r="D438" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E438" s="24"/>
-    </row>
-    <row r="439" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A439" s="43">
-        <v>552</v>
-      </c>
-      <c r="B439" s="44" t="s">
-        <v>938</v>
-      </c>
-      <c r="C439" s="44" t="s">
-        <v>939</v>
-      </c>
-      <c r="D439" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E439" s="24"/>
-    </row>
-    <row r="440" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A440" s="32">
-        <v>439</v>
-      </c>
-      <c r="B440" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="C440" s="23" t="s">
-        <v>756</v>
-      </c>
-      <c r="D440" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E440" s="24"/>
-    </row>
-    <row r="441" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A441" s="32">
-        <v>440</v>
-      </c>
-      <c r="B441" s="23" t="s">
-        <v>757</v>
-      </c>
-      <c r="C441" s="23" t="s">
-        <v>758</v>
-      </c>
-      <c r="D441" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E441" s="24"/>
-    </row>
-    <row r="442" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A442" s="32">
-        <v>441</v>
-      </c>
-      <c r="B442" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="C442" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="D442" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E442" s="24"/>
-    </row>
-    <row r="443" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A443" s="32">
-        <v>442</v>
-      </c>
-      <c r="B443" s="23" t="s">
-        <v>761</v>
-      </c>
-      <c r="C443" s="23" t="s">
-        <v>762</v>
-      </c>
-      <c r="D443" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E443" s="24"/>
     </row>
     <row r="444" spans="1:5" ht="15.75" customHeight="1">
       <c r="A444" s="32"/>
@@ -13483,7 +13301,7 @@
     <hyperlink ref="C244" r:id="rId5" tooltip="https://recruiterflow.com/e2x/jobs/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="C292" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="C274" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C437" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C186" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="C412" r:id="rId9" location="openroles" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="C416" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C420" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
@@ -13547,44 +13365,79 @@
     <hyperlink ref="C204" r:id="rId69" xr:uid="{8363F3AD-056B-4715-B1C8-840E9F1D6148}"/>
     <hyperlink ref="C129" r:id="rId70" xr:uid="{A015DFBF-0142-4084-9C30-287EF10C3164}"/>
     <hyperlink ref="C390" r:id="rId71" xr:uid="{DFCF4586-F71C-43A0-8169-054405FE1474}"/>
-    <hyperlink ref="C196" r:id="rId72" xr:uid="{975DC2A2-C4A1-4A0D-B6EC-84EC285D8F48}"/>
-    <hyperlink ref="C304" r:id="rId73" xr:uid="{EFBFD4AA-89F4-464C-9A2D-131FFE72FC66}"/>
-    <hyperlink ref="C330" r:id="rId74" xr:uid="{64DDB43E-99F8-48FF-A837-E484FC97B774}"/>
-    <hyperlink ref="C33" r:id="rId75" xr:uid="{FD6299B3-AB6C-45F7-8C7F-2A8EBA842F4B}"/>
-    <hyperlink ref="C82" r:id="rId76" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
-    <hyperlink ref="C83" r:id="rId77" xr:uid="{E92F8E64-7DB5-4FE7-8465-1D9433C65BE6}"/>
-    <hyperlink ref="C96" r:id="rId78" xr:uid="{A271AB2F-0D9E-4476-B4EB-607ECDE288F2}"/>
-    <hyperlink ref="C102" r:id="rId79" xr:uid="{E1FC5A6F-7878-4B2D-AA8A-719BE8D457C8}"/>
-    <hyperlink ref="C107" r:id="rId80" xr:uid="{8EA31F9B-B234-419B-9A34-DB1B2DF732C2}"/>
-    <hyperlink ref="C108" r:id="rId81" xr:uid="{D328A223-BF86-43CA-BCD3-E58AE228ECDE}"/>
-    <hyperlink ref="C109" r:id="rId82" xr:uid="{DB89B959-1210-4DDC-AD40-2E1FCD249C01}"/>
-    <hyperlink ref="C110" r:id="rId83" xr:uid="{BA74430D-8BBF-4BF8-9BD4-F9471689D705}"/>
-    <hyperlink ref="C111" r:id="rId84" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE" xr:uid="{60375166-175F-4134-90CC-73D9CAA6B106}"/>
-    <hyperlink ref="C112" r:id="rId85" xr:uid="{1D492E49-E312-424E-B4D2-E34B9A2E17B3}"/>
-    <hyperlink ref="C113" r:id="rId86" xr:uid="{551C5664-F2BD-4EA6-9593-7A6E6F1D3C8E}"/>
-    <hyperlink ref="C114" r:id="rId87" xr:uid="{78905E0C-068B-4953-89DA-D94A647E1691}"/>
-    <hyperlink ref="C115" r:id="rId88" xr:uid="{1DCA7C97-49EC-4B46-8125-D56578725670}"/>
-    <hyperlink ref="C119" r:id="rId89" xr:uid="{35542B58-E06D-4EB7-B611-3BE5EA4F87C7}"/>
-    <hyperlink ref="C122" r:id="rId90" xr:uid="{CE51666A-4EEA-424B-BBD7-A12B1274A86B}"/>
-    <hyperlink ref="C123" r:id="rId91" xr:uid="{2B1A4127-31E5-46DF-8844-86D981E13C08}"/>
-    <hyperlink ref="C125" r:id="rId92" xr:uid="{92267D42-6801-4E20-8D25-53D93AB88964}"/>
-    <hyperlink ref="C127" r:id="rId93" xr:uid="{3D899512-213F-42BB-A093-720599882439}"/>
-    <hyperlink ref="C128" r:id="rId94" xr:uid="{B95F3940-931A-4F53-A344-6C9125E0589E}"/>
-    <hyperlink ref="C130" r:id="rId95" xr:uid="{8ED3322F-F28C-4ED9-8234-C91A0B8347D7}"/>
-    <hyperlink ref="C132" r:id="rId96" xr:uid="{F3BBB286-63EA-4828-98CD-0611FD6E3B6E}"/>
-    <hyperlink ref="C133" r:id="rId97" xr:uid="{F33D4908-6592-4283-A85E-0FC966DFC57B}"/>
-    <hyperlink ref="C135" r:id="rId98" location="job-list" xr:uid="{EAEC1E23-E2ED-4DA5-B8DF-921A1E5A153A}"/>
-    <hyperlink ref="C136" r:id="rId99" xr:uid="{B2042DB7-E3B6-402F-9CE2-F3C4B169B07A}"/>
-    <hyperlink ref="C137" r:id="rId100" xr:uid="{0F3983E3-F14E-493F-89A7-01927D1D0459}"/>
-    <hyperlink ref="C138" r:id="rId101" xr:uid="{391AFF52-2CD8-4B75-AF5E-F3E139A5DF5E}"/>
-    <hyperlink ref="C139" r:id="rId102" xr:uid="{0F43EB73-0D2F-4520-BAB8-7C92246CA092}"/>
-    <hyperlink ref="C141" r:id="rId103" xr:uid="{7C95A87F-560A-428B-8640-938CA6B797E9}"/>
-    <hyperlink ref="C142" r:id="rId104" xr:uid="{3228B4DB-FB36-4EF3-BF8D-D12CCB17D8FA}"/>
-    <hyperlink ref="C145" r:id="rId105" location="global-opportunities" xr:uid="{C72D24AB-9105-486D-8097-3BAC17574303}"/>
-    <hyperlink ref="C146" r:id="rId106" xr:uid="{E70E06B2-AB39-4114-A882-527839C11896}"/>
-    <hyperlink ref="C148" r:id="rId107" location="jobs" xr:uid="{B12142BF-DD28-4F2F-9475-3548C8AA53CE}"/>
-    <hyperlink ref="C149" r:id="rId108" xr:uid="{79ED6EC3-16A2-4D52-B9D7-15E0D8EC591A}"/>
-    <hyperlink ref="C151" r:id="rId109" xr:uid="{F53A26AB-8E7C-444B-9A79-3487650E0958}"/>
+    <hyperlink ref="C304" r:id="rId72" xr:uid="{EFBFD4AA-89F4-464C-9A2D-131FFE72FC66}"/>
+    <hyperlink ref="C330" r:id="rId73" xr:uid="{64DDB43E-99F8-48FF-A837-E484FC97B774}"/>
+    <hyperlink ref="C33" r:id="rId74" xr:uid="{FD6299B3-AB6C-45F7-8C7F-2A8EBA842F4B}"/>
+    <hyperlink ref="C82" r:id="rId75" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
+    <hyperlink ref="C83" r:id="rId76" xr:uid="{E92F8E64-7DB5-4FE7-8465-1D9433C65BE6}"/>
+    <hyperlink ref="C96" r:id="rId77" xr:uid="{A271AB2F-0D9E-4476-B4EB-607ECDE288F2}"/>
+    <hyperlink ref="C102" r:id="rId78" xr:uid="{E1FC5A6F-7878-4B2D-AA8A-719BE8D457C8}"/>
+    <hyperlink ref="C107" r:id="rId79" xr:uid="{8EA31F9B-B234-419B-9A34-DB1B2DF732C2}"/>
+    <hyperlink ref="C108" r:id="rId80" xr:uid="{D328A223-BF86-43CA-BCD3-E58AE228ECDE}"/>
+    <hyperlink ref="C109" r:id="rId81" xr:uid="{DB89B959-1210-4DDC-AD40-2E1FCD249C01}"/>
+    <hyperlink ref="C110" r:id="rId82" xr:uid="{BA74430D-8BBF-4BF8-9BD4-F9471689D705}"/>
+    <hyperlink ref="C111" r:id="rId83" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE" xr:uid="{60375166-175F-4134-90CC-73D9CAA6B106}"/>
+    <hyperlink ref="C112" r:id="rId84" xr:uid="{1D492E49-E312-424E-B4D2-E34B9A2E17B3}"/>
+    <hyperlink ref="C113" r:id="rId85" xr:uid="{551C5664-F2BD-4EA6-9593-7A6E6F1D3C8E}"/>
+    <hyperlink ref="C114" r:id="rId86" xr:uid="{78905E0C-068B-4953-89DA-D94A647E1691}"/>
+    <hyperlink ref="C115" r:id="rId87" xr:uid="{1DCA7C97-49EC-4B46-8125-D56578725670}"/>
+    <hyperlink ref="C119" r:id="rId88" xr:uid="{35542B58-E06D-4EB7-B611-3BE5EA4F87C7}"/>
+    <hyperlink ref="C122" r:id="rId89" xr:uid="{CE51666A-4EEA-424B-BBD7-A12B1274A86B}"/>
+    <hyperlink ref="C123" r:id="rId90" xr:uid="{2B1A4127-31E5-46DF-8844-86D981E13C08}"/>
+    <hyperlink ref="C125" r:id="rId91" xr:uid="{92267D42-6801-4E20-8D25-53D93AB88964}"/>
+    <hyperlink ref="C127" r:id="rId92" xr:uid="{3D899512-213F-42BB-A093-720599882439}"/>
+    <hyperlink ref="C128" r:id="rId93" xr:uid="{B95F3940-931A-4F53-A344-6C9125E0589E}"/>
+    <hyperlink ref="C130" r:id="rId94" xr:uid="{8ED3322F-F28C-4ED9-8234-C91A0B8347D7}"/>
+    <hyperlink ref="C132" r:id="rId95" xr:uid="{F3BBB286-63EA-4828-98CD-0611FD6E3B6E}"/>
+    <hyperlink ref="C133" r:id="rId96" xr:uid="{F33D4908-6592-4283-A85E-0FC966DFC57B}"/>
+    <hyperlink ref="C135" r:id="rId97" location="job-list" xr:uid="{EAEC1E23-E2ED-4DA5-B8DF-921A1E5A153A}"/>
+    <hyperlink ref="C136" r:id="rId98" xr:uid="{B2042DB7-E3B6-402F-9CE2-F3C4B169B07A}"/>
+    <hyperlink ref="C137" r:id="rId99" xr:uid="{0F3983E3-F14E-493F-89A7-01927D1D0459}"/>
+    <hyperlink ref="C138" r:id="rId100" xr:uid="{391AFF52-2CD8-4B75-AF5E-F3E139A5DF5E}"/>
+    <hyperlink ref="C139" r:id="rId101" xr:uid="{0F43EB73-0D2F-4520-BAB8-7C92246CA092}"/>
+    <hyperlink ref="C141" r:id="rId102" xr:uid="{7C95A87F-560A-428B-8640-938CA6B797E9}"/>
+    <hyperlink ref="C142" r:id="rId103" xr:uid="{3228B4DB-FB36-4EF3-BF8D-D12CCB17D8FA}"/>
+    <hyperlink ref="C145" r:id="rId104" location="global-opportunities" xr:uid="{C72D24AB-9105-486D-8097-3BAC17574303}"/>
+    <hyperlink ref="C146" r:id="rId105" xr:uid="{E70E06B2-AB39-4114-A882-527839C11896}"/>
+    <hyperlink ref="C148" r:id="rId106" location="jobs" xr:uid="{B12142BF-DD28-4F2F-9475-3548C8AA53CE}"/>
+    <hyperlink ref="C149" r:id="rId107" xr:uid="{79ED6EC3-16A2-4D52-B9D7-15E0D8EC591A}"/>
+    <hyperlink ref="C151" r:id="rId108" xr:uid="{F53A26AB-8E7C-444B-9A79-3487650E0958}"/>
+    <hyperlink ref="C153" r:id="rId109" xr:uid="{3CD37775-6D73-4FD9-AEEA-A9EF943E44CC}"/>
+    <hyperlink ref="C154" r:id="rId110" xr:uid="{B1BEAA6B-895E-469D-A0AF-C3AF2DE74835}"/>
+    <hyperlink ref="C155" r:id="rId111" xr:uid="{2CB77D36-2166-4A94-95A2-F5929D290E0C}"/>
+    <hyperlink ref="C157" r:id="rId112" location="open-positions" xr:uid="{D024FCB7-37A1-4854-8458-9DBC4D9F3C6C}"/>
+    <hyperlink ref="C158" r:id="rId113" xr:uid="{C9530871-0B08-4170-B264-7B209ED12604}"/>
+    <hyperlink ref="C159" r:id="rId114" xr:uid="{EE47209B-5A3B-4E17-92A1-B87E39A7A6E0}"/>
+    <hyperlink ref="C160" r:id="rId115" xr:uid="{E4809222-2AD0-4530-93DB-9A0E7F15795A}"/>
+    <hyperlink ref="C161" r:id="rId116" xr:uid="{F7C00AEC-3517-40CE-83E5-BF3ED0560332}"/>
+    <hyperlink ref="C162" r:id="rId117" xr:uid="{6CF1D7A0-C489-46AC-A504-FD71385DA145}"/>
+    <hyperlink ref="C163" r:id="rId118" xr:uid="{1B4DB0EA-D105-42F0-8829-73AF944D4528}"/>
+    <hyperlink ref="C164" r:id="rId119" xr:uid="{5803301E-1A9E-4F01-A758-C63AF84621B8}"/>
+    <hyperlink ref="C165" r:id="rId120" xr:uid="{0E3D6C44-29A4-4844-A48A-30A39F30248E}"/>
+    <hyperlink ref="C166" r:id="rId121" xr:uid="{7208ADEE-8B99-40EA-8A62-0064B49083AD}"/>
+    <hyperlink ref="C167" r:id="rId122" xr:uid="{59461B16-4B70-4D00-8BC7-F7708B741D2F}"/>
+    <hyperlink ref="C168" r:id="rId123" xr:uid="{9081C54D-C37F-4912-A8DB-7D540D721277}"/>
+    <hyperlink ref="C170" r:id="rId124" location="openings" xr:uid="{EA921BB3-FB52-47BE-A50D-156B4083C4FB}"/>
+    <hyperlink ref="C171" r:id="rId125" xr:uid="{BEDCA254-8CF1-4299-90CC-261CFD6C01EA}"/>
+    <hyperlink ref="C172" r:id="rId126" xr:uid="{EA380F7C-7113-4695-90A8-C8541450E4C4}"/>
+    <hyperlink ref="C173" r:id="rId127" xr:uid="{34A50E0A-FFF6-4C7A-A6F6-1D43FF4A0942}"/>
+    <hyperlink ref="C174" r:id="rId128" xr:uid="{2626D6CD-DC7D-4802-8A30-FE93D693E2CF}"/>
+    <hyperlink ref="C176" r:id="rId129" location="open-positions" xr:uid="{043737A8-FC6B-4D62-BEAE-55C0CF8C18C0}"/>
+    <hyperlink ref="C178" r:id="rId130" xr:uid="{31A42998-0A93-4773-B2E9-3433CF82F5E9}"/>
+    <hyperlink ref="C179" r:id="rId131" xr:uid="{B56BB5AF-5CB8-44A9-B96F-201523FB4824}"/>
+    <hyperlink ref="C181" r:id="rId132" xr:uid="{AB8CD033-2031-4D36-8FBB-913D12DE9E68}"/>
+    <hyperlink ref="C182" r:id="rId133" location="open-positions" xr:uid="{20FB9C35-EC27-43A3-867E-1A8AB535FD96}"/>
+    <hyperlink ref="C183" r:id="rId134" xr:uid="{17E4F0F0-674A-4EC0-B3DF-3F6B1398F3E0}"/>
+    <hyperlink ref="C184" r:id="rId135" xr:uid="{9A6A7293-88AF-47CA-9724-C66304960BB1}"/>
+    <hyperlink ref="C189" r:id="rId136" xr:uid="{51BBB638-AA77-4430-B833-CCC92BE2CC9D}"/>
+    <hyperlink ref="C190" r:id="rId137" xr:uid="{F53A150F-2D92-458E-9E39-750CDE49C97C}"/>
+    <hyperlink ref="C192" r:id="rId138" xr:uid="{53934416-8B50-40C0-BEC0-3D0B22E91EDD}"/>
+    <hyperlink ref="C191" r:id="rId139" xr:uid="{B83531F9-8D8C-447E-88B1-0F6CED85ACBF}"/>
+    <hyperlink ref="C195" r:id="rId140" xr:uid="{B19C3A16-5022-4873-8265-24B905CC247C}"/>
+    <hyperlink ref="C196" r:id="rId141" xr:uid="{7B3EA3AF-BA71-4EA7-83B2-EE3238AFD65E}"/>
+    <hyperlink ref="C197" r:id="rId142" xr:uid="{9859BF7A-2434-44D2-AC43-25914E9E051B}"/>
+    <hyperlink ref="C198" r:id="rId143" xr:uid="{3F215D5E-EF08-4B00-9C58-B2A47EC2E220}"/>
+    <hyperlink ref="C200" r:id="rId144" xr:uid="{CFC5C64F-3044-47FE-9AD7-CB473C09FDF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE86F15-1341-4794-A9D8-E3C0AD501334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBC7606-66EB-4EF3-B96C-A89A3312DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="883">
   <si>
     <t>ID</t>
   </si>
@@ -1639,12 +1639,6 @@
     <t>https://www.capitalontap.com/en/company/careers/#careers-jobs</t>
   </si>
   <si>
-    <t>Curve Group Holdings</t>
-  </si>
-  <si>
-    <t>https://careers.smartrecruiters.com/CurveGroupHoldingsLimited</t>
-  </si>
-  <si>
     <t>Zephr</t>
   </si>
   <si>
@@ -1729,12 +1723,6 @@
     <t>https://careers.dazn.com/jobs/</t>
   </si>
   <si>
-    <t>Roche Chartered Surveyors</t>
-  </si>
-  <si>
-    <t>https://www.rochesurveyors.co.uk/about-us/join-us/</t>
-  </si>
-  <si>
     <t>Monument</t>
   </si>
   <si>
@@ -1762,9 +1750,6 @@
     <t>The Crown Estate</t>
   </si>
   <si>
-    <t>https://thecrownestate.teamtailor.com/#jobs</t>
-  </si>
-  <si>
     <t>Clear Treasury</t>
   </si>
   <si>
@@ -2383,18 +2368,6 @@
     <t>https://www.accenture.com/gb-en/careers/jobsearch?jk=&amp;sb=1&amp;vw=0&amp;is_rj=0&amp;pg=1</t>
   </si>
   <si>
-    <t>Lumin Wealth</t>
-  </si>
-  <si>
-    <t>https://luminwealth.co.uk/careers/</t>
-  </si>
-  <si>
-    <t>Social Value Portal</t>
-  </si>
-  <si>
-    <t>https://apply.workable.com/socialvalueportal/?lng=en#jobs</t>
-  </si>
-  <si>
     <t>Tilda</t>
   </si>
   <si>
@@ -2527,12 +2500,6 @@
     <t>https://cfc.pinpointhq.com/#js-careers-jobs-block</t>
   </si>
   <si>
-    <t>Red Tractor</t>
-  </si>
-  <si>
-    <t>https://redtractorassurance.org.uk/careers-at-red-tractor/</t>
-  </si>
-  <si>
     <t>Segro plc</t>
   </si>
   <si>
@@ -2548,9 +2515,6 @@
     <t>Noon - The Social Learning Platform</t>
   </si>
   <si>
-    <t>https://careers.learnatnoon.com/#jobs</t>
-  </si>
-  <si>
     <t>Fergus</t>
   </si>
   <si>
@@ -2699,6 +2663,12 @@
   </si>
   <si>
     <t>https://careers.swappie.com/jobs</t>
+  </si>
+  <si>
+    <t>https://careers.learnatnoon.com/jobs</t>
+  </si>
+  <si>
+    <t>https://thecrownestate.teamtailor.com/jobs</t>
   </si>
 </sst>
 </file>
@@ -3412,8 +3382,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3470,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
@@ -3549,7 +3519,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3</v>
@@ -3962,10 +3932,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>3</v>
@@ -3980,10 +3950,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D32" s="50" t="s">
         <v>3</v>
@@ -3995,10 +3965,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>3</v>
@@ -4099,10 +4069,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>3</v>
@@ -4237,10 +4207,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>3</v>
@@ -4850,10 +4820,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>3</v>
@@ -5069,10 +5039,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>3</v>
@@ -5237,10 +5207,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>3</v>
@@ -5286,10 +5256,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>3</v>
@@ -5331,10 +5301,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>3</v>
@@ -5436,10 +5406,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>3</v>
@@ -5496,10 +5466,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="55" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C123" s="56" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D123" s="50" t="s">
         <v>3</v>
@@ -5526,10 +5496,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>3</v>
@@ -5541,7 +5511,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>455</v>
@@ -5556,10 +5526,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>3</v>
@@ -5571,10 +5541,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>3</v>
@@ -5586,10 +5556,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>3</v>
@@ -5601,7 +5571,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>374</v>
@@ -5616,10 +5586,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>3</v>
@@ -5631,10 +5601,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>3</v>
@@ -5646,10 +5616,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="55" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C133" s="56" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D133" s="50" t="s">
         <v>3</v>
@@ -5661,10 +5631,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>3</v>
@@ -5676,10 +5646,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>3</v>
@@ -5691,10 +5661,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>3</v>
@@ -5709,7 +5679,7 @@
         <v>331</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>3</v>
@@ -5724,7 +5694,7 @@
         <v>332</v>
       </c>
       <c r="C138" s="49" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="D138" s="50" t="s">
         <v>3</v>
@@ -5769,7 +5739,7 @@
         <v>337</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>3</v>
@@ -5811,7 +5781,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>330</v>
@@ -5826,10 +5796,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>3</v>
@@ -5841,10 +5811,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>3</v>
@@ -5886,10 +5856,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D149" s="11" t="s">
         <v>3</v>
@@ -5931,10 +5901,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>3</v>
@@ -5979,7 +5949,7 @@
         <v>354</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>3</v>
@@ -5991,10 +5961,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>3</v>
@@ -6006,10 +5976,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>3</v>
@@ -6036,10 +6006,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>3</v>
@@ -6051,10 +6021,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>3</v>
@@ -6081,10 +6051,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>3</v>
@@ -6129,7 +6099,7 @@
         <v>363</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>3</v>
@@ -6171,10 +6141,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>3</v>
@@ -6186,10 +6156,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>3</v>
@@ -6204,7 +6174,7 @@
         <v>367</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>3</v>
@@ -6216,10 +6186,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>3</v>
@@ -6276,10 +6246,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="D175" s="18" t="s">
         <v>3</v>
@@ -6306,10 +6276,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>3</v>
@@ -6396,10 +6366,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="C183" s="58" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="D183" s="18" t="s">
         <v>3</v>
@@ -6441,10 +6411,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>3</v>
@@ -6471,10 +6441,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="D188" s="18" t="s">
         <v>3</v>
@@ -6519,7 +6489,7 @@
         <v>397</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>3</v>
@@ -6546,10 +6516,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>3</v>
@@ -6561,10 +6531,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D194" s="11" t="s">
         <v>3</v>
@@ -6591,10 +6561,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>3</v>
@@ -6681,10 +6651,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>3</v>
@@ -6696,10 +6666,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="D203" s="11" t="s">
         <v>3</v>
@@ -6726,10 +6696,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>3</v>
@@ -6789,7 +6759,7 @@
         <v>421</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="D209" s="11" t="s">
         <v>3</v>
@@ -6801,10 +6771,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D210" s="11" t="s">
         <v>3</v>
@@ -6819,7 +6789,7 @@
         <v>422</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>3</v>
@@ -6834,7 +6804,7 @@
         <v>423</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="D212" s="11" t="s">
         <v>3</v>
@@ -6924,7 +6894,7 @@
         <v>434</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>3</v>
@@ -6936,10 +6906,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>3</v>
@@ -7026,10 +6996,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>3</v>
@@ -7056,10 +7026,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="35" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="D227" s="18" t="s">
         <v>3</v>
@@ -7071,10 +7041,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>3</v>
@@ -7116,10 +7086,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>3</v>
@@ -7131,10 +7101,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>3</v>
@@ -7176,10 +7146,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D235" s="11" t="s">
         <v>3</v>
@@ -7236,10 +7206,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D239" s="11" t="s">
         <v>3</v>
@@ -7266,10 +7236,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C241" s="31" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>3</v>
@@ -7281,10 +7251,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="35" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C242" s="35" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="D242" s="18" t="s">
         <v>3</v>
@@ -7311,10 +7281,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D244" s="11" t="s">
         <v>3</v>
@@ -7401,10 +7371,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D250" s="11" t="s">
         <v>3</v>
@@ -7416,10 +7386,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D251" s="11" t="s">
         <v>3</v>
@@ -7464,7 +7434,7 @@
         <v>480</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>3</v>
@@ -7506,10 +7476,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="35" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="C257" s="35" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="D257" s="18" t="s">
         <v>3</v>
@@ -7521,10 +7491,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D258" s="11" t="s">
         <v>3</v>
@@ -7566,10 +7536,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="35" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C261" s="35" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D261" s="18" t="s">
         <v>3</v>
@@ -7599,7 +7569,7 @@
         <v>491</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="D263" s="11" t="s">
         <v>3</v>
@@ -7641,10 +7611,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>3</v>
@@ -7671,10 +7641,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="35" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="C268" s="58" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="D268" s="18" t="s">
         <v>3</v>
@@ -7686,10 +7656,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="35" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C269" s="58" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D269" s="18" t="s">
         <v>3</v>
@@ -7716,10 +7686,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="35" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C271" s="58" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D271" s="18" t="s">
         <v>3</v>
@@ -7779,7 +7749,7 @@
         <v>506</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>3</v>
@@ -7794,7 +7764,7 @@
         <v>507</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D276" s="11" t="s">
         <v>3</v>
@@ -7851,10 +7821,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="35" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C280" s="35" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>3</v>
@@ -7866,10 +7836,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="35" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C281" s="58" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>3</v>
@@ -7896,10 +7866,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="35" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="C283" s="35" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>3</v>
@@ -7941,10 +7911,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="35" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C286" s="35" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>3</v>
@@ -7956,10 +7926,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="35" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C287" s="35" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D287" s="18" t="s">
         <v>3</v>
@@ -7971,10 +7941,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="35" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C288" s="58" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D288" s="18" t="s">
         <v>3</v>
@@ -8016,10 +7986,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="35" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="C291" s="58" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="D291" s="18" t="s">
         <v>3</v>
@@ -8031,10 +8001,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="35" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="C292" s="58" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="D292" s="18" t="s">
         <v>3</v>
@@ -8091,10 +8061,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="35" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="C296" s="35" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D296" s="18" t="s">
         <v>3</v>
@@ -8124,7 +8094,7 @@
         <v>532</v>
       </c>
       <c r="C298" s="32" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>3</v>
@@ -8136,10 +8106,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="35" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C299" s="35" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D299" s="18" t="s">
         <v>3</v>
@@ -8151,10 +8121,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="35" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C300" s="35" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D300" s="18" t="s">
         <v>3</v>
@@ -8198,7 +8168,7 @@
       <c r="B303" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C303" s="20" t="s">
+      <c r="C303" s="32" t="s">
         <v>538</v>
       </c>
       <c r="D303" s="11" t="s">
@@ -8207,16 +8177,16 @@
       <c r="E303" s="30"/>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A304" s="28">
+      <c r="A304" s="34">
         <v>303</v>
       </c>
-      <c r="B304" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="C304" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="D304" s="11" t="s">
+      <c r="B304" s="35" t="s">
+        <v>830</v>
+      </c>
+      <c r="C304" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E304" s="21"/>
@@ -8226,10 +8196,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>3</v>
@@ -8241,40 +8211,40 @@
         <v>305</v>
       </c>
       <c r="B306" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E306" s="21"/>
+    </row>
+    <row r="307" spans="1:5" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A307" s="28">
+        <v>306</v>
+      </c>
+      <c r="B307" s="55" t="s">
         <v>543</v>
       </c>
-      <c r="C306" s="20" t="s">
+      <c r="C307" s="55" t="s">
         <v>544</v>
       </c>
-      <c r="D306" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E306" s="21"/>
-    </row>
-    <row r="307" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A307" s="26">
-        <v>306</v>
-      </c>
-      <c r="B307" s="22" t="s">
-        <v>545</v>
-      </c>
-      <c r="C307" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E307" s="23"/>
+      <c r="D307" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E307" s="54"/>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1">
       <c r="A308" s="28">
         <v>307</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D308" s="11" t="s">
         <v>3</v>
@@ -8286,10 +8256,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="C309" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>548</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>3</v>
@@ -8301,10 +8271,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>3</v>
@@ -8316,10 +8286,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="C311" s="20" t="s">
-        <v>554</v>
+        <v>551</v>
+      </c>
+      <c r="C311" s="32" t="s">
+        <v>552</v>
       </c>
       <c r="D311" s="11" t="s">
         <v>3</v>
@@ -8331,10 +8301,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D312" s="11" t="s">
         <v>3</v>
@@ -8346,10 +8316,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="C313" s="20" t="s">
-        <v>558</v>
+        <v>555</v>
+      </c>
+      <c r="C313" s="32" t="s">
+        <v>556</v>
       </c>
       <c r="D313" s="11" t="s">
         <v>3</v>
@@ -8361,10 +8331,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D314" s="11" t="s">
         <v>3</v>
@@ -8372,10 +8342,18 @@
       <c r="E314" s="21"/>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A315" s="34"/>
-      <c r="B315" s="35"/>
-      <c r="C315" s="35"/>
-      <c r="D315" s="18"/>
+      <c r="A315" s="34">
+        <v>314</v>
+      </c>
+      <c r="B315" s="35" t="s">
+        <v>828</v>
+      </c>
+      <c r="C315" s="35" t="s">
+        <v>829</v>
+      </c>
+      <c r="D315" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E315" s="21"/>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1">
@@ -8383,10 +8361,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D316" s="11" t="s">
         <v>3</v>
@@ -8398,10 +8376,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D317" s="11" t="s">
         <v>3</v>
@@ -8413,10 +8391,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D318" s="11" t="s">
         <v>3</v>
@@ -8428,10 +8406,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D319" s="11" t="s">
         <v>3</v>
@@ -8439,23 +8417,31 @@
       <c r="E319" s="21"/>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A320" s="28"/>
-      <c r="B320" s="20"/>
-      <c r="C320" s="20"/>
-      <c r="D320" s="11"/>
+      <c r="A320" s="34">
+        <v>319</v>
+      </c>
+      <c r="B320" s="35" t="s">
+        <v>826</v>
+      </c>
+      <c r="C320" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="D320" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E320" s="21"/>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A321" s="28">
+      <c r="A321" s="34">
         <v>320</v>
       </c>
-      <c r="B321" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="C321" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D321" s="11" t="s">
+      <c r="B321" s="35" t="s">
+        <v>824</v>
+      </c>
+      <c r="C321" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="D321" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E321" s="21"/>
@@ -8465,10 +8451,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>3</v>
@@ -8480,10 +8466,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D323" s="11" t="s">
         <v>3</v>
@@ -8495,10 +8481,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="C324" s="20" t="s">
-        <v>576</v>
+        <v>571</v>
+      </c>
+      <c r="C324" s="32" t="s">
+        <v>572</v>
       </c>
       <c r="D324" s="11" t="s">
         <v>3</v>
@@ -8510,10 +8496,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D325" s="11" t="s">
         <v>3</v>
@@ -8525,10 +8511,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="C326" s="20" t="s">
-        <v>580</v>
+        <v>575</v>
+      </c>
+      <c r="C326" s="32" t="s">
+        <v>882</v>
       </c>
       <c r="D326" s="11" t="s">
         <v>3</v>
@@ -8537,13 +8523,13 @@
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1">
       <c r="A327" s="34">
-        <v>513</v>
+        <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>787</v>
+        <v>822</v>
       </c>
       <c r="C327" s="35" t="s">
-        <v>788</v>
+        <v>823</v>
       </c>
       <c r="D327" s="18" t="s">
         <v>3</v>
@@ -8555,10 +8541,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D328" s="11" t="s">
         <v>3</v>
@@ -8570,10 +8556,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C329" s="20" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D329" s="11" t="s">
         <v>3</v>
@@ -8585,10 +8571,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C330" s="32" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>3</v>
@@ -8597,13 +8583,13 @@
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1">
       <c r="A331" s="34">
-        <v>514</v>
+        <v>330</v>
       </c>
       <c r="B331" s="35" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="C331" s="35" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="D331" s="18" t="s">
         <v>3</v>
@@ -8612,13 +8598,13 @@
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1">
       <c r="A332" s="34">
-        <v>515</v>
+        <v>331</v>
       </c>
       <c r="B332" s="35" t="s">
-        <v>791</v>
-      </c>
-      <c r="C332" s="35" t="s">
-        <v>792</v>
+        <v>782</v>
+      </c>
+      <c r="C332" s="58" t="s">
+        <v>783</v>
       </c>
       <c r="D332" s="18" t="s">
         <v>3</v>
@@ -8630,10 +8616,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>587</v>
-      </c>
-      <c r="C333" s="20" t="s">
-        <v>588</v>
+        <v>582</v>
+      </c>
+      <c r="C333" s="32" t="s">
+        <v>583</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>3</v>
@@ -8642,13 +8628,13 @@
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1">
       <c r="A334" s="34">
-        <v>516</v>
+        <v>333</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C334" s="35" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D334" s="18" t="s">
         <v>3</v>
@@ -8660,10 +8646,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="C335" s="20" t="s">
-        <v>590</v>
+        <v>584</v>
+      </c>
+      <c r="C335" s="32" t="s">
+        <v>585</v>
       </c>
       <c r="D335" s="11" t="s">
         <v>3</v>
@@ -8672,13 +8658,13 @@
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1">
       <c r="A336" s="34">
-        <v>517</v>
+        <v>335</v>
       </c>
       <c r="B336" s="35" t="s">
-        <v>795</v>
-      </c>
-      <c r="C336" s="35" t="s">
-        <v>796</v>
+        <v>786</v>
+      </c>
+      <c r="C336" s="58" t="s">
+        <v>787</v>
       </c>
       <c r="D336" s="18" t="s">
         <v>3</v>
@@ -8690,10 +8676,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C337" s="20" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>3</v>
@@ -8702,13 +8688,13 @@
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1">
       <c r="A338" s="34">
-        <v>518</v>
+        <v>337</v>
       </c>
       <c r="B338" s="35" t="s">
-        <v>797</v>
-      </c>
-      <c r="C338" s="35" t="s">
-        <v>798</v>
+        <v>788</v>
+      </c>
+      <c r="C338" s="58" t="s">
+        <v>789</v>
       </c>
       <c r="D338" s="18" t="s">
         <v>3</v>
@@ -8720,10 +8706,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="C339" s="31" t="s">
-        <v>594</v>
+        <v>588</v>
+      </c>
+      <c r="C339" s="32" t="s">
+        <v>589</v>
       </c>
       <c r="D339" s="11" t="s">
         <v>3</v>
@@ -8735,10 +8721,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="C340" s="20" t="s">
-        <v>596</v>
+        <v>590</v>
+      </c>
+      <c r="C340" s="32" t="s">
+        <v>591</v>
       </c>
       <c r="D340" s="11" t="s">
         <v>3</v>
@@ -8750,10 +8736,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C341" s="20" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D341" s="11" t="s">
         <v>3</v>
@@ -8762,13 +8748,13 @@
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1">
       <c r="A342" s="34">
-        <v>519</v>
+        <v>341</v>
       </c>
       <c r="B342" s="35" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C342" s="35" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D342" s="18" t="s">
         <v>3</v>
@@ -8777,13 +8763,13 @@
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1">
       <c r="A343" s="34">
-        <v>520</v>
+        <v>342</v>
       </c>
       <c r="B343" s="35" t="s">
-        <v>801</v>
-      </c>
-      <c r="C343" s="35" t="s">
-        <v>802</v>
+        <v>792</v>
+      </c>
+      <c r="C343" s="58" t="s">
+        <v>793</v>
       </c>
       <c r="D343" s="18" t="s">
         <v>3</v>
@@ -8792,13 +8778,13 @@
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1">
       <c r="A344" s="34">
-        <v>521</v>
+        <v>343</v>
       </c>
       <c r="B344" s="35" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C344" s="35" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D344" s="18" t="s">
         <v>3</v>
@@ -8810,10 +8796,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C345" s="31" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D345" s="11" t="s">
         <v>3</v>
@@ -8825,10 +8811,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C346" s="20" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D346" s="11" t="s">
         <v>3</v>
@@ -8840,10 +8826,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D347" s="11" t="s">
         <v>3</v>
@@ -8855,10 +8841,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="C348" s="20" t="s">
-        <v>606</v>
+        <v>600</v>
+      </c>
+      <c r="C348" s="32" t="s">
+        <v>601</v>
       </c>
       <c r="D348" s="11" t="s">
         <v>3</v>
@@ -8870,10 +8856,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>607</v>
-      </c>
-      <c r="C349" s="20" t="s">
-        <v>608</v>
+        <v>602</v>
+      </c>
+      <c r="C349" s="32" t="s">
+        <v>603</v>
       </c>
       <c r="D349" s="11" t="s">
         <v>3</v>
@@ -8885,9 +8871,9 @@
         <v>349</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C350" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="C350" s="32" t="s">
         <v>414</v>
       </c>
       <c r="D350" s="11" t="s">
@@ -8897,13 +8883,13 @@
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1">
       <c r="A351" s="34">
-        <v>522</v>
+        <v>350</v>
       </c>
       <c r="B351" s="35" t="s">
-        <v>805</v>
-      </c>
-      <c r="C351" s="35" t="s">
-        <v>806</v>
+        <v>796</v>
+      </c>
+      <c r="C351" s="58" t="s">
+        <v>797</v>
       </c>
       <c r="D351" s="18" t="s">
         <v>3</v>
@@ -8915,10 +8901,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D352" s="11" t="s">
         <v>3</v>
@@ -8930,10 +8916,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C353" s="20" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>3</v>
@@ -8945,10 +8931,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C354" s="20" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>3</v>
@@ -8960,10 +8946,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C355" s="20" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>3</v>
@@ -8975,10 +8961,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C356" s="20" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>3</v>
@@ -8990,10 +8976,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C357" s="20" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>3</v>
@@ -9005,10 +8991,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C358" s="20" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>3</v>
@@ -9020,10 +9006,10 @@
         <v>523</v>
       </c>
       <c r="B359" s="35" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C359" s="35" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D359" s="18" t="s">
         <v>3</v>
@@ -9035,10 +9021,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C360" s="20" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D360" s="11" t="s">
         <v>3</v>
@@ -9050,10 +9036,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C361" s="20" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D361" s="11" t="s">
         <v>3</v>
@@ -9065,10 +9051,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C362" s="20" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D362" s="11" t="s">
         <v>3</v>
@@ -9080,10 +9066,10 @@
         <v>524</v>
       </c>
       <c r="B363" s="35" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="C363" s="35" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D363" s="18" t="s">
         <v>3</v>
@@ -9095,10 +9081,10 @@
         <v>525</v>
       </c>
       <c r="B364" s="35" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C364" s="35" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D364" s="18" t="s">
         <v>3</v>
@@ -9110,10 +9096,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C365" s="20" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D365" s="11" t="s">
         <v>3</v>
@@ -9125,10 +9111,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D366" s="11" t="s">
         <v>3</v>
@@ -9147,10 +9133,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C368" s="20" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D368" s="11" t="s">
         <v>3</v>
@@ -9169,10 +9155,10 @@
         <v>526</v>
       </c>
       <c r="B370" s="35" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C370" s="35" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D370" s="18" t="s">
         <v>3</v>
@@ -9191,10 +9177,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D372" s="11" t="s">
         <v>3</v>
@@ -9206,10 +9192,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D373" s="11" t="s">
         <v>3</v>
@@ -9221,10 +9207,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C374" s="20" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D374" s="11" t="s">
         <v>3</v>
@@ -9236,10 +9222,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C375" s="20" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D375" s="11" t="s">
         <v>3</v>
@@ -9251,10 +9237,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C376" s="20" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D376" s="11" t="s">
         <v>3</v>
@@ -9266,10 +9252,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C377" s="20" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D377" s="11" t="s">
         <v>3</v>
@@ -9281,10 +9267,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C378" s="20" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>3</v>
@@ -9303,10 +9289,10 @@
         <v>528</v>
       </c>
       <c r="B380" s="35" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C380" s="35" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D380" s="18" t="s">
         <v>3</v>
@@ -9318,10 +9304,10 @@
         <v>529</v>
       </c>
       <c r="B381" s="35" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C381" s="35" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D381" s="18" t="s">
         <v>3</v>
@@ -9333,10 +9319,10 @@
         <v>530</v>
       </c>
       <c r="B382" s="35" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C382" s="35" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D382" s="18" t="s">
         <v>3</v>
@@ -9348,10 +9334,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C383" s="20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D383" s="11" t="s">
         <v>3</v>
@@ -9363,10 +9349,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D384" s="11" t="s">
         <v>3</v>
@@ -9378,10 +9364,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C385" s="20" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D385" s="11" t="s">
         <v>3</v>
@@ -9393,10 +9379,10 @@
         <v>527</v>
       </c>
       <c r="B386" s="35" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="C386" s="35" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D386" s="18" t="s">
         <v>3</v>
@@ -9415,10 +9401,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D388" s="11" t="s">
         <v>3</v>
@@ -9437,10 +9423,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C390" s="32" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D390" s="11" t="s">
         <v>3</v>
@@ -9459,10 +9445,10 @@
         <v>531</v>
       </c>
       <c r="B392" s="35" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="C392" s="35" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="D392" s="18" t="s">
         <v>3</v>
@@ -9474,10 +9460,10 @@
         <v>532</v>
       </c>
       <c r="B393" s="35" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C393" s="35" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D393" s="18" t="s">
         <v>3</v>
@@ -9489,120 +9475,15 @@
         <v>533</v>
       </c>
       <c r="B394" s="35" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C394" s="35" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="D394" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E394" s="21"/>
-    </row>
-    <row r="395" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A395" s="34">
-        <v>534</v>
-      </c>
-      <c r="B395" s="35" t="s">
-        <v>829</v>
-      </c>
-      <c r="C395" s="35" t="s">
-        <v>830</v>
-      </c>
-      <c r="D395" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E395" s="21"/>
-    </row>
-    <row r="396" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A396" s="34">
-        <v>535</v>
-      </c>
-      <c r="B396" s="35" t="s">
-        <v>831</v>
-      </c>
-      <c r="C396" s="35" t="s">
-        <v>832</v>
-      </c>
-      <c r="D396" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E396" s="21"/>
-    </row>
-    <row r="397" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A397" s="34">
-        <v>536</v>
-      </c>
-      <c r="B397" s="35" t="s">
-        <v>833</v>
-      </c>
-      <c r="C397" s="35" t="s">
-        <v>834</v>
-      </c>
-      <c r="D397" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E397" s="21"/>
-    </row>
-    <row r="398" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A398" s="34">
-        <v>537</v>
-      </c>
-      <c r="B398" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="C398" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="D398" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E398" s="21"/>
-    </row>
-    <row r="399" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A399" s="34">
-        <v>538</v>
-      </c>
-      <c r="B399" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="C399" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="D399" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E399" s="21"/>
-    </row>
-    <row r="400" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A400" s="34">
-        <v>539</v>
-      </c>
-      <c r="B400" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="C400" s="35" t="s">
-        <v>840</v>
-      </c>
-      <c r="D400" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E400" s="21"/>
-    </row>
-    <row r="401" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A401" s="34">
-        <v>540</v>
-      </c>
-      <c r="B401" s="35" t="s">
-        <v>841</v>
-      </c>
-      <c r="C401" s="35" t="s">
-        <v>842</v>
-      </c>
-      <c r="D401" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E401" s="21"/>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1">
       <c r="A406" s="28"/>
@@ -9637,10 +9518,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="22" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C430" s="27" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D430" s="16" t="s">
         <v>44</v>
@@ -12766,7 +12647,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C339" r:id="rId1" tooltip="https://apply.workable.com/gohenry/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C339" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C345" r:id="rId2" tooltip="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C232" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C241" r:id="rId4" tooltip="https://apply.monsoonjobs.com/search_and_apply/vacancies/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
@@ -12831,123 +12712,140 @@
     <hyperlink ref="C204" r:id="rId63" xr:uid="{8363F3AD-056B-4715-B1C8-840E9F1D6148}"/>
     <hyperlink ref="C129" r:id="rId64" xr:uid="{A015DFBF-0142-4084-9C30-287EF10C3164}"/>
     <hyperlink ref="C390" r:id="rId65" xr:uid="{DFCF4586-F71C-43A0-8169-054405FE1474}"/>
-    <hyperlink ref="C304" r:id="rId66" xr:uid="{EFBFD4AA-89F4-464C-9A2D-131FFE72FC66}"/>
-    <hyperlink ref="C330" r:id="rId67" xr:uid="{64DDB43E-99F8-48FF-A837-E484FC97B774}"/>
-    <hyperlink ref="C33" r:id="rId68" xr:uid="{FD6299B3-AB6C-45F7-8C7F-2A8EBA842F4B}"/>
-    <hyperlink ref="C82" r:id="rId69" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
-    <hyperlink ref="C83" r:id="rId70" xr:uid="{E92F8E64-7DB5-4FE7-8465-1D9433C65BE6}"/>
-    <hyperlink ref="C96" r:id="rId71" xr:uid="{A271AB2F-0D9E-4476-B4EB-607ECDE288F2}"/>
-    <hyperlink ref="C102" r:id="rId72" xr:uid="{E1FC5A6F-7878-4B2D-AA8A-719BE8D457C8}"/>
-    <hyperlink ref="C107" r:id="rId73" xr:uid="{8EA31F9B-B234-419B-9A34-DB1B2DF732C2}"/>
-    <hyperlink ref="C108" r:id="rId74" xr:uid="{D328A223-BF86-43CA-BCD3-E58AE228ECDE}"/>
-    <hyperlink ref="C109" r:id="rId75" xr:uid="{DB89B959-1210-4DDC-AD40-2E1FCD249C01}"/>
-    <hyperlink ref="C110" r:id="rId76" xr:uid="{BA74430D-8BBF-4BF8-9BD4-F9471689D705}"/>
-    <hyperlink ref="C111" r:id="rId77" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE" xr:uid="{60375166-175F-4134-90CC-73D9CAA6B106}"/>
-    <hyperlink ref="C112" r:id="rId78" xr:uid="{1D492E49-E312-424E-B4D2-E34B9A2E17B3}"/>
-    <hyperlink ref="C113" r:id="rId79" xr:uid="{551C5664-F2BD-4EA6-9593-7A6E6F1D3C8E}"/>
-    <hyperlink ref="C114" r:id="rId80" xr:uid="{78905E0C-068B-4953-89DA-D94A647E1691}"/>
-    <hyperlink ref="C115" r:id="rId81" xr:uid="{1DCA7C97-49EC-4B46-8125-D56578725670}"/>
-    <hyperlink ref="C119" r:id="rId82" xr:uid="{35542B58-E06D-4EB7-B611-3BE5EA4F87C7}"/>
-    <hyperlink ref="C122" r:id="rId83" xr:uid="{CE51666A-4EEA-424B-BBD7-A12B1274A86B}"/>
-    <hyperlink ref="C123" r:id="rId84" xr:uid="{2B1A4127-31E5-46DF-8844-86D981E13C08}"/>
-    <hyperlink ref="C125" r:id="rId85" xr:uid="{92267D42-6801-4E20-8D25-53D93AB88964}"/>
-    <hyperlink ref="C127" r:id="rId86" xr:uid="{3D899512-213F-42BB-A093-720599882439}"/>
-    <hyperlink ref="C128" r:id="rId87" xr:uid="{B95F3940-931A-4F53-A344-6C9125E0589E}"/>
-    <hyperlink ref="C130" r:id="rId88" xr:uid="{8ED3322F-F28C-4ED9-8234-C91A0B8347D7}"/>
-    <hyperlink ref="C132" r:id="rId89" xr:uid="{F3BBB286-63EA-4828-98CD-0611FD6E3B6E}"/>
-    <hyperlink ref="C133" r:id="rId90" xr:uid="{F33D4908-6592-4283-A85E-0FC966DFC57B}"/>
-    <hyperlink ref="C135" r:id="rId91" location="job-list" xr:uid="{EAEC1E23-E2ED-4DA5-B8DF-921A1E5A153A}"/>
-    <hyperlink ref="C136" r:id="rId92" xr:uid="{B2042DB7-E3B6-402F-9CE2-F3C4B169B07A}"/>
-    <hyperlink ref="C137" r:id="rId93" xr:uid="{0F3983E3-F14E-493F-89A7-01927D1D0459}"/>
-    <hyperlink ref="C138" r:id="rId94" xr:uid="{391AFF52-2CD8-4B75-AF5E-F3E139A5DF5E}"/>
-    <hyperlink ref="C139" r:id="rId95" xr:uid="{0F43EB73-0D2F-4520-BAB8-7C92246CA092}"/>
-    <hyperlink ref="C141" r:id="rId96" xr:uid="{7C95A87F-560A-428B-8640-938CA6B797E9}"/>
-    <hyperlink ref="C142" r:id="rId97" xr:uid="{3228B4DB-FB36-4EF3-BF8D-D12CCB17D8FA}"/>
-    <hyperlink ref="C145" r:id="rId98" location="global-opportunities" xr:uid="{C72D24AB-9105-486D-8097-3BAC17574303}"/>
-    <hyperlink ref="C146" r:id="rId99" xr:uid="{E70E06B2-AB39-4114-A882-527839C11896}"/>
-    <hyperlink ref="C148" r:id="rId100" location="jobs" xr:uid="{B12142BF-DD28-4F2F-9475-3548C8AA53CE}"/>
-    <hyperlink ref="C149" r:id="rId101" xr:uid="{79ED6EC3-16A2-4D52-B9D7-15E0D8EC591A}"/>
-    <hyperlink ref="C151" r:id="rId102" xr:uid="{F53A26AB-8E7C-444B-9A79-3487650E0958}"/>
-    <hyperlink ref="C153" r:id="rId103" xr:uid="{3CD37775-6D73-4FD9-AEEA-A9EF943E44CC}"/>
-    <hyperlink ref="C154" r:id="rId104" xr:uid="{B1BEAA6B-895E-469D-A0AF-C3AF2DE74835}"/>
-    <hyperlink ref="C155" r:id="rId105" xr:uid="{2CB77D36-2166-4A94-95A2-F5929D290E0C}"/>
-    <hyperlink ref="C157" r:id="rId106" location="open-positions" xr:uid="{D024FCB7-37A1-4854-8458-9DBC4D9F3C6C}"/>
-    <hyperlink ref="C158" r:id="rId107" xr:uid="{C9530871-0B08-4170-B264-7B209ED12604}"/>
-    <hyperlink ref="C159" r:id="rId108" xr:uid="{EE47209B-5A3B-4E17-92A1-B87E39A7A6E0}"/>
-    <hyperlink ref="C160" r:id="rId109" xr:uid="{E4809222-2AD0-4530-93DB-9A0E7F15795A}"/>
-    <hyperlink ref="C161" r:id="rId110" xr:uid="{F7C00AEC-3517-40CE-83E5-BF3ED0560332}"/>
-    <hyperlink ref="C162" r:id="rId111" xr:uid="{6CF1D7A0-C489-46AC-A504-FD71385DA145}"/>
-    <hyperlink ref="C163" r:id="rId112" xr:uid="{1B4DB0EA-D105-42F0-8829-73AF944D4528}"/>
-    <hyperlink ref="C164" r:id="rId113" xr:uid="{5803301E-1A9E-4F01-A758-C63AF84621B8}"/>
-    <hyperlink ref="C165" r:id="rId114" xr:uid="{0E3D6C44-29A4-4844-A48A-30A39F30248E}"/>
-    <hyperlink ref="C166" r:id="rId115" xr:uid="{7208ADEE-8B99-40EA-8A62-0064B49083AD}"/>
-    <hyperlink ref="C167" r:id="rId116" xr:uid="{59461B16-4B70-4D00-8BC7-F7708B741D2F}"/>
-    <hyperlink ref="C168" r:id="rId117" xr:uid="{9081C54D-C37F-4912-A8DB-7D540D721277}"/>
-    <hyperlink ref="C170" r:id="rId118" location="openings" xr:uid="{EA921BB3-FB52-47BE-A50D-156B4083C4FB}"/>
-    <hyperlink ref="C171" r:id="rId119" xr:uid="{BEDCA254-8CF1-4299-90CC-261CFD6C01EA}"/>
-    <hyperlink ref="C172" r:id="rId120" xr:uid="{EA380F7C-7113-4695-90A8-C8541450E4C4}"/>
-    <hyperlink ref="C173" r:id="rId121" xr:uid="{34A50E0A-FFF6-4C7A-A6F6-1D43FF4A0942}"/>
-    <hyperlink ref="C174" r:id="rId122" xr:uid="{2626D6CD-DC7D-4802-8A30-FE93D693E2CF}"/>
-    <hyperlink ref="C176" r:id="rId123" location="open-positions" xr:uid="{043737A8-FC6B-4D62-BEAE-55C0CF8C18C0}"/>
-    <hyperlink ref="C178" r:id="rId124" xr:uid="{31A42998-0A93-4773-B2E9-3433CF82F5E9}"/>
-    <hyperlink ref="C179" r:id="rId125" xr:uid="{B56BB5AF-5CB8-44A9-B96F-201523FB4824}"/>
-    <hyperlink ref="C181" r:id="rId126" xr:uid="{AB8CD033-2031-4D36-8FBB-913D12DE9E68}"/>
-    <hyperlink ref="C182" r:id="rId127" location="open-positions" xr:uid="{20FB9C35-EC27-43A3-867E-1A8AB535FD96}"/>
-    <hyperlink ref="C183" r:id="rId128" xr:uid="{17E4F0F0-674A-4EC0-B3DF-3F6B1398F3E0}"/>
-    <hyperlink ref="C184" r:id="rId129" xr:uid="{9A6A7293-88AF-47CA-9724-C66304960BB1}"/>
-    <hyperlink ref="C189" r:id="rId130" xr:uid="{51BBB638-AA77-4430-B833-CCC92BE2CC9D}"/>
-    <hyperlink ref="C190" r:id="rId131" xr:uid="{F53A150F-2D92-458E-9E39-750CDE49C97C}"/>
-    <hyperlink ref="C192" r:id="rId132" xr:uid="{53934416-8B50-40C0-BEC0-3D0B22E91EDD}"/>
-    <hyperlink ref="C191" r:id="rId133" xr:uid="{B83531F9-8D8C-447E-88B1-0F6CED85ACBF}"/>
-    <hyperlink ref="C195" r:id="rId134" xr:uid="{B19C3A16-5022-4873-8265-24B905CC247C}"/>
-    <hyperlink ref="C196" r:id="rId135" xr:uid="{7B3EA3AF-BA71-4EA7-83B2-EE3238AFD65E}"/>
-    <hyperlink ref="C197" r:id="rId136" xr:uid="{9859BF7A-2434-44D2-AC43-25914E9E051B}"/>
-    <hyperlink ref="C198" r:id="rId137" xr:uid="{3F215D5E-EF08-4B00-9C58-B2A47EC2E220}"/>
-    <hyperlink ref="C200" r:id="rId138" xr:uid="{CFC5C64F-3044-47FE-9AD7-CB473C09FDF6}"/>
-    <hyperlink ref="C203" r:id="rId139" xr:uid="{C1FA293D-717D-4ABC-863E-9087F6D9ED6E}"/>
-    <hyperlink ref="C205" r:id="rId140" xr:uid="{4A930C75-69A4-4A89-9E95-173511B4DEF3}"/>
-    <hyperlink ref="C206" r:id="rId141" xr:uid="{D03C6249-10AB-4895-B9D7-6CA3640857B7}"/>
-    <hyperlink ref="C207" r:id="rId142" xr:uid="{BCF38901-CD59-45FD-B3F8-94942D74827E}"/>
-    <hyperlink ref="C208" r:id="rId143" xr:uid="{48BD3DED-5290-41C8-B8D3-AC8FB92FE20C}"/>
-    <hyperlink ref="C209" r:id="rId144" xr:uid="{4742534B-8FB6-4F77-A587-A5062F4DFC75}"/>
-    <hyperlink ref="C211" r:id="rId145" xr:uid="{36BAE7CD-0D8A-4F75-8100-5D7657A881ED}"/>
-    <hyperlink ref="C212" r:id="rId146" xr:uid="{CFAA2B9D-C942-4E52-999F-7CBCAD6F7055}"/>
-    <hyperlink ref="C214" r:id="rId147" xr:uid="{BA7C0AF9-20BD-46F7-8D75-6CFAF7D3C2B7}"/>
-    <hyperlink ref="C218" r:id="rId148" xr:uid="{48ADAF1A-B6B3-4834-92D3-DEF1D7E2DA5D}"/>
-    <hyperlink ref="C430" r:id="rId149" xr:uid="{A72CD26D-7DCD-46DB-8F7E-3ECA28E7A847}"/>
-    <hyperlink ref="C219" r:id="rId150" xr:uid="{D064E45C-0AE1-48F5-A6E5-150FB80B9B0E}"/>
-    <hyperlink ref="C224" r:id="rId151" xr:uid="{468B3B7F-36B4-4530-87DD-B717333916BE}"/>
-    <hyperlink ref="C240" r:id="rId152" xr:uid="{EC0E4932-260F-4C1F-B524-159C5A35518E}"/>
-    <hyperlink ref="C243" r:id="rId153" xr:uid="{FA472E2B-FE47-4648-841A-C507BB2AB2AF}"/>
-    <hyperlink ref="C252" r:id="rId154" xr:uid="{B3D1D6CA-873F-4873-B7A0-7F183B44A9FA}"/>
-    <hyperlink ref="C254" r:id="rId155" xr:uid="{EB36D851-50AC-46CC-964B-9369601DFAFE}"/>
-    <hyperlink ref="C256" r:id="rId156" location="job-openings" xr:uid="{5C7B7C92-A8F6-46B2-A308-5F99E1A49D49}"/>
-    <hyperlink ref="C259" r:id="rId157" xr:uid="{FFF7B162-7EA6-495A-81F0-A299236D3D0E}"/>
-    <hyperlink ref="C260" r:id="rId158" xr:uid="{AAEEA9DC-4D70-42E3-BA9B-5E50B86B20BE}"/>
-    <hyperlink ref="C262" r:id="rId159" xr:uid="{6D2C7F36-6C9F-4067-BF94-A6E0A2F1546A}"/>
-    <hyperlink ref="C263" r:id="rId160" xr:uid="{3CD85710-59A3-40A8-92F0-ECDBB2A9DC91}"/>
-    <hyperlink ref="C265" r:id="rId161" xr:uid="{AE50B3C4-46BC-4EC0-B897-B1C2997AD2EC}"/>
-    <hyperlink ref="C267" r:id="rId162" xr:uid="{5157404A-AFCC-46E1-A7BF-E146BA61CE6F}"/>
-    <hyperlink ref="C268" r:id="rId163" xr:uid="{3E6ED0CD-460A-4722-B4AA-E103D7FD86CE}"/>
-    <hyperlink ref="C269" r:id="rId164" xr:uid="{51C0756D-C565-4CFF-849C-C1A06ADB10A3}"/>
-    <hyperlink ref="C271" r:id="rId165" location="job_openings" xr:uid="{A8C2A135-6CC3-406B-ADAE-99D8BE37316A}"/>
-    <hyperlink ref="C272" r:id="rId166" xr:uid="{5593AAE3-9015-4982-8825-98535281D45A}"/>
-    <hyperlink ref="C273" r:id="rId167" xr:uid="{BDA11971-D67F-40A4-855F-042C4EFDE399}"/>
-    <hyperlink ref="C275" r:id="rId168" xr:uid="{A74FF497-FF98-403B-BC73-3820184E2EF2}"/>
-    <hyperlink ref="C276" r:id="rId169" xr:uid="{0EF52534-4FC8-457A-B3A0-CA35D4A1992F}"/>
-    <hyperlink ref="C277" r:id="rId170" xr:uid="{A1356106-F8BB-4B9C-816B-2B108B701CCF}"/>
-    <hyperlink ref="C278" r:id="rId171" xr:uid="{212B8EB7-7301-4A12-BB95-EEE95543B23C}"/>
-    <hyperlink ref="C279" r:id="rId172" location="Jobs" xr:uid="{59A18495-8334-4A6A-B27F-575DB1F02F0E}"/>
-    <hyperlink ref="C281" r:id="rId173" xr:uid="{9649F0E4-35DE-45FE-9411-D7429E053F59}"/>
-    <hyperlink ref="C282" r:id="rId174" xr:uid="{382F9723-E1BE-48B2-8520-384A6AE65A10}"/>
-    <hyperlink ref="C284" r:id="rId175" xr:uid="{A31B3BC8-AD71-4C55-B88B-5701F72906AE}"/>
-    <hyperlink ref="C288" r:id="rId176" xr:uid="{34C95B28-08AD-437A-A3A4-B05185E1960D}"/>
-    <hyperlink ref="C289" r:id="rId177" xr:uid="{483F17AD-8E09-4C36-80A2-DC0CF452FB89}"/>
-    <hyperlink ref="C291" r:id="rId178" xr:uid="{EE0BF5FA-5E45-4FF6-90E5-BFA6B64108E4}"/>
-    <hyperlink ref="C292" r:id="rId179" xr:uid="{E174E572-6530-4A45-BA10-575E4A2E7BAF}"/>
-    <hyperlink ref="C294" r:id="rId180" xr:uid="{6F72C1FC-C80D-48E0-BF58-18B1D35FF364}"/>
-    <hyperlink ref="C297" r:id="rId181" xr:uid="{121E506D-81BF-4753-8506-D8EA9A6FA138}"/>
-    <hyperlink ref="C298" r:id="rId182" xr:uid="{72D25DB8-CB98-4BCD-92D6-A7B915C93FCA}"/>
+    <hyperlink ref="C330" r:id="rId66" xr:uid="{64DDB43E-99F8-48FF-A837-E484FC97B774}"/>
+    <hyperlink ref="C33" r:id="rId67" xr:uid="{FD6299B3-AB6C-45F7-8C7F-2A8EBA842F4B}"/>
+    <hyperlink ref="C82" r:id="rId68" xr:uid="{349A158A-738D-4AF1-8FF8-A3D6316E4F1D}"/>
+    <hyperlink ref="C83" r:id="rId69" xr:uid="{E92F8E64-7DB5-4FE7-8465-1D9433C65BE6}"/>
+    <hyperlink ref="C96" r:id="rId70" xr:uid="{A271AB2F-0D9E-4476-B4EB-607ECDE288F2}"/>
+    <hyperlink ref="C102" r:id="rId71" xr:uid="{E1FC5A6F-7878-4B2D-AA8A-719BE8D457C8}"/>
+    <hyperlink ref="C107" r:id="rId72" xr:uid="{8EA31F9B-B234-419B-9A34-DB1B2DF732C2}"/>
+    <hyperlink ref="C108" r:id="rId73" xr:uid="{D328A223-BF86-43CA-BCD3-E58AE228ECDE}"/>
+    <hyperlink ref="C109" r:id="rId74" xr:uid="{DB89B959-1210-4DDC-AD40-2E1FCD249C01}"/>
+    <hyperlink ref="C110" r:id="rId75" xr:uid="{BA74430D-8BBF-4BF8-9BD4-F9471689D705}"/>
+    <hyperlink ref="C111" r:id="rId76" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE" xr:uid="{60375166-175F-4134-90CC-73D9CAA6B106}"/>
+    <hyperlink ref="C112" r:id="rId77" xr:uid="{1D492E49-E312-424E-B4D2-E34B9A2E17B3}"/>
+    <hyperlink ref="C113" r:id="rId78" xr:uid="{551C5664-F2BD-4EA6-9593-7A6E6F1D3C8E}"/>
+    <hyperlink ref="C114" r:id="rId79" xr:uid="{78905E0C-068B-4953-89DA-D94A647E1691}"/>
+    <hyperlink ref="C115" r:id="rId80" xr:uid="{1DCA7C97-49EC-4B46-8125-D56578725670}"/>
+    <hyperlink ref="C119" r:id="rId81" xr:uid="{35542B58-E06D-4EB7-B611-3BE5EA4F87C7}"/>
+    <hyperlink ref="C122" r:id="rId82" xr:uid="{CE51666A-4EEA-424B-BBD7-A12B1274A86B}"/>
+    <hyperlink ref="C123" r:id="rId83" xr:uid="{2B1A4127-31E5-46DF-8844-86D981E13C08}"/>
+    <hyperlink ref="C125" r:id="rId84" xr:uid="{92267D42-6801-4E20-8D25-53D93AB88964}"/>
+    <hyperlink ref="C127" r:id="rId85" xr:uid="{3D899512-213F-42BB-A093-720599882439}"/>
+    <hyperlink ref="C128" r:id="rId86" xr:uid="{B95F3940-931A-4F53-A344-6C9125E0589E}"/>
+    <hyperlink ref="C130" r:id="rId87" xr:uid="{8ED3322F-F28C-4ED9-8234-C91A0B8347D7}"/>
+    <hyperlink ref="C132" r:id="rId88" xr:uid="{F3BBB286-63EA-4828-98CD-0611FD6E3B6E}"/>
+    <hyperlink ref="C133" r:id="rId89" xr:uid="{F33D4908-6592-4283-A85E-0FC966DFC57B}"/>
+    <hyperlink ref="C135" r:id="rId90" location="job-list" xr:uid="{EAEC1E23-E2ED-4DA5-B8DF-921A1E5A153A}"/>
+    <hyperlink ref="C136" r:id="rId91" xr:uid="{B2042DB7-E3B6-402F-9CE2-F3C4B169B07A}"/>
+    <hyperlink ref="C137" r:id="rId92" xr:uid="{0F3983E3-F14E-493F-89A7-01927D1D0459}"/>
+    <hyperlink ref="C138" r:id="rId93" xr:uid="{391AFF52-2CD8-4B75-AF5E-F3E139A5DF5E}"/>
+    <hyperlink ref="C139" r:id="rId94" xr:uid="{0F43EB73-0D2F-4520-BAB8-7C92246CA092}"/>
+    <hyperlink ref="C141" r:id="rId95" xr:uid="{7C95A87F-560A-428B-8640-938CA6B797E9}"/>
+    <hyperlink ref="C142" r:id="rId96" xr:uid="{3228B4DB-FB36-4EF3-BF8D-D12CCB17D8FA}"/>
+    <hyperlink ref="C145" r:id="rId97" location="global-opportunities" xr:uid="{C72D24AB-9105-486D-8097-3BAC17574303}"/>
+    <hyperlink ref="C146" r:id="rId98" xr:uid="{E70E06B2-AB39-4114-A882-527839C11896}"/>
+    <hyperlink ref="C148" r:id="rId99" location="jobs" xr:uid="{B12142BF-DD28-4F2F-9475-3548C8AA53CE}"/>
+    <hyperlink ref="C149" r:id="rId100" xr:uid="{79ED6EC3-16A2-4D52-B9D7-15E0D8EC591A}"/>
+    <hyperlink ref="C151" r:id="rId101" xr:uid="{F53A26AB-8E7C-444B-9A79-3487650E0958}"/>
+    <hyperlink ref="C153" r:id="rId102" xr:uid="{3CD37775-6D73-4FD9-AEEA-A9EF943E44CC}"/>
+    <hyperlink ref="C154" r:id="rId103" xr:uid="{B1BEAA6B-895E-469D-A0AF-C3AF2DE74835}"/>
+    <hyperlink ref="C155" r:id="rId104" xr:uid="{2CB77D36-2166-4A94-95A2-F5929D290E0C}"/>
+    <hyperlink ref="C157" r:id="rId105" location="open-positions" xr:uid="{D024FCB7-37A1-4854-8458-9DBC4D9F3C6C}"/>
+    <hyperlink ref="C158" r:id="rId106" xr:uid="{C9530871-0B08-4170-B264-7B209ED12604}"/>
+    <hyperlink ref="C159" r:id="rId107" xr:uid="{EE47209B-5A3B-4E17-92A1-B87E39A7A6E0}"/>
+    <hyperlink ref="C160" r:id="rId108" xr:uid="{E4809222-2AD0-4530-93DB-9A0E7F15795A}"/>
+    <hyperlink ref="C161" r:id="rId109" xr:uid="{F7C00AEC-3517-40CE-83E5-BF3ED0560332}"/>
+    <hyperlink ref="C162" r:id="rId110" xr:uid="{6CF1D7A0-C489-46AC-A504-FD71385DA145}"/>
+    <hyperlink ref="C163" r:id="rId111" xr:uid="{1B4DB0EA-D105-42F0-8829-73AF944D4528}"/>
+    <hyperlink ref="C164" r:id="rId112" xr:uid="{5803301E-1A9E-4F01-A758-C63AF84621B8}"/>
+    <hyperlink ref="C165" r:id="rId113" xr:uid="{0E3D6C44-29A4-4844-A48A-30A39F30248E}"/>
+    <hyperlink ref="C166" r:id="rId114" xr:uid="{7208ADEE-8B99-40EA-8A62-0064B49083AD}"/>
+    <hyperlink ref="C167" r:id="rId115" xr:uid="{59461B16-4B70-4D00-8BC7-F7708B741D2F}"/>
+    <hyperlink ref="C168" r:id="rId116" xr:uid="{9081C54D-C37F-4912-A8DB-7D540D721277}"/>
+    <hyperlink ref="C170" r:id="rId117" location="openings" xr:uid="{EA921BB3-FB52-47BE-A50D-156B4083C4FB}"/>
+    <hyperlink ref="C171" r:id="rId118" xr:uid="{BEDCA254-8CF1-4299-90CC-261CFD6C01EA}"/>
+    <hyperlink ref="C172" r:id="rId119" xr:uid="{EA380F7C-7113-4695-90A8-C8541450E4C4}"/>
+    <hyperlink ref="C173" r:id="rId120" xr:uid="{34A50E0A-FFF6-4C7A-A6F6-1D43FF4A0942}"/>
+    <hyperlink ref="C174" r:id="rId121" xr:uid="{2626D6CD-DC7D-4802-8A30-FE93D693E2CF}"/>
+    <hyperlink ref="C176" r:id="rId122" location="open-positions" xr:uid="{043737A8-FC6B-4D62-BEAE-55C0CF8C18C0}"/>
+    <hyperlink ref="C178" r:id="rId123" xr:uid="{31A42998-0A93-4773-B2E9-3433CF82F5E9}"/>
+    <hyperlink ref="C179" r:id="rId124" xr:uid="{B56BB5AF-5CB8-44A9-B96F-201523FB4824}"/>
+    <hyperlink ref="C181" r:id="rId125" xr:uid="{AB8CD033-2031-4D36-8FBB-913D12DE9E68}"/>
+    <hyperlink ref="C182" r:id="rId126" location="open-positions" xr:uid="{20FB9C35-EC27-43A3-867E-1A8AB535FD96}"/>
+    <hyperlink ref="C183" r:id="rId127" xr:uid="{17E4F0F0-674A-4EC0-B3DF-3F6B1398F3E0}"/>
+    <hyperlink ref="C184" r:id="rId128" xr:uid="{9A6A7293-88AF-47CA-9724-C66304960BB1}"/>
+    <hyperlink ref="C189" r:id="rId129" xr:uid="{51BBB638-AA77-4430-B833-CCC92BE2CC9D}"/>
+    <hyperlink ref="C190" r:id="rId130" xr:uid="{F53A150F-2D92-458E-9E39-750CDE49C97C}"/>
+    <hyperlink ref="C192" r:id="rId131" xr:uid="{53934416-8B50-40C0-BEC0-3D0B22E91EDD}"/>
+    <hyperlink ref="C191" r:id="rId132" xr:uid="{B83531F9-8D8C-447E-88B1-0F6CED85ACBF}"/>
+    <hyperlink ref="C195" r:id="rId133" xr:uid="{B19C3A16-5022-4873-8265-24B905CC247C}"/>
+    <hyperlink ref="C196" r:id="rId134" xr:uid="{7B3EA3AF-BA71-4EA7-83B2-EE3238AFD65E}"/>
+    <hyperlink ref="C197" r:id="rId135" xr:uid="{9859BF7A-2434-44D2-AC43-25914E9E051B}"/>
+    <hyperlink ref="C198" r:id="rId136" xr:uid="{3F215D5E-EF08-4B00-9C58-B2A47EC2E220}"/>
+    <hyperlink ref="C200" r:id="rId137" xr:uid="{CFC5C64F-3044-47FE-9AD7-CB473C09FDF6}"/>
+    <hyperlink ref="C203" r:id="rId138" xr:uid="{C1FA293D-717D-4ABC-863E-9087F6D9ED6E}"/>
+    <hyperlink ref="C205" r:id="rId139" xr:uid="{4A930C75-69A4-4A89-9E95-173511B4DEF3}"/>
+    <hyperlink ref="C206" r:id="rId140" xr:uid="{D03C6249-10AB-4895-B9D7-6CA3640857B7}"/>
+    <hyperlink ref="C207" r:id="rId141" xr:uid="{BCF38901-CD59-45FD-B3F8-94942D74827E}"/>
+    <hyperlink ref="C208" r:id="rId142" xr:uid="{48BD3DED-5290-41C8-B8D3-AC8FB92FE20C}"/>
+    <hyperlink ref="C209" r:id="rId143" xr:uid="{4742534B-8FB6-4F77-A587-A5062F4DFC75}"/>
+    <hyperlink ref="C211" r:id="rId144" xr:uid="{36BAE7CD-0D8A-4F75-8100-5D7657A881ED}"/>
+    <hyperlink ref="C212" r:id="rId145" xr:uid="{CFAA2B9D-C942-4E52-999F-7CBCAD6F7055}"/>
+    <hyperlink ref="C214" r:id="rId146" xr:uid="{BA7C0AF9-20BD-46F7-8D75-6CFAF7D3C2B7}"/>
+    <hyperlink ref="C218" r:id="rId147" xr:uid="{48ADAF1A-B6B3-4834-92D3-DEF1D7E2DA5D}"/>
+    <hyperlink ref="C430" r:id="rId148" xr:uid="{A72CD26D-7DCD-46DB-8F7E-3ECA28E7A847}"/>
+    <hyperlink ref="C219" r:id="rId149" xr:uid="{D064E45C-0AE1-48F5-A6E5-150FB80B9B0E}"/>
+    <hyperlink ref="C224" r:id="rId150" xr:uid="{468B3B7F-36B4-4530-87DD-B717333916BE}"/>
+    <hyperlink ref="C240" r:id="rId151" xr:uid="{EC0E4932-260F-4C1F-B524-159C5A35518E}"/>
+    <hyperlink ref="C243" r:id="rId152" xr:uid="{FA472E2B-FE47-4648-841A-C507BB2AB2AF}"/>
+    <hyperlink ref="C252" r:id="rId153" xr:uid="{B3D1D6CA-873F-4873-B7A0-7F183B44A9FA}"/>
+    <hyperlink ref="C254" r:id="rId154" xr:uid="{EB36D851-50AC-46CC-964B-9369601DFAFE}"/>
+    <hyperlink ref="C256" r:id="rId155" location="job-openings" xr:uid="{5C7B7C92-A8F6-46B2-A308-5F99E1A49D49}"/>
+    <hyperlink ref="C259" r:id="rId156" xr:uid="{FFF7B162-7EA6-495A-81F0-A299236D3D0E}"/>
+    <hyperlink ref="C260" r:id="rId157" xr:uid="{AAEEA9DC-4D70-42E3-BA9B-5E50B86B20BE}"/>
+    <hyperlink ref="C262" r:id="rId158" xr:uid="{6D2C7F36-6C9F-4067-BF94-A6E0A2F1546A}"/>
+    <hyperlink ref="C263" r:id="rId159" xr:uid="{3CD85710-59A3-40A8-92F0-ECDBB2A9DC91}"/>
+    <hyperlink ref="C265" r:id="rId160" xr:uid="{AE50B3C4-46BC-4EC0-B897-B1C2997AD2EC}"/>
+    <hyperlink ref="C267" r:id="rId161" xr:uid="{5157404A-AFCC-46E1-A7BF-E146BA61CE6F}"/>
+    <hyperlink ref="C268" r:id="rId162" xr:uid="{3E6ED0CD-460A-4722-B4AA-E103D7FD86CE}"/>
+    <hyperlink ref="C269" r:id="rId163" xr:uid="{51C0756D-C565-4CFF-849C-C1A06ADB10A3}"/>
+    <hyperlink ref="C271" r:id="rId164" location="job_openings" xr:uid="{A8C2A135-6CC3-406B-ADAE-99D8BE37316A}"/>
+    <hyperlink ref="C272" r:id="rId165" xr:uid="{5593AAE3-9015-4982-8825-98535281D45A}"/>
+    <hyperlink ref="C273" r:id="rId166" xr:uid="{BDA11971-D67F-40A4-855F-042C4EFDE399}"/>
+    <hyperlink ref="C275" r:id="rId167" xr:uid="{A74FF497-FF98-403B-BC73-3820184E2EF2}"/>
+    <hyperlink ref="C276" r:id="rId168" xr:uid="{0EF52534-4FC8-457A-B3A0-CA35D4A1992F}"/>
+    <hyperlink ref="C277" r:id="rId169" xr:uid="{A1356106-F8BB-4B9C-816B-2B108B701CCF}"/>
+    <hyperlink ref="C278" r:id="rId170" xr:uid="{212B8EB7-7301-4A12-BB95-EEE95543B23C}"/>
+    <hyperlink ref="C279" r:id="rId171" location="Jobs" xr:uid="{59A18495-8334-4A6A-B27F-575DB1F02F0E}"/>
+    <hyperlink ref="C281" r:id="rId172" xr:uid="{9649F0E4-35DE-45FE-9411-D7429E053F59}"/>
+    <hyperlink ref="C282" r:id="rId173" xr:uid="{382F9723-E1BE-48B2-8520-384A6AE65A10}"/>
+    <hyperlink ref="C284" r:id="rId174" xr:uid="{A31B3BC8-AD71-4C55-B88B-5701F72906AE}"/>
+    <hyperlink ref="C288" r:id="rId175" xr:uid="{34C95B28-08AD-437A-A3A4-B05185E1960D}"/>
+    <hyperlink ref="C289" r:id="rId176" xr:uid="{483F17AD-8E09-4C36-80A2-DC0CF452FB89}"/>
+    <hyperlink ref="C291" r:id="rId177" xr:uid="{EE0BF5FA-5E45-4FF6-90E5-BFA6B64108E4}"/>
+    <hyperlink ref="C292" r:id="rId178" xr:uid="{E174E572-6530-4A45-BA10-575E4A2E7BAF}"/>
+    <hyperlink ref="C294" r:id="rId179" xr:uid="{6F72C1FC-C80D-48E0-BF58-18B1D35FF364}"/>
+    <hyperlink ref="C297" r:id="rId180" xr:uid="{121E506D-81BF-4753-8506-D8EA9A6FA138}"/>
+    <hyperlink ref="C298" r:id="rId181" xr:uid="{72D25DB8-CB98-4BCD-92D6-A7B915C93FCA}"/>
+    <hyperlink ref="C303" r:id="rId182" location="careers-jobs" xr:uid="{FB348567-1A44-4155-9925-FB38127D062F}"/>
+    <hyperlink ref="C304" r:id="rId183" xr:uid="{660BA878-2B4E-4A16-9E97-3AD07A9B8A15}"/>
+    <hyperlink ref="C309" r:id="rId184" location="jobs" xr:uid="{945CA29F-397F-48B0-9AFF-1A15568A36D3}"/>
+    <hyperlink ref="C311" r:id="rId185" location="job-openings" xr:uid="{035775E6-D73F-41F8-A562-9F6D3EC3970E}"/>
+    <hyperlink ref="C313" r:id="rId186" xr:uid="{CDE2F23A-DAF6-4B71-A640-29A2D4A49967}"/>
+    <hyperlink ref="C324" r:id="rId187" xr:uid="{13972616-DA7C-42C5-AECA-4CB14340838F}"/>
+    <hyperlink ref="C326" r:id="rId188" xr:uid="{C8B58BA9-1B7A-42B3-8929-6C2B5830DFF5}"/>
+    <hyperlink ref="C332" r:id="rId189" xr:uid="{29AD5CB5-B820-4896-8620-B6E5CF3A527F}"/>
+    <hyperlink ref="C333" r:id="rId190" xr:uid="{152F9DAC-E3A5-498F-9AF1-8764BA7BCE03}"/>
+    <hyperlink ref="C335" r:id="rId191" xr:uid="{2153BDEC-5CD6-4D02-9436-9A2A69978E8F}"/>
+    <hyperlink ref="C336" r:id="rId192" location="company-mission-section" xr:uid="{5115DA6E-9798-4B78-AC1A-9070B2E65E0B}"/>
+    <hyperlink ref="C338" r:id="rId193" xr:uid="{FE73BDE6-B47F-4A72-94BC-260F47F61A90}"/>
+    <hyperlink ref="C340" r:id="rId194" xr:uid="{95922609-DC6F-4678-B86A-A81F06D6A953}"/>
+    <hyperlink ref="C343" r:id="rId195" xr:uid="{9ECC1189-B912-4807-8F08-830BE08DE942}"/>
+    <hyperlink ref="C348" r:id="rId196" location="Vacancies" xr:uid="{6DD03413-8E5C-4564-9B9F-5146BAC39FBD}"/>
+    <hyperlink ref="C349" r:id="rId197" location="job-section" xr:uid="{EB2F9F55-B171-4DB4-B40E-2798734253F8}"/>
+    <hyperlink ref="C350" r:id="rId198" xr:uid="{9AEF8498-7AE6-4C71-B4CE-DA4FF58E9716}"/>
+    <hyperlink ref="C351" r:id="rId199" xr:uid="{F25C2864-E9FE-4B51-9FCD-36990E89A728}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B556DC4B-C83E-4C84-80EA-ABC903F54674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A142D44E-8038-4AE8-82BA-D468D4D3C35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1118">
   <si>
     <t>ID</t>
   </si>
@@ -2624,13 +2624,766 @@
   </si>
   <si>
     <t>https://shieldpay.teamtailor.com/jobs</t>
+  </si>
+  <si>
+    <t>London Borough of Waltham Forest Council</t>
+  </si>
+  <si>
+    <t>https://fa-evng-saasfaprod1.fa.ocs.oraclecloud.com/hcmUI/CandidateExperience/en/sites/LBWF/requisitions?location=United+Kingdom&amp;locationId=300000000471661&amp;locationLevel=country&amp;mode=location</t>
+  </si>
+  <si>
+    <t>https://workforcenow.adp.com/mascsr/default/mdf/recruitment/recruitment.html?cid=deb34c20-faf2-42d6-a1e6-7624a4ebbea3&amp;ccId=19000101_000001&amp;type=MP&amp;lang=en_US</t>
+  </si>
+  <si>
+    <t>Channel 3 Consulting</t>
+  </si>
+  <si>
+    <t>https://channel3consulting.co.uk/work-with-us/careers/</t>
+  </si>
+  <si>
+    <t>Trendstream Ltd</t>
+  </si>
+  <si>
+    <t>https://www.gwi.com/careers#job-list</t>
+  </si>
+  <si>
+    <t>Polestar PLC</t>
+  </si>
+  <si>
+    <t>https://polestar.teamtailor.com/jobs</t>
+  </si>
+  <si>
+    <t>11:FS</t>
+  </si>
+  <si>
+    <t>7IM</t>
+  </si>
+  <si>
+    <t>Acorn Intelligence</t>
+  </si>
+  <si>
+    <t>Acuminor</t>
+  </si>
+  <si>
+    <t>Akeso &amp; Company</t>
+  </si>
+  <si>
+    <t>Kirk Information Solutions &amp; Services</t>
+  </si>
+  <si>
+    <t>Amadeus Capital Partners</t>
+  </si>
+  <si>
+    <t>American Chemical Society</t>
+  </si>
+  <si>
+    <t>Anima</t>
+  </si>
+  <si>
+    <t>Arthur Recruitment</t>
+  </si>
+  <si>
+    <t>Aztec Group</t>
+  </si>
+  <si>
+    <t>barbican centre</t>
+  </si>
+  <si>
+    <t>Baringa Partners</t>
+  </si>
+  <si>
+    <t>Bella &amp; Duke</t>
+  </si>
+  <si>
+    <t>Berkeley Partnership</t>
+  </si>
+  <si>
+    <t>Bespoke Bids</t>
+  </si>
+  <si>
+    <t>BIG - Bjarke Ingels Group</t>
+  </si>
+  <si>
+    <t>Birchstone</t>
+  </si>
+  <si>
+    <t>Blueprint Partners</t>
+  </si>
+  <si>
+    <t>Boardwave</t>
+  </si>
+  <si>
+    <t>Boldyn</t>
+  </si>
+  <si>
+    <t>Boohoo Group PLC</t>
+  </si>
+  <si>
+    <t>Bright Network</t>
+  </si>
+  <si>
+    <t>Broadway Malyan</t>
+  </si>
+  <si>
+    <t>Burtons Biscuits</t>
+  </si>
+  <si>
+    <t>Buyagift</t>
+  </si>
+  <si>
+    <t>Calzedonia</t>
+  </si>
+  <si>
+    <t>Camilla Elphick</t>
+  </si>
+  <si>
+    <t>Cartwright Pickard</t>
+  </si>
+  <si>
+    <t>Celigo</t>
+  </si>
+  <si>
+    <t>Channel Bakers</t>
+  </si>
+  <si>
+    <t>Chelsea Peers</t>
+  </si>
+  <si>
+    <t>Church &amp; Dwight Co., Inc.</t>
+  </si>
+  <si>
+    <t>CINCHONA</t>
+  </si>
+  <si>
+    <t>CIPFA</t>
+  </si>
+  <si>
+    <t>Clifford Chance</t>
+  </si>
+  <si>
+    <t>Clockwise</t>
+  </si>
+  <si>
+    <t>Club Med</t>
+  </si>
+  <si>
+    <t>Clyde &amp; Co. LLP</t>
+  </si>
+  <si>
+    <t>collectif</t>
+  </si>
+  <si>
+    <t>Contingent AI</t>
+  </si>
+  <si>
+    <t>Solaris (Formerley Contis)</t>
+  </si>
+  <si>
+    <t>Couverture &amp; The Garbstore</t>
+  </si>
+  <si>
+    <t>Crawford Technologies (Looks to be USA)</t>
+  </si>
+  <si>
+    <t>Crezco</t>
+  </si>
+  <si>
+    <t>Cripps Sears &amp; Partners</t>
+  </si>
+  <si>
+    <t>CSL Group</t>
+  </si>
+  <si>
+    <t>Cubematch</t>
+  </si>
+  <si>
+    <t>Cumming Group EMEA</t>
+  </si>
+  <si>
+    <t>Currencies Direct (now redpin)</t>
+  </si>
+  <si>
+    <t>Daemon</t>
+  </si>
+  <si>
+    <t>Datatonic</t>
+  </si>
+  <si>
+    <t>DCC Vital</t>
+  </si>
+  <si>
+    <t>Dechert Llp</t>
+  </si>
+  <si>
+    <t>Deko</t>
+  </si>
+  <si>
+    <t>Demellier London</t>
+  </si>
+  <si>
+    <t>Derwent London</t>
+  </si>
+  <si>
+    <t>Downing - Student Accommodation</t>
+  </si>
+  <si>
+    <t>DrDoctor</t>
+  </si>
+  <si>
+    <t>Dufry Group</t>
+  </si>
+  <si>
+    <t>DWF UK LLP</t>
+  </si>
+  <si>
+    <t>Eclipse Group Solutions Ltd.</t>
+  </si>
+  <si>
+    <t>Elephants Don't Forget</t>
+  </si>
+  <si>
+    <t>Empiric Student Property Plc</t>
+  </si>
+  <si>
+    <t>Enginuity</t>
+  </si>
+  <si>
+    <t>ENSEK Ltd</t>
+  </si>
+  <si>
+    <t>EO Group</t>
+  </si>
+  <si>
+    <t>Equita Limited</t>
+  </si>
+  <si>
+    <t>Equiteq</t>
+  </si>
+  <si>
+    <t>Estrid</t>
+  </si>
+  <si>
+    <t>Euromonitor</t>
+  </si>
+  <si>
+    <t>European Medical Group LTD</t>
+  </si>
+  <si>
+    <t>Eurovia/Omni Resource Management Solutions</t>
+  </si>
+  <si>
+    <t>FADEL</t>
+  </si>
+  <si>
+    <t>Farrer &amp; Co</t>
+  </si>
+  <si>
+    <t>FatFace</t>
+  </si>
+  <si>
+    <t>FILE Foundation</t>
+  </si>
+  <si>
+    <t>Floww</t>
+  </si>
+  <si>
+    <t>Flutter Entertainment Plc</t>
+  </si>
+  <si>
+    <t>food and drink federation</t>
+  </si>
+  <si>
+    <t>Foresight Group</t>
+  </si>
+  <si>
+    <t>Free Soul</t>
+  </si>
+  <si>
+    <t>Fuel Ventures</t>
+  </si>
+  <si>
+    <t>Fundpath</t>
+  </si>
+  <si>
+    <t>Gensler</t>
+  </si>
+  <si>
+    <t>glanbia performance nutrition</t>
+  </si>
+  <si>
+    <t>Global Risk Partners Limited (Now Brown and Brown)</t>
+  </si>
+  <si>
+    <t>Global-e</t>
+  </si>
+  <si>
+    <t>Globant</t>
+  </si>
+  <si>
+    <t>Grainger PLC</t>
+  </si>
+  <si>
+    <t>Green Finance Institute</t>
+  </si>
+  <si>
+    <t>Green Street</t>
+  </si>
+  <si>
+    <t>Grimshaw</t>
+  </si>
+  <si>
+    <t>Grosvenor</t>
+  </si>
+  <si>
+    <t>Hamptons</t>
+  </si>
+  <si>
+    <t>HIGHTEKERS</t>
+  </si>
+  <si>
+    <t>HLM Architects</t>
+  </si>
+  <si>
+    <t>Hobs repro</t>
+  </si>
+  <si>
+    <t>House of Hackney</t>
+  </si>
+  <si>
+    <t>Hult / EF</t>
+  </si>
+  <si>
+    <t>Hurdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice travel </t>
+  </si>
+  <si>
+    <t>ICONIC Sales</t>
+  </si>
+  <si>
+    <t>Impart LTD</t>
+  </si>
+  <si>
+    <t>INEOS Energy</t>
+  </si>
+  <si>
+    <t>Institute Of Water</t>
+  </si>
+  <si>
+    <t>Intelligent Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International SOS Assistance UK ltd </t>
+  </si>
+  <si>
+    <t>International Well Building Institute</t>
+  </si>
+  <si>
+    <t>Internet Research Bureau</t>
+  </si>
+  <si>
+    <t>ISAAC Operations</t>
+  </si>
+  <si>
+    <t>ISG Construction Ltd</t>
+  </si>
+  <si>
+    <t>ITV</t>
+  </si>
+  <si>
+    <t>Ivanhoe Cambridge</t>
+  </si>
+  <si>
+    <t>Jaded London</t>
+  </si>
+  <si>
+    <t>Joe and the Juice</t>
+  </si>
+  <si>
+    <t>Jones Lang Lasalle</t>
+  </si>
+  <si>
+    <t>KELLY DELI</t>
+  </si>
+  <si>
+    <t>Kennedys Law</t>
+  </si>
+  <si>
+    <t>KeyCraft</t>
+  </si>
+  <si>
+    <t>Kindred Group</t>
+  </si>
+  <si>
+    <t>https://www.11fs.com/careers/vacancies</t>
+  </si>
+  <si>
+    <t>https://careers.7im.co.uk/vacancies/vacancy-search-results.aspx</t>
+  </si>
+  <si>
+    <t>https://acorn-i.com/join-our-team/</t>
+  </si>
+  <si>
+    <t>https://acuminor.jobs.personio.com/</t>
+  </si>
+  <si>
+    <t>https://akeso.co.uk/experienced-hires/</t>
+  </si>
+  <si>
+    <t>https://kirkiss.ky/careers/</t>
+  </si>
+  <si>
+    <t>https://jobs.amadeuscapital.com/</t>
+  </si>
+  <si>
+    <t>https://recruiting.ultipro.com/AME1095ACHM/JobBoard/c52f9a39-fdc5-4ae2-9eaf-cb8a7bda923e/?q=&amp;o=postedDateDesc&amp;w=&amp;wc=&amp;we=&amp;wpst=</t>
+  </si>
+  <si>
+    <t>https://jobs.ashbyhq.com/Anima</t>
+  </si>
+  <si>
+    <t>https://arthur.co.uk/careers-at-arthur/#footer</t>
+  </si>
+  <si>
+    <t>https://aztec.group/us/careers/current-vacancies/</t>
+  </si>
+  <si>
+    <t>https://www.barbican.org.uk/our-story/about-us/careers</t>
+  </si>
+  <si>
+    <t>https://www.bellaandduke.com/join-our-team/</t>
+  </si>
+  <si>
+    <t>https://job-boards.eu.greenhouse.io/theberkeleypartnership</t>
+  </si>
+  <si>
+    <t>https://bespoke-bids.com/careers/</t>
+  </si>
+  <si>
+    <t>https://big.dk/careers</t>
+  </si>
+  <si>
+    <t>https://birchstonemarkets.com/people/</t>
+  </si>
+  <si>
+    <t>https://www.blueprintpartners.com/job-opportunities</t>
+  </si>
+  <si>
+    <t>https://www.boardwave.org/jobs</t>
+  </si>
+  <si>
+    <t>https://baicommunications.wd3.myworkdayjobs.com/External</t>
+  </si>
+  <si>
+    <t>https://careers.boohoogroup.com/search-jobs</t>
+  </si>
+  <si>
+    <t>https://workfor.brightnetwork.co.uk/join-us</t>
+  </si>
+  <si>
+    <t>https://www.broadwaymalyan.com/people/vacancies/</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/moonpig</t>
+  </si>
+  <si>
+    <t>https://careers.oniverse.it/en-GB/home</t>
+  </si>
+  <si>
+    <t>https://camillaelphick.com/pages/careers-1</t>
+  </si>
+  <si>
+    <t>https://www.cartwrightpickard.com/careers</t>
+  </si>
+  <si>
+    <t>https://www.celigo.com/careers/#job-listings</t>
+  </si>
+  <si>
+    <t>https://www.channelbakers.com/careers</t>
+  </si>
+  <si>
+    <t>https://chelseapeers.com/pages/job-board</t>
+  </si>
+  <si>
+    <t>https://careers.churchdwight.com/jobs/?search=&amp;country=GBR&amp;location=&amp;team=&amp;position=&amp;type=</t>
+  </si>
+  <si>
+    <t>https://cinchona.com/careers/</t>
+  </si>
+  <si>
+    <t>https://cipfa.teamtailor.com/jobs?query=</t>
+  </si>
+  <si>
+    <t>https://work-clockwise.com/careers/</t>
+  </si>
+  <si>
+    <t>https://www.collectiflondon.com/en/Careers-at-Collectif/cc-89.aspx</t>
+  </si>
+  <si>
+    <t>https://risk.contingent.eco/company/careers?__hstc=30033888.5a3aff34a78247abb9b521b7e436ab8a.1720528466240.1720528466240.1720528466240.1&amp;__hssc=30033888.2.1720528466240&amp;__hsfp=3981457101</t>
+  </si>
+  <si>
+    <t>https://www.solarisgroup.com/en/careers/jobs/</t>
+  </si>
+  <si>
+    <t>https://www.couvertureandthegarbstore.com/pages/careers</t>
+  </si>
+  <si>
+    <t>https://crawfordtech.pinpointhq.com/#js-careers-jobs-block</t>
+  </si>
+  <si>
+    <t>https://apply.workable.com/crezco/?lng=en#jobs</t>
+  </si>
+  <si>
+    <t>https://www.cripps.co.uk/join-us/experienced-hires/</t>
+  </si>
+  <si>
+    <t>https://www.csl-group.com/uk/careers/</t>
+  </si>
+  <si>
+    <t>https://www.cubematch.com/work-with-us/opportunities</t>
+  </si>
+  <si>
+    <t>https://cumminggroup.wd1.myworkdayjobs.com/CGC</t>
+  </si>
+  <si>
+    <t>https://www.redpincompany.com/careers?department=&amp;location=&amp;company=currencies-direct&amp;page=1</t>
+  </si>
+  <si>
+    <t>https://www.dae.mn/openings</t>
+  </si>
+  <si>
+    <t>https://datatonic.com/careers/vacancies/</t>
+  </si>
+  <si>
+    <t>https://www.dechert.com/careers.html</t>
+  </si>
+  <si>
+    <t>https://apply.workable.com/deko/#jobs</t>
+  </si>
+  <si>
+    <t>https://apply.workable.com/demellier-ltd/?lng=en</t>
+  </si>
+  <si>
+    <t>https://www.derwentlondon.com/responsibility/social/join-us</t>
+  </si>
+  <si>
+    <t>https://downing.com/work-for-us/#work-for-us-6</t>
+  </si>
+  <si>
+    <t>https://careers.dufry.com/go/Dufry-Main/9035601/</t>
+  </si>
+  <si>
+    <t>https://careers-dwfgroup.icims.com/jobs/search?hashed=-625886029&amp;mobile=false&amp;width=1011&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=0&amp;jun1offset=60</t>
+  </si>
+  <si>
+    <t>https://www.eclipsegroup.co.uk/life-at-eclipse#open-roles</t>
+  </si>
+  <si>
+    <t>https://www.elephantsdontforget.com/join-the-herd/</t>
+  </si>
+  <si>
+    <t>https://empiricstudentpropertyplc.talosats-careers.com/vacancies</t>
+  </si>
+  <si>
+    <t>https://careers.ensek.com/</t>
+  </si>
+  <si>
+    <t>https://eo-group.co.uk/opportunities/</t>
+  </si>
+  <si>
+    <t>https://equita.co.uk/about-us/work-with-us/</t>
+  </si>
+  <si>
+    <t>https://equiteq.careers.hibob.com/</t>
+  </si>
+  <si>
+    <t>https://join.estrid.com/jobs?_gl=1*o2mc52*_gcl_au*NTQ1NjA2NDYxLjE3MjA1MzY1NDQ.*_ga*MTUwMjg1NTAyOS4xNzIwNTM2NTQ0*_fplc*SzNYUEpUcU84dCUyRkJQcGRtRmJzU3JvelRaRjhWZ2NPUyUyRmh2N2pvTTclMkJDeEZoQmd4ZUJTMkVXVGhyV2I4aklFbkV6N1d4cyUyQnUxY2pYMlpneXViMWxGajRZdWVsaEFDaWl5VFZRaUxmaTFwdFN4dWs2emtralF6U3klMkZHcVhmQSUzRCUzRA..</t>
+  </si>
+  <si>
+    <t>https://www.euromonitor.com/careers</t>
+  </si>
+  <si>
+    <t>https://careers.emjreviews.com/#jobs</t>
+  </si>
+  <si>
+    <t>https://euroviacareers.appellia.com/?ous=</t>
+  </si>
+  <si>
+    <t>https://fadel.com/careers/</t>
+  </si>
+  <si>
+    <t>https://farrer.allhires.com/</t>
+  </si>
+  <si>
+    <t>https://my.corehr.com/pls/fatrecruit/erq_search_version_4.start_search_with_params</t>
+  </si>
+  <si>
+    <t>https://www.filefoundation.org/careers</t>
+  </si>
+  <si>
+    <t>https://www.floww.io/careers/</t>
+  </si>
+  <si>
+    <t>https://careers.flutteruki.com/jobs/#results</t>
+  </si>
+  <si>
+    <t>https://www.fdf.org.uk/fdf/about-fdf/work-for-us/</t>
+  </si>
+  <si>
+    <t>https://isw.changeworknow.co.uk/foresight_group/vms/e/careers/search/new</t>
+  </si>
+  <si>
+    <t>https://freesoul.teamtailor.com/jobs</t>
+  </si>
+  <si>
+    <t>https://apply.workable.com/fv-careers/?lng=en#jobs</t>
+  </si>
+  <si>
+    <t>https://careers.fundpath.com/jobs</t>
+  </si>
+  <si>
+    <t>https://gensler.wd1.myworkdayjobs.com/genslercareers</t>
+  </si>
+  <si>
+    <t>https://careers.glanbia.com/search/?createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_department=</t>
+  </si>
+  <si>
+    <t>https://bbinsurance.wd1.myworkdayjobs.com/en-US/Careers_Europe</t>
+  </si>
+  <si>
+    <t>https://www.global-e.com/careers/</t>
+  </si>
+  <si>
+    <t>https://career.globant.com/search/?createNewAlert=false&amp;q=&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_country=</t>
+  </si>
+  <si>
+    <t>https://corporate.graingerplc.co.uk/people-and-careers/opportunities</t>
+  </si>
+  <si>
+    <t>https://www.greenfinanceinstitute.com/home/about-us/join-our-team/</t>
+  </si>
+  <si>
+    <t>https://recruiting.paylocity.com/recruiting/jobs/All/6c97a7d4-bb9e-4185-b871-59e5ddcf8143/Green-Street-Advisors-LLC</t>
+  </si>
+  <si>
+    <t>https://careers.jobscore.com/careers/grimshawarchitects</t>
+  </si>
+  <si>
+    <t>https://grosvenor.wd3.myworkdayjobs.com/External_careers_site_Grosvenor</t>
+  </si>
+  <si>
+    <t>https://www.hamptons.co.uk/recruitment/vacancySearch.php#/</t>
+  </si>
+  <si>
+    <t>https://www.hightekers.com/en-gb/careers</t>
+  </si>
+  <si>
+    <t>https://careers.hlmarchitects.com/#jobs</t>
+  </si>
+  <si>
+    <t>https://hobsrepro.com/vacancies/</t>
+  </si>
+  <si>
+    <t>https://www.houseofhackney.com/uk/careers</t>
+  </si>
+  <si>
+    <t>https://www.hultef.com/en/careers/jobs/</t>
+  </si>
+  <si>
+    <t>https://consider.com/boards/co/hurdle</t>
+  </si>
+  <si>
+    <t>https://careers.icetravelgroup.com/</t>
+  </si>
+  <si>
+    <t>https://iconic-sales.com/en/karriere/</t>
+  </si>
+  <si>
+    <t>https://www.impart.co.uk/careers</t>
+  </si>
+  <si>
+    <t>https://careers.ineos.com/?jobtitle=&amp;countryid=All&amp;siteid=All&amp;businessid=56&amp;Language=All</t>
+  </si>
+  <si>
+    <t>https://instituteofwater.org.uk/all/institute-of-water-job-vacancy/</t>
+  </si>
+  <si>
+    <t>https://www.intelligentchange.com/pages/careers</t>
+  </si>
+  <si>
+    <t>https://careers.smartrecruiters.com/InternationalSOSGovernmentMedicalServices</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/iwbi</t>
+  </si>
+  <si>
+    <t>https://www.irbureau.com/about-irb/careers/</t>
+  </si>
+  <si>
+    <t>https://isaac.hiringplatform.ca/list/isaac-jobs</t>
+  </si>
+  <si>
+    <t>https://careers.itv.com/jobs</t>
+  </si>
+  <si>
+    <t>https://cdpq.wd10.myworkdayjobs.com/en-US/CDPQ</t>
+  </si>
+  <si>
+    <t>https://jadedldn.com/pages/careers-old</t>
+  </si>
+  <si>
+    <t>https://www.joejuice.com/careers</t>
+  </si>
+  <si>
+    <t>https://careers.kennedyslaw.com/jobs/vacancy/find/results/</t>
+  </si>
+  <si>
+    <t>https://fr.keycraftglobal.com/careers</t>
+  </si>
+  <si>
+    <t>https://careers.kindredgroup.com/vacancy/find/results/</t>
+  </si>
+  <si>
+    <t>https://baringa.csod.com/ux/ats/careersite/4/home?c=baringa</t>
+  </si>
+  <si>
+    <t>https://www.burtonsbiscuits.com/life-at-burtons/current-vacancies/burton-s-bakeries/</t>
+  </si>
+  <si>
+    <t>https://jobs.cliffordchance.com/jobs?options=49,58&amp;page=1</t>
+  </si>
+  <si>
+    <t>https://www.clubmedjobs.com/en/search-jobs/</t>
+  </si>
+  <si>
+    <t>https://fsr.cvmailuk.com/clydecocareers/main.cfm?page=jobBoard&amp;fo=1&amp;groupType_21=&amp;groupType_33=&amp;filter=&amp;srxksl=1</t>
+  </si>
+  <si>
+    <t>https://careers.dcc.ie/dccvital/search/</t>
+  </si>
+  <si>
+    <t>https://drdoctor.teamtailor.com/jobs</t>
+  </si>
+  <si>
+    <t>https://careers.enginuity.org/jobs</t>
+  </si>
+  <si>
+    <t>https://careers.kellydeli.com/jobs</t>
+  </si>
+  <si>
+    <t>https://isg.wd3.myworkdayjobs.com/ISG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2742,8 +3495,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2765,6 +3537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,13 +3649,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2950,12 +3729,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3011,8 +3784,48 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3317,10 +4130,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G962"/>
+  <dimension ref="A1:G950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:XFD435"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A516" sqref="A516:A528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3566,25 +4379,25 @@
       <c r="E13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" s="38" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A14" s="39">
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="36" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1">
       <c r="A15" s="8">
@@ -3602,7 +4415,7 @@
       <c r="E15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1">
       <c r="A16" s="8">
@@ -3620,7 +4433,7 @@
       <c r="E16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1">
       <c r="A17" s="8">
@@ -3655,7 +4468,7 @@
       <c r="E18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1">
       <c r="A19" s="8">
@@ -3690,7 +4503,7 @@
       <c r="E20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="19.5" customHeight="1">
       <c r="A21" s="8">
@@ -3725,7 +4538,7 @@
       <c r="E22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="42"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="19.5" customHeight="1">
       <c r="A23" s="8">
@@ -3794,7 +4607,7 @@
       <c r="E26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1">
       <c r="A27" s="8">
@@ -3864,38 +4677,38 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="38" customFormat="1" ht="18.75" customHeight="1">
+    <row r="31" spans="1:7" s="36" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="41" t="s">
         <v>839</v>
       </c>
-      <c r="D31" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="44" t="s">
+      <c r="D31" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:7" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="45" t="s">
         <v>700</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="45" t="s">
         <v>701</v>
       </c>
-      <c r="D32" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="48"/>
+      <c r="D32" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="22">
@@ -3928,7 +4741,7 @@
       <c r="E34" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="42"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1">
       <c r="A35" s="8">
@@ -3946,7 +4759,7 @@
       <c r="E35" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="42"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" customHeight="1">
       <c r="A36" s="8">
@@ -3964,7 +4777,7 @@
       <c r="E36" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="42"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1">
       <c r="A37" s="8">
@@ -3982,7 +4795,7 @@
       <c r="E37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="42"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1">
       <c r="A38" s="8">
@@ -4083,7 +4896,7 @@
       <c r="E43" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="42"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" customHeight="1">
       <c r="A44" s="8">
@@ -4101,7 +4914,7 @@
       <c r="E44" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="42"/>
+      <c r="G44" s="40"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1">
       <c r="A45" s="8">
@@ -4119,7 +4932,7 @@
       <c r="E45" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="42"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" customHeight="1">
       <c r="A46" s="8">
@@ -4137,7 +4950,7 @@
       <c r="E46" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="42"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="22">
@@ -4170,7 +4983,7 @@
       <c r="E48" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="42"/>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" spans="1:7" ht="18.75" customHeight="1">
       <c r="A49" s="8">
@@ -4188,7 +5001,7 @@
       <c r="E49" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G49" s="42"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:7" ht="18.75" customHeight="1">
       <c r="A50" s="8">
@@ -4223,7 +5036,7 @@
       <c r="E51" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="42"/>
+      <c r="G51" s="40"/>
     </row>
     <row r="52" spans="1:7" ht="19.5" customHeight="1">
       <c r="A52" s="8">
@@ -5398,20 +6211,20 @@
       </c>
       <c r="E122" s="10"/>
     </row>
-    <row r="123" spans="1:5" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="123" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A123" s="22">
         <v>122</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="47" t="s">
         <v>706</v>
       </c>
-      <c r="C123" s="50" t="s">
+      <c r="C123" s="48" t="s">
         <v>707</v>
       </c>
-      <c r="D123" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" s="48"/>
+      <c r="D123" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="46"/>
     </row>
     <row r="124" spans="1:5" ht="19.5" customHeight="1">
       <c r="A124" s="8">
@@ -5420,7 +6233,7 @@
       <c r="B124" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="15" t="s">
         <v>328</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -5548,20 +6361,20 @@
       </c>
       <c r="E132" s="19"/>
     </row>
-    <row r="133" spans="1:5" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="133" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A133" s="22">
         <v>132</v>
       </c>
-      <c r="B133" s="49" t="s">
+      <c r="B133" s="47" t="s">
         <v>721</v>
       </c>
-      <c r="C133" s="50" t="s">
+      <c r="C133" s="48" t="s">
         <v>722</v>
       </c>
-      <c r="D133" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="48"/>
+      <c r="D133" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="46"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1">
       <c r="A134" s="22">
@@ -5623,20 +6436,20 @@
       </c>
       <c r="E137" s="10"/>
     </row>
-    <row r="138" spans="1:5" s="38" customFormat="1" ht="19.5" customHeight="1">
+    <row r="138" spans="1:5" s="36" customFormat="1" ht="19.5" customHeight="1">
       <c r="A138" s="8">
         <v>137</v>
       </c>
-      <c r="B138" s="51" t="s">
+      <c r="B138" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="C138" s="43" t="s">
+      <c r="C138" s="41" t="s">
         <v>844</v>
       </c>
-      <c r="D138" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E138" s="44"/>
+      <c r="D138" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="42"/>
     </row>
     <row r="139" spans="1:5" ht="19.5" customHeight="1">
       <c r="A139" s="8">
@@ -6305,7 +7118,7 @@
       <c r="B183" s="29" t="s">
         <v>827</v>
       </c>
-      <c r="C183" s="52" t="s">
+      <c r="C183" s="50" t="s">
         <v>828</v>
       </c>
       <c r="D183" s="16" t="s">
@@ -7198,20 +8011,20 @@
       </c>
       <c r="E242" s="19"/>
     </row>
-    <row r="243" spans="1:5" s="38" customFormat="1" ht="18.75" customHeight="1">
+    <row r="243" spans="1:5" s="36" customFormat="1" ht="18.75" customHeight="1">
       <c r="A243" s="8">
         <v>242</v>
       </c>
-      <c r="B243" s="51" t="s">
+      <c r="B243" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="C243" s="43" t="s">
+      <c r="C243" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="D243" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E243" s="44"/>
+      <c r="D243" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E243" s="42"/>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1">
       <c r="A244" s="22">
@@ -7580,7 +8393,7 @@
       <c r="B268" s="29" t="s">
         <v>821</v>
       </c>
-      <c r="C268" s="52" t="s">
+      <c r="C268" s="50" t="s">
         <v>822</v>
       </c>
       <c r="D268" s="16" t="s">
@@ -7595,7 +8408,7 @@
       <c r="B269" s="29" t="s">
         <v>752</v>
       </c>
-      <c r="C269" s="52" t="s">
+      <c r="C269" s="50" t="s">
         <v>753</v>
       </c>
       <c r="D269" s="16" t="s">
@@ -7625,7 +8438,7 @@
       <c r="B271" s="29" t="s">
         <v>754</v>
       </c>
-      <c r="C271" s="52" t="s">
+      <c r="C271" s="50" t="s">
         <v>755</v>
       </c>
       <c r="D271" s="16" t="s">
@@ -7715,7 +8528,7 @@
       <c r="B277" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="C277" s="53" t="s">
+      <c r="C277" s="51" t="s">
         <v>508</v>
       </c>
       <c r="D277" s="10" t="s">
@@ -7775,7 +8588,7 @@
       <c r="B281" s="29" t="s">
         <v>758</v>
       </c>
-      <c r="C281" s="52" t="s">
+      <c r="C281" s="50" t="s">
         <v>861</v>
       </c>
       <c r="D281" s="16" t="s">
@@ -7880,7 +8693,7 @@
       <c r="B288" s="29" t="s">
         <v>763</v>
       </c>
-      <c r="C288" s="52" t="s">
+      <c r="C288" s="50" t="s">
         <v>764</v>
       </c>
       <c r="D288" s="16" t="s">
@@ -7888,20 +8701,20 @@
       </c>
       <c r="E288" s="19"/>
     </row>
-    <row r="289" spans="1:5" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="289" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A289" s="8">
         <v>288</v>
       </c>
-      <c r="B289" s="54" t="s">
+      <c r="B289" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="C289" s="50" t="s">
+      <c r="C289" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="D289" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E289" s="48"/>
+      <c r="D289" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E289" s="46"/>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1">
       <c r="A290" s="8">
@@ -7925,7 +8738,7 @@
       <c r="B291" s="29" t="s">
         <v>817</v>
       </c>
-      <c r="C291" s="52" t="s">
+      <c r="C291" s="50" t="s">
         <v>818</v>
       </c>
       <c r="D291" s="16" t="s">
@@ -7940,7 +8753,7 @@
       <c r="B292" s="29" t="s">
         <v>815</v>
       </c>
-      <c r="C292" s="52" t="s">
+      <c r="C292" s="50" t="s">
         <v>816</v>
       </c>
       <c r="D292" s="16" t="s">
@@ -8120,7 +8933,7 @@
       <c r="B304" s="29" t="s">
         <v>812</v>
       </c>
-      <c r="C304" s="52" t="s">
+      <c r="C304" s="50" t="s">
         <v>863</v>
       </c>
       <c r="D304" s="16" t="s">
@@ -8158,20 +8971,20 @@
       </c>
       <c r="E306" s="19"/>
     </row>
-    <row r="307" spans="1:5" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="307" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A307" s="22">
         <v>306</v>
       </c>
-      <c r="B307" s="49" t="s">
+      <c r="B307" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="C307" s="49" t="s">
+      <c r="C307" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="D307" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E307" s="48"/>
+      <c r="D307" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E307" s="46"/>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1">
       <c r="A308" s="22">
@@ -8540,7 +9353,7 @@
       <c r="B332" s="29" t="s">
         <v>769</v>
       </c>
-      <c r="C332" s="52" t="s">
+      <c r="C332" s="50" t="s">
         <v>770</v>
       </c>
       <c r="D332" s="16" t="s">
@@ -8600,7 +9413,7 @@
       <c r="B336" s="29" t="s">
         <v>773</v>
       </c>
-      <c r="C336" s="52" t="s">
+      <c r="C336" s="50" t="s">
         <v>774</v>
       </c>
       <c r="D336" s="16" t="s">
@@ -8630,7 +9443,7 @@
       <c r="B338" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="C338" s="52" t="s">
+      <c r="C338" s="50" t="s">
         <v>776</v>
       </c>
       <c r="D338" s="16" t="s">
@@ -8705,7 +9518,7 @@
       <c r="B343" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="C343" s="52" t="s">
+      <c r="C343" s="50" t="s">
         <v>780</v>
       </c>
       <c r="D343" s="16" t="s">
@@ -8825,7 +9638,7 @@
       <c r="B351" s="29" t="s">
         <v>783</v>
       </c>
-      <c r="C351" s="52" t="s">
+      <c r="C351" s="50" t="s">
         <v>784</v>
       </c>
       <c r="D351" s="16" t="s">
@@ -8990,7 +9803,7 @@
       <c r="B362" s="29" t="s">
         <v>800</v>
       </c>
-      <c r="C362" s="52" t="s">
+      <c r="C362" s="50" t="s">
         <v>801</v>
       </c>
       <c r="D362" s="16" t="s">
@@ -9020,7 +9833,7 @@
       <c r="B364" s="29" t="s">
         <v>789</v>
       </c>
-      <c r="C364" s="52" t="s">
+      <c r="C364" s="50" t="s">
         <v>867</v>
       </c>
       <c r="D364" s="16" t="s">
@@ -9110,7 +9923,7 @@
       <c r="B370" s="29" t="s">
         <v>790</v>
       </c>
-      <c r="C370" s="52" t="s">
+      <c r="C370" s="50" t="s">
         <v>791</v>
       </c>
       <c r="D370" s="16" t="s">
@@ -9125,7 +9938,7 @@
       <c r="B371" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="C371" s="52" t="s">
+      <c r="C371" s="50" t="s">
         <v>793</v>
       </c>
       <c r="D371" s="16" t="s">
@@ -9245,7 +10058,7 @@
       <c r="B379" s="29" t="s">
         <v>796</v>
       </c>
-      <c r="C379" s="52" t="s">
+      <c r="C379" s="50" t="s">
         <v>797</v>
       </c>
       <c r="D379" s="16" t="s">
@@ -9283,3089 +10096,4685 @@
       </c>
       <c r="E381" s="19"/>
     </row>
-    <row r="519" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A519" s="30"/>
-      <c r="B519" s="31"/>
-      <c r="C519" s="31"/>
-      <c r="D519" s="16"/>
-      <c r="E519" s="19"/>
-    </row>
-    <row r="520" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A520" s="32"/>
-      <c r="D520" s="33"/>
-      <c r="E520" s="33"/>
-    </row>
-    <row r="521" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A521" s="32"/>
-      <c r="D521" s="33"/>
-      <c r="E521" s="33"/>
-    </row>
-    <row r="522" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A522" s="32"/>
-      <c r="D522" s="33"/>
-      <c r="E522" s="33"/>
-    </row>
-    <row r="523" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A523" s="32"/>
-      <c r="D523" s="33"/>
-      <c r="E523" s="33"/>
-    </row>
-    <row r="524" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A524" s="32"/>
-      <c r="D524" s="33"/>
-      <c r="E524" s="33"/>
-    </row>
-    <row r="525" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A525" s="32"/>
-      <c r="D525" s="33"/>
-      <c r="E525" s="33"/>
-    </row>
-    <row r="526" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A526" s="32"/>
-      <c r="D526" s="33"/>
-      <c r="E526" s="33"/>
-    </row>
-    <row r="527" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A527" s="32"/>
-      <c r="D527" s="33"/>
-      <c r="E527" s="33"/>
-    </row>
-    <row r="528" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A528" s="32"/>
-      <c r="D528" s="33"/>
-      <c r="E528" s="33"/>
+    <row r="382" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A382" s="22">
+        <v>381</v>
+      </c>
+      <c r="B382" s="45" t="s">
+        <v>868</v>
+      </c>
+      <c r="C382" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="D382" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E382" s="46"/>
+    </row>
+    <row r="383" spans="1:5" s="36" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A383" s="8">
+        <v>382</v>
+      </c>
+      <c r="B383" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C383" s="41" t="s">
+        <v>870</v>
+      </c>
+      <c r="D383" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E383" s="42"/>
+    </row>
+    <row r="384" spans="1:5" s="36" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A384" s="8">
+        <v>383</v>
+      </c>
+      <c r="B384" s="49" t="s">
+        <v>871</v>
+      </c>
+      <c r="C384" s="41" t="s">
+        <v>872</v>
+      </c>
+      <c r="D384" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E384" s="42"/>
+    </row>
+    <row r="385" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A385" s="22">
+        <v>384</v>
+      </c>
+      <c r="B385" s="45" t="s">
+        <v>873</v>
+      </c>
+      <c r="C385" s="48" t="s">
+        <v>874</v>
+      </c>
+      <c r="D385" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E385" s="46"/>
+    </row>
+    <row r="386" spans="1:5" s="36" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A386" s="8">
+        <v>385</v>
+      </c>
+      <c r="B386" s="49" t="s">
+        <v>875</v>
+      </c>
+      <c r="C386" s="41" t="s">
+        <v>876</v>
+      </c>
+      <c r="D386" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E386" s="42"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="22">
+        <v>386</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C387" s="54" t="s">
+        <v>998</v>
+      </c>
+      <c r="D387" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="8">
+        <v>387</v>
+      </c>
+      <c r="B388" s="55" t="s">
+        <v>878</v>
+      </c>
+      <c r="C388" s="54" t="s">
+        <v>999</v>
+      </c>
+      <c r="D388" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="8">
+        <v>388</v>
+      </c>
+      <c r="B389" s="55" t="s">
+        <v>882</v>
+      </c>
+      <c r="C389" s="54" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D389" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="22">
+        <v>389</v>
+      </c>
+      <c r="B390" s="56" t="s">
+        <v>880</v>
+      </c>
+      <c r="C390" s="54" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D390" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="22">
+        <v>390</v>
+      </c>
+      <c r="B391" s="56" t="s">
+        <v>997</v>
+      </c>
+      <c r="C391" s="54" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D391" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="22">
+        <v>391</v>
+      </c>
+      <c r="B392" s="55" t="s">
+        <v>882</v>
+      </c>
+      <c r="C392" s="54" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D392" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="8">
+        <v>392</v>
+      </c>
+      <c r="B393" s="55" t="s">
+        <v>883</v>
+      </c>
+      <c r="C393" s="54" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D393" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="8">
+        <v>393</v>
+      </c>
+      <c r="B394" s="56" t="s">
+        <v>884</v>
+      </c>
+      <c r="C394" s="54" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D394" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="22">
+        <v>394</v>
+      </c>
+      <c r="B395" s="55" t="s">
+        <v>885</v>
+      </c>
+      <c r="C395" s="54" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D395" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="8">
+        <v>395</v>
+      </c>
+      <c r="B396" s="55" t="s">
+        <v>886</v>
+      </c>
+      <c r="C396" s="54" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D396" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="22">
+        <v>396</v>
+      </c>
+      <c r="B397" s="55" t="s">
+        <v>887</v>
+      </c>
+      <c r="C397" s="54" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D397" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="8">
+        <v>397</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C398" s="54" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D398" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="8">
+        <v>398</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C399" s="54" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D399" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="22">
+        <v>399</v>
+      </c>
+      <c r="B400" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="C400" s="54" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D400" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="8">
+        <v>400</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C401" s="54" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D401" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="22">
+        <v>401</v>
+      </c>
+      <c r="B402" s="56" t="s">
+        <v>892</v>
+      </c>
+      <c r="C402" s="54" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D402" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="8">
+        <v>402</v>
+      </c>
+      <c r="B403" s="56" t="s">
+        <v>893</v>
+      </c>
+      <c r="C403" s="54" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D403" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="8">
+        <v>403</v>
+      </c>
+      <c r="B404" s="56" t="s">
+        <v>996</v>
+      </c>
+      <c r="C404" s="54" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D404" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="22">
+        <v>404</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C405" s="54" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D405" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="8">
+        <v>405</v>
+      </c>
+      <c r="B406" s="56" t="s">
+        <v>994</v>
+      </c>
+      <c r="C406" s="54" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D406" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="22">
+        <v>406</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C407" s="54" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D407" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="8">
+        <v>407</v>
+      </c>
+      <c r="B408" s="56" t="s">
+        <v>898</v>
+      </c>
+      <c r="C408" s="54" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D408" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="8">
+        <v>408</v>
+      </c>
+      <c r="B409" s="56" t="s">
+        <v>899</v>
+      </c>
+      <c r="C409" s="54" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D409" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="22">
+        <v>409</v>
+      </c>
+      <c r="B410" s="55" t="s">
+        <v>900</v>
+      </c>
+      <c r="C410" s="54" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D410" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="8">
+        <v>410</v>
+      </c>
+      <c r="B411" s="56" t="s">
+        <v>901</v>
+      </c>
+      <c r="C411" s="54" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D411" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="22">
+        <v>411</v>
+      </c>
+      <c r="B412" s="56" t="s">
+        <v>902</v>
+      </c>
+      <c r="C412" s="54" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D412" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="8">
+        <v>412</v>
+      </c>
+      <c r="B413" s="55" t="s">
+        <v>903</v>
+      </c>
+      <c r="C413" s="54" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D413" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="8">
+        <v>413</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C414" s="54" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D414" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="22">
+        <v>414</v>
+      </c>
+      <c r="B415" s="56" t="s">
+        <v>905</v>
+      </c>
+      <c r="C415" s="54" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D415" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="8">
+        <v>415</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C416" s="54" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D416" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="22">
+        <v>416</v>
+      </c>
+      <c r="B417" s="56" t="s">
+        <v>907</v>
+      </c>
+      <c r="C417" s="54" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D417" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="8">
+        <v>417</v>
+      </c>
+      <c r="B418" s="56" t="s">
+        <v>908</v>
+      </c>
+      <c r="C418" s="54" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D418" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="8">
+        <v>418</v>
+      </c>
+      <c r="B419" s="55" t="s">
+        <v>909</v>
+      </c>
+      <c r="C419" s="54" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D419" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="22">
+        <v>419</v>
+      </c>
+      <c r="B420" s="55" t="s">
+        <v>910</v>
+      </c>
+      <c r="C420" s="54" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D420" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="8">
+        <v>420</v>
+      </c>
+      <c r="B421" s="55" t="s">
+        <v>911</v>
+      </c>
+      <c r="C421" s="54" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D421" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="22">
+        <v>421</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C422" s="54" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D422" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="8">
+        <v>422</v>
+      </c>
+      <c r="B423" s="55" t="s">
+        <v>913</v>
+      </c>
+      <c r="C423" s="54" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D423" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="8">
+        <v>423</v>
+      </c>
+      <c r="B424" s="55" t="s">
+        <v>914</v>
+      </c>
+      <c r="C424" s="54" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D424" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="22">
+        <v>424</v>
+      </c>
+      <c r="B425" s="56" t="s">
+        <v>915</v>
+      </c>
+      <c r="C425" s="54" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D425" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="8">
+        <v>425</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C426" s="54" t="s">
+        <v>625</v>
+      </c>
+      <c r="D426" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="8">
+        <v>426</v>
+      </c>
+      <c r="B427" s="56" t="s">
+        <v>991</v>
+      </c>
+      <c r="C427" s="54" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D427" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="8">
+        <v>427</v>
+      </c>
+      <c r="B428" s="57" t="s">
+        <v>918</v>
+      </c>
+      <c r="C428" s="54" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D428" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="8">
+        <v>428</v>
+      </c>
+      <c r="B429" s="56" t="s">
+        <v>919</v>
+      </c>
+      <c r="C429" s="54" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D429" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="28.8">
+      <c r="A430" s="22">
+        <v>429</v>
+      </c>
+      <c r="B430" s="56" t="s">
+        <v>920</v>
+      </c>
+      <c r="C430" s="54" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D430" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="22">
+        <v>430</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C431" s="54" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D431" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="22">
+        <v>431</v>
+      </c>
+      <c r="B432" s="56" t="s">
+        <v>922</v>
+      </c>
+      <c r="C432" s="54" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D432" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="8">
+        <v>432</v>
+      </c>
+      <c r="B433" s="55" t="s">
+        <v>923</v>
+      </c>
+      <c r="C433" s="54" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D433" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="8">
+        <v>433</v>
+      </c>
+      <c r="B434" s="56" t="s">
+        <v>989</v>
+      </c>
+      <c r="C434" s="54" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D434" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="22">
+        <v>434</v>
+      </c>
+      <c r="B435" s="55" t="s">
+        <v>925</v>
+      </c>
+      <c r="C435" s="54" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D435" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="8">
+        <v>435</v>
+      </c>
+      <c r="B436" s="56" t="s">
+        <v>926</v>
+      </c>
+      <c r="C436" s="54" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D436" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="22">
+        <v>436</v>
+      </c>
+      <c r="B437" s="55" t="s">
+        <v>927</v>
+      </c>
+      <c r="C437" s="54" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D437" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="8">
+        <v>437</v>
+      </c>
+      <c r="B438" s="56" t="s">
+        <v>928</v>
+      </c>
+      <c r="C438" s="54" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D438" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="8">
+        <v>438</v>
+      </c>
+      <c r="B439" s="56" t="s">
+        <v>929</v>
+      </c>
+      <c r="C439" s="54" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D439" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="22">
+        <v>439</v>
+      </c>
+      <c r="B440" s="55" t="s">
+        <v>930</v>
+      </c>
+      <c r="C440" s="54" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D440" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="8">
+        <v>440</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C441" s="54" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D441" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="22">
+        <v>441</v>
+      </c>
+      <c r="B442" s="56" t="s">
+        <v>932</v>
+      </c>
+      <c r="C442" s="54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D442" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="22">
+        <v>442</v>
+      </c>
+      <c r="B443" s="55" t="s">
+        <v>987</v>
+      </c>
+      <c r="C443" s="54" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D443" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="8">
+        <v>443</v>
+      </c>
+      <c r="B444" s="56" t="s">
+        <v>934</v>
+      </c>
+      <c r="C444" s="54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D444" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="22">
+        <v>444</v>
+      </c>
+      <c r="B445" s="56" t="s">
+        <v>935</v>
+      </c>
+      <c r="C445" s="54" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D445" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="8">
+        <v>445</v>
+      </c>
+      <c r="B446" s="55" t="s">
+        <v>936</v>
+      </c>
+      <c r="C446" s="54" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D446" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="22">
+        <v>446</v>
+      </c>
+      <c r="B447" s="56" t="s">
+        <v>937</v>
+      </c>
+      <c r="C447" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D447" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="22">
+        <v>447</v>
+      </c>
+      <c r="B448" s="57" t="s">
+        <v>985</v>
+      </c>
+      <c r="C448" s="54" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D448" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="8">
+        <v>448</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C449" s="54" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D449" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="22">
+        <v>449</v>
+      </c>
+      <c r="B450" s="56" t="s">
+        <v>940</v>
+      </c>
+      <c r="C450" s="54" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D450" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="8">
+        <v>450</v>
+      </c>
+      <c r="B451" s="55" t="s">
+        <v>941</v>
+      </c>
+      <c r="C451" s="54" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D451" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="22">
+        <v>451</v>
+      </c>
+      <c r="B452" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="C452" s="54" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D452" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="8"/>
+      <c r="B453" s="56" t="s">
+        <v>943</v>
+      </c>
+      <c r="C453" s="54" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D453" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="8"/>
+      <c r="B454" s="56" t="s">
+        <v>944</v>
+      </c>
+      <c r="C454" s="54" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D454" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="22"/>
+      <c r="B455" s="56" t="s">
+        <v>945</v>
+      </c>
+      <c r="C455" s="54" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D455" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="8"/>
+      <c r="B456" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="C456" s="54" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D456" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="22"/>
+      <c r="B457" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="C457" s="54" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D457" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="8"/>
+      <c r="B458" s="56" t="s">
+        <v>948</v>
+      </c>
+      <c r="C458" s="54" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D458" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="28.8">
+      <c r="A459" s="8"/>
+      <c r="B459" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C459" s="54" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D459" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="22"/>
+      <c r="B460" s="56" t="s">
+        <v>950</v>
+      </c>
+      <c r="C460" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D460" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="8"/>
+      <c r="B461" s="57" t="s">
+        <v>951</v>
+      </c>
+      <c r="C461" s="54" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D461" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="22"/>
+      <c r="B462" s="56" t="s">
+        <v>952</v>
+      </c>
+      <c r="C462" s="54" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D462" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="8"/>
+      <c r="B463" s="56" t="s">
+        <v>953</v>
+      </c>
+      <c r="C463" s="54" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D463" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="8"/>
+      <c r="B464" s="56" t="s">
+        <v>954</v>
+      </c>
+      <c r="C464" s="54" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D464" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="22"/>
+      <c r="B465" s="56" t="s">
+        <v>955</v>
+      </c>
+      <c r="C465" s="54" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D465" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="8"/>
+      <c r="B466" s="56" t="s">
+        <v>956</v>
+      </c>
+      <c r="C466" s="54" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D466" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="22"/>
+      <c r="B467" s="55" t="s">
+        <v>957</v>
+      </c>
+      <c r="C467" s="54" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D467" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="8"/>
+      <c r="B468" s="55" t="s">
+        <v>958</v>
+      </c>
+      <c r="C468" s="54" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D468" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="8"/>
+      <c r="B469" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C469" s="54" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D469" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="22"/>
+      <c r="B470" s="56" t="s">
+        <v>960</v>
+      </c>
+      <c r="C470" s="54" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D470" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="8"/>
+      <c r="B471" s="56" t="s">
+        <v>961</v>
+      </c>
+      <c r="C471" s="54" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D471" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="22"/>
+      <c r="B472" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C472" s="54" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D472" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="28.8">
+      <c r="A473" s="8"/>
+      <c r="B473" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C473" s="54" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D473" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="8"/>
+      <c r="B474" s="55" t="s">
+        <v>964</v>
+      </c>
+      <c r="C474" s="54" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D474" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="22"/>
+      <c r="B475" s="56" t="s">
+        <v>965</v>
+      </c>
+      <c r="C475" s="54" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D475" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="8"/>
+      <c r="B476" s="56" t="s">
+        <v>966</v>
+      </c>
+      <c r="C476" s="54" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D476" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="22"/>
+      <c r="B477" s="55" t="s">
+        <v>967</v>
+      </c>
+      <c r="C477" s="54" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D477" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="8"/>
+      <c r="B478" s="55" t="s">
+        <v>968</v>
+      </c>
+      <c r="C478" s="54" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D478" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="8"/>
+      <c r="B479" s="56" t="s">
+        <v>969</v>
+      </c>
+      <c r="C479" s="54" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D479" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="22"/>
+      <c r="B480" s="56" t="s">
+        <v>970</v>
+      </c>
+      <c r="C480" s="54" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D480" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="8"/>
+      <c r="B481" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C481" s="54" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D481" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="22"/>
+      <c r="B482" s="56" t="s">
+        <v>972</v>
+      </c>
+      <c r="C482" s="54" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D482" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="8"/>
+      <c r="B483" s="55" t="s">
+        <v>973</v>
+      </c>
+      <c r="C483" s="54" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D483" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="8"/>
+      <c r="B484" s="56" t="s">
+        <v>974</v>
+      </c>
+      <c r="C484" s="54" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D484" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="22"/>
+      <c r="B485" s="55" t="s">
+        <v>975</v>
+      </c>
+      <c r="C485" s="54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D485" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="8"/>
+      <c r="B486" s="56" t="s">
+        <v>976</v>
+      </c>
+      <c r="C486" s="54" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D486" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="22"/>
+      <c r="B487" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C487" s="54" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D487" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="8"/>
+      <c r="B488" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C488" s="54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D488" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="8"/>
+      <c r="B489" s="56" t="s">
+        <v>979</v>
+      </c>
+      <c r="C489" s="54" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D489" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="22"/>
+      <c r="B490" s="55" t="s">
+        <v>980</v>
+      </c>
+      <c r="C490" s="54" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D490" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="8"/>
+      <c r="B491" s="55" t="s">
+        <v>981</v>
+      </c>
+      <c r="C491" s="54" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D491" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="22"/>
+      <c r="B492" s="55" t="s">
+        <v>982</v>
+      </c>
+      <c r="C492" s="54" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D492" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="8"/>
+      <c r="B493" s="56" t="s">
+        <v>983</v>
+      </c>
+      <c r="C493" s="54" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D493" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="8"/>
+      <c r="B494" s="56" t="s">
+        <v>986</v>
+      </c>
+      <c r="C494" s="54" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D494" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="22"/>
+      <c r="B495" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C495" s="54" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D495" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A509" s="30"/>
+      <c r="D509" s="31"/>
+      <c r="E509" s="31"/>
+    </row>
+    <row r="510" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A510" s="30"/>
+      <c r="D510" s="31"/>
+      <c r="E510" s="31"/>
+    </row>
+    <row r="511" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A511" s="30"/>
+      <c r="D511" s="31"/>
+      <c r="E511" s="31"/>
+    </row>
+    <row r="512" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A512" s="30"/>
+      <c r="D512" s="31"/>
+      <c r="E512" s="31"/>
+    </row>
+    <row r="513" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A513" s="30"/>
+      <c r="D513" s="31"/>
+      <c r="E513" s="31"/>
+    </row>
+    <row r="514" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A514" s="30"/>
+      <c r="D514" s="31"/>
+      <c r="E514" s="31"/>
+    </row>
+    <row r="515" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A515" s="30"/>
+      <c r="D515" s="31"/>
+      <c r="E515" s="31"/>
+    </row>
+    <row r="516" spans="1:5" s="63" customFormat="1">
+      <c r="A516" s="58"/>
+      <c r="B516" s="59" t="s">
+        <v>879</v>
+      </c>
+      <c r="C516" s="60" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D516" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E516" s="62"/>
+    </row>
+    <row r="517" spans="1:5" s="63" customFormat="1">
+      <c r="A517" s="58"/>
+      <c r="B517" s="59" t="s">
+        <v>881</v>
+      </c>
+      <c r="C517" s="60" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D517" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E517" s="62"/>
+    </row>
+    <row r="518" spans="1:5" s="63" customFormat="1">
+      <c r="A518" s="58"/>
+      <c r="B518" s="64" t="s">
+        <v>894</v>
+      </c>
+      <c r="C518" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D518" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E518" s="62"/>
+    </row>
+    <row r="519" spans="1:5" s="63" customFormat="1">
+      <c r="A519" s="65"/>
+      <c r="B519" s="64" t="s">
+        <v>895</v>
+      </c>
+      <c r="C519" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D519" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E519" s="62"/>
+    </row>
+    <row r="520" spans="1:5" s="63" customFormat="1">
+      <c r="A520" s="58"/>
+      <c r="B520" s="59" t="s">
+        <v>896</v>
+      </c>
+      <c r="C520" s="60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D520" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E520" s="62"/>
+    </row>
+    <row r="521" spans="1:5" s="63" customFormat="1">
+      <c r="A521" s="58"/>
+      <c r="B521" s="64" t="s">
+        <v>916</v>
+      </c>
+      <c r="C521" s="60" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D521" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E521" s="62"/>
+    </row>
+    <row r="522" spans="1:5" s="63" customFormat="1">
+      <c r="A522" s="65"/>
+      <c r="B522" s="64" t="s">
+        <v>917</v>
+      </c>
+      <c r="C522" s="60" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D522" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E522" s="62"/>
+    </row>
+    <row r="523" spans="1:5" s="63" customFormat="1">
+      <c r="A523" s="58"/>
+      <c r="B523" s="59" t="s">
+        <v>921</v>
+      </c>
+      <c r="C523" s="60" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D523" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E523" s="62"/>
+    </row>
+    <row r="524" spans="1:5" s="63" customFormat="1">
+      <c r="A524" s="58"/>
+      <c r="B524" s="66" t="s">
+        <v>924</v>
+      </c>
+      <c r="C524" s="60" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D524" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E524" s="62"/>
+    </row>
+    <row r="525" spans="1:5" s="63" customFormat="1">
+      <c r="A525" s="58"/>
+      <c r="B525" s="66" t="s">
+        <v>931</v>
+      </c>
+      <c r="C525" s="60" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D525" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E525" s="62"/>
+    </row>
+    <row r="526" spans="1:5" s="63" customFormat="1">
+      <c r="A526" s="58"/>
+      <c r="B526" s="66" t="s">
+        <v>933</v>
+      </c>
+      <c r="C526" s="60" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D526" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E526" s="62"/>
+    </row>
+    <row r="527" spans="1:5" s="63" customFormat="1">
+      <c r="A527" s="58"/>
+      <c r="B527" s="64" t="s">
+        <v>938</v>
+      </c>
+      <c r="C527" s="60" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D527" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E527" s="62"/>
+    </row>
+    <row r="528" spans="1:5" s="63" customFormat="1">
+      <c r="A528" s="58"/>
+      <c r="B528" s="67" t="s">
+        <v>939</v>
+      </c>
+      <c r="C528" s="60" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D528" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E528" s="62"/>
     </row>
     <row r="529" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A529" s="32"/>
-      <c r="D529" s="33"/>
-      <c r="E529" s="33"/>
+      <c r="A529" s="30"/>
+      <c r="B529" s="32"/>
+      <c r="C529" s="32"/>
+      <c r="D529" s="31"/>
+      <c r="E529" s="31"/>
     </row>
     <row r="530" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A530" s="32"/>
-      <c r="D530" s="33"/>
-      <c r="E530" s="33"/>
+      <c r="A530" s="30"/>
+      <c r="B530" s="32"/>
+      <c r="C530" s="32"/>
+      <c r="D530" s="31"/>
+      <c r="E530" s="31"/>
     </row>
     <row r="531" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A531" s="32"/>
-      <c r="D531" s="33"/>
-      <c r="E531" s="33"/>
+      <c r="A531" s="30"/>
+      <c r="B531" s="32"/>
+      <c r="C531" s="32"/>
+      <c r="D531" s="31"/>
+      <c r="E531" s="31"/>
     </row>
     <row r="532" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A532" s="32"/>
-      <c r="D532" s="33"/>
-      <c r="E532" s="33"/>
+      <c r="A532" s="30"/>
+      <c r="B532" s="32"/>
+      <c r="C532" s="32"/>
+      <c r="D532" s="31"/>
+      <c r="E532" s="31"/>
     </row>
     <row r="533" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A533" s="32"/>
-      <c r="B533" s="34"/>
-      <c r="C533" s="34"/>
-      <c r="D533" s="33"/>
-      <c r="E533" s="33"/>
+      <c r="A533" s="30"/>
+      <c r="B533" s="32"/>
+      <c r="C533" s="32"/>
+      <c r="D533" s="31"/>
+      <c r="E533" s="31"/>
     </row>
     <row r="534" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A534" s="32"/>
-      <c r="B534" s="34"/>
-      <c r="C534" s="34"/>
-      <c r="D534" s="33"/>
-      <c r="E534" s="33"/>
+      <c r="A534" s="30"/>
+      <c r="B534" s="32"/>
+      <c r="C534" s="32"/>
+      <c r="D534" s="31"/>
+      <c r="E534" s="31"/>
     </row>
     <row r="535" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A535" s="32"/>
-      <c r="B535" s="34"/>
-      <c r="C535" s="34"/>
-      <c r="D535" s="33"/>
-      <c r="E535" s="33"/>
+      <c r="A535" s="30"/>
+      <c r="B535" s="32"/>
+      <c r="C535" s="32"/>
+      <c r="D535" s="31"/>
+      <c r="E535" s="31"/>
     </row>
     <row r="536" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A536" s="32"/>
-      <c r="B536" s="34"/>
-      <c r="C536" s="34"/>
-      <c r="D536" s="33"/>
-      <c r="E536" s="33"/>
+      <c r="A536" s="30"/>
+      <c r="B536" s="32"/>
+      <c r="C536" s="32"/>
+      <c r="D536" s="31"/>
+      <c r="E536" s="31"/>
     </row>
     <row r="537" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A537" s="32"/>
-      <c r="B537" s="34"/>
-      <c r="C537" s="34"/>
-      <c r="D537" s="33"/>
-      <c r="E537" s="33"/>
+      <c r="A537" s="30"/>
+      <c r="B537" s="32"/>
+      <c r="C537" s="32"/>
+      <c r="D537" s="31"/>
+      <c r="E537" s="31"/>
     </row>
     <row r="538" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A538" s="32"/>
-      <c r="B538" s="34"/>
-      <c r="C538" s="34"/>
-      <c r="D538" s="33"/>
-      <c r="E538" s="33"/>
+      <c r="A538" s="30"/>
+      <c r="B538" s="32"/>
+      <c r="C538" s="32"/>
+      <c r="D538" s="31"/>
+      <c r="E538" s="31"/>
     </row>
     <row r="539" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A539" s="32"/>
-      <c r="B539" s="34"/>
-      <c r="C539" s="34"/>
-      <c r="D539" s="33"/>
-      <c r="E539" s="33"/>
+      <c r="A539" s="30"/>
+      <c r="B539" s="32"/>
+      <c r="C539" s="32"/>
+      <c r="D539" s="31"/>
+      <c r="E539" s="31"/>
     </row>
     <row r="540" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A540" s="32"/>
-      <c r="B540" s="34"/>
-      <c r="C540" s="34"/>
-      <c r="D540" s="33"/>
-      <c r="E540" s="33"/>
+      <c r="A540" s="30"/>
+      <c r="B540" s="32"/>
+      <c r="C540" s="32"/>
+      <c r="D540" s="31"/>
+      <c r="E540" s="31"/>
     </row>
     <row r="541" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A541" s="32"/>
-      <c r="B541" s="34"/>
-      <c r="C541" s="34"/>
-      <c r="D541" s="33"/>
-      <c r="E541" s="33"/>
+      <c r="A541" s="30"/>
+      <c r="B541" s="32"/>
+      <c r="C541" s="32"/>
+      <c r="D541" s="31"/>
+      <c r="E541" s="31"/>
     </row>
     <row r="542" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A542" s="32"/>
-      <c r="B542" s="34"/>
-      <c r="C542" s="34"/>
-      <c r="D542" s="33"/>
-      <c r="E542" s="33"/>
+      <c r="A542" s="30"/>
+      <c r="B542" s="32"/>
+      <c r="C542" s="32"/>
+      <c r="D542" s="31"/>
+      <c r="E542" s="31"/>
     </row>
     <row r="543" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A543" s="32"/>
-      <c r="B543" s="34"/>
-      <c r="C543" s="34"/>
-      <c r="D543" s="33"/>
-      <c r="E543" s="33"/>
+      <c r="A543" s="30"/>
+      <c r="B543" s="32"/>
+      <c r="C543" s="32"/>
+      <c r="D543" s="31"/>
+      <c r="E543" s="31"/>
     </row>
     <row r="544" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A544" s="32"/>
-      <c r="B544" s="34"/>
-      <c r="C544" s="34"/>
-      <c r="D544" s="33"/>
-      <c r="E544" s="33"/>
+      <c r="A544" s="30"/>
+      <c r="B544" s="32"/>
+      <c r="C544" s="32"/>
+      <c r="D544" s="31"/>
+      <c r="E544" s="31"/>
     </row>
     <row r="545" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A545" s="32"/>
-      <c r="B545" s="34"/>
-      <c r="C545" s="34"/>
-      <c r="D545" s="33"/>
-      <c r="E545" s="33"/>
+      <c r="A545" s="30"/>
+      <c r="B545" s="32"/>
+      <c r="C545" s="32"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="31"/>
     </row>
     <row r="546" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A546" s="32"/>
-      <c r="B546" s="34"/>
-      <c r="C546" s="34"/>
-      <c r="D546" s="33"/>
-      <c r="E546" s="33"/>
+      <c r="A546" s="30"/>
+      <c r="B546" s="32"/>
+      <c r="C546" s="32"/>
+      <c r="D546" s="31"/>
+      <c r="E546" s="31"/>
     </row>
     <row r="547" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A547" s="32"/>
-      <c r="B547" s="34"/>
-      <c r="C547" s="34"/>
-      <c r="D547" s="33"/>
-      <c r="E547" s="33"/>
+      <c r="A547" s="30"/>
+      <c r="B547" s="32"/>
+      <c r="C547" s="32"/>
+      <c r="D547" s="31"/>
+      <c r="E547" s="31"/>
     </row>
     <row r="548" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A548" s="32"/>
-      <c r="B548" s="34"/>
-      <c r="C548" s="34"/>
-      <c r="D548" s="33"/>
-      <c r="E548" s="33"/>
+      <c r="A548" s="30"/>
+      <c r="B548" s="32"/>
+      <c r="C548" s="32"/>
+      <c r="D548" s="31"/>
+      <c r="E548" s="31"/>
     </row>
     <row r="549" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A549" s="32"/>
-      <c r="B549" s="34"/>
-      <c r="C549" s="34"/>
-      <c r="D549" s="33"/>
-      <c r="E549" s="33"/>
+      <c r="A549" s="30"/>
+      <c r="B549" s="32"/>
+      <c r="C549" s="32"/>
+      <c r="D549" s="31"/>
+      <c r="E549" s="31"/>
     </row>
     <row r="550" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A550" s="32"/>
-      <c r="B550" s="34"/>
-      <c r="C550" s="34"/>
-      <c r="D550" s="33"/>
-      <c r="E550" s="33"/>
+      <c r="A550" s="30"/>
+      <c r="B550" s="32"/>
+      <c r="C550" s="32"/>
+      <c r="D550" s="31"/>
+      <c r="E550" s="31"/>
     </row>
     <row r="551" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A551" s="32"/>
-      <c r="B551" s="34"/>
-      <c r="C551" s="34"/>
-      <c r="D551" s="33"/>
-      <c r="E551" s="33"/>
+      <c r="A551" s="30"/>
+      <c r="B551" s="32"/>
+      <c r="C551" s="32"/>
+      <c r="D551" s="31"/>
+      <c r="E551" s="31"/>
     </row>
     <row r="552" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A552" s="32"/>
-      <c r="B552" s="34"/>
-      <c r="C552" s="34"/>
-      <c r="D552" s="33"/>
-      <c r="E552" s="33"/>
+      <c r="A552" s="30"/>
+      <c r="B552" s="32"/>
+      <c r="C552" s="32"/>
+      <c r="D552" s="31"/>
+      <c r="E552" s="31"/>
     </row>
     <row r="553" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A553" s="32"/>
-      <c r="B553" s="34"/>
-      <c r="C553" s="34"/>
-      <c r="D553" s="33"/>
-      <c r="E553" s="33"/>
+      <c r="A553" s="30"/>
+      <c r="B553" s="32"/>
+      <c r="C553" s="32"/>
+      <c r="D553" s="31"/>
+      <c r="E553" s="31"/>
     </row>
     <row r="554" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A554" s="32"/>
-      <c r="B554" s="34"/>
-      <c r="C554" s="34"/>
-      <c r="D554" s="33"/>
-      <c r="E554" s="33"/>
+      <c r="A554" s="30"/>
+      <c r="B554" s="32"/>
+      <c r="C554" s="32"/>
+      <c r="D554" s="31"/>
+      <c r="E554" s="31"/>
     </row>
     <row r="555" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A555" s="32"/>
-      <c r="B555" s="34"/>
-      <c r="C555" s="34"/>
-      <c r="D555" s="33"/>
-      <c r="E555" s="33"/>
+      <c r="A555" s="30"/>
+      <c r="B555" s="32"/>
+      <c r="C555" s="32"/>
+      <c r="D555" s="31"/>
+      <c r="E555" s="31"/>
     </row>
     <row r="556" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A556" s="32"/>
-      <c r="B556" s="34"/>
-      <c r="C556" s="34"/>
-      <c r="D556" s="33"/>
-      <c r="E556" s="33"/>
+      <c r="A556" s="30"/>
+      <c r="B556" s="32"/>
+      <c r="C556" s="32"/>
+      <c r="D556" s="31"/>
+      <c r="E556" s="31"/>
     </row>
     <row r="557" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A557" s="32"/>
-      <c r="B557" s="34"/>
-      <c r="C557" s="34"/>
-      <c r="D557" s="33"/>
-      <c r="E557" s="33"/>
+      <c r="A557" s="30"/>
+      <c r="B557" s="32"/>
+      <c r="C557" s="32"/>
+      <c r="D557" s="31"/>
+      <c r="E557" s="31"/>
     </row>
     <row r="558" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A558" s="32"/>
-      <c r="B558" s="34"/>
-      <c r="C558" s="34"/>
-      <c r="D558" s="33"/>
-      <c r="E558" s="33"/>
+      <c r="A558" s="30"/>
+      <c r="B558" s="32"/>
+      <c r="C558" s="32"/>
+      <c r="D558" s="31"/>
+      <c r="E558" s="31"/>
     </row>
     <row r="559" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A559" s="32"/>
-      <c r="B559" s="34"/>
-      <c r="C559" s="34"/>
-      <c r="D559" s="33"/>
-      <c r="E559" s="33"/>
+      <c r="A559" s="30"/>
+      <c r="B559" s="32"/>
+      <c r="C559" s="32"/>
+      <c r="D559" s="31"/>
+      <c r="E559" s="31"/>
     </row>
     <row r="560" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A560" s="32"/>
-      <c r="B560" s="34"/>
-      <c r="C560" s="34"/>
-      <c r="D560" s="33"/>
-      <c r="E560" s="33"/>
+      <c r="A560" s="30"/>
+      <c r="B560" s="32"/>
+      <c r="C560" s="32"/>
+      <c r="D560" s="31"/>
+      <c r="E560" s="31"/>
     </row>
     <row r="561" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A561" s="32"/>
-      <c r="B561" s="34"/>
-      <c r="C561" s="34"/>
-      <c r="D561" s="33"/>
-      <c r="E561" s="33"/>
+      <c r="A561" s="30"/>
+      <c r="B561" s="32"/>
+      <c r="C561" s="32"/>
+      <c r="D561" s="31"/>
+      <c r="E561" s="31"/>
     </row>
     <row r="562" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A562" s="32"/>
-      <c r="B562" s="34"/>
-      <c r="C562" s="34"/>
-      <c r="D562" s="33"/>
-      <c r="E562" s="33"/>
+      <c r="A562" s="30"/>
+      <c r="B562" s="32"/>
+      <c r="C562" s="32"/>
+      <c r="D562" s="31"/>
+      <c r="E562" s="31"/>
     </row>
     <row r="563" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A563" s="32"/>
-      <c r="B563" s="34"/>
-      <c r="C563" s="34"/>
-      <c r="D563" s="33"/>
-      <c r="E563" s="33"/>
+      <c r="A563" s="30"/>
+      <c r="B563" s="32"/>
+      <c r="C563" s="32"/>
+      <c r="D563" s="31"/>
+      <c r="E563" s="31"/>
     </row>
     <row r="564" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A564" s="32"/>
-      <c r="B564" s="34"/>
-      <c r="C564" s="34"/>
-      <c r="D564" s="33"/>
-      <c r="E564" s="33"/>
+      <c r="A564" s="30"/>
+      <c r="B564" s="32"/>
+      <c r="C564" s="32"/>
+      <c r="D564" s="31"/>
+      <c r="E564" s="31"/>
     </row>
     <row r="565" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A565" s="32"/>
-      <c r="B565" s="34"/>
-      <c r="C565" s="34"/>
-      <c r="D565" s="33"/>
-      <c r="E565" s="33"/>
+      <c r="A565" s="30"/>
+      <c r="B565" s="32"/>
+      <c r="C565" s="32"/>
+      <c r="D565" s="31"/>
+      <c r="E565" s="31"/>
     </row>
     <row r="566" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A566" s="32"/>
-      <c r="B566" s="34"/>
-      <c r="C566" s="34"/>
-      <c r="D566" s="33"/>
-      <c r="E566" s="33"/>
+      <c r="A566" s="30"/>
+      <c r="B566" s="32"/>
+      <c r="C566" s="32"/>
+      <c r="D566" s="31"/>
+      <c r="E566" s="31"/>
     </row>
     <row r="567" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A567" s="32"/>
-      <c r="B567" s="34"/>
-      <c r="C567" s="34"/>
-      <c r="D567" s="33"/>
-      <c r="E567" s="33"/>
+      <c r="A567" s="30"/>
+      <c r="B567" s="32"/>
+      <c r="C567" s="32"/>
+      <c r="D567" s="31"/>
+      <c r="E567" s="31"/>
     </row>
     <row r="568" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A568" s="32"/>
-      <c r="B568" s="34"/>
-      <c r="C568" s="34"/>
-      <c r="D568" s="33"/>
-      <c r="E568" s="33"/>
+      <c r="A568" s="30"/>
+      <c r="B568" s="32"/>
+      <c r="C568" s="32"/>
+      <c r="D568" s="31"/>
+      <c r="E568" s="31"/>
     </row>
     <row r="569" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A569" s="32"/>
-      <c r="B569" s="34"/>
-      <c r="C569" s="34"/>
-      <c r="D569" s="33"/>
-      <c r="E569" s="33"/>
+      <c r="A569" s="30"/>
+      <c r="B569" s="32"/>
+      <c r="C569" s="32"/>
+      <c r="D569" s="31"/>
+      <c r="E569" s="31"/>
     </row>
     <row r="570" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A570" s="32"/>
-      <c r="B570" s="34"/>
-      <c r="C570" s="34"/>
-      <c r="D570" s="33"/>
-      <c r="E570" s="33"/>
+      <c r="A570" s="30"/>
+      <c r="B570" s="32"/>
+      <c r="C570" s="32"/>
+      <c r="D570" s="31"/>
+      <c r="E570" s="31"/>
     </row>
     <row r="571" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A571" s="32"/>
-      <c r="B571" s="34"/>
-      <c r="C571" s="34"/>
-      <c r="D571" s="33"/>
-      <c r="E571" s="33"/>
+      <c r="A571" s="30"/>
+      <c r="B571" s="32"/>
+      <c r="C571" s="32"/>
+      <c r="D571" s="31"/>
+      <c r="E571" s="31"/>
     </row>
     <row r="572" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A572" s="32"/>
-      <c r="B572" s="34"/>
-      <c r="C572" s="34"/>
-      <c r="D572" s="33"/>
-      <c r="E572" s="33"/>
+      <c r="A572" s="30"/>
+      <c r="B572" s="32"/>
+      <c r="C572" s="32"/>
+      <c r="D572" s="31"/>
+      <c r="E572" s="31"/>
     </row>
     <row r="573" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A573" s="32"/>
-      <c r="B573" s="34"/>
-      <c r="C573" s="34"/>
-      <c r="D573" s="33"/>
-      <c r="E573" s="33"/>
+      <c r="A573" s="30"/>
+      <c r="B573" s="32"/>
+      <c r="C573" s="32"/>
+      <c r="D573" s="31"/>
+      <c r="E573" s="31"/>
     </row>
     <row r="574" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A574" s="32"/>
-      <c r="B574" s="34"/>
-      <c r="C574" s="34"/>
-      <c r="D574" s="33"/>
-      <c r="E574" s="33"/>
+      <c r="A574" s="30"/>
+      <c r="B574" s="32"/>
+      <c r="C574" s="32"/>
+      <c r="D574" s="31"/>
+      <c r="E574" s="31"/>
     </row>
     <row r="575" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A575" s="32"/>
-      <c r="B575" s="34"/>
-      <c r="C575" s="34"/>
-      <c r="D575" s="33"/>
-      <c r="E575" s="33"/>
+      <c r="A575" s="30"/>
+      <c r="B575" s="32"/>
+      <c r="C575" s="32"/>
+      <c r="D575" s="31"/>
+      <c r="E575" s="31"/>
     </row>
     <row r="576" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A576" s="32"/>
-      <c r="B576" s="34"/>
-      <c r="C576" s="34"/>
-      <c r="D576" s="33"/>
-      <c r="E576" s="33"/>
+      <c r="A576" s="30"/>
+      <c r="B576" s="32"/>
+      <c r="C576" s="32"/>
+      <c r="D576" s="31"/>
+      <c r="E576" s="31"/>
     </row>
     <row r="577" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A577" s="32"/>
-      <c r="B577" s="34"/>
-      <c r="C577" s="34"/>
-      <c r="D577" s="33"/>
-      <c r="E577" s="33"/>
+      <c r="A577" s="30"/>
+      <c r="B577" s="32"/>
+      <c r="C577" s="32"/>
+      <c r="D577" s="31"/>
+      <c r="E577" s="31"/>
     </row>
     <row r="578" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A578" s="32"/>
-      <c r="B578" s="34"/>
-      <c r="C578" s="34"/>
-      <c r="D578" s="33"/>
-      <c r="E578" s="33"/>
+      <c r="A578" s="30"/>
+      <c r="B578" s="32"/>
+      <c r="C578" s="32"/>
+      <c r="D578" s="31"/>
+      <c r="E578" s="31"/>
     </row>
     <row r="579" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A579" s="32"/>
-      <c r="B579" s="34"/>
-      <c r="C579" s="34"/>
-      <c r="D579" s="33"/>
-      <c r="E579" s="33"/>
+      <c r="A579" s="30"/>
+      <c r="B579" s="32"/>
+      <c r="C579" s="32"/>
+      <c r="D579" s="31"/>
+      <c r="E579" s="31"/>
     </row>
     <row r="580" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A580" s="32"/>
-      <c r="B580" s="34"/>
-      <c r="C580" s="34"/>
-      <c r="D580" s="33"/>
-      <c r="E580" s="33"/>
+      <c r="A580" s="30"/>
+      <c r="B580" s="32"/>
+      <c r="C580" s="32"/>
+      <c r="D580" s="31"/>
+      <c r="E580" s="31"/>
     </row>
     <row r="581" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A581" s="32"/>
-      <c r="B581" s="34"/>
-      <c r="C581" s="34"/>
-      <c r="D581" s="33"/>
-      <c r="E581" s="33"/>
+      <c r="A581" s="30"/>
+      <c r="B581" s="32"/>
+      <c r="C581" s="32"/>
+      <c r="D581" s="31"/>
+      <c r="E581" s="31"/>
     </row>
     <row r="582" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A582" s="32"/>
-      <c r="B582" s="34"/>
-      <c r="C582" s="34"/>
-      <c r="D582" s="33"/>
-      <c r="E582" s="33"/>
+      <c r="A582" s="30"/>
+      <c r="B582" s="32"/>
+      <c r="C582" s="32"/>
+      <c r="D582" s="31"/>
+      <c r="E582" s="31"/>
     </row>
     <row r="583" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A583" s="32"/>
-      <c r="B583" s="34"/>
-      <c r="C583" s="34"/>
-      <c r="D583" s="33"/>
-      <c r="E583" s="33"/>
+      <c r="A583" s="30"/>
+      <c r="B583" s="32"/>
+      <c r="C583" s="32"/>
+      <c r="D583" s="31"/>
+      <c r="E583" s="31"/>
     </row>
     <row r="584" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A584" s="32"/>
-      <c r="B584" s="34"/>
-      <c r="C584" s="34"/>
-      <c r="D584" s="33"/>
-      <c r="E584" s="33"/>
+      <c r="A584" s="30"/>
+      <c r="B584" s="32"/>
+      <c r="C584" s="32"/>
+      <c r="D584" s="31"/>
+      <c r="E584" s="31"/>
     </row>
     <row r="585" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A585" s="32"/>
-      <c r="B585" s="34"/>
-      <c r="C585" s="34"/>
-      <c r="D585" s="33"/>
-      <c r="E585" s="33"/>
+      <c r="A585" s="30"/>
+      <c r="B585" s="32"/>
+      <c r="C585" s="32"/>
+      <c r="D585" s="31"/>
+      <c r="E585" s="31"/>
     </row>
     <row r="586" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A586" s="32"/>
-      <c r="B586" s="34"/>
-      <c r="C586" s="34"/>
-      <c r="D586" s="33"/>
-      <c r="E586" s="33"/>
+      <c r="A586" s="30"/>
+      <c r="B586" s="32"/>
+      <c r="C586" s="32"/>
+      <c r="D586" s="31"/>
+      <c r="E586" s="31"/>
     </row>
     <row r="587" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A587" s="32"/>
-      <c r="B587" s="34"/>
-      <c r="C587" s="34"/>
-      <c r="D587" s="33"/>
-      <c r="E587" s="33"/>
+      <c r="A587" s="30"/>
+      <c r="B587" s="32"/>
+      <c r="C587" s="32"/>
+      <c r="D587" s="31"/>
+      <c r="E587" s="31"/>
     </row>
     <row r="588" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A588" s="32"/>
-      <c r="B588" s="34"/>
-      <c r="C588" s="34"/>
-      <c r="D588" s="33"/>
-      <c r="E588" s="33"/>
+      <c r="A588" s="30"/>
+      <c r="B588" s="32"/>
+      <c r="C588" s="32"/>
+      <c r="D588" s="31"/>
+      <c r="E588" s="31"/>
     </row>
     <row r="589" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A589" s="32"/>
-      <c r="B589" s="34"/>
-      <c r="C589" s="34"/>
-      <c r="D589" s="33"/>
-      <c r="E589" s="33"/>
+      <c r="A589" s="30"/>
+      <c r="B589" s="32"/>
+      <c r="C589" s="32"/>
+      <c r="D589" s="31"/>
+      <c r="E589" s="31"/>
     </row>
     <row r="590" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A590" s="32"/>
-      <c r="B590" s="34"/>
-      <c r="C590" s="34"/>
-      <c r="D590" s="33"/>
-      <c r="E590" s="33"/>
+      <c r="A590" s="30"/>
+      <c r="B590" s="32"/>
+      <c r="C590" s="32"/>
+      <c r="D590" s="31"/>
+      <c r="E590" s="31"/>
     </row>
     <row r="591" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A591" s="32"/>
-      <c r="B591" s="34"/>
-      <c r="C591" s="34"/>
-      <c r="D591" s="33"/>
-      <c r="E591" s="33"/>
+      <c r="A591" s="30"/>
+      <c r="B591" s="32"/>
+      <c r="C591" s="32"/>
+      <c r="D591" s="31"/>
+      <c r="E591" s="31"/>
     </row>
     <row r="592" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A592" s="32"/>
-      <c r="B592" s="34"/>
-      <c r="C592" s="34"/>
-      <c r="D592" s="33"/>
-      <c r="E592" s="33"/>
+      <c r="A592" s="30"/>
+      <c r="B592" s="32"/>
+      <c r="C592" s="32"/>
+      <c r="D592" s="31"/>
+      <c r="E592" s="31"/>
     </row>
     <row r="593" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A593" s="32"/>
-      <c r="B593" s="34"/>
-      <c r="C593" s="34"/>
-      <c r="D593" s="33"/>
-      <c r="E593" s="33"/>
+      <c r="A593" s="30"/>
+      <c r="B593" s="32"/>
+      <c r="C593" s="32"/>
+      <c r="D593" s="31"/>
+      <c r="E593" s="31"/>
     </row>
     <row r="594" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A594" s="32"/>
-      <c r="B594" s="34"/>
-      <c r="C594" s="34"/>
-      <c r="D594" s="33"/>
-      <c r="E594" s="33"/>
+      <c r="A594" s="30"/>
+      <c r="B594" s="32"/>
+      <c r="C594" s="32"/>
+      <c r="D594" s="31"/>
+      <c r="E594" s="31"/>
     </row>
     <row r="595" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A595" s="32"/>
-      <c r="B595" s="34"/>
-      <c r="C595" s="34"/>
-      <c r="D595" s="33"/>
-      <c r="E595" s="33"/>
+      <c r="A595" s="30"/>
+      <c r="B595" s="32"/>
+      <c r="C595" s="32"/>
+      <c r="D595" s="31"/>
+      <c r="E595" s="31"/>
     </row>
     <row r="596" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A596" s="32"/>
-      <c r="B596" s="34"/>
-      <c r="C596" s="34"/>
-      <c r="D596" s="33"/>
-      <c r="E596" s="33"/>
+      <c r="A596" s="30"/>
+      <c r="B596" s="32"/>
+      <c r="C596" s="32"/>
+      <c r="D596" s="31"/>
+      <c r="E596" s="31"/>
     </row>
     <row r="597" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A597" s="32"/>
-      <c r="B597" s="34"/>
-      <c r="C597" s="34"/>
-      <c r="D597" s="33"/>
-      <c r="E597" s="33"/>
+      <c r="A597" s="30"/>
+      <c r="B597" s="32"/>
+      <c r="C597" s="32"/>
+      <c r="D597" s="31"/>
+      <c r="E597" s="31"/>
     </row>
     <row r="598" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A598" s="32"/>
-      <c r="B598" s="34"/>
-      <c r="C598" s="34"/>
-      <c r="D598" s="33"/>
-      <c r="E598" s="33"/>
+      <c r="A598" s="30"/>
+      <c r="B598" s="32"/>
+      <c r="C598" s="32"/>
+      <c r="D598" s="31"/>
+      <c r="E598" s="31"/>
     </row>
     <row r="599" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A599" s="32"/>
-      <c r="B599" s="34"/>
-      <c r="C599" s="34"/>
-      <c r="D599" s="33"/>
-      <c r="E599" s="33"/>
+      <c r="A599" s="30"/>
+      <c r="B599" s="32"/>
+      <c r="C599" s="32"/>
+      <c r="D599" s="31"/>
+      <c r="E599" s="31"/>
     </row>
     <row r="600" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A600" s="32"/>
-      <c r="B600" s="34"/>
-      <c r="C600" s="34"/>
-      <c r="D600" s="33"/>
-      <c r="E600" s="33"/>
+      <c r="A600" s="30"/>
+      <c r="B600" s="32"/>
+      <c r="C600" s="32"/>
+      <c r="D600" s="31"/>
+      <c r="E600" s="31"/>
     </row>
     <row r="601" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A601" s="32"/>
-      <c r="B601" s="34"/>
-      <c r="C601" s="34"/>
-      <c r="D601" s="33"/>
-      <c r="E601" s="33"/>
+      <c r="A601" s="30"/>
+      <c r="B601" s="32"/>
+      <c r="C601" s="32"/>
+      <c r="D601" s="31"/>
+      <c r="E601" s="31"/>
     </row>
     <row r="602" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A602" s="32"/>
-      <c r="B602" s="34"/>
-      <c r="C602" s="34"/>
-      <c r="D602" s="33"/>
-      <c r="E602" s="33"/>
+      <c r="A602" s="30"/>
+      <c r="B602" s="32"/>
+      <c r="C602" s="32"/>
+      <c r="D602" s="31"/>
+      <c r="E602" s="31"/>
     </row>
     <row r="603" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A603" s="32"/>
-      <c r="B603" s="34"/>
-      <c r="C603" s="34"/>
-      <c r="D603" s="33"/>
-      <c r="E603" s="33"/>
+      <c r="A603" s="30"/>
+      <c r="B603" s="32"/>
+      <c r="C603" s="32"/>
+      <c r="D603" s="31"/>
+      <c r="E603" s="31"/>
     </row>
     <row r="604" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A604" s="32"/>
-      <c r="B604" s="34"/>
-      <c r="C604" s="34"/>
-      <c r="D604" s="33"/>
-      <c r="E604" s="33"/>
+      <c r="A604" s="30"/>
+      <c r="B604" s="32"/>
+      <c r="C604" s="32"/>
+      <c r="D604" s="31"/>
+      <c r="E604" s="31"/>
     </row>
     <row r="605" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A605" s="32"/>
-      <c r="B605" s="34"/>
-      <c r="C605" s="34"/>
-      <c r="D605" s="33"/>
-      <c r="E605" s="33"/>
+      <c r="A605" s="30"/>
+      <c r="B605" s="32"/>
+      <c r="C605" s="32"/>
+      <c r="D605" s="31"/>
+      <c r="E605" s="31"/>
     </row>
     <row r="606" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A606" s="32"/>
-      <c r="B606" s="34"/>
-      <c r="C606" s="34"/>
-      <c r="D606" s="33"/>
-      <c r="E606" s="33"/>
+      <c r="A606" s="30"/>
+      <c r="B606" s="32"/>
+      <c r="C606" s="32"/>
+      <c r="D606" s="31"/>
+      <c r="E606" s="31"/>
     </row>
     <row r="607" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A607" s="32"/>
-      <c r="B607" s="34"/>
-      <c r="C607" s="34"/>
-      <c r="D607" s="33"/>
-      <c r="E607" s="33"/>
+      <c r="A607" s="30"/>
+      <c r="B607" s="32"/>
+      <c r="C607" s="32"/>
+      <c r="D607" s="31"/>
+      <c r="E607" s="31"/>
     </row>
     <row r="608" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A608" s="32"/>
-      <c r="B608" s="34"/>
-      <c r="C608" s="34"/>
-      <c r="D608" s="33"/>
-      <c r="E608" s="33"/>
+      <c r="A608" s="30"/>
+      <c r="B608" s="32"/>
+      <c r="C608" s="32"/>
+      <c r="D608" s="31"/>
+      <c r="E608" s="31"/>
     </row>
     <row r="609" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A609" s="32"/>
-      <c r="B609" s="34"/>
-      <c r="C609" s="34"/>
-      <c r="D609" s="33"/>
-      <c r="E609" s="33"/>
+      <c r="A609" s="30"/>
+      <c r="B609" s="32"/>
+      <c r="C609" s="32"/>
+      <c r="D609" s="31"/>
+      <c r="E609" s="31"/>
     </row>
     <row r="610" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A610" s="32"/>
-      <c r="B610" s="34"/>
-      <c r="C610" s="34"/>
-      <c r="D610" s="33"/>
-      <c r="E610" s="33"/>
+      <c r="A610" s="30"/>
+      <c r="B610" s="32"/>
+      <c r="C610" s="32"/>
+      <c r="D610" s="31"/>
+      <c r="E610" s="31"/>
     </row>
     <row r="611" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A611" s="32"/>
-      <c r="B611" s="34"/>
-      <c r="C611" s="34"/>
-      <c r="D611" s="33"/>
-      <c r="E611" s="33"/>
+      <c r="A611" s="30"/>
+      <c r="B611" s="32"/>
+      <c r="C611" s="32"/>
+      <c r="D611" s="31"/>
+      <c r="E611" s="31"/>
     </row>
     <row r="612" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A612" s="32"/>
-      <c r="B612" s="34"/>
-      <c r="C612" s="34"/>
-      <c r="D612" s="33"/>
-      <c r="E612" s="33"/>
+      <c r="A612" s="30"/>
+      <c r="B612" s="32"/>
+      <c r="C612" s="32"/>
+      <c r="D612" s="31"/>
+      <c r="E612" s="31"/>
     </row>
     <row r="613" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A613" s="32"/>
-      <c r="B613" s="34"/>
-      <c r="C613" s="34"/>
-      <c r="D613" s="33"/>
-      <c r="E613" s="33"/>
+      <c r="A613" s="30"/>
+      <c r="B613" s="32"/>
+      <c r="C613" s="32"/>
+      <c r="D613" s="31"/>
+      <c r="E613" s="31"/>
     </row>
     <row r="614" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A614" s="32"/>
-      <c r="B614" s="34"/>
-      <c r="C614" s="34"/>
-      <c r="D614" s="33"/>
-      <c r="E614" s="33"/>
+      <c r="A614" s="30"/>
+      <c r="B614" s="32"/>
+      <c r="C614" s="32"/>
+      <c r="D614" s="31"/>
+      <c r="E614" s="31"/>
     </row>
     <row r="615" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A615" s="32"/>
-      <c r="B615" s="34"/>
-      <c r="C615" s="34"/>
-      <c r="D615" s="33"/>
-      <c r="E615" s="33"/>
+      <c r="A615" s="30"/>
+      <c r="B615" s="32"/>
+      <c r="C615" s="32"/>
+      <c r="D615" s="31"/>
+      <c r="E615" s="31"/>
     </row>
     <row r="616" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A616" s="32"/>
-      <c r="B616" s="34"/>
-      <c r="C616" s="34"/>
-      <c r="D616" s="33"/>
-      <c r="E616" s="33"/>
+      <c r="A616" s="30"/>
+      <c r="B616" s="32"/>
+      <c r="C616" s="32"/>
+      <c r="D616" s="31"/>
+      <c r="E616" s="31"/>
     </row>
     <row r="617" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A617" s="32"/>
-      <c r="B617" s="34"/>
-      <c r="C617" s="34"/>
-      <c r="D617" s="33"/>
-      <c r="E617" s="33"/>
+      <c r="A617" s="30"/>
+      <c r="B617" s="32"/>
+      <c r="C617" s="32"/>
+      <c r="D617" s="31"/>
+      <c r="E617" s="31"/>
     </row>
     <row r="618" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A618" s="32"/>
-      <c r="B618" s="34"/>
-      <c r="C618" s="34"/>
-      <c r="D618" s="33"/>
-      <c r="E618" s="33"/>
+      <c r="A618" s="30"/>
+      <c r="B618" s="32"/>
+      <c r="C618" s="32"/>
+      <c r="D618" s="31"/>
+      <c r="E618" s="31"/>
     </row>
     <row r="619" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A619" s="32"/>
-      <c r="B619" s="34"/>
-      <c r="C619" s="34"/>
-      <c r="D619" s="33"/>
-      <c r="E619" s="33"/>
+      <c r="A619" s="30"/>
+      <c r="B619" s="32"/>
+      <c r="C619" s="32"/>
+      <c r="D619" s="31"/>
+      <c r="E619" s="31"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A620" s="32"/>
-      <c r="B620" s="34"/>
-      <c r="C620" s="34"/>
-      <c r="D620" s="33"/>
-      <c r="E620" s="33"/>
+      <c r="A620" s="30"/>
+      <c r="B620" s="32"/>
+      <c r="C620" s="32"/>
+      <c r="D620" s="31"/>
+      <c r="E620" s="31"/>
     </row>
     <row r="621" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A621" s="32"/>
-      <c r="B621" s="34"/>
-      <c r="C621" s="34"/>
-      <c r="D621" s="33"/>
-      <c r="E621" s="33"/>
+      <c r="A621" s="30"/>
+      <c r="B621" s="32"/>
+      <c r="C621" s="32"/>
+      <c r="D621" s="31"/>
+      <c r="E621" s="31"/>
     </row>
     <row r="622" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A622" s="32"/>
-      <c r="B622" s="34"/>
-      <c r="C622" s="34"/>
-      <c r="D622" s="33"/>
-      <c r="E622" s="33"/>
+      <c r="A622" s="30"/>
+      <c r="B622" s="32"/>
+      <c r="C622" s="32"/>
+      <c r="D622" s="31"/>
+      <c r="E622" s="31"/>
     </row>
     <row r="623" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A623" s="32"/>
-      <c r="B623" s="34"/>
-      <c r="C623" s="34"/>
-      <c r="D623" s="33"/>
-      <c r="E623" s="33"/>
+      <c r="A623" s="30"/>
+      <c r="B623" s="32"/>
+      <c r="C623" s="32"/>
+      <c r="D623" s="31"/>
+      <c r="E623" s="31"/>
     </row>
     <row r="624" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A624" s="32"/>
-      <c r="B624" s="34"/>
-      <c r="C624" s="34"/>
-      <c r="D624" s="33"/>
-      <c r="E624" s="33"/>
+      <c r="A624" s="30"/>
+      <c r="B624" s="32"/>
+      <c r="C624" s="32"/>
+      <c r="D624" s="31"/>
+      <c r="E624" s="31"/>
     </row>
     <row r="625" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A625" s="32"/>
-      <c r="B625" s="34"/>
-      <c r="C625" s="34"/>
-      <c r="D625" s="33"/>
-      <c r="E625" s="33"/>
+      <c r="A625" s="30"/>
+      <c r="B625" s="32"/>
+      <c r="C625" s="32"/>
+      <c r="D625" s="31"/>
+      <c r="E625" s="31"/>
     </row>
     <row r="626" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A626" s="32"/>
-      <c r="B626" s="34"/>
-      <c r="C626" s="34"/>
-      <c r="D626" s="33"/>
-      <c r="E626" s="33"/>
+      <c r="A626" s="30"/>
+      <c r="B626" s="32"/>
+      <c r="C626" s="32"/>
+      <c r="D626" s="31"/>
+      <c r="E626" s="31"/>
     </row>
     <row r="627" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A627" s="32"/>
-      <c r="B627" s="34"/>
-      <c r="C627" s="34"/>
-      <c r="D627" s="33"/>
-      <c r="E627" s="33"/>
+      <c r="A627" s="30"/>
+      <c r="B627" s="32"/>
+      <c r="C627" s="32"/>
+      <c r="D627" s="31"/>
+      <c r="E627" s="31"/>
     </row>
     <row r="628" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A628" s="32"/>
-      <c r="B628" s="34"/>
-      <c r="C628" s="34"/>
-      <c r="D628" s="33"/>
-      <c r="E628" s="33"/>
+      <c r="A628" s="30"/>
+      <c r="B628" s="32"/>
+      <c r="C628" s="32"/>
+      <c r="D628" s="31"/>
+      <c r="E628" s="31"/>
     </row>
     <row r="629" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A629" s="32"/>
-      <c r="B629" s="34"/>
-      <c r="C629" s="34"/>
-      <c r="D629" s="33"/>
-      <c r="E629" s="33"/>
+      <c r="A629" s="30"/>
+      <c r="B629" s="32"/>
+      <c r="C629" s="32"/>
+      <c r="D629" s="31"/>
+      <c r="E629" s="31"/>
     </row>
     <row r="630" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A630" s="32"/>
-      <c r="B630" s="34"/>
-      <c r="C630" s="34"/>
-      <c r="D630" s="33"/>
-      <c r="E630" s="33"/>
+      <c r="A630" s="30"/>
+      <c r="B630" s="32"/>
+      <c r="C630" s="32"/>
+      <c r="D630" s="31"/>
+      <c r="E630" s="31"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A631" s="32"/>
-      <c r="B631" s="34"/>
-      <c r="C631" s="34"/>
-      <c r="D631" s="33"/>
-      <c r="E631" s="33"/>
+      <c r="A631" s="30"/>
+      <c r="B631" s="32"/>
+      <c r="C631" s="32"/>
+      <c r="D631" s="31"/>
+      <c r="E631" s="31"/>
     </row>
     <row r="632" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A632" s="32"/>
-      <c r="B632" s="34"/>
-      <c r="C632" s="34"/>
-      <c r="D632" s="33"/>
-      <c r="E632" s="33"/>
+      <c r="A632" s="30"/>
+      <c r="B632" s="32"/>
+      <c r="C632" s="32"/>
+      <c r="D632" s="31"/>
+      <c r="E632" s="31"/>
     </row>
     <row r="633" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A633" s="32"/>
-      <c r="B633" s="34"/>
-      <c r="C633" s="34"/>
-      <c r="D633" s="33"/>
-      <c r="E633" s="33"/>
+      <c r="A633" s="30"/>
+      <c r="B633" s="32"/>
+      <c r="C633" s="32"/>
+      <c r="D633" s="31"/>
+      <c r="E633" s="31"/>
     </row>
     <row r="634" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A634" s="32"/>
-      <c r="B634" s="34"/>
-      <c r="C634" s="34"/>
-      <c r="D634" s="33"/>
-      <c r="E634" s="33"/>
+      <c r="A634" s="30"/>
+      <c r="B634" s="32"/>
+      <c r="C634" s="32"/>
+      <c r="D634" s="31"/>
+      <c r="E634" s="31"/>
     </row>
     <row r="635" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A635" s="32"/>
-      <c r="B635" s="34"/>
-      <c r="C635" s="34"/>
-      <c r="D635" s="33"/>
-      <c r="E635" s="33"/>
+      <c r="A635" s="30"/>
+      <c r="B635" s="32"/>
+      <c r="C635" s="32"/>
+      <c r="D635" s="31"/>
+      <c r="E635" s="31"/>
     </row>
     <row r="636" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A636" s="32"/>
-      <c r="B636" s="34"/>
-      <c r="C636" s="34"/>
-      <c r="D636" s="33"/>
-      <c r="E636" s="33"/>
+      <c r="A636" s="30"/>
+      <c r="B636" s="32"/>
+      <c r="C636" s="32"/>
+      <c r="D636" s="31"/>
+      <c r="E636" s="31"/>
     </row>
     <row r="637" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A637" s="32"/>
-      <c r="B637" s="34"/>
-      <c r="C637" s="34"/>
-      <c r="D637" s="33"/>
-      <c r="E637" s="33"/>
+      <c r="A637" s="30"/>
+      <c r="B637" s="32"/>
+      <c r="C637" s="32"/>
+      <c r="D637" s="31"/>
+      <c r="E637" s="31"/>
     </row>
     <row r="638" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A638" s="32"/>
-      <c r="B638" s="34"/>
-      <c r="C638" s="34"/>
-      <c r="D638" s="33"/>
-      <c r="E638" s="33"/>
+      <c r="A638" s="30"/>
+      <c r="B638" s="32"/>
+      <c r="C638" s="32"/>
+      <c r="D638" s="31"/>
+      <c r="E638" s="31"/>
     </row>
     <row r="639" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A639" s="32"/>
-      <c r="B639" s="34"/>
-      <c r="C639" s="34"/>
-      <c r="D639" s="33"/>
-      <c r="E639" s="33"/>
+      <c r="A639" s="30"/>
+      <c r="B639" s="32"/>
+      <c r="C639" s="32"/>
+      <c r="D639" s="31"/>
+      <c r="E639" s="31"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A640" s="32"/>
-      <c r="B640" s="34"/>
-      <c r="C640" s="34"/>
-      <c r="D640" s="33"/>
-      <c r="E640" s="33"/>
+      <c r="A640" s="30"/>
+      <c r="B640" s="32"/>
+      <c r="C640" s="32"/>
+      <c r="D640" s="31"/>
+      <c r="E640" s="31"/>
     </row>
     <row r="641" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A641" s="32"/>
-      <c r="B641" s="34"/>
-      <c r="C641" s="34"/>
-      <c r="D641" s="33"/>
-      <c r="E641" s="33"/>
+      <c r="A641" s="30"/>
+      <c r="B641" s="32"/>
+      <c r="C641" s="32"/>
+      <c r="D641" s="31"/>
+      <c r="E641" s="31"/>
     </row>
     <row r="642" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A642" s="32"/>
-      <c r="B642" s="34"/>
-      <c r="C642" s="34"/>
-      <c r="D642" s="33"/>
-      <c r="E642" s="33"/>
+      <c r="A642" s="30"/>
+      <c r="B642" s="32"/>
+      <c r="C642" s="32"/>
+      <c r="D642" s="31"/>
+      <c r="E642" s="31"/>
     </row>
     <row r="643" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A643" s="32"/>
-      <c r="B643" s="34"/>
-      <c r="C643" s="34"/>
-      <c r="D643" s="33"/>
-      <c r="E643" s="33"/>
+      <c r="A643" s="30"/>
+      <c r="B643" s="32"/>
+      <c r="C643" s="32"/>
+      <c r="D643" s="31"/>
+      <c r="E643" s="31"/>
     </row>
     <row r="644" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A644" s="32"/>
-      <c r="B644" s="34"/>
-      <c r="C644" s="34"/>
-      <c r="D644" s="33"/>
-      <c r="E644" s="33"/>
+      <c r="A644" s="30"/>
+      <c r="B644" s="32"/>
+      <c r="C644" s="32"/>
+      <c r="D644" s="31"/>
+      <c r="E644" s="31"/>
     </row>
     <row r="645" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A645" s="32"/>
-      <c r="B645" s="34"/>
-      <c r="C645" s="34"/>
-      <c r="D645" s="33"/>
-      <c r="E645" s="33"/>
+      <c r="A645" s="30"/>
+      <c r="B645" s="32"/>
+      <c r="C645" s="32"/>
+      <c r="D645" s="31"/>
+      <c r="E645" s="31"/>
     </row>
     <row r="646" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A646" s="32"/>
-      <c r="B646" s="34"/>
-      <c r="C646" s="34"/>
-      <c r="D646" s="33"/>
-      <c r="E646" s="33"/>
+      <c r="A646" s="30"/>
+      <c r="B646" s="32"/>
+      <c r="C646" s="32"/>
+      <c r="D646" s="31"/>
+      <c r="E646" s="31"/>
     </row>
     <row r="647" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A647" s="32"/>
-      <c r="B647" s="34"/>
-      <c r="C647" s="34"/>
-      <c r="D647" s="33"/>
-      <c r="E647" s="33"/>
+      <c r="A647" s="30"/>
+      <c r="B647" s="32"/>
+      <c r="C647" s="32"/>
+      <c r="D647" s="31"/>
+      <c r="E647" s="31"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A648" s="32"/>
-      <c r="B648" s="34"/>
-      <c r="C648" s="34"/>
-      <c r="D648" s="33"/>
-      <c r="E648" s="33"/>
+      <c r="A648" s="30"/>
+      <c r="B648" s="32"/>
+      <c r="C648" s="32"/>
+      <c r="D648" s="31"/>
+      <c r="E648" s="31"/>
     </row>
     <row r="649" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A649" s="32"/>
-      <c r="B649" s="34"/>
-      <c r="C649" s="34"/>
-      <c r="D649" s="33"/>
-      <c r="E649" s="33"/>
+      <c r="A649" s="30"/>
+      <c r="B649" s="32"/>
+      <c r="C649" s="32"/>
+      <c r="D649" s="31"/>
+      <c r="E649" s="31"/>
     </row>
     <row r="650" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A650" s="32"/>
-      <c r="B650" s="34"/>
-      <c r="C650" s="34"/>
-      <c r="D650" s="33"/>
-      <c r="E650" s="33"/>
+      <c r="A650" s="30"/>
+      <c r="B650" s="32"/>
+      <c r="C650" s="32"/>
+      <c r="D650" s="31"/>
+      <c r="E650" s="31"/>
     </row>
     <row r="651" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A651" s="32"/>
-      <c r="B651" s="34"/>
-      <c r="C651" s="34"/>
-      <c r="D651" s="33"/>
-      <c r="E651" s="33"/>
+      <c r="A651" s="30"/>
+      <c r="B651" s="32"/>
+      <c r="C651" s="32"/>
+      <c r="D651" s="31"/>
+      <c r="E651" s="31"/>
     </row>
     <row r="652" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A652" s="32"/>
-      <c r="B652" s="34"/>
-      <c r="C652" s="34"/>
-      <c r="D652" s="33"/>
-      <c r="E652" s="33"/>
+      <c r="A652" s="30"/>
+      <c r="B652" s="32"/>
+      <c r="C652" s="32"/>
+      <c r="D652" s="31"/>
+      <c r="E652" s="31"/>
     </row>
     <row r="653" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A653" s="32"/>
-      <c r="B653" s="34"/>
-      <c r="C653" s="34"/>
-      <c r="D653" s="33"/>
-      <c r="E653" s="33"/>
+      <c r="A653" s="30"/>
+      <c r="B653" s="32"/>
+      <c r="C653" s="32"/>
+      <c r="D653" s="31"/>
+      <c r="E653" s="31"/>
     </row>
     <row r="654" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A654" s="32"/>
-      <c r="B654" s="34"/>
-      <c r="C654" s="34"/>
-      <c r="D654" s="33"/>
-      <c r="E654" s="33"/>
+      <c r="A654" s="30"/>
+      <c r="B654" s="32"/>
+      <c r="C654" s="32"/>
+      <c r="D654" s="31"/>
+      <c r="E654" s="31"/>
     </row>
     <row r="655" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A655" s="32"/>
-      <c r="B655" s="34"/>
-      <c r="C655" s="34"/>
-      <c r="D655" s="33"/>
-      <c r="E655" s="33"/>
+      <c r="A655" s="30"/>
+      <c r="B655" s="32"/>
+      <c r="C655" s="32"/>
+      <c r="D655" s="31"/>
+      <c r="E655" s="31"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A656" s="32"/>
-      <c r="B656" s="34"/>
-      <c r="C656" s="34"/>
-      <c r="D656" s="33"/>
-      <c r="E656" s="33"/>
+      <c r="A656" s="30"/>
+      <c r="B656" s="32"/>
+      <c r="C656" s="32"/>
+      <c r="D656" s="31"/>
+      <c r="E656" s="31"/>
     </row>
     <row r="657" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A657" s="32"/>
-      <c r="B657" s="34"/>
-      <c r="C657" s="34"/>
-      <c r="D657" s="33"/>
-      <c r="E657" s="33"/>
+      <c r="A657" s="30"/>
+      <c r="B657" s="32"/>
+      <c r="C657" s="32"/>
+      <c r="D657" s="31"/>
+      <c r="E657" s="31"/>
     </row>
     <row r="658" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A658" s="32"/>
-      <c r="B658" s="34"/>
-      <c r="C658" s="34"/>
-      <c r="D658" s="33"/>
-      <c r="E658" s="33"/>
+      <c r="A658" s="30"/>
+      <c r="B658" s="32"/>
+      <c r="C658" s="32"/>
+      <c r="D658" s="31"/>
+      <c r="E658" s="31"/>
     </row>
     <row r="659" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A659" s="32"/>
-      <c r="B659" s="34"/>
-      <c r="C659" s="34"/>
-      <c r="D659" s="33"/>
-      <c r="E659" s="33"/>
+      <c r="A659" s="30"/>
+      <c r="B659" s="32"/>
+      <c r="C659" s="32"/>
+      <c r="D659" s="31"/>
+      <c r="E659" s="31"/>
     </row>
     <row r="660" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A660" s="32"/>
-      <c r="B660" s="34"/>
-      <c r="C660" s="34"/>
-      <c r="D660" s="33"/>
-      <c r="E660" s="33"/>
+      <c r="A660" s="30"/>
+      <c r="B660" s="32"/>
+      <c r="C660" s="32"/>
+      <c r="D660" s="31"/>
+      <c r="E660" s="31"/>
     </row>
     <row r="661" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A661" s="32"/>
-      <c r="B661" s="34"/>
-      <c r="C661" s="34"/>
-      <c r="D661" s="33"/>
-      <c r="E661" s="33"/>
+      <c r="A661" s="30"/>
+      <c r="B661" s="32"/>
+      <c r="C661" s="32"/>
+      <c r="D661" s="31"/>
+      <c r="E661" s="31"/>
     </row>
     <row r="662" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A662" s="32"/>
-      <c r="B662" s="34"/>
-      <c r="C662" s="34"/>
-      <c r="D662" s="33"/>
-      <c r="E662" s="33"/>
+      <c r="A662" s="30"/>
+      <c r="B662" s="32"/>
+      <c r="C662" s="32"/>
+      <c r="D662" s="31"/>
+      <c r="E662" s="31"/>
     </row>
     <row r="663" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A663" s="32"/>
-      <c r="B663" s="34"/>
-      <c r="C663" s="34"/>
-      <c r="D663" s="33"/>
-      <c r="E663" s="33"/>
+      <c r="A663" s="30"/>
+      <c r="B663" s="32"/>
+      <c r="C663" s="32"/>
+      <c r="D663" s="31"/>
+      <c r="E663" s="31"/>
     </row>
     <row r="664" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A664" s="32"/>
-      <c r="B664" s="34"/>
-      <c r="C664" s="34"/>
-      <c r="D664" s="33"/>
-      <c r="E664" s="33"/>
+      <c r="A664" s="30"/>
+      <c r="B664" s="32"/>
+      <c r="C664" s="32"/>
+      <c r="D664" s="31"/>
+      <c r="E664" s="31"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A665" s="32"/>
-      <c r="B665" s="34"/>
-      <c r="C665" s="34"/>
-      <c r="D665" s="33"/>
-      <c r="E665" s="33"/>
+      <c r="A665" s="30"/>
+      <c r="B665" s="32"/>
+      <c r="C665" s="32"/>
+      <c r="D665" s="31"/>
+      <c r="E665" s="31"/>
     </row>
     <row r="666" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A666" s="32"/>
-      <c r="B666" s="34"/>
-      <c r="C666" s="34"/>
-      <c r="D666" s="33"/>
-      <c r="E666" s="33"/>
+      <c r="A666" s="30"/>
+      <c r="B666" s="32"/>
+      <c r="C666" s="32"/>
+      <c r="D666" s="31"/>
+      <c r="E666" s="31"/>
     </row>
     <row r="667" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A667" s="32"/>
-      <c r="B667" s="34"/>
-      <c r="C667" s="34"/>
-      <c r="D667" s="33"/>
-      <c r="E667" s="33"/>
+      <c r="A667" s="30"/>
+      <c r="B667" s="32"/>
+      <c r="C667" s="32"/>
+      <c r="D667" s="31"/>
+      <c r="E667" s="31"/>
     </row>
     <row r="668" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A668" s="32"/>
-      <c r="B668" s="34"/>
-      <c r="C668" s="34"/>
-      <c r="D668" s="33"/>
-      <c r="E668" s="33"/>
+      <c r="A668" s="30"/>
+      <c r="B668" s="32"/>
+      <c r="C668" s="32"/>
+      <c r="D668" s="31"/>
+      <c r="E668" s="31"/>
     </row>
     <row r="669" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A669" s="32"/>
-      <c r="B669" s="34"/>
-      <c r="C669" s="34"/>
-      <c r="D669" s="33"/>
-      <c r="E669" s="33"/>
+      <c r="A669" s="30"/>
+      <c r="B669" s="32"/>
+      <c r="C669" s="32"/>
+      <c r="D669" s="31"/>
+      <c r="E669" s="31"/>
     </row>
     <row r="670" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A670" s="32"/>
-      <c r="B670" s="34"/>
-      <c r="C670" s="34"/>
-      <c r="D670" s="33"/>
-      <c r="E670" s="33"/>
+      <c r="A670" s="30"/>
+      <c r="B670" s="32"/>
+      <c r="C670" s="32"/>
+      <c r="D670" s="31"/>
+      <c r="E670" s="31"/>
     </row>
     <row r="671" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A671" s="32"/>
-      <c r="B671" s="34"/>
-      <c r="C671" s="34"/>
-      <c r="D671" s="33"/>
-      <c r="E671" s="33"/>
+      <c r="A671" s="30"/>
+      <c r="B671" s="32"/>
+      <c r="C671" s="32"/>
+      <c r="D671" s="31"/>
+      <c r="E671" s="31"/>
     </row>
     <row r="672" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A672" s="32"/>
-      <c r="B672" s="34"/>
-      <c r="C672" s="34"/>
-      <c r="D672" s="33"/>
-      <c r="E672" s="33"/>
+      <c r="A672" s="30"/>
+      <c r="B672" s="32"/>
+      <c r="C672" s="32"/>
+      <c r="D672" s="31"/>
+      <c r="E672" s="31"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A673" s="32"/>
-      <c r="B673" s="34"/>
-      <c r="C673" s="34"/>
-      <c r="D673" s="33"/>
-      <c r="E673" s="33"/>
+      <c r="A673" s="30"/>
+      <c r="B673" s="32"/>
+      <c r="C673" s="32"/>
+      <c r="D673" s="31"/>
+      <c r="E673" s="31"/>
     </row>
     <row r="674" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A674" s="32"/>
-      <c r="B674" s="34"/>
-      <c r="C674" s="34"/>
-      <c r="D674" s="33"/>
-      <c r="E674" s="33"/>
+      <c r="A674" s="30"/>
+      <c r="B674" s="32"/>
+      <c r="C674" s="32"/>
+      <c r="D674" s="31"/>
+      <c r="E674" s="31"/>
     </row>
     <row r="675" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A675" s="32"/>
-      <c r="B675" s="34"/>
-      <c r="C675" s="34"/>
-      <c r="D675" s="33"/>
-      <c r="E675" s="33"/>
+      <c r="A675" s="30"/>
+      <c r="B675" s="32"/>
+      <c r="C675" s="32"/>
+      <c r="D675" s="31"/>
+      <c r="E675" s="31"/>
     </row>
     <row r="676" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A676" s="32"/>
-      <c r="B676" s="34"/>
-      <c r="C676" s="34"/>
-      <c r="D676" s="33"/>
-      <c r="E676" s="33"/>
+      <c r="A676" s="30"/>
+      <c r="B676" s="32"/>
+      <c r="C676" s="32"/>
+      <c r="D676" s="31"/>
+      <c r="E676" s="31"/>
     </row>
     <row r="677" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A677" s="32"/>
-      <c r="B677" s="34"/>
-      <c r="C677" s="34"/>
-      <c r="D677" s="33"/>
-      <c r="E677" s="33"/>
+      <c r="A677" s="30"/>
+      <c r="B677" s="32"/>
+      <c r="C677" s="32"/>
+      <c r="D677" s="31"/>
+      <c r="E677" s="31"/>
     </row>
     <row r="678" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A678" s="32"/>
-      <c r="B678" s="34"/>
-      <c r="C678" s="34"/>
-      <c r="D678" s="33"/>
-      <c r="E678" s="33"/>
+      <c r="A678" s="30"/>
+      <c r="B678" s="32"/>
+      <c r="C678" s="32"/>
+      <c r="D678" s="31"/>
+      <c r="E678" s="31"/>
     </row>
     <row r="679" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A679" s="32"/>
-      <c r="B679" s="34"/>
-      <c r="C679" s="34"/>
-      <c r="D679" s="33"/>
-      <c r="E679" s="33"/>
+      <c r="A679" s="30"/>
+      <c r="B679" s="32"/>
+      <c r="C679" s="32"/>
+      <c r="D679" s="31"/>
+      <c r="E679" s="31"/>
     </row>
     <row r="680" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A680" s="32"/>
-      <c r="B680" s="34"/>
-      <c r="C680" s="34"/>
-      <c r="D680" s="33"/>
-      <c r="E680" s="33"/>
+      <c r="A680" s="30"/>
+      <c r="B680" s="32"/>
+      <c r="C680" s="32"/>
+      <c r="D680" s="31"/>
+      <c r="E680" s="31"/>
     </row>
     <row r="681" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A681" s="32"/>
-      <c r="B681" s="34"/>
-      <c r="C681" s="34"/>
-      <c r="D681" s="33"/>
-      <c r="E681" s="33"/>
+      <c r="A681" s="30"/>
+      <c r="B681" s="32"/>
+      <c r="C681" s="32"/>
+      <c r="D681" s="31"/>
+      <c r="E681" s="31"/>
     </row>
     <row r="682" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A682" s="32"/>
-      <c r="B682" s="34"/>
-      <c r="C682" s="34"/>
-      <c r="D682" s="33"/>
-      <c r="E682" s="33"/>
+      <c r="A682" s="30"/>
+      <c r="B682" s="32"/>
+      <c r="C682" s="32"/>
+      <c r="D682" s="31"/>
+      <c r="E682" s="31"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A683" s="32"/>
-      <c r="B683" s="34"/>
-      <c r="C683" s="34"/>
-      <c r="D683" s="33"/>
-      <c r="E683" s="33"/>
+      <c r="A683" s="30"/>
+      <c r="B683" s="32"/>
+      <c r="C683" s="32"/>
+      <c r="D683" s="31"/>
+      <c r="E683" s="31"/>
     </row>
     <row r="684" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A684" s="32"/>
-      <c r="B684" s="34"/>
-      <c r="C684" s="34"/>
-      <c r="D684" s="33"/>
-      <c r="E684" s="33"/>
+      <c r="A684" s="30"/>
+      <c r="B684" s="32"/>
+      <c r="C684" s="32"/>
+      <c r="D684" s="31"/>
+      <c r="E684" s="31"/>
     </row>
     <row r="685" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A685" s="32"/>
-      <c r="B685" s="34"/>
-      <c r="C685" s="34"/>
-      <c r="D685" s="33"/>
-      <c r="E685" s="33"/>
+      <c r="A685" s="30"/>
+      <c r="B685" s="32"/>
+      <c r="C685" s="32"/>
+      <c r="D685" s="31"/>
+      <c r="E685" s="31"/>
     </row>
     <row r="686" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A686" s="32"/>
-      <c r="B686" s="34"/>
-      <c r="C686" s="34"/>
-      <c r="D686" s="33"/>
-      <c r="E686" s="33"/>
+      <c r="A686" s="30"/>
+      <c r="B686" s="32"/>
+      <c r="C686" s="32"/>
+      <c r="D686" s="31"/>
+      <c r="E686" s="31"/>
     </row>
     <row r="687" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A687" s="32"/>
-      <c r="B687" s="34"/>
-      <c r="C687" s="34"/>
-      <c r="D687" s="33"/>
-      <c r="E687" s="33"/>
+      <c r="A687" s="30"/>
+      <c r="B687" s="32"/>
+      <c r="C687" s="32"/>
+      <c r="D687" s="31"/>
+      <c r="E687" s="31"/>
     </row>
     <row r="688" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A688" s="32"/>
-      <c r="B688" s="34"/>
-      <c r="C688" s="34"/>
-      <c r="D688" s="33"/>
-      <c r="E688" s="33"/>
+      <c r="A688" s="30"/>
+      <c r="B688" s="32"/>
+      <c r="C688" s="32"/>
+      <c r="D688" s="31"/>
+      <c r="E688" s="31"/>
     </row>
     <row r="689" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A689" s="32"/>
-      <c r="B689" s="34"/>
-      <c r="C689" s="34"/>
-      <c r="D689" s="33"/>
-      <c r="E689" s="33"/>
+      <c r="A689" s="30"/>
+      <c r="B689" s="32"/>
+      <c r="C689" s="32"/>
+      <c r="D689" s="31"/>
+      <c r="E689" s="31"/>
     </row>
     <row r="690" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A690" s="32"/>
-      <c r="B690" s="34"/>
-      <c r="C690" s="34"/>
-      <c r="D690" s="33"/>
-      <c r="E690" s="33"/>
+      <c r="A690" s="30"/>
+      <c r="B690" s="32"/>
+      <c r="C690" s="32"/>
+      <c r="D690" s="31"/>
+      <c r="E690" s="31"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A691" s="32"/>
-      <c r="B691" s="34"/>
-      <c r="C691" s="34"/>
-      <c r="D691" s="33"/>
-      <c r="E691" s="33"/>
+      <c r="A691" s="30"/>
+      <c r="B691" s="32"/>
+      <c r="C691" s="32"/>
+      <c r="D691" s="31"/>
+      <c r="E691" s="31"/>
     </row>
     <row r="692" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A692" s="32"/>
-      <c r="B692" s="34"/>
-      <c r="C692" s="34"/>
-      <c r="D692" s="33"/>
-      <c r="E692" s="33"/>
+      <c r="A692" s="30"/>
+      <c r="B692" s="32"/>
+      <c r="C692" s="32"/>
+      <c r="D692" s="31"/>
+      <c r="E692" s="31"/>
     </row>
     <row r="693" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A693" s="32"/>
-      <c r="B693" s="34"/>
-      <c r="C693" s="34"/>
-      <c r="D693" s="33"/>
-      <c r="E693" s="33"/>
+      <c r="A693" s="30"/>
+      <c r="B693" s="32"/>
+      <c r="C693" s="32"/>
+      <c r="D693" s="31"/>
+      <c r="E693" s="31"/>
     </row>
     <row r="694" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A694" s="32"/>
-      <c r="B694" s="34"/>
-      <c r="C694" s="34"/>
-      <c r="D694" s="33"/>
-      <c r="E694" s="33"/>
+      <c r="A694" s="30"/>
+      <c r="B694" s="32"/>
+      <c r="C694" s="32"/>
+      <c r="D694" s="31"/>
+      <c r="E694" s="31"/>
     </row>
     <row r="695" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A695" s="32"/>
-      <c r="B695" s="34"/>
-      <c r="C695" s="34"/>
-      <c r="D695" s="33"/>
-      <c r="E695" s="33"/>
+      <c r="A695" s="30"/>
+      <c r="B695" s="32"/>
+      <c r="C695" s="32"/>
+      <c r="D695" s="31"/>
+      <c r="E695" s="31"/>
     </row>
     <row r="696" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A696" s="32"/>
-      <c r="B696" s="34"/>
-      <c r="C696" s="34"/>
-      <c r="D696" s="33"/>
-      <c r="E696" s="33"/>
+      <c r="A696" s="30"/>
+      <c r="B696" s="32"/>
+      <c r="C696" s="32"/>
+      <c r="D696" s="31"/>
+      <c r="E696" s="31"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A697" s="32"/>
-      <c r="B697" s="34"/>
-      <c r="C697" s="34"/>
-      <c r="D697" s="33"/>
-      <c r="E697" s="33"/>
+      <c r="A697" s="30"/>
+      <c r="B697" s="32"/>
+      <c r="C697" s="32"/>
+      <c r="D697" s="31"/>
+      <c r="E697" s="31"/>
     </row>
     <row r="698" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A698" s="32"/>
-      <c r="B698" s="34"/>
-      <c r="C698" s="34"/>
-      <c r="D698" s="33"/>
-      <c r="E698" s="33"/>
+      <c r="A698" s="30"/>
+      <c r="B698" s="32"/>
+      <c r="C698" s="32"/>
+      <c r="D698" s="31"/>
+      <c r="E698" s="31"/>
     </row>
     <row r="699" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A699" s="32"/>
-      <c r="B699" s="34"/>
-      <c r="C699" s="34"/>
-      <c r="D699" s="33"/>
-      <c r="E699" s="33"/>
+      <c r="A699" s="30"/>
+      <c r="B699" s="32"/>
+      <c r="C699" s="32"/>
+      <c r="D699" s="31"/>
+      <c r="E699" s="31"/>
     </row>
     <row r="700" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A700" s="32"/>
-      <c r="B700" s="34"/>
-      <c r="C700" s="34"/>
-      <c r="D700" s="33"/>
-      <c r="E700" s="33"/>
+      <c r="A700" s="30"/>
+      <c r="B700" s="32"/>
+      <c r="C700" s="32"/>
+      <c r="D700" s="31"/>
+      <c r="E700" s="31"/>
     </row>
     <row r="701" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A701" s="32"/>
-      <c r="B701" s="34"/>
-      <c r="C701" s="34"/>
-      <c r="D701" s="33"/>
-      <c r="E701" s="33"/>
+      <c r="A701" s="30"/>
+      <c r="B701" s="32"/>
+      <c r="C701" s="32"/>
+      <c r="D701" s="31"/>
+      <c r="E701" s="31"/>
     </row>
     <row r="702" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A702" s="32"/>
-      <c r="B702" s="34"/>
-      <c r="C702" s="34"/>
-      <c r="D702" s="33"/>
-      <c r="E702" s="33"/>
+      <c r="A702" s="30"/>
+      <c r="B702" s="32"/>
+      <c r="C702" s="32"/>
+      <c r="D702" s="31"/>
+      <c r="E702" s="31"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A703" s="32"/>
-      <c r="B703" s="34"/>
-      <c r="C703" s="34"/>
-      <c r="D703" s="33"/>
-      <c r="E703" s="33"/>
+      <c r="A703" s="30"/>
+      <c r="B703" s="32"/>
+      <c r="C703" s="32"/>
+      <c r="D703" s="31"/>
+      <c r="E703" s="31"/>
     </row>
     <row r="704" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A704" s="32"/>
-      <c r="B704" s="34"/>
-      <c r="C704" s="34"/>
-      <c r="D704" s="33"/>
-      <c r="E704" s="33"/>
+      <c r="A704" s="30"/>
+      <c r="B704" s="32"/>
+      <c r="C704" s="32"/>
+      <c r="D704" s="31"/>
+      <c r="E704" s="31"/>
     </row>
     <row r="705" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A705" s="32"/>
-      <c r="B705" s="34"/>
-      <c r="C705" s="34"/>
-      <c r="D705" s="33"/>
-      <c r="E705" s="33"/>
+      <c r="A705" s="30"/>
+      <c r="B705" s="32"/>
+      <c r="C705" s="32"/>
+      <c r="D705" s="31"/>
+      <c r="E705" s="31"/>
     </row>
     <row r="706" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A706" s="32"/>
-      <c r="B706" s="34"/>
-      <c r="C706" s="34"/>
-      <c r="D706" s="33"/>
-      <c r="E706" s="33"/>
+      <c r="A706" s="30"/>
+      <c r="B706" s="32"/>
+      <c r="C706" s="32"/>
+      <c r="D706" s="31"/>
+      <c r="E706" s="31"/>
     </row>
     <row r="707" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A707" s="32"/>
-      <c r="B707" s="34"/>
-      <c r="C707" s="34"/>
-      <c r="D707" s="33"/>
-      <c r="E707" s="33"/>
+      <c r="A707" s="30"/>
+      <c r="B707" s="32"/>
+      <c r="C707" s="32"/>
+      <c r="D707" s="31"/>
+      <c r="E707" s="31"/>
     </row>
     <row r="708" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A708" s="32"/>
-      <c r="B708" s="34"/>
-      <c r="C708" s="34"/>
-      <c r="D708" s="33"/>
-      <c r="E708" s="33"/>
+      <c r="A708" s="30"/>
+      <c r="B708" s="32"/>
+      <c r="C708" s="32"/>
+      <c r="D708" s="31"/>
+      <c r="E708" s="31"/>
     </row>
     <row r="709" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A709" s="32"/>
-      <c r="B709" s="34"/>
-      <c r="C709" s="34"/>
-      <c r="D709" s="33"/>
-      <c r="E709" s="33"/>
+      <c r="A709" s="30"/>
+      <c r="B709" s="32"/>
+      <c r="C709" s="32"/>
+      <c r="D709" s="31"/>
+      <c r="E709" s="31"/>
     </row>
     <row r="710" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A710" s="32"/>
-      <c r="B710" s="34"/>
-      <c r="C710" s="34"/>
-      <c r="D710" s="33"/>
-      <c r="E710" s="33"/>
+      <c r="A710" s="30"/>
+      <c r="B710" s="32"/>
+      <c r="C710" s="32"/>
+      <c r="D710" s="31"/>
+      <c r="E710" s="31"/>
     </row>
     <row r="711" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A711" s="32"/>
-      <c r="B711" s="34"/>
-      <c r="C711" s="34"/>
-      <c r="D711" s="33"/>
-      <c r="E711" s="33"/>
+      <c r="A711" s="30"/>
+      <c r="B711" s="32"/>
+      <c r="C711" s="32"/>
+      <c r="D711" s="31"/>
+      <c r="E711" s="31"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A712" s="32"/>
-      <c r="B712" s="34"/>
-      <c r="C712" s="34"/>
-      <c r="D712" s="33"/>
-      <c r="E712" s="33"/>
+      <c r="A712" s="30"/>
+      <c r="B712" s="32"/>
+      <c r="C712" s="32"/>
+      <c r="D712" s="31"/>
+      <c r="E712" s="31"/>
     </row>
     <row r="713" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A713" s="32"/>
-      <c r="B713" s="34"/>
-      <c r="C713" s="34"/>
-      <c r="D713" s="33"/>
-      <c r="E713" s="33"/>
+      <c r="A713" s="30"/>
+      <c r="B713" s="32"/>
+      <c r="C713" s="32"/>
+      <c r="D713" s="31"/>
+      <c r="E713" s="31"/>
     </row>
     <row r="714" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A714" s="32"/>
-      <c r="B714" s="34"/>
-      <c r="C714" s="34"/>
-      <c r="D714" s="33"/>
-      <c r="E714" s="33"/>
+      <c r="A714" s="30"/>
+      <c r="B714" s="32"/>
+      <c r="C714" s="32"/>
+      <c r="D714" s="31"/>
+      <c r="E714" s="31"/>
     </row>
     <row r="715" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A715" s="32"/>
-      <c r="B715" s="34"/>
-      <c r="C715" s="34"/>
-      <c r="D715" s="33"/>
-      <c r="E715" s="33"/>
+      <c r="A715" s="30"/>
+      <c r="B715" s="32"/>
+      <c r="C715" s="32"/>
+      <c r="D715" s="31"/>
+      <c r="E715" s="31"/>
     </row>
     <row r="716" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A716" s="32"/>
-      <c r="B716" s="34"/>
-      <c r="C716" s="34"/>
-      <c r="D716" s="33"/>
-      <c r="E716" s="33"/>
+      <c r="A716" s="30"/>
+      <c r="B716" s="32"/>
+      <c r="C716" s="32"/>
+      <c r="D716" s="31"/>
+      <c r="E716" s="31"/>
     </row>
     <row r="717" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A717" s="32"/>
-      <c r="B717" s="34"/>
-      <c r="C717" s="34"/>
-      <c r="D717" s="33"/>
-      <c r="E717" s="33"/>
+      <c r="A717" s="30"/>
+      <c r="B717" s="32"/>
+      <c r="C717" s="32"/>
+      <c r="D717" s="31"/>
+      <c r="E717" s="31"/>
     </row>
     <row r="718" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A718" s="32"/>
-      <c r="B718" s="34"/>
-      <c r="C718" s="34"/>
-      <c r="D718" s="33"/>
-      <c r="E718" s="33"/>
+      <c r="A718" s="30"/>
+      <c r="B718" s="32"/>
+      <c r="C718" s="32"/>
+      <c r="D718" s="31"/>
+      <c r="E718" s="31"/>
     </row>
     <row r="719" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A719" s="32"/>
-      <c r="B719" s="34"/>
-      <c r="C719" s="34"/>
-      <c r="D719" s="33"/>
-      <c r="E719" s="33"/>
+      <c r="A719" s="30"/>
+      <c r="B719" s="32"/>
+      <c r="C719" s="32"/>
+      <c r="D719" s="31"/>
+      <c r="E719" s="31"/>
     </row>
     <row r="720" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A720" s="32"/>
-      <c r="B720" s="34"/>
-      <c r="C720" s="34"/>
-      <c r="D720" s="33"/>
-      <c r="E720" s="33"/>
+      <c r="A720" s="30"/>
+      <c r="B720" s="32"/>
+      <c r="C720" s="32"/>
+      <c r="D720" s="31"/>
+      <c r="E720" s="31"/>
     </row>
     <row r="721" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A721" s="32"/>
-      <c r="B721" s="34"/>
-      <c r="C721" s="34"/>
-      <c r="D721" s="33"/>
-      <c r="E721" s="33"/>
+      <c r="A721" s="30"/>
+      <c r="B721" s="32"/>
+      <c r="C721" s="32"/>
+      <c r="D721" s="31"/>
+      <c r="E721" s="31"/>
     </row>
     <row r="722" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A722" s="32"/>
-      <c r="B722" s="34"/>
-      <c r="C722" s="34"/>
-      <c r="D722" s="33"/>
-      <c r="E722" s="33"/>
+      <c r="A722" s="30"/>
+      <c r="B722" s="32"/>
+      <c r="C722" s="32"/>
+      <c r="D722" s="31"/>
+      <c r="E722" s="31"/>
     </row>
     <row r="723" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A723" s="32"/>
-      <c r="B723" s="34"/>
-      <c r="C723" s="34"/>
-      <c r="D723" s="33"/>
-      <c r="E723" s="33"/>
+      <c r="A723" s="30"/>
+      <c r="B723" s="32"/>
+      <c r="C723" s="32"/>
+      <c r="D723" s="31"/>
+      <c r="E723" s="31"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A724" s="32"/>
-      <c r="B724" s="34"/>
-      <c r="C724" s="34"/>
-      <c r="D724" s="33"/>
-      <c r="E724" s="33"/>
+      <c r="A724" s="30"/>
+      <c r="B724" s="32"/>
+      <c r="C724" s="32"/>
+      <c r="D724" s="31"/>
+      <c r="E724" s="31"/>
     </row>
     <row r="725" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A725" s="32"/>
-      <c r="B725" s="34"/>
-      <c r="C725" s="34"/>
-      <c r="D725" s="33"/>
-      <c r="E725" s="33"/>
+      <c r="A725" s="30"/>
+      <c r="B725" s="32"/>
+      <c r="C725" s="32"/>
+      <c r="D725" s="31"/>
+      <c r="E725" s="31"/>
     </row>
     <row r="726" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A726" s="32"/>
-      <c r="B726" s="34"/>
-      <c r="C726" s="34"/>
-      <c r="D726" s="33"/>
-      <c r="E726" s="33"/>
+      <c r="A726" s="30"/>
+      <c r="B726" s="32"/>
+      <c r="C726" s="32"/>
+      <c r="D726" s="31"/>
+      <c r="E726" s="31"/>
     </row>
     <row r="727" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A727" s="32"/>
-      <c r="B727" s="34"/>
-      <c r="C727" s="34"/>
-      <c r="D727" s="33"/>
-      <c r="E727" s="33"/>
+      <c r="A727" s="30"/>
+      <c r="B727" s="32"/>
+      <c r="C727" s="32"/>
+      <c r="D727" s="31"/>
+      <c r="E727" s="31"/>
     </row>
     <row r="728" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A728" s="32"/>
-      <c r="B728" s="34"/>
-      <c r="C728" s="34"/>
-      <c r="D728" s="33"/>
-      <c r="E728" s="33"/>
+      <c r="A728" s="30"/>
+      <c r="B728" s="32"/>
+      <c r="C728" s="32"/>
+      <c r="D728" s="31"/>
+      <c r="E728" s="31"/>
     </row>
     <row r="729" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A729" s="32"/>
-      <c r="B729" s="34"/>
-      <c r="C729" s="34"/>
-      <c r="D729" s="33"/>
-      <c r="E729" s="33"/>
+      <c r="A729" s="30"/>
+      <c r="B729" s="32"/>
+      <c r="C729" s="32"/>
+      <c r="D729" s="31"/>
+      <c r="E729" s="31"/>
     </row>
     <row r="730" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A730" s="32"/>
-      <c r="B730" s="34"/>
-      <c r="C730" s="34"/>
-      <c r="D730" s="33"/>
-      <c r="E730" s="33"/>
+      <c r="A730" s="30"/>
+      <c r="B730" s="32"/>
+      <c r="C730" s="32"/>
+      <c r="D730" s="31"/>
+      <c r="E730" s="31"/>
     </row>
     <row r="731" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A731" s="32"/>
-      <c r="B731" s="34"/>
-      <c r="C731" s="34"/>
-      <c r="D731" s="33"/>
-      <c r="E731" s="33"/>
+      <c r="A731" s="30"/>
+      <c r="B731" s="32"/>
+      <c r="C731" s="32"/>
+      <c r="D731" s="31"/>
+      <c r="E731" s="31"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A732" s="32"/>
-      <c r="B732" s="34"/>
-      <c r="C732" s="34"/>
-      <c r="D732" s="33"/>
-      <c r="E732" s="33"/>
+      <c r="A732" s="30"/>
+      <c r="B732" s="32"/>
+      <c r="C732" s="32"/>
+      <c r="D732" s="31"/>
+      <c r="E732" s="31"/>
     </row>
     <row r="733" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A733" s="32"/>
-      <c r="B733" s="34"/>
-      <c r="C733" s="34"/>
-      <c r="D733" s="33"/>
-      <c r="E733" s="33"/>
+      <c r="A733" s="30"/>
+      <c r="B733" s="32"/>
+      <c r="C733" s="32"/>
+      <c r="D733" s="31"/>
+      <c r="E733" s="31"/>
     </row>
     <row r="734" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A734" s="32"/>
-      <c r="B734" s="34"/>
-      <c r="C734" s="34"/>
-      <c r="D734" s="33"/>
-      <c r="E734" s="33"/>
+      <c r="A734" s="30"/>
+      <c r="B734" s="32"/>
+      <c r="C734" s="32"/>
+      <c r="D734" s="31"/>
+      <c r="E734" s="31"/>
     </row>
     <row r="735" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A735" s="32"/>
-      <c r="B735" s="34"/>
-      <c r="C735" s="34"/>
-      <c r="D735" s="33"/>
-      <c r="E735" s="33"/>
+      <c r="A735" s="30"/>
+      <c r="B735" s="32"/>
+      <c r="C735" s="32"/>
+      <c r="D735" s="31"/>
+      <c r="E735" s="31"/>
     </row>
     <row r="736" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A736" s="32"/>
-      <c r="B736" s="34"/>
-      <c r="C736" s="34"/>
-      <c r="D736" s="33"/>
-      <c r="E736" s="33"/>
+      <c r="A736" s="30"/>
+      <c r="B736" s="32"/>
+      <c r="C736" s="32"/>
+      <c r="D736" s="31"/>
+      <c r="E736" s="31"/>
     </row>
     <row r="737" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A737" s="32"/>
-      <c r="B737" s="34"/>
-      <c r="C737" s="34"/>
-      <c r="D737" s="33"/>
-      <c r="E737" s="33"/>
+      <c r="A737" s="30"/>
+      <c r="B737" s="32"/>
+      <c r="C737" s="32"/>
+      <c r="D737" s="31"/>
+      <c r="E737" s="31"/>
     </row>
     <row r="738" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A738" s="32"/>
-      <c r="B738" s="34"/>
-      <c r="C738" s="34"/>
-      <c r="D738" s="33"/>
-      <c r="E738" s="33"/>
+      <c r="A738" s="30"/>
+      <c r="B738" s="32"/>
+      <c r="C738" s="32"/>
+      <c r="D738" s="31"/>
+      <c r="E738" s="31"/>
     </row>
     <row r="739" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A739" s="32"/>
-      <c r="B739" s="34"/>
-      <c r="C739" s="34"/>
-      <c r="D739" s="33"/>
-      <c r="E739" s="33"/>
+      <c r="A739" s="30"/>
+      <c r="B739" s="32"/>
+      <c r="C739" s="32"/>
+      <c r="D739" s="31"/>
+      <c r="E739" s="31"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A740" s="32"/>
-      <c r="B740" s="34"/>
-      <c r="C740" s="34"/>
-      <c r="D740" s="33"/>
-      <c r="E740" s="33"/>
+      <c r="A740" s="30"/>
+      <c r="B740" s="32"/>
+      <c r="C740" s="32"/>
+      <c r="D740" s="31"/>
+      <c r="E740" s="31"/>
     </row>
     <row r="741" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A741" s="32"/>
-      <c r="B741" s="34"/>
-      <c r="C741" s="34"/>
-      <c r="D741" s="33"/>
-      <c r="E741" s="33"/>
+      <c r="A741" s="30"/>
+      <c r="B741" s="32"/>
+      <c r="C741" s="32"/>
+      <c r="D741" s="31"/>
+      <c r="E741" s="31"/>
     </row>
     <row r="742" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A742" s="32"/>
-      <c r="B742" s="34"/>
-      <c r="C742" s="34"/>
-      <c r="D742" s="33"/>
-      <c r="E742" s="33"/>
+      <c r="A742" s="30"/>
+      <c r="B742" s="32"/>
+      <c r="C742" s="32"/>
+      <c r="D742" s="31"/>
+      <c r="E742" s="31"/>
     </row>
     <row r="743" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A743" s="32"/>
-      <c r="B743" s="34"/>
-      <c r="C743" s="34"/>
-      <c r="D743" s="33"/>
-      <c r="E743" s="33"/>
+      <c r="A743" s="30"/>
+      <c r="B743" s="32"/>
+      <c r="C743" s="32"/>
+      <c r="D743" s="31"/>
+      <c r="E743" s="31"/>
     </row>
     <row r="744" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A744" s="32"/>
-      <c r="B744" s="34"/>
-      <c r="C744" s="34"/>
-      <c r="D744" s="33"/>
-      <c r="E744" s="33"/>
+      <c r="A744" s="30"/>
+      <c r="B744" s="32"/>
+      <c r="C744" s="32"/>
+      <c r="D744" s="31"/>
+      <c r="E744" s="31"/>
     </row>
     <row r="745" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A745" s="32"/>
-      <c r="B745" s="34"/>
-      <c r="C745" s="34"/>
-      <c r="D745" s="33"/>
-      <c r="E745" s="33"/>
+      <c r="A745" s="30"/>
+      <c r="B745" s="32"/>
+      <c r="C745" s="32"/>
+      <c r="D745" s="31"/>
+      <c r="E745" s="31"/>
     </row>
     <row r="746" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A746" s="32"/>
-      <c r="B746" s="34"/>
-      <c r="C746" s="34"/>
-      <c r="D746" s="33"/>
-      <c r="E746" s="33"/>
+      <c r="A746" s="30"/>
+      <c r="B746" s="32"/>
+      <c r="C746" s="32"/>
+      <c r="D746" s="31"/>
+      <c r="E746" s="31"/>
     </row>
     <row r="747" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A747" s="32"/>
-      <c r="B747" s="34"/>
-      <c r="C747" s="34"/>
-      <c r="D747" s="33"/>
-      <c r="E747" s="33"/>
+      <c r="A747" s="30"/>
+      <c r="B747" s="32"/>
+      <c r="C747" s="32"/>
+      <c r="D747" s="31"/>
+      <c r="E747" s="31"/>
     </row>
     <row r="748" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A748" s="32"/>
-      <c r="B748" s="34"/>
-      <c r="C748" s="34"/>
-      <c r="D748" s="33"/>
-      <c r="E748" s="33"/>
+      <c r="A748" s="30"/>
+      <c r="B748" s="32"/>
+      <c r="C748" s="32"/>
+      <c r="D748" s="31"/>
+      <c r="E748" s="31"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A749" s="32"/>
-      <c r="B749" s="34"/>
-      <c r="C749" s="34"/>
-      <c r="D749" s="33"/>
-      <c r="E749" s="33"/>
+      <c r="A749" s="30"/>
+      <c r="B749" s="32"/>
+      <c r="C749" s="32"/>
+      <c r="D749" s="31"/>
+      <c r="E749" s="31"/>
     </row>
     <row r="750" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A750" s="32"/>
-      <c r="B750" s="34"/>
-      <c r="C750" s="34"/>
-      <c r="D750" s="33"/>
-      <c r="E750" s="33"/>
+      <c r="A750" s="30"/>
+      <c r="B750" s="32"/>
+      <c r="C750" s="32"/>
+      <c r="D750" s="31"/>
+      <c r="E750" s="31"/>
     </row>
     <row r="751" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A751" s="32"/>
-      <c r="B751" s="34"/>
-      <c r="C751" s="34"/>
-      <c r="D751" s="33"/>
-      <c r="E751" s="33"/>
+      <c r="A751" s="30"/>
+      <c r="B751" s="32"/>
+      <c r="C751" s="32"/>
+      <c r="D751" s="31"/>
+      <c r="E751" s="31"/>
     </row>
     <row r="752" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A752" s="32"/>
-      <c r="B752" s="34"/>
-      <c r="C752" s="34"/>
-      <c r="D752" s="33"/>
-      <c r="E752" s="33"/>
+      <c r="A752" s="30"/>
+      <c r="B752" s="32"/>
+      <c r="C752" s="32"/>
+      <c r="D752" s="31"/>
+      <c r="E752" s="31"/>
     </row>
     <row r="753" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A753" s="32"/>
-      <c r="B753" s="34"/>
-      <c r="C753" s="34"/>
-      <c r="D753" s="33"/>
-      <c r="E753" s="33"/>
+      <c r="A753" s="30"/>
+      <c r="B753" s="32"/>
+      <c r="C753" s="32"/>
+      <c r="D753" s="31"/>
+      <c r="E753" s="31"/>
     </row>
     <row r="754" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A754" s="32"/>
-      <c r="B754" s="34"/>
-      <c r="C754" s="34"/>
-      <c r="D754" s="33"/>
-      <c r="E754" s="33"/>
+      <c r="A754" s="30"/>
+      <c r="B754" s="32"/>
+      <c r="C754" s="32"/>
+      <c r="D754" s="31"/>
+      <c r="E754" s="31"/>
     </row>
     <row r="755" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A755" s="32"/>
-      <c r="B755" s="34"/>
-      <c r="C755" s="34"/>
-      <c r="D755" s="33"/>
-      <c r="E755" s="33"/>
+      <c r="A755" s="30"/>
+      <c r="B755" s="32"/>
+      <c r="C755" s="32"/>
+      <c r="D755" s="31"/>
+      <c r="E755" s="31"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A756" s="32"/>
-      <c r="B756" s="34"/>
-      <c r="C756" s="34"/>
-      <c r="D756" s="33"/>
-      <c r="E756" s="33"/>
+      <c r="A756" s="30"/>
+      <c r="B756" s="32"/>
+      <c r="C756" s="32"/>
+      <c r="D756" s="31"/>
+      <c r="E756" s="31"/>
     </row>
     <row r="757" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A757" s="32"/>
-      <c r="B757" s="34"/>
-      <c r="C757" s="34"/>
-      <c r="D757" s="33"/>
-      <c r="E757" s="33"/>
+      <c r="A757" s="30"/>
+      <c r="B757" s="32"/>
+      <c r="C757" s="32"/>
+      <c r="D757" s="31"/>
+      <c r="E757" s="31"/>
     </row>
     <row r="758" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A758" s="32"/>
-      <c r="B758" s="34"/>
-      <c r="C758" s="34"/>
-      <c r="D758" s="33"/>
-      <c r="E758" s="33"/>
+      <c r="A758" s="30"/>
+      <c r="B758" s="32"/>
+      <c r="C758" s="32"/>
+      <c r="D758" s="31"/>
+      <c r="E758" s="31"/>
     </row>
     <row r="759" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A759" s="32"/>
-      <c r="B759" s="34"/>
-      <c r="C759" s="34"/>
-      <c r="D759" s="33"/>
-      <c r="E759" s="33"/>
+      <c r="A759" s="30"/>
+      <c r="B759" s="32"/>
+      <c r="C759" s="32"/>
+      <c r="D759" s="31"/>
+      <c r="E759" s="31"/>
     </row>
     <row r="760" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A760" s="32"/>
-      <c r="B760" s="34"/>
-      <c r="C760" s="34"/>
-      <c r="D760" s="33"/>
-      <c r="E760" s="33"/>
+      <c r="A760" s="30"/>
+      <c r="B760" s="32"/>
+      <c r="C760" s="32"/>
+      <c r="D760" s="31"/>
+      <c r="E760" s="31"/>
     </row>
     <row r="761" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A761" s="32"/>
-      <c r="B761" s="34"/>
-      <c r="C761" s="34"/>
-      <c r="D761" s="33"/>
-      <c r="E761" s="33"/>
+      <c r="A761" s="30"/>
+      <c r="B761" s="32"/>
+      <c r="C761" s="32"/>
+      <c r="D761" s="31"/>
+      <c r="E761" s="31"/>
     </row>
     <row r="762" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A762" s="32"/>
-      <c r="B762" s="34"/>
-      <c r="C762" s="34"/>
-      <c r="D762" s="33"/>
-      <c r="E762" s="33"/>
+      <c r="A762" s="30"/>
+      <c r="B762" s="32"/>
+      <c r="C762" s="32"/>
+      <c r="D762" s="31"/>
+      <c r="E762" s="31"/>
     </row>
     <row r="763" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A763" s="32"/>
-      <c r="B763" s="34"/>
-      <c r="C763" s="34"/>
-      <c r="D763" s="33"/>
-      <c r="E763" s="33"/>
+      <c r="A763" s="30"/>
+      <c r="B763" s="32"/>
+      <c r="C763" s="32"/>
+      <c r="D763" s="31"/>
+      <c r="E763" s="31"/>
     </row>
     <row r="764" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A764" s="32"/>
-      <c r="B764" s="34"/>
-      <c r="C764" s="34"/>
-      <c r="D764" s="33"/>
-      <c r="E764" s="33"/>
+      <c r="A764" s="30"/>
+      <c r="B764" s="32"/>
+      <c r="C764" s="32"/>
+      <c r="D764" s="31"/>
+      <c r="E764" s="31"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A765" s="32"/>
-      <c r="B765" s="34"/>
-      <c r="C765" s="34"/>
-      <c r="D765" s="33"/>
-      <c r="E765" s="33"/>
+      <c r="A765" s="30"/>
+      <c r="B765" s="32"/>
+      <c r="C765" s="32"/>
+      <c r="D765" s="31"/>
+      <c r="E765" s="31"/>
     </row>
     <row r="766" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A766" s="32"/>
-      <c r="B766" s="34"/>
-      <c r="C766" s="34"/>
-      <c r="D766" s="33"/>
-      <c r="E766" s="33"/>
+      <c r="A766" s="30"/>
+      <c r="B766" s="32"/>
+      <c r="C766" s="32"/>
+      <c r="D766" s="31"/>
+      <c r="E766" s="31"/>
     </row>
     <row r="767" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A767" s="32"/>
-      <c r="B767" s="34"/>
-      <c r="C767" s="34"/>
-      <c r="D767" s="33"/>
-      <c r="E767" s="33"/>
+      <c r="A767" s="30"/>
+      <c r="B767" s="32"/>
+      <c r="C767" s="32"/>
+      <c r="D767" s="31"/>
+      <c r="E767" s="31"/>
     </row>
     <row r="768" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A768" s="32"/>
-      <c r="B768" s="34"/>
-      <c r="C768" s="34"/>
-      <c r="D768" s="33"/>
-      <c r="E768" s="33"/>
+      <c r="A768" s="30"/>
+      <c r="B768" s="32"/>
+      <c r="C768" s="32"/>
+      <c r="D768" s="31"/>
+      <c r="E768" s="31"/>
     </row>
     <row r="769" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A769" s="32"/>
-      <c r="B769" s="34"/>
-      <c r="C769" s="34"/>
-      <c r="D769" s="33"/>
-      <c r="E769" s="33"/>
+      <c r="A769" s="30"/>
+      <c r="B769" s="32"/>
+      <c r="C769" s="32"/>
+      <c r="D769" s="31"/>
+      <c r="E769" s="31"/>
     </row>
     <row r="770" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A770" s="32"/>
-      <c r="B770" s="34"/>
-      <c r="C770" s="34"/>
-      <c r="D770" s="33"/>
-      <c r="E770" s="33"/>
+      <c r="A770" s="30"/>
+      <c r="B770" s="32"/>
+      <c r="C770" s="32"/>
+      <c r="D770" s="31"/>
+      <c r="E770" s="31"/>
     </row>
     <row r="771" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A771" s="32"/>
-      <c r="B771" s="34"/>
-      <c r="C771" s="34"/>
-      <c r="D771" s="33"/>
-      <c r="E771" s="33"/>
+      <c r="A771" s="30"/>
+      <c r="B771" s="32"/>
+      <c r="C771" s="32"/>
+      <c r="D771" s="31"/>
+      <c r="E771" s="31"/>
     </row>
     <row r="772" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A772" s="32"/>
-      <c r="B772" s="34"/>
-      <c r="C772" s="34"/>
-      <c r="D772" s="33"/>
-      <c r="E772" s="33"/>
+      <c r="A772" s="30"/>
+      <c r="B772" s="32"/>
+      <c r="C772" s="32"/>
+      <c r="D772" s="31"/>
+      <c r="E772" s="31"/>
     </row>
     <row r="773" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A773" s="32"/>
-      <c r="B773" s="34"/>
-      <c r="C773" s="34"/>
-      <c r="D773" s="33"/>
-      <c r="E773" s="33"/>
+      <c r="A773" s="30"/>
+      <c r="B773" s="32"/>
+      <c r="C773" s="32"/>
+      <c r="D773" s="31"/>
+      <c r="E773" s="31"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A774" s="32"/>
-      <c r="B774" s="34"/>
-      <c r="C774" s="34"/>
-      <c r="D774" s="33"/>
-      <c r="E774" s="33"/>
+      <c r="A774" s="30"/>
+      <c r="B774" s="32"/>
+      <c r="C774" s="32"/>
+      <c r="D774" s="31"/>
+      <c r="E774" s="31"/>
     </row>
     <row r="775" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A775" s="32"/>
-      <c r="B775" s="34"/>
-      <c r="C775" s="34"/>
-      <c r="D775" s="33"/>
-      <c r="E775" s="33"/>
+      <c r="A775" s="30"/>
+      <c r="B775" s="32"/>
+      <c r="C775" s="32"/>
+      <c r="D775" s="31"/>
+      <c r="E775" s="31"/>
     </row>
     <row r="776" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A776" s="32"/>
-      <c r="B776" s="34"/>
-      <c r="C776" s="34"/>
-      <c r="D776" s="33"/>
-      <c r="E776" s="33"/>
+      <c r="A776" s="30"/>
+      <c r="B776" s="32"/>
+      <c r="C776" s="32"/>
+      <c r="D776" s="31"/>
+      <c r="E776" s="31"/>
     </row>
     <row r="777" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A777" s="32"/>
-      <c r="B777" s="34"/>
-      <c r="C777" s="34"/>
-      <c r="D777" s="33"/>
-      <c r="E777" s="33"/>
+      <c r="A777" s="30"/>
+      <c r="B777" s="32"/>
+      <c r="C777" s="32"/>
+      <c r="D777" s="31"/>
+      <c r="E777" s="31"/>
     </row>
     <row r="778" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A778" s="32"/>
-      <c r="B778" s="34"/>
-      <c r="C778" s="34"/>
-      <c r="D778" s="33"/>
-      <c r="E778" s="33"/>
+      <c r="A778" s="30"/>
+      <c r="B778" s="32"/>
+      <c r="C778" s="32"/>
+      <c r="D778" s="31"/>
+      <c r="E778" s="31"/>
     </row>
     <row r="779" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A779" s="32"/>
-      <c r="B779" s="34"/>
-      <c r="C779" s="34"/>
-      <c r="D779" s="33"/>
-      <c r="E779" s="33"/>
+      <c r="A779" s="30"/>
+      <c r="B779" s="32"/>
+      <c r="C779" s="32"/>
+      <c r="D779" s="31"/>
+      <c r="E779" s="31"/>
     </row>
     <row r="780" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A780" s="32"/>
-      <c r="B780" s="34"/>
-      <c r="C780" s="34"/>
-      <c r="D780" s="33"/>
-      <c r="E780" s="33"/>
+      <c r="A780" s="30"/>
+      <c r="B780" s="32"/>
+      <c r="C780" s="32"/>
+      <c r="D780" s="31"/>
+      <c r="E780" s="31"/>
     </row>
     <row r="781" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A781" s="32"/>
-      <c r="B781" s="34"/>
-      <c r="C781" s="34"/>
-      <c r="D781" s="33"/>
-      <c r="E781" s="33"/>
+      <c r="A781" s="30"/>
+      <c r="B781" s="32"/>
+      <c r="C781" s="32"/>
+      <c r="D781" s="31"/>
+      <c r="E781" s="31"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A782" s="32"/>
-      <c r="B782" s="34"/>
-      <c r="C782" s="34"/>
-      <c r="D782" s="33"/>
-      <c r="E782" s="33"/>
+      <c r="A782" s="30"/>
+      <c r="B782" s="32"/>
+      <c r="C782" s="32"/>
+      <c r="D782" s="31"/>
+      <c r="E782" s="31"/>
     </row>
     <row r="783" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A783" s="32"/>
-      <c r="B783" s="34"/>
-      <c r="C783" s="34"/>
-      <c r="D783" s="33"/>
-      <c r="E783" s="33"/>
+      <c r="A783" s="30"/>
+      <c r="B783" s="32"/>
+      <c r="C783" s="32"/>
+      <c r="D783" s="31"/>
+      <c r="E783" s="31"/>
     </row>
     <row r="784" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A784" s="32"/>
-      <c r="B784" s="34"/>
-      <c r="C784" s="34"/>
-      <c r="D784" s="33"/>
-      <c r="E784" s="33"/>
+      <c r="A784" s="30"/>
+      <c r="B784" s="32"/>
+      <c r="C784" s="32"/>
+      <c r="D784" s="31"/>
+      <c r="E784" s="31"/>
     </row>
     <row r="785" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A785" s="32"/>
-      <c r="B785" s="34"/>
-      <c r="C785" s="34"/>
-      <c r="D785" s="33"/>
-      <c r="E785" s="33"/>
+      <c r="A785" s="30"/>
+      <c r="B785" s="32"/>
+      <c r="C785" s="32"/>
+      <c r="D785" s="31"/>
+      <c r="E785" s="31"/>
     </row>
     <row r="786" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A786" s="32"/>
-      <c r="B786" s="34"/>
-      <c r="C786" s="34"/>
-      <c r="D786" s="33"/>
-      <c r="E786" s="33"/>
+      <c r="A786" s="30"/>
+      <c r="B786" s="32"/>
+      <c r="C786" s="32"/>
+      <c r="D786" s="31"/>
+      <c r="E786" s="31"/>
     </row>
     <row r="787" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A787" s="32"/>
-      <c r="B787" s="34"/>
-      <c r="C787" s="34"/>
-      <c r="D787" s="33"/>
-      <c r="E787" s="33"/>
+      <c r="A787" s="30"/>
+      <c r="B787" s="32"/>
+      <c r="C787" s="32"/>
+      <c r="D787" s="31"/>
+      <c r="E787" s="31"/>
     </row>
     <row r="788" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A788" s="32"/>
-      <c r="B788" s="34"/>
-      <c r="C788" s="34"/>
-      <c r="D788" s="33"/>
-      <c r="E788" s="33"/>
+      <c r="A788" s="30"/>
+      <c r="B788" s="32"/>
+      <c r="C788" s="32"/>
+      <c r="D788" s="31"/>
+      <c r="E788" s="31"/>
     </row>
     <row r="789" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A789" s="32"/>
-      <c r="B789" s="34"/>
-      <c r="C789" s="34"/>
-      <c r="D789" s="33"/>
-      <c r="E789" s="33"/>
+      <c r="A789" s="30"/>
+      <c r="B789" s="32"/>
+      <c r="C789" s="32"/>
+      <c r="D789" s="31"/>
+      <c r="E789" s="31"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A790" s="32"/>
-      <c r="B790" s="34"/>
-      <c r="C790" s="34"/>
-      <c r="D790" s="33"/>
-      <c r="E790" s="33"/>
+      <c r="A790" s="30"/>
+      <c r="B790" s="32"/>
+      <c r="C790" s="32"/>
+      <c r="D790" s="31"/>
+      <c r="E790" s="31"/>
     </row>
     <row r="791" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A791" s="32"/>
-      <c r="B791" s="34"/>
-      <c r="C791" s="34"/>
-      <c r="D791" s="33"/>
-      <c r="E791" s="33"/>
+      <c r="A791" s="30"/>
+      <c r="B791" s="32"/>
+      <c r="C791" s="32"/>
+      <c r="D791" s="31"/>
+      <c r="E791" s="31"/>
     </row>
     <row r="792" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A792" s="32"/>
-      <c r="B792" s="34"/>
-      <c r="C792" s="34"/>
-      <c r="D792" s="33"/>
-      <c r="E792" s="33"/>
+      <c r="A792" s="30"/>
+      <c r="B792" s="32"/>
+      <c r="C792" s="32"/>
+      <c r="D792" s="31"/>
+      <c r="E792" s="31"/>
     </row>
     <row r="793" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A793" s="32"/>
-      <c r="B793" s="34"/>
-      <c r="C793" s="34"/>
-      <c r="D793" s="33"/>
-      <c r="E793" s="33"/>
+      <c r="A793" s="30"/>
+      <c r="B793" s="32"/>
+      <c r="C793" s="32"/>
+      <c r="D793" s="31"/>
+      <c r="E793" s="31"/>
     </row>
     <row r="794" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A794" s="32"/>
-      <c r="B794" s="34"/>
-      <c r="C794" s="34"/>
-      <c r="D794" s="33"/>
-      <c r="E794" s="33"/>
+      <c r="A794" s="30"/>
+      <c r="B794" s="32"/>
+      <c r="C794" s="32"/>
+      <c r="D794" s="31"/>
+      <c r="E794" s="31"/>
     </row>
     <row r="795" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A795" s="32"/>
-      <c r="B795" s="34"/>
-      <c r="C795" s="34"/>
-      <c r="D795" s="33"/>
-      <c r="E795" s="33"/>
+      <c r="A795" s="30"/>
+      <c r="B795" s="32"/>
+      <c r="C795" s="32"/>
+      <c r="D795" s="31"/>
+      <c r="E795" s="31"/>
     </row>
     <row r="796" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A796" s="32"/>
-      <c r="B796" s="34"/>
-      <c r="C796" s="34"/>
-      <c r="D796" s="33"/>
-      <c r="E796" s="33"/>
+      <c r="A796" s="30"/>
+      <c r="B796" s="32"/>
+      <c r="C796" s="32"/>
+      <c r="D796" s="31"/>
+      <c r="E796" s="31"/>
     </row>
     <row r="797" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A797" s="32"/>
-      <c r="B797" s="34"/>
-      <c r="C797" s="34"/>
-      <c r="D797" s="33"/>
-      <c r="E797" s="33"/>
+      <c r="A797" s="30"/>
+      <c r="B797" s="32"/>
+      <c r="C797" s="32"/>
+      <c r="D797" s="31"/>
+      <c r="E797" s="31"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A798" s="32"/>
-      <c r="B798" s="34"/>
-      <c r="C798" s="34"/>
-      <c r="D798" s="33"/>
-      <c r="E798" s="33"/>
+      <c r="A798" s="30"/>
+      <c r="B798" s="32"/>
+      <c r="C798" s="32"/>
+      <c r="D798" s="31"/>
+      <c r="E798" s="31"/>
     </row>
     <row r="799" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A799" s="32"/>
-      <c r="B799" s="34"/>
-      <c r="C799" s="34"/>
-      <c r="D799" s="33"/>
-      <c r="E799" s="33"/>
+      <c r="A799" s="30"/>
+      <c r="B799" s="32"/>
+      <c r="C799" s="32"/>
+      <c r="D799" s="31"/>
+      <c r="E799" s="31"/>
     </row>
     <row r="800" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A800" s="32"/>
-      <c r="B800" s="34"/>
-      <c r="C800" s="34"/>
-      <c r="D800" s="33"/>
-      <c r="E800" s="33"/>
+      <c r="A800" s="30"/>
+      <c r="B800" s="32"/>
+      <c r="C800" s="32"/>
+      <c r="D800" s="31"/>
+      <c r="E800" s="31"/>
     </row>
     <row r="801" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A801" s="32"/>
-      <c r="B801" s="34"/>
-      <c r="C801" s="34"/>
-      <c r="D801" s="33"/>
-      <c r="E801" s="33"/>
+      <c r="A801" s="30"/>
+      <c r="B801" s="32"/>
+      <c r="C801" s="32"/>
+      <c r="D801" s="31"/>
+      <c r="E801" s="31"/>
     </row>
     <row r="802" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A802" s="32"/>
-      <c r="B802" s="34"/>
-      <c r="C802" s="34"/>
-      <c r="D802" s="33"/>
-      <c r="E802" s="33"/>
+      <c r="A802" s="30"/>
+      <c r="B802" s="32"/>
+      <c r="C802" s="32"/>
+      <c r="D802" s="31"/>
+      <c r="E802" s="31"/>
     </row>
     <row r="803" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A803" s="32"/>
-      <c r="B803" s="34"/>
-      <c r="C803" s="34"/>
-      <c r="D803" s="33"/>
-      <c r="E803" s="33"/>
+      <c r="A803" s="30"/>
+      <c r="B803" s="32"/>
+      <c r="C803" s="32"/>
+      <c r="D803" s="31"/>
+      <c r="E803" s="31"/>
     </row>
     <row r="804" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A804" s="32"/>
-      <c r="B804" s="34"/>
-      <c r="C804" s="34"/>
-      <c r="D804" s="33"/>
-      <c r="E804" s="33"/>
+      <c r="A804" s="30"/>
+      <c r="B804" s="32"/>
+      <c r="C804" s="32"/>
+      <c r="D804" s="31"/>
+      <c r="E804" s="31"/>
     </row>
     <row r="805" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A805" s="32"/>
-      <c r="B805" s="34"/>
-      <c r="C805" s="34"/>
-      <c r="D805" s="33"/>
-      <c r="E805" s="33"/>
+      <c r="A805" s="30"/>
+      <c r="B805" s="32"/>
+      <c r="C805" s="32"/>
+      <c r="D805" s="31"/>
+      <c r="E805" s="31"/>
     </row>
     <row r="806" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A806" s="32"/>
-      <c r="B806" s="34"/>
-      <c r="C806" s="34"/>
-      <c r="D806" s="33"/>
-      <c r="E806" s="33"/>
+      <c r="A806" s="30"/>
+      <c r="B806" s="32"/>
+      <c r="C806" s="32"/>
+      <c r="D806" s="31"/>
+      <c r="E806" s="31"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A807" s="32"/>
-      <c r="B807" s="34"/>
-      <c r="C807" s="34"/>
-      <c r="D807" s="33"/>
-      <c r="E807" s="33"/>
+      <c r="A807" s="30"/>
+      <c r="B807" s="32"/>
+      <c r="C807" s="32"/>
+      <c r="D807" s="31"/>
+      <c r="E807" s="31"/>
     </row>
     <row r="808" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A808" s="32"/>
-      <c r="B808" s="34"/>
-      <c r="C808" s="34"/>
-      <c r="D808" s="33"/>
-      <c r="E808" s="33"/>
+      <c r="A808" s="30"/>
+      <c r="B808" s="32"/>
+      <c r="C808" s="32"/>
+      <c r="D808" s="31"/>
+      <c r="E808" s="31"/>
     </row>
     <row r="809" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A809" s="32"/>
-      <c r="B809" s="34"/>
-      <c r="C809" s="34"/>
-      <c r="D809" s="33"/>
-      <c r="E809" s="33"/>
+      <c r="A809" s="30"/>
+      <c r="B809" s="32"/>
+      <c r="C809" s="32"/>
+      <c r="D809" s="31"/>
+      <c r="E809" s="31"/>
     </row>
     <row r="810" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A810" s="32"/>
-      <c r="B810" s="34"/>
-      <c r="C810" s="34"/>
-      <c r="D810" s="33"/>
-      <c r="E810" s="33"/>
+      <c r="A810" s="30"/>
+      <c r="B810" s="32"/>
+      <c r="C810" s="32"/>
+      <c r="D810" s="31"/>
+      <c r="E810" s="31"/>
     </row>
     <row r="811" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A811" s="32"/>
-      <c r="B811" s="34"/>
-      <c r="C811" s="34"/>
-      <c r="D811" s="33"/>
-      <c r="E811" s="33"/>
+      <c r="A811" s="30"/>
+      <c r="B811" s="32"/>
+      <c r="C811" s="32"/>
+      <c r="D811" s="31"/>
+      <c r="E811" s="31"/>
     </row>
     <row r="812" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A812" s="32"/>
-      <c r="B812" s="34"/>
-      <c r="C812" s="34"/>
-      <c r="D812" s="33"/>
-      <c r="E812" s="33"/>
+      <c r="A812" s="30"/>
+      <c r="B812" s="32"/>
+      <c r="C812" s="32"/>
+      <c r="D812" s="31"/>
+      <c r="E812" s="31"/>
     </row>
     <row r="813" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A813" s="32"/>
-      <c r="B813" s="34"/>
-      <c r="C813" s="34"/>
-      <c r="D813" s="33"/>
-      <c r="E813" s="33"/>
+      <c r="A813" s="30"/>
+      <c r="B813" s="32"/>
+      <c r="C813" s="32"/>
+      <c r="D813" s="31"/>
+      <c r="E813" s="31"/>
     </row>
     <row r="814" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A814" s="32"/>
-      <c r="B814" s="34"/>
-      <c r="C814" s="34"/>
-      <c r="D814" s="33"/>
-      <c r="E814" s="33"/>
+      <c r="A814" s="30"/>
+      <c r="B814" s="32"/>
+      <c r="C814" s="32"/>
+      <c r="D814" s="31"/>
+      <c r="E814" s="31"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A815" s="32"/>
-      <c r="B815" s="34"/>
-      <c r="C815" s="34"/>
-      <c r="D815" s="33"/>
-      <c r="E815" s="33"/>
+      <c r="A815" s="30"/>
+      <c r="B815" s="32"/>
+      <c r="C815" s="32"/>
+      <c r="D815" s="31"/>
+      <c r="E815" s="31"/>
     </row>
     <row r="816" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A816" s="32"/>
-      <c r="B816" s="34"/>
-      <c r="C816" s="34"/>
-      <c r="D816" s="33"/>
-      <c r="E816" s="33"/>
+      <c r="A816" s="30"/>
+      <c r="B816" s="32"/>
+      <c r="C816" s="32"/>
+      <c r="D816" s="31"/>
+      <c r="E816" s="31"/>
     </row>
     <row r="817" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A817" s="32"/>
-      <c r="B817" s="34"/>
-      <c r="C817" s="34"/>
-      <c r="D817" s="33"/>
-      <c r="E817" s="33"/>
+      <c r="A817" s="30"/>
+      <c r="B817" s="32"/>
+      <c r="C817" s="32"/>
+      <c r="D817" s="31"/>
+      <c r="E817" s="31"/>
     </row>
     <row r="818" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A818" s="32"/>
-      <c r="B818" s="34"/>
-      <c r="C818" s="34"/>
-      <c r="D818" s="33"/>
-      <c r="E818" s="33"/>
+      <c r="A818" s="30"/>
+      <c r="B818" s="32"/>
+      <c r="C818" s="32"/>
+      <c r="D818" s="31"/>
+      <c r="E818" s="31"/>
     </row>
     <row r="819" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A819" s="32"/>
-      <c r="B819" s="34"/>
-      <c r="C819" s="34"/>
-      <c r="D819" s="33"/>
-      <c r="E819" s="33"/>
+      <c r="A819" s="30"/>
+      <c r="B819" s="32"/>
+      <c r="C819" s="32"/>
+      <c r="D819" s="31"/>
+      <c r="E819" s="31"/>
     </row>
     <row r="820" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A820" s="32"/>
-      <c r="B820" s="34"/>
-      <c r="C820" s="34"/>
-      <c r="D820" s="33"/>
-      <c r="E820" s="33"/>
+      <c r="A820" s="30"/>
+      <c r="B820" s="32"/>
+      <c r="C820" s="32"/>
+      <c r="D820" s="31"/>
+      <c r="E820" s="31"/>
     </row>
     <row r="821" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A821" s="32"/>
-      <c r="B821" s="34"/>
-      <c r="C821" s="34"/>
-      <c r="D821" s="33"/>
-      <c r="E821" s="33"/>
+      <c r="A821" s="30"/>
+      <c r="B821" s="32"/>
+      <c r="C821" s="32"/>
+      <c r="D821" s="31"/>
+      <c r="E821" s="31"/>
     </row>
     <row r="822" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A822" s="32"/>
-      <c r="B822" s="34"/>
-      <c r="C822" s="34"/>
-      <c r="D822" s="33"/>
-      <c r="E822" s="33"/>
+      <c r="A822" s="30"/>
+      <c r="B822" s="32"/>
+      <c r="C822" s="32"/>
+      <c r="D822" s="31"/>
+      <c r="E822" s="31"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A823" s="32"/>
-      <c r="B823" s="34"/>
-      <c r="C823" s="34"/>
-      <c r="D823" s="33"/>
-      <c r="E823" s="33"/>
+      <c r="A823" s="30"/>
+      <c r="B823" s="32"/>
+      <c r="C823" s="32"/>
+      <c r="D823" s="31"/>
+      <c r="E823" s="31"/>
     </row>
     <row r="824" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A824" s="32"/>
-      <c r="B824" s="34"/>
-      <c r="C824" s="34"/>
-      <c r="D824" s="33"/>
-      <c r="E824" s="33"/>
+      <c r="A824" s="30"/>
+      <c r="B824" s="32"/>
+      <c r="C824" s="32"/>
+      <c r="D824" s="31"/>
+      <c r="E824" s="31"/>
     </row>
     <row r="825" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A825" s="32"/>
-      <c r="B825" s="34"/>
-      <c r="C825" s="34"/>
-      <c r="D825" s="33"/>
-      <c r="E825" s="33"/>
+      <c r="A825" s="30"/>
+      <c r="B825" s="32"/>
+      <c r="C825" s="32"/>
+      <c r="D825" s="31"/>
+      <c r="E825" s="31"/>
     </row>
     <row r="826" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A826" s="32"/>
-      <c r="B826" s="34"/>
-      <c r="C826" s="34"/>
-      <c r="D826" s="33"/>
-      <c r="E826" s="33"/>
+      <c r="A826" s="30"/>
+      <c r="B826" s="32"/>
+      <c r="C826" s="32"/>
+      <c r="D826" s="31"/>
+      <c r="E826" s="31"/>
     </row>
     <row r="827" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A827" s="32"/>
-      <c r="B827" s="34"/>
-      <c r="C827" s="34"/>
-      <c r="D827" s="33"/>
-      <c r="E827" s="33"/>
+      <c r="A827" s="30"/>
+      <c r="B827" s="32"/>
+      <c r="C827" s="32"/>
+      <c r="D827" s="31"/>
+      <c r="E827" s="31"/>
     </row>
     <row r="828" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A828" s="32"/>
-      <c r="B828" s="34"/>
-      <c r="C828" s="34"/>
-      <c r="D828" s="33"/>
-      <c r="E828" s="33"/>
+      <c r="A828" s="30"/>
+      <c r="B828" s="32"/>
+      <c r="C828" s="32"/>
+      <c r="D828" s="31"/>
+      <c r="E828" s="31"/>
     </row>
     <row r="829" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A829" s="32"/>
-      <c r="B829" s="34"/>
-      <c r="C829" s="34"/>
-      <c r="D829" s="33"/>
-      <c r="E829" s="33"/>
+      <c r="A829" s="30"/>
+      <c r="B829" s="32"/>
+      <c r="C829" s="32"/>
+      <c r="D829" s="31"/>
+      <c r="E829" s="31"/>
     </row>
     <row r="830" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A830" s="32"/>
-      <c r="B830" s="34"/>
-      <c r="C830" s="34"/>
-      <c r="D830" s="33"/>
-      <c r="E830" s="33"/>
+      <c r="A830" s="30"/>
+      <c r="B830" s="32"/>
+      <c r="C830" s="32"/>
+      <c r="D830" s="31"/>
+      <c r="E830" s="31"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A831" s="32"/>
-      <c r="B831" s="34"/>
-      <c r="C831" s="34"/>
-      <c r="D831" s="33"/>
-      <c r="E831" s="33"/>
+      <c r="A831" s="30"/>
+      <c r="B831" s="32"/>
+      <c r="C831" s="32"/>
+      <c r="D831" s="31"/>
+      <c r="E831" s="31"/>
     </row>
     <row r="832" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A832" s="32"/>
-      <c r="B832" s="34"/>
-      <c r="C832" s="34"/>
-      <c r="D832" s="33"/>
-      <c r="E832" s="33"/>
+      <c r="A832" s="30"/>
+      <c r="B832" s="32"/>
+      <c r="C832" s="32"/>
+      <c r="D832" s="31"/>
+      <c r="E832" s="31"/>
     </row>
     <row r="833" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A833" s="32"/>
-      <c r="B833" s="34"/>
-      <c r="C833" s="34"/>
-      <c r="D833" s="33"/>
-      <c r="E833" s="33"/>
+      <c r="A833" s="30"/>
+      <c r="B833" s="32"/>
+      <c r="C833" s="32"/>
+      <c r="D833" s="31"/>
+      <c r="E833" s="31"/>
     </row>
     <row r="834" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A834" s="32"/>
-      <c r="B834" s="34"/>
-      <c r="C834" s="34"/>
-      <c r="D834" s="33"/>
-      <c r="E834" s="33"/>
+      <c r="A834" s="30"/>
+      <c r="B834" s="32"/>
+      <c r="C834" s="32"/>
+      <c r="D834" s="31"/>
+      <c r="E834" s="31"/>
     </row>
     <row r="835" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A835" s="32"/>
-      <c r="B835" s="34"/>
-      <c r="C835" s="34"/>
-      <c r="D835" s="33"/>
-      <c r="E835" s="33"/>
+      <c r="A835" s="30"/>
+      <c r="B835" s="32"/>
+      <c r="C835" s="32"/>
+      <c r="D835" s="31"/>
+      <c r="E835" s="31"/>
     </row>
     <row r="836" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A836" s="32"/>
-      <c r="B836" s="34"/>
-      <c r="C836" s="34"/>
-      <c r="D836" s="33"/>
-      <c r="E836" s="33"/>
+      <c r="A836" s="30"/>
+      <c r="B836" s="32"/>
+      <c r="C836" s="32"/>
+      <c r="D836" s="31"/>
+      <c r="E836" s="31"/>
     </row>
     <row r="837" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A837" s="32"/>
-      <c r="B837" s="34"/>
-      <c r="C837" s="34"/>
-      <c r="D837" s="33"/>
-      <c r="E837" s="33"/>
+      <c r="A837" s="30"/>
+      <c r="B837" s="32"/>
+      <c r="C837" s="32"/>
+      <c r="D837" s="31"/>
+      <c r="E837" s="31"/>
     </row>
     <row r="838" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A838" s="32"/>
-      <c r="B838" s="34"/>
-      <c r="C838" s="34"/>
-      <c r="D838" s="33"/>
-      <c r="E838" s="33"/>
+      <c r="A838" s="30"/>
+      <c r="B838" s="32"/>
+      <c r="C838" s="32"/>
+      <c r="D838" s="31"/>
+      <c r="E838" s="31"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A839" s="32"/>
-      <c r="B839" s="34"/>
-      <c r="C839" s="34"/>
-      <c r="D839" s="33"/>
-      <c r="E839" s="33"/>
+      <c r="A839" s="30"/>
+      <c r="B839" s="32"/>
+      <c r="C839" s="32"/>
+      <c r="D839" s="31"/>
+      <c r="E839" s="31"/>
     </row>
     <row r="840" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A840" s="32"/>
-      <c r="B840" s="34"/>
-      <c r="C840" s="34"/>
-      <c r="D840" s="33"/>
-      <c r="E840" s="33"/>
+      <c r="A840" s="30"/>
+      <c r="B840" s="32"/>
+      <c r="C840" s="32"/>
+      <c r="D840" s="31"/>
+      <c r="E840" s="31"/>
     </row>
     <row r="841" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A841" s="32"/>
-      <c r="B841" s="34"/>
-      <c r="C841" s="34"/>
-      <c r="D841" s="33"/>
-      <c r="E841" s="33"/>
+      <c r="A841" s="30"/>
+      <c r="B841" s="32"/>
+      <c r="C841" s="32"/>
+      <c r="D841" s="31"/>
+      <c r="E841" s="31"/>
     </row>
     <row r="842" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A842" s="32"/>
-      <c r="B842" s="34"/>
-      <c r="C842" s="34"/>
-      <c r="D842" s="33"/>
-      <c r="E842" s="33"/>
+      <c r="A842" s="30"/>
+      <c r="B842" s="32"/>
+      <c r="C842" s="32"/>
+      <c r="D842" s="31"/>
+      <c r="E842" s="31"/>
     </row>
     <row r="843" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A843" s="32"/>
-      <c r="B843" s="34"/>
-      <c r="C843" s="34"/>
-      <c r="D843" s="33"/>
-      <c r="E843" s="33"/>
+      <c r="A843" s="30"/>
+      <c r="B843" s="32"/>
+      <c r="C843" s="32"/>
+      <c r="D843" s="31"/>
+      <c r="E843" s="31"/>
     </row>
     <row r="844" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A844" s="32"/>
-      <c r="B844" s="34"/>
-      <c r="C844" s="34"/>
-      <c r="D844" s="33"/>
-      <c r="E844" s="33"/>
+      <c r="A844" s="30"/>
+      <c r="B844" s="32"/>
+      <c r="C844" s="32"/>
+      <c r="D844" s="31"/>
+      <c r="E844" s="31"/>
     </row>
     <row r="845" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A845" s="32"/>
-      <c r="B845" s="34"/>
-      <c r="C845" s="34"/>
-      <c r="D845" s="33"/>
-      <c r="E845" s="33"/>
+      <c r="A845" s="30"/>
+      <c r="B845" s="32"/>
+      <c r="C845" s="32"/>
+      <c r="D845" s="31"/>
+      <c r="E845" s="31"/>
     </row>
     <row r="846" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A846" s="32"/>
-      <c r="B846" s="34"/>
-      <c r="C846" s="34"/>
-      <c r="D846" s="33"/>
-      <c r="E846" s="33"/>
+      <c r="A846" s="30"/>
+      <c r="B846" s="32"/>
+      <c r="C846" s="32"/>
+      <c r="D846" s="31"/>
+      <c r="E846" s="31"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A847" s="32"/>
-      <c r="B847" s="34"/>
-      <c r="C847" s="34"/>
-      <c r="D847" s="33"/>
-      <c r="E847" s="33"/>
+      <c r="A847" s="30"/>
+      <c r="B847" s="32"/>
+      <c r="C847" s="32"/>
+      <c r="D847" s="31"/>
+      <c r="E847" s="31"/>
     </row>
     <row r="848" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A848" s="32"/>
-      <c r="B848" s="34"/>
-      <c r="C848" s="34"/>
-      <c r="D848" s="33"/>
-      <c r="E848" s="33"/>
+      <c r="A848" s="30"/>
+      <c r="B848" s="32"/>
+      <c r="C848" s="32"/>
+      <c r="D848" s="31"/>
+      <c r="E848" s="31"/>
     </row>
     <row r="849" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A849" s="32"/>
-      <c r="B849" s="34"/>
-      <c r="C849" s="34"/>
-      <c r="D849" s="33"/>
-      <c r="E849" s="33"/>
+      <c r="A849" s="30"/>
+      <c r="B849" s="32"/>
+      <c r="C849" s="32"/>
+      <c r="D849" s="31"/>
+      <c r="E849" s="31"/>
     </row>
     <row r="850" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A850" s="32"/>
-      <c r="B850" s="34"/>
-      <c r="C850" s="34"/>
-      <c r="D850" s="33"/>
-      <c r="E850" s="33"/>
+      <c r="A850" s="30"/>
+      <c r="B850" s="32"/>
+      <c r="C850" s="32"/>
+      <c r="D850" s="31"/>
+      <c r="E850" s="31"/>
     </row>
     <row r="851" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A851" s="32"/>
-      <c r="B851" s="34"/>
-      <c r="C851" s="34"/>
-      <c r="D851" s="33"/>
-      <c r="E851" s="33"/>
+      <c r="A851" s="30"/>
+      <c r="B851" s="32"/>
+      <c r="C851" s="32"/>
+      <c r="D851" s="31"/>
+      <c r="E851" s="31"/>
     </row>
     <row r="852" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A852" s="32"/>
-      <c r="B852" s="34"/>
-      <c r="C852" s="34"/>
-      <c r="D852" s="33"/>
-      <c r="E852" s="33"/>
+      <c r="A852" s="30"/>
+      <c r="B852" s="32"/>
+      <c r="C852" s="32"/>
+      <c r="D852" s="31"/>
+      <c r="E852" s="31"/>
     </row>
     <row r="853" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A853" s="32"/>
-      <c r="B853" s="34"/>
-      <c r="C853" s="34"/>
-      <c r="D853" s="33"/>
-      <c r="E853" s="33"/>
+      <c r="A853" s="30"/>
+      <c r="B853" s="32"/>
+      <c r="C853" s="32"/>
+      <c r="D853" s="31"/>
+      <c r="E853" s="31"/>
     </row>
     <row r="854" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A854" s="32"/>
-      <c r="B854" s="34"/>
-      <c r="C854" s="34"/>
-      <c r="D854" s="33"/>
-      <c r="E854" s="33"/>
+      <c r="A854" s="30"/>
+      <c r="B854" s="32"/>
+      <c r="C854" s="32"/>
+      <c r="D854" s="31"/>
+      <c r="E854" s="31"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A855" s="32"/>
-      <c r="B855" s="34"/>
-      <c r="C855" s="34"/>
-      <c r="D855" s="33"/>
-      <c r="E855" s="33"/>
+      <c r="A855" s="30"/>
+      <c r="B855" s="32"/>
+      <c r="C855" s="32"/>
+      <c r="D855" s="31"/>
+      <c r="E855" s="31"/>
     </row>
     <row r="856" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A856" s="32"/>
-      <c r="B856" s="34"/>
-      <c r="C856" s="34"/>
-      <c r="D856" s="33"/>
-      <c r="E856" s="33"/>
+      <c r="A856" s="30"/>
+      <c r="B856" s="32"/>
+      <c r="C856" s="32"/>
+      <c r="D856" s="31"/>
+      <c r="E856" s="31"/>
     </row>
     <row r="857" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A857" s="32"/>
-      <c r="B857" s="34"/>
-      <c r="C857" s="34"/>
-      <c r="D857" s="33"/>
-      <c r="E857" s="33"/>
+      <c r="A857" s="30"/>
+      <c r="B857" s="32"/>
+      <c r="C857" s="32"/>
+      <c r="D857" s="31"/>
+      <c r="E857" s="31"/>
     </row>
     <row r="858" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A858" s="32"/>
-      <c r="B858" s="34"/>
-      <c r="C858" s="34"/>
-      <c r="D858" s="33"/>
-      <c r="E858" s="33"/>
+      <c r="A858" s="30"/>
+      <c r="B858" s="32"/>
+      <c r="C858" s="32"/>
+      <c r="D858" s="31"/>
+      <c r="E858" s="31"/>
     </row>
     <row r="859" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A859" s="32"/>
-      <c r="B859" s="34"/>
-      <c r="C859" s="34"/>
-      <c r="D859" s="33"/>
-      <c r="E859" s="33"/>
+      <c r="A859" s="30"/>
+      <c r="B859" s="32"/>
+      <c r="C859" s="32"/>
+      <c r="D859" s="31"/>
+      <c r="E859" s="31"/>
     </row>
     <row r="860" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A860" s="32"/>
-      <c r="B860" s="34"/>
-      <c r="C860" s="34"/>
-      <c r="D860" s="33"/>
-      <c r="E860" s="33"/>
+      <c r="A860" s="30"/>
+      <c r="B860" s="32"/>
+      <c r="C860" s="32"/>
+      <c r="D860" s="31"/>
+      <c r="E860" s="31"/>
     </row>
     <row r="861" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A861" s="32"/>
-      <c r="B861" s="34"/>
-      <c r="C861" s="34"/>
-      <c r="D861" s="33"/>
-      <c r="E861" s="33"/>
+      <c r="A861" s="30"/>
+      <c r="B861" s="32"/>
+      <c r="C861" s="32"/>
+      <c r="D861" s="31"/>
+      <c r="E861" s="31"/>
     </row>
     <row r="862" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A862" s="32"/>
-      <c r="B862" s="34"/>
-      <c r="C862" s="34"/>
-      <c r="D862" s="33"/>
-      <c r="E862" s="33"/>
+      <c r="A862" s="30"/>
+      <c r="B862" s="32"/>
+      <c r="C862" s="32"/>
+      <c r="D862" s="31"/>
+      <c r="E862" s="31"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A863" s="32"/>
-      <c r="B863" s="34"/>
-      <c r="C863" s="34"/>
-      <c r="D863" s="33"/>
-      <c r="E863" s="33"/>
+      <c r="A863" s="30"/>
+      <c r="B863" s="32"/>
+      <c r="C863" s="32"/>
+      <c r="D863" s="31"/>
+      <c r="E863" s="31"/>
     </row>
     <row r="864" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A864" s="32"/>
-      <c r="B864" s="34"/>
-      <c r="C864" s="34"/>
-      <c r="D864" s="33"/>
-      <c r="E864" s="33"/>
+      <c r="A864" s="30"/>
+      <c r="B864" s="32"/>
+      <c r="C864" s="32"/>
+      <c r="D864" s="31"/>
+      <c r="E864" s="31"/>
     </row>
     <row r="865" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A865" s="32"/>
-      <c r="B865" s="34"/>
-      <c r="C865" s="34"/>
-      <c r="D865" s="33"/>
-      <c r="E865" s="33"/>
+      <c r="A865" s="30"/>
+      <c r="B865" s="32"/>
+      <c r="C865" s="32"/>
+      <c r="D865" s="31"/>
+      <c r="E865" s="31"/>
     </row>
     <row r="866" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A866" s="32"/>
-      <c r="B866" s="34"/>
-      <c r="C866" s="34"/>
-      <c r="D866" s="33"/>
-      <c r="E866" s="33"/>
+      <c r="A866" s="30"/>
+      <c r="B866" s="32"/>
+      <c r="C866" s="32"/>
+      <c r="D866" s="31"/>
+      <c r="E866" s="31"/>
     </row>
     <row r="867" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A867" s="32"/>
-      <c r="B867" s="34"/>
-      <c r="C867" s="34"/>
-      <c r="D867" s="33"/>
-      <c r="E867" s="33"/>
+      <c r="A867" s="30"/>
+      <c r="B867" s="32"/>
+      <c r="C867" s="32"/>
+      <c r="D867" s="31"/>
+      <c r="E867" s="31"/>
     </row>
     <row r="868" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A868" s="32"/>
-      <c r="B868" s="34"/>
-      <c r="C868" s="34"/>
-      <c r="D868" s="33"/>
-      <c r="E868" s="33"/>
+      <c r="A868" s="30"/>
+      <c r="B868" s="32"/>
+      <c r="C868" s="32"/>
+      <c r="D868" s="31"/>
+      <c r="E868" s="31"/>
     </row>
     <row r="869" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A869" s="32"/>
-      <c r="B869" s="34"/>
-      <c r="C869" s="34"/>
-      <c r="D869" s="33"/>
-      <c r="E869" s="33"/>
+      <c r="A869" s="30"/>
+      <c r="B869" s="32"/>
+      <c r="C869" s="32"/>
+      <c r="D869" s="31"/>
+      <c r="E869" s="31"/>
     </row>
     <row r="870" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A870" s="32"/>
-      <c r="B870" s="34"/>
-      <c r="C870" s="34"/>
-      <c r="D870" s="33"/>
-      <c r="E870" s="33"/>
+      <c r="A870" s="30"/>
+      <c r="B870" s="32"/>
+      <c r="C870" s="32"/>
+      <c r="D870" s="31"/>
+      <c r="E870" s="31"/>
     </row>
     <row r="871" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A871" s="32"/>
-      <c r="B871" s="34"/>
-      <c r="C871" s="34"/>
-      <c r="D871" s="33"/>
-      <c r="E871" s="33"/>
+      <c r="A871" s="30"/>
+      <c r="B871" s="32"/>
+      <c r="C871" s="32"/>
+      <c r="D871" s="31"/>
+      <c r="E871" s="31"/>
     </row>
     <row r="872" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A872" s="32"/>
-      <c r="B872" s="34"/>
-      <c r="C872" s="34"/>
-      <c r="D872" s="33"/>
-      <c r="E872" s="33"/>
+      <c r="A872" s="30"/>
+      <c r="B872" s="32"/>
+      <c r="C872" s="32"/>
+      <c r="D872" s="31"/>
+      <c r="E872" s="31"/>
     </row>
     <row r="873" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A873" s="32"/>
-      <c r="B873" s="34"/>
-      <c r="C873" s="34"/>
-      <c r="D873" s="33"/>
-      <c r="E873" s="33"/>
+      <c r="A873" s="30"/>
+      <c r="B873" s="32"/>
+      <c r="C873" s="32"/>
+      <c r="D873" s="31"/>
+      <c r="E873" s="31"/>
     </row>
     <row r="874" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A874" s="32"/>
-      <c r="B874" s="34"/>
-      <c r="C874" s="34"/>
-      <c r="D874" s="33"/>
-      <c r="E874" s="33"/>
+      <c r="A874" s="30"/>
+      <c r="B874" s="32"/>
+      <c r="C874" s="32"/>
+      <c r="D874" s="31"/>
+      <c r="E874" s="31"/>
     </row>
     <row r="875" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A875" s="32"/>
-      <c r="B875" s="34"/>
-      <c r="C875" s="34"/>
-      <c r="D875" s="33"/>
-      <c r="E875" s="33"/>
+      <c r="A875" s="30"/>
+      <c r="B875" s="32"/>
+      <c r="C875" s="32"/>
+      <c r="D875" s="31"/>
+      <c r="E875" s="31"/>
     </row>
     <row r="876" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A876" s="32"/>
-      <c r="B876" s="34"/>
-      <c r="C876" s="34"/>
-      <c r="D876" s="33"/>
-      <c r="E876" s="33"/>
+      <c r="A876" s="30"/>
+      <c r="B876" s="32"/>
+      <c r="C876" s="32"/>
+      <c r="D876" s="31"/>
+      <c r="E876" s="31"/>
     </row>
     <row r="877" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A877" s="32"/>
-      <c r="B877" s="34"/>
-      <c r="C877" s="34"/>
-      <c r="D877" s="33"/>
-      <c r="E877" s="33"/>
+      <c r="A877" s="30"/>
+      <c r="B877" s="32"/>
+      <c r="C877" s="32"/>
+      <c r="D877" s="31"/>
+      <c r="E877" s="31"/>
     </row>
     <row r="878" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A878" s="32"/>
-      <c r="B878" s="34"/>
-      <c r="C878" s="34"/>
-      <c r="D878" s="33"/>
-      <c r="E878" s="33"/>
+      <c r="A878" s="30"/>
+      <c r="B878" s="32"/>
+      <c r="C878" s="32"/>
+      <c r="D878" s="31"/>
+      <c r="E878" s="31"/>
     </row>
     <row r="879" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A879" s="32"/>
-      <c r="B879" s="34"/>
-      <c r="C879" s="34"/>
-      <c r="D879" s="33"/>
-      <c r="E879" s="33"/>
+      <c r="A879" s="30"/>
+      <c r="B879" s="32"/>
+      <c r="C879" s="32"/>
+      <c r="D879" s="31"/>
+      <c r="E879" s="31"/>
     </row>
     <row r="880" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A880" s="32"/>
-      <c r="B880" s="34"/>
-      <c r="C880" s="34"/>
-      <c r="D880" s="33"/>
-      <c r="E880" s="33"/>
+      <c r="A880" s="30"/>
+      <c r="B880" s="32"/>
+      <c r="C880" s="32"/>
+      <c r="D880" s="31"/>
+      <c r="E880" s="31"/>
     </row>
     <row r="881" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A881" s="32"/>
-      <c r="B881" s="34"/>
-      <c r="C881" s="34"/>
-      <c r="D881" s="33"/>
-      <c r="E881" s="33"/>
+      <c r="A881" s="30"/>
+      <c r="B881" s="32"/>
+      <c r="C881" s="32"/>
+      <c r="D881" s="31"/>
+      <c r="E881" s="31"/>
     </row>
     <row r="882" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A882" s="32"/>
-      <c r="B882" s="34"/>
-      <c r="C882" s="34"/>
-      <c r="D882" s="33"/>
-      <c r="E882" s="33"/>
+      <c r="A882" s="30"/>
+      <c r="B882" s="32"/>
+      <c r="C882" s="32"/>
+      <c r="D882" s="31"/>
+      <c r="E882" s="31"/>
     </row>
     <row r="883" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A883" s="32"/>
-      <c r="B883" s="34"/>
-      <c r="C883" s="34"/>
-      <c r="D883" s="33"/>
-      <c r="E883" s="33"/>
+      <c r="A883" s="30"/>
+      <c r="B883" s="32"/>
+      <c r="C883" s="32"/>
+      <c r="D883" s="31"/>
+      <c r="E883" s="31"/>
     </row>
     <row r="884" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A884" s="32"/>
-      <c r="B884" s="34"/>
-      <c r="C884" s="34"/>
-      <c r="D884" s="33"/>
-      <c r="E884" s="33"/>
+      <c r="A884" s="30"/>
+      <c r="B884" s="32"/>
+      <c r="C884" s="32"/>
+      <c r="D884" s="31"/>
+      <c r="E884" s="31"/>
     </row>
     <row r="885" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A885" s="32"/>
-      <c r="B885" s="34"/>
-      <c r="C885" s="34"/>
-      <c r="D885" s="33"/>
-      <c r="E885" s="33"/>
+      <c r="A885" s="30"/>
+      <c r="B885" s="32"/>
+      <c r="C885" s="32"/>
+      <c r="D885" s="31"/>
+      <c r="E885" s="31"/>
     </row>
     <row r="886" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A886" s="32"/>
-      <c r="B886" s="34"/>
-      <c r="C886" s="34"/>
-      <c r="D886" s="33"/>
-      <c r="E886" s="33"/>
+      <c r="A886" s="30"/>
+      <c r="B886" s="32"/>
+      <c r="C886" s="32"/>
+      <c r="D886" s="31"/>
+      <c r="E886" s="31"/>
     </row>
     <row r="887" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A887" s="32"/>
-      <c r="B887" s="34"/>
-      <c r="C887" s="34"/>
-      <c r="D887" s="33"/>
-      <c r="E887" s="33"/>
+      <c r="A887" s="30"/>
+      <c r="B887" s="32"/>
+      <c r="C887" s="32"/>
+      <c r="D887" s="31"/>
+      <c r="E887" s="31"/>
     </row>
     <row r="888" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A888" s="32"/>
-      <c r="B888" s="34"/>
-      <c r="C888" s="34"/>
-      <c r="D888" s="33"/>
-      <c r="E888" s="33"/>
+      <c r="A888" s="30"/>
+      <c r="B888" s="32"/>
+      <c r="C888" s="32"/>
+      <c r="D888" s="31"/>
+      <c r="E888" s="31"/>
     </row>
     <row r="889" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A889" s="32"/>
-      <c r="B889" s="34"/>
-      <c r="C889" s="34"/>
-      <c r="D889" s="33"/>
-      <c r="E889" s="33"/>
+      <c r="A889" s="30"/>
+      <c r="B889" s="32"/>
+      <c r="C889" s="32"/>
+      <c r="D889" s="31"/>
+      <c r="E889" s="31"/>
     </row>
     <row r="890" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A890" s="32"/>
-      <c r="B890" s="34"/>
-      <c r="C890" s="34"/>
-      <c r="D890" s="33"/>
-      <c r="E890" s="33"/>
+      <c r="A890" s="30"/>
+      <c r="B890" s="32"/>
+      <c r="C890" s="32"/>
+      <c r="D890" s="31"/>
+      <c r="E890" s="31"/>
     </row>
     <row r="891" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A891" s="32"/>
-      <c r="B891" s="34"/>
-      <c r="C891" s="34"/>
-      <c r="D891" s="33"/>
-      <c r="E891" s="33"/>
+      <c r="A891" s="30"/>
+      <c r="B891" s="32"/>
+      <c r="C891" s="32"/>
+      <c r="D891" s="31"/>
+      <c r="E891" s="31"/>
     </row>
     <row r="892" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A892" s="32"/>
-      <c r="B892" s="34"/>
-      <c r="C892" s="34"/>
-      <c r="D892" s="33"/>
-      <c r="E892" s="33"/>
+      <c r="A892" s="30"/>
+      <c r="B892" s="32"/>
+      <c r="C892" s="32"/>
+      <c r="D892" s="31"/>
+      <c r="E892" s="31"/>
     </row>
     <row r="893" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A893" s="32"/>
-      <c r="B893" s="34"/>
-      <c r="C893" s="34"/>
-      <c r="D893" s="33"/>
-      <c r="E893" s="33"/>
+      <c r="A893" s="30"/>
+      <c r="B893" s="32"/>
+      <c r="C893" s="32"/>
+      <c r="D893" s="31"/>
+      <c r="E893" s="31"/>
     </row>
     <row r="894" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A894" s="32"/>
-      <c r="B894" s="34"/>
-      <c r="C894" s="34"/>
-      <c r="D894" s="33"/>
-      <c r="E894" s="33"/>
+      <c r="A894" s="30"/>
+      <c r="B894" s="32"/>
+      <c r="C894" s="32"/>
+      <c r="D894" s="31"/>
+      <c r="E894" s="31"/>
     </row>
     <row r="895" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A895" s="32"/>
-      <c r="B895" s="34"/>
-      <c r="C895" s="34"/>
-      <c r="D895" s="33"/>
-      <c r="E895" s="33"/>
+      <c r="A895" s="30"/>
+      <c r="B895" s="32"/>
+      <c r="C895" s="32"/>
+      <c r="D895" s="31"/>
+      <c r="E895" s="31"/>
     </row>
     <row r="896" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A896" s="32"/>
-      <c r="B896" s="34"/>
-      <c r="C896" s="34"/>
-      <c r="D896" s="33"/>
-      <c r="E896" s="33"/>
+      <c r="A896" s="30"/>
+      <c r="B896" s="32"/>
+      <c r="C896" s="32"/>
+      <c r="D896" s="31"/>
+      <c r="E896" s="31"/>
     </row>
     <row r="897" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A897" s="32"/>
-      <c r="B897" s="34"/>
-      <c r="C897" s="34"/>
-      <c r="D897" s="33"/>
-      <c r="E897" s="33"/>
+      <c r="A897" s="30"/>
+      <c r="B897" s="32"/>
+      <c r="C897" s="32"/>
+      <c r="D897" s="31"/>
+      <c r="E897" s="31"/>
     </row>
     <row r="898" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A898" s="32"/>
-      <c r="B898" s="34"/>
-      <c r="C898" s="34"/>
-      <c r="D898" s="33"/>
-      <c r="E898" s="33"/>
+      <c r="A898" s="30"/>
+      <c r="B898" s="32"/>
+      <c r="C898" s="32"/>
+      <c r="D898" s="31"/>
+      <c r="E898" s="31"/>
     </row>
     <row r="899" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A899" s="32"/>
-      <c r="B899" s="34"/>
-      <c r="C899" s="34"/>
-      <c r="D899" s="33"/>
-      <c r="E899" s="33"/>
+      <c r="A899" s="30"/>
+      <c r="B899" s="32"/>
+      <c r="C899" s="32"/>
+      <c r="D899" s="31"/>
+      <c r="E899" s="31"/>
     </row>
     <row r="900" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A900" s="32"/>
-      <c r="B900" s="34"/>
-      <c r="C900" s="34"/>
-      <c r="D900" s="33"/>
-      <c r="E900" s="33"/>
+      <c r="A900" s="30"/>
+      <c r="B900" s="32"/>
+      <c r="C900" s="32"/>
+      <c r="D900" s="31"/>
+      <c r="E900" s="31"/>
     </row>
     <row r="901" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A901" s="32"/>
-      <c r="B901" s="34"/>
-      <c r="C901" s="34"/>
-      <c r="D901" s="33"/>
-      <c r="E901" s="33"/>
+      <c r="A901" s="30"/>
+      <c r="B901" s="32"/>
+      <c r="C901" s="32"/>
+      <c r="D901" s="31"/>
+      <c r="E901" s="31"/>
     </row>
     <row r="902" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A902" s="32"/>
-      <c r="B902" s="34"/>
-      <c r="C902" s="34"/>
-      <c r="D902" s="33"/>
-      <c r="E902" s="33"/>
+      <c r="A902" s="30"/>
+      <c r="B902" s="32"/>
+      <c r="C902" s="32"/>
+      <c r="D902" s="31"/>
+      <c r="E902" s="31"/>
     </row>
     <row r="903" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A903" s="32"/>
-      <c r="B903" s="34"/>
-      <c r="C903" s="34"/>
-      <c r="D903" s="33"/>
-      <c r="E903" s="33"/>
+      <c r="A903" s="30"/>
+      <c r="B903" s="32"/>
+      <c r="C903" s="32"/>
+      <c r="D903" s="31"/>
+      <c r="E903" s="31"/>
     </row>
     <row r="904" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A904" s="32"/>
-      <c r="B904" s="34"/>
-      <c r="C904" s="34"/>
-      <c r="D904" s="33"/>
-      <c r="E904" s="33"/>
+      <c r="A904" s="30"/>
+      <c r="B904" s="32"/>
+      <c r="C904" s="32"/>
+      <c r="D904" s="31"/>
+      <c r="E904" s="31"/>
     </row>
     <row r="905" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A905" s="32"/>
-      <c r="B905" s="34"/>
-      <c r="C905" s="34"/>
-      <c r="D905" s="33"/>
-      <c r="E905" s="33"/>
+      <c r="A905" s="30"/>
+      <c r="B905" s="32"/>
+      <c r="C905" s="32"/>
+      <c r="D905" s="31"/>
+      <c r="E905" s="31"/>
     </row>
     <row r="906" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A906" s="32"/>
-      <c r="B906" s="34"/>
-      <c r="C906" s="34"/>
-      <c r="D906" s="33"/>
-      <c r="E906" s="33"/>
+      <c r="A906" s="30"/>
+      <c r="B906" s="32"/>
+      <c r="C906" s="32"/>
+      <c r="D906" s="31"/>
+      <c r="E906" s="31"/>
     </row>
     <row r="907" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A907" s="32"/>
-      <c r="B907" s="34"/>
-      <c r="C907" s="34"/>
-      <c r="D907" s="33"/>
-      <c r="E907" s="33"/>
+      <c r="A907" s="30"/>
+      <c r="B907" s="32"/>
+      <c r="C907" s="32"/>
+      <c r="D907" s="31"/>
+      <c r="E907" s="31"/>
     </row>
     <row r="908" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A908" s="32"/>
-      <c r="B908" s="34"/>
-      <c r="C908" s="34"/>
-      <c r="D908" s="33"/>
-      <c r="E908" s="33"/>
+      <c r="A908" s="30"/>
+      <c r="B908" s="32"/>
+      <c r="C908" s="32"/>
+      <c r="D908" s="31"/>
+      <c r="E908" s="31"/>
     </row>
     <row r="909" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A909" s="32"/>
-      <c r="B909" s="34"/>
-      <c r="C909" s="34"/>
-      <c r="D909" s="33"/>
-      <c r="E909" s="33"/>
+      <c r="A909" s="30"/>
+      <c r="B909" s="32"/>
+      <c r="C909" s="32"/>
+      <c r="D909" s="31"/>
+      <c r="E909" s="31"/>
     </row>
     <row r="910" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A910" s="32"/>
-      <c r="B910" s="34"/>
-      <c r="C910" s="34"/>
-      <c r="D910" s="33"/>
-      <c r="E910" s="33"/>
+      <c r="A910" s="30"/>
+      <c r="B910" s="32"/>
+      <c r="C910" s="32"/>
+      <c r="D910" s="31"/>
+      <c r="E910" s="31"/>
     </row>
     <row r="911" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A911" s="32"/>
-      <c r="B911" s="34"/>
-      <c r="C911" s="34"/>
-      <c r="D911" s="33"/>
-      <c r="E911" s="33"/>
+      <c r="A911" s="30"/>
+      <c r="B911" s="32"/>
+      <c r="C911" s="32"/>
+      <c r="D911" s="31"/>
+      <c r="E911" s="31"/>
     </row>
     <row r="912" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A912" s="32"/>
-      <c r="B912" s="34"/>
-      <c r="C912" s="34"/>
-      <c r="D912" s="33"/>
-      <c r="E912" s="33"/>
+      <c r="A912" s="30"/>
+      <c r="B912" s="32"/>
+      <c r="C912" s="32"/>
+      <c r="D912" s="31"/>
+      <c r="E912" s="31"/>
     </row>
     <row r="913" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A913" s="32"/>
-      <c r="B913" s="34"/>
-      <c r="C913" s="34"/>
-      <c r="D913" s="33"/>
-      <c r="E913" s="33"/>
+      <c r="A913" s="30"/>
+      <c r="B913" s="32"/>
+      <c r="C913" s="32"/>
+      <c r="D913" s="31"/>
+      <c r="E913" s="31"/>
     </row>
     <row r="914" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A914" s="32"/>
-      <c r="B914" s="34"/>
-      <c r="C914" s="34"/>
-      <c r="D914" s="33"/>
-      <c r="E914" s="33"/>
+      <c r="A914" s="30"/>
+      <c r="B914" s="32"/>
+      <c r="C914" s="32"/>
+      <c r="D914" s="31"/>
+      <c r="E914" s="31"/>
     </row>
     <row r="915" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A915" s="32"/>
-      <c r="B915" s="34"/>
-      <c r="C915" s="34"/>
-      <c r="D915" s="33"/>
-      <c r="E915" s="33"/>
+      <c r="A915" s="30"/>
+      <c r="B915" s="32"/>
+      <c r="C915" s="32"/>
+      <c r="D915" s="31"/>
+      <c r="E915" s="31"/>
     </row>
     <row r="916" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A916" s="32"/>
-      <c r="B916" s="34"/>
-      <c r="C916" s="34"/>
-      <c r="D916" s="33"/>
-      <c r="E916" s="33"/>
+      <c r="A916" s="30"/>
+      <c r="B916" s="32"/>
+      <c r="C916" s="32"/>
+      <c r="D916" s="31"/>
+      <c r="E916" s="31"/>
     </row>
     <row r="917" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A917" s="32"/>
-      <c r="B917" s="34"/>
-      <c r="C917" s="34"/>
-      <c r="D917" s="33"/>
-      <c r="E917" s="33"/>
+      <c r="A917" s="30"/>
+      <c r="B917" s="32"/>
+      <c r="C917" s="32"/>
+      <c r="D917" s="31"/>
+      <c r="E917" s="31"/>
     </row>
     <row r="918" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A918" s="32"/>
-      <c r="B918" s="34"/>
-      <c r="C918" s="34"/>
-      <c r="D918" s="33"/>
-      <c r="E918" s="33"/>
+      <c r="A918" s="30"/>
+      <c r="B918" s="32"/>
+      <c r="C918" s="32"/>
+      <c r="D918" s="31"/>
+      <c r="E918" s="31"/>
     </row>
     <row r="919" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A919" s="32"/>
-      <c r="B919" s="34"/>
-      <c r="C919" s="34"/>
-      <c r="D919" s="33"/>
-      <c r="E919" s="33"/>
+      <c r="A919" s="30"/>
+      <c r="B919" s="32"/>
+      <c r="C919" s="32"/>
+      <c r="D919" s="31"/>
+      <c r="E919" s="31"/>
     </row>
     <row r="920" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A920" s="32"/>
-      <c r="B920" s="34"/>
-      <c r="C920" s="34"/>
-      <c r="D920" s="33"/>
-      <c r="E920" s="33"/>
+      <c r="A920" s="30"/>
+      <c r="B920" s="32"/>
+      <c r="C920" s="32"/>
+      <c r="D920" s="31"/>
+      <c r="E920" s="31"/>
     </row>
     <row r="921" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A921" s="32"/>
-      <c r="B921" s="34"/>
-      <c r="C921" s="34"/>
-      <c r="D921" s="33"/>
-      <c r="E921" s="33"/>
+      <c r="A921" s="30"/>
+      <c r="B921" s="32"/>
+      <c r="C921" s="32"/>
+      <c r="D921" s="31"/>
+      <c r="E921" s="31"/>
     </row>
     <row r="922" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A922" s="32"/>
-      <c r="B922" s="34"/>
-      <c r="C922" s="34"/>
-      <c r="D922" s="33"/>
-      <c r="E922" s="33"/>
+      <c r="A922" s="30"/>
+      <c r="B922" s="32"/>
+      <c r="C922" s="32"/>
+      <c r="D922" s="31"/>
+      <c r="E922" s="31"/>
     </row>
     <row r="923" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A923" s="32"/>
-      <c r="B923" s="34"/>
-      <c r="C923" s="34"/>
-      <c r="D923" s="33"/>
-      <c r="E923" s="33"/>
+      <c r="A923" s="30"/>
+      <c r="B923" s="32"/>
+      <c r="C923" s="32"/>
+      <c r="D923" s="31"/>
+      <c r="E923" s="31"/>
     </row>
     <row r="924" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A924" s="32"/>
-      <c r="B924" s="34"/>
-      <c r="C924" s="34"/>
-      <c r="D924" s="33"/>
-      <c r="E924" s="33"/>
+      <c r="A924" s="30"/>
+      <c r="B924" s="32"/>
+      <c r="C924" s="32"/>
+      <c r="D924" s="31"/>
+      <c r="E924" s="31"/>
     </row>
     <row r="925" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A925" s="32"/>
-      <c r="B925" s="34"/>
-      <c r="C925" s="34"/>
-      <c r="D925" s="33"/>
-      <c r="E925" s="33"/>
+      <c r="A925" s="30"/>
+      <c r="B925" s="32"/>
+      <c r="C925" s="32"/>
+      <c r="D925" s="31"/>
+      <c r="E925" s="31"/>
     </row>
     <row r="926" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A926" s="32"/>
-      <c r="B926" s="34"/>
-      <c r="C926" s="34"/>
-      <c r="D926" s="33"/>
-      <c r="E926" s="33"/>
+      <c r="A926" s="30"/>
+      <c r="B926" s="32"/>
+      <c r="C926" s="32"/>
+      <c r="D926" s="31"/>
+      <c r="E926" s="31"/>
     </row>
     <row r="927" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A927" s="32"/>
-      <c r="B927" s="34"/>
-      <c r="C927" s="34"/>
-      <c r="D927" s="33"/>
-      <c r="E927" s="33"/>
+      <c r="A927" s="30"/>
+      <c r="B927" s="32"/>
+      <c r="C927" s="32"/>
+      <c r="D927" s="31"/>
+      <c r="E927" s="31"/>
     </row>
     <row r="928" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A928" s="32"/>
-      <c r="B928" s="34"/>
-      <c r="C928" s="34"/>
-      <c r="D928" s="33"/>
-      <c r="E928" s="33"/>
+      <c r="A928" s="30"/>
+      <c r="B928" s="32"/>
+      <c r="C928" s="32"/>
+      <c r="D928" s="31"/>
+      <c r="E928" s="31"/>
     </row>
     <row r="929" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A929" s="32"/>
-      <c r="B929" s="34"/>
-      <c r="C929" s="34"/>
-      <c r="D929" s="33"/>
-      <c r="E929" s="33"/>
+      <c r="A929" s="30"/>
+      <c r="B929" s="32"/>
+      <c r="C929" s="32"/>
+      <c r="D929" s="31"/>
+      <c r="E929" s="31"/>
     </row>
     <row r="930" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A930" s="32"/>
-      <c r="B930" s="34"/>
-      <c r="C930" s="34"/>
-      <c r="D930" s="33"/>
-      <c r="E930" s="33"/>
+      <c r="A930" s="30"/>
+      <c r="B930" s="32"/>
+      <c r="C930" s="32"/>
+      <c r="D930" s="31"/>
+      <c r="E930" s="31"/>
     </row>
     <row r="931" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A931" s="32"/>
-      <c r="B931" s="34"/>
-      <c r="C931" s="34"/>
-      <c r="D931" s="33"/>
-      <c r="E931" s="33"/>
+      <c r="A931" s="30"/>
+      <c r="B931" s="32"/>
+      <c r="C931" s="32"/>
+      <c r="D931" s="31"/>
+      <c r="E931" s="31"/>
     </row>
     <row r="932" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A932" s="32"/>
-      <c r="B932" s="34"/>
-      <c r="C932" s="34"/>
-      <c r="D932" s="33"/>
-      <c r="E932" s="33"/>
+      <c r="A932" s="30"/>
+      <c r="B932" s="32"/>
+      <c r="C932" s="32"/>
+      <c r="D932" s="31"/>
+      <c r="E932" s="31"/>
     </row>
     <row r="933" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A933" s="32"/>
-      <c r="B933" s="34"/>
-      <c r="C933" s="34"/>
-      <c r="D933" s="33"/>
-      <c r="E933" s="33"/>
+      <c r="A933" s="30"/>
+      <c r="B933" s="32"/>
+      <c r="C933" s="32"/>
+      <c r="D933" s="31"/>
+      <c r="E933" s="31"/>
     </row>
     <row r="934" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A934" s="32"/>
-      <c r="B934" s="34"/>
-      <c r="C934" s="34"/>
-      <c r="D934" s="33"/>
-      <c r="E934" s="33"/>
+      <c r="A934" s="30"/>
+      <c r="B934" s="32"/>
+      <c r="C934" s="32"/>
+      <c r="D934" s="31"/>
+      <c r="E934" s="31"/>
     </row>
     <row r="935" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A935" s="32"/>
-      <c r="B935" s="34"/>
-      <c r="C935" s="34"/>
-      <c r="D935" s="33"/>
-      <c r="E935" s="33"/>
+      <c r="A935" s="30"/>
+      <c r="B935" s="32"/>
+      <c r="C935" s="32"/>
+      <c r="D935" s="31"/>
+      <c r="E935" s="31"/>
     </row>
     <row r="936" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A936" s="32"/>
-      <c r="B936" s="34"/>
-      <c r="C936" s="34"/>
-      <c r="D936" s="33"/>
-      <c r="E936" s="33"/>
+      <c r="A936" s="30"/>
+      <c r="B936" s="32"/>
+      <c r="C936" s="32"/>
+      <c r="D936" s="31"/>
+      <c r="E936" s="31"/>
     </row>
     <row r="937" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A937" s="32"/>
-      <c r="B937" s="34"/>
-      <c r="C937" s="34"/>
-      <c r="D937" s="33"/>
-      <c r="E937" s="33"/>
+      <c r="A937" s="30"/>
+      <c r="B937" s="32"/>
+      <c r="C937" s="32"/>
+      <c r="D937" s="31"/>
+      <c r="E937" s="31"/>
     </row>
     <row r="938" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A938" s="32"/>
-      <c r="B938" s="34"/>
-      <c r="C938" s="34"/>
-      <c r="D938" s="33"/>
-      <c r="E938" s="33"/>
+      <c r="A938" s="30"/>
+      <c r="B938" s="32"/>
+      <c r="C938" s="32"/>
+      <c r="D938" s="31"/>
+      <c r="E938" s="31"/>
     </row>
     <row r="939" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A939" s="32"/>
-      <c r="B939" s="34"/>
-      <c r="C939" s="34"/>
-      <c r="D939" s="33"/>
-      <c r="E939" s="33"/>
+      <c r="A939" s="30"/>
+      <c r="B939" s="32"/>
+      <c r="C939" s="32"/>
+      <c r="D939" s="31"/>
+      <c r="E939" s="31"/>
     </row>
     <row r="940" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A940" s="32"/>
-      <c r="B940" s="34"/>
-      <c r="C940" s="34"/>
-      <c r="D940" s="33"/>
-      <c r="E940" s="33"/>
+      <c r="A940" s="30"/>
+      <c r="B940" s="32"/>
+      <c r="C940" s="32"/>
+      <c r="D940" s="31"/>
+      <c r="E940" s="31"/>
     </row>
     <row r="941" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A941" s="32"/>
-      <c r="B941" s="34"/>
-      <c r="C941" s="34"/>
-      <c r="D941" s="33"/>
-      <c r="E941" s="33"/>
+      <c r="A941" s="30"/>
+      <c r="B941" s="32"/>
+      <c r="C941" s="32"/>
+      <c r="D941" s="31"/>
+      <c r="E941" s="31"/>
     </row>
     <row r="942" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A942" s="32"/>
-      <c r="B942" s="34"/>
-      <c r="C942" s="34"/>
-      <c r="D942" s="33"/>
-      <c r="E942" s="33"/>
+      <c r="A942" s="30"/>
+      <c r="B942" s="32"/>
+      <c r="C942" s="32"/>
+      <c r="D942" s="31"/>
+      <c r="E942" s="31"/>
     </row>
     <row r="943" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A943" s="32"/>
-      <c r="B943" s="34"/>
-      <c r="C943" s="34"/>
-      <c r="D943" s="33"/>
-      <c r="E943" s="33"/>
+      <c r="A943" s="30"/>
+      <c r="B943" s="32"/>
+      <c r="C943" s="32"/>
+      <c r="D943" s="31"/>
+      <c r="E943" s="31"/>
     </row>
     <row r="944" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A944" s="32"/>
-      <c r="B944" s="34"/>
-      <c r="C944" s="34"/>
-      <c r="D944" s="33"/>
-      <c r="E944" s="33"/>
+      <c r="A944" s="30"/>
+      <c r="B944" s="32"/>
+      <c r="C944" s="32"/>
+      <c r="D944" s="31"/>
+      <c r="E944" s="31"/>
     </row>
     <row r="945" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A945" s="32"/>
-      <c r="B945" s="34"/>
-      <c r="C945" s="34"/>
-      <c r="D945" s="33"/>
-      <c r="E945" s="33"/>
+      <c r="A945" s="30"/>
+      <c r="B945" s="32"/>
+      <c r="C945" s="32"/>
+      <c r="D945" s="31"/>
+      <c r="E945" s="31"/>
     </row>
     <row r="946" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A946" s="32"/>
-      <c r="B946" s="34"/>
-      <c r="C946" s="34"/>
-      <c r="D946" s="33"/>
-      <c r="E946" s="33"/>
+      <c r="A946" s="30"/>
+      <c r="B946" s="32"/>
+      <c r="C946" s="32"/>
+      <c r="D946" s="31"/>
+      <c r="E946" s="31"/>
     </row>
     <row r="947" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A947" s="32"/>
-      <c r="B947" s="34"/>
-      <c r="C947" s="34"/>
-      <c r="D947" s="33"/>
-      <c r="E947" s="33"/>
+      <c r="A947" s="30"/>
+      <c r="B947" s="32"/>
+      <c r="C947" s="32"/>
+      <c r="D947" s="31"/>
+      <c r="E947" s="31"/>
     </row>
     <row r="948" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A948" s="32"/>
-      <c r="B948" s="34"/>
-      <c r="C948" s="34"/>
-      <c r="D948" s="33"/>
-      <c r="E948" s="33"/>
+      <c r="A948" s="30"/>
+      <c r="B948" s="32"/>
+      <c r="C948" s="32"/>
+      <c r="D948" s="31"/>
+      <c r="E948" s="31"/>
     </row>
     <row r="949" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A949" s="32"/>
-      <c r="B949" s="34"/>
-      <c r="C949" s="34"/>
-      <c r="D949" s="33"/>
-      <c r="E949" s="33"/>
+      <c r="A949" s="30"/>
+      <c r="B949" s="32"/>
+      <c r="C949" s="32"/>
+      <c r="D949" s="31"/>
+      <c r="E949" s="31"/>
     </row>
     <row r="950" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A950" s="32"/>
-      <c r="B950" s="34"/>
-      <c r="C950" s="34"/>
-      <c r="D950" s="33"/>
-      <c r="E950" s="33"/>
-    </row>
-    <row r="951" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A951" s="32"/>
-      <c r="B951" s="34"/>
-      <c r="C951" s="34"/>
-      <c r="D951" s="33"/>
-      <c r="E951" s="33"/>
-    </row>
-    <row r="952" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A952" s="32"/>
-      <c r="B952" s="34"/>
-      <c r="C952" s="34"/>
-      <c r="D952" s="33"/>
-      <c r="E952" s="33"/>
-    </row>
-    <row r="953" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A953" s="32"/>
-      <c r="B953" s="34"/>
-      <c r="C953" s="34"/>
-      <c r="D953" s="33"/>
-      <c r="E953" s="33"/>
-    </row>
-    <row r="954" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A954" s="32"/>
-      <c r="B954" s="34"/>
-      <c r="C954" s="34"/>
-      <c r="D954" s="33"/>
-      <c r="E954" s="33"/>
-    </row>
-    <row r="955" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A955" s="32"/>
-      <c r="B955" s="34"/>
-      <c r="C955" s="34"/>
-      <c r="D955" s="33"/>
-      <c r="E955" s="33"/>
-    </row>
-    <row r="956" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A956" s="32"/>
-      <c r="B956" s="34"/>
-      <c r="C956" s="34"/>
-      <c r="D956" s="33"/>
-      <c r="E956" s="33"/>
-    </row>
-    <row r="957" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A957" s="32"/>
-      <c r="B957" s="34"/>
-      <c r="C957" s="34"/>
-      <c r="D957" s="33"/>
-      <c r="E957" s="33"/>
-    </row>
-    <row r="958" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A958" s="32"/>
-      <c r="B958" s="34"/>
-      <c r="C958" s="34"/>
-      <c r="D958" s="33"/>
-      <c r="E958" s="33"/>
-    </row>
-    <row r="959" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A959" s="32"/>
-      <c r="B959" s="34"/>
-      <c r="C959" s="34"/>
-      <c r="D959" s="33"/>
-      <c r="E959" s="33"/>
-    </row>
-    <row r="960" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A960" s="32"/>
-      <c r="B960" s="34"/>
-      <c r="C960" s="34"/>
-      <c r="D960" s="33"/>
-      <c r="E960" s="33"/>
-    </row>
-    <row r="961" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A961" s="32"/>
-      <c r="B961" s="34"/>
-      <c r="C961" s="34"/>
-      <c r="D961" s="33"/>
-      <c r="E961" s="33"/>
-    </row>
-    <row r="962" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A962" s="32"/>
-      <c r="B962" s="34"/>
-      <c r="C962" s="34"/>
-      <c r="D962" s="33"/>
-      <c r="E962" s="33"/>
+      <c r="A950" s="30"/>
+      <c r="B950" s="32"/>
+      <c r="C950" s="32"/>
+      <c r="D950" s="31"/>
+      <c r="E950" s="31"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B427:B475 B522:B528 C389 C391:C392 C404:C405 C495 C431 C434 C427 C443 C494 C448:C449 C478:C493" xr:uid="{7B7669A9-4302-4CFA-BCAD-44E41586CAB0}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C339" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C345" r:id="rId2" tooltip="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -12578,6 +14987,134 @@
     <hyperlink ref="C375" r:id="rId209" xr:uid="{EE14D065-016F-48B1-B720-28DBF948E789}"/>
     <hyperlink ref="C379" r:id="rId210" xr:uid="{4A05D73F-A470-4C96-8D80-9B6ECB646968}"/>
     <hyperlink ref="C380" r:id="rId211" location="jobs" xr:uid="{D68DD36A-944C-4680-881D-069934E281D5}"/>
+    <hyperlink ref="C382" r:id="rId212" xr:uid="{75F79101-A17A-4214-81AC-675A95CB6C94}"/>
+    <hyperlink ref="C383" r:id="rId213" xr:uid="{4DB00466-CFAF-4F44-B2CD-2A3A577B1A88}"/>
+    <hyperlink ref="C384" r:id="rId214" xr:uid="{7E037188-BDCB-420C-AFBF-27B40096CB03}"/>
+    <hyperlink ref="C385" r:id="rId215" location="job-list" xr:uid="{F8E016D1-6E8C-492F-92D0-013938B39C32}"/>
+    <hyperlink ref="C386" r:id="rId216" xr:uid="{9B1F7119-0C32-49E9-B155-38439847E947}"/>
+    <hyperlink ref="C124" r:id="rId217" xr:uid="{385F64F0-A4B5-46DB-A261-FECB15CCB234}"/>
+    <hyperlink ref="C387" r:id="rId218" xr:uid="{607F3620-85B2-44DB-9793-E79FED1E570A}"/>
+    <hyperlink ref="C388" r:id="rId219" xr:uid="{E512B211-8A1F-4494-8099-2E590F0AEC79}"/>
+    <hyperlink ref="C390" r:id="rId220" xr:uid="{B71DED85-F49F-4717-B946-51CE25BCFBA8}"/>
+    <hyperlink ref="C393" r:id="rId221" xr:uid="{B4FCDC76-43DE-4B27-818D-FD00D152C469}"/>
+    <hyperlink ref="C394" r:id="rId222" xr:uid="{0266DD09-40B5-44BB-9F98-09951C678C8A}"/>
+    <hyperlink ref="C395" r:id="rId223" xr:uid="{5203411E-779A-417B-8852-2D754CE336AA}"/>
+    <hyperlink ref="C396" r:id="rId224" location="footer" xr:uid="{645A81D9-BB24-42C8-97EF-B073C1E2FAA7}"/>
+    <hyperlink ref="C397" r:id="rId225" xr:uid="{9E3E6648-7303-4B19-B871-2C26BCB97C22}"/>
+    <hyperlink ref="C398" r:id="rId226" xr:uid="{D9DA7CD4-D7D9-4FAC-AD86-FFB32E43EEC8}"/>
+    <hyperlink ref="C399" r:id="rId227" xr:uid="{52F68CCB-1338-43B7-8484-AEAD8D531A82}"/>
+    <hyperlink ref="C400" r:id="rId228" xr:uid="{AEA95733-B068-4BA0-BF8A-6E8530B54258}"/>
+    <hyperlink ref="C401" r:id="rId229" xr:uid="{05428F15-77F2-4F1C-826F-2813E0FF4FEE}"/>
+    <hyperlink ref="C402" r:id="rId230" xr:uid="{2FBBB692-85E7-4765-88CE-6B3595C28049}"/>
+    <hyperlink ref="C403" r:id="rId231" xr:uid="{26FB04E7-F3FB-4AD8-8961-89F2A5C26CC3}"/>
+    <hyperlink ref="C407" r:id="rId232" xr:uid="{7B570874-A3B5-4237-92C0-08D246279045}"/>
+    <hyperlink ref="C408" r:id="rId233" xr:uid="{E41F52BE-F20A-4794-A9E6-2076CE080D2B}"/>
+    <hyperlink ref="C409" r:id="rId234" xr:uid="{54A8A861-2A19-4B9A-9B9C-E267A7D1FA4C}"/>
+    <hyperlink ref="C410" r:id="rId235" xr:uid="{390188E5-556C-4E55-9CAD-047468D3014D}"/>
+    <hyperlink ref="C411" r:id="rId236" xr:uid="{73042411-0C28-4D58-BEA7-51E040CBC072}"/>
+    <hyperlink ref="C412" r:id="rId237" xr:uid="{187CC25A-9832-44B4-BBD6-3F0C716A1D59}"/>
+    <hyperlink ref="C413" r:id="rId238" xr:uid="{C8D14323-886A-4C99-BBAD-5A6804788B97}"/>
+    <hyperlink ref="C414" r:id="rId239" xr:uid="{F888EE9A-6002-462A-9193-D78425D7222A}"/>
+    <hyperlink ref="C415" r:id="rId240" xr:uid="{04F9A94D-6C15-41A3-A1FC-249B0E6E1262}"/>
+    <hyperlink ref="C416" r:id="rId241" location="job-listings" xr:uid="{2EDFDAD9-2FB8-46AD-9BFA-4F5FD8501FB3}"/>
+    <hyperlink ref="C417" r:id="rId242" xr:uid="{85DD1D78-81DB-46C2-AEC3-D237AA706194}"/>
+    <hyperlink ref="C418" r:id="rId243" xr:uid="{351C3D3B-5234-4524-9234-3BED9250C1AB}"/>
+    <hyperlink ref="C419" r:id="rId244" xr:uid="{0C393E2E-C515-4B5D-91E7-771D10DB0F72}"/>
+    <hyperlink ref="C420" r:id="rId245" xr:uid="{4E3B57A8-C7A9-48C4-87F3-497706998842}"/>
+    <hyperlink ref="C421" r:id="rId246" xr:uid="{219B6C43-F4CF-4749-B27F-8ABD59078F6D}"/>
+    <hyperlink ref="C422" r:id="rId247" xr:uid="{C17BFEA6-A551-4473-9314-F8357A1E7EB2}"/>
+    <hyperlink ref="C423" r:id="rId248" xr:uid="{1B5106FC-71A5-43E4-87D9-4E41277C55DA}"/>
+    <hyperlink ref="C424" r:id="rId249" xr:uid="{0E7EFFBA-3CBE-40EE-BD4D-298DA43E0A49}"/>
+    <hyperlink ref="C425" r:id="rId250" xr:uid="{92C462B6-F6C8-45EE-8ED6-ED46CBC0615B}"/>
+    <hyperlink ref="C428" r:id="rId251" xr:uid="{73C255F1-B587-48CF-A2D4-F1695734EFDA}"/>
+    <hyperlink ref="C429" r:id="rId252" xr:uid="{0561010E-6A52-4BC2-8CF8-8DE023506CC2}"/>
+    <hyperlink ref="C430" r:id="rId253" location="js-careers-jobs-block" xr:uid="{95AB5F87-4627-4254-B97A-F9DC32483DF3}"/>
+    <hyperlink ref="C432" r:id="rId254" xr:uid="{ED957A13-45AD-4400-9DB4-B3F1E69919A6}"/>
+    <hyperlink ref="C433" r:id="rId255" xr:uid="{76E205DC-BD1D-40A8-BB35-6497476ADC19}"/>
+    <hyperlink ref="C435" r:id="rId256" xr:uid="{3C8D9DCE-EA3F-45A8-B3E7-EEFCDB9FB63A}"/>
+    <hyperlink ref="C436" r:id="rId257" xr:uid="{9871728B-47C4-40CC-A332-F67A36895B9B}"/>
+    <hyperlink ref="C437" r:id="rId258" xr:uid="{0B7EAC9E-4B1E-4F0C-BB8E-CCC2E1C90AC6}"/>
+    <hyperlink ref="C438" r:id="rId259" xr:uid="{7063837C-853A-4386-A672-D42442A36615}"/>
+    <hyperlink ref="C439" r:id="rId260" xr:uid="{22E7FC79-9D5B-48CE-BB13-7C987C36A3C8}"/>
+    <hyperlink ref="C440" r:id="rId261" xr:uid="{6042F2FC-CF1C-4BC8-BF60-21980619AC8C}"/>
+    <hyperlink ref="C442" r:id="rId262" xr:uid="{74484D74-1BF7-454C-B8E3-58550C65858E}"/>
+    <hyperlink ref="C444" r:id="rId263" location="work-for-us-6" xr:uid="{7B859504-08DC-46EC-B256-0CE70FD359C5}"/>
+    <hyperlink ref="C445" r:id="rId264" xr:uid="{660E2D92-42E4-4C9F-8BEA-DD897B34D072}"/>
+    <hyperlink ref="C446" r:id="rId265" xr:uid="{FA24D71F-C3E5-4958-9199-F6ED641C6328}"/>
+    <hyperlink ref="C447" r:id="rId266" xr:uid="{8A15888C-BF1D-4F40-BABB-D3B89A467A9B}"/>
+    <hyperlink ref="C450" r:id="rId267" xr:uid="{EE82782C-1068-4827-9B35-770556BB8B7B}"/>
+    <hyperlink ref="C451" r:id="rId268" xr:uid="{D0BFA820-C5C6-4F07-8D75-899FBB56D584}"/>
+    <hyperlink ref="C452" r:id="rId269" xr:uid="{3FF0C438-BDB8-4CD7-B637-DE6B7EC39AC9}"/>
+    <hyperlink ref="C453" r:id="rId270" xr:uid="{B537C3DE-BDC3-4B6A-96AC-44403BCD4CA2}"/>
+    <hyperlink ref="C454" r:id="rId271" xr:uid="{598A9443-D519-43FF-8AEF-FE089D46B58D}"/>
+    <hyperlink ref="C455" r:id="rId272" xr:uid="{8E651C26-FA83-49A8-B64D-AE32BF45FFD8}"/>
+    <hyperlink ref="C456" r:id="rId273" display="https://join.estrid.com/jobs?_gl=1*o2mc52*_gcl_au*NTQ1NjA2NDYxLjE3MjA1MzY1NDQ.*_ga*MTUwMjg1NTAyOS4xNzIwNTM2NTQ0*_fplc*SzNYUEpUcU84dCUyRkJQcGRtRmJzU3JvelRaRjhWZ2NPUyUyRmh2N2pvTTclMkJDeEZoQmd4ZUJTMkVXVGhyV2I4aklFbkV6N1d4cyUyQnUxY2pYMlpneXViMWxGajRZdWVsaEFDaWl5VFZRaUxmaTFwdFN4dWs2emtralF6U3klMkZHcVhmQSUzRCUzRA.." xr:uid="{8AD76E76-7894-4B63-82DC-1C36DFD48F1D}"/>
+    <hyperlink ref="C457" r:id="rId274" xr:uid="{5DBCC9E4-76F7-48B9-BB31-4F0F8CCE3273}"/>
+    <hyperlink ref="C458" r:id="rId275" location="jobs" xr:uid="{9A78DA0C-D25F-4345-A579-D442EB34D598}"/>
+    <hyperlink ref="C459" r:id="rId276" xr:uid="{28F735C0-0CAF-4074-939E-606BC57C70CC}"/>
+    <hyperlink ref="C460" r:id="rId277" xr:uid="{A91A8138-CD0B-4883-8D4C-C6A9268A3027}"/>
+    <hyperlink ref="C461" r:id="rId278" xr:uid="{A3540439-7D14-4514-A512-F1F444EDF1F2}"/>
+    <hyperlink ref="C462" r:id="rId279" xr:uid="{4309B97D-B8A3-4806-9AF8-46442244D1F7}"/>
+    <hyperlink ref="C463" r:id="rId280" xr:uid="{A7FE012F-E629-4A2B-8D66-51CAE69F9D2A}"/>
+    <hyperlink ref="C464" r:id="rId281" xr:uid="{0F7F8048-4CE7-4781-8454-38B14862CCEB}"/>
+    <hyperlink ref="C465" r:id="rId282" location="results" xr:uid="{5900C995-0A4C-4051-A493-91F1B1CA8602}"/>
+    <hyperlink ref="C466" r:id="rId283" xr:uid="{84458F10-C440-4D22-B4BD-537FDA503822}"/>
+    <hyperlink ref="C467" r:id="rId284" xr:uid="{AC7A0839-E305-4129-9F0B-B6858E11465E}"/>
+    <hyperlink ref="C468" r:id="rId285" xr:uid="{0AF199DC-DCBD-4A88-B5ED-3DED5F06BD50}"/>
+    <hyperlink ref="C469" r:id="rId286" location="jobs" xr:uid="{49F1E6C9-31B1-46D2-B16C-3447797B69CF}"/>
+    <hyperlink ref="C470" r:id="rId287" xr:uid="{B3C12728-3493-4973-98A9-2D2FF26D39AD}"/>
+    <hyperlink ref="C471" r:id="rId288" xr:uid="{F355FAB1-E92D-4284-B34F-B1AE655EF321}"/>
+    <hyperlink ref="C472" r:id="rId289" xr:uid="{0CD77BF8-3D84-4E63-8248-39C841A77F19}"/>
+    <hyperlink ref="C473" r:id="rId290" xr:uid="{ADF01695-41A2-49AA-B786-C2A5EACCC2FE}"/>
+    <hyperlink ref="C474" r:id="rId291" xr:uid="{D7FD2A90-9F97-41E2-8886-E1345168ECB4}"/>
+    <hyperlink ref="C475" r:id="rId292" xr:uid="{3DB3DCF1-822B-45E1-9247-2DC5BD35E339}"/>
+    <hyperlink ref="C476" r:id="rId293" xr:uid="{1ECBC8F5-389A-4025-B099-34F7108D0AC9}"/>
+    <hyperlink ref="C477" r:id="rId294" xr:uid="{2C20011B-C6FC-47FE-BAEF-9008B9068BEA}"/>
+    <hyperlink ref="C478" r:id="rId295" xr:uid="{745B221C-1A62-452F-9B37-916EB8F7B2A7}"/>
+    <hyperlink ref="C479" r:id="rId296" xr:uid="{A9B79BA8-A5EF-41C2-B7EA-9524A7CEFE6A}"/>
+    <hyperlink ref="C480" r:id="rId297" xr:uid="{BB01311C-0EF9-48D7-A8CF-74187E27A6CB}"/>
+    <hyperlink ref="C481" r:id="rId298" location="/" xr:uid="{6425F3E5-C6D2-4C9E-9E29-21938D862925}"/>
+    <hyperlink ref="C482" r:id="rId299" xr:uid="{16C689B4-B49B-49BB-B58C-CEACE47DCF7E}"/>
+    <hyperlink ref="C483" r:id="rId300" location="jobs" xr:uid="{D812AD65-FB35-4F0B-AC71-4D2E7208C963}"/>
+    <hyperlink ref="C484" r:id="rId301" xr:uid="{E0537F17-8AFC-491F-8837-0EECAAF1B4FF}"/>
+    <hyperlink ref="C485" r:id="rId302" xr:uid="{EB9FA54E-6E00-416C-A95C-C28AF057004D}"/>
+    <hyperlink ref="C486" r:id="rId303" xr:uid="{E9796651-3A69-4A60-A88B-57BB7F62852D}"/>
+    <hyperlink ref="C487" r:id="rId304" xr:uid="{3BC81D31-3A6E-453E-A474-7F70794FFBC2}"/>
+    <hyperlink ref="C488" r:id="rId305" xr:uid="{A7867AA7-45BF-4B7D-9D89-B11FA84410CB}"/>
+    <hyperlink ref="C489" r:id="rId306" xr:uid="{2EFDC3CB-11B7-47F8-992D-260C1D165F3D}"/>
+    <hyperlink ref="C490" r:id="rId307" xr:uid="{2C26F75E-7082-4C40-B0D4-A1799FBC9ACF}"/>
+    <hyperlink ref="C491" r:id="rId308" xr:uid="{6EE3C5E2-8059-462F-BBC7-144A70F4F1B4}"/>
+    <hyperlink ref="C492" r:id="rId309" xr:uid="{95A3867C-954A-4017-9B40-152B246734A8}"/>
+    <hyperlink ref="C493" r:id="rId310" xr:uid="{38B20A22-545F-4BDF-82A9-B4C8373472E3}"/>
+    <hyperlink ref="C449" r:id="rId311" xr:uid="{04EAAA9C-CAF7-4B95-9F94-49577E4FC24A}"/>
+    <hyperlink ref="C448" r:id="rId312" xr:uid="{8596DE6F-9416-4B9B-9919-299D193EBED4}"/>
+    <hyperlink ref="C494" r:id="rId313" xr:uid="{8CC5100A-AFBD-4DFE-A16D-80D87B572967}"/>
+    <hyperlink ref="C443" r:id="rId314" xr:uid="{35385A1F-F682-4552-BBBA-64B79B15B4F6}"/>
+    <hyperlink ref="C441" r:id="rId315" xr:uid="{59629D51-5847-4751-A773-6C88A3E1C31A}"/>
+    <hyperlink ref="C434" r:id="rId316" xr:uid="{D644B326-5890-4253-B5C2-23D7EC2E655C}"/>
+    <hyperlink ref="C431" r:id="rId317" xr:uid="{222BCD6B-C14C-45B3-A372-B8E6257ED985}"/>
+    <hyperlink ref="C427" r:id="rId318" xr:uid="{AE522730-36C1-421E-BFC9-8D58335B050A}"/>
+    <hyperlink ref="C495" r:id="rId319" xr:uid="{C3E404C9-99FB-444C-BF40-59AA7F6EF1DA}"/>
+    <hyperlink ref="C426" r:id="rId320" xr:uid="{6A56D44B-54A9-4F81-8F93-AB3AD6E3861A}"/>
+    <hyperlink ref="C406" r:id="rId321" xr:uid="{CB760AE7-F165-4D5D-BD77-879D27FA3E0D}"/>
+    <hyperlink ref="C405" r:id="rId322" xr:uid="{9540E51F-D5D5-4DFE-BD29-EBF90689BFA9}"/>
+    <hyperlink ref="C404" r:id="rId323" xr:uid="{4A2669DA-6402-4EFB-89A5-C6A93B273C15}"/>
+    <hyperlink ref="C391" r:id="rId324" xr:uid="{30E40F63-A110-48EF-B3A2-BBD82FFBD11C}"/>
+    <hyperlink ref="C389" r:id="rId325" xr:uid="{F73B9CB3-951E-418B-BD4B-D367F104CA3B}"/>
+    <hyperlink ref="C392" r:id="rId326" xr:uid="{D9661148-7898-430A-A545-EFA309926760}"/>
+    <hyperlink ref="C516" r:id="rId327" xr:uid="{2ECFDE64-A249-4042-88C9-CAF60BB67DD1}"/>
+    <hyperlink ref="C517" r:id="rId328" xr:uid="{43914B23-42F7-49C2-B462-B5B71DD56071}"/>
+    <hyperlink ref="C518" r:id="rId329" xr:uid="{72D73B42-5BC1-4A87-9D0B-B91768857BF0}"/>
+    <hyperlink ref="C519" r:id="rId330" xr:uid="{D12658DC-28BC-44F2-9CC7-0991813C3B53}"/>
+    <hyperlink ref="C520" r:id="rId331" xr:uid="{EC23E1FA-E4EE-4793-A465-0E688F61C1D6}"/>
+    <hyperlink ref="C521" r:id="rId332" xr:uid="{B20B8B75-6721-4839-9F65-42A1548794D1}"/>
+    <hyperlink ref="C522" r:id="rId333" xr:uid="{6FD798BF-A4C3-4C4F-BDCC-6560845236F6}"/>
+    <hyperlink ref="C523" r:id="rId334" location="jobs" xr:uid="{F8866E02-D300-4D4D-91DE-BC31950D7944}"/>
+    <hyperlink ref="C524" r:id="rId335" xr:uid="{16BB401E-7052-49CE-8D8A-88FC770C823B}"/>
+    <hyperlink ref="C525" r:id="rId336" location="jobs" xr:uid="{33392FF5-2901-49CD-88B7-460E3210F371}"/>
+    <hyperlink ref="C526" r:id="rId337" xr:uid="{C8E61EA2-54C6-480A-B41F-691529B20D97}"/>
+    <hyperlink ref="C527" r:id="rId338" location="open-roles" xr:uid="{58347A68-D0DE-46B8-82F4-D0C61A2361D7}"/>
+    <hyperlink ref="C528" r:id="rId339" xr:uid="{C8CF7528-3A60-4C5E-8E4B-2FC648B97E65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A142D44E-8038-4AE8-82BA-D468D4D3C35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A752692-AA5F-4C96-9BA4-61A2A674FE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3214,9 +3214,6 @@
     <t>https://fadel.com/careers/</t>
   </si>
   <si>
-    <t>https://farrer.allhires.com/</t>
-  </si>
-  <si>
     <t>https://my.corehr.com/pls/fatrecruit/erq_search_version_4.start_search_with_params</t>
   </si>
   <si>
@@ -3374,6 +3371,9 @@
   </si>
   <si>
     <t>https://isg.wd3.myworkdayjobs.com/ISG</t>
+  </si>
+  <si>
+    <t>https://farrer.allhires.com/Default.aspx?b=l</t>
   </si>
 </sst>
 </file>
@@ -4132,8 +4132,8 @@
   </sheetPr>
   <dimension ref="A1:G950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A516" sqref="A516:A528"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10235,7 +10235,7 @@
         <v>997</v>
       </c>
       <c r="C391" s="54" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D391" s="42" t="s">
         <v>3</v>
@@ -10347,7 +10347,7 @@
         <v>889</v>
       </c>
       <c r="C399" s="54" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D399" s="42" t="s">
         <v>3</v>
@@ -10417,7 +10417,7 @@
         <v>996</v>
       </c>
       <c r="C404" s="54" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D404" s="42" t="s">
         <v>3</v>
@@ -10431,7 +10431,7 @@
         <v>995</v>
       </c>
       <c r="C405" s="54" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>3</v>
@@ -10445,7 +10445,7 @@
         <v>994</v>
       </c>
       <c r="C406" s="54" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>3</v>
@@ -10515,7 +10515,7 @@
         <v>901</v>
       </c>
       <c r="C411" s="54" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D411" s="42" t="s">
         <v>3</v>
@@ -10669,7 +10669,7 @@
         <v>912</v>
       </c>
       <c r="C422" s="54" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D422" s="42" t="s">
         <v>3</v>
@@ -10697,7 +10697,7 @@
         <v>914</v>
       </c>
       <c r="C424" s="54" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>3</v>
@@ -10711,7 +10711,7 @@
         <v>915</v>
       </c>
       <c r="C425" s="54" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D425" s="42" t="s">
         <v>3</v>
@@ -10739,7 +10739,7 @@
         <v>991</v>
       </c>
       <c r="C427" s="54" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D427" s="42" t="s">
         <v>3</v>
@@ -10795,7 +10795,7 @@
         <v>990</v>
       </c>
       <c r="C431" s="54" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D431" s="42" t="s">
         <v>3</v>
@@ -10837,7 +10837,7 @@
         <v>989</v>
       </c>
       <c r="C434" s="54" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D434" s="42" t="s">
         <v>3</v>
@@ -10907,7 +10907,7 @@
         <v>929</v>
       </c>
       <c r="C439" s="54" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D439" s="42" t="s">
         <v>3</v>
@@ -10935,7 +10935,7 @@
         <v>988</v>
       </c>
       <c r="C441" s="54" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D441" s="42" t="s">
         <v>3</v>
@@ -10963,7 +10963,7 @@
         <v>987</v>
       </c>
       <c r="C443" s="54" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D443" s="42" t="s">
         <v>3</v>
@@ -10991,7 +10991,7 @@
         <v>935</v>
       </c>
       <c r="C445" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D445" s="42" t="s">
         <v>3</v>
@@ -11033,7 +11033,7 @@
         <v>985</v>
       </c>
       <c r="C448" s="54" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>3</v>
@@ -11047,7 +11047,7 @@
         <v>984</v>
       </c>
       <c r="C449" s="54" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D449" s="42" t="s">
         <v>3</v>
@@ -11075,7 +11075,7 @@
         <v>941</v>
       </c>
       <c r="C451" s="54" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>3</v>
@@ -11096,7 +11096,9 @@
       </c>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="8"/>
+      <c r="A453" s="8">
+        <v>452</v>
+      </c>
       <c r="B453" s="56" t="s">
         <v>943</v>
       </c>
@@ -11108,7 +11110,9 @@
       </c>
     </row>
     <row r="454" spans="1:4">
-      <c r="A454" s="8"/>
+      <c r="A454" s="8">
+        <v>453</v>
+      </c>
       <c r="B454" s="56" t="s">
         <v>944</v>
       </c>
@@ -11120,7 +11124,9 @@
       </c>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="22"/>
+      <c r="A455" s="22">
+        <v>454</v>
+      </c>
       <c r="B455" s="56" t="s">
         <v>945</v>
       </c>
@@ -11132,7 +11138,9 @@
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="8"/>
+      <c r="A456" s="8">
+        <v>455</v>
+      </c>
       <c r="B456" s="55" t="s">
         <v>946</v>
       </c>
@@ -11144,7 +11152,9 @@
       </c>
     </row>
     <row r="457" spans="1:4">
-      <c r="A457" s="22"/>
+      <c r="A457" s="22">
+        <v>456</v>
+      </c>
       <c r="B457" s="56" t="s">
         <v>947</v>
       </c>
@@ -11156,7 +11166,9 @@
       </c>
     </row>
     <row r="458" spans="1:4">
-      <c r="A458" s="8"/>
+      <c r="A458" s="8">
+        <v>457</v>
+      </c>
       <c r="B458" s="56" t="s">
         <v>948</v>
       </c>
@@ -11168,7 +11180,9 @@
       </c>
     </row>
     <row r="459" spans="1:4" ht="28.8">
-      <c r="A459" s="8"/>
+      <c r="A459" s="8">
+        <v>458</v>
+      </c>
       <c r="B459" s="2" t="s">
         <v>949</v>
       </c>
@@ -11180,7 +11194,9 @@
       </c>
     </row>
     <row r="460" spans="1:4">
-      <c r="A460" s="22"/>
+      <c r="A460" s="22">
+        <v>459</v>
+      </c>
       <c r="B460" s="56" t="s">
         <v>950</v>
       </c>
@@ -11192,420 +11208,490 @@
       </c>
     </row>
     <row r="461" spans="1:4">
-      <c r="A461" s="8"/>
+      <c r="A461" s="8">
+        <v>460</v>
+      </c>
       <c r="B461" s="57" t="s">
         <v>951</v>
       </c>
       <c r="C461" s="54" t="s">
-        <v>1064</v>
+        <v>1117</v>
       </c>
       <c r="D461" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="22"/>
+      <c r="A462" s="22">
+        <v>461</v>
+      </c>
       <c r="B462" s="56" t="s">
         <v>952</v>
       </c>
       <c r="C462" s="54" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D462" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="8"/>
+      <c r="A463" s="8">
+        <v>462</v>
+      </c>
       <c r="B463" s="56" t="s">
         <v>953</v>
       </c>
       <c r="C463" s="54" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D463" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:4">
-      <c r="A464" s="8"/>
+      <c r="A464" s="8">
+        <v>463</v>
+      </c>
       <c r="B464" s="56" t="s">
         <v>954</v>
       </c>
       <c r="C464" s="54" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D464" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="22"/>
+      <c r="A465" s="22">
+        <v>464</v>
+      </c>
       <c r="B465" s="56" t="s">
         <v>955</v>
       </c>
       <c r="C465" s="54" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D465" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="8"/>
+      <c r="A466" s="8">
+        <v>465</v>
+      </c>
       <c r="B466" s="56" t="s">
         <v>956</v>
       </c>
       <c r="C466" s="54" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D466" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="22"/>
+      <c r="A467" s="22">
+        <v>466</v>
+      </c>
       <c r="B467" s="55" t="s">
         <v>957</v>
       </c>
       <c r="C467" s="54" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D467" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:4">
-      <c r="A468" s="8"/>
+      <c r="A468" s="8">
+        <v>467</v>
+      </c>
       <c r="B468" s="55" t="s">
         <v>958</v>
       </c>
       <c r="C468" s="54" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="8"/>
+      <c r="A469" s="8">
+        <v>468</v>
+      </c>
       <c r="B469" s="2" t="s">
         <v>959</v>
       </c>
       <c r="C469" s="54" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="22"/>
+      <c r="A470" s="22">
+        <v>469</v>
+      </c>
       <c r="B470" s="56" t="s">
         <v>960</v>
       </c>
       <c r="C470" s="54" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D470" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="8"/>
+      <c r="A471" s="8">
+        <v>470</v>
+      </c>
       <c r="B471" s="56" t="s">
         <v>961</v>
       </c>
       <c r="C471" s="54" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D471" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="22"/>
+      <c r="A472" s="22">
+        <v>471</v>
+      </c>
       <c r="B472" s="2" t="s">
         <v>962</v>
       </c>
       <c r="C472" s="54" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D472" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="28.8">
-      <c r="A473" s="8"/>
+      <c r="A473" s="8">
+        <v>472</v>
+      </c>
       <c r="B473" s="2" t="s">
         <v>963</v>
       </c>
       <c r="C473" s="54" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D473" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:4">
-      <c r="A474" s="8"/>
+      <c r="A474" s="8">
+        <v>473</v>
+      </c>
       <c r="B474" s="55" t="s">
         <v>964</v>
       </c>
       <c r="C474" s="54" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D474" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="22"/>
+      <c r="A475" s="22">
+        <v>474</v>
+      </c>
       <c r="B475" s="56" t="s">
         <v>965</v>
       </c>
       <c r="C475" s="54" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D475" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:4">
-      <c r="A476" s="8"/>
+      <c r="A476" s="8">
+        <v>475</v>
+      </c>
       <c r="B476" s="56" t="s">
         <v>966</v>
       </c>
       <c r="C476" s="54" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D476" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="22"/>
+      <c r="A477" s="22">
+        <v>476</v>
+      </c>
       <c r="B477" s="55" t="s">
         <v>967</v>
       </c>
       <c r="C477" s="54" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="8"/>
+      <c r="A478" s="8">
+        <v>477</v>
+      </c>
       <c r="B478" s="55" t="s">
         <v>968</v>
       </c>
       <c r="C478" s="54" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="8"/>
+      <c r="A479" s="8">
+        <v>478</v>
+      </c>
       <c r="B479" s="56" t="s">
         <v>969</v>
       </c>
       <c r="C479" s="54" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D479" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="22"/>
+      <c r="A480" s="22">
+        <v>479</v>
+      </c>
       <c r="B480" s="56" t="s">
         <v>970</v>
       </c>
       <c r="C480" s="54" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D480" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="8"/>
+      <c r="A481" s="8">
+        <v>480</v>
+      </c>
       <c r="B481" s="2" t="s">
         <v>971</v>
       </c>
       <c r="C481" s="54" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D481" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="22"/>
+      <c r="A482" s="22">
+        <v>481</v>
+      </c>
       <c r="B482" s="56" t="s">
         <v>972</v>
       </c>
       <c r="C482" s="54" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D482" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="8"/>
+      <c r="A483" s="8">
+        <v>482</v>
+      </c>
       <c r="B483" s="55" t="s">
         <v>973</v>
       </c>
       <c r="C483" s="54" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D483" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="8"/>
+      <c r="A484" s="8">
+        <v>483</v>
+      </c>
       <c r="B484" s="56" t="s">
         <v>974</v>
       </c>
       <c r="C484" s="54" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D484" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="22"/>
+      <c r="A485" s="22">
+        <v>484</v>
+      </c>
       <c r="B485" s="55" t="s">
         <v>975</v>
       </c>
       <c r="C485" s="54" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D485" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="8"/>
+      <c r="A486" s="8">
+        <v>485</v>
+      </c>
       <c r="B486" s="56" t="s">
         <v>976</v>
       </c>
       <c r="C486" s="54" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D486" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="22"/>
+      <c r="A487" s="22">
+        <v>486</v>
+      </c>
       <c r="B487" s="2" t="s">
         <v>977</v>
       </c>
       <c r="C487" s="54" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D487" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="8"/>
+      <c r="A488" s="8">
+        <v>487</v>
+      </c>
       <c r="B488" s="2" t="s">
         <v>978</v>
       </c>
       <c r="C488" s="54" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D488" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="8"/>
+      <c r="A489" s="8">
+        <v>488</v>
+      </c>
       <c r="B489" s="56" t="s">
         <v>979</v>
       </c>
       <c r="C489" s="54" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D489" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="22"/>
+      <c r="A490" s="22">
+        <v>489</v>
+      </c>
       <c r="B490" s="55" t="s">
         <v>980</v>
       </c>
       <c r="C490" s="54" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D490" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="8"/>
+      <c r="A491" s="8">
+        <v>490</v>
+      </c>
       <c r="B491" s="55" t="s">
         <v>981</v>
       </c>
       <c r="C491" s="54" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D491" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="22"/>
+      <c r="A492" s="22">
+        <v>491</v>
+      </c>
       <c r="B492" s="55" t="s">
         <v>982</v>
       </c>
       <c r="C492" s="54" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D492" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="8"/>
+      <c r="A493" s="8">
+        <v>492</v>
+      </c>
       <c r="B493" s="56" t="s">
         <v>983</v>
       </c>
       <c r="C493" s="54" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D493" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="8"/>
+      <c r="A494" s="8">
+        <v>493</v>
+      </c>
       <c r="B494" s="56" t="s">
         <v>986</v>
       </c>
       <c r="C494" s="54" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D494" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="22"/>
+      <c r="A495" s="22">
+        <v>494</v>
+      </c>
       <c r="B495" s="2" t="s">
         <v>992</v>
       </c>
       <c r="C495" s="54" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D495" s="42" t="s">
         <v>3</v>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A752692-AA5F-4C96-9BA4-61A2A674FE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E938DF6B-1D5C-45DA-8436-90D94D19E267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3214,18 +3214,12 @@
     <t>https://fadel.com/careers/</t>
   </si>
   <si>
-    <t>https://my.corehr.com/pls/fatrecruit/erq_search_version_4.start_search_with_params</t>
-  </si>
-  <si>
     <t>https://www.filefoundation.org/careers</t>
   </si>
   <si>
     <t>https://www.floww.io/careers/</t>
   </si>
   <si>
-    <t>https://careers.flutteruki.com/jobs/#results</t>
-  </si>
-  <si>
     <t>https://www.fdf.org.uk/fdf/about-fdf/work-for-us/</t>
   </si>
   <si>
@@ -3247,15 +3241,9 @@
     <t>https://careers.glanbia.com/search/?createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_department=</t>
   </si>
   <si>
-    <t>https://bbinsurance.wd1.myworkdayjobs.com/en-US/Careers_Europe</t>
-  </si>
-  <si>
     <t>https://www.global-e.com/careers/</t>
   </si>
   <si>
-    <t>https://career.globant.com/search/?createNewAlert=false&amp;q=&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_country=</t>
-  </si>
-  <si>
     <t>https://corporate.graingerplc.co.uk/people-and-careers/opportunities</t>
   </si>
   <si>
@@ -3268,18 +3256,12 @@
     <t>https://careers.jobscore.com/careers/grimshawarchitects</t>
   </si>
   <si>
-    <t>https://grosvenor.wd3.myworkdayjobs.com/External_careers_site_Grosvenor</t>
-  </si>
-  <si>
     <t>https://www.hamptons.co.uk/recruitment/vacancySearch.php#/</t>
   </si>
   <si>
     <t>https://www.hightekers.com/en-gb/careers</t>
   </si>
   <si>
-    <t>https://careers.hlmarchitects.com/#jobs</t>
-  </si>
-  <si>
     <t>https://hobsrepro.com/vacancies/</t>
   </si>
   <si>
@@ -3331,9 +3313,6 @@
     <t>https://jadedldn.com/pages/careers-old</t>
   </si>
   <si>
-    <t>https://www.joejuice.com/careers</t>
-  </si>
-  <si>
     <t>https://careers.kennedyslaw.com/jobs/vacancy/find/results/</t>
   </si>
   <si>
@@ -3374,6 +3353,27 @@
   </si>
   <si>
     <t>https://farrer.allhires.com/Default.aspx?b=l</t>
+  </si>
+  <si>
+    <t>https://careers.theaccessgroup.com/jobs/</t>
+  </si>
+  <si>
+    <t>https://careers.flutteruki.com/search-jobs/</t>
+  </si>
+  <si>
+    <t>https://bbinsurance.wd1.myworkdayjobs.com/en-US/Careers_Europe?locationCountry=29247e57dbaf46fb855b224e03170bc7</t>
+  </si>
+  <si>
+    <t>https://career.globant.com/search/</t>
+  </si>
+  <si>
+    <t>https://grosvenor.wd3.myworkdayjobs.com/External_careers_site_Grosvenor?locationCountry=29247e57dbaf46fb855b224e03170bc7</t>
+  </si>
+  <si>
+    <t>https://careers.hlmarchitects.com/jobs</t>
+  </si>
+  <si>
+    <t>https://www.joejuice.com/careers/open-positions</t>
   </si>
 </sst>
 </file>
@@ -3656,7 +3656,7 @@
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3822,6 +3822,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4130,10 +4137,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G950"/>
+  <dimension ref="A1:G949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A486" sqref="A486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10235,7 +10242,7 @@
         <v>997</v>
       </c>
       <c r="C391" s="54" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="D391" s="42" t="s">
         <v>3</v>
@@ -10347,7 +10354,7 @@
         <v>889</v>
       </c>
       <c r="C399" s="54" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="D399" s="42" t="s">
         <v>3</v>
@@ -10417,7 +10424,7 @@
         <v>996</v>
       </c>
       <c r="C404" s="54" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="D404" s="42" t="s">
         <v>3</v>
@@ -10431,7 +10438,7 @@
         <v>995</v>
       </c>
       <c r="C405" s="54" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>3</v>
@@ -10445,7 +10452,7 @@
         <v>994</v>
       </c>
       <c r="C406" s="54" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>3</v>
@@ -10515,7 +10522,7 @@
         <v>901</v>
       </c>
       <c r="C411" s="54" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="D411" s="42" t="s">
         <v>3</v>
@@ -10669,7 +10676,7 @@
         <v>912</v>
       </c>
       <c r="C422" s="54" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="D422" s="42" t="s">
         <v>3</v>
@@ -10697,7 +10704,7 @@
         <v>914</v>
       </c>
       <c r="C424" s="54" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>3</v>
@@ -10711,7 +10718,7 @@
         <v>915</v>
       </c>
       <c r="C425" s="54" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="D425" s="42" t="s">
         <v>3</v>
@@ -10739,7 +10746,7 @@
         <v>991</v>
       </c>
       <c r="C427" s="54" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="D427" s="42" t="s">
         <v>3</v>
@@ -10795,7 +10802,7 @@
         <v>990</v>
       </c>
       <c r="C431" s="54" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="D431" s="42" t="s">
         <v>3</v>
@@ -10837,7 +10844,7 @@
         <v>989</v>
       </c>
       <c r="C434" s="54" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D434" s="42" t="s">
         <v>3</v>
@@ -10907,7 +10914,7 @@
         <v>929</v>
       </c>
       <c r="C439" s="54" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="D439" s="42" t="s">
         <v>3</v>
@@ -10935,7 +10942,7 @@
         <v>988</v>
       </c>
       <c r="C441" s="54" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="D441" s="42" t="s">
         <v>3</v>
@@ -10963,7 +10970,7 @@
         <v>987</v>
       </c>
       <c r="C443" s="54" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="D443" s="42" t="s">
         <v>3</v>
@@ -10991,7 +10998,7 @@
         <v>935</v>
       </c>
       <c r="C445" s="54" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="D445" s="42" t="s">
         <v>3</v>
@@ -11033,7 +11040,7 @@
         <v>985</v>
       </c>
       <c r="C448" s="54" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>3</v>
@@ -11047,7 +11054,7 @@
         <v>984</v>
       </c>
       <c r="C449" s="54" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D449" s="42" t="s">
         <v>3</v>
@@ -11075,7 +11082,7 @@
         <v>941</v>
       </c>
       <c r="C451" s="54" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>3</v>
@@ -11215,7 +11222,7 @@
         <v>951</v>
       </c>
       <c r="C461" s="54" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="D461" s="42" t="s">
         <v>3</v>
@@ -11229,7 +11236,7 @@
         <v>952</v>
       </c>
       <c r="C462" s="54" t="s">
-        <v>1064</v>
+        <v>1111</v>
       </c>
       <c r="D462" s="42" t="s">
         <v>3</v>
@@ -11243,7 +11250,7 @@
         <v>953</v>
       </c>
       <c r="C463" s="54" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D463" s="42" t="s">
         <v>3</v>
@@ -11257,13 +11264,13 @@
         <v>954</v>
       </c>
       <c r="C464" s="54" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D464" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:5">
       <c r="A465" s="22">
         <v>464</v>
       </c>
@@ -11271,13 +11278,13 @@
         <v>955</v>
       </c>
       <c r="C465" s="54" t="s">
-        <v>1067</v>
+        <v>1112</v>
       </c>
       <c r="D465" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:5">
       <c r="A466" s="8">
         <v>465</v>
       </c>
@@ -11285,55 +11292,56 @@
         <v>956</v>
       </c>
       <c r="C466" s="54" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D466" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="22">
+    <row r="467" spans="1:5">
+      <c r="A467" s="8">
         <v>466</v>
       </c>
-      <c r="B467" s="55" t="s">
-        <v>957</v>
+      <c r="B467" s="56" t="s">
+        <v>983</v>
       </c>
       <c r="C467" s="54" t="s">
-        <v>1069</v>
+        <v>1089</v>
       </c>
       <c r="D467" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:5" s="36" customFormat="1">
       <c r="A468" s="8">
         <v>467</v>
       </c>
-      <c r="B468" s="55" t="s">
+      <c r="B468" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="C468" s="54" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D468" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
+      <c r="C468" s="69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D468" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E468" s="70"/>
+    </row>
+    <row r="469" spans="1:5">
       <c r="A469" s="8">
         <v>468</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>959</v>
+      <c r="B469" s="56" t="s">
+        <v>986</v>
       </c>
       <c r="C469" s="54" t="s">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:5">
       <c r="A470" s="22">
         <v>469</v>
       </c>
@@ -11341,13 +11349,13 @@
         <v>960</v>
       </c>
       <c r="C470" s="54" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D470" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:5">
       <c r="A471" s="8">
         <v>470</v>
       </c>
@@ -11355,13 +11363,13 @@
         <v>961</v>
       </c>
       <c r="C471" s="54" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D471" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:5">
       <c r="A472" s="22">
         <v>471</v>
       </c>
@@ -11369,13 +11377,13 @@
         <v>962</v>
       </c>
       <c r="C472" s="54" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D472" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="28.8">
+    <row r="473" spans="1:5" ht="28.8">
       <c r="A473" s="8">
         <v>472</v>
       </c>
@@ -11383,13 +11391,13 @@
         <v>963</v>
       </c>
       <c r="C473" s="54" t="s">
-        <v>1075</v>
+        <v>1113</v>
       </c>
       <c r="D473" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:5">
       <c r="A474" s="8">
         <v>473</v>
       </c>
@@ -11397,13 +11405,13 @@
         <v>964</v>
       </c>
       <c r="C474" s="54" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D474" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:5">
       <c r="A475" s="22">
         <v>474</v>
       </c>
@@ -11411,13 +11419,13 @@
         <v>965</v>
       </c>
       <c r="C475" s="54" t="s">
-        <v>1077</v>
+        <v>1114</v>
       </c>
       <c r="D475" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:5">
       <c r="A476" s="8">
         <v>475</v>
       </c>
@@ -11425,27 +11433,27 @@
         <v>966</v>
       </c>
       <c r="C476" s="54" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D476" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="22">
+    <row r="477" spans="1:5">
+      <c r="A477" s="8">
         <v>476</v>
       </c>
       <c r="B477" s="55" t="s">
-        <v>967</v>
+        <v>981</v>
       </c>
       <c r="C477" s="54" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D477" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>1087</v>
+      </c>
+      <c r="D477" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
       <c r="A478" s="8">
         <v>477</v>
       </c>
@@ -11453,13 +11461,13 @@
         <v>968</v>
       </c>
       <c r="C478" s="54" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:5">
       <c r="A479" s="8">
         <v>478</v>
       </c>
@@ -11467,13 +11475,13 @@
         <v>969</v>
       </c>
       <c r="C479" s="54" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D479" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:5">
       <c r="A480" s="22">
         <v>479</v>
       </c>
@@ -11481,13 +11489,13 @@
         <v>970</v>
       </c>
       <c r="C480" s="54" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
       <c r="D480" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:5">
       <c r="A481" s="8">
         <v>480</v>
       </c>
@@ -11495,13 +11503,13 @@
         <v>971</v>
       </c>
       <c r="C481" s="54" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D481" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:5">
       <c r="A482" s="22">
         <v>481</v>
       </c>
@@ -11509,13 +11517,13 @@
         <v>972</v>
       </c>
       <c r="C482" s="54" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="D482" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:5">
       <c r="A483" s="8">
         <v>482</v>
       </c>
@@ -11523,27 +11531,27 @@
         <v>973</v>
       </c>
       <c r="C483" s="54" t="s">
-        <v>1085</v>
+        <v>1116</v>
       </c>
       <c r="D483" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:5">
       <c r="A484" s="8">
         <v>483</v>
       </c>
       <c r="B484" s="56" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="C484" s="54" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D484" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:5">
       <c r="A485" s="22">
         <v>484</v>
       </c>
@@ -11551,151 +11559,26 @@
         <v>975</v>
       </c>
       <c r="C485" s="54" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="D485" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="8">
+    <row r="486" spans="1:5" s="36" customFormat="1">
+      <c r="A486" s="22">
         <v>485</v>
       </c>
-      <c r="B486" s="56" t="s">
-        <v>976</v>
-      </c>
-      <c r="C486" s="54" t="s">
+      <c r="B486" s="68" t="s">
+        <v>982</v>
+      </c>
+      <c r="C486" s="69" t="s">
         <v>1088</v>
       </c>
-      <c r="D486" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="22">
-        <v>486</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="C487" s="54" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D487" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="8">
-        <v>487</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C488" s="54" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D488" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="8">
-        <v>488</v>
-      </c>
-      <c r="B489" s="56" t="s">
-        <v>979</v>
-      </c>
-      <c r="C489" s="54" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D489" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="22">
-        <v>489</v>
-      </c>
-      <c r="B490" s="55" t="s">
-        <v>980</v>
-      </c>
-      <c r="C490" s="54" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D490" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="8">
-        <v>490</v>
-      </c>
-      <c r="B491" s="55" t="s">
-        <v>981</v>
-      </c>
-      <c r="C491" s="54" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D491" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="22">
-        <v>491</v>
-      </c>
-      <c r="B492" s="55" t="s">
-        <v>982</v>
-      </c>
-      <c r="C492" s="54" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D492" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="8">
-        <v>492</v>
-      </c>
-      <c r="B493" s="56" t="s">
-        <v>983</v>
-      </c>
-      <c r="C493" s="54" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D493" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="8">
-        <v>493</v>
-      </c>
-      <c r="B494" s="56" t="s">
-        <v>986</v>
-      </c>
-      <c r="C494" s="54" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D494" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="22">
-        <v>494</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="C495" s="54" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D495" s="42" t="s">
-        <v>3</v>
-      </c>
+      <c r="D486" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E486" s="70"/>
     </row>
     <row r="509" spans="1:5" ht="15.75" customHeight="1">
       <c r="A509" s="30"/>
@@ -11901,68 +11784,122 @@
       </c>
       <c r="E528" s="62"/>
     </row>
-    <row r="529" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A529" s="30"/>
-      <c r="B529" s="32"/>
-      <c r="C529" s="32"/>
-      <c r="D529" s="31"/>
-      <c r="E529" s="31"/>
-    </row>
-    <row r="530" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A530" s="30"/>
-      <c r="B530" s="32"/>
-      <c r="C530" s="32"/>
-      <c r="D530" s="31"/>
-      <c r="E530" s="31"/>
-    </row>
-    <row r="531" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A531" s="30"/>
-      <c r="B531" s="32"/>
-      <c r="C531" s="32"/>
-      <c r="D531" s="31"/>
-      <c r="E531" s="31"/>
-    </row>
-    <row r="532" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A532" s="30"/>
-      <c r="B532" s="32"/>
-      <c r="C532" s="32"/>
-      <c r="D532" s="31"/>
-      <c r="E532" s="31"/>
-    </row>
-    <row r="533" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A533" s="30"/>
-      <c r="B533" s="32"/>
-      <c r="C533" s="32"/>
-      <c r="D533" s="31"/>
-      <c r="E533" s="31"/>
-    </row>
-    <row r="534" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A534" s="30"/>
-      <c r="B534" s="32"/>
-      <c r="C534" s="32"/>
-      <c r="D534" s="31"/>
-      <c r="E534" s="31"/>
-    </row>
-    <row r="535" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A535" s="30"/>
-      <c r="B535" s="32"/>
-      <c r="C535" s="32"/>
-      <c r="D535" s="31"/>
-      <c r="E535" s="31"/>
-    </row>
-    <row r="536" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A536" s="30"/>
-      <c r="B536" s="32"/>
-      <c r="C536" s="32"/>
-      <c r="D536" s="31"/>
-      <c r="E536" s="31"/>
-    </row>
-    <row r="537" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A537" s="30"/>
-      <c r="B537" s="32"/>
-      <c r="C537" s="32"/>
-      <c r="D537" s="31"/>
-      <c r="E537" s="31"/>
+    <row r="529" spans="1:5" s="63" customFormat="1">
+      <c r="A529" s="65"/>
+      <c r="B529" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="C529" s="60" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D529" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E529" s="62"/>
+    </row>
+    <row r="530" spans="1:5" s="63" customFormat="1">
+      <c r="A530" s="58"/>
+      <c r="B530" s="66" t="s">
+        <v>959</v>
+      </c>
+      <c r="C530" s="60" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D530" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E530" s="62"/>
+    </row>
+    <row r="531" spans="1:5" s="63" customFormat="1">
+      <c r="A531" s="65"/>
+      <c r="B531" s="66" t="s">
+        <v>992</v>
+      </c>
+      <c r="C531" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D531" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E531" s="62"/>
+    </row>
+    <row r="532" spans="1:5" s="63" customFormat="1">
+      <c r="A532" s="65"/>
+      <c r="B532" s="59" t="s">
+        <v>967</v>
+      </c>
+      <c r="C532" s="60" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D532" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E532" s="62"/>
+    </row>
+    <row r="533" spans="1:5" s="63" customFormat="1">
+      <c r="A533" s="58"/>
+      <c r="B533" s="64" t="s">
+        <v>974</v>
+      </c>
+      <c r="C533" s="60" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D533" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E533" s="62"/>
+    </row>
+    <row r="534" spans="1:5" s="63" customFormat="1">
+      <c r="A534" s="65"/>
+      <c r="B534" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C534" s="60" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D534" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E534" s="62"/>
+    </row>
+    <row r="535" spans="1:5" s="63" customFormat="1">
+      <c r="A535" s="58"/>
+      <c r="B535" s="66" t="s">
+        <v>978</v>
+      </c>
+      <c r="C535" s="60" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D535" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E535" s="62"/>
+    </row>
+    <row r="536" spans="1:5" s="63" customFormat="1">
+      <c r="A536" s="65"/>
+      <c r="B536" s="66" t="s">
+        <v>977</v>
+      </c>
+      <c r="C536" s="60" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D536" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E536" s="62"/>
+    </row>
+    <row r="537" spans="1:5" s="63" customFormat="1">
+      <c r="A537" s="58"/>
+      <c r="B537" s="64" t="s">
+        <v>976</v>
+      </c>
+      <c r="C537" s="60" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D537" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E537" s="62"/>
     </row>
     <row r="538" spans="1:5" ht="15.75" customHeight="1">
       <c r="A538" s="30"/>
@@ -14848,16 +14785,9 @@
       <c r="D949" s="31"/>
       <c r="E949" s="31"/>
     </row>
-    <row r="950" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A950" s="30"/>
-      <c r="B950" s="32"/>
-      <c r="C950" s="32"/>
-      <c r="D950" s="31"/>
-      <c r="E950" s="31"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B427:B475 B522:B528 C389 C391:C392 C404:C405 C495 C431 C434 C427 C443 C494 C448:C449 C478:C493" xr:uid="{7B7669A9-4302-4CFA-BCAD-44E41586CAB0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B522:B530 C389 C391:C392 C404:C405 C431 C434 C427 C443 C448:C449 C469 C484:C485 B427:B466 B468:B475 C467 C477:C479 C481:C482 C533:C537 B531" xr:uid="{7B7669A9-4302-4CFA-BCAD-44E41586CAB0}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15143,64 +15073,64 @@
     <hyperlink ref="C462" r:id="rId279" xr:uid="{4309B97D-B8A3-4806-9AF8-46442244D1F7}"/>
     <hyperlink ref="C463" r:id="rId280" xr:uid="{A7FE012F-E629-4A2B-8D66-51CAE69F9D2A}"/>
     <hyperlink ref="C464" r:id="rId281" xr:uid="{0F7F8048-4CE7-4781-8454-38B14862CCEB}"/>
-    <hyperlink ref="C465" r:id="rId282" location="results" xr:uid="{5900C995-0A4C-4051-A493-91F1B1CA8602}"/>
+    <hyperlink ref="C465" r:id="rId282" xr:uid="{5900C995-0A4C-4051-A493-91F1B1CA8602}"/>
     <hyperlink ref="C466" r:id="rId283" xr:uid="{84458F10-C440-4D22-B4BD-537FDA503822}"/>
-    <hyperlink ref="C467" r:id="rId284" xr:uid="{AC7A0839-E305-4129-9F0B-B6858E11465E}"/>
-    <hyperlink ref="C468" r:id="rId285" xr:uid="{0AF199DC-DCBD-4A88-B5ED-3DED5F06BD50}"/>
-    <hyperlink ref="C469" r:id="rId286" location="jobs" xr:uid="{49F1E6C9-31B1-46D2-B16C-3447797B69CF}"/>
-    <hyperlink ref="C470" r:id="rId287" xr:uid="{B3C12728-3493-4973-98A9-2D2FF26D39AD}"/>
-    <hyperlink ref="C471" r:id="rId288" xr:uid="{F355FAB1-E92D-4284-B34F-B1AE655EF321}"/>
-    <hyperlink ref="C472" r:id="rId289" xr:uid="{0CD77BF8-3D84-4E63-8248-39C841A77F19}"/>
-    <hyperlink ref="C473" r:id="rId290" xr:uid="{ADF01695-41A2-49AA-B786-C2A5EACCC2FE}"/>
-    <hyperlink ref="C474" r:id="rId291" xr:uid="{D7FD2A90-9F97-41E2-8886-E1345168ECB4}"/>
-    <hyperlink ref="C475" r:id="rId292" xr:uid="{3DB3DCF1-822B-45E1-9247-2DC5BD35E339}"/>
-    <hyperlink ref="C476" r:id="rId293" xr:uid="{1ECBC8F5-389A-4025-B099-34F7108D0AC9}"/>
-    <hyperlink ref="C477" r:id="rId294" xr:uid="{2C20011B-C6FC-47FE-BAEF-9008B9068BEA}"/>
-    <hyperlink ref="C478" r:id="rId295" xr:uid="{745B221C-1A62-452F-9B37-916EB8F7B2A7}"/>
-    <hyperlink ref="C479" r:id="rId296" xr:uid="{A9B79BA8-A5EF-41C2-B7EA-9524A7CEFE6A}"/>
-    <hyperlink ref="C480" r:id="rId297" xr:uid="{BB01311C-0EF9-48D7-A8CF-74187E27A6CB}"/>
-    <hyperlink ref="C481" r:id="rId298" location="/" xr:uid="{6425F3E5-C6D2-4C9E-9E29-21938D862925}"/>
-    <hyperlink ref="C482" r:id="rId299" xr:uid="{16C689B4-B49B-49BB-B58C-CEACE47DCF7E}"/>
-    <hyperlink ref="C483" r:id="rId300" location="jobs" xr:uid="{D812AD65-FB35-4F0B-AC71-4D2E7208C963}"/>
-    <hyperlink ref="C484" r:id="rId301" xr:uid="{E0537F17-8AFC-491F-8837-0EECAAF1B4FF}"/>
-    <hyperlink ref="C485" r:id="rId302" xr:uid="{EB9FA54E-6E00-416C-A95C-C28AF057004D}"/>
-    <hyperlink ref="C486" r:id="rId303" xr:uid="{E9796651-3A69-4A60-A88B-57BB7F62852D}"/>
-    <hyperlink ref="C487" r:id="rId304" xr:uid="{3BC81D31-3A6E-453E-A474-7F70794FFBC2}"/>
-    <hyperlink ref="C488" r:id="rId305" xr:uid="{A7867AA7-45BF-4B7D-9D89-B11FA84410CB}"/>
-    <hyperlink ref="C489" r:id="rId306" xr:uid="{2EFDC3CB-11B7-47F8-992D-260C1D165F3D}"/>
-    <hyperlink ref="C490" r:id="rId307" xr:uid="{2C26F75E-7082-4C40-B0D4-A1799FBC9ACF}"/>
-    <hyperlink ref="C491" r:id="rId308" xr:uid="{6EE3C5E2-8059-462F-BBC7-144A70F4F1B4}"/>
-    <hyperlink ref="C492" r:id="rId309" xr:uid="{95A3867C-954A-4017-9B40-152B246734A8}"/>
-    <hyperlink ref="C493" r:id="rId310" xr:uid="{38B20A22-545F-4BDF-82A9-B4C8373472E3}"/>
-    <hyperlink ref="C449" r:id="rId311" xr:uid="{04EAAA9C-CAF7-4B95-9F94-49577E4FC24A}"/>
-    <hyperlink ref="C448" r:id="rId312" xr:uid="{8596DE6F-9416-4B9B-9919-299D193EBED4}"/>
-    <hyperlink ref="C494" r:id="rId313" xr:uid="{8CC5100A-AFBD-4DFE-A16D-80D87B572967}"/>
-    <hyperlink ref="C443" r:id="rId314" xr:uid="{35385A1F-F682-4552-BBBA-64B79B15B4F6}"/>
-    <hyperlink ref="C441" r:id="rId315" xr:uid="{59629D51-5847-4751-A773-6C88A3E1C31A}"/>
-    <hyperlink ref="C434" r:id="rId316" xr:uid="{D644B326-5890-4253-B5C2-23D7EC2E655C}"/>
-    <hyperlink ref="C431" r:id="rId317" xr:uid="{222BCD6B-C14C-45B3-A372-B8E6257ED985}"/>
-    <hyperlink ref="C427" r:id="rId318" xr:uid="{AE522730-36C1-421E-BFC9-8D58335B050A}"/>
-    <hyperlink ref="C495" r:id="rId319" xr:uid="{C3E404C9-99FB-444C-BF40-59AA7F6EF1DA}"/>
-    <hyperlink ref="C426" r:id="rId320" xr:uid="{6A56D44B-54A9-4F81-8F93-AB3AD6E3861A}"/>
-    <hyperlink ref="C406" r:id="rId321" xr:uid="{CB760AE7-F165-4D5D-BD77-879D27FA3E0D}"/>
-    <hyperlink ref="C405" r:id="rId322" xr:uid="{9540E51F-D5D5-4DFE-BD29-EBF90689BFA9}"/>
-    <hyperlink ref="C404" r:id="rId323" xr:uid="{4A2669DA-6402-4EFB-89A5-C6A93B273C15}"/>
-    <hyperlink ref="C391" r:id="rId324" xr:uid="{30E40F63-A110-48EF-B3A2-BBD82FFBD11C}"/>
-    <hyperlink ref="C389" r:id="rId325" xr:uid="{F73B9CB3-951E-418B-BD4B-D367F104CA3B}"/>
-    <hyperlink ref="C392" r:id="rId326" xr:uid="{D9661148-7898-430A-A545-EFA309926760}"/>
-    <hyperlink ref="C516" r:id="rId327" xr:uid="{2ECFDE64-A249-4042-88C9-CAF60BB67DD1}"/>
-    <hyperlink ref="C517" r:id="rId328" xr:uid="{43914B23-42F7-49C2-B462-B5B71DD56071}"/>
-    <hyperlink ref="C518" r:id="rId329" xr:uid="{72D73B42-5BC1-4A87-9D0B-B91768857BF0}"/>
-    <hyperlink ref="C519" r:id="rId330" xr:uid="{D12658DC-28BC-44F2-9CC7-0991813C3B53}"/>
-    <hyperlink ref="C520" r:id="rId331" xr:uid="{EC23E1FA-E4EE-4793-A465-0E688F61C1D6}"/>
-    <hyperlink ref="C521" r:id="rId332" xr:uid="{B20B8B75-6721-4839-9F65-42A1548794D1}"/>
-    <hyperlink ref="C522" r:id="rId333" xr:uid="{6FD798BF-A4C3-4C4F-BDCC-6560845236F6}"/>
-    <hyperlink ref="C523" r:id="rId334" location="jobs" xr:uid="{F8866E02-D300-4D4D-91DE-BC31950D7944}"/>
-    <hyperlink ref="C524" r:id="rId335" xr:uid="{16BB401E-7052-49CE-8D8A-88FC770C823B}"/>
-    <hyperlink ref="C525" r:id="rId336" location="jobs" xr:uid="{33392FF5-2901-49CD-88B7-460E3210F371}"/>
-    <hyperlink ref="C526" r:id="rId337" xr:uid="{C8E61EA2-54C6-480A-B41F-691529B20D97}"/>
-    <hyperlink ref="C527" r:id="rId338" location="open-roles" xr:uid="{58347A68-D0DE-46B8-82F4-D0C61A2361D7}"/>
-    <hyperlink ref="C528" r:id="rId339" xr:uid="{C8CF7528-3A60-4C5E-8E4B-2FC648B97E65}"/>
+    <hyperlink ref="C468" r:id="rId284" xr:uid="{0AF199DC-DCBD-4A88-B5ED-3DED5F06BD50}"/>
+    <hyperlink ref="C470" r:id="rId285" xr:uid="{B3C12728-3493-4973-98A9-2D2FF26D39AD}"/>
+    <hyperlink ref="C471" r:id="rId286" xr:uid="{F355FAB1-E92D-4284-B34F-B1AE655EF321}"/>
+    <hyperlink ref="C472" r:id="rId287" xr:uid="{0CD77BF8-3D84-4E63-8248-39C841A77F19}"/>
+    <hyperlink ref="C473" r:id="rId288" xr:uid="{ADF01695-41A2-49AA-B786-C2A5EACCC2FE}"/>
+    <hyperlink ref="C474" r:id="rId289" xr:uid="{D7FD2A90-9F97-41E2-8886-E1345168ECB4}"/>
+    <hyperlink ref="C475" r:id="rId290" xr:uid="{3DB3DCF1-822B-45E1-9247-2DC5BD35E339}"/>
+    <hyperlink ref="C476" r:id="rId291" xr:uid="{1ECBC8F5-389A-4025-B099-34F7108D0AC9}"/>
+    <hyperlink ref="C532" r:id="rId292" xr:uid="{2C20011B-C6FC-47FE-BAEF-9008B9068BEA}"/>
+    <hyperlink ref="C478" r:id="rId293" xr:uid="{745B221C-1A62-452F-9B37-916EB8F7B2A7}"/>
+    <hyperlink ref="C479" r:id="rId294" xr:uid="{A9B79BA8-A5EF-41C2-B7EA-9524A7CEFE6A}"/>
+    <hyperlink ref="C480" r:id="rId295" xr:uid="{BB01311C-0EF9-48D7-A8CF-74187E27A6CB}"/>
+    <hyperlink ref="C481" r:id="rId296" location="/" xr:uid="{6425F3E5-C6D2-4C9E-9E29-21938D862925}"/>
+    <hyperlink ref="C482" r:id="rId297" xr:uid="{16C689B4-B49B-49BB-B58C-CEACE47DCF7E}"/>
+    <hyperlink ref="C483" r:id="rId298" xr:uid="{D812AD65-FB35-4F0B-AC71-4D2E7208C963}"/>
+    <hyperlink ref="C533" r:id="rId299" xr:uid="{E0537F17-8AFC-491F-8837-0EECAAF1B4FF}"/>
+    <hyperlink ref="C485" r:id="rId300" xr:uid="{EB9FA54E-6E00-416C-A95C-C28AF057004D}"/>
+    <hyperlink ref="C537" r:id="rId301" xr:uid="{E9796651-3A69-4A60-A88B-57BB7F62852D}"/>
+    <hyperlink ref="C536" r:id="rId302" xr:uid="{3BC81D31-3A6E-453E-A474-7F70794FFBC2}"/>
+    <hyperlink ref="C535" r:id="rId303" xr:uid="{A7867AA7-45BF-4B7D-9D89-B11FA84410CB}"/>
+    <hyperlink ref="C484" r:id="rId304" xr:uid="{2EFDC3CB-11B7-47F8-992D-260C1D165F3D}"/>
+    <hyperlink ref="C534" r:id="rId305" xr:uid="{2C26F75E-7082-4C40-B0D4-A1799FBC9ACF}"/>
+    <hyperlink ref="C477" r:id="rId306" xr:uid="{6EE3C5E2-8059-462F-BBC7-144A70F4F1B4}"/>
+    <hyperlink ref="C467" r:id="rId307" xr:uid="{38B20A22-545F-4BDF-82A9-B4C8373472E3}"/>
+    <hyperlink ref="C449" r:id="rId308" xr:uid="{04EAAA9C-CAF7-4B95-9F94-49577E4FC24A}"/>
+    <hyperlink ref="C448" r:id="rId309" xr:uid="{8596DE6F-9416-4B9B-9919-299D193EBED4}"/>
+    <hyperlink ref="C469" r:id="rId310" xr:uid="{8CC5100A-AFBD-4DFE-A16D-80D87B572967}"/>
+    <hyperlink ref="C443" r:id="rId311" xr:uid="{35385A1F-F682-4552-BBBA-64B79B15B4F6}"/>
+    <hyperlink ref="C441" r:id="rId312" xr:uid="{59629D51-5847-4751-A773-6C88A3E1C31A}"/>
+    <hyperlink ref="C434" r:id="rId313" xr:uid="{D644B326-5890-4253-B5C2-23D7EC2E655C}"/>
+    <hyperlink ref="C431" r:id="rId314" xr:uid="{222BCD6B-C14C-45B3-A372-B8E6257ED985}"/>
+    <hyperlink ref="C427" r:id="rId315" xr:uid="{AE522730-36C1-421E-BFC9-8D58335B050A}"/>
+    <hyperlink ref="C531" r:id="rId316" xr:uid="{C3E404C9-99FB-444C-BF40-59AA7F6EF1DA}"/>
+    <hyperlink ref="C426" r:id="rId317" xr:uid="{6A56D44B-54A9-4F81-8F93-AB3AD6E3861A}"/>
+    <hyperlink ref="C406" r:id="rId318" xr:uid="{CB760AE7-F165-4D5D-BD77-879D27FA3E0D}"/>
+    <hyperlink ref="C405" r:id="rId319" xr:uid="{9540E51F-D5D5-4DFE-BD29-EBF90689BFA9}"/>
+    <hyperlink ref="C404" r:id="rId320" xr:uid="{4A2669DA-6402-4EFB-89A5-C6A93B273C15}"/>
+    <hyperlink ref="C391" r:id="rId321" xr:uid="{30E40F63-A110-48EF-B3A2-BBD82FFBD11C}"/>
+    <hyperlink ref="C389" r:id="rId322" xr:uid="{F73B9CB3-951E-418B-BD4B-D367F104CA3B}"/>
+    <hyperlink ref="C392" r:id="rId323" xr:uid="{D9661148-7898-430A-A545-EFA309926760}"/>
+    <hyperlink ref="C516" r:id="rId324" xr:uid="{2ECFDE64-A249-4042-88C9-CAF60BB67DD1}"/>
+    <hyperlink ref="C517" r:id="rId325" xr:uid="{43914B23-42F7-49C2-B462-B5B71DD56071}"/>
+    <hyperlink ref="C518" r:id="rId326" xr:uid="{72D73B42-5BC1-4A87-9D0B-B91768857BF0}"/>
+    <hyperlink ref="C519" r:id="rId327" xr:uid="{D12658DC-28BC-44F2-9CC7-0991813C3B53}"/>
+    <hyperlink ref="C520" r:id="rId328" xr:uid="{EC23E1FA-E4EE-4793-A465-0E688F61C1D6}"/>
+    <hyperlink ref="C521" r:id="rId329" xr:uid="{B20B8B75-6721-4839-9F65-42A1548794D1}"/>
+    <hyperlink ref="C522" r:id="rId330" xr:uid="{6FD798BF-A4C3-4C4F-BDCC-6560845236F6}"/>
+    <hyperlink ref="C523" r:id="rId331" location="jobs" xr:uid="{F8866E02-D300-4D4D-91DE-BC31950D7944}"/>
+    <hyperlink ref="C524" r:id="rId332" xr:uid="{16BB401E-7052-49CE-8D8A-88FC770C823B}"/>
+    <hyperlink ref="C525" r:id="rId333" location="jobs" xr:uid="{33392FF5-2901-49CD-88B7-460E3210F371}"/>
+    <hyperlink ref="C526" r:id="rId334" xr:uid="{C8E61EA2-54C6-480A-B41F-691529B20D97}"/>
+    <hyperlink ref="C527" r:id="rId335" location="open-roles" xr:uid="{58347A68-D0DE-46B8-82F4-D0C61A2361D7}"/>
+    <hyperlink ref="C528" r:id="rId336" xr:uid="{C8CF7528-3A60-4C5E-8E4B-2FC648B97E65}"/>
+    <hyperlink ref="C529" r:id="rId337" xr:uid="{DA895441-2282-4D4F-BCEE-722A8D6206A8}"/>
+    <hyperlink ref="C530" r:id="rId338" location="jobs" xr:uid="{B2940E75-C628-4AD4-861C-80F7D5DD6197}"/>
+    <hyperlink ref="C486" r:id="rId339" xr:uid="{95A3867C-954A-4017-9B40-152B246734A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9C15FC-0F51-421D-ACF2-E4E22BD09322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD840420-FF8F-459F-ABF2-5A3114CE887E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1314">
   <si>
     <t>ID</t>
   </si>
@@ -3577,9 +3577,6 @@
     <t>Softcat plc</t>
   </si>
   <si>
-    <t>Solange</t>
-  </si>
-  <si>
     <t>Sopra Steria</t>
   </si>
   <si>
@@ -3592,9 +3589,6 @@
     <t>STL Partners</t>
   </si>
   <si>
-    <t>Structure Tone London</t>
-  </si>
-  <si>
     <t>StructureFlow</t>
   </si>
   <si>
@@ -3604,21 +3598,12 @@
     <t>Superbet</t>
   </si>
   <si>
-    <t>Suri</t>
-  </si>
-  <si>
-    <t>Susanne Kaufmann</t>
-  </si>
-  <si>
     <t>Tambo</t>
   </si>
   <si>
     <t>Tangle Teezer Ltd</t>
   </si>
   <si>
-    <t>TBD Media Group (Aqcuired by Acumen)</t>
-  </si>
-  <si>
     <t>Teemill</t>
   </si>
   <si>
@@ -3652,9 +3637,6 @@
     <t>https://jobs.softcat.com/jobs/vacancy/find/results/</t>
   </si>
   <si>
-    <t>https://solange.co.uk/pages/careers</t>
-  </si>
-  <si>
     <t>https://careers.soprasteria.co.uk/uk/en/search-results</t>
   </si>
   <si>
@@ -3667,9 +3649,6 @@
     <t>https://stlpartners.com/stl-careers/</t>
   </si>
   <si>
-    <t>https://jobs.jobvite.com/structure-tone-intl/search?q=</t>
-  </si>
-  <si>
     <t>https://apply.workable.com/structureflow/?lng=en#jobs</t>
   </si>
   <si>
@@ -3679,33 +3658,15 @@
     <t>https://careers.superbet.com/careers</t>
   </si>
   <si>
-    <t>https://www.careers-page.com/suri#openings</t>
-  </si>
-  <si>
-    <t>https://www.susannekaufmann.com/pages/careers</t>
-  </si>
-  <si>
     <t>https://www.tambo.io/joinus</t>
   </si>
   <si>
-    <t>https://careers.tangleteezer.com/#jobs</t>
-  </si>
-  <si>
-    <t>https://acumenmedia.com/careers</t>
-  </si>
-  <si>
     <t>https://careers.teemill.com/jobs</t>
   </si>
   <si>
-    <t>https://tetratech.referrals.selectminds.com/jobs/search/9229335</t>
-  </si>
-  <si>
     <t>https://tfpfertilitygroup.recruitee.com/</t>
   </si>
   <si>
-    <t>https://bargrli.webitrent.com/bargrli_webrecruitment/wrd/run/ETREC105GF?USESSION=4E426A4DDA2950BEF8AC1C7115209DFF&amp;WVID=7342334li4&amp;LANG=USA</t>
-  </si>
-  <si>
     <t>https://www.woburn.co.uk/careers/</t>
   </si>
   <si>
@@ -3919,9 +3880,6 @@
     <t>https://welbeckhealthpartners.com/careers/#careers</t>
   </si>
   <si>
-    <t>https://westrockta.avature.net/en_US/careers/SearchJobs/?listFilterMode=1&amp;folderRecordsPerPage=10&amp;</t>
-  </si>
-  <si>
     <t>https://jobs.ashbyhq.com/wonderbly.com</t>
   </si>
   <si>
@@ -3992,6 +3950,18 @@
   </si>
   <si>
     <t>https://jobs.helpinghandshomecare.co.uk/search</t>
+  </si>
+  <si>
+    <t>https://careers.tangleteezer.com/jobs</t>
+  </si>
+  <si>
+    <t>https://tetratech.referrals.selectminds.com/jobs/search</t>
+  </si>
+  <si>
+    <t>https://bargrli.webitrent.com/bargrli_webrecruitment/</t>
+  </si>
+  <si>
+    <t>https://westrockta.avature.net/en_US/careers/SearchJobs/</t>
   </si>
 </sst>
 </file>
@@ -4757,8 +4727,8 @@
   </sheetPr>
   <dimension ref="A1:G903"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C629" sqref="C629"/>
+    <sheetView tabSelected="1" topLeftCell="A606" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C623" sqref="C623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -12203,10 +12173,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="67" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="C487" s="50" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="D487" s="39" t="s">
         <v>3</v>
@@ -12235,7 +12205,7 @@
         <v>1075</v>
       </c>
       <c r="C489" s="57" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="D489" s="10" t="s">
         <v>3</v>
@@ -12288,10 +12258,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="66" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
       <c r="C493" s="50" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
       <c r="D493" s="39" t="s">
         <v>3</v>
@@ -12331,10 +12301,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="52" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
       <c r="C496" s="50" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="D496" s="39" t="s">
         <v>3</v>
@@ -12430,10 +12400,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="52" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
       <c r="C503" s="50" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="D503" s="39" t="s">
         <v>3</v>
@@ -12725,10 +12695,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="51" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
       <c r="C523" s="50" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="D523" s="10" t="s">
         <v>3</v>
@@ -12800,10 +12770,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="52" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="C528" s="50" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
       <c r="D528" s="39" t="s">
         <v>3</v>
@@ -12920,10 +12890,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="52" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
       <c r="C536" s="50" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
       <c r="D536" s="39" t="s">
         <v>3</v>
@@ -13100,10 +13070,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="51" t="s">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="C548" s="50" t="s">
-        <v>1305</v>
+        <v>1291</v>
       </c>
       <c r="D548" s="39" t="s">
         <v>3</v>
@@ -13118,7 +13088,7 @@
         <v>1181</v>
       </c>
       <c r="C549" s="50" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="D549" s="10" t="s">
         <v>3</v>
@@ -13133,7 +13103,7 @@
         <v>1182</v>
       </c>
       <c r="C550" s="50" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="D550" s="39" t="s">
         <v>3</v>
@@ -13145,10 +13115,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
       <c r="C551" s="50" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="D551" s="39" t="s">
         <v>3</v>
@@ -13156,12 +13126,14 @@
       <c r="E551" s="28"/>
     </row>
     <row r="552" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A552" s="20"/>
+      <c r="A552" s="20">
+        <v>551</v>
+      </c>
       <c r="B552" s="2" t="s">
         <v>1183</v>
       </c>
       <c r="C552" s="50" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D552" s="39" t="s">
         <v>3</v>
@@ -13169,246 +13141,284 @@
       <c r="E552" s="28"/>
     </row>
     <row r="553" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A553" s="20"/>
+      <c r="A553" s="20">
+        <v>552</v>
+      </c>
       <c r="B553" s="52" t="s">
         <v>1184</v>
       </c>
       <c r="C553" s="50" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D553" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E553" s="28"/>
+    </row>
+    <row r="554" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A554" s="20">
+        <v>553</v>
+      </c>
+      <c r="B554" s="51" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C554" s="50" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D554" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E554" s="28"/>
+    </row>
+    <row r="555" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A555" s="20">
+        <v>554</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C555" s="50" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D555" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E555" s="28"/>
+    </row>
+    <row r="556" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A556" s="20">
+        <v>555</v>
+      </c>
+      <c r="B556" s="51" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C556" s="50" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D556" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E556" s="28"/>
+    </row>
+    <row r="557" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A557" s="20">
+        <v>556</v>
+      </c>
+      <c r="B557" s="51" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C557" s="50" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D557" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E557" s="28"/>
+    </row>
+    <row r="558" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A558" s="20">
+        <v>557</v>
+      </c>
+      <c r="B558" s="52" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C558" s="50" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D558" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E558" s="28"/>
+    </row>
+    <row r="559" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A559" s="20">
+        <v>558</v>
+      </c>
+      <c r="B559" s="51" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C559" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D559" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E559" s="28"/>
+    </row>
+    <row r="560" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A560" s="20">
+        <v>559</v>
+      </c>
+      <c r="B560" s="52" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C560" s="50" t="s">
         <v>1209</v>
       </c>
-      <c r="D553" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E553" s="28"/>
-    </row>
-    <row r="554" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A554" s="20"/>
-      <c r="B554" s="52" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C554" s="50" t="s">
+      <c r="D560" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E560" s="28"/>
+    </row>
+    <row r="561" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A561" s="20">
+        <v>560</v>
+      </c>
+      <c r="B561" s="52" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C561" s="50" t="s">
         <v>1210</v>
       </c>
-      <c r="D554" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E554" s="28"/>
-    </row>
-    <row r="555" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A555" s="20"/>
-      <c r="B555" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C555" s="50" t="s">
+      <c r="D561" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E561" s="28"/>
+    </row>
+    <row r="562" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A562" s="20">
+        <v>561</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C562" s="50" t="s">
         <v>1211</v>
       </c>
-      <c r="D555" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E555" s="28"/>
-    </row>
-    <row r="556" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A556" s="20"/>
-      <c r="B556" s="51" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C556" s="50" t="s">
+      <c r="D562" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E562" s="28"/>
+    </row>
+    <row r="563" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A563" s="20">
+        <v>562</v>
+      </c>
+      <c r="B563" s="51" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C563" s="50" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D563" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E563" s="28"/>
+    </row>
+    <row r="564" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A564" s="20">
+        <v>563</v>
+      </c>
+      <c r="B564" s="51" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C564" s="50" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D564" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E564" s="28"/>
+    </row>
+    <row r="565" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A565" s="20">
+        <v>564</v>
+      </c>
+      <c r="B565" s="52" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C565" s="50" t="s">
         <v>1212</v>
       </c>
-      <c r="D556" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E556" s="28"/>
-    </row>
-    <row r="557" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A557" s="20"/>
-      <c r="B557" s="51" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C557" s="50" t="s">
+      <c r="D565" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E565" s="28"/>
+    </row>
+    <row r="566" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A566" s="20">
+        <v>565</v>
+      </c>
+      <c r="B566" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C566" s="50" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D566" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E566" s="28"/>
+    </row>
+    <row r="567" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A567" s="20">
+        <v>566</v>
+      </c>
+      <c r="B567" s="52" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C567" s="50" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D567" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E567" s="28"/>
+    </row>
+    <row r="568" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A568" s="20">
+        <v>567</v>
+      </c>
+      <c r="B568" s="52" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C568" s="50" t="s">
         <v>1213</v>
       </c>
-      <c r="D557" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E557" s="28"/>
-    </row>
-    <row r="558" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A558" s="20"/>
-      <c r="B558" s="52" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C558" s="50" t="s">
+      <c r="D568" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E568" s="28"/>
+    </row>
+    <row r="569" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A569" s="20">
+        <v>568</v>
+      </c>
+      <c r="B569" s="52" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C569" s="50" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D569" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E569" s="28"/>
+    </row>
+    <row r="570" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A570" s="20">
+        <v>569</v>
+      </c>
+      <c r="B570" s="52" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C570" s="50" t="s">
         <v>1214</v>
       </c>
-      <c r="D558" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E558" s="28"/>
-    </row>
-    <row r="559" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A559" s="20"/>
-      <c r="B559" s="51" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C559" s="50" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D559" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E559" s="28"/>
-    </row>
-    <row r="560" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A560" s="20"/>
-      <c r="B560" s="52" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C560" s="50" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D560" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E560" s="28"/>
-    </row>
-    <row r="561" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A561" s="20"/>
-      <c r="B561" s="52" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C561" s="50" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D561" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E561" s="28"/>
-    </row>
-    <row r="562" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A562" s="20"/>
-      <c r="B562" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C562" s="50" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D562" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E562" s="28"/>
-    </row>
-    <row r="563" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A563" s="20"/>
-      <c r="B563" s="52" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C563" s="50" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D563" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E563" s="28"/>
-    </row>
-    <row r="564" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A564" s="20"/>
-      <c r="B564" s="52" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C564" s="50" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D564" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E564" s="28"/>
-    </row>
-    <row r="565" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A565" s="20"/>
-      <c r="B565" s="52" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C565" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D565" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E565" s="28"/>
-    </row>
-    <row r="566" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A566" s="20"/>
-      <c r="B566" s="51" t="s">
+      <c r="D570" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E570" s="28"/>
+    </row>
+    <row r="571" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A571" s="20">
+        <v>570</v>
+      </c>
+      <c r="B571" s="52" t="s">
         <v>1197</v>
       </c>
-      <c r="C566" s="50" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D566" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E566" s="28"/>
-    </row>
-    <row r="567" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A567" s="20"/>
-      <c r="B567" s="52" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C567" s="50" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D567" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E567" s="28"/>
-    </row>
-    <row r="568" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A568" s="20"/>
-      <c r="B568" s="52" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C568" s="50" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D568" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E568" s="28"/>
-    </row>
-    <row r="569" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A569" s="20"/>
-      <c r="B569" s="52" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C569" s="50" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D569" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E569" s="28"/>
-    </row>
-    <row r="570" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A570" s="20"/>
-      <c r="B570" s="52" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C570" s="50" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D570" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E570" s="28"/>
-    </row>
-    <row r="571" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A571" s="20"/>
-      <c r="B571" s="52" t="s">
-        <v>1202</v>
-      </c>
       <c r="C571" s="50" t="s">
-        <v>1227</v>
+        <v>1312</v>
       </c>
       <c r="D571" s="39" t="s">
         <v>3</v>
@@ -13418,10 +13428,10 @@
     <row r="572" spans="1:5" ht="15.75" customHeight="1">
       <c r="A572" s="20"/>
       <c r="B572" s="51" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="C572" s="50" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="D572" s="39" t="s">
         <v>3</v>
@@ -13431,10 +13441,10 @@
     <row r="573" spans="1:5" ht="15.75" customHeight="1">
       <c r="A573" s="20"/>
       <c r="B573" s="52" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="C573" s="50" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="D573" s="39" t="s">
         <v>3</v>
@@ -13444,10 +13454,10 @@
     <row r="574" spans="1:5" ht="15.75" customHeight="1">
       <c r="A574" s="20"/>
       <c r="B574" s="2" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="C574" s="50" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="D574" s="39" t="s">
         <v>3</v>
@@ -13457,10 +13467,10 @@
     <row r="575" spans="1:5" ht="15.75" customHeight="1">
       <c r="A575" s="20"/>
       <c r="B575" s="2" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="C575" s="50" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="D575" s="39" t="s">
         <v>3</v>
@@ -13470,10 +13480,10 @@
     <row r="576" spans="1:5" ht="15.75" customHeight="1">
       <c r="A576" s="20"/>
       <c r="B576" s="2" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="C576" s="50" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="D576" s="39" t="s">
         <v>3</v>
@@ -13483,10 +13493,10 @@
     <row r="577" spans="1:5" ht="15.75" customHeight="1">
       <c r="A577" s="20"/>
       <c r="B577" s="51" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="C577" s="50" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="D577" s="39" t="s">
         <v>3</v>
@@ -13496,10 +13506,10 @@
     <row r="578" spans="1:5" ht="15.75" customHeight="1">
       <c r="A578" s="20"/>
       <c r="B578" s="52" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="C578" s="50" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="D578" s="10" t="s">
         <v>3</v>
@@ -13509,10 +13519,10 @@
     <row r="579" spans="1:5" ht="15.75" customHeight="1">
       <c r="A579" s="20"/>
       <c r="B579" s="2" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="C579" s="50" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="D579" s="39" t="s">
         <v>3</v>
@@ -13522,10 +13532,10 @@
     <row r="580" spans="1:5" ht="15.75" customHeight="1">
       <c r="A580" s="20"/>
       <c r="B580" s="52" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="C580" s="50" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="D580" s="39" t="s">
         <v>3</v>
@@ -13535,10 +13545,10 @@
     <row r="581" spans="1:5" ht="15.75" customHeight="1">
       <c r="A581" s="20"/>
       <c r="B581" s="2" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="C581" s="50" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="D581" s="39" t="s">
         <v>3</v>
@@ -13548,10 +13558,10 @@
     <row r="582" spans="1:5" ht="15.75" customHeight="1">
       <c r="A582" s="20"/>
       <c r="B582" s="2" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="C582" s="50" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="D582" s="39" t="s">
         <v>3</v>
@@ -13561,10 +13571,10 @@
     <row r="583" spans="1:5" ht="15.75" customHeight="1">
       <c r="A583" s="20"/>
       <c r="B583" s="51" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="C583" s="50" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="D583" s="39" t="s">
         <v>3</v>
@@ -13574,10 +13584,10 @@
     <row r="584" spans="1:5" ht="15.75" customHeight="1">
       <c r="A584" s="20"/>
       <c r="B584" s="2" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="C584" s="50" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="D584" s="39" t="s">
         <v>3</v>
@@ -13587,10 +13597,10 @@
     <row r="585" spans="1:5" ht="15.75" customHeight="1">
       <c r="A585" s="20"/>
       <c r="B585" s="52" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="C585" s="50" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="D585" s="39" t="s">
         <v>3</v>
@@ -13600,10 +13610,10 @@
     <row r="586" spans="1:5" ht="15.75" customHeight="1">
       <c r="A586" s="20"/>
       <c r="B586" s="52" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="C586" s="50" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="D586" s="39" t="s">
         <v>3</v>
@@ -13613,10 +13623,10 @@
     <row r="587" spans="1:5" ht="15.75" customHeight="1">
       <c r="A587" s="20"/>
       <c r="B587" s="51" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="C587" s="50" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="D587" s="39" t="s">
         <v>3</v>
@@ -13626,10 +13636,10 @@
     <row r="588" spans="1:5" ht="15.75" customHeight="1">
       <c r="A588" s="20"/>
       <c r="B588" s="52" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="C588" s="50" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="D588" s="39" t="s">
         <v>3</v>
@@ -13639,10 +13649,10 @@
     <row r="589" spans="1:5" ht="15.75" customHeight="1">
       <c r="A589" s="20"/>
       <c r="B589" s="52" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="C589" s="50" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="D589" s="10" t="s">
         <v>3</v>
@@ -13652,10 +13662,10 @@
     <row r="590" spans="1:5" ht="15.75" customHeight="1">
       <c r="A590" s="20"/>
       <c r="B590" s="51" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="C590" s="50" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="D590" s="39" t="s">
         <v>3</v>
@@ -13665,10 +13675,10 @@
     <row r="591" spans="1:5" ht="15.75" customHeight="1">
       <c r="A591" s="20"/>
       <c r="B591" s="52" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="C591" s="50" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="D591" s="39" t="s">
         <v>3</v>
@@ -13678,10 +13688,10 @@
     <row r="592" spans="1:5" ht="15.75" customHeight="1">
       <c r="A592" s="20"/>
       <c r="B592" s="52" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="C592" s="50" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="D592" s="39" t="s">
         <v>3</v>
@@ -13691,10 +13701,10 @@
     <row r="593" spans="1:5" ht="15.75" customHeight="1">
       <c r="A593" s="20"/>
       <c r="B593" s="52" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="C593" s="50" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="D593" s="39" t="s">
         <v>3</v>
@@ -13704,10 +13714,10 @@
     <row r="594" spans="1:5" ht="15.75" customHeight="1">
       <c r="A594" s="20"/>
       <c r="B594" s="52" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="C594" s="50" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="D594" s="39" t="s">
         <v>3</v>
@@ -13717,10 +13727,10 @@
     <row r="595" spans="1:5" ht="15.75" customHeight="1">
       <c r="A595" s="20"/>
       <c r="B595" s="52" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="C595" s="50" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="D595" s="39" t="s">
         <v>3</v>
@@ -13730,10 +13740,10 @@
     <row r="596" spans="1:5" ht="15.75" customHeight="1">
       <c r="A596" s="20"/>
       <c r="B596" s="52" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="C596" s="50" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="D596" s="39" t="s">
         <v>3</v>
@@ -13743,10 +13753,10 @@
     <row r="597" spans="1:5" ht="15.75" customHeight="1">
       <c r="A597" s="20"/>
       <c r="B597" s="52" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="C597" s="50" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="D597" s="39" t="s">
         <v>3</v>
@@ -13756,10 +13766,10 @@
     <row r="598" spans="1:5" ht="15.75" customHeight="1">
       <c r="A598" s="20"/>
       <c r="B598" s="52" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="C598" s="50" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="D598" s="10" t="s">
         <v>3</v>
@@ -13769,10 +13779,10 @@
     <row r="599" spans="1:5" ht="15.75" customHeight="1">
       <c r="A599" s="20"/>
       <c r="B599" s="52" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="C599" s="50" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="D599" s="39" t="s">
         <v>3</v>
@@ -13782,10 +13792,10 @@
     <row r="600" spans="1:5" ht="15.75" customHeight="1">
       <c r="A600" s="20"/>
       <c r="B600" s="52" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="C600" s="50" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="D600" s="39" t="s">
         <v>3</v>
@@ -13795,10 +13805,10 @@
     <row r="601" spans="1:5" ht="15.75" customHeight="1">
       <c r="A601" s="20"/>
       <c r="B601" s="52" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="C601" s="50" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="D601" s="39" t="s">
         <v>3</v>
@@ -13808,10 +13818,10 @@
     <row r="602" spans="1:5" ht="15.75" customHeight="1">
       <c r="A602" s="20"/>
       <c r="B602" s="2" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="C602" s="50" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="D602" s="39" t="s">
         <v>3</v>
@@ -13821,10 +13831,10 @@
     <row r="603" spans="1:5" ht="15.75" customHeight="1">
       <c r="A603" s="20"/>
       <c r="B603" s="51" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="C603" s="50" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="D603" s="39" t="s">
         <v>3</v>
@@ -13834,10 +13844,10 @@
     <row r="604" spans="1:5" ht="15.75" customHeight="1">
       <c r="A604" s="20"/>
       <c r="B604" s="52" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="C604" s="50" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="D604" s="39" t="s">
         <v>3</v>
@@ -13847,10 +13857,10 @@
     <row r="605" spans="1:5" ht="15.75" customHeight="1">
       <c r="A605" s="20"/>
       <c r="B605" s="52" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="C605" s="50" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
       <c r="D605" s="39" t="s">
         <v>3</v>
@@ -13860,87 +13870,15 @@
     <row r="606" spans="1:5" ht="15.75" customHeight="1">
       <c r="A606" s="20"/>
       <c r="B606" s="51" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="C606" s="50" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="D606" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E606" s="28"/>
-    </row>
-    <row r="607" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A607" s="20"/>
-      <c r="B607" s="52" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C607" s="50" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D607" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E607" s="28"/>
-    </row>
-    <row r="608" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A608" s="20"/>
-      <c r="B608" s="51" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C608" s="50" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D608" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E608" s="28"/>
-    </row>
-    <row r="609" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A609" s="20"/>
-      <c r="B609" s="51" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C609" s="50" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D609" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E609" s="28"/>
-    </row>
-    <row r="610" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A610" s="20"/>
-      <c r="B610" s="51" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C610" s="50" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D610" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E610" s="28"/>
-    </row>
-    <row r="611" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A611" s="20"/>
-      <c r="B611" s="51" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C611" s="50" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D611" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E611" s="28"/>
-    </row>
-    <row r="623" spans="1:5">
-      <c r="A623" s="27"/>
-      <c r="B623" s="29"/>
-      <c r="C623" s="29"/>
-      <c r="D623" s="28"/>
-      <c r="E623" s="28"/>
     </row>
     <row r="624" spans="1:5" ht="15.75" customHeight="1">
       <c r="A624" s="27"/>
@@ -16279,78 +16217,73 @@
     <hyperlink ref="C547" r:id="rId368" xr:uid="{5B621371-0DAA-4E24-92DA-A1DC911BCEBC}"/>
     <hyperlink ref="C549" r:id="rId369" xr:uid="{E85F4476-8AE8-461E-9C6C-58E93D19D13F}"/>
     <hyperlink ref="C550" r:id="rId370" xr:uid="{3C12359F-CB26-4646-A12F-007EBBD23A9D}"/>
-    <hyperlink ref="C552" r:id="rId371" xr:uid="{172A6259-BCF2-46F0-B3B8-0D564288D26E}"/>
-    <hyperlink ref="C553" r:id="rId372" xr:uid="{F9D7C960-4BE7-4574-A84F-054E7851BE14}"/>
-    <hyperlink ref="C554" r:id="rId373" xr:uid="{220AF377-3B80-48AE-B2EA-EF2E3B105B91}"/>
-    <hyperlink ref="C555" r:id="rId374" xr:uid="{6EA16462-029F-4685-8A3E-BB40BF758B8E}"/>
-    <hyperlink ref="C556" r:id="rId375" xr:uid="{56284072-CF1B-4DFF-95E3-1B1FD543AA7C}"/>
-    <hyperlink ref="C557" r:id="rId376" xr:uid="{9935BF11-B5B2-436A-BA24-095549EE2275}"/>
-    <hyperlink ref="C558" r:id="rId377" xr:uid="{728297E8-FFCC-4207-9288-E27836984359}"/>
-    <hyperlink ref="C559" r:id="rId378" xr:uid="{F800AE50-A1BC-48E9-AEB0-AC647649EE3F}"/>
-    <hyperlink ref="C560" r:id="rId379" location="jobs" xr:uid="{FEF367BD-2E7C-4D2F-BCB2-026742C57CCB}"/>
-    <hyperlink ref="C561" r:id="rId380" location="/" xr:uid="{D27B19CE-4C65-47FC-B836-12C1F0966513}"/>
-    <hyperlink ref="C562" r:id="rId381" xr:uid="{6FF72679-7591-4E98-80F3-8286E88DFADE}"/>
-    <hyperlink ref="C563" r:id="rId382" location="openings" xr:uid="{2492F249-38AE-472D-98A5-524811442372}"/>
-    <hyperlink ref="C564" r:id="rId383" xr:uid="{76CD8182-3EE5-45B6-8D9E-DFAD2F04733D}"/>
-    <hyperlink ref="C565" r:id="rId384" xr:uid="{4F829D9F-05D6-45E6-B18E-ED39EF1F1E75}"/>
-    <hyperlink ref="C566" r:id="rId385" location="jobs" xr:uid="{742A871C-8DE4-41A7-9E03-9936F2C1379B}"/>
-    <hyperlink ref="C567" r:id="rId386" xr:uid="{B71ECB40-853B-4026-A83C-450F675B900B}"/>
-    <hyperlink ref="C568" r:id="rId387" xr:uid="{43C03DD8-0E10-4E69-B3D2-7353BF75DFD5}"/>
-    <hyperlink ref="C569" r:id="rId388" xr:uid="{96FE7E5F-71A4-4E0F-BCEA-50F6216B86A0}"/>
-    <hyperlink ref="C570" r:id="rId389" xr:uid="{D549222F-9D20-4791-A0D6-8C04117D714D}"/>
-    <hyperlink ref="C571" r:id="rId390" xr:uid="{C942CDD3-1401-4F82-AAAB-17DF9F0CF7F0}"/>
-    <hyperlink ref="C572" r:id="rId391" xr:uid="{A205FA7C-6681-40D4-A47B-FC84F2C097C3}"/>
-    <hyperlink ref="C573" r:id="rId392" xr:uid="{B320A5FD-5557-466B-B966-C1DDA2E33FFE}"/>
-    <hyperlink ref="C574" r:id="rId393" xr:uid="{DE5A1511-A39F-496A-8575-46553EA415DB}"/>
-    <hyperlink ref="C575" r:id="rId394" xr:uid="{54BFCDF5-02D5-4409-A48E-C55C05047514}"/>
-    <hyperlink ref="C576" r:id="rId395" xr:uid="{B69EFF78-F931-4575-A1FA-58593859985E}"/>
-    <hyperlink ref="C577" r:id="rId396" xr:uid="{13B94C7A-E67E-4EB8-B4D8-2A3234D164CC}"/>
-    <hyperlink ref="C578" r:id="rId397" xr:uid="{DB51BCC1-5E94-43ED-9517-2321A6B32DF0}"/>
-    <hyperlink ref="C579" r:id="rId398" xr:uid="{72C442FB-07E7-4DE1-86F7-2AE12AFEBE7A}"/>
-    <hyperlink ref="C580" r:id="rId399" location="!/" xr:uid="{04DC35A4-063A-43A8-932E-FB1B9A14C219}"/>
-    <hyperlink ref="C581" r:id="rId400" xr:uid="{C323FC02-8DEA-4781-B895-2FD6B9B0C44D}"/>
-    <hyperlink ref="C582" r:id="rId401" xr:uid="{B1E2D56C-98C0-4786-833B-3B5776548568}"/>
-    <hyperlink ref="C583" r:id="rId402" xr:uid="{FBC70C5A-129B-44BD-85F0-DF012BCE4004}"/>
-    <hyperlink ref="C584" r:id="rId403" xr:uid="{05D72F49-F903-4D42-9E57-35474F7F44FC}"/>
-    <hyperlink ref="C585" r:id="rId404" xr:uid="{4719F381-6642-4967-B6AF-84D3F7187804}"/>
-    <hyperlink ref="C586" r:id="rId405" xr:uid="{6143B024-9C5B-4490-8BA6-14C5C49A6197}"/>
-    <hyperlink ref="C587" r:id="rId406" xr:uid="{117D6351-A721-4152-AE45-8363052AF1DA}"/>
-    <hyperlink ref="C588" r:id="rId407" xr:uid="{42EDD3BC-F6C4-496C-BE58-4D192DC0D42B}"/>
-    <hyperlink ref="C589" r:id="rId408" xr:uid="{2096EBC8-AB77-4974-A8C8-77B8F8035926}"/>
-    <hyperlink ref="C590" r:id="rId409" xr:uid="{955805AD-F27D-48B6-9756-5D4F8495E7D5}"/>
-    <hyperlink ref="C591" r:id="rId410" xr:uid="{270A0EAF-AE20-4111-ACF5-FC0704993ABD}"/>
-    <hyperlink ref="C592" r:id="rId411" xr:uid="{AD956C65-AA57-4A8D-8D42-DE8F794B6F21}"/>
-    <hyperlink ref="C593" r:id="rId412" location="open" xr:uid="{D7500A2F-0106-4CE6-8C6A-E3B67D9CB3F9}"/>
-    <hyperlink ref="C594" r:id="rId413" xr:uid="{DB69FE40-AF68-4386-941A-E78E4F64A491}"/>
-    <hyperlink ref="C595" r:id="rId414" xr:uid="{CBE9061D-B31F-4F31-AF55-1D760A5F4ADE}"/>
-    <hyperlink ref="C596" r:id="rId415" xr:uid="{BC6229AA-166C-413B-9857-4925D0E8491F}"/>
-    <hyperlink ref="C597" r:id="rId416" xr:uid="{EF349A16-11B1-4343-ABF7-DAB8CCECD660}"/>
-    <hyperlink ref="C598" r:id="rId417" xr:uid="{1425EE22-1A55-449D-B535-DFD08028D799}"/>
-    <hyperlink ref="C599" r:id="rId418" xr:uid="{9D41DAB8-CFDB-41DA-825E-31520BFB9933}"/>
-    <hyperlink ref="C600" r:id="rId419" xr:uid="{02E1B673-097B-4298-9C6F-433F905915A4}"/>
-    <hyperlink ref="C601" r:id="rId420" xr:uid="{E72A4961-162D-4C2F-B1E0-C0BCB5188B48}"/>
-    <hyperlink ref="C602" r:id="rId421" xr:uid="{12B68180-319E-4112-A5B4-190810568F1F}"/>
-    <hyperlink ref="C603" r:id="rId422" xr:uid="{BE0A5EE3-218F-4D30-A6E8-1E93E133D0BB}"/>
-    <hyperlink ref="C604" r:id="rId423" xr:uid="{F5065747-C711-4491-9C5E-AC13FB269444}"/>
-    <hyperlink ref="C605" r:id="rId424" location="jobs" xr:uid="{126B5615-EFE3-49EE-8F6D-D79A3735D118}"/>
-    <hyperlink ref="C606" r:id="rId425" location="careers" xr:uid="{65E2884C-B5B3-41C3-8F92-5F7EB3081F34}"/>
-    <hyperlink ref="C607" r:id="rId426" xr:uid="{84261243-0785-401E-B68B-9487AB35F50C}"/>
-    <hyperlink ref="C608" r:id="rId427" xr:uid="{2DD98728-8AE2-4F71-AD6E-526A7852B7D0}"/>
-    <hyperlink ref="C609" r:id="rId428" location="section-7" xr:uid="{69286158-F382-4303-BB71-88D4332F1369}"/>
-    <hyperlink ref="C610" r:id="rId429" xr:uid="{04DAA4B2-D822-4B31-B0D0-445D2F2A78C1}"/>
-    <hyperlink ref="C611" r:id="rId430" xr:uid="{4E60FB31-35F3-4498-A4CE-12A7777A947D}"/>
-    <hyperlink ref="C551" r:id="rId431" location="jobs" xr:uid="{5C0F4C96-9B3B-4D1A-B96A-B62BBB16F95C}"/>
-    <hyperlink ref="C548" r:id="rId432" xr:uid="{78269DBD-70DE-4002-94AC-8F7C5EBAD0BB}"/>
-    <hyperlink ref="C536" r:id="rId433" xr:uid="{7F2106E2-6C42-4676-ADFB-8766AD1D8C7F}"/>
-    <hyperlink ref="C528" r:id="rId434" xr:uid="{FDDD58D2-3726-4A76-B749-4AA0BF3C61E7}"/>
-    <hyperlink ref="C523" r:id="rId435" xr:uid="{D9099EDC-F207-4ED4-BD7B-DDC40D407E91}"/>
-    <hyperlink ref="C493" r:id="rId436" xr:uid="{68DFA0AF-3499-4D2B-B4E5-FBB2B9B5D9B0}"/>
-    <hyperlink ref="C487" r:id="rId437" xr:uid="{D31C32E4-044A-4A08-A06B-984C49A134DE}"/>
-    <hyperlink ref="C496" r:id="rId438" xr:uid="{13448FAD-901D-4E34-B068-D313CA172FE1}"/>
-    <hyperlink ref="C503" r:id="rId439" xr:uid="{F3A5AFB3-C32A-4854-B61E-F54F4EE24DB9}"/>
-    <hyperlink ref="C522" r:id="rId440" xr:uid="{D15B8EA9-CFDE-4272-AEDA-37CD3671E069}"/>
-    <hyperlink ref="C526" r:id="rId441" xr:uid="{CE3A5CF4-C5D1-4C96-BEE4-E2938F7A5917}"/>
-    <hyperlink ref="C534" r:id="rId442" xr:uid="{23628B89-F180-4FE7-820F-BE5ADDEC3DA1}"/>
+    <hyperlink ref="C553" r:id="rId371" xr:uid="{F9D7C960-4BE7-4574-A84F-054E7851BE14}"/>
+    <hyperlink ref="C555" r:id="rId372" xr:uid="{6EA16462-029F-4685-8A3E-BB40BF758B8E}"/>
+    <hyperlink ref="C556" r:id="rId373" xr:uid="{56284072-CF1B-4DFF-95E3-1B1FD543AA7C}"/>
+    <hyperlink ref="C557" r:id="rId374" xr:uid="{9935BF11-B5B2-436A-BA24-095549EE2275}"/>
+    <hyperlink ref="C558" r:id="rId375" xr:uid="{728297E8-FFCC-4207-9288-E27836984359}"/>
+    <hyperlink ref="C560" r:id="rId376" location="jobs" xr:uid="{FEF367BD-2E7C-4D2F-BCB2-026742C57CCB}"/>
+    <hyperlink ref="C561" r:id="rId377" location="/" xr:uid="{D27B19CE-4C65-47FC-B836-12C1F0966513}"/>
+    <hyperlink ref="C562" r:id="rId378" xr:uid="{6FF72679-7591-4E98-80F3-8286E88DFADE}"/>
+    <hyperlink ref="C565" r:id="rId379" xr:uid="{4F829D9F-05D6-45E6-B18E-ED39EF1F1E75}"/>
+    <hyperlink ref="C566" r:id="rId380" xr:uid="{742A871C-8DE4-41A7-9E03-9936F2C1379B}"/>
+    <hyperlink ref="C568" r:id="rId381" xr:uid="{43C03DD8-0E10-4E69-B3D2-7353BF75DFD5}"/>
+    <hyperlink ref="C569" r:id="rId382" xr:uid="{96FE7E5F-71A4-4E0F-BCEA-50F6216B86A0}"/>
+    <hyperlink ref="C570" r:id="rId383" xr:uid="{D549222F-9D20-4791-A0D6-8C04117D714D}"/>
+    <hyperlink ref="C571" r:id="rId384" xr:uid="{C942CDD3-1401-4F82-AAAB-17DF9F0CF7F0}"/>
+    <hyperlink ref="C572" r:id="rId385" xr:uid="{A205FA7C-6681-40D4-A47B-FC84F2C097C3}"/>
+    <hyperlink ref="C573" r:id="rId386" xr:uid="{B320A5FD-5557-466B-B966-C1DDA2E33FFE}"/>
+    <hyperlink ref="C574" r:id="rId387" xr:uid="{DE5A1511-A39F-496A-8575-46553EA415DB}"/>
+    <hyperlink ref="C575" r:id="rId388" xr:uid="{54BFCDF5-02D5-4409-A48E-C55C05047514}"/>
+    <hyperlink ref="C576" r:id="rId389" xr:uid="{B69EFF78-F931-4575-A1FA-58593859985E}"/>
+    <hyperlink ref="C577" r:id="rId390" xr:uid="{13B94C7A-E67E-4EB8-B4D8-2A3234D164CC}"/>
+    <hyperlink ref="C578" r:id="rId391" xr:uid="{DB51BCC1-5E94-43ED-9517-2321A6B32DF0}"/>
+    <hyperlink ref="C579" r:id="rId392" xr:uid="{72C442FB-07E7-4DE1-86F7-2AE12AFEBE7A}"/>
+    <hyperlink ref="C580" r:id="rId393" location="!/" xr:uid="{04DC35A4-063A-43A8-932E-FB1B9A14C219}"/>
+    <hyperlink ref="C581" r:id="rId394" xr:uid="{C323FC02-8DEA-4781-B895-2FD6B9B0C44D}"/>
+    <hyperlink ref="C582" r:id="rId395" xr:uid="{B1E2D56C-98C0-4786-833B-3B5776548568}"/>
+    <hyperlink ref="C583" r:id="rId396" xr:uid="{FBC70C5A-129B-44BD-85F0-DF012BCE4004}"/>
+    <hyperlink ref="C584" r:id="rId397" xr:uid="{05D72F49-F903-4D42-9E57-35474F7F44FC}"/>
+    <hyperlink ref="C585" r:id="rId398" xr:uid="{4719F381-6642-4967-B6AF-84D3F7187804}"/>
+    <hyperlink ref="C586" r:id="rId399" xr:uid="{6143B024-9C5B-4490-8BA6-14C5C49A6197}"/>
+    <hyperlink ref="C587" r:id="rId400" xr:uid="{117D6351-A721-4152-AE45-8363052AF1DA}"/>
+    <hyperlink ref="C588" r:id="rId401" xr:uid="{42EDD3BC-F6C4-496C-BE58-4D192DC0D42B}"/>
+    <hyperlink ref="C589" r:id="rId402" xr:uid="{2096EBC8-AB77-4974-A8C8-77B8F8035926}"/>
+    <hyperlink ref="C590" r:id="rId403" xr:uid="{955805AD-F27D-48B6-9756-5D4F8495E7D5}"/>
+    <hyperlink ref="C591" r:id="rId404" xr:uid="{270A0EAF-AE20-4111-ACF5-FC0704993ABD}"/>
+    <hyperlink ref="C592" r:id="rId405" xr:uid="{AD956C65-AA57-4A8D-8D42-DE8F794B6F21}"/>
+    <hyperlink ref="C593" r:id="rId406" location="open" xr:uid="{D7500A2F-0106-4CE6-8C6A-E3B67D9CB3F9}"/>
+    <hyperlink ref="C594" r:id="rId407" xr:uid="{DB69FE40-AF68-4386-941A-E78E4F64A491}"/>
+    <hyperlink ref="C595" r:id="rId408" xr:uid="{CBE9061D-B31F-4F31-AF55-1D760A5F4ADE}"/>
+    <hyperlink ref="C596" r:id="rId409" xr:uid="{BC6229AA-166C-413B-9857-4925D0E8491F}"/>
+    <hyperlink ref="C597" r:id="rId410" xr:uid="{EF349A16-11B1-4343-ABF7-DAB8CCECD660}"/>
+    <hyperlink ref="C598" r:id="rId411" xr:uid="{1425EE22-1A55-449D-B535-DFD08028D799}"/>
+    <hyperlink ref="C599" r:id="rId412" xr:uid="{9D41DAB8-CFDB-41DA-825E-31520BFB9933}"/>
+    <hyperlink ref="C600" r:id="rId413" xr:uid="{02E1B673-097B-4298-9C6F-433F905915A4}"/>
+    <hyperlink ref="C601" r:id="rId414" xr:uid="{E72A4961-162D-4C2F-B1E0-C0BCB5188B48}"/>
+    <hyperlink ref="C602" r:id="rId415" xr:uid="{12B68180-319E-4112-A5B4-190810568F1F}"/>
+    <hyperlink ref="C603" r:id="rId416" xr:uid="{BE0A5EE3-218F-4D30-A6E8-1E93E133D0BB}"/>
+    <hyperlink ref="C604" r:id="rId417" xr:uid="{F5065747-C711-4491-9C5E-AC13FB269444}"/>
+    <hyperlink ref="C605" r:id="rId418" location="jobs" xr:uid="{126B5615-EFE3-49EE-8F6D-D79A3735D118}"/>
+    <hyperlink ref="C606" r:id="rId419" location="careers" xr:uid="{65E2884C-B5B3-41C3-8F92-5F7EB3081F34}"/>
+    <hyperlink ref="C567" r:id="rId420" xr:uid="{84261243-0785-401E-B68B-9487AB35F50C}"/>
+    <hyperlink ref="C564" r:id="rId421" xr:uid="{2DD98728-8AE2-4F71-AD6E-526A7852B7D0}"/>
+    <hyperlink ref="C563" r:id="rId422" location="section-7" xr:uid="{69286158-F382-4303-BB71-88D4332F1369}"/>
+    <hyperlink ref="C559" r:id="rId423" xr:uid="{04DAA4B2-D822-4B31-B0D0-445D2F2A78C1}"/>
+    <hyperlink ref="C554" r:id="rId424" xr:uid="{4E60FB31-35F3-4498-A4CE-12A7777A947D}"/>
+    <hyperlink ref="C551" r:id="rId425" location="jobs" xr:uid="{5C0F4C96-9B3B-4D1A-B96A-B62BBB16F95C}"/>
+    <hyperlink ref="C548" r:id="rId426" xr:uid="{78269DBD-70DE-4002-94AC-8F7C5EBAD0BB}"/>
+    <hyperlink ref="C536" r:id="rId427" xr:uid="{7F2106E2-6C42-4676-ADFB-8766AD1D8C7F}"/>
+    <hyperlink ref="C528" r:id="rId428" xr:uid="{FDDD58D2-3726-4A76-B749-4AA0BF3C61E7}"/>
+    <hyperlink ref="C523" r:id="rId429" xr:uid="{D9099EDC-F207-4ED4-BD7B-DDC40D407E91}"/>
+    <hyperlink ref="C493" r:id="rId430" xr:uid="{68DFA0AF-3499-4D2B-B4E5-FBB2B9B5D9B0}"/>
+    <hyperlink ref="C487" r:id="rId431" xr:uid="{D31C32E4-044A-4A08-A06B-984C49A134DE}"/>
+    <hyperlink ref="C496" r:id="rId432" xr:uid="{13448FAD-901D-4E34-B068-D313CA172FE1}"/>
+    <hyperlink ref="C503" r:id="rId433" xr:uid="{F3A5AFB3-C32A-4854-B61E-F54F4EE24DB9}"/>
+    <hyperlink ref="C522" r:id="rId434" xr:uid="{D15B8EA9-CFDE-4272-AEDA-37CD3671E069}"/>
+    <hyperlink ref="C526" r:id="rId435" xr:uid="{CE3A5CF4-C5D1-4C96-BEE4-E2938F7A5917}"/>
+    <hyperlink ref="C534" r:id="rId436" xr:uid="{23628B89-F180-4FE7-820F-BE5ADDEC3DA1}"/>
+    <hyperlink ref="C552" r:id="rId437" xr:uid="{172A6259-BCF2-46F0-B3B8-0D564288D26E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projects\shiva\dbot-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD840420-FF8F-459F-ABF2-5A3114CE887E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C244D04D-1C68-43A8-95D2-B92D6AB7F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1304">
   <si>
     <t>ID</t>
   </si>
@@ -3670,9 +3670,6 @@
     <t>https://www.woburn.co.uk/careers/</t>
   </si>
   <si>
-    <t>https://ce0499li.webitrent.com/ce0499li_webrecruitment/wrd/run/ETREC105GF?USESSION=DFCB4C36B31366E4C7AC1EE43F7FFCA1&amp;WVID=5199522PPO&amp;LANG=USA</t>
-  </si>
-  <si>
     <t>https://www.hill.co.uk/group</t>
   </si>
   <si>
@@ -3691,15 +3688,9 @@
     <t>https://livegroup.co.uk/recruitment-careers/</t>
   </si>
   <si>
-    <t>https://www.thelondonclinic-careers.co.uk/Home/Guest#!/</t>
-  </si>
-  <si>
     <t>https://apply.workable.com/the-office-group/</t>
   </si>
   <si>
-    <t>https://the-psc.breezy.hr/</t>
-  </si>
-  <si>
     <t>The Hill Group (Sales and Marketing)</t>
   </si>
   <si>
@@ -3721,9 +3712,6 @@
     <t>The Office Group</t>
   </si>
   <si>
-    <t>The PSC</t>
-  </si>
-  <si>
     <t>https://www.jobtrain.co.uk/theroyalparks/Home/Job?</t>
   </si>
   <si>
@@ -3745,9 +3733,6 @@
     <t>https://www.toscaltd.com/en-gb/jobs/</t>
   </si>
   <si>
-    <t>https://careers.ptsg.co.uk/jobs</t>
-  </si>
-  <si>
     <t>https://apply.workable.com/totallymoney/?lng=en</t>
   </si>
   <si>
@@ -3766,9 +3751,6 @@
     <t>https://up3.co.uk/about/servicenow-careers-with-up3/</t>
   </si>
   <si>
-    <t>https://www.vedetteconsulting.com/careers-jobs/</t>
-  </si>
-  <si>
     <t>https://fullyvested.com/join-the-team/</t>
   </si>
   <si>
@@ -3799,9 +3781,6 @@
     <t>Tosca</t>
   </si>
   <si>
-    <t>Total Environmental Compliance (Part of PTSG)</t>
-  </si>
-  <si>
     <t>TotallyMoney.com</t>
   </si>
   <si>
@@ -3820,9 +3799,6 @@
     <t>UP3</t>
   </si>
   <si>
-    <t>Vedette Consulting</t>
-  </si>
-  <si>
     <t>Vested Communications</t>
   </si>
   <si>
@@ -3838,12 +3814,6 @@
     <t>Vivobarefoot</t>
   </si>
   <si>
-    <t>Volante Technologies</t>
-  </si>
-  <si>
-    <t>Way of Life</t>
-  </si>
-  <si>
     <t>WeFlex</t>
   </si>
   <si>
@@ -3868,12 +3838,6 @@
     <t>https://careers.vivobarefoot.com/jobs</t>
   </si>
   <si>
-    <t>https://jobs.lever.co/volantetech</t>
-  </si>
-  <si>
-    <t>https://www.wayoflife.com/work-with-us</t>
-  </si>
-  <si>
     <t>https://apply.workable.com/weflex-ltd/#jobs</t>
   </si>
   <si>
@@ -3962,6 +3926,12 @@
   </si>
   <si>
     <t>https://westrockta.avature.net/en_US/careers/SearchJobs/</t>
+  </si>
+  <si>
+    <t>https://ce0499li.webitrent.com/ce0499li_webrecruitment/</t>
+  </si>
+  <si>
+    <t>https://www.thelondonclinic-careers.co.uk/VacancyPosting/Search#!/</t>
   </si>
 </sst>
 </file>
@@ -4725,10 +4695,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G903"/>
+  <dimension ref="A1:G898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C623" sqref="C623"/>
+    <sheetView tabSelected="1" topLeftCell="A624" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B616" sqref="B616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -12173,10 +12143,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="67" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="C487" s="50" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="D487" s="39" t="s">
         <v>3</v>
@@ -12205,7 +12175,7 @@
         <v>1075</v>
       </c>
       <c r="C489" s="57" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="D489" s="10" t="s">
         <v>3</v>
@@ -12258,10 +12228,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="66" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="C493" s="50" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="D493" s="39" t="s">
         <v>3</v>
@@ -12301,10 +12271,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="52" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="C496" s="50" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="D496" s="39" t="s">
         <v>3</v>
@@ -12400,10 +12370,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="52" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="C503" s="50" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="D503" s="39" t="s">
         <v>3</v>
@@ -12695,10 +12665,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="51" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="C523" s="50" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="D523" s="10" t="s">
         <v>3</v>
@@ -12770,10 +12740,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="52" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="C528" s="50" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="D528" s="39" t="s">
         <v>3</v>
@@ -12890,10 +12860,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="52" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="C536" s="50" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="D536" s="39" t="s">
         <v>3</v>
@@ -13070,10 +13040,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="51" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="C548" s="50" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="D548" s="39" t="s">
         <v>3</v>
@@ -13115,10 +13085,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="C551" s="50" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="D551" s="39" t="s">
         <v>3</v>
@@ -13160,10 +13130,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="51" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="C554" s="50" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="D554" s="39" t="s">
         <v>3</v>
@@ -13235,10 +13205,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="51" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="C559" s="50" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="D559" s="39" t="s">
         <v>3</v>
@@ -13295,10 +13265,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="51" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="C563" s="50" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="D563" s="10" t="s">
         <v>3</v>
@@ -13310,10 +13280,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="51" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="C564" s="50" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="D564" s="39" t="s">
         <v>3</v>
@@ -13343,7 +13313,7 @@
         <v>1193</v>
       </c>
       <c r="C566" s="50" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="D566" s="39" t="s">
         <v>3</v>
@@ -13355,10 +13325,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="52" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="C567" s="50" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="D567" s="39" t="s">
         <v>3</v>
@@ -13388,7 +13358,7 @@
         <v>1195</v>
       </c>
       <c r="C569" s="50" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="D569" s="10" t="s">
         <v>3</v>
@@ -13418,7 +13388,7 @@
         <v>1197</v>
       </c>
       <c r="C571" s="50" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="D571" s="39" t="s">
         <v>3</v>
@@ -13426,7 +13396,9 @@
       <c r="E571" s="28"/>
     </row>
     <row r="572" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A572" s="20"/>
+      <c r="A572" s="20">
+        <v>571</v>
+      </c>
       <c r="B572" s="51" t="s">
         <v>1198</v>
       </c>
@@ -13439,12 +13411,14 @@
       <c r="E572" s="28"/>
     </row>
     <row r="573" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A573" s="20"/>
+      <c r="A573" s="20">
+        <v>572</v>
+      </c>
       <c r="B573" s="52" t="s">
         <v>1199</v>
       </c>
       <c r="C573" s="50" t="s">
-        <v>1216</v>
+        <v>1302</v>
       </c>
       <c r="D573" s="39" t="s">
         <v>3</v>
@@ -13452,433 +13426,459 @@
       <c r="E573" s="28"/>
     </row>
     <row r="574" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A574" s="20"/>
+      <c r="A574" s="20">
+        <v>573</v>
+      </c>
       <c r="B574" s="2" t="s">
         <v>1200</v>
       </c>
       <c r="C574" s="50" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D574" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E574" s="28"/>
+    </row>
+    <row r="575" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A575" s="20">
+        <v>574</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C575" s="50" t="s">
         <v>1217</v>
       </c>
-      <c r="D574" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E574" s="28"/>
-    </row>
-    <row r="575" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A575" s="20"/>
-      <c r="B575" s="2" t="s">
+      <c r="D575" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E575" s="28"/>
+    </row>
+    <row r="576" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A576" s="20">
+        <v>575</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C576" s="50" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D576" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E576" s="28"/>
+    </row>
+    <row r="577" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A577" s="20">
+        <v>576</v>
+      </c>
+      <c r="B577" s="51" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C577" s="50" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D577" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E577" s="28"/>
+    </row>
+    <row r="578" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A578" s="20">
+        <v>577</v>
+      </c>
+      <c r="B578" s="52" t="s">
         <v>1226</v>
       </c>
-      <c r="C575" s="50" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D575" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E575" s="28"/>
-    </row>
-    <row r="576" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A576" s="20"/>
-      <c r="B576" s="2" t="s">
+      <c r="C578" s="50" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D578" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E578" s="28"/>
+    </row>
+    <row r="579" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A579" s="20">
+        <v>578</v>
+      </c>
+      <c r="B579" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="C576" s="50" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D576" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E576" s="28"/>
-    </row>
-    <row r="577" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A577" s="20"/>
-      <c r="B577" s="51" t="s">
+      <c r="C579" s="50" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D579" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E579" s="28"/>
+    </row>
+    <row r="580" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A580" s="20">
+        <v>579</v>
+      </c>
+      <c r="B580" s="52" t="s">
         <v>1228</v>
       </c>
-      <c r="C577" s="50" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D577" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E577" s="28"/>
-    </row>
-    <row r="578" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A578" s="20"/>
-      <c r="B578" s="52" t="s">
+      <c r="C580" s="50" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D580" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E580" s="28"/>
+    </row>
+    <row r="581" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A581" s="20">
+        <v>580</v>
+      </c>
+      <c r="B581" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="C578" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D578" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E578" s="28"/>
-    </row>
-    <row r="579" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A579" s="20"/>
-      <c r="B579" s="2" t="s">
+      <c r="C581" s="50" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D581" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E581" s="28"/>
+    </row>
+    <row r="582" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A582" s="20">
+        <v>581</v>
+      </c>
+      <c r="B582" s="51" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C582" s="50" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D582" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E582" s="28"/>
+    </row>
+    <row r="583" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A583" s="20">
+        <v>582</v>
+      </c>
+      <c r="B583" s="51" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C583" s="50" t="s">
         <v>1230</v>
       </c>
-      <c r="C579" s="50" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D579" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E579" s="28"/>
-    </row>
-    <row r="580" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A580" s="20"/>
-      <c r="B580" s="52" t="s">
+      <c r="D583" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E583" s="28"/>
+    </row>
+    <row r="584" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A584" s="20">
+        <v>583</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C584" s="50" t="s">
         <v>1231</v>
       </c>
-      <c r="C580" s="50" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D580" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E580" s="28"/>
-    </row>
-    <row r="581" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A581" s="20"/>
-      <c r="B581" s="2" t="s">
+      <c r="D584" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E584" s="28"/>
+    </row>
+    <row r="585" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A585" s="20">
+        <v>584</v>
+      </c>
+      <c r="B585" s="52" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C585" s="50" t="s">
         <v>1232</v>
       </c>
-      <c r="C581" s="50" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D581" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E581" s="28"/>
-    </row>
-    <row r="582" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A582" s="20"/>
-      <c r="B582" s="2" t="s">
+      <c r="D585" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E585" s="28"/>
+    </row>
+    <row r="586" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A586" s="20">
+        <v>585</v>
+      </c>
+      <c r="B586" s="52" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C586" s="50" t="s">
         <v>1233</v>
       </c>
-      <c r="C582" s="50" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D582" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E582" s="28"/>
-    </row>
-    <row r="583" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A583" s="20"/>
-      <c r="B583" s="51" t="s">
+      <c r="D586" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E586" s="28"/>
+    </row>
+    <row r="587" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A587" s="20">
+        <v>586</v>
+      </c>
+      <c r="B587" s="51" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C587" s="50" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D587" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E587" s="28"/>
+    </row>
+    <row r="588" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A588" s="20">
+        <v>587</v>
+      </c>
+      <c r="B588" s="52" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C588" s="50" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D588" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E588" s="28"/>
+    </row>
+    <row r="589" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A589" s="20">
+        <v>588</v>
+      </c>
+      <c r="B589" s="52" t="s">
         <v>1252</v>
       </c>
-      <c r="C583" s="50" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D583" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E583" s="28"/>
-    </row>
-    <row r="584" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A584" s="20"/>
-      <c r="B584" s="2" t="s">
+      <c r="C589" s="50" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D589" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E589" s="28"/>
+    </row>
+    <row r="590" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A590" s="20">
+        <v>589</v>
+      </c>
+      <c r="B590" s="52" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C590" s="50" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D590" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E590" s="28"/>
+    </row>
+    <row r="591" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A591" s="20">
+        <v>590</v>
+      </c>
+      <c r="B591" s="52" t="s">
         <v>1253</v>
       </c>
-      <c r="C584" s="50" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D584" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E584" s="28"/>
-    </row>
-    <row r="585" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A585" s="20"/>
-      <c r="B585" s="52" t="s">
+      <c r="C591" s="50" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D591" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E591" s="28"/>
+    </row>
+    <row r="592" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A592" s="20">
+        <v>591</v>
+      </c>
+      <c r="B592" s="52" t="s">
         <v>1254</v>
       </c>
-      <c r="C585" s="50" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D585" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E585" s="28"/>
-    </row>
-    <row r="586" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A586" s="20"/>
-      <c r="B586" s="52" t="s">
+      <c r="C592" s="50" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D592" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E592" s="28"/>
+    </row>
+    <row r="593" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A593" s="20">
+        <v>592</v>
+      </c>
+      <c r="B593" s="52" t="s">
         <v>1255</v>
       </c>
-      <c r="C586" s="50" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D586" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E586" s="28"/>
-    </row>
-    <row r="587" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A587" s="20"/>
-      <c r="B587" s="51" t="s">
+      <c r="C593" s="50" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D593" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E593" s="28"/>
+    </row>
+    <row r="594" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A594" s="20">
+        <v>593</v>
+      </c>
+      <c r="B594" s="52" t="s">
         <v>1256</v>
       </c>
-      <c r="C587" s="50" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D587" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E587" s="28"/>
-    </row>
-    <row r="588" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A588" s="20"/>
-      <c r="B588" s="52" t="s">
+      <c r="C594" s="50" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D594" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E594" s="28"/>
+    </row>
+    <row r="595" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A595" s="20">
+        <v>594</v>
+      </c>
+      <c r="B595" s="52" t="s">
         <v>1257</v>
       </c>
-      <c r="C588" s="50" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D588" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E588" s="28"/>
-    </row>
-    <row r="589" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A589" s="20"/>
-      <c r="B589" s="52" t="s">
+      <c r="C595" s="50" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D595" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E595" s="28"/>
+    </row>
+    <row r="596" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A596" s="20">
+        <v>595</v>
+      </c>
+      <c r="B596" s="52" t="s">
         <v>1258</v>
       </c>
-      <c r="C589" s="50" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D589" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E589" s="28"/>
-    </row>
-    <row r="590" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A590" s="20"/>
-      <c r="B590" s="51" t="s">
+      <c r="C596" s="50" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D596" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E596" s="28"/>
+    </row>
+    <row r="597" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A597" s="20">
+        <v>596</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C597" s="50" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D597" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E597" s="28"/>
+    </row>
+    <row r="598" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A598" s="20">
+        <v>597</v>
+      </c>
+      <c r="B598" s="52" t="s">
         <v>1259</v>
       </c>
-      <c r="C590" s="50" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D590" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E590" s="28"/>
-    </row>
-    <row r="591" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A591" s="20"/>
-      <c r="B591" s="52" t="s">
+      <c r="C598" s="50" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D598" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E598" s="28"/>
+    </row>
+    <row r="599" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A599" s="20">
+        <v>598</v>
+      </c>
+      <c r="B599" s="52" t="s">
         <v>1260</v>
       </c>
-      <c r="C591" s="50" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D591" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E591" s="28"/>
-    </row>
-    <row r="592" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A592" s="20"/>
-      <c r="B592" s="52" t="s">
+      <c r="C599" s="50" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D599" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E599" s="28"/>
+    </row>
+    <row r="600" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A600" s="20">
+        <v>599</v>
+      </c>
+      <c r="B600" s="52" t="s">
         <v>1261</v>
       </c>
-      <c r="C592" s="50" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D592" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E592" s="28"/>
-    </row>
-    <row r="593" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A593" s="20"/>
-      <c r="B593" s="52" t="s">
+      <c r="C600" s="50" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D600" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E600" s="28"/>
+    </row>
+    <row r="601" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A601" s="20">
+        <v>600</v>
+      </c>
+      <c r="B601" s="52" t="s">
         <v>1262</v>
       </c>
-      <c r="C593" s="50" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D593" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E593" s="28"/>
-    </row>
-    <row r="594" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A594" s="20"/>
-      <c r="B594" s="52" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C594" s="50" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D594" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E594" s="28"/>
-    </row>
-    <row r="595" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A595" s="20"/>
-      <c r="B595" s="52" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C595" s="50" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D595" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E595" s="28"/>
-    </row>
-    <row r="596" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A596" s="20"/>
-      <c r="B596" s="52" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C596" s="50" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D596" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E596" s="28"/>
-    </row>
-    <row r="597" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A597" s="20"/>
-      <c r="B597" s="52" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C597" s="50" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D597" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E597" s="28"/>
-    </row>
-    <row r="598" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A598" s="20"/>
-      <c r="B598" s="52" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C598" s="50" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D598" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E598" s="28"/>
-    </row>
-    <row r="599" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A599" s="20"/>
-      <c r="B599" s="52" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C599" s="50" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D599" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E599" s="28"/>
-    </row>
-    <row r="600" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A600" s="20"/>
-      <c r="B600" s="52" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C600" s="50" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D600" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E600" s="28"/>
-    </row>
-    <row r="601" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A601" s="20"/>
-      <c r="B601" s="52" t="s">
+      <c r="C601" s="50" t="s">
         <v>1270</v>
       </c>
-      <c r="C601" s="50" t="s">
-        <v>1280</v>
-      </c>
       <c r="D601" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E601" s="28"/>
     </row>
-    <row r="602" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A602" s="20"/>
-      <c r="B602" s="2" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C602" s="50" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D602" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E602" s="28"/>
-    </row>
-    <row r="603" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A603" s="20"/>
-      <c r="B603" s="51" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C603" s="50" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D603" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E603" s="28"/>
-    </row>
-    <row r="604" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A604" s="20"/>
-      <c r="B604" s="52" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C604" s="50" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D604" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E604" s="28"/>
-    </row>
-    <row r="605" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A605" s="20"/>
-      <c r="B605" s="52" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C605" s="50" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D605" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E605" s="28"/>
-    </row>
-    <row r="606" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A606" s="20"/>
-      <c r="B606" s="51" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C606" s="50" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D606" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E606" s="28"/>
+    <row r="619" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A619" s="27"/>
+      <c r="B619" s="29"/>
+      <c r="C619" s="29"/>
+      <c r="D619" s="28"/>
+      <c r="E619" s="28"/>
+    </row>
+    <row r="620" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A620" s="27"/>
+      <c r="B620" s="29"/>
+      <c r="C620" s="29"/>
+      <c r="D620" s="28"/>
+      <c r="E620" s="28"/>
+    </row>
+    <row r="621" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A621" s="27"/>
+      <c r="B621" s="29"/>
+      <c r="C621" s="29"/>
+      <c r="D621" s="28"/>
+      <c r="E621" s="28"/>
+    </row>
+    <row r="622" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A622" s="27"/>
+      <c r="B622" s="29"/>
+      <c r="C622" s="29"/>
+      <c r="D622" s="28"/>
+      <c r="E622" s="28"/>
+    </row>
+    <row r="623" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A623" s="27"/>
+      <c r="B623" s="29"/>
+      <c r="C623" s="29"/>
+      <c r="D623" s="28"/>
+      <c r="E623" s="28"/>
     </row>
     <row r="624" spans="1:5" ht="15.75" customHeight="1">
       <c r="A624" s="27"/>
@@ -13936,13 +13936,6 @@
       <c r="D631" s="28"/>
       <c r="E631" s="28"/>
     </row>
-    <row r="632" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A632" s="27"/>
-      <c r="B632" s="29"/>
-      <c r="C632" s="29"/>
-      <c r="D632" s="28"/>
-      <c r="E632" s="28"/>
-    </row>
     <row r="633" spans="1:5" ht="15.75" customHeight="1">
       <c r="A633" s="27"/>
       <c r="B633" s="29"/>
@@ -15804,41 +15797,6 @@
       <c r="C898" s="29"/>
       <c r="D898" s="28"/>
       <c r="E898" s="28"/>
-    </row>
-    <row r="899" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A899" s="27"/>
-      <c r="B899" s="29"/>
-      <c r="C899" s="29"/>
-      <c r="D899" s="28"/>
-      <c r="E899" s="28"/>
-    </row>
-    <row r="900" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A900" s="27"/>
-      <c r="B900" s="29"/>
-      <c r="C900" s="29"/>
-      <c r="D900" s="28"/>
-      <c r="E900" s="28"/>
-    </row>
-    <row r="901" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A901" s="27"/>
-      <c r="B901" s="29"/>
-      <c r="C901" s="29"/>
-      <c r="D901" s="28"/>
-      <c r="E901" s="28"/>
-    </row>
-    <row r="902" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A902" s="27"/>
-      <c r="B902" s="29"/>
-      <c r="C902" s="29"/>
-      <c r="D902" s="28"/>
-      <c r="E902" s="28"/>
-    </row>
-    <row r="903" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A903" s="27"/>
-      <c r="B903" s="29"/>
-      <c r="C903" s="29"/>
-      <c r="D903" s="28"/>
-      <c r="E903" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -16233,57 +16191,52 @@
     <hyperlink ref="C571" r:id="rId384" xr:uid="{C942CDD3-1401-4F82-AAAB-17DF9F0CF7F0}"/>
     <hyperlink ref="C572" r:id="rId385" xr:uid="{A205FA7C-6681-40D4-A47B-FC84F2C097C3}"/>
     <hyperlink ref="C573" r:id="rId386" xr:uid="{B320A5FD-5557-466B-B966-C1DDA2E33FFE}"/>
-    <hyperlink ref="C574" r:id="rId387" xr:uid="{DE5A1511-A39F-496A-8575-46553EA415DB}"/>
-    <hyperlink ref="C575" r:id="rId388" xr:uid="{54BFCDF5-02D5-4409-A48E-C55C05047514}"/>
-    <hyperlink ref="C576" r:id="rId389" xr:uid="{B69EFF78-F931-4575-A1FA-58593859985E}"/>
-    <hyperlink ref="C577" r:id="rId390" xr:uid="{13B94C7A-E67E-4EB8-B4D8-2A3234D164CC}"/>
-    <hyperlink ref="C578" r:id="rId391" xr:uid="{DB51BCC1-5E94-43ED-9517-2321A6B32DF0}"/>
-    <hyperlink ref="C579" r:id="rId392" xr:uid="{72C442FB-07E7-4DE1-86F7-2AE12AFEBE7A}"/>
-    <hyperlink ref="C580" r:id="rId393" location="!/" xr:uid="{04DC35A4-063A-43A8-932E-FB1B9A14C219}"/>
-    <hyperlink ref="C581" r:id="rId394" xr:uid="{C323FC02-8DEA-4781-B895-2FD6B9B0C44D}"/>
-    <hyperlink ref="C582" r:id="rId395" xr:uid="{B1E2D56C-98C0-4786-833B-3B5776548568}"/>
-    <hyperlink ref="C583" r:id="rId396" xr:uid="{FBC70C5A-129B-44BD-85F0-DF012BCE4004}"/>
-    <hyperlink ref="C584" r:id="rId397" xr:uid="{05D72F49-F903-4D42-9E57-35474F7F44FC}"/>
-    <hyperlink ref="C585" r:id="rId398" xr:uid="{4719F381-6642-4967-B6AF-84D3F7187804}"/>
-    <hyperlink ref="C586" r:id="rId399" xr:uid="{6143B024-9C5B-4490-8BA6-14C5C49A6197}"/>
-    <hyperlink ref="C587" r:id="rId400" xr:uid="{117D6351-A721-4152-AE45-8363052AF1DA}"/>
-    <hyperlink ref="C588" r:id="rId401" xr:uid="{42EDD3BC-F6C4-496C-BE58-4D192DC0D42B}"/>
-    <hyperlink ref="C589" r:id="rId402" xr:uid="{2096EBC8-AB77-4974-A8C8-77B8F8035926}"/>
-    <hyperlink ref="C590" r:id="rId403" xr:uid="{955805AD-F27D-48B6-9756-5D4F8495E7D5}"/>
-    <hyperlink ref="C591" r:id="rId404" xr:uid="{270A0EAF-AE20-4111-ACF5-FC0704993ABD}"/>
-    <hyperlink ref="C592" r:id="rId405" xr:uid="{AD956C65-AA57-4A8D-8D42-DE8F794B6F21}"/>
-    <hyperlink ref="C593" r:id="rId406" location="open" xr:uid="{D7500A2F-0106-4CE6-8C6A-E3B67D9CB3F9}"/>
-    <hyperlink ref="C594" r:id="rId407" xr:uid="{DB69FE40-AF68-4386-941A-E78E4F64A491}"/>
-    <hyperlink ref="C595" r:id="rId408" xr:uid="{CBE9061D-B31F-4F31-AF55-1D760A5F4ADE}"/>
-    <hyperlink ref="C596" r:id="rId409" xr:uid="{BC6229AA-166C-413B-9857-4925D0E8491F}"/>
-    <hyperlink ref="C597" r:id="rId410" xr:uid="{EF349A16-11B1-4343-ABF7-DAB8CCECD660}"/>
-    <hyperlink ref="C598" r:id="rId411" xr:uid="{1425EE22-1A55-449D-B535-DFD08028D799}"/>
-    <hyperlink ref="C599" r:id="rId412" xr:uid="{9D41DAB8-CFDB-41DA-825E-31520BFB9933}"/>
-    <hyperlink ref="C600" r:id="rId413" xr:uid="{02E1B673-097B-4298-9C6F-433F905915A4}"/>
-    <hyperlink ref="C601" r:id="rId414" xr:uid="{E72A4961-162D-4C2F-B1E0-C0BCB5188B48}"/>
-    <hyperlink ref="C602" r:id="rId415" xr:uid="{12B68180-319E-4112-A5B4-190810568F1F}"/>
-    <hyperlink ref="C603" r:id="rId416" xr:uid="{BE0A5EE3-218F-4D30-A6E8-1E93E133D0BB}"/>
-    <hyperlink ref="C604" r:id="rId417" xr:uid="{F5065747-C711-4491-9C5E-AC13FB269444}"/>
-    <hyperlink ref="C605" r:id="rId418" location="jobs" xr:uid="{126B5615-EFE3-49EE-8F6D-D79A3735D118}"/>
-    <hyperlink ref="C606" r:id="rId419" location="careers" xr:uid="{65E2884C-B5B3-41C3-8F92-5F7EB3081F34}"/>
-    <hyperlink ref="C567" r:id="rId420" xr:uid="{84261243-0785-401E-B68B-9487AB35F50C}"/>
-    <hyperlink ref="C564" r:id="rId421" xr:uid="{2DD98728-8AE2-4F71-AD6E-526A7852B7D0}"/>
-    <hyperlink ref="C563" r:id="rId422" location="section-7" xr:uid="{69286158-F382-4303-BB71-88D4332F1369}"/>
-    <hyperlink ref="C559" r:id="rId423" xr:uid="{04DAA4B2-D822-4B31-B0D0-445D2F2A78C1}"/>
-    <hyperlink ref="C554" r:id="rId424" xr:uid="{4E60FB31-35F3-4498-A4CE-12A7777A947D}"/>
-    <hyperlink ref="C551" r:id="rId425" location="jobs" xr:uid="{5C0F4C96-9B3B-4D1A-B96A-B62BBB16F95C}"/>
-    <hyperlink ref="C548" r:id="rId426" xr:uid="{78269DBD-70DE-4002-94AC-8F7C5EBAD0BB}"/>
-    <hyperlink ref="C536" r:id="rId427" xr:uid="{7F2106E2-6C42-4676-ADFB-8766AD1D8C7F}"/>
-    <hyperlink ref="C528" r:id="rId428" xr:uid="{FDDD58D2-3726-4A76-B749-4AA0BF3C61E7}"/>
-    <hyperlink ref="C523" r:id="rId429" xr:uid="{D9099EDC-F207-4ED4-BD7B-DDC40D407E91}"/>
-    <hyperlink ref="C493" r:id="rId430" xr:uid="{68DFA0AF-3499-4D2B-B4E5-FBB2B9B5D9B0}"/>
-    <hyperlink ref="C487" r:id="rId431" xr:uid="{D31C32E4-044A-4A08-A06B-984C49A134DE}"/>
-    <hyperlink ref="C496" r:id="rId432" xr:uid="{13448FAD-901D-4E34-B068-D313CA172FE1}"/>
-    <hyperlink ref="C503" r:id="rId433" xr:uid="{F3A5AFB3-C32A-4854-B61E-F54F4EE24DB9}"/>
-    <hyperlink ref="C522" r:id="rId434" xr:uid="{D15B8EA9-CFDE-4272-AEDA-37CD3671E069}"/>
-    <hyperlink ref="C526" r:id="rId435" xr:uid="{CE3A5CF4-C5D1-4C96-BEE4-E2938F7A5917}"/>
-    <hyperlink ref="C534" r:id="rId436" xr:uid="{23628B89-F180-4FE7-820F-BE5ADDEC3DA1}"/>
-    <hyperlink ref="C552" r:id="rId437" xr:uid="{172A6259-BCF2-46F0-B3B8-0D564288D26E}"/>
+    <hyperlink ref="C575" r:id="rId387" xr:uid="{54BFCDF5-02D5-4409-A48E-C55C05047514}"/>
+    <hyperlink ref="C576" r:id="rId388" xr:uid="{B69EFF78-F931-4575-A1FA-58593859985E}"/>
+    <hyperlink ref="C577" r:id="rId389" xr:uid="{13B94C7A-E67E-4EB8-B4D8-2A3234D164CC}"/>
+    <hyperlink ref="C578" r:id="rId390" xr:uid="{DB51BCC1-5E94-43ED-9517-2321A6B32DF0}"/>
+    <hyperlink ref="C579" r:id="rId391" xr:uid="{72C442FB-07E7-4DE1-86F7-2AE12AFEBE7A}"/>
+    <hyperlink ref="C580" r:id="rId392" location="!/" xr:uid="{04DC35A4-063A-43A8-932E-FB1B9A14C219}"/>
+    <hyperlink ref="C581" r:id="rId393" xr:uid="{C323FC02-8DEA-4781-B895-2FD6B9B0C44D}"/>
+    <hyperlink ref="C583" r:id="rId394" xr:uid="{FBC70C5A-129B-44BD-85F0-DF012BCE4004}"/>
+    <hyperlink ref="C584" r:id="rId395" xr:uid="{05D72F49-F903-4D42-9E57-35474F7F44FC}"/>
+    <hyperlink ref="C585" r:id="rId396" xr:uid="{4719F381-6642-4967-B6AF-84D3F7187804}"/>
+    <hyperlink ref="C586" r:id="rId397" xr:uid="{6143B024-9C5B-4490-8BA6-14C5C49A6197}"/>
+    <hyperlink ref="C587" r:id="rId398" xr:uid="{117D6351-A721-4152-AE45-8363052AF1DA}"/>
+    <hyperlink ref="C588" r:id="rId399" xr:uid="{42EDD3BC-F6C4-496C-BE58-4D192DC0D42B}"/>
+    <hyperlink ref="C589" r:id="rId400" xr:uid="{2096EBC8-AB77-4974-A8C8-77B8F8035926}"/>
+    <hyperlink ref="C591" r:id="rId401" xr:uid="{270A0EAF-AE20-4111-ACF5-FC0704993ABD}"/>
+    <hyperlink ref="C592" r:id="rId402" xr:uid="{AD956C65-AA57-4A8D-8D42-DE8F794B6F21}"/>
+    <hyperlink ref="C593" r:id="rId403" location="open" xr:uid="{D7500A2F-0106-4CE6-8C6A-E3B67D9CB3F9}"/>
+    <hyperlink ref="C594" r:id="rId404" xr:uid="{DB69FE40-AF68-4386-941A-E78E4F64A491}"/>
+    <hyperlink ref="C595" r:id="rId405" xr:uid="{CBE9061D-B31F-4F31-AF55-1D760A5F4ADE}"/>
+    <hyperlink ref="C596" r:id="rId406" xr:uid="{BC6229AA-166C-413B-9857-4925D0E8491F}"/>
+    <hyperlink ref="C598" r:id="rId407" xr:uid="{1425EE22-1A55-449D-B535-DFD08028D799}"/>
+    <hyperlink ref="C599" r:id="rId408" xr:uid="{9D41DAB8-CFDB-41DA-825E-31520BFB9933}"/>
+    <hyperlink ref="C600" r:id="rId409" xr:uid="{02E1B673-097B-4298-9C6F-433F905915A4}"/>
+    <hyperlink ref="C601" r:id="rId410" xr:uid="{E72A4961-162D-4C2F-B1E0-C0BCB5188B48}"/>
+    <hyperlink ref="C597" r:id="rId411" xr:uid="{12B68180-319E-4112-A5B4-190810568F1F}"/>
+    <hyperlink ref="C590" r:id="rId412" location="jobs" xr:uid="{126B5615-EFE3-49EE-8F6D-D79A3735D118}"/>
+    <hyperlink ref="C582" r:id="rId413" location="careers" xr:uid="{65E2884C-B5B3-41C3-8F92-5F7EB3081F34}"/>
+    <hyperlink ref="C567" r:id="rId414" xr:uid="{84261243-0785-401E-B68B-9487AB35F50C}"/>
+    <hyperlink ref="C564" r:id="rId415" xr:uid="{2DD98728-8AE2-4F71-AD6E-526A7852B7D0}"/>
+    <hyperlink ref="C563" r:id="rId416" location="section-7" xr:uid="{69286158-F382-4303-BB71-88D4332F1369}"/>
+    <hyperlink ref="C559" r:id="rId417" xr:uid="{04DAA4B2-D822-4B31-B0D0-445D2F2A78C1}"/>
+    <hyperlink ref="C554" r:id="rId418" xr:uid="{4E60FB31-35F3-4498-A4CE-12A7777A947D}"/>
+    <hyperlink ref="C551" r:id="rId419" location="jobs" xr:uid="{5C0F4C96-9B3B-4D1A-B96A-B62BBB16F95C}"/>
+    <hyperlink ref="C548" r:id="rId420" xr:uid="{78269DBD-70DE-4002-94AC-8F7C5EBAD0BB}"/>
+    <hyperlink ref="C536" r:id="rId421" xr:uid="{7F2106E2-6C42-4676-ADFB-8766AD1D8C7F}"/>
+    <hyperlink ref="C528" r:id="rId422" xr:uid="{FDDD58D2-3726-4A76-B749-4AA0BF3C61E7}"/>
+    <hyperlink ref="C523" r:id="rId423" xr:uid="{D9099EDC-F207-4ED4-BD7B-DDC40D407E91}"/>
+    <hyperlink ref="C493" r:id="rId424" xr:uid="{68DFA0AF-3499-4D2B-B4E5-FBB2B9B5D9B0}"/>
+    <hyperlink ref="C487" r:id="rId425" xr:uid="{D31C32E4-044A-4A08-A06B-984C49A134DE}"/>
+    <hyperlink ref="C496" r:id="rId426" xr:uid="{13448FAD-901D-4E34-B068-D313CA172FE1}"/>
+    <hyperlink ref="C503" r:id="rId427" xr:uid="{F3A5AFB3-C32A-4854-B61E-F54F4EE24DB9}"/>
+    <hyperlink ref="C522" r:id="rId428" xr:uid="{D15B8EA9-CFDE-4272-AEDA-37CD3671E069}"/>
+    <hyperlink ref="C526" r:id="rId429" xr:uid="{CE3A5CF4-C5D1-4C96-BEE4-E2938F7A5917}"/>
+    <hyperlink ref="C534" r:id="rId430" xr:uid="{23628B89-F180-4FE7-820F-BE5ADDEC3DA1}"/>
+    <hyperlink ref="C552" r:id="rId431" xr:uid="{172A6259-BCF2-46F0-B3B8-0D564288D26E}"/>
+    <hyperlink ref="C574" r:id="rId432" xr:uid="{DE5A1511-A39F-496A-8575-46553EA415DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients.example.xlsx
+++ b/clients.example.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1128">
   <si>
     <t>ID</t>
   </si>
@@ -3286,6 +3286,102 @@
   </si>
   <si>
     <t>https://www.vitabiotics.com/pages/careers</t>
+  </si>
+  <si>
+    <t>acai outdoor</t>
+  </si>
+  <si>
+    <t>https://acaioutdoorwear.com/pages/careers?srsltid=AfmBOoqnOobmUDr6S8GiBsDp-PDhvxfbWJgkukM8PWSnqPoEmQJihHcF</t>
+  </si>
+  <si>
+    <t>acorn intelligence</t>
+  </si>
+  <si>
+    <t>https://acorn-i.com/join-our-team/</t>
+  </si>
+  <si>
+    <t>baxi partnership</t>
+  </si>
+  <si>
+    <t>https://bdrthermea.wd103.myworkdayjobs.com/External?locationCountry=29247e57dbaf46fb855b224e03170bc7</t>
+  </si>
+  <si>
+    <t>bitrise</t>
+  </si>
+  <si>
+    <t>https://bitrise.io/careers</t>
+  </si>
+  <si>
+    <t>blacklane</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/blacklane</t>
+  </si>
+  <si>
+    <t>bgf</t>
+  </si>
+  <si>
+    <t>https://careers.bgf.co.uk/#jobs</t>
+  </si>
+  <si>
+    <t>care fertility</t>
+  </si>
+  <si>
+    <t>https://careers.carefertility.com/CareFertility/Home</t>
+  </si>
+  <si>
+    <t>chambers &amp; partners</t>
+  </si>
+  <si>
+    <t>ci&amp;t</t>
+  </si>
+  <si>
+    <t>https://ciandt.com/us/en-us/careers/open-positions</t>
+  </si>
+  <si>
+    <t>countingup</t>
+  </si>
+  <si>
+    <t>https://countingup.com/careers/</t>
+  </si>
+  <si>
+    <t>bevan brittan llp</t>
+  </si>
+  <si>
+    <t>https://fsr.cvmailuk.com/bevanbrittan/main.cfm?srxksl=1</t>
+  </si>
+  <si>
+    <t>arthur j gallagher</t>
+  </si>
+  <si>
+    <t>https://jobs.ajg.com/ajg-uk/jobs</t>
+  </si>
+  <si>
+    <t>klowt</t>
+  </si>
+  <si>
+    <t>https://klowt.com/join-klowt/#vacancies</t>
+  </si>
+  <si>
+    <t>alpha pet ventures</t>
+  </si>
+  <si>
+    <t>https://www.alpha.pet/en/career/jobs-and-application</t>
+  </si>
+  <si>
+    <t>blueprint partners</t>
+  </si>
+  <si>
+    <t>https://www.blueprintpartners.com/job-opportunities</t>
+  </si>
+  <si>
+    <t>capital economics</t>
+  </si>
+  <si>
+    <t>https://www.capitaleconomics.com/careers</t>
+  </si>
+  <si>
+    <t>carnall farrar</t>
   </si>
   <si>
     <t>Big Bus Tours</t>
@@ -3328,7 +3424,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3430,6 +3526,17 @@
       <sz val="11"/>
       <name val="Aptos"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -4056,134 +4163,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4341,14 +4448,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4703,8 +4825,8 @@
   </sheetPr>
   <dimension ref="A1:D840"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
+      <selection activeCell="D543" sqref="D543:D560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -12317,1730 +12439,1917 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="4:4">
-      <c r="D544" s="55"/>
-    </row>
-    <row r="545" spans="4:4">
-      <c r="D545" s="55"/>
-    </row>
-    <row r="546" spans="4:4">
-      <c r="D546" s="55"/>
-    </row>
-    <row r="547" spans="4:4">
-      <c r="D547" s="55"/>
-    </row>
-    <row r="548" spans="4:4">
-      <c r="D548" s="55"/>
-    </row>
-    <row r="549" spans="4:4">
-      <c r="D549" s="55"/>
-    </row>
-    <row r="550" spans="4:4">
-      <c r="D550" s="55"/>
-    </row>
-    <row r="551" spans="4:4">
-      <c r="D551" s="55"/>
-    </row>
-    <row r="552" spans="4:4">
-      <c r="D552" s="55"/>
-    </row>
-    <row r="553" spans="4:4">
-      <c r="D553" s="55"/>
-    </row>
-    <row r="554" spans="4:4">
-      <c r="D554" s="55"/>
-    </row>
-    <row r="555" spans="4:4">
-      <c r="D555" s="55"/>
-    </row>
-    <row r="556" spans="4:4">
-      <c r="D556" s="55"/>
-    </row>
-    <row r="557" spans="4:4">
-      <c r="D557" s="55"/>
-    </row>
-    <row r="558" spans="4:4">
-      <c r="D558" s="55"/>
-    </row>
-    <row r="559" spans="4:4">
-      <c r="D559" s="55"/>
-    </row>
-    <row r="560" spans="4:4">
-      <c r="D560" s="55"/>
+    <row r="544" ht="28.8" spans="1:4">
+      <c r="A544" s="55">
+        <v>601</v>
+      </c>
+      <c r="B544" s="56" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C544" s="57" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D544" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="55">
+        <v>602</v>
+      </c>
+      <c r="B545" s="56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C545" s="57" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D545" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" ht="28.8" spans="1:4">
+      <c r="A546" s="55">
+        <v>603</v>
+      </c>
+      <c r="B546" s="58" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C546" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D546" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="55">
+        <v>605</v>
+      </c>
+      <c r="B547" s="56" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C547" s="57" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D547" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="55">
+        <v>606</v>
+      </c>
+      <c r="B548" s="58" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C548" s="57" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D548" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="55">
+        <v>607</v>
+      </c>
+      <c r="B549" s="56" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C549" s="57" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D549" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="55">
+        <v>608</v>
+      </c>
+      <c r="B550" s="59" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C550" s="57" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D550" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="55">
+        <v>609</v>
+      </c>
+      <c r="B551" s="59" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C551" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D551" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="55">
+        <v>610</v>
+      </c>
+      <c r="B552" s="56" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C552" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D552" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="55">
+        <v>611</v>
+      </c>
+      <c r="B553" s="59" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C553" s="57" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D553" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="55">
+        <v>612</v>
+      </c>
+      <c r="B554" s="56" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C554" s="57" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D554" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="55">
+        <v>613</v>
+      </c>
+      <c r="B555" s="58" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C555" s="57" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D555" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="55">
+        <v>614</v>
+      </c>
+      <c r="B556" s="56" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C556" s="57" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D556" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="55">
+        <v>615</v>
+      </c>
+      <c r="B557" s="56" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C557" s="57" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D557" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="55">
+        <v>616</v>
+      </c>
+      <c r="B558" s="59" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C558" s="57" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D558" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="55">
+        <v>617</v>
+      </c>
+      <c r="B559" s="58" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C559" s="57" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D559" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="55">
+        <v>618</v>
+      </c>
+      <c r="B560" s="56" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C560" s="57" t="s">
+        <v>667</v>
+      </c>
+      <c r="D560" s="54" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="561" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A561" s="56"/>
-      <c r="B561" s="57"/>
-      <c r="C561" s="57"/>
-      <c r="D561" s="55"/>
+      <c r="A561" s="60"/>
+      <c r="B561" s="61"/>
+      <c r="C561" s="61"/>
+      <c r="D561" s="62"/>
     </row>
     <row r="562" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A562" s="56"/>
-      <c r="B562" s="57"/>
-      <c r="C562" s="57"/>
-      <c r="D562" s="55"/>
+      <c r="A562" s="60"/>
+      <c r="B562" s="61"/>
+      <c r="C562" s="61"/>
+      <c r="D562" s="62"/>
     </row>
     <row r="563" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A563" s="56"/>
-      <c r="B563" s="57"/>
-      <c r="C563" s="57"/>
-      <c r="D563" s="55"/>
+      <c r="A563" s="60"/>
+      <c r="B563" s="61"/>
+      <c r="C563" s="61"/>
+      <c r="D563" s="62"/>
     </row>
     <row r="564" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A564" s="56"/>
-      <c r="B564" s="57"/>
-      <c r="C564" s="57"/>
-      <c r="D564" s="55"/>
+      <c r="A564" s="60"/>
+      <c r="B564" s="61"/>
+      <c r="C564" s="61"/>
+      <c r="D564" s="62"/>
     </row>
     <row r="565" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A565" s="56"/>
-      <c r="B565" s="57"/>
-      <c r="C565" s="57"/>
-      <c r="D565" s="55"/>
+      <c r="A565" s="60"/>
+      <c r="B565" s="61"/>
+      <c r="C565" s="61"/>
+      <c r="D565" s="62"/>
     </row>
     <row r="566" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A566" s="56"/>
-      <c r="B566" s="57"/>
-      <c r="C566" s="57"/>
-      <c r="D566" s="55"/>
+      <c r="A566" s="60"/>
+      <c r="B566" s="61"/>
+      <c r="C566" s="61"/>
+      <c r="D566" s="62"/>
     </row>
     <row r="567" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A567" s="56"/>
-      <c r="B567" s="57"/>
-      <c r="C567" s="57"/>
-      <c r="D567" s="55"/>
+      <c r="A567" s="60"/>
+      <c r="B567" s="61"/>
+      <c r="C567" s="61"/>
+      <c r="D567" s="62"/>
     </row>
     <row r="568" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A568" s="56"/>
-      <c r="B568" s="57"/>
-      <c r="C568" s="57"/>
-      <c r="D568" s="55"/>
+      <c r="A568" s="60"/>
+      <c r="B568" s="61"/>
+      <c r="C568" s="61"/>
+      <c r="D568" s="62"/>
     </row>
     <row r="569" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A569" s="56"/>
-      <c r="B569" s="57"/>
-      <c r="C569" s="57"/>
-      <c r="D569" s="55"/>
+      <c r="A569" s="60"/>
+      <c r="B569" s="61"/>
+      <c r="C569" s="61"/>
+      <c r="D569" s="62"/>
     </row>
     <row r="570" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A570" s="56"/>
-      <c r="B570" s="57"/>
-      <c r="C570" s="57"/>
-      <c r="D570" s="55"/>
+      <c r="A570" s="60"/>
+      <c r="B570" s="61"/>
+      <c r="C570" s="61"/>
+      <c r="D570" s="62"/>
     </row>
     <row r="571" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A571" s="56"/>
-      <c r="B571" s="57"/>
-      <c r="C571" s="57"/>
-      <c r="D571" s="55"/>
+      <c r="A571" s="60"/>
+      <c r="B571" s="61"/>
+      <c r="C571" s="61"/>
+      <c r="D571" s="62"/>
     </row>
     <row r="572" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A572" s="56"/>
-      <c r="B572" s="57"/>
-      <c r="C572" s="57"/>
-      <c r="D572" s="55"/>
+      <c r="A572" s="60"/>
+      <c r="B572" s="61"/>
+      <c r="C572" s="61"/>
+      <c r="D572" s="62"/>
     </row>
     <row r="573" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A573" s="56"/>
-      <c r="B573" s="57"/>
-      <c r="C573" s="57"/>
-      <c r="D573" s="58"/>
+      <c r="A573" s="60"/>
+      <c r="B573" s="61"/>
+      <c r="C573" s="61"/>
+      <c r="D573" s="63"/>
     </row>
     <row r="575" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A575" s="56"/>
-      <c r="B575" s="57"/>
-      <c r="C575" s="57"/>
-      <c r="D575" s="58"/>
+      <c r="A575" s="60"/>
+      <c r="B575" s="61"/>
+      <c r="C575" s="61"/>
+      <c r="D575" s="63"/>
     </row>
     <row r="576" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A576" s="56"/>
-      <c r="B576" s="57"/>
-      <c r="C576" s="57"/>
-      <c r="D576" s="58"/>
+      <c r="A576" s="60"/>
+      <c r="B576" s="61"/>
+      <c r="C576" s="61"/>
+      <c r="D576" s="63"/>
     </row>
     <row r="577" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A577" s="56"/>
-      <c r="B577" s="57"/>
-      <c r="C577" s="57"/>
-      <c r="D577" s="58"/>
+      <c r="A577" s="60"/>
+      <c r="B577" s="61"/>
+      <c r="C577" s="61"/>
+      <c r="D577" s="63"/>
     </row>
     <row r="578" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A578" s="56"/>
-      <c r="B578" s="57"/>
-      <c r="C578" s="57"/>
-      <c r="D578" s="58"/>
+      <c r="A578" s="60"/>
+      <c r="B578" s="61"/>
+      <c r="C578" s="61"/>
+      <c r="D578" s="63"/>
     </row>
     <row r="579" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A579" s="56"/>
-      <c r="B579" s="57"/>
-      <c r="C579" s="57"/>
-      <c r="D579" s="58"/>
+      <c r="A579" s="60"/>
+      <c r="B579" s="61"/>
+      <c r="C579" s="61"/>
+      <c r="D579" s="63"/>
     </row>
     <row r="580" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A580" s="56"/>
-      <c r="B580" s="57"/>
-      <c r="C580" s="57"/>
-      <c r="D580" s="58"/>
+      <c r="A580" s="60"/>
+      <c r="B580" s="61"/>
+      <c r="C580" s="61"/>
+      <c r="D580" s="63"/>
     </row>
     <row r="581" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A581" s="56"/>
-      <c r="B581" s="57"/>
-      <c r="C581" s="57"/>
-      <c r="D581" s="58"/>
+      <c r="A581" s="60"/>
+      <c r="B581" s="61"/>
+      <c r="C581" s="61"/>
+      <c r="D581" s="63"/>
     </row>
     <row r="582" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A582" s="56"/>
-      <c r="B582" s="57"/>
-      <c r="C582" s="57"/>
-      <c r="D582" s="58"/>
+      <c r="A582" s="60"/>
+      <c r="B582" s="61"/>
+      <c r="C582" s="61"/>
+      <c r="D582" s="63"/>
     </row>
     <row r="583" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A583" s="56"/>
-      <c r="B583" s="57"/>
-      <c r="C583" s="57"/>
-      <c r="D583" s="58"/>
+      <c r="A583" s="60"/>
+      <c r="B583" s="61"/>
+      <c r="C583" s="61"/>
+      <c r="D583" s="63"/>
     </row>
     <row r="584" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A584" s="56"/>
-      <c r="B584" s="57"/>
-      <c r="C584" s="57"/>
-      <c r="D584" s="58"/>
+      <c r="A584" s="60"/>
+      <c r="B584" s="61"/>
+      <c r="C584" s="61"/>
+      <c r="D584" s="63"/>
     </row>
     <row r="585" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A585" s="56"/>
-      <c r="B585" s="57"/>
-      <c r="C585" s="57"/>
-      <c r="D585" s="58"/>
+      <c r="A585" s="60"/>
+      <c r="B585" s="61"/>
+      <c r="C585" s="61"/>
+      <c r="D585" s="63"/>
     </row>
     <row r="586" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A586" s="56"/>
-      <c r="B586" s="57"/>
-      <c r="C586" s="57"/>
-      <c r="D586" s="58"/>
+      <c r="A586" s="60"/>
+      <c r="B586" s="61"/>
+      <c r="C586" s="61"/>
+      <c r="D586" s="63"/>
     </row>
     <row r="587" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A587" s="56"/>
-      <c r="B587" s="57"/>
-      <c r="C587" s="57"/>
-      <c r="D587" s="58"/>
+      <c r="A587" s="60"/>
+      <c r="B587" s="61"/>
+      <c r="C587" s="61"/>
+      <c r="D587" s="63"/>
     </row>
     <row r="588" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A588" s="56"/>
-      <c r="B588" s="57"/>
-      <c r="C588" s="57"/>
-      <c r="D588" s="58"/>
+      <c r="A588" s="60"/>
+      <c r="B588" s="61"/>
+      <c r="C588" s="61"/>
+      <c r="D588" s="63"/>
     </row>
     <row r="589" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A589" s="56"/>
-      <c r="B589" s="57"/>
-      <c r="C589" s="57"/>
-      <c r="D589" s="58"/>
+      <c r="A589" s="60"/>
+      <c r="B589" s="61"/>
+      <c r="C589" s="61"/>
+      <c r="D589" s="63"/>
     </row>
     <row r="590" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A590" s="56"/>
-      <c r="B590" s="57"/>
-      <c r="C590" s="57"/>
-      <c r="D590" s="58"/>
+      <c r="A590" s="60"/>
+      <c r="B590" s="61"/>
+      <c r="C590" s="61"/>
+      <c r="D590" s="63"/>
     </row>
     <row r="591" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A591" s="56"/>
-      <c r="B591" s="57"/>
-      <c r="C591" s="57"/>
-      <c r="D591" s="58"/>
+      <c r="A591" s="60"/>
+      <c r="B591" s="61"/>
+      <c r="C591" s="61"/>
+      <c r="D591" s="63"/>
     </row>
     <row r="592" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A592" s="56"/>
-      <c r="B592" s="57"/>
-      <c r="C592" s="57"/>
-      <c r="D592" s="58"/>
+      <c r="A592" s="60"/>
+      <c r="B592" s="61"/>
+      <c r="C592" s="61"/>
+      <c r="D592" s="63"/>
     </row>
     <row r="593" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A593" s="56"/>
-      <c r="B593" s="57"/>
-      <c r="C593" s="57"/>
-      <c r="D593" s="58"/>
+      <c r="A593" s="60"/>
+      <c r="B593" s="61"/>
+      <c r="C593" s="61"/>
+      <c r="D593" s="63"/>
     </row>
     <row r="594" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A594" s="56"/>
-      <c r="B594" s="57"/>
-      <c r="C594" s="57"/>
-      <c r="D594" s="58"/>
+      <c r="A594" s="60"/>
+      <c r="B594" s="61"/>
+      <c r="C594" s="61"/>
+      <c r="D594" s="63"/>
     </row>
     <row r="595" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A595" s="56"/>
-      <c r="B595" s="57"/>
-      <c r="C595" s="57"/>
-      <c r="D595" s="58"/>
+      <c r="A595" s="60"/>
+      <c r="B595" s="61"/>
+      <c r="C595" s="61"/>
+      <c r="D595" s="63"/>
     </row>
     <row r="596" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A596" s="56"/>
-      <c r="B596" s="57"/>
-      <c r="C596" s="57"/>
-      <c r="D596" s="58"/>
+      <c r="A596" s="60"/>
+      <c r="B596" s="61"/>
+      <c r="C596" s="61"/>
+      <c r="D596" s="63"/>
     </row>
     <row r="597" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A597" s="56"/>
-      <c r="B597" s="57"/>
-      <c r="C597" s="57"/>
-      <c r="D597" s="58"/>
+      <c r="A597" s="60"/>
+      <c r="B597" s="61"/>
+      <c r="C597" s="61"/>
+      <c r="D597" s="63"/>
     </row>
     <row r="598" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A598" s="56"/>
-      <c r="B598" s="57"/>
-      <c r="C598" s="57"/>
-      <c r="D598" s="58"/>
+      <c r="A598" s="60"/>
+      <c r="B598" s="61"/>
+      <c r="C598" s="61"/>
+      <c r="D598" s="63"/>
     </row>
     <row r="599" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A599" s="56"/>
-      <c r="B599" s="57"/>
-      <c r="C599" s="57"/>
-      <c r="D599" s="58"/>
+      <c r="A599" s="60"/>
+      <c r="B599" s="61"/>
+      <c r="C599" s="61"/>
+      <c r="D599" s="63"/>
     </row>
     <row r="600" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A600" s="56"/>
-      <c r="B600" s="57"/>
-      <c r="C600" s="57"/>
-      <c r="D600" s="58"/>
+      <c r="A600" s="60"/>
+      <c r="B600" s="61"/>
+      <c r="C600" s="61"/>
+      <c r="D600" s="63"/>
     </row>
     <row r="601" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A601" s="56"/>
-      <c r="B601" s="57"/>
-      <c r="C601" s="57"/>
-      <c r="D601" s="58"/>
+      <c r="A601" s="60"/>
+      <c r="B601" s="61"/>
+      <c r="C601" s="61"/>
+      <c r="D601" s="63"/>
     </row>
     <row r="602" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A602" s="56"/>
-      <c r="B602" s="57"/>
-      <c r="C602" s="57"/>
-      <c r="D602" s="58"/>
+      <c r="A602" s="60"/>
+      <c r="B602" s="61"/>
+      <c r="C602" s="61"/>
+      <c r="D602" s="63"/>
     </row>
     <row r="603" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A603" s="56"/>
-      <c r="B603" s="57"/>
-      <c r="C603" s="57"/>
-      <c r="D603" s="58"/>
+      <c r="A603" s="60"/>
+      <c r="B603" s="61"/>
+      <c r="C603" s="61"/>
+      <c r="D603" s="63"/>
     </row>
     <row r="604" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A604" s="56"/>
-      <c r="B604" s="57"/>
-      <c r="C604" s="57"/>
-      <c r="D604" s="58"/>
+      <c r="A604" s="60"/>
+      <c r="B604" s="61"/>
+      <c r="C604" s="61"/>
+      <c r="D604" s="63"/>
     </row>
     <row r="605" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A605" s="56"/>
-      <c r="B605" s="57"/>
-      <c r="C605" s="57"/>
-      <c r="D605" s="58"/>
+      <c r="A605" s="60"/>
+      <c r="B605" s="61"/>
+      <c r="C605" s="61"/>
+      <c r="D605" s="63"/>
     </row>
     <row r="606" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A606" s="56"/>
-      <c r="B606" s="57"/>
-      <c r="C606" s="57"/>
-      <c r="D606" s="58"/>
+      <c r="A606" s="60"/>
+      <c r="B606" s="61"/>
+      <c r="C606" s="61"/>
+      <c r="D606" s="63"/>
     </row>
     <row r="607" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A607" s="56"/>
-      <c r="B607" s="57"/>
-      <c r="C607" s="57"/>
-      <c r="D607" s="58"/>
+      <c r="A607" s="60"/>
+      <c r="B607" s="61"/>
+      <c r="C607" s="61"/>
+      <c r="D607" s="63"/>
     </row>
     <row r="608" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A608" s="56"/>
-      <c r="B608" s="57"/>
-      <c r="C608" s="57"/>
-      <c r="D608" s="58"/>
+      <c r="A608" s="60"/>
+      <c r="B608" s="61"/>
+      <c r="C608" s="61"/>
+      <c r="D608" s="63"/>
     </row>
     <row r="609" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A609" s="56"/>
-      <c r="B609" s="57"/>
-      <c r="C609" s="57"/>
-      <c r="D609" s="58"/>
+      <c r="A609" s="60"/>
+      <c r="B609" s="61"/>
+      <c r="C609" s="61"/>
+      <c r="D609" s="63"/>
     </row>
     <row r="610" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A610" s="56"/>
-      <c r="B610" s="57"/>
-      <c r="C610" s="57"/>
-      <c r="D610" s="58"/>
+      <c r="A610" s="60"/>
+      <c r="B610" s="61"/>
+      <c r="C610" s="61"/>
+      <c r="D610" s="63"/>
     </row>
     <row r="611" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A611" s="56"/>
-      <c r="B611" s="57"/>
-      <c r="C611" s="57"/>
-      <c r="D611" s="58"/>
+      <c r="A611" s="60"/>
+      <c r="B611" s="61"/>
+      <c r="C611" s="61"/>
+      <c r="D611" s="63"/>
     </row>
     <row r="612" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A612" s="56"/>
-      <c r="B612" s="57"/>
-      <c r="C612" s="57"/>
-      <c r="D612" s="58"/>
+      <c r="A612" s="60"/>
+      <c r="B612" s="61"/>
+      <c r="C612" s="61"/>
+      <c r="D612" s="63"/>
     </row>
     <row r="613" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A613" s="56"/>
-      <c r="B613" s="57"/>
-      <c r="C613" s="57"/>
-      <c r="D613" s="58"/>
+      <c r="A613" s="60"/>
+      <c r="B613" s="61"/>
+      <c r="C613" s="61"/>
+      <c r="D613" s="63"/>
     </row>
     <row r="614" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A614" s="56"/>
-      <c r="B614" s="57"/>
-      <c r="C614" s="57"/>
-      <c r="D614" s="58"/>
+      <c r="A614" s="60"/>
+      <c r="B614" s="61"/>
+      <c r="C614" s="61"/>
+      <c r="D614" s="63"/>
     </row>
     <row r="615" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A615" s="56"/>
-      <c r="B615" s="57"/>
-      <c r="C615" s="57"/>
-      <c r="D615" s="58"/>
+      <c r="A615" s="60"/>
+      <c r="B615" s="61"/>
+      <c r="C615" s="61"/>
+      <c r="D615" s="63"/>
     </row>
     <row r="616" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A616" s="56"/>
-      <c r="B616" s="57"/>
-      <c r="C616" s="57"/>
-      <c r="D616" s="58"/>
+      <c r="A616" s="60"/>
+      <c r="B616" s="61"/>
+      <c r="C616" s="61"/>
+      <c r="D616" s="63"/>
     </row>
     <row r="617" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A617" s="56"/>
-      <c r="B617" s="57"/>
-      <c r="C617" s="57"/>
-      <c r="D617" s="58"/>
+      <c r="A617" s="60"/>
+      <c r="B617" s="61"/>
+      <c r="C617" s="61"/>
+      <c r="D617" s="63"/>
     </row>
     <row r="618" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A618" s="56"/>
-      <c r="B618" s="57"/>
-      <c r="C618" s="57"/>
-      <c r="D618" s="58"/>
+      <c r="A618" s="60"/>
+      <c r="B618" s="61"/>
+      <c r="C618" s="61"/>
+      <c r="D618" s="63"/>
     </row>
     <row r="619" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A619" s="56"/>
-      <c r="B619" s="57"/>
-      <c r="C619" s="57"/>
-      <c r="D619" s="58"/>
+      <c r="A619" s="60"/>
+      <c r="B619" s="61"/>
+      <c r="C619" s="61"/>
+      <c r="D619" s="63"/>
     </row>
     <row r="620" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A620" s="56"/>
-      <c r="B620" s="57"/>
-      <c r="C620" s="57"/>
-      <c r="D620" s="58"/>
+      <c r="A620" s="60"/>
+      <c r="B620" s="61"/>
+      <c r="C620" s="61"/>
+      <c r="D620" s="63"/>
     </row>
     <row r="621" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A621" s="56"/>
-      <c r="B621" s="57"/>
-      <c r="C621" s="57"/>
-      <c r="D621" s="58"/>
+      <c r="A621" s="60"/>
+      <c r="B621" s="61"/>
+      <c r="C621" s="61"/>
+      <c r="D621" s="63"/>
     </row>
     <row r="622" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A622" s="56"/>
-      <c r="B622" s="57"/>
-      <c r="C622" s="57"/>
-      <c r="D622" s="58"/>
+      <c r="A622" s="60"/>
+      <c r="B622" s="61"/>
+      <c r="C622" s="61"/>
+      <c r="D622" s="63"/>
     </row>
     <row r="623" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A623" s="56"/>
-      <c r="B623" s="57"/>
-      <c r="C623" s="57"/>
-      <c r="D623" s="58"/>
+      <c r="A623" s="60"/>
+      <c r="B623" s="61"/>
+      <c r="C623" s="61"/>
+      <c r="D623" s="63"/>
     </row>
     <row r="624" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A624" s="56"/>
-      <c r="B624" s="57"/>
-      <c r="C624" s="57"/>
-      <c r="D624" s="58"/>
+      <c r="A624" s="60"/>
+      <c r="B624" s="61"/>
+      <c r="C624" s="61"/>
+      <c r="D624" s="63"/>
     </row>
     <row r="625" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A625" s="56"/>
-      <c r="B625" s="57"/>
-      <c r="C625" s="57"/>
-      <c r="D625" s="58"/>
+      <c r="A625" s="60"/>
+      <c r="B625" s="61"/>
+      <c r="C625" s="61"/>
+      <c r="D625" s="63"/>
     </row>
     <row r="626" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A626" s="56"/>
-      <c r="B626" s="57"/>
-      <c r="C626" s="57"/>
-      <c r="D626" s="58"/>
+      <c r="A626" s="60"/>
+      <c r="B626" s="61"/>
+      <c r="C626" s="61"/>
+      <c r="D626" s="63"/>
     </row>
     <row r="627" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A627" s="56"/>
-      <c r="B627" s="57"/>
-      <c r="C627" s="57"/>
-      <c r="D627" s="58"/>
+      <c r="A627" s="60"/>
+      <c r="B627" s="61"/>
+      <c r="C627" s="61"/>
+      <c r="D627" s="63"/>
     </row>
     <row r="628" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A628" s="56"/>
-      <c r="B628" s="57"/>
-      <c r="C628" s="57"/>
-      <c r="D628" s="58"/>
+      <c r="A628" s="60"/>
+      <c r="B628" s="61"/>
+      <c r="C628" s="61"/>
+      <c r="D628" s="63"/>
     </row>
     <row r="629" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A629" s="56"/>
-      <c r="B629" s="57"/>
-      <c r="C629" s="57"/>
-      <c r="D629" s="58"/>
+      <c r="A629" s="60"/>
+      <c r="B629" s="61"/>
+      <c r="C629" s="61"/>
+      <c r="D629" s="63"/>
     </row>
     <row r="630" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A630" s="56"/>
-      <c r="B630" s="57"/>
-      <c r="C630" s="57"/>
-      <c r="D630" s="58"/>
+      <c r="A630" s="60"/>
+      <c r="B630" s="61"/>
+      <c r="C630" s="61"/>
+      <c r="D630" s="63"/>
     </row>
     <row r="631" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A631" s="56"/>
-      <c r="B631" s="57"/>
-      <c r="C631" s="57"/>
-      <c r="D631" s="58"/>
+      <c r="A631" s="60"/>
+      <c r="B631" s="61"/>
+      <c r="C631" s="61"/>
+      <c r="D631" s="63"/>
     </row>
     <row r="632" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A632" s="56"/>
-      <c r="B632" s="57"/>
-      <c r="C632" s="57"/>
-      <c r="D632" s="58"/>
+      <c r="A632" s="60"/>
+      <c r="B632" s="61"/>
+      <c r="C632" s="61"/>
+      <c r="D632" s="63"/>
     </row>
     <row r="633" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A633" s="56"/>
-      <c r="B633" s="57"/>
-      <c r="C633" s="57"/>
-      <c r="D633" s="58"/>
+      <c r="A633" s="60"/>
+      <c r="B633" s="61"/>
+      <c r="C633" s="61"/>
+      <c r="D633" s="63"/>
     </row>
     <row r="634" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A634" s="56"/>
-      <c r="B634" s="57"/>
-      <c r="C634" s="57"/>
-      <c r="D634" s="58"/>
+      <c r="A634" s="60"/>
+      <c r="B634" s="61"/>
+      <c r="C634" s="61"/>
+      <c r="D634" s="63"/>
     </row>
     <row r="635" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A635" s="56"/>
-      <c r="B635" s="57"/>
-      <c r="C635" s="57"/>
-      <c r="D635" s="58"/>
+      <c r="A635" s="60"/>
+      <c r="B635" s="61"/>
+      <c r="C635" s="61"/>
+      <c r="D635" s="63"/>
     </row>
     <row r="636" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A636" s="56"/>
-      <c r="B636" s="57"/>
-      <c r="C636" s="57"/>
-      <c r="D636" s="58"/>
+      <c r="A636" s="60"/>
+      <c r="B636" s="61"/>
+      <c r="C636" s="61"/>
+      <c r="D636" s="63"/>
     </row>
     <row r="637" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A637" s="56"/>
-      <c r="B637" s="57"/>
-      <c r="C637" s="57"/>
-      <c r="D637" s="58"/>
+      <c r="A637" s="60"/>
+      <c r="B637" s="61"/>
+      <c r="C637" s="61"/>
+      <c r="D637" s="63"/>
     </row>
     <row r="638" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A638" s="56"/>
-      <c r="B638" s="57"/>
-      <c r="C638" s="57"/>
-      <c r="D638" s="58"/>
+      <c r="A638" s="60"/>
+      <c r="B638" s="61"/>
+      <c r="C638" s="61"/>
+      <c r="D638" s="63"/>
     </row>
     <row r="639" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A639" s="56"/>
-      <c r="B639" s="57"/>
-      <c r="C639" s="57"/>
-      <c r="D639" s="58"/>
+      <c r="A639" s="60"/>
+      <c r="B639" s="61"/>
+      <c r="C639" s="61"/>
+      <c r="D639" s="63"/>
     </row>
     <row r="640" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A640" s="56"/>
-      <c r="B640" s="57"/>
-      <c r="C640" s="57"/>
-      <c r="D640" s="58"/>
+      <c r="A640" s="60"/>
+      <c r="B640" s="61"/>
+      <c r="C640" s="61"/>
+      <c r="D640" s="63"/>
     </row>
     <row r="641" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A641" s="56"/>
-      <c r="B641" s="57"/>
-      <c r="C641" s="57"/>
-      <c r="D641" s="58"/>
+      <c r="A641" s="60"/>
+      <c r="B641" s="61"/>
+      <c r="C641" s="61"/>
+      <c r="D641" s="63"/>
     </row>
     <row r="642" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A642" s="56"/>
-      <c r="B642" s="57"/>
-      <c r="C642" s="57"/>
-      <c r="D642" s="58"/>
+      <c r="A642" s="60"/>
+      <c r="B642" s="61"/>
+      <c r="C642" s="61"/>
+      <c r="D642" s="63"/>
     </row>
     <row r="643" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A643" s="56"/>
-      <c r="B643" s="57"/>
-      <c r="C643" s="57"/>
-      <c r="D643" s="58"/>
+      <c r="A643" s="60"/>
+      <c r="B643" s="61"/>
+      <c r="C643" s="61"/>
+      <c r="D643" s="63"/>
     </row>
     <row r="644" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A644" s="56"/>
-      <c r="B644" s="57"/>
-      <c r="C644" s="57"/>
-      <c r="D644" s="58"/>
+      <c r="A644" s="60"/>
+      <c r="B644" s="61"/>
+      <c r="C644" s="61"/>
+      <c r="D644" s="63"/>
     </row>
     <row r="645" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A645" s="56"/>
-      <c r="B645" s="57"/>
-      <c r="C645" s="57"/>
-      <c r="D645" s="58"/>
+      <c r="A645" s="60"/>
+      <c r="B645" s="61"/>
+      <c r="C645" s="61"/>
+      <c r="D645" s="63"/>
     </row>
     <row r="646" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A646" s="56"/>
-      <c r="B646" s="57"/>
-      <c r="C646" s="57"/>
-      <c r="D646" s="58"/>
+      <c r="A646" s="60"/>
+      <c r="B646" s="61"/>
+      <c r="C646" s="61"/>
+      <c r="D646" s="63"/>
     </row>
     <row r="647" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A647" s="56"/>
-      <c r="B647" s="57"/>
-      <c r="C647" s="57"/>
-      <c r="D647" s="58"/>
+      <c r="A647" s="60"/>
+      <c r="B647" s="61"/>
+      <c r="C647" s="61"/>
+      <c r="D647" s="63"/>
     </row>
     <row r="648" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A648" s="56"/>
-      <c r="B648" s="57"/>
-      <c r="C648" s="57"/>
-      <c r="D648" s="58"/>
+      <c r="A648" s="60"/>
+      <c r="B648" s="61"/>
+      <c r="C648" s="61"/>
+      <c r="D648" s="63"/>
     </row>
     <row r="649" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A649" s="56"/>
-      <c r="B649" s="57"/>
-      <c r="C649" s="57"/>
-      <c r="D649" s="58"/>
+      <c r="A649" s="60"/>
+      <c r="B649" s="61"/>
+      <c r="C649" s="61"/>
+      <c r="D649" s="63"/>
     </row>
     <row r="650" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A650" s="56"/>
-      <c r="B650" s="57"/>
-      <c r="C650" s="57"/>
-      <c r="D650" s="58"/>
+      <c r="A650" s="60"/>
+      <c r="B650" s="61"/>
+      <c r="C650" s="61"/>
+      <c r="D650" s="63"/>
     </row>
     <row r="651" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A651" s="56"/>
-      <c r="B651" s="57"/>
-      <c r="C651" s="57"/>
-      <c r="D651" s="58"/>
+      <c r="A651" s="60"/>
+      <c r="B651" s="61"/>
+      <c r="C651" s="61"/>
+      <c r="D651" s="63"/>
     </row>
     <row r="652" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A652" s="56"/>
-      <c r="B652" s="57"/>
-      <c r="C652" s="57"/>
-      <c r="D652" s="58"/>
+      <c r="A652" s="60"/>
+      <c r="B652" s="61"/>
+      <c r="C652" s="61"/>
+      <c r="D652" s="63"/>
     </row>
     <row r="653" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A653" s="56"/>
-      <c r="B653" s="57"/>
-      <c r="C653" s="57"/>
-      <c r="D653" s="58"/>
+      <c r="A653" s="60"/>
+      <c r="B653" s="61"/>
+      <c r="C653" s="61"/>
+      <c r="D653" s="63"/>
     </row>
     <row r="654" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A654" s="56"/>
-      <c r="B654" s="57"/>
-      <c r="C654" s="57"/>
-      <c r="D654" s="58"/>
+      <c r="A654" s="60"/>
+      <c r="B654" s="61"/>
+      <c r="C654" s="61"/>
+      <c r="D654" s="63"/>
     </row>
     <row r="655" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A655" s="56"/>
-      <c r="B655" s="57"/>
-      <c r="C655" s="57"/>
-      <c r="D655" s="58"/>
+      <c r="A655" s="60"/>
+      <c r="B655" s="61"/>
+      <c r="C655" s="61"/>
+      <c r="D655" s="63"/>
     </row>
     <row r="656" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A656" s="56"/>
-      <c r="B656" s="57"/>
-      <c r="C656" s="57"/>
-      <c r="D656" s="58"/>
+      <c r="A656" s="60"/>
+      <c r="B656" s="61"/>
+      <c r="C656" s="61"/>
+      <c r="D656" s="63"/>
     </row>
     <row r="657" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A657" s="56"/>
-      <c r="B657" s="57"/>
-      <c r="C657" s="57"/>
-      <c r="D657" s="58"/>
+      <c r="A657" s="60"/>
+      <c r="B657" s="61"/>
+      <c r="C657" s="61"/>
+      <c r="D657" s="63"/>
     </row>
     <row r="658" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A658" s="56"/>
-      <c r="B658" s="57"/>
-      <c r="C658" s="57"/>
-      <c r="D658" s="58"/>
+      <c r="A658" s="60"/>
+      <c r="B658" s="61"/>
+      <c r="C658" s="61"/>
+      <c r="D658" s="63"/>
     </row>
     <row r="659" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A659" s="56"/>
-      <c r="B659" s="57"/>
-      <c r="C659" s="57"/>
-      <c r="D659" s="58"/>
+      <c r="A659" s="60"/>
+      <c r="B659" s="61"/>
+      <c r="C659" s="61"/>
+      <c r="D659" s="63"/>
     </row>
     <row r="660" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A660" s="56"/>
-      <c r="B660" s="57"/>
-      <c r="C660" s="57"/>
-      <c r="D660" s="58"/>
+      <c r="A660" s="60"/>
+      <c r="B660" s="61"/>
+      <c r="C660" s="61"/>
+      <c r="D660" s="63"/>
     </row>
     <row r="661" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A661" s="56"/>
-      <c r="B661" s="57"/>
-      <c r="C661" s="57"/>
-      <c r="D661" s="58"/>
+      <c r="A661" s="60"/>
+      <c r="B661" s="61"/>
+      <c r="C661" s="61"/>
+      <c r="D661" s="63"/>
     </row>
     <row r="662" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A662" s="56"/>
-      <c r="B662" s="57"/>
-      <c r="C662" s="57"/>
-      <c r="D662" s="58"/>
+      <c r="A662" s="60"/>
+      <c r="B662" s="61"/>
+      <c r="C662" s="61"/>
+      <c r="D662" s="63"/>
     </row>
     <row r="663" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A663" s="56"/>
-      <c r="B663" s="57"/>
-      <c r="C663" s="57"/>
-      <c r="D663" s="58"/>
+      <c r="A663" s="60"/>
+      <c r="B663" s="61"/>
+      <c r="C663" s="61"/>
+      <c r="D663" s="63"/>
     </row>
     <row r="664" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A664" s="56"/>
-      <c r="B664" s="57"/>
-      <c r="C664" s="57"/>
-      <c r="D664" s="58"/>
+      <c r="A664" s="60"/>
+      <c r="B664" s="61"/>
+      <c r="C664" s="61"/>
+      <c r="D664" s="63"/>
     </row>
     <row r="665" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A665" s="56"/>
-      <c r="B665" s="57"/>
-      <c r="C665" s="57"/>
-      <c r="D665" s="58"/>
+      <c r="A665" s="60"/>
+      <c r="B665" s="61"/>
+      <c r="C665" s="61"/>
+      <c r="D665" s="63"/>
     </row>
     <row r="666" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A666" s="56"/>
-      <c r="B666" s="57"/>
-      <c r="C666" s="57"/>
-      <c r="D666" s="58"/>
+      <c r="A666" s="60"/>
+      <c r="B666" s="61"/>
+      <c r="C666" s="61"/>
+      <c r="D666" s="63"/>
     </row>
     <row r="667" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A667" s="56"/>
-      <c r="B667" s="57"/>
-      <c r="C667" s="57"/>
-      <c r="D667" s="58"/>
+      <c r="A667" s="60"/>
+      <c r="B667" s="61"/>
+      <c r="C667" s="61"/>
+      <c r="D667" s="63"/>
     </row>
     <row r="668" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A668" s="56"/>
-      <c r="B668" s="57"/>
-      <c r="C668" s="57"/>
-      <c r="D668" s="58"/>
+      <c r="A668" s="60"/>
+      <c r="B668" s="61"/>
+      <c r="C668" s="61"/>
+      <c r="D668" s="63"/>
     </row>
     <row r="669" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A669" s="56"/>
-      <c r="B669" s="57"/>
-      <c r="C669" s="57"/>
-      <c r="D669" s="58"/>
+      <c r="A669" s="60"/>
+      <c r="B669" s="61"/>
+      <c r="C669" s="61"/>
+      <c r="D669" s="63"/>
     </row>
     <row r="670" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A670" s="56"/>
-      <c r="B670" s="57"/>
-      <c r="C670" s="57"/>
-      <c r="D670" s="58"/>
+      <c r="A670" s="60"/>
+      <c r="B670" s="61"/>
+      <c r="C670" s="61"/>
+      <c r="D670" s="63"/>
     </row>
     <row r="671" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A671" s="56"/>
-      <c r="B671" s="57"/>
-      <c r="C671" s="57"/>
-      <c r="D671" s="58"/>
+      <c r="A671" s="60"/>
+      <c r="B671" s="61"/>
+      <c r="C671" s="61"/>
+      <c r="D671" s="63"/>
     </row>
     <row r="672" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A672" s="56"/>
-      <c r="B672" s="57"/>
-      <c r="C672" s="57"/>
-      <c r="D672" s="58"/>
+      <c r="A672" s="60"/>
+      <c r="B672" s="61"/>
+      <c r="C672" s="61"/>
+      <c r="D672" s="63"/>
     </row>
     <row r="673" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A673" s="56"/>
-      <c r="B673" s="57"/>
-      <c r="C673" s="57"/>
-      <c r="D673" s="58"/>
+      <c r="A673" s="60"/>
+      <c r="B673" s="61"/>
+      <c r="C673" s="61"/>
+      <c r="D673" s="63"/>
     </row>
     <row r="674" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A674" s="56"/>
-      <c r="B674" s="57"/>
-      <c r="C674" s="57"/>
-      <c r="D674" s="58"/>
+      <c r="A674" s="60"/>
+      <c r="B674" s="61"/>
+      <c r="C674" s="61"/>
+      <c r="D674" s="63"/>
     </row>
     <row r="675" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A675" s="56"/>
-      <c r="B675" s="57"/>
-      <c r="C675" s="57"/>
-      <c r="D675" s="58"/>
+      <c r="A675" s="60"/>
+      <c r="B675" s="61"/>
+      <c r="C675" s="61"/>
+      <c r="D675" s="63"/>
     </row>
     <row r="676" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A676" s="56"/>
-      <c r="B676" s="57"/>
-      <c r="C676" s="57"/>
-      <c r="D676" s="58"/>
+      <c r="A676" s="60"/>
+      <c r="B676" s="61"/>
+      <c r="C676" s="61"/>
+      <c r="D676" s="63"/>
     </row>
     <row r="677" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A677" s="56"/>
-      <c r="B677" s="57"/>
-      <c r="C677" s="57"/>
-      <c r="D677" s="58"/>
+      <c r="A677" s="60"/>
+      <c r="B677" s="61"/>
+      <c r="C677" s="61"/>
+      <c r="D677" s="63"/>
     </row>
     <row r="678" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A678" s="56"/>
-      <c r="B678" s="57"/>
-      <c r="C678" s="57"/>
-      <c r="D678" s="58"/>
+      <c r="A678" s="60"/>
+      <c r="B678" s="61"/>
+      <c r="C678" s="61"/>
+      <c r="D678" s="63"/>
     </row>
     <row r="679" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A679" s="56"/>
-      <c r="B679" s="57"/>
-      <c r="C679" s="57"/>
-      <c r="D679" s="58"/>
+      <c r="A679" s="60"/>
+      <c r="B679" s="61"/>
+      <c r="C679" s="61"/>
+      <c r="D679" s="63"/>
     </row>
     <row r="680" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A680" s="56"/>
-      <c r="B680" s="57"/>
-      <c r="C680" s="57"/>
-      <c r="D680" s="58"/>
+      <c r="A680" s="60"/>
+      <c r="B680" s="61"/>
+      <c r="C680" s="61"/>
+      <c r="D680" s="63"/>
     </row>
     <row r="681" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A681" s="56"/>
-      <c r="B681" s="57"/>
-      <c r="C681" s="57"/>
-      <c r="D681" s="58"/>
+      <c r="A681" s="60"/>
+      <c r="B681" s="61"/>
+      <c r="C681" s="61"/>
+      <c r="D681" s="63"/>
     </row>
     <row r="682" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A682" s="56"/>
-      <c r="B682" s="57"/>
-      <c r="C682" s="57"/>
-      <c r="D682" s="58"/>
+      <c r="A682" s="60"/>
+      <c r="B682" s="61"/>
+      <c r="C682" s="61"/>
+      <c r="D682" s="63"/>
     </row>
     <row r="683" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A683" s="56"/>
-      <c r="B683" s="57"/>
-      <c r="C683" s="57"/>
-      <c r="D683" s="58"/>
+      <c r="A683" s="60"/>
+      <c r="B683" s="61"/>
+      <c r="C683" s="61"/>
+      <c r="D683" s="63"/>
     </row>
     <row r="684" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A684" s="56"/>
-      <c r="B684" s="57"/>
-      <c r="C684" s="57"/>
-      <c r="D684" s="58"/>
+      <c r="A684" s="60"/>
+      <c r="B684" s="61"/>
+      <c r="C684" s="61"/>
+      <c r="D684" s="63"/>
     </row>
     <row r="685" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A685" s="56"/>
-      <c r="B685" s="57"/>
-      <c r="C685" s="57"/>
-      <c r="D685" s="58"/>
+      <c r="A685" s="60"/>
+      <c r="B685" s="61"/>
+      <c r="C685" s="61"/>
+      <c r="D685" s="63"/>
     </row>
     <row r="686" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A686" s="56"/>
-      <c r="B686" s="57"/>
-      <c r="C686" s="57"/>
-      <c r="D686" s="58"/>
+      <c r="A686" s="60"/>
+      <c r="B686" s="61"/>
+      <c r="C686" s="61"/>
+      <c r="D686" s="63"/>
     </row>
     <row r="687" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A687" s="56"/>
-      <c r="B687" s="57"/>
-      <c r="C687" s="57"/>
-      <c r="D687" s="58"/>
+      <c r="A687" s="60"/>
+      <c r="B687" s="61"/>
+      <c r="C687" s="61"/>
+      <c r="D687" s="63"/>
     </row>
     <row r="688" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A688" s="56"/>
-      <c r="B688" s="57"/>
-      <c r="C688" s="57"/>
-      <c r="D688" s="58"/>
+      <c r="A688" s="60"/>
+      <c r="B688" s="61"/>
+      <c r="C688" s="61"/>
+      <c r="D688" s="63"/>
     </row>
     <row r="689" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A689" s="56"/>
-      <c r="B689" s="57"/>
-      <c r="C689" s="57"/>
-      <c r="D689" s="58"/>
+      <c r="A689" s="60"/>
+      <c r="B689" s="61"/>
+      <c r="C689" s="61"/>
+      <c r="D689" s="63"/>
     </row>
     <row r="690" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A690" s="56"/>
-      <c r="B690" s="57"/>
-      <c r="C690" s="57"/>
-      <c r="D690" s="58"/>
+      <c r="A690" s="60"/>
+      <c r="B690" s="61"/>
+      <c r="C690" s="61"/>
+      <c r="D690" s="63"/>
     </row>
     <row r="691" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A691" s="56"/>
-      <c r="B691" s="57"/>
-      <c r="C691" s="57"/>
-      <c r="D691" s="58"/>
+      <c r="A691" s="60"/>
+      <c r="B691" s="61"/>
+      <c r="C691" s="61"/>
+      <c r="D691" s="63"/>
     </row>
     <row r="692" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A692" s="56"/>
-      <c r="B692" s="57"/>
-      <c r="C692" s="57"/>
-      <c r="D692" s="58"/>
+      <c r="A692" s="60"/>
+      <c r="B692" s="61"/>
+      <c r="C692" s="61"/>
+      <c r="D692" s="63"/>
     </row>
     <row r="693" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A693" s="56"/>
-      <c r="B693" s="57"/>
-      <c r="C693" s="57"/>
-      <c r="D693" s="58"/>
+      <c r="A693" s="60"/>
+      <c r="B693" s="61"/>
+      <c r="C693" s="61"/>
+      <c r="D693" s="63"/>
     </row>
     <row r="694" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A694" s="56"/>
-      <c r="B694" s="57"/>
-      <c r="C694" s="57"/>
-      <c r="D694" s="58"/>
+      <c r="A694" s="60"/>
+      <c r="B694" s="61"/>
+      <c r="C694" s="61"/>
+      <c r="D694" s="63"/>
     </row>
     <row r="695" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A695" s="56"/>
-      <c r="B695" s="57"/>
-      <c r="C695" s="57"/>
-      <c r="D695" s="58"/>
+      <c r="A695" s="60"/>
+      <c r="B695" s="61"/>
+      <c r="C695" s="61"/>
+      <c r="D695" s="63"/>
     </row>
     <row r="696" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A696" s="56"/>
-      <c r="B696" s="57"/>
-      <c r="C696" s="57"/>
-      <c r="D696" s="58"/>
+      <c r="A696" s="60"/>
+      <c r="B696" s="61"/>
+      <c r="C696" s="61"/>
+      <c r="D696" s="63"/>
     </row>
     <row r="697" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A697" s="56"/>
-      <c r="B697" s="57"/>
-      <c r="C697" s="57"/>
-      <c r="D697" s="58"/>
+      <c r="A697" s="60"/>
+      <c r="B697" s="61"/>
+      <c r="C697" s="61"/>
+      <c r="D697" s="63"/>
     </row>
     <row r="698" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A698" s="56"/>
-      <c r="B698" s="57"/>
-      <c r="C698" s="57"/>
-      <c r="D698" s="58"/>
+      <c r="A698" s="60"/>
+      <c r="B698" s="61"/>
+      <c r="C698" s="61"/>
+      <c r="D698" s="63"/>
     </row>
     <row r="699" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A699" s="56"/>
-      <c r="B699" s="57"/>
-      <c r="C699" s="57"/>
-      <c r="D699" s="58"/>
+      <c r="A699" s="60"/>
+      <c r="B699" s="61"/>
+      <c r="C699" s="61"/>
+      <c r="D699" s="63"/>
     </row>
     <row r="700" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A700" s="56"/>
-      <c r="B700" s="57"/>
-      <c r="C700" s="57"/>
-      <c r="D700" s="58"/>
+      <c r="A700" s="60"/>
+      <c r="B700" s="61"/>
+      <c r="C700" s="61"/>
+      <c r="D700" s="63"/>
     </row>
     <row r="701" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A701" s="56"/>
-      <c r="B701" s="57"/>
-      <c r="C701" s="57"/>
-      <c r="D701" s="58"/>
+      <c r="A701" s="60"/>
+      <c r="B701" s="61"/>
+      <c r="C701" s="61"/>
+      <c r="D701" s="63"/>
     </row>
     <row r="702" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A702" s="56"/>
-      <c r="B702" s="57"/>
-      <c r="C702" s="57"/>
-      <c r="D702" s="58"/>
+      <c r="A702" s="60"/>
+      <c r="B702" s="61"/>
+      <c r="C702" s="61"/>
+      <c r="D702" s="63"/>
     </row>
     <row r="703" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A703" s="56"/>
-      <c r="B703" s="57"/>
-      <c r="C703" s="57"/>
-      <c r="D703" s="58"/>
+      <c r="A703" s="60"/>
+      <c r="B703" s="61"/>
+      <c r="C703" s="61"/>
+      <c r="D703" s="63"/>
     </row>
     <row r="704" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A704" s="56"/>
-      <c r="B704" s="57"/>
-      <c r="C704" s="57"/>
-      <c r="D704" s="58"/>
+      <c r="A704" s="60"/>
+      <c r="B704" s="61"/>
+      <c r="C704" s="61"/>
+      <c r="D704" s="63"/>
     </row>
     <row r="705" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A705" s="56"/>
-      <c r="B705" s="57"/>
-      <c r="C705" s="57"/>
-      <c r="D705" s="58"/>
+      <c r="A705" s="60"/>
+      <c r="B705" s="61"/>
+      <c r="C705" s="61"/>
+      <c r="D705" s="63"/>
     </row>
     <row r="706" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A706" s="56"/>
-      <c r="B706" s="57"/>
-      <c r="C706" s="57"/>
-      <c r="D706" s="58"/>
+      <c r="A706" s="60"/>
+      <c r="B706" s="61"/>
+      <c r="C706" s="61"/>
+      <c r="D706" s="63"/>
     </row>
     <row r="707" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A707" s="56"/>
-      <c r="B707" s="57"/>
-      <c r="C707" s="57"/>
-      <c r="D707" s="58"/>
+      <c r="A707" s="60"/>
+      <c r="B707" s="61"/>
+      <c r="C707" s="61"/>
+      <c r="D707" s="63"/>
     </row>
     <row r="708" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A708" s="56"/>
-      <c r="B708" s="57"/>
-      <c r="C708" s="57"/>
-      <c r="D708" s="58"/>
+      <c r="A708" s="60"/>
+      <c r="B708" s="61"/>
+      <c r="C708" s="61"/>
+      <c r="D708" s="63"/>
     </row>
     <row r="709" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A709" s="56"/>
-      <c r="B709" s="57"/>
-      <c r="C709" s="57"/>
-      <c r="D709" s="58"/>
+      <c r="A709" s="60"/>
+      <c r="B709" s="61"/>
+      <c r="C709" s="61"/>
+      <c r="D709" s="63"/>
     </row>
     <row r="710" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A710" s="56"/>
-      <c r="B710" s="57"/>
-      <c r="C710" s="57"/>
-      <c r="D710" s="58"/>
+      <c r="A710" s="60"/>
+      <c r="B710" s="61"/>
+      <c r="C710" s="61"/>
+      <c r="D710" s="63"/>
     </row>
     <row r="711" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A711" s="56"/>
-      <c r="B711" s="57"/>
-      <c r="C711" s="57"/>
-      <c r="D711" s="58"/>
+      <c r="A711" s="60"/>
+      <c r="B711" s="61"/>
+      <c r="C711" s="61"/>
+      <c r="D711" s="63"/>
     </row>
     <row r="712" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A712" s="56"/>
-      <c r="B712" s="57"/>
-      <c r="C712" s="57"/>
-      <c r="D712" s="58"/>
+      <c r="A712" s="60"/>
+      <c r="B712" s="61"/>
+      <c r="C712" s="61"/>
+      <c r="D712" s="63"/>
     </row>
     <row r="713" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A713" s="56"/>
-      <c r="B713" s="57"/>
-      <c r="C713" s="57"/>
-      <c r="D713" s="58"/>
+      <c r="A713" s="60"/>
+      <c r="B713" s="61"/>
+      <c r="C713" s="61"/>
+      <c r="D713" s="63"/>
     </row>
     <row r="714" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A714" s="56"/>
-      <c r="B714" s="57"/>
-      <c r="C714" s="57"/>
-      <c r="D714" s="58"/>
+      <c r="A714" s="60"/>
+      <c r="B714" s="61"/>
+      <c r="C714" s="61"/>
+      <c r="D714" s="63"/>
     </row>
     <row r="715" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A715" s="56"/>
-      <c r="B715" s="57"/>
-      <c r="C715" s="57"/>
-      <c r="D715" s="58"/>
+      <c r="A715" s="60"/>
+      <c r="B715" s="61"/>
+      <c r="C715" s="61"/>
+      <c r="D715" s="63"/>
     </row>
     <row r="716" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A716" s="56"/>
-      <c r="B716" s="57"/>
-      <c r="C716" s="57"/>
-      <c r="D716" s="58"/>
+      <c r="A716" s="60"/>
+      <c r="B716" s="61"/>
+      <c r="C716" s="61"/>
+      <c r="D716" s="63"/>
     </row>
     <row r="717" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A717" s="56"/>
-      <c r="B717" s="57"/>
-      <c r="C717" s="57"/>
-      <c r="D717" s="58"/>
+      <c r="A717" s="60"/>
+      <c r="B717" s="61"/>
+      <c r="C717" s="61"/>
+      <c r="D717" s="63"/>
     </row>
     <row r="718" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A718" s="56"/>
-      <c r="B718" s="57"/>
-      <c r="C718" s="57"/>
-      <c r="D718" s="58"/>
+      <c r="A718" s="60"/>
+      <c r="B718" s="61"/>
+      <c r="C718" s="61"/>
+      <c r="D718" s="63"/>
     </row>
     <row r="719" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A719" s="56"/>
-      <c r="B719" s="57"/>
-      <c r="C719" s="57"/>
-      <c r="D719" s="58"/>
+      <c r="A719" s="60"/>
+      <c r="B719" s="61"/>
+      <c r="C719" s="61"/>
+      <c r="D719" s="63"/>
     </row>
     <row r="720" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A720" s="56"/>
-      <c r="B720" s="57"/>
-      <c r="C720" s="57"/>
-      <c r="D720" s="58"/>
+      <c r="A720" s="60"/>
+      <c r="B720" s="61"/>
+      <c r="C720" s="61"/>
+      <c r="D720" s="63"/>
     </row>
     <row r="721" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A721" s="56"/>
-      <c r="B721" s="57"/>
-      <c r="C721" s="57"/>
-      <c r="D721" s="58"/>
+      <c r="A721" s="60"/>
+      <c r="B721" s="61"/>
+      <c r="C721" s="61"/>
+      <c r="D721" s="63"/>
     </row>
     <row r="722" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A722" s="56"/>
-      <c r="B722" s="57"/>
-      <c r="C722" s="57"/>
-      <c r="D722" s="58"/>
+      <c r="A722" s="60"/>
+      <c r="B722" s="61"/>
+      <c r="C722" s="61"/>
+      <c r="D722" s="63"/>
     </row>
     <row r="723" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A723" s="56"/>
-      <c r="B723" s="57"/>
-      <c r="C723" s="57"/>
-      <c r="D723" s="58"/>
+      <c r="A723" s="60"/>
+      <c r="B723" s="61"/>
+      <c r="C723" s="61"/>
+      <c r="D723" s="63"/>
     </row>
     <row r="724" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A724" s="56"/>
-      <c r="B724" s="57"/>
-      <c r="C724" s="57"/>
-      <c r="D724" s="58"/>
+      <c r="A724" s="60"/>
+      <c r="B724" s="61"/>
+      <c r="C724" s="61"/>
+      <c r="D724" s="63"/>
     </row>
     <row r="725" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A725" s="56"/>
-      <c r="B725" s="57"/>
-      <c r="C725" s="57"/>
-      <c r="D725" s="58"/>
+      <c r="A725" s="60"/>
+      <c r="B725" s="61"/>
+      <c r="C725" s="61"/>
+      <c r="D725" s="63"/>
     </row>
     <row r="726" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A726" s="56"/>
-      <c r="B726" s="57"/>
-      <c r="C726" s="57"/>
-      <c r="D726" s="58"/>
+      <c r="A726" s="60"/>
+      <c r="B726" s="61"/>
+      <c r="C726" s="61"/>
+      <c r="D726" s="63"/>
     </row>
     <row r="727" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A727" s="56"/>
-      <c r="B727" s="57"/>
-      <c r="C727" s="57"/>
-      <c r="D727" s="58"/>
+      <c r="A727" s="60"/>
+      <c r="B727" s="61"/>
+      <c r="C727" s="61"/>
+      <c r="D727" s="63"/>
     </row>
     <row r="728" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A728" s="56"/>
-      <c r="B728" s="57"/>
-      <c r="C728" s="57"/>
-      <c r="D728" s="58"/>
+      <c r="A728" s="60"/>
+      <c r="B728" s="61"/>
+      <c r="C728" s="61"/>
+      <c r="D728" s="63"/>
     </row>
     <row r="729" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A729" s="56"/>
-      <c r="B729" s="57"/>
-      <c r="C729" s="57"/>
-      <c r="D729" s="58"/>
+      <c r="A729" s="60"/>
+      <c r="B729" s="61"/>
+      <c r="C729" s="61"/>
+      <c r="D729" s="63"/>
     </row>
     <row r="730" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A730" s="56"/>
-      <c r="B730" s="57"/>
-      <c r="C730" s="57"/>
-      <c r="D730" s="58"/>
+      <c r="A730" s="60"/>
+      <c r="B730" s="61"/>
+      <c r="C730" s="61"/>
+      <c r="D730" s="63"/>
     </row>
     <row r="731" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A731" s="56"/>
-      <c r="B731" s="57"/>
-      <c r="C731" s="57"/>
-      <c r="D731" s="58"/>
+      <c r="A731" s="60"/>
+      <c r="B731" s="61"/>
+      <c r="C731" s="61"/>
+      <c r="D731" s="63"/>
     </row>
     <row r="732" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A732" s="56"/>
-      <c r="B732" s="57"/>
-      <c r="C732" s="57"/>
-      <c r="D732" s="58"/>
+      <c r="A732" s="60"/>
+      <c r="B732" s="61"/>
+      <c r="C732" s="61"/>
+      <c r="D732" s="63"/>
     </row>
     <row r="733" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A733" s="56"/>
-      <c r="B733" s="57"/>
-      <c r="C733" s="57"/>
-      <c r="D733" s="58"/>
+      <c r="A733" s="60"/>
+      <c r="B733" s="61"/>
+      <c r="C733" s="61"/>
+      <c r="D733" s="63"/>
     </row>
     <row r="734" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A734" s="56"/>
-      <c r="B734" s="57"/>
-      <c r="C734" s="57"/>
-      <c r="D734" s="58"/>
+      <c r="A734" s="60"/>
+      <c r="B734" s="61"/>
+      <c r="C734" s="61"/>
+      <c r="D734" s="63"/>
     </row>
     <row r="735" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A735" s="56"/>
-      <c r="B735" s="57"/>
-      <c r="C735" s="57"/>
-      <c r="D735" s="58"/>
+      <c r="A735" s="60"/>
+      <c r="B735" s="61"/>
+      <c r="C735" s="61"/>
+      <c r="D735" s="63"/>
     </row>
     <row r="736" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A736" s="56"/>
-      <c r="B736" s="57"/>
-      <c r="C736" s="57"/>
-      <c r="D736" s="58"/>
+      <c r="A736" s="60"/>
+      <c r="B736" s="61"/>
+      <c r="C736" s="61"/>
+      <c r="D736" s="63"/>
     </row>
     <row r="737" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A737" s="56"/>
-      <c r="B737" s="57"/>
-      <c r="C737" s="57"/>
-      <c r="D737" s="58"/>
+      <c r="A737" s="60"/>
+      <c r="B737" s="61"/>
+      <c r="C737" s="61"/>
+      <c r="D737" s="63"/>
     </row>
     <row r="738" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A738" s="56"/>
-      <c r="B738" s="57"/>
-      <c r="C738" s="57"/>
-      <c r="D738" s="58"/>
+      <c r="A738" s="60"/>
+      <c r="B738" s="61"/>
+      <c r="C738" s="61"/>
+      <c r="D738" s="63"/>
     </row>
     <row r="739" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A739" s="56"/>
-      <c r="B739" s="57"/>
-      <c r="C739" s="57"/>
-      <c r="D739" s="58"/>
+      <c r="A739" s="60"/>
+      <c r="B739" s="61"/>
+      <c r="C739" s="61"/>
+      <c r="D739" s="63"/>
     </row>
     <row r="740" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A740" s="56"/>
-      <c r="B740" s="57"/>
-      <c r="C740" s="57"/>
-      <c r="D740" s="58"/>
+      <c r="A740" s="60"/>
+      <c r="B740" s="61"/>
+      <c r="C740" s="61"/>
+      <c r="D740" s="63"/>
     </row>
     <row r="741" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A741" s="56"/>
-      <c r="B741" s="57"/>
-      <c r="C741" s="57"/>
-      <c r="D741" s="58"/>
+      <c r="A741" s="60"/>
+      <c r="B741" s="61"/>
+      <c r="C741" s="61"/>
+      <c r="D741" s="63"/>
     </row>
     <row r="742" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A742" s="56"/>
-      <c r="B742" s="57"/>
-      <c r="C742" s="57"/>
-      <c r="D742" s="58"/>
+      <c r="A742" s="60"/>
+      <c r="B742" s="61"/>
+      <c r="C742" s="61"/>
+      <c r="D742" s="63"/>
     </row>
     <row r="743" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A743" s="56"/>
-      <c r="B743" s="57"/>
-      <c r="C743" s="57"/>
-      <c r="D743" s="58"/>
+      <c r="A743" s="60"/>
+      <c r="B743" s="61"/>
+      <c r="C743" s="61"/>
+      <c r="D743" s="63"/>
     </row>
     <row r="744" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A744" s="56"/>
-      <c r="B744" s="57"/>
-      <c r="C744" s="57"/>
-      <c r="D744" s="58"/>
+      <c r="A744" s="60"/>
+      <c r="B744" s="61"/>
+      <c r="C744" s="61"/>
+      <c r="D744" s="63"/>
     </row>
     <row r="745" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A745" s="56"/>
-      <c r="B745" s="57"/>
-      <c r="C745" s="57"/>
-      <c r="D745" s="58"/>
+      <c r="A745" s="60"/>
+      <c r="B745" s="61"/>
+      <c r="C745" s="61"/>
+      <c r="D745" s="63"/>
     </row>
     <row r="746" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A746" s="56"/>
-      <c r="B746" s="57"/>
-      <c r="C746" s="57"/>
-      <c r="D746" s="58"/>
+      <c r="A746" s="60"/>
+      <c r="B746" s="61"/>
+      <c r="C746" s="61"/>
+      <c r="D746" s="63"/>
     </row>
     <row r="747" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A747" s="56"/>
-      <c r="B747" s="57"/>
-      <c r="C747" s="57"/>
-      <c r="D747" s="58"/>
+      <c r="A747" s="60"/>
+      <c r="B747" s="61"/>
+      <c r="C747" s="61"/>
+      <c r="D747" s="63"/>
     </row>
     <row r="748" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A748" s="56"/>
-      <c r="B748" s="57"/>
-      <c r="C748" s="57"/>
-      <c r="D748" s="58"/>
+      <c r="A748" s="60"/>
+      <c r="B748" s="61"/>
+      <c r="C748" s="61"/>
+      <c r="D748" s="63"/>
     </row>
     <row r="749" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A749" s="56"/>
-      <c r="B749" s="57"/>
-      <c r="C749" s="57"/>
-      <c r="D749" s="58"/>
+      <c r="A749" s="60"/>
+      <c r="B749" s="61"/>
+      <c r="C749" s="61"/>
+      <c r="D749" s="63"/>
     </row>
     <row r="750" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A750" s="56"/>
-      <c r="B750" s="57"/>
-      <c r="C750" s="57"/>
-      <c r="D750" s="58"/>
+      <c r="A750" s="60"/>
+      <c r="B750" s="61"/>
+      <c r="C750" s="61"/>
+      <c r="D750" s="63"/>
     </row>
     <row r="751" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A751" s="56"/>
-      <c r="B751" s="57"/>
-      <c r="C751" s="57"/>
-      <c r="D751" s="58"/>
+      <c r="A751" s="60"/>
+      <c r="B751" s="61"/>
+      <c r="C751" s="61"/>
+      <c r="D751" s="63"/>
     </row>
     <row r="752" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A752" s="56"/>
-      <c r="B752" s="57"/>
-      <c r="C752" s="57"/>
-      <c r="D752" s="58"/>
+      <c r="A752" s="60"/>
+      <c r="B752" s="61"/>
+      <c r="C752" s="61"/>
+      <c r="D752" s="63"/>
     </row>
     <row r="753" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A753" s="56"/>
-      <c r="B753" s="57"/>
-      <c r="C753" s="57"/>
-      <c r="D753" s="58"/>
+      <c r="A753" s="60"/>
+      <c r="B753" s="61"/>
+      <c r="C753" s="61"/>
+      <c r="D753" s="63"/>
     </row>
     <row r="754" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A754" s="56"/>
-      <c r="B754" s="57"/>
-      <c r="C754" s="57"/>
-      <c r="D754" s="58"/>
+      <c r="A754" s="60"/>
+      <c r="B754" s="61"/>
+      <c r="C754" s="61"/>
+      <c r="D754" s="63"/>
     </row>
     <row r="755" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A755" s="56"/>
-      <c r="B755" s="57"/>
-      <c r="C755" s="57"/>
-      <c r="D755" s="58"/>
+      <c r="A755" s="60"/>
+      <c r="B755" s="61"/>
+      <c r="C755" s="61"/>
+      <c r="D755" s="63"/>
     </row>
     <row r="756" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A756" s="56"/>
-      <c r="B756" s="57"/>
-      <c r="C756" s="57"/>
-      <c r="D756" s="58"/>
+      <c r="A756" s="60"/>
+      <c r="B756" s="61"/>
+      <c r="C756" s="61"/>
+      <c r="D756" s="63"/>
     </row>
     <row r="757" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A757" s="56"/>
-      <c r="B757" s="57"/>
-      <c r="C757" s="57"/>
-      <c r="D757" s="58"/>
+      <c r="A757" s="60"/>
+      <c r="B757" s="61"/>
+      <c r="C757" s="61"/>
+      <c r="D757" s="63"/>
     </row>
     <row r="758" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A758" s="56"/>
-      <c r="B758" s="57"/>
-      <c r="C758" s="57"/>
-      <c r="D758" s="58"/>
+      <c r="A758" s="60"/>
+      <c r="B758" s="61"/>
+      <c r="C758" s="61"/>
+      <c r="D758" s="63"/>
     </row>
     <row r="759" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A759" s="56"/>
-      <c r="B759" s="57"/>
-      <c r="C759" s="57"/>
-      <c r="D759" s="58"/>
+      <c r="A759" s="60"/>
+      <c r="B759" s="61"/>
+      <c r="C759" s="61"/>
+      <c r="D759" s="63"/>
     </row>
     <row r="760" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A760" s="56"/>
-      <c r="B760" s="57"/>
-      <c r="C760" s="57"/>
-      <c r="D760" s="58"/>
+      <c r="A760" s="60"/>
+      <c r="B760" s="61"/>
+      <c r="C760" s="61"/>
+      <c r="D760" s="63"/>
     </row>
     <row r="761" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A761" s="56"/>
-      <c r="B761" s="57"/>
-      <c r="C761" s="57"/>
-      <c r="D761" s="58"/>
+      <c r="A761" s="60"/>
+      <c r="B761" s="61"/>
+      <c r="C761" s="61"/>
+      <c r="D761" s="63"/>
     </row>
     <row r="762" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A762" s="56"/>
-      <c r="B762" s="57"/>
-      <c r="C762" s="57"/>
-      <c r="D762" s="58"/>
+      <c r="A762" s="60"/>
+      <c r="B762" s="61"/>
+      <c r="C762" s="61"/>
+      <c r="D762" s="63"/>
     </row>
     <row r="763" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A763" s="56"/>
-      <c r="B763" s="57"/>
-      <c r="C763" s="57"/>
-      <c r="D763" s="58"/>
+      <c r="A763" s="60"/>
+      <c r="B763" s="61"/>
+      <c r="C763" s="61"/>
+      <c r="D763" s="63"/>
     </row>
     <row r="764" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A764" s="56"/>
-      <c r="B764" s="57"/>
-      <c r="C764" s="57"/>
-      <c r="D764" s="58"/>
+      <c r="A764" s="60"/>
+      <c r="B764" s="61"/>
+      <c r="C764" s="61"/>
+      <c r="D764" s="63"/>
     </row>
     <row r="765" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A765" s="56"/>
-      <c r="B765" s="57"/>
-      <c r="C765" s="57"/>
-      <c r="D765" s="58"/>
+      <c r="A765" s="60"/>
+      <c r="B765" s="61"/>
+      <c r="C765" s="61"/>
+      <c r="D765" s="63"/>
     </row>
     <row r="766" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A766" s="56"/>
-      <c r="B766" s="57"/>
-      <c r="C766" s="57"/>
-      <c r="D766" s="58"/>
+      <c r="A766" s="60"/>
+      <c r="B766" s="61"/>
+      <c r="C766" s="61"/>
+      <c r="D766" s="63"/>
     </row>
     <row r="767" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A767" s="56"/>
-      <c r="B767" s="57"/>
-      <c r="C767" s="57"/>
-      <c r="D767" s="58"/>
+      <c r="A767" s="60"/>
+      <c r="B767" s="61"/>
+      <c r="C767" s="61"/>
+      <c r="D767" s="63"/>
     </row>
     <row r="768" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A768" s="56"/>
-      <c r="B768" s="57"/>
-      <c r="C768" s="57"/>
-      <c r="D768" s="58"/>
+      <c r="A768" s="60"/>
+      <c r="B768" s="61"/>
+      <c r="C768" s="61"/>
+      <c r="D768" s="63"/>
     </row>
     <row r="769" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A769" s="56"/>
-      <c r="B769" s="57"/>
-      <c r="C769" s="57"/>
-      <c r="D769" s="58"/>
+      <c r="A769" s="60"/>
+      <c r="B769" s="61"/>
+      <c r="C769" s="61"/>
+      <c r="D769" s="63"/>
     </row>
     <row r="770" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A770" s="56"/>
-      <c r="B770" s="57"/>
-      <c r="C770" s="57"/>
-      <c r="D770" s="58"/>
+      <c r="A770" s="60"/>
+      <c r="B770" s="61"/>
+      <c r="C770" s="61"/>
+      <c r="D770" s="63"/>
     </row>
     <row r="771" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A771" s="56"/>
-      <c r="B771" s="57"/>
-      <c r="C771" s="57"/>
-      <c r="D771" s="58"/>
+      <c r="A771" s="60"/>
+      <c r="B771" s="61"/>
+      <c r="C771" s="61"/>
+      <c r="D771" s="63"/>
     </row>
     <row r="772" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A772" s="56"/>
-      <c r="B772" s="57"/>
-      <c r="C772" s="57"/>
-      <c r="D772" s="58"/>
+      <c r="A772" s="60"/>
+      <c r="B772" s="61"/>
+      <c r="C772" s="61"/>
+      <c r="D772" s="63"/>
     </row>
     <row r="773" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A773" s="56"/>
-      <c r="B773" s="57"/>
-      <c r="C773" s="57"/>
-      <c r="D773" s="58"/>
+      <c r="A773" s="60"/>
+      <c r="B773" s="61"/>
+      <c r="C773" s="61"/>
+      <c r="D773" s="63"/>
     </row>
     <row r="774" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A774" s="56"/>
-      <c r="B774" s="57"/>
-      <c r="C774" s="57"/>
-      <c r="D774" s="58"/>
+      <c r="A774" s="60"/>
+      <c r="B774" s="61"/>
+      <c r="C774" s="61"/>
+      <c r="D774" s="63"/>
     </row>
     <row r="775" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A775" s="56"/>
-      <c r="B775" s="57"/>
-      <c r="C775" s="57"/>
-      <c r="D775" s="58"/>
+      <c r="A775" s="60"/>
+      <c r="B775" s="61"/>
+      <c r="C775" s="61"/>
+      <c r="D775" s="63"/>
     </row>
     <row r="776" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A776" s="56"/>
-      <c r="B776" s="57"/>
-      <c r="C776" s="57"/>
-      <c r="D776" s="58"/>
+      <c r="A776" s="60"/>
+      <c r="B776" s="61"/>
+      <c r="C776" s="61"/>
+      <c r="D776" s="63"/>
     </row>
     <row r="777" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A777" s="56"/>
-      <c r="B777" s="57"/>
-      <c r="C777" s="57"/>
-      <c r="D777" s="58"/>
+      <c r="A777" s="60"/>
+      <c r="B777" s="61"/>
+      <c r="C777" s="61"/>
+      <c r="D777" s="63"/>
     </row>
     <row r="778" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A778" s="56"/>
-      <c r="B778" s="57"/>
-      <c r="C778" s="57"/>
-      <c r="D778" s="58"/>
+      <c r="A778" s="60"/>
+      <c r="B778" s="61"/>
+      <c r="C778" s="61"/>
+      <c r="D778" s="63"/>
     </row>
     <row r="779" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A779" s="56"/>
-      <c r="B779" s="57"/>
-      <c r="C779" s="57"/>
-      <c r="D779" s="58"/>
+      <c r="A779" s="60"/>
+      <c r="B779" s="61"/>
+      <c r="C779" s="61"/>
+      <c r="D779" s="63"/>
     </row>
     <row r="780" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A780" s="56"/>
-      <c r="B780" s="57"/>
-      <c r="C780" s="57"/>
-      <c r="D780" s="58"/>
+      <c r="A780" s="60"/>
+      <c r="B780" s="61"/>
+      <c r="C780" s="61"/>
+      <c r="D780" s="63"/>
     </row>
     <row r="781" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A781" s="56"/>
-      <c r="B781" s="57"/>
-      <c r="C781" s="57"/>
-      <c r="D781" s="58"/>
+      <c r="A781" s="60"/>
+      <c r="B781" s="61"/>
+      <c r="C781" s="61"/>
+      <c r="D781" s="63"/>
     </row>
     <row r="782" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A782" s="56"/>
-      <c r="B782" s="57"/>
-      <c r="C782" s="57"/>
-      <c r="D782" s="58"/>
+      <c r="A782" s="60"/>
+      <c r="B782" s="61"/>
+      <c r="C782" s="61"/>
+      <c r="D782" s="63"/>
     </row>
     <row r="783" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A783" s="56"/>
-      <c r="B783" s="57"/>
-      <c r="C783" s="57"/>
-      <c r="D783" s="58"/>
+      <c r="A783" s="60"/>
+      <c r="B783" s="61"/>
+      <c r="C783" s="61"/>
+      <c r="D783" s="63"/>
     </row>
     <row r="784" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A784" s="56"/>
-      <c r="B784" s="57"/>
-      <c r="C784" s="57"/>
-      <c r="D784" s="58"/>
+      <c r="A784" s="60"/>
+      <c r="B784" s="61"/>
+      <c r="C784" s="61"/>
+      <c r="D784" s="63"/>
     </row>
     <row r="785" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A785" s="56"/>
-      <c r="B785" s="57"/>
-      <c r="C785" s="57"/>
-      <c r="D785" s="58"/>
+      <c r="A785" s="60"/>
+      <c r="B785" s="61"/>
+      <c r="C785" s="61"/>
+      <c r="D785" s="63"/>
     </row>
     <row r="786" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A786" s="56"/>
-      <c r="B786" s="57"/>
-      <c r="C786" s="57"/>
-      <c r="D786" s="58"/>
+      <c r="A786" s="60"/>
+      <c r="B786" s="61"/>
+      <c r="C786" s="61"/>
+      <c r="D786" s="63"/>
     </row>
     <row r="787" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A787" s="56"/>
-      <c r="B787" s="57"/>
-      <c r="C787" s="57"/>
-      <c r="D787" s="58"/>
+      <c r="A787" s="60"/>
+      <c r="B787" s="61"/>
+      <c r="C787" s="61"/>
+      <c r="D787" s="63"/>
     </row>
     <row r="788" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A788" s="56"/>
-      <c r="B788" s="57"/>
-      <c r="C788" s="57"/>
-      <c r="D788" s="58"/>
+      <c r="A788" s="60"/>
+      <c r="B788" s="61"/>
+      <c r="C788" s="61"/>
+      <c r="D788" s="63"/>
     </row>
     <row r="789" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A789" s="56"/>
-      <c r="B789" s="57"/>
-      <c r="C789" s="57"/>
-      <c r="D789" s="58"/>
+      <c r="A789" s="60"/>
+      <c r="B789" s="61"/>
+      <c r="C789" s="61"/>
+      <c r="D789" s="63"/>
     </row>
     <row r="790" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A790" s="56"/>
-      <c r="B790" s="57"/>
-      <c r="C790" s="57"/>
-      <c r="D790" s="58"/>
+      <c r="A790" s="60"/>
+      <c r="B790" s="61"/>
+      <c r="C790" s="61"/>
+      <c r="D790" s="63"/>
     </row>
     <row r="791" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A791" s="56"/>
-      <c r="B791" s="57"/>
-      <c r="C791" s="57"/>
-      <c r="D791" s="58"/>
+      <c r="A791" s="60"/>
+      <c r="B791" s="61"/>
+      <c r="C791" s="61"/>
+      <c r="D791" s="63"/>
     </row>
     <row r="792" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A792" s="56"/>
-      <c r="B792" s="57"/>
-      <c r="C792" s="57"/>
-      <c r="D792" s="58"/>
+      <c r="A792" s="60"/>
+      <c r="B792" s="61"/>
+      <c r="C792" s="61"/>
+      <c r="D792" s="63"/>
     </row>
     <row r="793" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A793" s="56"/>
-      <c r="B793" s="57"/>
-      <c r="C793" s="57"/>
-      <c r="D793" s="58"/>
+      <c r="A793" s="60"/>
+      <c r="B793" s="61"/>
+      <c r="C793" s="61"/>
+      <c r="D793" s="63"/>
     </row>
     <row r="794" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A794" s="56"/>
-      <c r="B794" s="57"/>
-      <c r="C794" s="57"/>
-      <c r="D794" s="58"/>
+      <c r="A794" s="60"/>
+      <c r="B794" s="61"/>
+      <c r="C794" s="61"/>
+      <c r="D794" s="63"/>
     </row>
     <row r="795" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A795" s="56"/>
-      <c r="B795" s="57"/>
-      <c r="C795" s="57"/>
-      <c r="D795" s="58"/>
+      <c r="A795" s="60"/>
+      <c r="B795" s="61"/>
+      <c r="C795" s="61"/>
+      <c r="D795" s="63"/>
     </row>
     <row r="796" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A796" s="56"/>
-      <c r="B796" s="57"/>
-      <c r="C796" s="57"/>
-      <c r="D796" s="58"/>
+      <c r="A796" s="60"/>
+      <c r="B796" s="61"/>
+      <c r="C796" s="61"/>
+      <c r="D796" s="63"/>
     </row>
     <row r="797" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A797" s="56"/>
-      <c r="B797" s="57"/>
-      <c r="C797" s="57"/>
-      <c r="D797" s="58"/>
+      <c r="A797" s="60"/>
+      <c r="B797" s="61"/>
+      <c r="C797" s="61"/>
+      <c r="D797" s="63"/>
     </row>
     <row r="798" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A798" s="56"/>
-      <c r="B798" s="57"/>
-      <c r="C798" s="57"/>
-      <c r="D798" s="58"/>
+      <c r="A798" s="60"/>
+      <c r="B798" s="61"/>
+      <c r="C798" s="61"/>
+      <c r="D798" s="63"/>
     </row>
     <row r="799" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A799" s="56"/>
-      <c r="B799" s="57"/>
-      <c r="C799" s="57"/>
-      <c r="D799" s="58"/>
+      <c r="A799" s="60"/>
+      <c r="B799" s="61"/>
+      <c r="C799" s="61"/>
+      <c r="D799" s="63"/>
     </row>
     <row r="800" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A800" s="56"/>
-      <c r="B800" s="57"/>
-      <c r="C800" s="57"/>
-      <c r="D800" s="58"/>
+      <c r="A800" s="60"/>
+      <c r="B800" s="61"/>
+      <c r="C800" s="61"/>
+      <c r="D800" s="63"/>
     </row>
     <row r="801" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A801" s="56"/>
-      <c r="B801" s="57"/>
-      <c r="C801" s="57"/>
-      <c r="D801" s="58"/>
+      <c r="A801" s="60"/>
+      <c r="B801" s="61"/>
+      <c r="C801" s="61"/>
+      <c r="D801" s="63"/>
     </row>
     <row r="802" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A802" s="56"/>
-      <c r="B802" s="57"/>
-      <c r="C802" s="57"/>
-      <c r="D802" s="58"/>
+      <c r="A802" s="60"/>
+      <c r="B802" s="61"/>
+      <c r="C802" s="61"/>
+      <c r="D802" s="63"/>
     </row>
     <row r="803" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A803" s="56"/>
-      <c r="B803" s="57"/>
-      <c r="C803" s="57"/>
-      <c r="D803" s="58"/>
+      <c r="A803" s="60"/>
+      <c r="B803" s="61"/>
+      <c r="C803" s="61"/>
+      <c r="D803" s="63"/>
     </row>
     <row r="804" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A804" s="56"/>
-      <c r="B804" s="57"/>
-      <c r="C804" s="57"/>
-      <c r="D804" s="58"/>
+      <c r="A804" s="60"/>
+      <c r="B804" s="61"/>
+      <c r="C804" s="61"/>
+      <c r="D804" s="63"/>
     </row>
     <row r="805" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A805" s="56"/>
-      <c r="B805" s="57"/>
-      <c r="C805" s="57"/>
-      <c r="D805" s="58"/>
+      <c r="A805" s="60"/>
+      <c r="B805" s="61"/>
+      <c r="C805" s="61"/>
+      <c r="D805" s="63"/>
     </row>
     <row r="806" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A806" s="56"/>
-      <c r="B806" s="57"/>
-      <c r="C806" s="57"/>
-      <c r="D806" s="58"/>
+      <c r="A806" s="60"/>
+      <c r="B806" s="61"/>
+      <c r="C806" s="61"/>
+      <c r="D806" s="63"/>
     </row>
     <row r="807" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A807" s="56"/>
-      <c r="B807" s="57"/>
-      <c r="C807" s="57"/>
-      <c r="D807" s="58"/>
+      <c r="A807" s="60"/>
+      <c r="B807" s="61"/>
+      <c r="C807" s="61"/>
+      <c r="D807" s="63"/>
     </row>
     <row r="808" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A808" s="56"/>
-      <c r="B808" s="57"/>
-      <c r="C808" s="57"/>
-      <c r="D808" s="58"/>
+      <c r="A808" s="60"/>
+      <c r="B808" s="61"/>
+      <c r="C808" s="61"/>
+      <c r="D808" s="63"/>
     </row>
     <row r="809" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A809" s="56"/>
-      <c r="B809" s="57"/>
-      <c r="C809" s="57"/>
-      <c r="D809" s="58"/>
+      <c r="A809" s="60"/>
+      <c r="B809" s="61"/>
+      <c r="C809" s="61"/>
+      <c r="D809" s="63"/>
     </row>
     <row r="810" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A810" s="56"/>
-      <c r="B810" s="57"/>
-      <c r="C810" s="57"/>
-      <c r="D810" s="58"/>
+      <c r="A810" s="60"/>
+      <c r="B810" s="61"/>
+      <c r="C810" s="61"/>
+      <c r="D810" s="63"/>
     </row>
     <row r="811" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A811" s="56"/>
-      <c r="B811" s="57"/>
-      <c r="C811" s="57"/>
-      <c r="D811" s="58"/>
+      <c r="A811" s="60"/>
+      <c r="B811" s="61"/>
+      <c r="C811" s="61"/>
+      <c r="D811" s="63"/>
     </row>
     <row r="812" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A812" s="56"/>
-      <c r="B812" s="57"/>
-      <c r="C812" s="57"/>
-      <c r="D812" s="58"/>
+      <c r="A812" s="60"/>
+      <c r="B812" s="61"/>
+      <c r="C812" s="61"/>
+      <c r="D812" s="63"/>
     </row>
     <row r="813" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A813" s="56"/>
-      <c r="B813" s="57"/>
-      <c r="C813" s="57"/>
-      <c r="D813" s="58"/>
+      <c r="A813" s="60"/>
+      <c r="B813" s="61"/>
+      <c r="C813" s="61"/>
+      <c r="D813" s="63"/>
     </row>
     <row r="814" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A814" s="56"/>
-      <c r="B814" s="57"/>
-      <c r="C814" s="57"/>
-      <c r="D814" s="58"/>
+      <c r="A814" s="60"/>
+      <c r="B814" s="61"/>
+      <c r="C814" s="61"/>
+      <c r="D814" s="63"/>
     </row>
     <row r="815" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A815" s="56"/>
-      <c r="B815" s="57"/>
-      <c r="C815" s="57"/>
-      <c r="D815" s="58"/>
+      <c r="A815" s="60"/>
+      <c r="B815" s="61"/>
+      <c r="C815" s="61"/>
+      <c r="D815" s="63"/>
     </row>
     <row r="816" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A816" s="56"/>
-      <c r="B816" s="57"/>
-      <c r="C816" s="57"/>
-      <c r="D816" s="58"/>
+      <c r="A816" s="60"/>
+      <c r="B816" s="61"/>
+      <c r="C816" s="61"/>
+      <c r="D816" s="63"/>
     </row>
     <row r="817" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A817" s="56"/>
-      <c r="B817" s="57"/>
-      <c r="C817" s="57"/>
-      <c r="D817" s="58"/>
+      <c r="A817" s="60"/>
+      <c r="B817" s="61"/>
+      <c r="C817" s="61"/>
+      <c r="D817" s="63"/>
     </row>
     <row r="818" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A818" s="56"/>
-      <c r="B818" s="57"/>
-      <c r="C818" s="57"/>
-      <c r="D818" s="58"/>
+      <c r="A818" s="60"/>
+      <c r="B818" s="61"/>
+      <c r="C818" s="61"/>
+      <c r="D818" s="63"/>
     </row>
     <row r="819" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A819" s="56"/>
-      <c r="B819" s="57"/>
-      <c r="C819" s="57"/>
-      <c r="D819" s="58"/>
+      <c r="A819" s="60"/>
+      <c r="B819" s="61"/>
+      <c r="C819" s="61"/>
+      <c r="D819" s="63"/>
     </row>
     <row r="820" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A820" s="56"/>
-      <c r="B820" s="57"/>
-      <c r="C820" s="57"/>
-      <c r="D820" s="58"/>
+      <c r="A820" s="60"/>
+      <c r="B820" s="61"/>
+      <c r="C820" s="61"/>
+      <c r="D820" s="63"/>
     </row>
     <row r="821" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A821" s="56"/>
-      <c r="B821" s="57"/>
-      <c r="C821" s="57"/>
-      <c r="D821" s="58"/>
+      <c r="A821" s="60"/>
+      <c r="B821" s="61"/>
+      <c r="C821" s="61"/>
+      <c r="D821" s="63"/>
     </row>
     <row r="822" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A822" s="56"/>
-      <c r="B822" s="57"/>
-      <c r="C822" s="57"/>
-      <c r="D822" s="58"/>
+      <c r="A822" s="60"/>
+      <c r="B822" s="61"/>
+      <c r="C822" s="61"/>
+      <c r="D822" s="63"/>
     </row>
     <row r="823" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A823" s="56"/>
-      <c r="B823" s="57"/>
-      <c r="C823" s="57"/>
-      <c r="D823" s="58"/>
+      <c r="A823" s="60"/>
+      <c r="B823" s="61"/>
+      <c r="C823" s="61"/>
+      <c r="D823" s="63"/>
     </row>
     <row r="824" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A824" s="56"/>
-      <c r="B824" s="57"/>
-      <c r="C824" s="57"/>
-      <c r="D824" s="58"/>
+      <c r="A824" s="60"/>
+      <c r="B824" s="61"/>
+      <c r="C824" s="61"/>
+      <c r="D824" s="63"/>
     </row>
     <row r="825" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A825" s="56"/>
-      <c r="B825" s="57"/>
-      <c r="C825" s="57"/>
-      <c r="D825" s="58"/>
+      <c r="A825" s="60"/>
+      <c r="B825" s="61"/>
+      <c r="C825" s="61"/>
+      <c r="D825" s="63"/>
     </row>
     <row r="826" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A826" s="56"/>
-      <c r="B826" s="57"/>
-      <c r="C826" s="57"/>
-      <c r="D826" s="58"/>
+      <c r="A826" s="60"/>
+      <c r="B826" s="61"/>
+      <c r="C826" s="61"/>
+      <c r="D826" s="63"/>
     </row>
     <row r="827" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A827" s="56"/>
-      <c r="B827" s="57"/>
-      <c r="C827" s="57"/>
-      <c r="D827" s="58"/>
+      <c r="A827" s="60"/>
+      <c r="B827" s="61"/>
+      <c r="C827" s="61"/>
+      <c r="D827" s="63"/>
     </row>
     <row r="828" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A828" s="56"/>
-      <c r="B828" s="57"/>
-      <c r="C828" s="57"/>
-      <c r="D828" s="58"/>
+      <c r="A828" s="60"/>
+      <c r="B828" s="61"/>
+      <c r="C828" s="61"/>
+      <c r="D828" s="63"/>
     </row>
     <row r="829" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A829" s="56"/>
-      <c r="B829" s="57"/>
-      <c r="C829" s="57"/>
-      <c r="D829" s="58"/>
+      <c r="A829" s="60"/>
+      <c r="B829" s="61"/>
+      <c r="C829" s="61"/>
+      <c r="D829" s="63"/>
     </row>
     <row r="830" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A830" s="56"/>
-      <c r="B830" s="57"/>
-      <c r="C830" s="57"/>
-      <c r="D830" s="58"/>
+      <c r="A830" s="60"/>
+      <c r="B830" s="61"/>
+      <c r="C830" s="61"/>
+      <c r="D830" s="63"/>
     </row>
     <row r="831" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A831" s="56"/>
-      <c r="B831" s="57"/>
-      <c r="C831" s="57"/>
-      <c r="D831" s="58"/>
+      <c r="A831" s="60"/>
+      <c r="B831" s="61"/>
+      <c r="C831" s="61"/>
+      <c r="D831" s="63"/>
     </row>
     <row r="832" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A832" s="56"/>
-      <c r="B832" s="57"/>
-      <c r="C832" s="57"/>
-      <c r="D832" s="58"/>
+      <c r="A832" s="60"/>
+      <c r="B832" s="61"/>
+      <c r="C832" s="61"/>
+      <c r="D832" s="63"/>
     </row>
     <row r="833" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A833" s="56"/>
-      <c r="B833" s="57"/>
-      <c r="C833" s="57"/>
-      <c r="D833" s="58"/>
+      <c r="A833" s="60"/>
+      <c r="B833" s="61"/>
+      <c r="C833" s="61"/>
+      <c r="D833" s="63"/>
     </row>
     <row r="834" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A834" s="56"/>
-      <c r="B834" s="57"/>
-      <c r="C834" s="57"/>
-      <c r="D834" s="58"/>
+      <c r="A834" s="60"/>
+      <c r="B834" s="61"/>
+      <c r="C834" s="61"/>
+      <c r="D834" s="63"/>
     </row>
     <row r="835" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A835" s="56"/>
-      <c r="B835" s="57"/>
-      <c r="C835" s="57"/>
-      <c r="D835" s="58"/>
+      <c r="A835" s="60"/>
+      <c r="B835" s="61"/>
+      <c r="C835" s="61"/>
+      <c r="D835" s="63"/>
     </row>
     <row r="836" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A836" s="56"/>
-      <c r="B836" s="57"/>
-      <c r="C836" s="57"/>
-      <c r="D836" s="58"/>
+      <c r="A836" s="60"/>
+      <c r="B836" s="61"/>
+      <c r="C836" s="61"/>
+      <c r="D836" s="63"/>
     </row>
     <row r="837" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A837" s="56"/>
-      <c r="B837" s="57"/>
-      <c r="C837" s="57"/>
-      <c r="D837" s="58"/>
+      <c r="A837" s="60"/>
+      <c r="B837" s="61"/>
+      <c r="C837" s="61"/>
+      <c r="D837" s="63"/>
     </row>
     <row r="838" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A838" s="56"/>
-      <c r="B838" s="57"/>
-      <c r="C838" s="57"/>
-      <c r="D838" s="58"/>
+      <c r="A838" s="60"/>
+      <c r="B838" s="61"/>
+      <c r="C838" s="61"/>
+      <c r="D838" s="63"/>
     </row>
     <row r="839" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A839" s="56"/>
-      <c r="B839" s="57"/>
-      <c r="C839" s="57"/>
-      <c r="D839" s="58"/>
+      <c r="A839" s="60"/>
+      <c r="B839" s="61"/>
+      <c r="C839" s="61"/>
+      <c r="D839" s="63"/>
     </row>
     <row r="840" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A840" s="56"/>
-      <c r="B840" s="57"/>
-      <c r="C840" s="57"/>
-      <c r="D840" s="58"/>
+      <c r="A840" s="60"/>
+      <c r="B840" s="61"/>
+      <c r="C840" s="61"/>
+      <c r="D840" s="63"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -14049,456 +14358,473 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C297" r:id="rId1" display="https://apply.workable.com/gohenry/" tooltip="https://apply.workable.com/gohenry/"/>
-    <hyperlink ref="C303" r:id="rId2" display="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA." tooltip="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA."/>
-    <hyperlink ref="C208" r:id="rId3" display="https://apply.monsoonjobs.com/search_and_apply/vacancies/" tooltip="https://apply.monsoonjobs.com/search_and_apply/vacancies/"/>
-    <hyperlink ref="C222" r:id="rId4" display="https://partners.bridebook.com/uk/careers#openroles"/>
-    <hyperlink ref="C211" r:id="rId5" display="https://careers.lightricks.com/careers"/>
-    <hyperlink ref="C215" r:id="rId6" display="https://www.scandit.com/careers/current-openings/" tooltip="https://www.scandit.com/careers/current-openings/"/>
-    <hyperlink ref="C126" r:id="rId7" display="https://www.workspace.co.uk/job-vacancies" tooltip="https://www.workspace.co.uk/job-vacancies"/>
-    <hyperlink ref="C230" r:id="rId8" display="https://faculty.ai/join-the-team/#ashby_embed"/>
-    <hyperlink ref="C206" r:id="rId9" display="https://greshamhouse.com/join-our-team/"/>
-    <hyperlink ref="C7" r:id="rId10" display="https://jobs.lever.co/cfgi" tooltip="https://jobs.lever.co/cfgi"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://www.kfh.co.uk/careers/vacancies/"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://3s.money/join/careers" tooltip="https://3s.money/join/careers"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://4global.com/company/#" tooltip="https://4global.com/company/#"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://4cassociates.teamtailor.com/jobs" tooltip="https://4cassociates.teamtailor.com/jobs"/>
-    <hyperlink ref="C16" r:id="rId15" display="https://www.aswatsoncareers.com/search" tooltip="https://www.aswatsoncareers.com/search"/>
-    <hyperlink ref="C17" r:id="rId16" display="https://abel-cole.breezy.hr/" tooltip="https://abel-cole.breezy.hr/"/>
-    <hyperlink ref="C19" r:id="rId17" display="https://careers.achievetogether.co.uk/Search.aspx" tooltip="https://careers.achievetogether.co.uk/Search.aspx"/>
-    <hyperlink ref="C23" r:id="rId18" display="https://careers.adyen.com/vacancies" tooltip="https://careers.adyen.com/vacancies"/>
-    <hyperlink ref="C24" r:id="rId19" display="https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=GB%2C%20US&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=GB%2C%20US&amp;quatFlag=false" tooltip="https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=GB%2C%20US&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;options"/>
-    <hyperlink ref="C25" r:id="rId20" display="https://myndyou.com/about-us/careers/" tooltip="https://myndyou.com/about-us/careers/"/>
-    <hyperlink ref="C27" r:id="rId21" display="https://www.hungerrush.com/careers/?an_fb_exaud=an_fb_hungerrushe46sdg56&amp;an_exaud0=an_fb_hungerrush6rsf5dhrd698" tooltip="https://www.hungerrush.com/careers/?an_fb_exaud=an_fb_hungerrushe46sdg56&amp;an_exaud0=an_fb_hungerrush6rsf5dhrd698"/>
-    <hyperlink ref="C28" r:id="rId22" display="https://work.life/careers/"/>
-    <hyperlink ref="C29" r:id="rId23" display="https://careers.next15.com/jobs" tooltip="https://careers.next15.com/jobs"/>
-    <hyperlink ref="C33" r:id="rId24" display="https://careers.iqstudentaccommodation.com/jobs/vacancy/find/results/" tooltip="https://careers.iqstudentaccommodation.com/jobs/vacancy/find/results/"/>
-    <hyperlink ref="C34" r:id="rId25" display="https://careers.isio.com/en-GB/jobs"/>
-    <hyperlink ref="C36" r:id="rId26" display="https://www.airwallex.com/careers#roles" tooltip="https://www.airwallex.com/careers#roles"/>
-    <hyperlink ref="C38" r:id="rId27" display="https://www.allwyn.co.uk/job-board"/>
-    <hyperlink ref="C48" r:id="rId28" display="https://www.appearhere.co.uk/about/careers"/>
-    <hyperlink ref="C49" r:id="rId29" display="https://careers.arbor-education.com/#jobs"/>
-    <hyperlink ref="C52" r:id="rId30" display="https://artek.uk/careers" tooltip="https://artek.uk/careers"/>
-    <hyperlink ref="C53" r:id="rId31" display="https://us232.dayforcehcm.com/CandidatePortal/en-US/comptia" tooltip="https://us232.dayforcehcm.com/CandidatePortal/en-US/comptia"/>
-    <hyperlink ref="C55" r:id="rId32" display="https://atelierfinance.co.uk/careers/" tooltip="https://atelierfinance.co.uk/careers/"/>
-    <hyperlink ref="C56" r:id="rId33" display="https://ejjl.fa.ap1.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/requisitions?lastSelectedFacet=LOCATIONS&amp;mode=location&amp;selectedLocationsFacet=300000000296420%3B300000000294958"/>
-    <hyperlink ref="C57" r:id="rId34" display="https://isw.changeworknow.co.uk/awayresorts/vms/e/careers/search/edit"/>
-    <hyperlink ref="C59" r:id="rId35" display="https://transitwireless.taleo.net/careersection/ex/jobsearch.ftl?lang=en" tooltip="https://transitwireless.taleo.net/careersection/ex/jobsearch.ftl?lang=en"/>
-    <hyperlink ref="C60" r:id="rId36" display="https://apply.workable.com/ballingerco/#jobs"/>
-    <hyperlink ref="C63" r:id="rId37" display="https://baxendale.co.uk/careers/" tooltip="https://baxendale.co.uk/careers/"/>
-    <hyperlink ref="C64" r:id="rId38" display="https://bcis.co.uk/about-us/careers/"/>
-    <hyperlink ref="C65" r:id="rId39" display="https://www.beacon.com/vacancies" tooltip="https://www.beacon.com/vacancies"/>
-    <hyperlink ref="C66" r:id="rId40" display="https://careers.beamery.com/jobs/"/>
-    <hyperlink ref="C67" r:id="rId41" display="https://www.adverity.com/careers" tooltip="https://www.adverity.com/careers"/>
-    <hyperlink ref="C68" r:id="rId42" display="https://www.togetherforgirls.org/en/careers" tooltip="https://www.togetherforgirls.org/en/careers"/>
-    <hyperlink ref="C69" r:id="rId43" display="https://www.rcseng.ac.uk/about-the-rcs/working-at-the-college/current-rcs-vacancies/" tooltip="https://www.rcseng.ac.uk/about-the-rcs/working-at-the-college/current-rcs-vacancies/"/>
-    <hyperlink ref="C71" r:id="rId44" display="https://jobs.bentley.com/search" tooltip="https://jobs.bentley.com/search"/>
-    <hyperlink ref="C72" r:id="rId45" display="https://apply.workable.com/volt-dot-i-o/#jobs"/>
-    <hyperlink ref="C77" r:id="rId46" display="https://learnamp.com/careers#open-positions" tooltip="https://learnamp.com/careers#open-positions"/>
-    <hyperlink ref="C84" r:id="rId47" display="https://www.apprentify.com/internal-vacancies/" tooltip="https://www.apprentify.com/internal-vacancies/"/>
-    <hyperlink ref="C87" r:id="rId48" display="https://www.rethinkfirst.com/careers/" tooltip="https://www.rethinkfirst.com/careers/"/>
-    <hyperlink ref="C89" r:id="rId49" display="https://www.vitechinc.com/careers/view-opportunities/"/>
-    <hyperlink ref="C91" r:id="rId50" display="https://boards.greenhouse.io/prefect"/>
-    <hyperlink ref="C83" r:id="rId51" display="https://fortnum-and-mason.staging.krakatoa.eu-2.volcanic.cloud/jobs?source=careers.fortnumandmason.com"/>
-    <hyperlink ref="C85" r:id="rId52" display="https://ghd.livevacancies.co.uk/#/"/>
-    <hyperlink ref="C81" r:id="rId53" display="https://powerleaguegroup.postingpanda.uk/" tooltip="https://powerleaguegroup.postingpanda.uk/"/>
-    <hyperlink ref="C80" r:id="rId54" display="https://netacea.com/careers/" tooltip="https://netacea.com/careers/"/>
-    <hyperlink ref="C177" r:id="rId55" display="https://boards.greenhouse.io/heycar/"/>
-    <hyperlink ref="C114" r:id="rId56" display="https://harri.com/grind-careers" tooltip="https://harri.com/grind-careers"/>
-    <hyperlink ref="C326" r:id="rId57" display="https://jobs.ashbyhq.com/metaview"/>
-    <hyperlink ref="C288" r:id="rId58" display="https://boards.eu.greenhouse.io/bitpanda"/>
-    <hyperlink ref="C30" r:id="rId59" display="https://www.prime-propertygroup.com/contacts/"/>
-    <hyperlink ref="C74" r:id="rId60" display="https://careers.hansonwadegroup.com/jobs"/>
-    <hyperlink ref="C75" r:id="rId61" display="https://getmagic.com/careers/" tooltip="https://getmagic.com/careers/"/>
-    <hyperlink ref="C88" r:id="rId62" display="https://canarywharf.wd3.myworkdayjobs.com/CanaryWharf" tooltip="https://canarywharf.wd3.myworkdayjobs.com/CanaryWharf"/>
-    <hyperlink ref="C93" r:id="rId63" display="https://jobs.workable.com/company/vbFZaR6cPm46s3pMMdSotv/jobs-at-the-very-group"/>
-    <hyperlink ref="C98" r:id="rId64" display="https://jobs.lever.co/treecard" tooltip="https://jobs.lever.co/treecard"/>
-    <hyperlink ref="C99" r:id="rId65" display="https://careers.scs.co.uk/all-openings"/>
-    <hyperlink ref="C100" r:id="rId66" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE"/>
-    <hyperlink ref="C101" r:id="rId67" display="https://cityfibre.com/careers/all-jobs"/>
-    <hyperlink ref="C102" r:id="rId68" display="https://harri.com/Biscuiteers-careers"/>
-    <hyperlink ref="C103" r:id="rId69" display="https://careers.cargill.com/en/search-jobs"/>
-    <hyperlink ref="C108" r:id="rId70" display="https://www.aireymiller.com/careers"/>
-    <hyperlink ref="C109" r:id="rId71" display="https://wearemtm.com/careers/" tooltip="https://wearemtm.com/careers/"/>
-    <hyperlink ref="C111" r:id="rId72" display="https://jobs.cityoflondon.gov.uk"/>
-    <hyperlink ref="C113" r:id="rId73" display="https://www.hush-uk.com/work-at-hush.html"/>
-    <hyperlink ref="C115" r:id="rId74" display="https://www.ibisworld.com/careers/" tooltip="https://www.ibisworld.com/careers/"/>
-    <hyperlink ref="C117" r:id="rId75" display="https://www.vouchercodes.co.uk/careers" tooltip="https://www.vouchercodes.co.uk/careers"/>
-    <hyperlink ref="C118" r:id="rId76" display="https://jobs.lever.co/joinzoe"/>
-    <hyperlink ref="C120" r:id="rId77" display="https://www.multiverse.io/en-GB/careers#job-list"/>
-    <hyperlink ref="C121" r:id="rId78" display="https://www.simplybusiness.co.uk/about-us/careers/jobs/" tooltip="https://www.simplybusiness.co.uk/about-us/careers/jobs/"/>
-    <hyperlink ref="C122" r:id="rId79" display="https://munichre-jobs.com/en/MunichRe"/>
-    <hyperlink ref="C123" r:id="rId80" display="https://apply.workable.com/fenergocareers/"/>
-    <hyperlink ref="C124" r:id="rId81" display="https://www.thoughtworks.com/en-gb/careers" tooltip="https://www.thoughtworks.com/en-gb/careers"/>
-    <hyperlink ref="C127" r:id="rId82" display="https://impact.com/careers/#global-opportunities"/>
-    <hyperlink ref="C128" r:id="rId83" display="https://supercharge.io/careers/positions"/>
-    <hyperlink ref="C130" r:id="rId84" display="https://apply.workable.com/starling-bank/#jobs"/>
-    <hyperlink ref="C131" r:id="rId85" display="https://symphony.com/company/careers/"/>
-    <hyperlink ref="C132" r:id="rId86" display="https://careers.cynergybank.co.uk/jobs?location=London"/>
-    <hyperlink ref="C134" r:id="rId87" display="https://jobs.ashbyhq.com/myurbanjungle.com" tooltip="https://jobs.ashbyhq.com/myurbanjungle.com"/>
-    <hyperlink ref="C136" r:id="rId88" display="https://www.yonder.com/careers#open-positions"/>
-    <hyperlink ref="C137" r:id="rId89" display="https://careers.ovo.com/opportunities "/>
-    <hyperlink ref="C138" r:id="rId90" display="https://workingatedge.com/careers/"/>
-    <hyperlink ref="C139" r:id="rId91" display="https://pelorusx.co/about/careers" tooltip="https://pelorusx.co/about/careers"/>
-    <hyperlink ref="C140" r:id="rId92" display="https://www.peldonrose.com/about/jobs" tooltip="https://www.peldonrose.com/about/jobs"/>
-    <hyperlink ref="C141" r:id="rId93" display="https://www.naturalhr.net/hr/recruitment/roles/8279302e80a62ccde7ee587a4f382535"/>
-    <hyperlink ref="C142" r:id="rId94" display="https://www.industrialsreit.com/careers"/>
-    <hyperlink ref="C143" r:id="rId95" display="https://www.oka.com/uk/careers/opportunities"/>
-    <hyperlink ref="C144" r:id="rId96" display="https://www.capgemini.com/gb-en/careers/join-us/" tooltip="https://www.capgemini.com/gb-en/careers/join-us/"/>
-    <hyperlink ref="C145" r:id="rId97" display="https://jobs.amundi.com/homepage.aspx?LCID=2057" tooltip="https://jobs.amundi.com/homepage.aspx?LCID=2057"/>
-    <hyperlink ref="C146" r:id="rId98" display="https://jobs.pphe.com/careers/?country=united-kingdom" tooltip="https://jobs.pphe.com/careers/?country=united-kingdom"/>
-    <hyperlink ref="C148" r:id="rId99" display="https://www.freddiesflowers.com/about-us/jobs#openings"/>
-    <hyperlink ref="C149" r:id="rId100" display="https://www.iabuk.com/vacancies" tooltip="https://www.iabuk.com/vacancies"/>
-    <hyperlink ref="C150" r:id="rId101" display="https://channel3consulting.livevacancies.co.uk/jobsIframe" tooltip="https://channel3consulting.livevacancies.co.uk/jobsIframe"/>
-    <hyperlink ref="C151" r:id="rId102" display="https://careers.domesticandgeneral.com/search-jobs/"/>
-    <hyperlink ref="C152" r:id="rId103" display="https://patchwork.teamtailor.com/jobs" tooltip="https://patchwork.teamtailor.com/jobs"/>
-    <hyperlink ref="C154" r:id="rId104" display="https://www.palantir.com/careers/#open-positions" tooltip="https://www.palantir.com/careers/#open-positions"/>
-    <hyperlink ref="C156" r:id="rId105" display="https://profinda.bamboohr.com/careers" tooltip="https://profinda.bamboohr.com/careers"/>
-    <hyperlink ref="C157" r:id="rId106" display="https://hymans.current-vacancies.com/Careers/Hymans%20external%20VSP-2054#"/>
-    <hyperlink ref="C159" r:id="rId107" display="https://www.downing.co.uk/careers#open-positions"/>
-    <hyperlink ref="C160" r:id="rId108" display="https://www.turnerandtownsend.com/en/careers/apply-now/"/>
-    <hyperlink ref="C161" r:id="rId109" display="https://jobs.petscorner.co.uk/job-list/"/>
-    <hyperlink ref="C164" r:id="rId110" display="https://jobs.reachplc.com/jobs"/>
-    <hyperlink ref="C165" r:id="rId111" display="https://www.connellsgroup.co.uk/careers/job-search/?radius=5&amp;page=1&amp;sort=posted&amp;direction=desc" tooltip="https://www.connellsgroup.co.uk/careers/job-search/?radius=5&amp;page=1&amp;sort=posted&amp;direction=desc"/>
-    <hyperlink ref="C167" r:id="rId112" display="https://www.semble.io/careers" tooltip="https://www.semble.io/careers"/>
-    <hyperlink ref="C166" r:id="rId113" display="https://careers.savills.com/jobs"/>
-    <hyperlink ref="C170" r:id="rId114" display="https://clear.bank/join-clearbank/careers"/>
-    <hyperlink ref="C171" r:id="rId115" display="https://www.quantexa.com/careers/vacancies/" tooltip="https://www.quantexa.com/careers/vacancies/"/>
-    <hyperlink ref="C172" r:id="rId116" display="https://jajafinance.bamboohr.com/careers" tooltip="https://jajafinance.bamboohr.com/careers"/>
-    <hyperlink ref="C173" r:id="rId117" display="https://careers.phished.io/l/en" tooltip="https://careers.phished.io/l/en"/>
-    <hyperlink ref="C176" r:id="rId118" display="https://careers.scienceinsport.com/jobs"/>
-    <hyperlink ref="C178" r:id="rId119" display="https://boards.eu.greenhouse.io/convera/"/>
-    <hyperlink ref="C179" r:id="rId120" display="https://volarisgroup.wd3.myworkdayjobs.com/CompanyWatch" tooltip="https://volarisgroup.wd3.myworkdayjobs.com/CompanyWatch"/>
-    <hyperlink ref="C180" r:id="rId121" display="https://www.verkeer.co/about-us/careers/"/>
-    <hyperlink ref="C181" r:id="rId122" display="https://careers.cbre.com/en_US/careers/SearchJobs/?9577=%5B17276%2C17117%5D&amp;9577_format=10224&amp;listFilterMode=1&amp;jobSort=relevancy&amp;jobRecordsPerPage=25&amp;" tooltip="https://careers.cbre.com/en_US/careers/SearchJobs/?9577=%5B17276%2C17117%5D&amp;9577_format=10224&amp;listFilterMode=1&amp;jobSort=relevancy&amp;jobRecordsPerPage=25&amp;"/>
-    <hyperlink ref="C183" r:id="rId123" display="https://montaguevans.jibeapply.com/careers-home/jobs?keywords=&amp;location=&amp;page=1&amp;sortBy=relevance&amp;limit=100"/>
-    <hyperlink ref="C187" r:id="rId124" display="https://ichoosr.recruitee.com/"/>
-    <hyperlink ref="C188" r:id="rId125" display="https://www.ospreycharging.co.uk/careers-at-osprey-charging"/>
-    <hyperlink ref="C192" r:id="rId126" display="https://jobs.yougov.com/jobs"/>
-    <hyperlink ref="C207" r:id="rId127" display="https://jobs.thecignagroup.com/us/en/search-results" tooltip="https://jobs.thecignagroup.com/us/en/search-results"/>
-    <hyperlink ref="C210" r:id="rId128" display="https://www.kpmgcareers.co.uk/search/" tooltip="https://www.kpmgcareers.co.uk/search/"/>
-    <hyperlink ref="C216" r:id="rId129" display="https://ryman.ats.emea1.fourth.com"/>
-    <hyperlink ref="C218" r:id="rId130" display="https://job-boards.greenhouse.io/fountain"/>
-    <hyperlink ref="C220" r:id="rId131" display="https://freetrade.io/careers#job-openings"/>
-    <hyperlink ref="C223" r:id="rId132" display="https://jobs.decathlon.co.uk/go/View-all-Jobs/4978001/"/>
-    <hyperlink ref="C224" r:id="rId133" display="https://www.theaacareers.co.uk/apply/?s_Keywords="/>
-    <hyperlink ref="C226" r:id="rId134" display="https://www.lhh.com/uk/en/search-jobs/"/>
-    <hyperlink ref="C227" r:id="rId135" display="https://careers.telegraph.co.uk/jobs/job-search?location=London"/>
-    <hyperlink ref="C229" r:id="rId136" display="https://careers.deliveroo.co.uk/jobs/" tooltip="https://careers.deliveroo.co.uk/jobs/"/>
-    <hyperlink ref="C231" r:id="rId137" display="https://www.family-institute.org/about-us/careers"/>
-    <hyperlink ref="C232" r:id="rId138" display="https://thegymgroup.wd3.myworkdayjobs.com/TGG_External_Career_Site" tooltip="https://thegymgroup.wd3.myworkdayjobs.com/TGG_External_Career_Site"/>
-    <hyperlink ref="C233" r:id="rId139" display="https://cmcmarkets.wd3.myworkdayjobs.com/CMC_Markets_Careers"/>
-    <hyperlink ref="C235" r:id="rId140" display="https://turo.com/gb/en/careers#job_openings" tooltip="https://turo.com/gb/en/careers#job_openings"/>
-    <hyperlink ref="C236" r:id="rId141" display="https://www.mollymaid.co.uk/working-for-molly-maid/"/>
-    <hyperlink ref="C237" r:id="rId142" display="https://www.newscareers.co.uk/vacancies/vacancy-search-results.aspx" tooltip="https://www.newscareers.co.uk/vacancies/vacancy-search-results.aspx"/>
-    <hyperlink ref="C238" r:id="rId143" display="https://jobs.greystar.com/search-jobs/" tooltip="https://jobs.greystar.com/search-jobs/"/>
-    <hyperlink ref="C239" r:id="rId144" display="https://careers.upmc.com/job-search-results/" tooltip="https://careers.upmc.com/job-search-results/"/>
-    <hyperlink ref="C240" r:id="rId145" display="https://natterbox.com/careers/"/>
-    <hyperlink ref="C241" r:id="rId146" display="https://www.constellationcold.com/vacancies/"/>
-    <hyperlink ref="C242" r:id="rId147" display="https://www.neudata.co/careers#Jobs"/>
-    <hyperlink ref="C244" r:id="rId148" display="https://www.thredd.com/about-us/careers/vacancies"/>
-    <hyperlink ref="C246" r:id="rId149" display="https://careers.marshmclennan.com/global/en/oliver-wyman-search"/>
-    <hyperlink ref="C250" r:id="rId150" display="https://mileway.com/careers/opportunities/"/>
-    <hyperlink ref="C251" r:id="rId151" display="https://www.efficioconsulting.com/en-gb/careers/apply/" tooltip="https://www.efficioconsulting.com/en-gb/careers/apply/"/>
-    <hyperlink ref="C253" r:id="rId152" display="https://thelostestate.com/jobs/"/>
-    <hyperlink ref="C254" r:id="rId153" display="https://www.elixirr.com/en-gb/job-openings/" tooltip="https://www.elixirr.com/en-gb/job-openings/"/>
-    <hyperlink ref="C256" r:id="rId154" display="https://jobs.lever.co/enable"/>
-    <hyperlink ref="C259" r:id="rId155" display="https://www.busybeerecruitment.co.uk/vacancies"/>
-    <hyperlink ref="C264" r:id="rId156" display="https://www.capitalontap.com/en/company/careers/#careers-jobs"/>
-    <hyperlink ref="C265" r:id="rId157" display="https://careers.learnatnoon.com/jobs"/>
-    <hyperlink ref="C269" r:id="rId158" display="https://www.tussell.com/careers#jobs" tooltip="https://www.tussell.com/careers#jobs"/>
-    <hyperlink ref="C272" r:id="rId159" display="https://www.doddgroup.com/jobs"/>
-    <hyperlink ref="C282" r:id="rId160" display="https://www.speechmatics.com/company/careers/roles"/>
-    <hyperlink ref="C284" r:id="rId161" display="https://thecrownestate.teamtailor.com/jobs"/>
-    <hyperlink ref="C290" r:id="rId162" display="https://www.tilda.com/about-us/careers/" tooltip="https://www.tilda.com/about-us/careers/"/>
-    <hyperlink ref="C291" r:id="rId163" display="https://apply.workable.com/koothjobs/" tooltip="https://apply.workable.com/koothjobs/"/>
-    <hyperlink ref="C293" r:id="rId164" display="https://www.kkr.com/careers/career-opportunities"/>
-    <hyperlink ref="C294" r:id="rId165" display="https://app.otta.com/companies/GetHarley#company-mission-section" tooltip="https://app.otta.com/companies/GetHarley#company-mission-section"/>
-    <hyperlink ref="C296" r:id="rId166" display="https://dt-consulting.com/open-positions/" tooltip="https://dt-consulting.com/open-positions/"/>
-    <hyperlink ref="C298" r:id="rId167" display="https://www.realestate.bnpparibas.co.uk/find-job"/>
-    <hyperlink ref="C301" r:id="rId168" display="https://ts.wd5.myworkdayjobs.com/en-US/tishmanspeyer"/>
-    <hyperlink ref="C306" r:id="rId169" display="https://www.charliehr.com/careers#Vacancies" tooltip="https://www.charliehr.com/careers#Vacancies"/>
-    <hyperlink ref="C307" r:id="rId170" display="https://milltechfx.com/company/careers/"/>
-    <hyperlink ref="C308" r:id="rId171" display="https://harri.com/The-Delaunay-BYtcttE0b35i" tooltip="https://harri.com/The-Delaunay-BYtcttE0b35i"/>
-    <hyperlink ref="C309" r:id="rId172" display="https://careers.legalandgeneral.com/jobs?options=203"/>
-    <hyperlink ref="C311" r:id="rId173" display="https://www.amazon.jobs/content/en/teams/amazon-entertainment/music?country%5B%5D=US&amp;country%5B%5D=GB"/>
-    <hyperlink ref="C312" r:id="rId174" display="https://hyve.group/lifeathyve/join-our-team/" tooltip="https://hyve.group/lifeathyve/join-our-team/"/>
-    <hyperlink ref="C315" r:id="rId175" display="https://www.harrodscareers.com/jobs" tooltip="https://www.harrodscareers.com/jobs"/>
-    <hyperlink ref="C317" r:id="rId176" display="https://vistaglobal.com/careers/" tooltip="https://vistaglobal.com/careers/"/>
-    <hyperlink ref="C319" r:id="rId177" display="https://join.modsquad.com/careers/"/>
-    <hyperlink ref="C321" r:id="rId178" display="https://shieldpay.teamtailor.com/jobs"/>
-    <hyperlink ref="C325" r:id="rId179" display="https://jll.wd1.myworkdayjobs.com/jllcareers"/>
-    <hyperlink ref="C327" r:id="rId180" display="https://hdfg.fa.em3.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX/requisitions?mode=location"/>
-    <hyperlink ref="C328" r:id="rId181" display="https://www.envitia.com/careers/job-opportunities/"/>
-    <hyperlink ref="C335" r:id="rId182" display="https://careers.northhighland.com/jobs/" tooltip="https://careers.northhighland.com/jobs/"/>
-    <hyperlink ref="C336" r:id="rId183" display="https://careers.captify.co.uk/#jobs"/>
-    <hyperlink ref="C338" r:id="rId184" display="https://fa-evng-saasfaprod1.fa.ocs.oraclecloud.com/hcmUI/CandidateExperience/en/sites/LBWF/requisitions?location=United+Kingdom&amp;locationId=300000000471661&amp;locationLevel=country&amp;mode=location"/>
-    <hyperlink ref="C339" r:id="rId185" display="https://channel3consulting.co.uk/work-with-us/careers/"/>
-    <hyperlink ref="C340" r:id="rId186" display="https://www.gwi.com/careers#job-list"/>
-    <hyperlink ref="C341" r:id="rId187" display="https://polestar.teamtailor.com/jobs"/>
-    <hyperlink ref="C110" r:id="rId188" display="https://www.alphagroup.com/about/careers/" tooltip="https://www.alphagroup.com/about/careers/"/>
-    <hyperlink ref="C342" r:id="rId189" display="https://www.11fs.com/careers/vacancies" tooltip="https://www.11fs.com/careers/vacancies"/>
-    <hyperlink ref="C343" r:id="rId190" display="https://careers.7im.co.uk/vacancies/vacancy-search-results.aspx"/>
-    <hyperlink ref="C347" r:id="rId191" display="https://jobs.amadeuscapital.com/"/>
-    <hyperlink ref="C348" r:id="rId192" display="https://recruiting.ultipro.com/AME1095ACHM/JobBoard/c52f9a39-fdc5-4ae2-9eaf-cb8a7bda923e/?q=&amp;o=postedDateDesc&amp;w=&amp;wc=&amp;we=&amp;wpst="/>
-    <hyperlink ref="C349" r:id="rId193" display="https://arthur.co.uk/live-jobs/" tooltip="https://arthur.co.uk/live-jobs/"/>
-    <hyperlink ref="C350" r:id="rId194" display="https://aztec.group/us/careers/current-vacancies/"/>
-    <hyperlink ref="C351" r:id="rId195" display="https://www.barbican.org.uk/our-story/about-us/careers"/>
-    <hyperlink ref="C352" r:id="rId196" display="https://baringa.csod.com/ux/ats/careersite/4/home?c=baringa" tooltip="https://baringa.csod.com/ux/ats/careersite/4/home?c=baringa"/>
-    <hyperlink ref="C353" r:id="rId197" display="https://www.bellaandduke.com/join-our-team/" tooltip="https://www.bellaandduke.com/join-our-team/"/>
-    <hyperlink ref="C354" r:id="rId198" display="https://job-boards.eu.greenhouse.io/theberkeleypartnership" tooltip="https://job-boards.eu.greenhouse.io/theberkeleypartnership"/>
-    <hyperlink ref="C355" r:id="rId199" display="https://bespoke-bids.com/careers/"/>
-    <hyperlink ref="C356" r:id="rId200" display="https://big.dk/careers"/>
-    <hyperlink ref="C360" r:id="rId201" display="https://baicommunications.wd3.myworkdayjobs.com/External"/>
-    <hyperlink ref="C361" r:id="rId202" display="https://careers.boohoogroup.com/search-jobs"/>
-    <hyperlink ref="C362" r:id="rId203" display="https://workfor.brightnetwork.co.uk/join-us"/>
-    <hyperlink ref="C363" r:id="rId204" display="https://www.broadwaymalyan.com/people/vacancies/"/>
-    <hyperlink ref="C364" r:id="rId205" display="https://www.burtonsbiscuits.com/life-at-burtons/current-vacancies/burton-s-bakeries/"/>
-    <hyperlink ref="C365" r:id="rId206" display="https://jobs.lever.co/moonpig"/>
-    <hyperlink ref="C366" r:id="rId207" display="https://careers.oniverse.it/en-GB/home"/>
-    <hyperlink ref="C367" r:id="rId208" display="https://camillaelphick.com/pages/careers-1" tooltip="https://camillaelphick.com/pages/careers-1"/>
-    <hyperlink ref="C368" r:id="rId209" display="https://www.cartwrightpickard.com/careers"/>
-    <hyperlink ref="C369" r:id="rId210" display="https://www.celigo.com/careers/#job-listings"/>
-    <hyperlink ref="C370" r:id="rId211" display="https://www.channelbakers.com/careers" tooltip="https://www.channelbakers.com/careers"/>
-    <hyperlink ref="C371" r:id="rId212" display="https://www.careers-page.com/chelsea-peers#openings" tooltip="https://www.careers-page.com/chelsea-peers#openings"/>
-    <hyperlink ref="C372" r:id="rId213" display="https://careers.churchdwight.com/jobs/?search=&amp;country=GBR&amp;location=&amp;team=&amp;position=&amp;type="/>
-    <hyperlink ref="C373" r:id="rId214" display="https://cinchona.com/careers/"/>
-    <hyperlink ref="C374" r:id="rId215" display="https://cipfa.teamtailor.com/jobs?query="/>
-    <hyperlink ref="C375" r:id="rId216" display="https://jobs.cliffordchance.com/jobs?options=49,58&amp;page=1"/>
-    <hyperlink ref="C376" r:id="rId217" display="https://work-clockwise.com/careers/"/>
-    <hyperlink ref="C377" r:id="rId218" display="https://www.clubmedjobs.com/en/search-jobs/" tooltip="https://www.clubmedjobs.com/en/search-jobs/"/>
-    <hyperlink ref="C378" r:id="rId219" display="https://fsr.cvmailuk.com/clydecocareers/main.cfm?page=jobBoard&amp;fo=1&amp;groupType_21=&amp;groupType_33=&amp;filter=&amp;srxksl=1"/>
-    <hyperlink ref="C380" r:id="rId220" display="https://www.couvertureandthegarbstore.com/pages/careers"/>
-    <hyperlink ref="C381" r:id="rId221" display="https://crawfordtech.pinpointhq.com/#js-careers-jobs-block"/>
-    <hyperlink ref="C383" r:id="rId222" display="https://globaleur242.dayforcehcm.com/CandidatePortal/en-GB/crippspeople/" tooltip="https://globaleur242.dayforcehcm.com/CandidatePortal/en-GB/crippspeople/"/>
-    <hyperlink ref="C384" r:id="rId223" display="https://www.csl-group.com/uk/careers/"/>
-    <hyperlink ref="C386" r:id="rId224" display="https://cumminggroup.wd1.myworkdayjobs.com/CGC" tooltip="https://cumminggroup.wd1.myworkdayjobs.com/CGC"/>
-    <hyperlink ref="C387" r:id="rId225" display="https://www.redpincompany.com/careers?department=&amp;location=&amp;company=currencies-direct&amp;page=1"/>
-    <hyperlink ref="C388" r:id="rId226" display="https://www.dae.mn/openings"/>
-    <hyperlink ref="C389" r:id="rId227" display="https://datatonic.com/careers/vacancies/" tooltip="https://datatonic.com/careers/vacancies/"/>
-    <hyperlink ref="C390" r:id="rId228" display="https://careers.dcc.ie/dccvital/search/"/>
-    <hyperlink ref="C391" r:id="rId229" display="https://www.dechert.com/careers.html"/>
-    <hyperlink ref="C393" r:id="rId230" display="https://apply.workable.com/demellier-ltd/?lng=en"/>
-    <hyperlink ref="C395" r:id="rId231" display="https://downing.com/work-for-us/#work-for-us-6"/>
-    <hyperlink ref="C396" r:id="rId232" display="https://drdoctor.teamtailor.com/jobs" tooltip="https://drdoctor.teamtailor.com/jobs"/>
-    <hyperlink ref="C397" r:id="rId233" display="https://careers.dufry.com/go/Dufry-Main/9035601/"/>
-    <hyperlink ref="C398" r:id="rId234" display="https://careers-dwfgroup.icims.com/jobs/search?hashed=-625886029&amp;mobile=false&amp;width=1011&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=0&amp;jun1offset=60" tooltip="https://careers-dwfgroup.icims.com/jobs/search?hashed=-625886029&amp;mobile=false&amp;width=1011&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=0&amp;jun1offset=60"/>
-    <hyperlink ref="C400" r:id="rId235" display="https://empiricstudentpropertyplc.talosats-careers.com/vacancies"/>
-    <hyperlink ref="C401" r:id="rId236" display="https://careers.enginuity.org/jobs"/>
-    <hyperlink ref="C402" r:id="rId237" display="https://careers.ensek.com/" tooltip="https://careers.ensek.com/"/>
-    <hyperlink ref="C403" r:id="rId238" display="https://eo-group.co.uk/opportunities/"/>
-    <hyperlink ref="C404" r:id="rId239" display="https://equita.co.uk/about-us/work-with-us/"/>
-    <hyperlink ref="C405" r:id="rId240" display="https://equiteq.careers.hibob.com/" tooltip="https://equiteq.careers.hibob.com/"/>
-    <hyperlink ref="C406" r:id="rId241" display="https://join.estrid.com/jobs?_gl=1*o2mc52*_gcl_au*NTQ1NjA2NDYxLjE3MjA1MzY1NDQ.*_ga*MTUwMjg1NTAyOS4xNzIwNTM2NTQ0*_fplc*SzNYUEpUcU84dCUyRkJQcGRtRmJzU3JvelRaRjhWZ2NPUyUyRmh2N2pvTTclMkJDeEZoQmd4ZUJTMkVXVGhyV2I4aklFbkV6N1d4cyUyQnUxY2pYMlpneXViMWxGajRZdWVsaEFDaWl5VFZRaUxmaTFwdFN4dWs2emtralF6U3klMkZHcVhmQSUzRCUzRA.."/>
-    <hyperlink ref="C407" r:id="rId242" display="https://www.euromonitor.com/careers"/>
-    <hyperlink ref="C408" r:id="rId243" display="https://careers.emjreviews.com/#jobs"/>
-    <hyperlink ref="C409" r:id="rId244" display="https://euroviacareers.appellia.com/?ous="/>
-    <hyperlink ref="C410" r:id="rId245" display="https://fadel.com/careers/"/>
-    <hyperlink ref="C411" r:id="rId246" display="https://farrer.allhires.com/Default.aspx?b=l"/>
-    <hyperlink ref="C412" r:id="rId247" display="https://careers.theaccessgroup.com/jobs/"/>
-    <hyperlink ref="C413" r:id="rId248" display="https://www.filefoundation.org/careers"/>
-    <hyperlink ref="C414" r:id="rId249" display="https://www.floww.io/careers/" tooltip="https://www.floww.io/careers/"/>
-    <hyperlink ref="C415" r:id="rId250" display="https://careers.flutteruki.com/search-jobs/" tooltip="https://careers.flutteruki.com/search-jobs/"/>
-    <hyperlink ref="C416" r:id="rId251" display="https://www.fdf.org.uk/fdf/about-fdf/work-for-us/"/>
-    <hyperlink ref="C418" r:id="rId252" display="https://freesoul.teamtailor.com/jobs"/>
-    <hyperlink ref="C420" r:id="rId253" display="https://careers.fundpath.com/jobs"/>
-    <hyperlink ref="C421" r:id="rId254" display="https://gensler.wd1.myworkdayjobs.com/genslercareers"/>
-    <hyperlink ref="C422" r:id="rId255" display="https://careers.glanbia.com/search/?createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_department="/>
-    <hyperlink ref="C423" r:id="rId256" display="https://bbinsurance.wd1.myworkdayjobs.com/en-US/Careers_Europe?locationCountry=29247e57dbaf46fb855b224e03170bc7" tooltip="https://bbinsurance.wd1.myworkdayjobs.com/en-US/Careers_Europe?locationCountry=29247e57dbaf46fb855b224e03170bc7"/>
-    <hyperlink ref="C424" r:id="rId257" display="https://www.global-e.com/careers/"/>
-    <hyperlink ref="C425" r:id="rId258" display="https://corporate.graingerplc.co.uk/people-and-careers/opportunities"/>
-    <hyperlink ref="C427" r:id="rId259" display="https://recruiting.paylocity.com/recruiting/jobs/All/6c97a7d4-bb9e-4185-b871-59e5ddcf8143/Green-Street-Advisors-LLC"/>
-    <hyperlink ref="C428" r:id="rId260" display="https://careers.jobscore.com/careers/grimshawarchitects"/>
-    <hyperlink ref="C429" r:id="rId261" display="https://grosvenor.wd3.myworkdayjobs.com/External_careers_site_Grosvenor?locationCountry=29247e57dbaf46fb855b224e03170bc7" tooltip="https://grosvenor.wd3.myworkdayjobs.com/External_careers_site_Grosvenor?locationCountry=29247e57dbaf46fb855b224e03170bc7"/>
-    <hyperlink ref="C430" r:id="rId262" display="https://www.hamptons.co.uk/recruitment/vacancySearch.php#/"/>
-    <hyperlink ref="C431" r:id="rId263" display="https://www.hightekers.com/en-gb/careers"/>
-    <hyperlink ref="C432" r:id="rId264" display="https://careers.hlmarchitects.com/jobs"/>
-    <hyperlink ref="C433" r:id="rId265" display="https://iconic-sales.com/en/karriere/"/>
-    <hyperlink ref="C426" r:id="rId266" display="https://careers.ineos.com/?jobtitle=&amp;countryid=All&amp;siteid=All&amp;businessid=56&amp;Language=All"/>
-    <hyperlink ref="C417" r:id="rId267" display="https://www.intelligentchange.com/pages/careers"/>
-    <hyperlink ref="C399" r:id="rId268" display="https://careers.smartrecruiters.com/InternationalSOSGovernmentMedicalServices"/>
-    <hyperlink ref="C419" r:id="rId269" display="https://www.irbureau.com/about-irb/careers/"/>
-    <hyperlink ref="C394" r:id="rId270" display="https://isaac.hiringplatform.ca/list/isaac-jobs"/>
-    <hyperlink ref="C392" r:id="rId271" display="https://isg.wd3.myworkdayjobs.com/ISG" tooltip="https://isg.wd3.myworkdayjobs.com/ISG"/>
-    <hyperlink ref="C385" r:id="rId272" display="https://careers.itv.com/jobs"/>
-    <hyperlink ref="C382" r:id="rId273" display="https://cdpq.wd10.myworkdayjobs.com/en-US/CDPQ"/>
-    <hyperlink ref="C379" r:id="rId274" display="https://jadedldn.com/pages/careers-old"/>
-    <hyperlink ref="C359" r:id="rId275" display="https://careers.kellydeli.com/jobs" tooltip="https://careers.kellydeli.com/jobs"/>
-    <hyperlink ref="C358" r:id="rId276" display="https://careers.kennedyslaw.com/jobs/vacancy/find/results/"/>
-    <hyperlink ref="C357" r:id="rId277" display="https://fr.keycraftglobal.com/careers"/>
-    <hyperlink ref="C345" r:id="rId278" display="https://careers.kindredgroup.com/vacancy/find/results/"/>
-    <hyperlink ref="C346" r:id="rId279" display="https://kirkiss.ky/careers/"/>
-    <hyperlink ref="C434" r:id="rId280" display="https://instituteofwater.org.uk/all/institute-of-water-job-vacancy/"/>
-    <hyperlink ref="C436" r:id="rId281" display="https://lawo.softgarden.io/en/widgets/jobs" tooltip="https://lawo.softgarden.io/en/widgets/jobs"/>
-    <hyperlink ref="C437" r:id="rId282" display="https://recruiting.ultipro.com/LEG1003LGNDS/JobBoard/7cb7e3f4-053b-4339-af7b-1c62dc39bfc9/?q=&amp;o=postedDateDesc&amp;w=&amp;wc=&amp;we=&amp;wpst="/>
-    <hyperlink ref="C438" r:id="rId283" display="https://careers.lendable.com/jobs" tooltip="https://careers.lendable.com/jobs"/>
-    <hyperlink ref="C439" r:id="rId284" display="https://lhc.livevacancies.co.uk/#/"/>
-    <hyperlink ref="C440" r:id="rId285" display="https://www.lincolninternational.com/careers-and-culture/careers/experienced-professionals/"/>
-    <hyperlink ref="C442" r:id="rId286" display="https://careers.lockton.com/gb/en/browsejobs"/>
-    <hyperlink ref="C443" r:id="rId287" display="https://www.lotusbakeriesjobs.com/en/careers"/>
-    <hyperlink ref="C445" r:id="rId288" display="https://mangroupplc.wd3.myworkdayjobs.com/Man_Group_Careers"/>
-    <hyperlink ref="C446" r:id="rId289" display="https://www.marex.com/careers/"/>
-    <hyperlink ref="C447" r:id="rId290" display="https://jobs.mazars.co.uk/jobs/vacancy/find/results/"/>
-    <hyperlink ref="C448" r:id="rId291" display="https://medica.co.uk/work-with-us/careers"/>
-    <hyperlink ref="C449" r:id="rId292" display="https://www.medicaltracker.co.uk/careers"/>
-    <hyperlink ref="C450" r:id="rId293" display="https://careers.medivet.co.uk/search-jobs/" tooltip="https://careers.medivet.co.uk/search-jobs/"/>
-    <hyperlink ref="C452" r:id="rId294" display="https://www.mixtiles.com/careers#positions"/>
-    <hyperlink ref="C453" r:id="rId295" display="https://jobs.jobvite.com/monicavinader"/>
-    <hyperlink ref="C454" r:id="rId296" display="https://careers.morningstar.com/us/en/search-results"/>
-    <hyperlink ref="C455" r:id="rId297" display="https://careers.nationalexpress.com/search"/>
-    <hyperlink ref="C456" r:id="rId298" display="https://www.newcrosshealthcare.com/jobs/"/>
-    <hyperlink ref="C457" r:id="rId299" display="https://www.careers-page.com/nexgen-group"/>
-    <hyperlink ref="C458" r:id="rId300" display="https://oakfurnitureland.kallidusrecruit.com/Search.aspx"/>
-    <hyperlink ref="C459" r:id="rId301" display="https://www.jobtrain.co.uk/odeon5/Home/Job?lstRegion=&amp;chkCategory="/>
-    <hyperlink ref="C461" r:id="rId302" display="https://careers.optimahealth.co.uk/jobs/vacancy/find/results/"/>
-    <hyperlink ref="C462" r:id="rId303" display="https://optionsforsupportedliving.org/join-us/current-vacancies "/>
-    <hyperlink ref="C463" r:id="rId304" display="https://www.opus2.com/company/careers/#current-opportunities" tooltip="https://www.opus2.com/company/careers/#current-opportunities"/>
-    <hyperlink ref="C464" r:id="rId305" display="https://ordnancesurvey.wd3.myworkdayjobs.com/OS_Careers" tooltip="https://ordnancesurvey.wd3.myworkdayjobs.com/OS_Careers"/>
-    <hyperlink ref="C460" r:id="rId306" display="https://opencastsoftware.com/careers/vacancies/all-vacancies/?Commitment=&amp;Department=" tooltip="https://opencastsoftware.com/careers/vacancies/all-vacancies/?Commitment=&amp;Department="/>
-    <hyperlink ref="C465" r:id="rId307" display="https://www.outsystems.com/careers/job-list/?page=1"/>
-    <hyperlink ref="C466" r:id="rId308" display="https://harri.com/Oxygen-BXDKqMwzDPo0" tooltip="https://harri.com/Oxygen-BXDKqMwzDPo0"/>
-    <hyperlink ref="C467" r:id="rId309" display="https://pattern.wd1.myworkdayjobs.com/en-US/Pattern_Careers" tooltip="https://pattern.wd1.myworkdayjobs.com/en-US/Pattern_Careers"/>
-    <hyperlink ref="C468" r:id="rId310" display="https://pearson.jobs/jobs/" tooltip="https://pearson.jobs/jobs/"/>
-    <hyperlink ref="C471" r:id="rId311" display="https://www.playter.co/careers" tooltip="https://www.playter.co/careers"/>
-    <hyperlink ref="C472" r:id="rId312" display="https://careers.pod-point.com/#js-careers-jobs-block"/>
-    <hyperlink ref="C473" r:id="rId313" display="https://populous.com/careers#jobs" tooltip="https://populous.com/careers#jobs"/>
-    <hyperlink ref="C475" r:id="rId314" display="https://www.potawatomiventures.com/careers" tooltip="https://www.potawatomiventures.com/careers"/>
-    <hyperlink ref="C476" r:id="rId315" display="https://qudo.ai/team/" tooltip="https://qudo.ai/team/"/>
-    <hyperlink ref="C477" r:id="rId316" display="https://careers.ralphlauren.com/CareersCorporate/SearchJobsCorporate"/>
-    <hyperlink ref="C478" r:id="rId317" display="https://www.regal.co.uk/careers/" tooltip="https://www.regal.co.uk/careers/"/>
-    <hyperlink ref="C479" r:id="rId318" display="http://careers.reiss.com/" tooltip="http://careers.reiss.com/"/>
-    <hyperlink ref="C481" r:id="rId319" display="https://rlb.current-vacancies.com/Careers/RLB%20VSP-2028" tooltip="https://rlb.current-vacancies.com/Careers/RLB%20VSP-2028"/>
-    <hyperlink ref="C483" r:id="rId320" display="https://rhsocli.webitrent.com/rhsocli_webrecruitment/wrd/run/ETREC179GF.open?WVID=9962857kSa"/>
-    <hyperlink ref="C484" r:id="rId321" display="https://careers.rsgroup.com/search" tooltip="https://careers.rsgroup.com/search"/>
-    <hyperlink ref="C485" r:id="rId322" display="https://careers.rsmuk.com/uk/en/search-results"/>
-    <hyperlink ref="C486" r:id="rId323" display="https://sandersondesign.group/careers/" tooltip="https://sandersondesign.group/careers/"/>
-    <hyperlink ref="C487" r:id="rId324" display="https://sauna360.com/careers" tooltip="https://sauna360.com/careers"/>
-    <hyperlink ref="C488" r:id="rId325" display="https://careers.sb-fm.co.uk/vacancies/vacancy-search-results.aspx" tooltip="https://careers.sb-fm.co.uk/vacancies/vacancy-search-results.aspx"/>
-    <hyperlink ref="C489" r:id="rId326" display="https://seccl.tech/careers/#jobs" tooltip="https://seccl.tech/careers/#jobs"/>
-    <hyperlink ref="C490" r:id="rId327" display="https://www.servicepower.com/open-positions?hsCtaTracking=c66bea59-48b7-4539-b4db-a057ca6178d9%7Ce5504d0e-4b23-4ad2-9670-a39f13cf3dc5" tooltip="https://www.servicepower.com/open-positions?hsCtaTracking=c66bea59-48b7-4539-b4db-a057ca6178d9%7Ce5504d0e-4b23-4ad2-9670-a39f13cf3dc5"/>
-    <hyperlink ref="C491" r:id="rId328" display="https://severfield.current-vacancies.com/Careers/Severfield%20vacancy%20search%20page-2072" tooltip="https://severfield.current-vacancies.com/Careers/Severfield%20vacancy%20search%20page-2072"/>
-    <hyperlink ref="C492" r:id="rId329" display="https://www.silverdcc.com/careers/job-vacancies/"/>
-    <hyperlink ref="C494" r:id="rId330" display="https://skuuudle.bamboohr.com/careers" tooltip="https://skuuudle.bamboohr.com/careers"/>
-    <hyperlink ref="C495" r:id="rId331" display="https://careers.slaughterandmay.com/V2/Vacancy"/>
-    <hyperlink ref="C497" r:id="rId332" display="https://jobs.softcat.com/jobs/vacancy/find/results/"/>
-    <hyperlink ref="C499" r:id="rId333" display="https://careers.soprasteria.co.uk/uk/en/search-results"/>
-    <hyperlink ref="C500" r:id="rId334" display="https://jobs.lever.co/splend"/>
-    <hyperlink ref="C501" r:id="rId335" display="https://www.stace.co.uk/careers/current-opportunities/"/>
-    <hyperlink ref="C502" r:id="rId336" display="https://stlpartners.com/stl-careers/" tooltip="https://stlpartners.com/stl-careers/"/>
-    <hyperlink ref="C504" r:id="rId337" display="https://apply.workable.com/structureflow/?lng=en#jobs"/>
-    <hyperlink ref="C505" r:id="rId338" display="https://studentcribs.livevacancies.co.uk/#/"/>
-    <hyperlink ref="C506" r:id="rId339" display="https://careers.superbet.com/careers"/>
-    <hyperlink ref="C508" r:id="rId340" display="https://www.tambo.io/joinus"/>
-    <hyperlink ref="C509" r:id="rId341" display="https://careers.tangleteezer.com/jobs" tooltip="https://careers.tangleteezer.com/jobs"/>
-    <hyperlink ref="C511" r:id="rId342" display="https://careers.teemill.com/jobs" tooltip="https://careers.teemill.com/jobs"/>
-    <hyperlink ref="C512" r:id="rId343" display="https://tetratech.referrals.selectminds.com/jobs/search" tooltip="https://tetratech.referrals.selectminds.com/jobs/search"/>
-    <hyperlink ref="C513" r:id="rId344" display="https://tfpfertilitygroup.recruitee.com/"/>
-    <hyperlink ref="C514" r:id="rId345" display="https://bargrli.webitrent.com/bargrli_webrecruitment/" tooltip="https://bargrli.webitrent.com/bargrli_webrecruitment/"/>
-    <hyperlink ref="C515" r:id="rId346" display="https://www.woburn.co.uk/careers/"/>
-    <hyperlink ref="C516" r:id="rId347" display="https://ce0499li.webitrent.com/ce0499li_webrecruitment/"/>
-    <hyperlink ref="C518" r:id="rId348" display="https://www.hill.co.uk/finance-0"/>
-    <hyperlink ref="C519" r:id="rId349" display="https://theinsightsfamily.com/about/careers" tooltip="https://theinsightsfamily.com/about/careers"/>
-    <hyperlink ref="C520" r:id="rId350" display="https://thekeysupport.com/careers/?marker=fromWWWFooter"/>
-    <hyperlink ref="C521" r:id="rId351" display="https://livegroup.co.uk/recruitment-careers/" tooltip="https://livegroup.co.uk/recruitment-careers/"/>
-    <hyperlink ref="C522" r:id="rId352" display="https://www.thelondonclinic-careers.co.uk/VacancyPosting/Search#!/"/>
-    <hyperlink ref="C523" r:id="rId353" display="https://apply.workable.com/the-office-group/"/>
-    <hyperlink ref="C525" r:id="rId354" display="https://www.jobtrain.co.uk/theroyalparks/Home/Job?"/>
-    <hyperlink ref="C526" r:id="rId355" display="https://careers.thewhitecompany.com/opportunities"/>
-    <hyperlink ref="C527" r:id="rId356" display="https://threepipereply.com/careers/"/>
-    <hyperlink ref="C528" r:id="rId357" display="https://team.ticker.co.uk/"/>
-    <hyperlink ref="C529" r:id="rId358" display="https://careers.timeshighereducation.com/jobs"/>
-    <hyperlink ref="C530" r:id="rId359" display="https://www.thetonicconsultancy.com/careers"/>
-    <hyperlink ref="C531" r:id="rId360" display="https://www.toscaltd.com/en-gb/jobs/"/>
-    <hyperlink ref="C533" r:id="rId361" display="https://apply.workable.com/totallymoney/?lng=en" tooltip="https://apply.workable.com/totallymoney/?lng=en"/>
-    <hyperlink ref="C534" r:id="rId362" display="https://www.treyapartners.com/careers.html"/>
-    <hyperlink ref="C535" r:id="rId363" display="https://www.tskgroup.co.uk/careers#open"/>
-    <hyperlink ref="C536" r:id="rId364" display="https://www.turnkeyconsulting.com/careers"/>
-    <hyperlink ref="C537" r:id="rId365" display="https://www.unstudio.com/en/career"/>
-    <hyperlink ref="C538" r:id="rId366" display="https://up3.co.uk/about/servicenow-careers-with-up3/"/>
-    <hyperlink ref="C540" r:id="rId367" display="https://fullyvested.com/join-the-team/"/>
-    <hyperlink ref="C541" r:id="rId368" display="https://www.viber.com/en/careers-global/"/>
-    <hyperlink ref="C542" r:id="rId369" display="https://visualdatamedia.bamboohr.com/careers" tooltip="https://visualdatamedia.bamboohr.com/careers"/>
-    <hyperlink ref="C543" r:id="rId370" display="https://www.vitabiotics.com/pages/careers" tooltip="https://www.vitabiotics.com/pages/careers"/>
-    <hyperlink ref="C539" r:id="rId371" display="https://careers.vivobarefoot.com/jobs"/>
-    <hyperlink ref="C532" r:id="rId372" display="https://apply.workable.com/weflex-ltd/#jobs" tooltip="https://apply.workable.com/weflex-ltd/#jobs"/>
-    <hyperlink ref="C524" r:id="rId373" display="https://welbeckhealthpartners.com/careers/#careers"/>
-    <hyperlink ref="C510" r:id="rId374" display="https://westrockta.avature.net/en_US/careers/SearchJobs/" tooltip="https://westrockta.avature.net/en_US/careers/SearchJobs/"/>
-    <hyperlink ref="C507" r:id="rId375" display="https://jobs.ashbyhq.com/wonderbly.com" tooltip="https://jobs.ashbyhq.com/wonderbly.com"/>
-    <hyperlink ref="C503" r:id="rId376" display="https://worknest.com/about-us/careers/"/>
-    <hyperlink ref="C498" r:id="rId377" display="https://wowcher-1676895404.teamtailor.com/jobs"/>
-    <hyperlink ref="C496" r:id="rId378" display="https://apply.workable.com/yapily/#jobs"/>
-    <hyperlink ref="C493" r:id="rId379" display="https://yokoy.io/careers/" tooltip="https://yokoy.io/careers/"/>
-    <hyperlink ref="C482" r:id="rId380" display="https://careers.yoobic.com/jobs"/>
-    <hyperlink ref="C474" r:id="rId381" display="https://youngones.com/uk/careers/"/>
-    <hyperlink ref="C470" r:id="rId382" display="https://www.zpb-associates.com/job-opportunities" tooltip="https://www.zpb-associates.com/job-opportunities"/>
-    <hyperlink ref="C441" r:id="rId383" display="https://hoganlovells.wd3.myworkdayjobs.com/Search" tooltip="https://hoganlovells.wd3.myworkdayjobs.com/Search"/>
-    <hyperlink ref="C435" r:id="rId384" display="https://www.imperial.ac.uk/jobs/search-jobs/?searchCriteria[0][key]=LOV72&amp;searchCriteria[0][values][]=280734"/>
-    <hyperlink ref="C444" r:id="rId385" display="https://jobs.helpinghandshomecare.co.uk/search" tooltip="https://jobs.helpinghandshomecare.co.uk/search"/>
-    <hyperlink ref="C451" r:id="rId386" display="https://zyrofisher.co.uk/vacancies/" tooltip="https://zyrofisher.co.uk/vacancies/"/>
-    <hyperlink ref="C469" r:id="rId387" display="https://recruiting2.ultipro.com/PER1007PWILL/JobBoard/0ca393a4-bf82-4db6-acae-91e6a0315a4a/?q=&amp;o=postedDateDesc&amp;w=&amp;wc=&amp;we=&amp;wpst=&amp;f4=EpG9lh8U21ueW7EALgmPJw"/>
-    <hyperlink ref="C480" r:id="rId388" display="https://careers.rgp.com/Careers/SearchJobs" tooltip="https://careers.rgp.com/Careers/SearchJobs"/>
-    <hyperlink ref="C517" r:id="rId389" display="https://www.hill.co.uk/group"/>
-    <hyperlink ref="C70" r:id="rId390" display="https://unlockedgrads.org.uk/about/vacancies/#current-vacancies" tooltip="https://unlockedgrads.org.uk/about/vacancies/#current-vacancies"/>
-    <hyperlink ref="C2" r:id="rId391" display="https://careers.techwolf.ai/" tooltip="https://careers.techwolf.ai/"/>
-    <hyperlink ref="C4" r:id="rId392" display="https://mycareer.hsbc.com/en_GB/external/SearchJobs/?1017=%5B67222%2C67234%5D&amp;1017_format=812&amp;1023=%5B1248547%5D&amp;1023_format=913&amp;listFilterMode=1&amp;pipelineRecordsPerPage=10&amp;#anchor__search-jobs"/>
-    <hyperlink ref="C5" r:id="rId393" display="https://www.ardenthire.com/careers/our-careers/#"/>
-    <hyperlink ref="C6" r:id="rId394" display="https://www.biogen.com/careers/careers-search.html?country=United%2520Kingdom%2CUnited%2520States"/>
-    <hyperlink ref="C8" r:id="rId395" display="https://careerssearch.saga.co.uk/"/>
-    <hyperlink ref="C9" r:id="rId396" display="https://globalus232.dayforcehcm.com/CandidatePortal/en-US/caventures/SITE/caventurescareers"/>
-    <hyperlink ref="C10" r:id="rId397" display="https://landsecurities.wd3.myworkdayjobs.com/Landseccareers" tooltip="https://landsecurities.wd3.myworkdayjobs.com/Landseccareers"/>
-    <hyperlink ref="C11" r:id="rId398" display="https://lendlease.wd3.myworkdayjobs.com/LendleaseCareers"/>
-    <hyperlink ref="C18" r:id="rId399" display="https://careers.acco.com/go/All-ACCO-Brands-Job-Search-Results/9104500/"/>
-    <hyperlink ref="C20" r:id="rId400" display="https://acumen.org/work-with-us/" tooltip="https://acumen.org/work-with-us/"/>
-    <hyperlink ref="C21" r:id="rId401" display="https://addland.com/careers"/>
-    <hyperlink ref="C22" r:id="rId402" display="https://www.admiraljobs.co.uk/Jobs?options=26&amp;page=1"/>
-    <hyperlink ref="C31" r:id="rId403" display="https://frasers.group/careers/jobs"/>
-    <hyperlink ref="C37" r:id="rId404" display="https://alchemmy.com/careers/#positions"/>
-    <hyperlink ref="C61" r:id="rId405" display="https://career.barnebys.com/jobs"/>
-    <hyperlink ref="C78" r:id="rId406" display="https://www.veeve.com/en-gb/careers"/>
-    <hyperlink ref="C96" r:id="rId407" display="https://lwtheatres.csod.com/ux/ats/careersite/5/home?c=lwtheatres"/>
-    <hyperlink ref="C116" r:id="rId408" display="https://careers.occstrategy.com/vacancies/vacancy-search-results.aspx"/>
-    <hyperlink ref="C135" r:id="rId409" display="https://harbourvest.wd5.myworkdayjobs.com/HVP"/>
-    <hyperlink ref="C153" r:id="rId410" display="https://hgcapital.pinpointhq.com"/>
-    <hyperlink ref="C158" r:id="rId411" display="https://nordcloud.com/company/careers/"/>
-    <hyperlink ref="C162" r:id="rId412" display="https://cezanneondemand.intervieweb.it/junglecreations/en/career"/>
-    <hyperlink ref="C168" r:id="rId413" display="https://www.lenusehealth.com/careers#openings"/>
-    <hyperlink ref="C174" r:id="rId414" display="https://www.wates.co.uk/careers/vacancies/"/>
-    <hyperlink ref="C175" r:id="rId415" display="https://careers.macegroup.com/current-vacancies"/>
-    <hyperlink ref="C194" r:id="rId416" display="https://www.cvpartner.com/company/careers#join_us" tooltip="https://www.cvpartner.com/company/careers#join_us"/>
-    <hyperlink ref="C195" r:id="rId417" display="https://www.sosandar.com/careers/"/>
-    <hyperlink ref="C197" r:id="rId418" display="https://www.clarasys.com/jobs/"/>
-    <hyperlink ref="C198" r:id="rId419" display="https://www.rvu.co.uk/careers"/>
-    <hyperlink ref="C199" r:id="rId420" display="https://wd1.myworkdaysite.com/recruiting/ssctech/SSCTechnologies"/>
-    <hyperlink ref="C202" r:id="rId421" display="https://careers.roccofortehotels.com/jobs" tooltip="https://careers.roccofortehotels.com/jobs"/>
-    <hyperlink ref="C209" r:id="rId422" display="https://tapi.bamboohr.com/careers"/>
-    <hyperlink ref="C212" r:id="rId423" display="https://careers.edgardcooper.com/jobs"/>
-    <hyperlink ref="C213" r:id="rId424" display="https://hiscox.wd3.myworkdayjobs.com/Hiscox_External_Site"/>
-    <hyperlink ref="C214" r:id="rId425" display="https://www.bjss.com/careers/search"/>
-    <hyperlink ref="C217" r:id="rId426" display="https://careers.caesarstone.com/positions/"/>
-    <hyperlink ref="C228" r:id="rId427" display="https://manual.recruitee.com"/>
-    <hyperlink ref="C234" r:id="rId428" display="https://www.montacapital.com/search-jobs"/>
-    <hyperlink ref="C243" r:id="rId429" display="https://www.dartmouthpartners.com/jobs"/>
-    <hyperlink ref="C258" r:id="rId430" display="https://apply.workable.com/fergus/?lng=en#jobs"/>
-    <hyperlink ref="C261" r:id="rId431" display="https://www.accenture.com/gb-en/careers/jobsearch?jk=&amp;sb=1&amp;vw=0&amp;is_rj=0&amp;pg=1" tooltip="https://www.accenture.com/gb-en/careers/jobsearch?jk=&amp;sb=1&amp;vw=0&amp;is_rj=0&amp;pg=1"/>
-    <hyperlink ref="C273" r:id="rId432" display="https://apply.workable.com/extremereach/"/>
-    <hyperlink ref="C274" r:id="rId433" display="https://managementors.co.uk/careers/"/>
-    <hyperlink ref="C275" r:id="rId434" display="https://hillgroupuk.teamtailor.com/en-GB/jobs?utm_campaign=page_2740767_cta_21935141&amp;utm_content=https%3A//hillgroupuk.teamtailor.com&amp;utm_medium=cta-block&amp;utm_source=teamtailor-page"/>
-    <hyperlink ref="C277" r:id="rId435" display="https://careers.dazn.com/jobs/"/>
-    <hyperlink ref="C278" r:id="rId436" display="https://www.segro.com/careers/current-vacancies"/>
-    <hyperlink ref="C280" r:id="rId437" display="https://www.monument.co/careers"/>
-    <hyperlink ref="C281" r:id="rId438" display="https://www.mention-me.com/careers#roles"/>
-    <hyperlink ref="C285" r:id="rId439" display="https://www.visualsoft.co.uk/careers-overview"/>
-    <hyperlink ref="C287" r:id="rId440" display="https://careers.smartrecruiters.com/Freshworks" tooltip="https://careers.smartrecruiters.com/Freshworks"/>
-    <hyperlink ref="C316" r:id="rId441" display="https://www.native-residential.com/careers/"/>
-    <hyperlink ref="C318" r:id="rId442" display="https://careers.justeattakeaway.com/global/en/search-results?keywords=" tooltip="https://careers.justeattakeaway.com/global/en/search-results?keywords="/>
-    <hyperlink ref="C322" r:id="rId443" display="https://apply.workable.com/pensionbee/?lng=en" tooltip="https://apply.workable.com/pensionbee/?lng=en"/>
-    <hyperlink ref="C334" r:id="rId444" display="https://www.worldfirst.com/uk/careers/"/>
-    <hyperlink ref="C337" r:id="rId445" display="https://careers.sycurio.com/#jobs"/>
+    <hyperlink ref="C542" r:id="rId1" display="https://visualdatamedia.bamboohr.com/careers" tooltip="https://visualdatamedia.bamboohr.com/careers"/>
+    <hyperlink ref="C541" r:id="rId2" display="https://www.viber.com/en/careers-global/"/>
+    <hyperlink ref="C540" r:id="rId3" display="https://fullyvested.com/join-the-team/"/>
+    <hyperlink ref="C539" r:id="rId4" display="https://careers.vivobarefoot.com/jobs"/>
+    <hyperlink ref="C538" r:id="rId5" display="https://up3.co.uk/about/servicenow-careers-with-up3/"/>
+    <hyperlink ref="C537" r:id="rId6" display="https://www.unstudio.com/en/career"/>
+    <hyperlink ref="C536" r:id="rId7" display="https://www.turnkeyconsulting.com/careers"/>
+    <hyperlink ref="C535" r:id="rId8" display="https://www.tskgroup.co.uk/careers#open"/>
+    <hyperlink ref="C534" r:id="rId9" display="https://www.treyapartners.com/careers.html"/>
+    <hyperlink ref="C533" r:id="rId10" display="https://apply.workable.com/totallymoney/?lng=en" tooltip="https://apply.workable.com/totallymoney/?lng=en"/>
+    <hyperlink ref="C532" r:id="rId11" display="https://apply.workable.com/weflex-ltd/#jobs" tooltip="https://apply.workable.com/weflex-ltd/#jobs"/>
+    <hyperlink ref="C531" r:id="rId12" display="https://www.toscaltd.com/en-gb/jobs/"/>
+    <hyperlink ref="C530" r:id="rId13" display="https://www.thetonicconsultancy.com/careers"/>
+    <hyperlink ref="C529" r:id="rId14" display="https://careers.timeshighereducation.com/jobs"/>
+    <hyperlink ref="C528" r:id="rId15" display="https://team.ticker.co.uk/"/>
+    <hyperlink ref="C527" r:id="rId16" display="https://threepipereply.com/careers/"/>
+    <hyperlink ref="C526" r:id="rId17" display="https://careers.thewhitecompany.com/opportunities"/>
+    <hyperlink ref="C525" r:id="rId18" display="https://www.jobtrain.co.uk/theroyalparks/Home/Job?"/>
+    <hyperlink ref="C524" r:id="rId19" display="https://welbeckhealthpartners.com/careers/#careers"/>
+    <hyperlink ref="C523" r:id="rId20" display="https://apply.workable.com/the-office-group/"/>
+    <hyperlink ref="C522" r:id="rId21" display="https://www.thelondonclinic-careers.co.uk/VacancyPosting/Search#!/"/>
+    <hyperlink ref="C521" r:id="rId22" display="https://livegroup.co.uk/recruitment-careers/" tooltip="https://livegroup.co.uk/recruitment-careers/"/>
+    <hyperlink ref="C520" r:id="rId23" display="https://thekeysupport.com/careers/?marker=fromWWWFooter"/>
+    <hyperlink ref="C519" r:id="rId24" display="https://theinsightsfamily.com/about/careers" tooltip="https://theinsightsfamily.com/about/careers"/>
+    <hyperlink ref="C518" r:id="rId25" display="https://www.hill.co.uk/finance-0"/>
+    <hyperlink ref="C517" r:id="rId26" display="https://www.hill.co.uk/group"/>
+    <hyperlink ref="C516" r:id="rId27" display="https://ce0499li.webitrent.com/ce0499li_webrecruitment/"/>
+    <hyperlink ref="C515" r:id="rId28" display="https://www.woburn.co.uk/careers/"/>
+    <hyperlink ref="C514" r:id="rId29" display="https://bargrli.webitrent.com/bargrli_webrecruitment/" tooltip="https://bargrli.webitrent.com/bargrli_webrecruitment/"/>
+    <hyperlink ref="C513" r:id="rId30" display="https://tfpfertilitygroup.recruitee.com/"/>
+    <hyperlink ref="C512" r:id="rId31" display="https://tetratech.referrals.selectminds.com/jobs/search" tooltip="https://tetratech.referrals.selectminds.com/jobs/search"/>
+    <hyperlink ref="C511" r:id="rId32" display="https://careers.teemill.com/jobs" tooltip="https://careers.teemill.com/jobs"/>
+    <hyperlink ref="C510" r:id="rId33" display="https://westrockta.avature.net/en_US/careers/SearchJobs/" tooltip="https://westrockta.avature.net/en_US/careers/SearchJobs/"/>
+    <hyperlink ref="C509" r:id="rId34" display="https://careers.tangleteezer.com/jobs" tooltip="https://careers.tangleteezer.com/jobs"/>
+    <hyperlink ref="C508" r:id="rId35" display="https://www.tambo.io/joinus"/>
+    <hyperlink ref="C507" r:id="rId36" display="https://jobs.ashbyhq.com/wonderbly.com" tooltip="https://jobs.ashbyhq.com/wonderbly.com"/>
+    <hyperlink ref="C506" r:id="rId37" display="https://careers.superbet.com/careers"/>
+    <hyperlink ref="C505" r:id="rId38" display="https://studentcribs.livevacancies.co.uk/#/"/>
+    <hyperlink ref="C504" r:id="rId39" display="https://apply.workable.com/structureflow/?lng=en#jobs"/>
+    <hyperlink ref="C503" r:id="rId40" display="https://worknest.com/about-us/careers/"/>
+    <hyperlink ref="C502" r:id="rId41" display="https://stlpartners.com/stl-careers/" tooltip="https://stlpartners.com/stl-careers/"/>
+    <hyperlink ref="C501" r:id="rId42" display="https://www.stace.co.uk/careers/current-opportunities/"/>
+    <hyperlink ref="C500" r:id="rId43" display="https://jobs.lever.co/splend"/>
+    <hyperlink ref="C499" r:id="rId44" display="https://careers.soprasteria.co.uk/uk/en/search-results"/>
+    <hyperlink ref="C498" r:id="rId45" display="https://wowcher-1676895404.teamtailor.com/jobs"/>
+    <hyperlink ref="C497" r:id="rId46" display="https://jobs.softcat.com/jobs/vacancy/find/results/"/>
+    <hyperlink ref="C496" r:id="rId47" display="https://apply.workable.com/yapily/#jobs"/>
+    <hyperlink ref="C495" r:id="rId48" display="https://careers.slaughterandmay.com/V2/Vacancy"/>
+    <hyperlink ref="C494" r:id="rId49" display="https://skuuudle.bamboohr.com/careers" tooltip="https://skuuudle.bamboohr.com/careers"/>
+    <hyperlink ref="C493" r:id="rId50" display="https://yokoy.io/careers/" tooltip="https://yokoy.io/careers/"/>
+    <hyperlink ref="C492" r:id="rId51" display="https://www.silverdcc.com/careers/job-vacancies/"/>
+    <hyperlink ref="C491" r:id="rId52" display="https://severfield.current-vacancies.com/Careers/Severfield%20vacancy%20search%20page-2072" tooltip="https://severfield.current-vacancies.com/Careers/Severfield%20vacancy%20search%20page-2072"/>
+    <hyperlink ref="C490" r:id="rId53" display="https://www.servicepower.com/open-positions?hsCtaTracking=c66bea59-48b7-4539-b4db-a057ca6178d9%7Ce5504d0e-4b23-4ad2-9670-a39f13cf3dc5" tooltip="https://www.servicepower.com/open-positions?hsCtaTracking=c66bea59-48b7-4539-b4db-a057ca6178d9%7Ce5504d0e-4b23-4ad2-9670-a39f13cf3dc5"/>
+    <hyperlink ref="C489" r:id="rId54" display="https://seccl.tech/careers/#jobs" tooltip="https://seccl.tech/careers/#jobs"/>
+    <hyperlink ref="C488" r:id="rId55" display="https://careers.sb-fm.co.uk/vacancies/vacancy-search-results.aspx" tooltip="https://careers.sb-fm.co.uk/vacancies/vacancy-search-results.aspx"/>
+    <hyperlink ref="C487" r:id="rId56" display="https://sauna360.com/careers" tooltip="https://sauna360.com/careers"/>
+    <hyperlink ref="C486" r:id="rId57" display="https://sandersondesign.group/careers/" tooltip="https://sandersondesign.group/careers/"/>
+    <hyperlink ref="C485" r:id="rId58" display="https://careers.rsmuk.com/uk/en/search-results"/>
+    <hyperlink ref="C484" r:id="rId59" display="https://careers.rsgroup.com/search" tooltip="https://careers.rsgroup.com/search"/>
+    <hyperlink ref="C483" r:id="rId60" display="https://rhsocli.webitrent.com/rhsocli_webrecruitment/wrd/run/ETREC179GF.open?WVID=9962857kSa"/>
+    <hyperlink ref="C482" r:id="rId61" display="https://careers.yoobic.com/jobs"/>
+    <hyperlink ref="C481" r:id="rId62" display="https://rlb.current-vacancies.com/Careers/RLB%20VSP-2028" tooltip="https://rlb.current-vacancies.com/Careers/RLB%20VSP-2028"/>
+    <hyperlink ref="C480" r:id="rId63" display="https://careers.rgp.com/Careers/SearchJobs" tooltip="https://careers.rgp.com/Careers/SearchJobs"/>
+    <hyperlink ref="C479" r:id="rId64" display="http://careers.reiss.com/" tooltip="http://careers.reiss.com/"/>
+    <hyperlink ref="C478" r:id="rId65" display="https://www.regal.co.uk/careers/" tooltip="https://www.regal.co.uk/careers/"/>
+    <hyperlink ref="C477" r:id="rId66" display="https://careers.ralphlauren.com/CareersCorporate/SearchJobsCorporate"/>
+    <hyperlink ref="C476" r:id="rId67" display="https://qudo.ai/team/" tooltip="https://qudo.ai/team/"/>
+    <hyperlink ref="C475" r:id="rId68" display="https://www.potawatomiventures.com/careers" tooltip="https://www.potawatomiventures.com/careers"/>
+    <hyperlink ref="C474" r:id="rId69" display="https://youngones.com/uk/careers/"/>
+    <hyperlink ref="C473" r:id="rId70" display="https://populous.com/careers#jobs" tooltip="https://populous.com/careers#jobs"/>
+    <hyperlink ref="C472" r:id="rId71" display="https://careers.pod-point.com/#js-careers-jobs-block"/>
+    <hyperlink ref="C471" r:id="rId72" display="https://www.playter.co/careers" tooltip="https://www.playter.co/careers"/>
+    <hyperlink ref="C470" r:id="rId73" display="https://www.zpb-associates.com/job-opportunities" tooltip="https://www.zpb-associates.com/job-opportunities"/>
+    <hyperlink ref="C469" r:id="rId74" display="https://recruiting2.ultipro.com/PER1007PWILL/JobBoard/0ca393a4-bf82-4db6-acae-91e6a0315a4a/?q=&amp;o=postedDateDesc&amp;w=&amp;wc=&amp;we=&amp;wpst=&amp;f4=EpG9lh8U21ueW7EALgmPJw"/>
+    <hyperlink ref="C468" r:id="rId75" display="https://pearson.jobs/jobs/" tooltip="https://pearson.jobs/jobs/"/>
+    <hyperlink ref="C467" r:id="rId76" display="https://pattern.wd1.myworkdayjobs.com/en-US/Pattern_Careers" tooltip="https://pattern.wd1.myworkdayjobs.com/en-US/Pattern_Careers"/>
+    <hyperlink ref="C466" r:id="rId77" display="https://harri.com/Oxygen-BXDKqMwzDPo0" tooltip="https://harri.com/Oxygen-BXDKqMwzDPo0"/>
+    <hyperlink ref="C465" r:id="rId78" display="https://www.outsystems.com/careers/job-list/?page=1"/>
+    <hyperlink ref="C464" r:id="rId79" display="https://ordnancesurvey.wd3.myworkdayjobs.com/OS_Careers" tooltip="https://ordnancesurvey.wd3.myworkdayjobs.com/OS_Careers"/>
+    <hyperlink ref="C463" r:id="rId80" display="https://www.opus2.com/company/careers/#current-opportunities" tooltip="https://www.opus2.com/company/careers/#current-opportunities"/>
+    <hyperlink ref="C462" r:id="rId81" display="https://optionsforsupportedliving.org/join-us/current-vacancies "/>
+    <hyperlink ref="C461" r:id="rId82" display="https://careers.optimahealth.co.uk/jobs/vacancy/find/results/"/>
+    <hyperlink ref="C460" r:id="rId83" display="https://opencastsoftware.com/careers/vacancies/all-vacancies/?Commitment=&amp;Department=" tooltip="https://opencastsoftware.com/careers/vacancies/all-vacancies/?Commitment=&amp;Department="/>
+    <hyperlink ref="C459" r:id="rId84" display="https://www.jobtrain.co.uk/odeon5/Home/Job?lstRegion=&amp;chkCategory="/>
+    <hyperlink ref="C458" r:id="rId85" display="https://oakfurnitureland.kallidusrecruit.com/Search.aspx"/>
+    <hyperlink ref="C457" r:id="rId86" display="https://www.careers-page.com/nexgen-group"/>
+    <hyperlink ref="C456" r:id="rId87" display="https://www.newcrosshealthcare.com/jobs/"/>
+    <hyperlink ref="C455" r:id="rId88" display="https://careers.nationalexpress.com/search"/>
+    <hyperlink ref="C454" r:id="rId89" display="https://careers.morningstar.com/us/en/search-results"/>
+    <hyperlink ref="C453" r:id="rId90" display="https://jobs.jobvite.com/monicavinader"/>
+    <hyperlink ref="C452" r:id="rId91" display="https://www.mixtiles.com/careers#positions"/>
+    <hyperlink ref="C451" r:id="rId92" display="https://zyrofisher.co.uk/vacancies/" tooltip="https://zyrofisher.co.uk/vacancies/"/>
+    <hyperlink ref="C450" r:id="rId93" display="https://careers.medivet.co.uk/search-jobs/" tooltip="https://careers.medivet.co.uk/search-jobs/"/>
+    <hyperlink ref="C449" r:id="rId94" display="https://www.medicaltracker.co.uk/careers"/>
+    <hyperlink ref="C448" r:id="rId95" display="https://medica.co.uk/work-with-us/careers"/>
+    <hyperlink ref="C447" r:id="rId96" display="https://jobs.mazars.co.uk/jobs/vacancy/find/results/"/>
+    <hyperlink ref="C446" r:id="rId97" display="https://www.marex.com/careers/"/>
+    <hyperlink ref="C445" r:id="rId98" display="https://mangroupplc.wd3.myworkdayjobs.com/Man_Group_Careers"/>
+    <hyperlink ref="C444" r:id="rId99" display="https://jobs.helpinghandshomecare.co.uk/search" tooltip="https://jobs.helpinghandshomecare.co.uk/search"/>
+    <hyperlink ref="C443" r:id="rId100" display="https://www.lotusbakeriesjobs.com/en/careers"/>
+    <hyperlink ref="C442" r:id="rId101" display="https://careers.lockton.com/gb/en/browsejobs"/>
+    <hyperlink ref="C441" r:id="rId102" display="https://hoganlovells.wd3.myworkdayjobs.com/Search" tooltip="https://hoganlovells.wd3.myworkdayjobs.com/Search"/>
+    <hyperlink ref="C440" r:id="rId103" display="https://www.lincolninternational.com/careers-and-culture/careers/experienced-professionals/"/>
+    <hyperlink ref="C439" r:id="rId104" display="https://lhc.livevacancies.co.uk/#/"/>
+    <hyperlink ref="C438" r:id="rId105" display="https://careers.lendable.com/jobs" tooltip="https://careers.lendable.com/jobs"/>
+    <hyperlink ref="C437" r:id="rId106" display="https://recruiting.ultipro.com/LEG1003LGNDS/JobBoard/7cb7e3f4-053b-4339-af7b-1c62dc39bfc9/?q=&amp;o=postedDateDesc&amp;w=&amp;wc=&amp;we=&amp;wpst="/>
+    <hyperlink ref="C436" r:id="rId107" display="https://lawo.softgarden.io/en/widgets/jobs" tooltip="https://lawo.softgarden.io/en/widgets/jobs"/>
+    <hyperlink ref="C435" r:id="rId108" display="https://www.imperial.ac.uk/jobs/search-jobs/?searchCriteria[0][key]=LOV72&amp;searchCriteria[0][values][]=280734"/>
+    <hyperlink ref="C434" r:id="rId109" display="https://instituteofwater.org.uk/all/institute-of-water-job-vacancy/"/>
+    <hyperlink ref="C433" r:id="rId110" display="https://iconic-sales.com/en/karriere/"/>
+    <hyperlink ref="C432" r:id="rId111" display="https://careers.hlmarchitects.com/jobs"/>
+    <hyperlink ref="C431" r:id="rId112" display="https://www.hightekers.com/en-gb/careers"/>
+    <hyperlink ref="C430" r:id="rId113" display="https://www.hamptons.co.uk/recruitment/vacancySearch.php#/"/>
+    <hyperlink ref="C429" r:id="rId114" display="https://grosvenor.wd3.myworkdayjobs.com/External_careers_site_Grosvenor?locationCountry=29247e57dbaf46fb855b224e03170bc7" tooltip="https://grosvenor.wd3.myworkdayjobs.com/External_careers_site_Grosvenor?locationCountry=29247e57dbaf46fb855b224e03170bc7"/>
+    <hyperlink ref="C428" r:id="rId115" display="https://careers.jobscore.com/careers/grimshawarchitects"/>
+    <hyperlink ref="C427" r:id="rId116" display="https://recruiting.paylocity.com/recruiting/jobs/All/6c97a7d4-bb9e-4185-b871-59e5ddcf8143/Green-Street-Advisors-LLC"/>
+    <hyperlink ref="C426" r:id="rId117" display="https://careers.ineos.com/?jobtitle=&amp;countryid=All&amp;siteid=All&amp;businessid=56&amp;Language=All"/>
+    <hyperlink ref="C425" r:id="rId118" display="https://corporate.graingerplc.co.uk/people-and-careers/opportunities"/>
+    <hyperlink ref="C424" r:id="rId119" display="https://www.global-e.com/careers/"/>
+    <hyperlink ref="C423" r:id="rId120" display="https://bbinsurance.wd1.myworkdayjobs.com/en-US/Careers_Europe?locationCountry=29247e57dbaf46fb855b224e03170bc7" tooltip="https://bbinsurance.wd1.myworkdayjobs.com/en-US/Careers_Europe?locationCountry=29247e57dbaf46fb855b224e03170bc7"/>
+    <hyperlink ref="C422" r:id="rId121" display="https://careers.glanbia.com/search/?createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_department="/>
+    <hyperlink ref="C421" r:id="rId122" display="https://gensler.wd1.myworkdayjobs.com/genslercareers"/>
+    <hyperlink ref="C420" r:id="rId123" display="https://careers.fundpath.com/jobs"/>
+    <hyperlink ref="C419" r:id="rId124" display="https://www.irbureau.com/about-irb/careers/"/>
+    <hyperlink ref="C418" r:id="rId125" display="https://freesoul.teamtailor.com/jobs"/>
+    <hyperlink ref="C417" r:id="rId126" display="https://www.intelligentchange.com/pages/careers"/>
+    <hyperlink ref="C416" r:id="rId127" display="https://www.fdf.org.uk/fdf/about-fdf/work-for-us/"/>
+    <hyperlink ref="C415" r:id="rId128" display="https://careers.flutteruki.com/search-jobs/" tooltip="https://careers.flutteruki.com/search-jobs/"/>
+    <hyperlink ref="C414" r:id="rId129" display="https://www.floww.io/careers/" tooltip="https://www.floww.io/careers/"/>
+    <hyperlink ref="C413" r:id="rId130" display="https://www.filefoundation.org/careers"/>
+    <hyperlink ref="C412" r:id="rId131" display="https://careers.theaccessgroup.com/jobs/"/>
+    <hyperlink ref="C411" r:id="rId132" display="https://farrer.allhires.com/Default.aspx?b=l"/>
+    <hyperlink ref="C410" r:id="rId133" display="https://fadel.com/careers/"/>
+    <hyperlink ref="C409" r:id="rId134" display="https://euroviacareers.appellia.com/?ous="/>
+    <hyperlink ref="C408" r:id="rId135" display="https://careers.emjreviews.com/#jobs"/>
+    <hyperlink ref="C407" r:id="rId136" display="https://www.euromonitor.com/careers"/>
+    <hyperlink ref="C406" r:id="rId137" display="https://join.estrid.com/jobs?_gl=1*o2mc52*_gcl_au*NTQ1NjA2NDYxLjE3MjA1MzY1NDQ.*_ga*MTUwMjg1NTAyOS4xNzIwNTM2NTQ0*_fplc*SzNYUEpUcU84dCUyRkJQcGRtRmJzU3JvelRaRjhWZ2NPUyUyRmh2N2pvTTclMkJDeEZoQmd4ZUJTMkVXVGhyV2I4aklFbkV6N1d4cyUyQnUxY2pYMlpneXViMWxGajRZdWVsaEFDaWl5VFZRaUxmaTFwdFN4dWs2emtralF6U3klMkZHcVhmQSUzRCUzRA.."/>
+    <hyperlink ref="C405" r:id="rId138" display="https://equiteq.careers.hibob.com/" tooltip="https://equiteq.careers.hibob.com/"/>
+    <hyperlink ref="C404" r:id="rId139" display="https://equita.co.uk/about-us/work-with-us/"/>
+    <hyperlink ref="C403" r:id="rId140" display="https://eo-group.co.uk/opportunities/"/>
+    <hyperlink ref="C402" r:id="rId141" display="https://careers.ensek.com/" tooltip="https://careers.ensek.com/"/>
+    <hyperlink ref="C401" r:id="rId142" display="https://careers.enginuity.org/jobs"/>
+    <hyperlink ref="C400" r:id="rId143" display="https://empiricstudentpropertyplc.talosats-careers.com/vacancies"/>
+    <hyperlink ref="C399" r:id="rId144" display="https://careers.smartrecruiters.com/InternationalSOSGovernmentMedicalServices"/>
+    <hyperlink ref="C398" r:id="rId145" display="https://careers-dwfgroup.icims.com/jobs/search?hashed=-625886029&amp;mobile=false&amp;width=1011&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=0&amp;jun1offset=60" tooltip="https://careers-dwfgroup.icims.com/jobs/search?hashed=-625886029&amp;mobile=false&amp;width=1011&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=0&amp;jun1offset=60"/>
+    <hyperlink ref="C397" r:id="rId146" display="https://careers.dufry.com/go/Dufry-Main/9035601/"/>
+    <hyperlink ref="C396" r:id="rId147" display="https://drdoctor.teamtailor.com/jobs" tooltip="https://drdoctor.teamtailor.com/jobs"/>
+    <hyperlink ref="C395" r:id="rId148" display="https://downing.com/work-for-us/#work-for-us-6"/>
+    <hyperlink ref="C394" r:id="rId149" display="https://isaac.hiringplatform.ca/list/isaac-jobs"/>
+    <hyperlink ref="C393" r:id="rId150" display="https://apply.workable.com/demellier-ltd/?lng=en"/>
+    <hyperlink ref="C392" r:id="rId151" display="https://isg.wd3.myworkdayjobs.com/ISG" tooltip="https://isg.wd3.myworkdayjobs.com/ISG"/>
+    <hyperlink ref="C391" r:id="rId152" display="https://www.dechert.com/careers.html"/>
+    <hyperlink ref="C390" r:id="rId153" display="https://careers.dcc.ie/dccvital/search/"/>
+    <hyperlink ref="C389" r:id="rId154" display="https://datatonic.com/careers/vacancies/" tooltip="https://datatonic.com/careers/vacancies/"/>
+    <hyperlink ref="C388" r:id="rId155" display="https://www.dae.mn/openings"/>
+    <hyperlink ref="C387" r:id="rId156" display="https://www.redpincompany.com/careers?department=&amp;location=&amp;company=currencies-direct&amp;page=1"/>
+    <hyperlink ref="C386" r:id="rId157" display="https://cumminggroup.wd1.myworkdayjobs.com/CGC" tooltip="https://cumminggroup.wd1.myworkdayjobs.com/CGC"/>
+    <hyperlink ref="C385" r:id="rId158" display="https://careers.itv.com/jobs"/>
+    <hyperlink ref="C384" r:id="rId159" display="https://www.csl-group.com/uk/careers/"/>
+    <hyperlink ref="C383" r:id="rId160" display="https://globaleur242.dayforcehcm.com/CandidatePortal/en-GB/crippspeople/" tooltip="https://globaleur242.dayforcehcm.com/CandidatePortal/en-GB/crippspeople/"/>
+    <hyperlink ref="C382" r:id="rId161" display="https://cdpq.wd10.myworkdayjobs.com/en-US/CDPQ"/>
+    <hyperlink ref="C381" r:id="rId162" display="https://crawfordtech.pinpointhq.com/#js-careers-jobs-block"/>
+    <hyperlink ref="C380" r:id="rId163" display="https://www.couvertureandthegarbstore.com/pages/careers"/>
+    <hyperlink ref="C379" r:id="rId164" display="https://jadedldn.com/pages/careers-old"/>
+    <hyperlink ref="C378" r:id="rId165" display="https://fsr.cvmailuk.com/clydecocareers/main.cfm?page=jobBoard&amp;fo=1&amp;groupType_21=&amp;groupType_33=&amp;filter=&amp;srxksl=1"/>
+    <hyperlink ref="C377" r:id="rId166" display="https://www.clubmedjobs.com/en/search-jobs/" tooltip="https://www.clubmedjobs.com/en/search-jobs/"/>
+    <hyperlink ref="C376" r:id="rId167" display="https://work-clockwise.com/careers/"/>
+    <hyperlink ref="C375" r:id="rId168" display="https://jobs.cliffordchance.com/jobs?options=49,58&amp;page=1"/>
+    <hyperlink ref="C374" r:id="rId169" display="https://cipfa.teamtailor.com/jobs?query="/>
+    <hyperlink ref="C373" r:id="rId170" display="https://cinchona.com/careers/"/>
+    <hyperlink ref="C372" r:id="rId171" display="https://careers.churchdwight.com/jobs/?search=&amp;country=GBR&amp;location=&amp;team=&amp;position=&amp;type="/>
+    <hyperlink ref="C371" r:id="rId172" display="https://www.careers-page.com/chelsea-peers#openings" tooltip="https://www.careers-page.com/chelsea-peers#openings"/>
+    <hyperlink ref="C370" r:id="rId173" display="https://www.channelbakers.com/careers" tooltip="https://www.channelbakers.com/careers"/>
+    <hyperlink ref="C369" r:id="rId174" display="https://www.celigo.com/careers/#job-listings"/>
+    <hyperlink ref="C368" r:id="rId175" display="https://www.cartwrightpickard.com/careers"/>
+    <hyperlink ref="C367" r:id="rId176" display="https://camillaelphick.com/pages/careers-1" tooltip="https://camillaelphick.com/pages/careers-1"/>
+    <hyperlink ref="C366" r:id="rId177" display="https://careers.oniverse.it/en-GB/home"/>
+    <hyperlink ref="C365" r:id="rId178" display="https://jobs.lever.co/moonpig"/>
+    <hyperlink ref="C364" r:id="rId179" display="https://www.burtonsbiscuits.com/life-at-burtons/current-vacancies/burton-s-bakeries/"/>
+    <hyperlink ref="C363" r:id="rId180" display="https://www.broadwaymalyan.com/people/vacancies/"/>
+    <hyperlink ref="C362" r:id="rId181" display="https://workfor.brightnetwork.co.uk/join-us"/>
+    <hyperlink ref="C361" r:id="rId182" display="https://careers.boohoogroup.com/search-jobs"/>
+    <hyperlink ref="C360" r:id="rId183" display="https://baicommunications.wd3.myworkdayjobs.com/External"/>
+    <hyperlink ref="C359" r:id="rId184" display="https://careers.kellydeli.com/jobs" tooltip="https://careers.kellydeli.com/jobs"/>
+    <hyperlink ref="C358" r:id="rId185" display="https://careers.kennedyslaw.com/jobs/vacancy/find/results/"/>
+    <hyperlink ref="C357" r:id="rId186" display="https://fr.keycraftglobal.com/careers"/>
+    <hyperlink ref="C356" r:id="rId187" display="https://big.dk/careers"/>
+    <hyperlink ref="C355" r:id="rId188" display="https://bespoke-bids.com/careers/"/>
+    <hyperlink ref="C354" r:id="rId189" display="https://job-boards.eu.greenhouse.io/theberkeleypartnership" tooltip="https://job-boards.eu.greenhouse.io/theberkeleypartnership"/>
+    <hyperlink ref="C353" r:id="rId190" display="https://www.bellaandduke.com/join-our-team/" tooltip="https://www.bellaandduke.com/join-our-team/"/>
+    <hyperlink ref="C352" r:id="rId191" display="https://baringa.csod.com/ux/ats/careersite/4/home?c=baringa" tooltip="https://baringa.csod.com/ux/ats/careersite/4/home?c=baringa"/>
+    <hyperlink ref="C351" r:id="rId192" display="https://www.barbican.org.uk/our-story/about-us/careers"/>
+    <hyperlink ref="C350" r:id="rId193" display="https://aztec.group/us/careers/current-vacancies/"/>
+    <hyperlink ref="C349" r:id="rId194" display="https://arthur.co.uk/live-jobs/" tooltip="https://arthur.co.uk/live-jobs/"/>
+    <hyperlink ref="C348" r:id="rId195" display="https://recruiting.ultipro.com/AME1095ACHM/JobBoard/c52f9a39-fdc5-4ae2-9eaf-cb8a7bda923e/?q=&amp;o=postedDateDesc&amp;w=&amp;wc=&amp;we=&amp;wpst="/>
+    <hyperlink ref="C347" r:id="rId196" display="https://jobs.amadeuscapital.com/"/>
+    <hyperlink ref="C346" r:id="rId197" display="https://kirkiss.ky/careers/"/>
+    <hyperlink ref="C345" r:id="rId198" display="https://careers.kindredgroup.com/vacancy/find/results/"/>
+    <hyperlink ref="C343" r:id="rId199" display="https://careers.7im.co.uk/vacancies/vacancy-search-results.aspx"/>
+    <hyperlink ref="C342" r:id="rId200" display="https://www.11fs.com/careers/vacancies" tooltip="https://www.11fs.com/careers/vacancies"/>
+    <hyperlink ref="C341" r:id="rId201" display="https://polestar.teamtailor.com/jobs"/>
+    <hyperlink ref="C340" r:id="rId202" display="https://www.gwi.com/careers#job-list"/>
+    <hyperlink ref="C339" r:id="rId203" display="https://channel3consulting.co.uk/work-with-us/careers/"/>
+    <hyperlink ref="C338" r:id="rId204" display="https://fa-evng-saasfaprod1.fa.ocs.oraclecloud.com/hcmUI/CandidateExperience/en/sites/LBWF/requisitions?location=United+Kingdom&amp;locationId=300000000471661&amp;locationLevel=country&amp;mode=location"/>
+    <hyperlink ref="C337" r:id="rId205" display="https://careers.sycurio.com/#jobs"/>
+    <hyperlink ref="C336" r:id="rId206" display="https://careers.captify.co.uk/#jobs"/>
+    <hyperlink ref="C335" r:id="rId207" display="https://careers.northhighland.com/jobs/" tooltip="https://careers.northhighland.com/jobs/"/>
+    <hyperlink ref="C334" r:id="rId208" display="https://www.worldfirst.com/uk/careers/"/>
+    <hyperlink ref="C328" r:id="rId209" display="https://www.envitia.com/careers/job-opportunities/"/>
+    <hyperlink ref="C327" r:id="rId210" display="https://hdfg.fa.em3.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX/requisitions?mode=location"/>
+    <hyperlink ref="C326" r:id="rId211" display="https://jobs.ashbyhq.com/metaview"/>
+    <hyperlink ref="C325" r:id="rId212" display="https://jll.wd1.myworkdayjobs.com/jllcareers"/>
+    <hyperlink ref="C322" r:id="rId213" display="https://apply.workable.com/pensionbee/?lng=en" tooltip="https://apply.workable.com/pensionbee/?lng=en"/>
+    <hyperlink ref="C321" r:id="rId214" display="https://shieldpay.teamtailor.com/jobs"/>
+    <hyperlink ref="C319" r:id="rId215" display="https://join.modsquad.com/careers/"/>
+    <hyperlink ref="C318" r:id="rId216" display="https://careers.justeattakeaway.com/global/en/search-results?keywords=" tooltip="https://careers.justeattakeaway.com/global/en/search-results?keywords="/>
+    <hyperlink ref="C317" r:id="rId217" display="https://vistaglobal.com/careers/" tooltip="https://vistaglobal.com/careers/"/>
+    <hyperlink ref="C316" r:id="rId218" display="https://www.native-residential.com/careers/"/>
+    <hyperlink ref="C315" r:id="rId219" display="https://www.harrodscareers.com/jobs" tooltip="https://www.harrodscareers.com/jobs"/>
+    <hyperlink ref="C312" r:id="rId220" display="https://hyve.group/lifeathyve/join-our-team/" tooltip="https://hyve.group/lifeathyve/join-our-team/"/>
+    <hyperlink ref="C311" r:id="rId221" display="https://www.amazon.jobs/content/en/teams/amazon-entertainment/music?country%5B%5D=US&amp;country%5B%5D=GB"/>
+    <hyperlink ref="C309" r:id="rId222" display="https://careers.legalandgeneral.com/jobs?options=203"/>
+    <hyperlink ref="C308" r:id="rId223" display="https://harri.com/The-Delaunay-BYtcttE0b35i" tooltip="https://harri.com/The-Delaunay-BYtcttE0b35i"/>
+    <hyperlink ref="C307" r:id="rId224" display="https://milltechfx.com/company/careers/"/>
+    <hyperlink ref="C306" r:id="rId225" display="https://www.charliehr.com/careers#Vacancies" tooltip="https://www.charliehr.com/careers#Vacancies"/>
+    <hyperlink ref="C303" r:id="rId226" display="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA." tooltip="https://careers.lta.org.uk/vacancies/vacancy-search-results.aspx?_gl=1*1u8zpgc*_ga*MzA5NzUyNjgzLjE3MTIzMDg0Njc.*_ga_R8CDFT1V4H*MTcxMjMwODQ2Ny4xLjAuMTcxMjMwODQ2Ny42MC4wLjA."/>
+    <hyperlink ref="C301" r:id="rId227" display="https://ts.wd5.myworkdayjobs.com/en-US/tishmanspeyer"/>
+    <hyperlink ref="C298" r:id="rId228" display="https://www.realestate.bnpparibas.co.uk/find-job"/>
+    <hyperlink ref="C297" r:id="rId229" display="https://apply.workable.com/gohenry/" tooltip="https://apply.workable.com/gohenry/"/>
+    <hyperlink ref="C296" r:id="rId230" display="https://dt-consulting.com/open-positions/" tooltip="https://dt-consulting.com/open-positions/"/>
+    <hyperlink ref="C294" r:id="rId231" display="https://app.otta.com/companies/GetHarley#company-mission-section" tooltip="https://app.otta.com/companies/GetHarley#company-mission-section"/>
+    <hyperlink ref="C293" r:id="rId232" display="https://www.kkr.com/careers/career-opportunities"/>
+    <hyperlink ref="C291" r:id="rId233" display="https://apply.workable.com/koothjobs/" tooltip="https://apply.workable.com/koothjobs/"/>
+    <hyperlink ref="C290" r:id="rId234" display="https://www.tilda.com/about-us/careers/" tooltip="https://www.tilda.com/about-us/careers/"/>
+    <hyperlink ref="C288" r:id="rId235" display="https://boards.eu.greenhouse.io/bitpanda"/>
+    <hyperlink ref="C287" r:id="rId236" display="https://careers.smartrecruiters.com/Freshworks" tooltip="https://careers.smartrecruiters.com/Freshworks"/>
+    <hyperlink ref="C285" r:id="rId237" display="https://www.visualsoft.co.uk/careers-overview"/>
+    <hyperlink ref="C284" r:id="rId238" display="https://thecrownestate.teamtailor.com/jobs"/>
+    <hyperlink ref="C282" r:id="rId239" display="https://www.speechmatics.com/company/careers/roles"/>
+    <hyperlink ref="C281" r:id="rId240" display="https://www.mention-me.com/careers#roles"/>
+    <hyperlink ref="C280" r:id="rId241" display="https://www.monument.co/careers"/>
+    <hyperlink ref="C278" r:id="rId242" display="https://www.segro.com/careers/current-vacancies"/>
+    <hyperlink ref="C277" r:id="rId243" display="https://careers.dazn.com/jobs/"/>
+    <hyperlink ref="C275" r:id="rId244" display="https://hillgroupuk.teamtailor.com/en-GB/jobs?utm_campaign=page_2740767_cta_21935141&amp;utm_content=https%3A//hillgroupuk.teamtailor.com&amp;utm_medium=cta-block&amp;utm_source=teamtailor-page"/>
+    <hyperlink ref="C274" r:id="rId245" display="https://managementors.co.uk/careers/"/>
+    <hyperlink ref="C273" r:id="rId246" display="https://apply.workable.com/extremereach/"/>
+    <hyperlink ref="C272" r:id="rId247" display="https://www.doddgroup.com/jobs"/>
+    <hyperlink ref="C269" r:id="rId248" display="https://www.tussell.com/careers#jobs" tooltip="https://www.tussell.com/careers#jobs"/>
+    <hyperlink ref="C265" r:id="rId249" display="https://careers.learnatnoon.com/jobs"/>
+    <hyperlink ref="C264" r:id="rId250" display="https://www.capitalontap.com/en/company/careers/#careers-jobs"/>
+    <hyperlink ref="C261" r:id="rId251" display="https://www.accenture.com/gb-en/careers/jobsearch?jk=&amp;sb=1&amp;vw=0&amp;is_rj=0&amp;pg=1" tooltip="https://www.accenture.com/gb-en/careers/jobsearch?jk=&amp;sb=1&amp;vw=0&amp;is_rj=0&amp;pg=1"/>
+    <hyperlink ref="C259" r:id="rId252" display="https://www.busybeerecruitment.co.uk/vacancies"/>
+    <hyperlink ref="C258" r:id="rId253" display="https://apply.workable.com/fergus/?lng=en#jobs"/>
+    <hyperlink ref="C256" r:id="rId254" display="https://jobs.lever.co/enable"/>
+    <hyperlink ref="C254" r:id="rId255" display="https://www.elixirr.com/en-gb/job-openings/" tooltip="https://www.elixirr.com/en-gb/job-openings/"/>
+    <hyperlink ref="C253" r:id="rId256" display="https://thelostestate.com/jobs/"/>
+    <hyperlink ref="C251" r:id="rId257" display="https://www.efficioconsulting.com/en-gb/careers/apply/" tooltip="https://www.efficioconsulting.com/en-gb/careers/apply/"/>
+    <hyperlink ref="C250" r:id="rId258" display="https://mileway.com/careers/opportunities/"/>
+    <hyperlink ref="C246" r:id="rId259" display="https://careers.marshmclennan.com/global/en/oliver-wyman-search"/>
+    <hyperlink ref="C244" r:id="rId260" display="https://www.thredd.com/about-us/careers/vacancies"/>
+    <hyperlink ref="C243" r:id="rId261" display="https://www.dartmouthpartners.com/jobs"/>
+    <hyperlink ref="C242" r:id="rId262" display="https://www.neudata.co/careers#Jobs"/>
+    <hyperlink ref="C241" r:id="rId263" display="https://www.constellationcold.com/vacancies/"/>
+    <hyperlink ref="C240" r:id="rId264" display="https://natterbox.com/careers/"/>
+    <hyperlink ref="C239" r:id="rId265" display="https://careers.upmc.com/job-search-results/" tooltip="https://careers.upmc.com/job-search-results/"/>
+    <hyperlink ref="C238" r:id="rId266" display="https://jobs.greystar.com/search-jobs/" tooltip="https://jobs.greystar.com/search-jobs/"/>
+    <hyperlink ref="C237" r:id="rId267" display="https://www.newscareers.co.uk/vacancies/vacancy-search-results.aspx" tooltip="https://www.newscareers.co.uk/vacancies/vacancy-search-results.aspx"/>
+    <hyperlink ref="C236" r:id="rId268" display="https://www.mollymaid.co.uk/working-for-molly-maid/"/>
+    <hyperlink ref="C235" r:id="rId269" display="https://turo.com/gb/en/careers#job_openings" tooltip="https://turo.com/gb/en/careers#job_openings"/>
+    <hyperlink ref="C234" r:id="rId270" display="https://www.montacapital.com/search-jobs"/>
+    <hyperlink ref="C233" r:id="rId271" display="https://cmcmarkets.wd3.myworkdayjobs.com/CMC_Markets_Careers"/>
+    <hyperlink ref="C232" r:id="rId272" display="https://thegymgroup.wd3.myworkdayjobs.com/TGG_External_Career_Site" tooltip="https://thegymgroup.wd3.myworkdayjobs.com/TGG_External_Career_Site"/>
+    <hyperlink ref="C231" r:id="rId273" display="https://www.family-institute.org/about-us/careers"/>
+    <hyperlink ref="C230" r:id="rId274" display="https://faculty.ai/join-the-team/#ashby_embed"/>
+    <hyperlink ref="C229" r:id="rId275" display="https://careers.deliveroo.co.uk/jobs/" tooltip="https://careers.deliveroo.co.uk/jobs/"/>
+    <hyperlink ref="C228" r:id="rId276" display="https://manual.recruitee.com"/>
+    <hyperlink ref="C227" r:id="rId277" display="https://careers.telegraph.co.uk/jobs/job-search?location=London"/>
+    <hyperlink ref="C226" r:id="rId278" display="https://www.lhh.com/uk/en/search-jobs/"/>
+    <hyperlink ref="C224" r:id="rId279" display="https://www.theaacareers.co.uk/apply/?s_Keywords="/>
+    <hyperlink ref="C223" r:id="rId280" display="https://jobs.decathlon.co.uk/go/View-all-Jobs/4978001/"/>
+    <hyperlink ref="C222" r:id="rId281" display="https://partners.bridebook.com/uk/careers#openroles"/>
+    <hyperlink ref="C220" r:id="rId282" display="https://freetrade.io/careers#job-openings"/>
+    <hyperlink ref="C218" r:id="rId283" display="https://job-boards.greenhouse.io/fountain"/>
+    <hyperlink ref="C217" r:id="rId284" display="https://careers.caesarstone.com/positions/"/>
+    <hyperlink ref="C216" r:id="rId285" display="https://ryman.ats.emea1.fourth.com"/>
+    <hyperlink ref="C215" r:id="rId286" display="https://www.scandit.com/careers/current-openings/" tooltip="https://www.scandit.com/careers/current-openings/"/>
+    <hyperlink ref="C214" r:id="rId287" display="https://www.bjss.com/careers/search"/>
+    <hyperlink ref="C213" r:id="rId288" display="https://hiscox.wd3.myworkdayjobs.com/Hiscox_External_Site"/>
+    <hyperlink ref="C212" r:id="rId289" display="https://careers.edgardcooper.com/jobs"/>
+    <hyperlink ref="C211" r:id="rId290" display="https://careers.lightricks.com/careers"/>
+    <hyperlink ref="C210" r:id="rId291" display="https://www.kpmgcareers.co.uk/search/" tooltip="https://www.kpmgcareers.co.uk/search/"/>
+    <hyperlink ref="C209" r:id="rId292" display="https://tapi.bamboohr.com/careers"/>
+    <hyperlink ref="C208" r:id="rId293" display="https://apply.monsoonjobs.com/search_and_apply/vacancies/" tooltip="https://apply.monsoonjobs.com/search_and_apply/vacancies/"/>
+    <hyperlink ref="C207" r:id="rId294" display="https://jobs.thecignagroup.com/us/en/search-results" tooltip="https://jobs.thecignagroup.com/us/en/search-results"/>
+    <hyperlink ref="C206" r:id="rId295" display="https://greshamhouse.com/join-our-team/"/>
+    <hyperlink ref="C202" r:id="rId296" display="https://careers.roccofortehotels.com/jobs" tooltip="https://careers.roccofortehotels.com/jobs"/>
+    <hyperlink ref="C199" r:id="rId297" display="https://wd1.myworkdaysite.com/recruiting/ssctech/SSCTechnologies"/>
+    <hyperlink ref="C198" r:id="rId298" display="https://www.rvu.co.uk/careers"/>
+    <hyperlink ref="C197" r:id="rId299" display="https://www.clarasys.com/jobs/"/>
+    <hyperlink ref="C195" r:id="rId300" display="https://www.sosandar.com/careers/"/>
+    <hyperlink ref="C194" r:id="rId301" display="https://www.cvpartner.com/company/careers#join_us" tooltip="https://www.cvpartner.com/company/careers#join_us"/>
+    <hyperlink ref="C192" r:id="rId302" display="https://jobs.yougov.com/jobs"/>
+    <hyperlink ref="C188" r:id="rId303" display="https://www.ospreycharging.co.uk/careers-at-osprey-charging"/>
+    <hyperlink ref="C187" r:id="rId304" display="https://ichoosr.recruitee.com/"/>
+    <hyperlink ref="C183" r:id="rId305" display="https://montaguevans.jibeapply.com/careers-home/jobs?keywords=&amp;location=&amp;page=1&amp;sortBy=relevance&amp;limit=100"/>
+    <hyperlink ref="C181" r:id="rId306" display="https://careers.cbre.com/en_US/careers/SearchJobs/?9577=%5B17276%2C17117%5D&amp;9577_format=10224&amp;listFilterMode=1&amp;jobSort=relevancy&amp;jobRecordsPerPage=25&amp;" tooltip="https://careers.cbre.com/en_US/careers/SearchJobs/?9577=%5B17276%2C17117%5D&amp;9577_format=10224&amp;listFilterMode=1&amp;jobSort=relevancy&amp;jobRecordsPerPage=25&amp;"/>
+    <hyperlink ref="C180" r:id="rId307" display="https://www.verkeer.co/about-us/careers/"/>
+    <hyperlink ref="C179" r:id="rId308" display="https://volarisgroup.wd3.myworkdayjobs.com/CompanyWatch" tooltip="https://volarisgroup.wd3.myworkdayjobs.com/CompanyWatch"/>
+    <hyperlink ref="C178" r:id="rId309" display="https://boards.eu.greenhouse.io/convera/"/>
+    <hyperlink ref="C177" r:id="rId310" display="https://boards.greenhouse.io/heycar/"/>
+    <hyperlink ref="C176" r:id="rId311" display="https://careers.scienceinsport.com/jobs"/>
+    <hyperlink ref="C175" r:id="rId312" display="https://careers.macegroup.com/current-vacancies"/>
+    <hyperlink ref="C174" r:id="rId313" display="https://www.wates.co.uk/careers/vacancies/"/>
+    <hyperlink ref="C173" r:id="rId314" display="https://careers.phished.io/l/en" tooltip="https://careers.phished.io/l/en"/>
+    <hyperlink ref="C172" r:id="rId315" display="https://jajafinance.bamboohr.com/careers" tooltip="https://jajafinance.bamboohr.com/careers"/>
+    <hyperlink ref="C171" r:id="rId316" display="https://www.quantexa.com/careers/vacancies/" tooltip="https://www.quantexa.com/careers/vacancies/"/>
+    <hyperlink ref="C170" r:id="rId317" display="https://clear.bank/join-clearbank/careers"/>
+    <hyperlink ref="C168" r:id="rId318" display="https://www.lenusehealth.com/careers#openings"/>
+    <hyperlink ref="C167" r:id="rId319" display="https://www.semble.io/careers" tooltip="https://www.semble.io/careers"/>
+    <hyperlink ref="C166" r:id="rId320" display="https://careers.savills.com/jobs"/>
+    <hyperlink ref="C165" r:id="rId321" display="https://www.connellsgroup.co.uk/careers/job-search/?radius=5&amp;page=1&amp;sort=posted&amp;direction=desc" tooltip="https://www.connellsgroup.co.uk/careers/job-search/?radius=5&amp;page=1&amp;sort=posted&amp;direction=desc"/>
+    <hyperlink ref="C164" r:id="rId322" display="https://jobs.reachplc.com/jobs"/>
+    <hyperlink ref="C162" r:id="rId323" display="https://cezanneondemand.intervieweb.it/junglecreations/en/career"/>
+    <hyperlink ref="C161" r:id="rId324" display="https://jobs.petscorner.co.uk/job-list/"/>
+    <hyperlink ref="C160" r:id="rId325" display="https://www.turnerandtownsend.com/en/careers/apply-now/"/>
+    <hyperlink ref="C159" r:id="rId326" display="https://www.downing.co.uk/careers#open-positions"/>
+    <hyperlink ref="C158" r:id="rId327" display="https://nordcloud.com/company/careers/"/>
+    <hyperlink ref="C157" r:id="rId328" display="https://hymans.current-vacancies.com/Careers/Hymans%20external%20VSP-2054#"/>
+    <hyperlink ref="C156" r:id="rId329" display="https://profinda.bamboohr.com/careers" tooltip="https://profinda.bamboohr.com/careers"/>
+    <hyperlink ref="C154" r:id="rId330" display="https://www.palantir.com/careers/#open-positions" tooltip="https://www.palantir.com/careers/#open-positions"/>
+    <hyperlink ref="C153" r:id="rId331" display="https://hgcapital.pinpointhq.com"/>
+    <hyperlink ref="C152" r:id="rId332" display="https://patchwork.teamtailor.com/jobs" tooltip="https://patchwork.teamtailor.com/jobs"/>
+    <hyperlink ref="C151" r:id="rId333" display="https://careers.domesticandgeneral.com/search-jobs/"/>
+    <hyperlink ref="C150" r:id="rId334" display="https://channel3consulting.livevacancies.co.uk/jobsIframe" tooltip="https://channel3consulting.livevacancies.co.uk/jobsIframe"/>
+    <hyperlink ref="C149" r:id="rId335" display="https://www.iabuk.com/vacancies" tooltip="https://www.iabuk.com/vacancies"/>
+    <hyperlink ref="C148" r:id="rId336" display="https://www.freddiesflowers.com/about-us/jobs#openings"/>
+    <hyperlink ref="C146" r:id="rId337" display="https://jobs.pphe.com/careers/?country=united-kingdom" tooltip="https://jobs.pphe.com/careers/?country=united-kingdom"/>
+    <hyperlink ref="C145" r:id="rId338" display="https://jobs.amundi.com/homepage.aspx?LCID=2057" tooltip="https://jobs.amundi.com/homepage.aspx?LCID=2057"/>
+    <hyperlink ref="C144" r:id="rId339" display="https://www.capgemini.com/gb-en/careers/join-us/" tooltip="https://www.capgemini.com/gb-en/careers/join-us/"/>
+    <hyperlink ref="C143" r:id="rId340" display="https://www.oka.com/uk/careers/opportunities"/>
+    <hyperlink ref="C142" r:id="rId341" display="https://www.industrialsreit.com/careers"/>
+    <hyperlink ref="C141" r:id="rId342" display="https://www.naturalhr.net/hr/recruitment/roles/8279302e80a62ccde7ee587a4f382535"/>
+    <hyperlink ref="C140" r:id="rId343" display="https://www.peldonrose.com/about/jobs" tooltip="https://www.peldonrose.com/about/jobs"/>
+    <hyperlink ref="C139" r:id="rId344" display="https://pelorusx.co/about/careers" tooltip="https://pelorusx.co/about/careers"/>
+    <hyperlink ref="C138" r:id="rId345" display="https://workingatedge.com/careers/"/>
+    <hyperlink ref="C137" r:id="rId346" display="https://careers.ovo.com/opportunities "/>
+    <hyperlink ref="C136" r:id="rId347" display="https://www.yonder.com/careers#open-positions"/>
+    <hyperlink ref="C135" r:id="rId348" display="https://harbourvest.wd5.myworkdayjobs.com/HVP"/>
+    <hyperlink ref="C134" r:id="rId349" display="https://jobs.ashbyhq.com/myurbanjungle.com" tooltip="https://jobs.ashbyhq.com/myurbanjungle.com"/>
+    <hyperlink ref="C132" r:id="rId350" display="https://careers.cynergybank.co.uk/jobs?location=London"/>
+    <hyperlink ref="C131" r:id="rId351" display="https://symphony.com/company/careers/"/>
+    <hyperlink ref="C130" r:id="rId352" display="https://apply.workable.com/starling-bank/#jobs"/>
+    <hyperlink ref="C128" r:id="rId353" display="https://supercharge.io/careers/positions"/>
+    <hyperlink ref="C127" r:id="rId354" display="https://impact.com/careers/#global-opportunities"/>
+    <hyperlink ref="C126" r:id="rId355" display="https://www.workspace.co.uk/job-vacancies" tooltip="https://www.workspace.co.uk/job-vacancies"/>
+    <hyperlink ref="C124" r:id="rId356" display="https://www.thoughtworks.com/en-gb/careers" tooltip="https://www.thoughtworks.com/en-gb/careers"/>
+    <hyperlink ref="C123" r:id="rId357" display="https://apply.workable.com/fenergocareers/"/>
+    <hyperlink ref="C122" r:id="rId358" display="https://munichre-jobs.com/en/MunichRe"/>
+    <hyperlink ref="C121" r:id="rId359" display="https://www.simplybusiness.co.uk/about-us/careers/jobs/" tooltip="https://www.simplybusiness.co.uk/about-us/careers/jobs/"/>
+    <hyperlink ref="C120" r:id="rId360" display="https://www.multiverse.io/en-GB/careers#job-list"/>
+    <hyperlink ref="C118" r:id="rId361" display="https://jobs.lever.co/joinzoe"/>
+    <hyperlink ref="C117" r:id="rId362" display="https://www.vouchercodes.co.uk/careers" tooltip="https://www.vouchercodes.co.uk/careers"/>
+    <hyperlink ref="C116" r:id="rId363" display="https://careers.occstrategy.com/vacancies/vacancy-search-results.aspx"/>
+    <hyperlink ref="C115" r:id="rId364" display="https://www.ibisworld.com/careers/" tooltip="https://www.ibisworld.com/careers/"/>
+    <hyperlink ref="C114" r:id="rId365" display="https://harri.com/grind-careers" tooltip="https://harri.com/grind-careers"/>
+    <hyperlink ref="C113" r:id="rId366" display="https://www.hush-uk.com/work-at-hush.html"/>
+    <hyperlink ref="C111" r:id="rId367" display="https://jobs.cityoflondon.gov.uk"/>
+    <hyperlink ref="C110" r:id="rId368" display="https://www.alphagroup.com/about/careers/" tooltip="https://www.alphagroup.com/about/careers/"/>
+    <hyperlink ref="C109" r:id="rId369" display="https://wearemtm.com/careers/" tooltip="https://wearemtm.com/careers/"/>
+    <hyperlink ref="C108" r:id="rId370" display="https://www.aireymiller.com/careers"/>
+    <hyperlink ref="C103" r:id="rId371" display="https://careers.cargill.com/en/search-jobs"/>
+    <hyperlink ref="C102" r:id="rId372" display="https://harri.com/Biscuiteers-careers"/>
+    <hyperlink ref="C101" r:id="rId373" display="https://cityfibre.com/careers/all-jobs"/>
+    <hyperlink ref="C100" r:id="rId374" display="https://corporate.lastminute.com/careers/jobs/?utm_source=lastminute&amp;_gl=1*ozugby*_ga*MTE0MTE2MTkxNS4xNzEwNzIwNzE4*_ga_66BMGPKMTR*MTcxMDcyMDcxNy4xLjAuMTcxMDcyMDgzMS4wLjAuMA..*_fplc*aWYlMkZSMVRhSVQlMkJFSktZQWNRQjhiSXhnelJmVUlHVFF0VUg3dWlQZWtMYXAxQUJWQ0xROCUyRk9UYlJGcXVSNWl3OWRjVnJLOU5DS2UxazE1ZEhKRzlPOE9lbjlmZ2VobWhkd1VCJTJGaWhIVnpnVnFNQ0J3ZzF3d0FsSXNLa2ozJTJGZyUzRCUzRA..&amp;_ga=2.250966918.1438506767.1710720718-1141161915.1710720718&amp;_gac=1.53775706.1710720718.CjwKCAiA0PuuBhBsEiwAS7fsNUBcK-u-irmaNJ8YfoBMQjHXX35iigABH04TXkR1Iz0HyWwv4kLPjxoC3M0QAvD_BwE"/>
+    <hyperlink ref="C99" r:id="rId375" display="https://careers.scs.co.uk/all-openings"/>
+    <hyperlink ref="C98" r:id="rId376" display="https://jobs.lever.co/treecard" tooltip="https://jobs.lever.co/treecard"/>
+    <hyperlink ref="C96" r:id="rId377" display="https://lwtheatres.csod.com/ux/ats/careersite/5/home?c=lwtheatres"/>
+    <hyperlink ref="C93" r:id="rId378" display="https://jobs.workable.com/company/vbFZaR6cPm46s3pMMdSotv/jobs-at-the-very-group"/>
+    <hyperlink ref="C91" r:id="rId379" display="https://boards.greenhouse.io/prefect"/>
+    <hyperlink ref="C89" r:id="rId380" display="https://www.vitechinc.com/careers/view-opportunities/"/>
+    <hyperlink ref="C88" r:id="rId381" display="https://canarywharf.wd3.myworkdayjobs.com/CanaryWharf" tooltip="https://canarywharf.wd3.myworkdayjobs.com/CanaryWharf"/>
+    <hyperlink ref="C87" r:id="rId382" display="https://www.rethinkfirst.com/careers/" tooltip="https://www.rethinkfirst.com/careers/"/>
+    <hyperlink ref="C85" r:id="rId383" display="https://ghd.livevacancies.co.uk/#/"/>
+    <hyperlink ref="C84" r:id="rId384" display="https://www.apprentify.com/internal-vacancies/" tooltip="https://www.apprentify.com/internal-vacancies/"/>
+    <hyperlink ref="C83" r:id="rId385" display="https://fortnum-and-mason.staging.krakatoa.eu-2.volcanic.cloud/jobs?source=careers.fortnumandmason.com"/>
+    <hyperlink ref="C81" r:id="rId386" display="https://powerleaguegroup.postingpanda.uk/" tooltip="https://powerleaguegroup.postingpanda.uk/"/>
+    <hyperlink ref="C80" r:id="rId387" display="https://netacea.com/careers/" tooltip="https://netacea.com/careers/"/>
+    <hyperlink ref="C78" r:id="rId388" display="https://www.veeve.com/en-gb/careers"/>
+    <hyperlink ref="C77" r:id="rId389" display="https://learnamp.com/careers#open-positions" tooltip="https://learnamp.com/careers#open-positions"/>
+    <hyperlink ref="C75" r:id="rId390" display="https://getmagic.com/careers/" tooltip="https://getmagic.com/careers/"/>
+    <hyperlink ref="C74" r:id="rId391" display="https://careers.hansonwadegroup.com/jobs"/>
+    <hyperlink ref="C72" r:id="rId392" display="https://apply.workable.com/volt-dot-i-o/#jobs"/>
+    <hyperlink ref="C71" r:id="rId393" display="https://jobs.bentley.com/search" tooltip="https://jobs.bentley.com/search"/>
+    <hyperlink ref="C70" r:id="rId394" display="https://unlockedgrads.org.uk/about/vacancies/#current-vacancies" tooltip="https://unlockedgrads.org.uk/about/vacancies/#current-vacancies"/>
+    <hyperlink ref="C69" r:id="rId395" display="https://www.rcseng.ac.uk/about-the-rcs/working-at-the-college/current-rcs-vacancies/" tooltip="https://www.rcseng.ac.uk/about-the-rcs/working-at-the-college/current-rcs-vacancies/"/>
+    <hyperlink ref="C68" r:id="rId396" display="https://www.togetherforgirls.org/en/careers" tooltip="https://www.togetherforgirls.org/en/careers"/>
+    <hyperlink ref="C67" r:id="rId397" display="https://www.adverity.com/careers" tooltip="https://www.adverity.com/careers"/>
+    <hyperlink ref="C66" r:id="rId398" display="https://careers.beamery.com/jobs/"/>
+    <hyperlink ref="C65" r:id="rId399" display="https://www.beacon.com/vacancies" tooltip="https://www.beacon.com/vacancies"/>
+    <hyperlink ref="C64" r:id="rId400" display="https://bcis.co.uk/about-us/careers/"/>
+    <hyperlink ref="C63" r:id="rId401" display="https://baxendale.co.uk/careers/" tooltip="https://baxendale.co.uk/careers/"/>
+    <hyperlink ref="C61" r:id="rId402" display="https://career.barnebys.com/jobs"/>
+    <hyperlink ref="C60" r:id="rId403" display="https://apply.workable.com/ballingerco/#jobs"/>
+    <hyperlink ref="C59" r:id="rId404" display="https://transitwireless.taleo.net/careersection/ex/jobsearch.ftl?lang=en" tooltip="https://transitwireless.taleo.net/careersection/ex/jobsearch.ftl?lang=en"/>
+    <hyperlink ref="C57" r:id="rId405" display="https://isw.changeworknow.co.uk/awayresorts/vms/e/careers/search/edit"/>
+    <hyperlink ref="C56" r:id="rId406" display="https://ejjl.fa.ap1.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/requisitions?lastSelectedFacet=LOCATIONS&amp;mode=location&amp;selectedLocationsFacet=300000000296420%3B300000000294958"/>
+    <hyperlink ref="C55" r:id="rId407" display="https://atelierfinance.co.uk/careers/" tooltip="https://atelierfinance.co.uk/careers/"/>
+    <hyperlink ref="C53" r:id="rId408" display="https://us232.dayforcehcm.com/CandidatePortal/en-US/comptia" tooltip="https://us232.dayforcehcm.com/CandidatePortal/en-US/comptia"/>
+    <hyperlink ref="C52" r:id="rId409" display="https://artek.uk/careers" tooltip="https://artek.uk/careers"/>
+    <hyperlink ref="C49" r:id="rId410" display="https://careers.arbor-education.com/#jobs"/>
+    <hyperlink ref="C48" r:id="rId411" display="https://www.appearhere.co.uk/about/careers"/>
+    <hyperlink ref="C38" r:id="rId412" display="https://www.allwyn.co.uk/job-board"/>
+    <hyperlink ref="C37" r:id="rId413" display="https://alchemmy.com/careers/#positions"/>
+    <hyperlink ref="C36" r:id="rId414" display="https://www.airwallex.com/careers#roles" tooltip="https://www.airwallex.com/careers#roles"/>
+    <hyperlink ref="C34" r:id="rId415" display="https://careers.isio.com/en-GB/jobs"/>
+    <hyperlink ref="C33" r:id="rId416" display="https://careers.iqstudentaccommodation.com/jobs/vacancy/find/results/" tooltip="https://careers.iqstudentaccommodation.com/jobs/vacancy/find/results/"/>
+    <hyperlink ref="C31" r:id="rId417" display="https://frasers.group/careers/jobs"/>
+    <hyperlink ref="C30" r:id="rId418" display="https://www.prime-propertygroup.com/contacts/"/>
+    <hyperlink ref="C29" r:id="rId419" display="https://careers.next15.com/jobs" tooltip="https://careers.next15.com/jobs"/>
+    <hyperlink ref="C28" r:id="rId420" display="https://work.life/careers/"/>
+    <hyperlink ref="C27" r:id="rId421" display="https://www.hungerrush.com/careers/?an_fb_exaud=an_fb_hungerrushe46sdg56&amp;an_exaud0=an_fb_hungerrush6rsf5dhrd698" tooltip="https://www.hungerrush.com/careers/?an_fb_exaud=an_fb_hungerrushe46sdg56&amp;an_exaud0=an_fb_hungerrush6rsf5dhrd698"/>
+    <hyperlink ref="C25" r:id="rId422" display="https://myndyou.com/about-us/careers/" tooltip="https://myndyou.com/about-us/careers/"/>
+    <hyperlink ref="C24" r:id="rId423" display="https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=GB%2C%20US&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_customfield4=&amp;optionsFacetsDD_dept=&amp;inputSearchValue=GB%2C%20US&amp;quatFlag=false" tooltip="https://careers.allianz.com/UK/search/?searchby=location&amp;createNewAlert=false&amp;q=&amp;locationsearch=GB%2C%20US&amp;optionsFacetsDD_department=&amp;optionsFacetsDD_shifttype=&amp;optionsFacetsDD_customfield3=&amp;optionsFacetsDD_customfield2=&amp;optionsFacetsDD_facility=&amp;options"/>
+    <hyperlink ref="C23" r:id="rId424" display="https://careers.adyen.com/vacancies" tooltip="https://careers.adyen.com/vacancies"/>
+    <hyperlink ref="C22" r:id="rId425" display="https://www.admiraljobs.co.uk/Jobs?options=26&amp;page=1"/>
+    <hyperlink ref="C21" r:id="rId426" display="https://addland.com/careers"/>
+    <hyperlink ref="C20" r:id="rId427" display="https://acumen.org/work-with-us/" tooltip="https://acumen.org/work-with-us/"/>
+    <hyperlink ref="C19" r:id="rId428" display="https://careers.achievetogether.co.uk/Search.aspx" tooltip="https://careers.achievetogether.co.uk/Search.aspx"/>
+    <hyperlink ref="C18" r:id="rId429" display="https://careers.acco.com/go/All-ACCO-Brands-Job-Search-Results/9104500/"/>
+    <hyperlink ref="C17" r:id="rId430" display="https://abel-cole.breezy.hr/" tooltip="https://abel-cole.breezy.hr/"/>
+    <hyperlink ref="C16" r:id="rId431" display="https://www.aswatsoncareers.com/search" tooltip="https://www.aswatsoncareers.com/search"/>
+    <hyperlink ref="C15" r:id="rId432" display="https://4cassociates.teamtailor.com/jobs" tooltip="https://4cassociates.teamtailor.com/jobs"/>
+    <hyperlink ref="C14" r:id="rId433" display="https://4global.com/company/#" tooltip="https://4global.com/company/#"/>
+    <hyperlink ref="C13" r:id="rId434" display="https://3s.money/join/careers" tooltip="https://3s.money/join/careers"/>
+    <hyperlink ref="C12" r:id="rId435" display="https://www.kfh.co.uk/careers/vacancies/"/>
+    <hyperlink ref="C11" r:id="rId436" display="https://lendlease.wd3.myworkdayjobs.com/LendleaseCareers"/>
+    <hyperlink ref="C10" r:id="rId437" display="https://landsecurities.wd3.myworkdayjobs.com/Landseccareers" tooltip="https://landsecurities.wd3.myworkdayjobs.com/Landseccareers"/>
+    <hyperlink ref="C9" r:id="rId438" display="https://globalus232.dayforcehcm.com/CandidatePortal/en-US/caventures/SITE/caventurescareers"/>
+    <hyperlink ref="C8" r:id="rId439" display="https://careerssearch.saga.co.uk/"/>
+    <hyperlink ref="C7" r:id="rId440" display="https://jobs.lever.co/cfgi" tooltip="https://jobs.lever.co/cfgi"/>
+    <hyperlink ref="C6" r:id="rId441" display="https://www.biogen.com/careers/careers-search.html?country=United%2520Kingdom%2CUnited%2520States"/>
+    <hyperlink ref="C5" r:id="rId442" display="https://www.ardenthire.com/careers/our-careers/#"/>
+    <hyperlink ref="C4" r:id="rId443" display="https://mycareer.hsbc.com/en_GB/external/SearchJobs/?1017=%5B67222%2C67234%5D&amp;1017_format=812&amp;1023=%5B1248547%5D&amp;1023_format=913&amp;listFilterMode=1&amp;pipelineRecordsPerPage=10&amp;#anchor__search-jobs"/>
+    <hyperlink ref="C2" r:id="rId444" display="https://careers.techwolf.ai/" tooltip="https://careers.techwolf.ai/"/>
+    <hyperlink ref="C543" r:id="rId445" display="https://www.vitabiotics.com/pages/careers" tooltip="https://www.vitabiotics.com/pages/careers"/>
+    <hyperlink ref="C544" r:id="rId446" display="https://acaioutdoorwear.com/pages/careers?srsltid=AfmBOoqnOobmUDr6S8GiBsDp-PDhvxfbWJgkukM8PWSnqPoEmQJihHcF" tooltip="https://acaioutdoorwear.com/pages/careers?srsltid=AfmBOoqnOobmUDr6S8GiBsDp-PDhvxfbWJgkukM8PWSnqPoEmQJihHcF"/>
+    <hyperlink ref="C545" r:id="rId447" display="https://acorn-i.com/join-our-team/" tooltip="https://acorn-i.com/join-our-team/"/>
+    <hyperlink ref="C546" r:id="rId448" display="https://bdrthermea.wd103.myworkdayjobs.com/External?locationCountry=29247e57dbaf46fb855b224e03170bc7" tooltip="https://bdrthermea.wd103.myworkdayjobs.com/External?locationCountry=29247e57dbaf46fb855b224e03170bc7"/>
+    <hyperlink ref="C547" r:id="rId449" display="https://bitrise.io/careers" tooltip="https://bitrise.io/careers"/>
+    <hyperlink ref="C548" r:id="rId450" display="https://boards.greenhouse.io/blacklane" tooltip="https://boards.greenhouse.io/blacklane"/>
+    <hyperlink ref="C549" r:id="rId451" display="https://careers.bgf.co.uk/#jobs" tooltip="https://careers.bgf.co.uk/#jobs"/>
+    <hyperlink ref="C550" r:id="rId452" display="https://careers.carefertility.com/CareFertility/Home" tooltip="https://careers.carefertility.com/CareFertility/Home"/>
+    <hyperlink ref="C551" r:id="rId453" display="https://chambers.com/careers" tooltip="https://chambers.com/careers"/>
+    <hyperlink ref="C552" r:id="rId454" display="https://ciandt.com/us/en-us/careers/open-positions" tooltip="https://ciandt.com/us/en-us/careers/open-positions"/>
+    <hyperlink ref="C553" r:id="rId455" display="https://countingup.com/careers/" tooltip="https://countingup.com/careers/"/>
+    <hyperlink ref="C554" r:id="rId456" display="https://fsr.cvmailuk.com/bevanbrittan/main.cfm?srxksl=1" tooltip="https://fsr.cvmailuk.com/bevanbrittan/main.cfm?srxksl=1"/>
+    <hyperlink ref="C555" r:id="rId457" display="https://jobs.ajg.com/ajg-uk/jobs" tooltip="https://jobs.ajg.com/ajg-uk/jobs"/>
+    <hyperlink ref="C556" r:id="rId458" display="https://klowt.com/join-klowt/#vacancies" tooltip="https://klowt.com/join-klowt/#vacancies"/>
+    <hyperlink ref="C557" r:id="rId459" display="https://www.alpha.pet/en/career/jobs-and-application" tooltip="https://www.alpha.pet/en/career/jobs-and-application"/>
+    <hyperlink ref="C558" r:id="rId460" display="https://www.blueprintpartners.com/job-opportunities" tooltip="https://www.blueprintpartners.com/job-opportunities"/>
+    <hyperlink ref="C559" r:id="rId461" display="https://www.capitaleconomics.com/careers" tooltip="https://www.capitaleconomics.com/careers"/>
+    <hyperlink ref="C560" r:id="rId462" display="https://www.carnallfarrar.com/work-with-us/" tooltip="https://www.carnallfarrar.com/work-with-us/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C419 C344:C346" listDataValidation="1"/>
+    <ignoredError sqref="C344:C346 C419" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14523,10 +14849,10 @@
         <v>231</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1086</v>
+        <v>1118</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1087</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:3">
@@ -14545,10 +14871,10 @@
         <v>389</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1088</v>
+        <v>1120</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1089</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14567,10 +14893,10 @@
         <v>474</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1090</v>
+        <v>1122</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1091</v>
+        <v>1123</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -14579,10 +14905,10 @@
         <v>484</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1092</v>
+        <v>1124</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1093</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -14604,10 +14930,10 @@
         <v>562</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1094</v>
+        <v>1126</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1095</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
